--- a/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
+++ b/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\補習計画（一般生大橋校）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.ueda\Downloads\Desktop\HOKOU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4010,6 +4010,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4019,10 +4112,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4055,139 +4190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4196,11 +4202,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4211,21 +4217,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4244,18 +4244,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4272,15 +4281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="10" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5591,91 +5591,91 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="281" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="283"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="281"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
-      <c r="O7" s="302" t="s">
+      <c r="N7" s="271"/>
+      <c r="O7" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="304"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="259"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="297" t="s">
+      <c r="G8" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="311" t="s">
+      <c r="O8" s="266" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -5690,31 +5690,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="311" t="s">
+      <c r="T8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="312"/>
+      <c r="O9" s="267"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="312" t="s">
+      <c r="T9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6507,36 +6507,36 @@
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="C23" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="259"/>
+      <c r="C23" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="283"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="258">
+      <c r="F23" s="282">
         <v>8</v>
       </c>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="255" t="s">
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284"/>
+      <c r="O23" s="284"/>
+      <c r="P23" s="284"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="284"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="286" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="261"/>
+      <c r="D24" s="306"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -6580,13 +6580,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="256"/>
+      <c r="T24" s="287"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -6630,13 +6630,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="257"/>
+      <c r="T25" s="288"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -6675,8 +6675,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97"/>
       <c r="F27" s="84"/>
       <c r="G27" s="73"/>
@@ -6698,8 +6698,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -6730,8 +6730,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -6764,8 +6764,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="188" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -6796,8 +6796,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -6828,8 +6828,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -6862,8 +6862,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -6892,8 +6892,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="264"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="97"/>
       <c r="F34" s="84"/>
       <c r="G34" s="73"/>
@@ -6915,8 +6915,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="264"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -6941,8 +6941,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="268" t="s">
+      <c r="C36" s="309"/>
+      <c r="D36" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -6973,8 +6973,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31"/>
       <c r="F37" s="84"/>
       <c r="G37" s="73"/>
@@ -6996,8 +6996,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7026,8 +7026,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7054,8 +7054,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7080,8 +7080,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7108,8 +7108,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7138,8 +7138,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7166,8 +7166,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="264"/>
-      <c r="D44" s="266"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="31"/>
       <c r="F44" s="84"/>
       <c r="G44" s="73"/>
@@ -7189,8 +7189,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="265"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="314"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7219,38 +7219,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="259"/>
+      <c r="C47" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="283"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="258">
+      <c r="F47" s="282">
         <v>8</v>
       </c>
-      <c r="G47" s="270"/>
-      <c r="H47" s="270"/>
-      <c r="I47" s="270"/>
-      <c r="J47" s="270"/>
-      <c r="K47" s="270"/>
-      <c r="L47" s="270"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
-      <c r="O47" s="270">
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284">
         <v>9</v>
       </c>
-      <c r="P47" s="270"/>
-      <c r="Q47" s="270"/>
-      <c r="R47" s="270"/>
-      <c r="S47" s="271"/>
-      <c r="T47" s="255" t="s">
+      <c r="P47" s="284"/>
+      <c r="Q47" s="284"/>
+      <c r="R47" s="284"/>
+      <c r="S47" s="285"/>
+      <c r="T47" s="286" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="261"/>
+      <c r="D48" s="306"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -7294,13 +7294,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="256"/>
+      <c r="T48" s="287"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="263"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -7344,13 +7344,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="257"/>
+      <c r="T49" s="288"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="264" t="s">
+      <c r="C50" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="266" t="s">
+      <c r="D50" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -7377,8 +7377,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -7400,8 +7400,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7426,8 +7426,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7452,8 +7452,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="17.25">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7480,8 +7480,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7506,8 +7506,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7532,8 +7532,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7558,8 +7558,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="264"/>
-      <c r="D58" s="266"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -7581,8 +7581,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="264"/>
-      <c r="D59" s="267"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="312"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7607,8 +7607,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="268" t="s">
+      <c r="C60" s="309"/>
+      <c r="D60" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -7635,8 +7635,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -7658,8 +7658,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7684,8 +7684,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7710,8 +7710,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7736,8 +7736,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7762,8 +7762,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7792,8 +7792,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7818,8 +7818,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="264"/>
-      <c r="D68" s="266"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="311"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -7841,8 +7841,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="265"/>
-      <c r="D69" s="269"/>
+      <c r="C69" s="310"/>
+      <c r="D69" s="314"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7872,16 +7872,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
@@ -7898,20 +7902,16 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -8086,91 +8086,91 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="281" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="283"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="281"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
-      <c r="O7" s="302" t="s">
+      <c r="N7" s="271"/>
+      <c r="O7" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="304"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="259"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="315" t="s">
+      <c r="O8" s="317" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -8185,31 +8185,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="311" t="s">
+      <c r="T8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="316"/>
+      <c r="O9" s="318"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="312" t="s">
+      <c r="T9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8982,36 +8982,36 @@
     </row>
     <row r="22" spans="2:20" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:20">
-      <c r="C23" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="259"/>
+      <c r="C23" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="283"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="258">
+      <c r="F23" s="282">
         <v>8</v>
       </c>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="255" t="s">
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284"/>
+      <c r="O23" s="284"/>
+      <c r="P23" s="284"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="284"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="286" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="261"/>
+      <c r="D24" s="306"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -9055,13 +9055,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="256"/>
+      <c r="T24" s="287"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -9105,13 +9105,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="257"/>
+      <c r="T25" s="288"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -9148,8 +9148,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97"/>
       <c r="F27" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F27="","",'55宮本希(第１Q)'!F27)</f>
@@ -9198,8 +9198,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9244,8 +9244,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9290,8 +9290,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9334,8 +9334,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -9378,8 +9378,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -9422,8 +9422,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -9466,8 +9466,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="264"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="97"/>
       <c r="F34" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F34="","",'55宮本希(第１Q)'!F34)</f>
@@ -9507,8 +9507,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="264"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -9551,8 +9551,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="268" t="s">
+      <c r="C36" s="309"/>
+      <c r="D36" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -9621,8 +9621,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31"/>
       <c r="F37" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F37="","",'55宮本希(第１Q)'!F37)</f>
@@ -9686,8 +9686,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9754,8 +9754,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9822,8 +9822,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9890,8 +9890,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -9958,8 +9958,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10026,8 +10026,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10094,8 +10094,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="264"/>
-      <c r="D44" s="266"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="31"/>
       <c r="F44" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F44="","",'55宮本希(第１Q)'!F44)</f>
@@ -10159,8 +10159,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="265"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="314"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10231,38 +10231,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="259"/>
+      <c r="C47" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="283"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="258">
+      <c r="F47" s="282">
         <v>8</v>
       </c>
-      <c r="G47" s="270"/>
-      <c r="H47" s="270"/>
-      <c r="I47" s="270"/>
-      <c r="J47" s="270"/>
-      <c r="K47" s="270"/>
-      <c r="L47" s="270"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
-      <c r="O47" s="270">
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284">
         <v>9</v>
       </c>
-      <c r="P47" s="270"/>
-      <c r="Q47" s="270"/>
-      <c r="R47" s="270"/>
-      <c r="S47" s="271"/>
-      <c r="T47" s="255" t="s">
+      <c r="P47" s="284"/>
+      <c r="Q47" s="284"/>
+      <c r="R47" s="284"/>
+      <c r="S47" s="285"/>
+      <c r="T47" s="286" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="261"/>
+      <c r="D48" s="306"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -10306,13 +10306,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="256"/>
+      <c r="T48" s="287"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="263"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -10356,13 +10356,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="257"/>
+      <c r="T49" s="288"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="264" t="s">
+      <c r="C50" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="266" t="s">
+      <c r="D50" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -10397,8 +10397,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -10420,8 +10420,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10452,8 +10452,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10484,8 +10484,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="18.75">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10516,8 +10516,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -10542,8 +10542,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10574,8 +10574,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10604,8 +10604,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="264"/>
-      <c r="D58" s="266"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -10627,8 +10627,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="264"/>
-      <c r="D59" s="267"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="312"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10653,8 +10653,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="268" t="s">
+      <c r="C60" s="309"/>
+      <c r="D60" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -10681,8 +10681,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -10704,8 +10704,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10730,8 +10730,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10756,8 +10756,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10782,8 +10782,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -10808,8 +10808,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10834,8 +10834,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10860,8 +10860,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="264"/>
-      <c r="D68" s="266"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="311"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -10883,8 +10883,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="265"/>
-      <c r="D69" s="269"/>
+      <c r="C69" s="310"/>
+      <c r="D69" s="314"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10914,18 +10914,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:N47"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="C23:D23"/>
@@ -10942,18 +10942,18 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -11124,96 +11124,96 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="305" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="282" t="s">
+      <c r="P6" s="280" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="283"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="281"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="324"/>
-      <c r="P7" s="303" t="s">
+      <c r="P7" s="258" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="303"/>
-      <c r="U7" s="304"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="259"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
-      <c r="P8" s="325" t="s">
+      <c r="P8" s="319" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="123" t="s">
@@ -11228,32 +11228,32 @@
       <c r="T8" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="311" t="s">
+      <c r="U8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="306"/>
-      <c r="P9" s="326"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="320"/>
       <c r="Q9" s="123" t="s">
         <v>149</v>
       </c>
@@ -11266,7 +11266,7 @@
       <c r="T9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="312" t="s">
+      <c r="U9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12094,38 +12094,38 @@
     </row>
     <row r="22" spans="2:22" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:22">
-      <c r="C23" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="259"/>
+      <c r="C23" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="283"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="322">
+      <c r="F23" s="325">
         <v>11</v>
       </c>
-      <c r="G23" s="323"/>
-      <c r="H23" s="323"/>
-      <c r="I23" s="323"/>
-      <c r="J23" s="323"/>
-      <c r="K23" s="323"/>
-      <c r="L23" s="323"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="323"/>
-      <c r="Q23" s="323"/>
-      <c r="R23" s="323"/>
-      <c r="S23" s="323"/>
-      <c r="T23" s="323"/>
-      <c r="U23" s="319"/>
-      <c r="V23" s="319" t="s">
+      <c r="G23" s="326"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="326"/>
+      <c r="K23" s="326"/>
+      <c r="L23" s="326"/>
+      <c r="M23" s="326"/>
+      <c r="N23" s="326"/>
+      <c r="O23" s="326"/>
+      <c r="P23" s="326"/>
+      <c r="Q23" s="326"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="321"/>
+      <c r="V23" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:22">
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="261"/>
+      <c r="D24" s="306"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>16</v>
@@ -12173,13 +12173,13 @@
         <v>30</v>
       </c>
       <c r="U24" s="91"/>
-      <c r="V24" s="320"/>
+      <c r="V24" s="322"/>
     </row>
     <row r="25" spans="2:22" ht="14.25" thickBot="1">
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>145</v>
@@ -12227,13 +12227,13 @@
         <v>118</v>
       </c>
       <c r="U25" s="203"/>
-      <c r="V25" s="321"/>
+      <c r="V25" s="323"/>
     </row>
     <row r="26" spans="2:22" ht="17.25">
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="s">
@@ -12263,8 +12263,8 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -12290,8 +12290,8 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -12319,8 +12319,8 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -12352,8 +12352,8 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -12379,8 +12379,8 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -12408,8 +12408,8 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -12435,8 +12435,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="s">
         <v>140</v>
       </c>
@@ -12466,8 +12466,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="17.25">
-      <c r="C34" s="264"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="97" t="s">
         <v>141</v>
       </c>
@@ -12497,8 +12497,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="18" thickBot="1">
-      <c r="C35" s="264"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="98" t="s">
         <v>142</v>
       </c>
@@ -12524,8 +12524,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="268" t="s">
+      <c r="C36" s="309"/>
+      <c r="D36" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -12553,8 +12553,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -12596,8 +12596,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -12623,8 +12623,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="s">
         <v>170</v>
       </c>
@@ -12656,8 +12656,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -12683,8 +12683,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -12710,8 +12710,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -12737,8 +12737,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="s">
         <v>140</v>
       </c>
@@ -12764,8 +12764,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="17.25">
-      <c r="C44" s="264"/>
-      <c r="D44" s="266"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="31" t="s">
         <v>141</v>
       </c>
@@ -12791,8 +12791,8 @@
       </c>
     </row>
     <row r="45" spans="3:22" ht="18" thickBot="1">
-      <c r="C45" s="265"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="314"/>
       <c r="E45" s="99" t="s">
         <v>142</v>
       </c>
@@ -12822,38 +12822,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="259"/>
+      <c r="C47" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="283"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="322">
+      <c r="F47" s="325">
         <v>12</v>
       </c>
-      <c r="G47" s="323"/>
-      <c r="H47" s="323"/>
-      <c r="I47" s="323"/>
-      <c r="J47" s="323"/>
-      <c r="K47" s="323"/>
-      <c r="L47" s="323"/>
-      <c r="M47" s="323"/>
-      <c r="N47" s="323"/>
-      <c r="O47" s="323"/>
-      <c r="P47" s="323"/>
-      <c r="Q47" s="323"/>
-      <c r="R47" s="323"/>
-      <c r="S47" s="323"/>
-      <c r="T47" s="323"/>
-      <c r="U47" s="319"/>
-      <c r="V47" s="319" t="s">
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="326"/>
+      <c r="N47" s="326"/>
+      <c r="O47" s="326"/>
+      <c r="P47" s="326"/>
+      <c r="Q47" s="326"/>
+      <c r="R47" s="326"/>
+      <c r="S47" s="326"/>
+      <c r="T47" s="326"/>
+      <c r="U47" s="321"/>
+      <c r="V47" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:22">
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="261"/>
+      <c r="D48" s="306"/>
       <c r="E48" s="78"/>
       <c r="F48" s="81">
         <v>1</v>
@@ -12901,13 +12901,13 @@
         <v>15</v>
       </c>
       <c r="U48" s="91"/>
-      <c r="V48" s="320"/>
+      <c r="V48" s="322"/>
     </row>
     <row r="49" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="263"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>146</v>
@@ -12955,13 +12955,13 @@
         <v>119</v>
       </c>
       <c r="U49" s="203"/>
-      <c r="V49" s="321"/>
+      <c r="V49" s="323"/>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="264" t="s">
+      <c r="C50" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="266" t="s">
+      <c r="D50" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="s">
@@ -12989,8 +12989,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -13016,8 +13016,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -13043,8 +13043,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -13080,8 +13080,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -13123,8 +13123,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -13160,8 +13160,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -13189,8 +13189,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="s">
         <v>140</v>
       </c>
@@ -13216,8 +13216,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="17.25">
-      <c r="C58" s="264"/>
-      <c r="D58" s="266"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="97" t="s">
         <v>141</v>
       </c>
@@ -13243,8 +13243,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="18" thickBot="1">
-      <c r="C59" s="264"/>
-      <c r="D59" s="267"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="312"/>
       <c r="E59" s="98" t="s">
         <v>142</v>
       </c>
@@ -13282,8 +13282,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="268" t="s">
+      <c r="C60" s="309"/>
+      <c r="D60" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="s">
@@ -13311,8 +13311,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -13338,8 +13338,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -13365,8 +13365,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -13392,8 +13392,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -13423,8 +13423,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -13450,8 +13450,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -13477,8 +13477,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="s">
         <v>140</v>
       </c>
@@ -13504,8 +13504,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="17.25">
-      <c r="C68" s="264"/>
-      <c r="D68" s="266"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="311"/>
       <c r="E68" s="31" t="s">
         <v>141</v>
       </c>
@@ -13531,8 +13531,8 @@
       </c>
     </row>
     <row r="69" spans="3:22" ht="18" thickBot="1">
-      <c r="C69" s="265"/>
-      <c r="D69" s="269"/>
+      <c r="C69" s="310"/>
+      <c r="D69" s="314"/>
       <c r="E69" s="99" t="s">
         <v>142</v>
       </c>
@@ -13562,38 +13562,38 @@
       <c r="D70" s="72"/>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="259"/>
+      <c r="C71" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="283"/>
       <c r="E71" s="77"/>
-      <c r="F71" s="322">
+      <c r="F71" s="325">
         <v>12</v>
       </c>
-      <c r="G71" s="323"/>
-      <c r="H71" s="323"/>
-      <c r="I71" s="323"/>
-      <c r="J71" s="323"/>
-      <c r="K71" s="323"/>
-      <c r="L71" s="323"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="323"/>
-      <c r="O71" s="323"/>
-      <c r="P71" s="323"/>
-      <c r="Q71" s="323"/>
-      <c r="R71" s="323"/>
-      <c r="S71" s="323"/>
-      <c r="T71" s="323"/>
-      <c r="U71" s="319"/>
-      <c r="V71" s="319" t="s">
+      <c r="G71" s="326"/>
+      <c r="H71" s="326"/>
+      <c r="I71" s="326"/>
+      <c r="J71" s="326"/>
+      <c r="K71" s="326"/>
+      <c r="L71" s="326"/>
+      <c r="M71" s="326"/>
+      <c r="N71" s="326"/>
+      <c r="O71" s="326"/>
+      <c r="P71" s="326"/>
+      <c r="Q71" s="326"/>
+      <c r="R71" s="326"/>
+      <c r="S71" s="326"/>
+      <c r="T71" s="326"/>
+      <c r="U71" s="321"/>
+      <c r="V71" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="3:22">
-      <c r="C72" s="260" t="s">
+      <c r="C72" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="261"/>
+      <c r="D72" s="306"/>
       <c r="E72" s="78"/>
       <c r="F72" s="81">
         <v>16</v>
@@ -13643,13 +13643,13 @@
       <c r="U72" s="91">
         <v>31</v>
       </c>
-      <c r="V72" s="320"/>
+      <c r="V72" s="322"/>
     </row>
     <row r="73" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C73" s="262" t="s">
+      <c r="C73" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="263"/>
+      <c r="D73" s="308"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145" t="s">
         <v>147</v>
@@ -13699,13 +13699,13 @@
       <c r="U73" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V73" s="321"/>
+      <c r="V73" s="323"/>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="264" t="s">
+      <c r="C74" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="266" t="s">
+      <c r="D74" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="96" t="s">
@@ -13733,8 +13733,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="264"/>
-      <c r="D75" s="266"/>
+      <c r="C75" s="309"/>
+      <c r="D75" s="311"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -13760,8 +13760,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="264"/>
-      <c r="D76" s="266"/>
+      <c r="C76" s="309"/>
+      <c r="D76" s="311"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -13787,8 +13787,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="264"/>
-      <c r="D77" s="266"/>
+      <c r="C77" s="309"/>
+      <c r="D77" s="311"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -13814,8 +13814,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="264"/>
-      <c r="D78" s="266"/>
+      <c r="C78" s="309"/>
+      <c r="D78" s="311"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -13855,8 +13855,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="264"/>
-      <c r="D79" s="266"/>
+      <c r="C79" s="309"/>
+      <c r="D79" s="311"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -13882,8 +13882,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="264"/>
-      <c r="D80" s="266"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="311"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -13909,8 +13909,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="264"/>
-      <c r="D81" s="266"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="311"/>
       <c r="E81" s="97" t="s">
         <v>140</v>
       </c>
@@ -13936,8 +13936,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="17.25">
-      <c r="C82" s="264"/>
-      <c r="D82" s="266"/>
+      <c r="C82" s="309"/>
+      <c r="D82" s="311"/>
       <c r="E82" s="97" t="s">
         <v>141</v>
       </c>
@@ -13963,8 +13963,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="18" thickBot="1">
-      <c r="C83" s="264"/>
-      <c r="D83" s="267"/>
+      <c r="C83" s="309"/>
+      <c r="D83" s="312"/>
       <c r="E83" s="98" t="s">
         <v>142</v>
       </c>
@@ -14006,8 +14006,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="264"/>
-      <c r="D84" s="268" t="s">
+      <c r="C84" s="309"/>
+      <c r="D84" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="32" t="s">
@@ -14035,8 +14035,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="264"/>
-      <c r="D85" s="266"/>
+      <c r="C85" s="309"/>
+      <c r="D85" s="311"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -14062,8 +14062,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="264"/>
-      <c r="D86" s="266"/>
+      <c r="C86" s="309"/>
+      <c r="D86" s="311"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -14089,8 +14089,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="264"/>
-      <c r="D87" s="266"/>
+      <c r="C87" s="309"/>
+      <c r="D87" s="311"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -14116,8 +14116,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="264"/>
-      <c r="D88" s="266"/>
+      <c r="C88" s="309"/>
+      <c r="D88" s="311"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -14143,8 +14143,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="264"/>
-      <c r="D89" s="266"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="311"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -14170,8 +14170,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="264"/>
-      <c r="D90" s="266"/>
+      <c r="C90" s="309"/>
+      <c r="D90" s="311"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -14197,8 +14197,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="264"/>
-      <c r="D91" s="266"/>
+      <c r="C91" s="309"/>
+      <c r="D91" s="311"/>
       <c r="E91" s="31" t="s">
         <v>140</v>
       </c>
@@ -14224,8 +14224,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="17.25">
-      <c r="C92" s="264"/>
-      <c r="D92" s="266"/>
+      <c r="C92" s="309"/>
+      <c r="D92" s="311"/>
       <c r="E92" s="31" t="s">
         <v>141</v>
       </c>
@@ -14251,8 +14251,8 @@
       </c>
     </row>
     <row r="93" spans="3:22" ht="18" thickBot="1">
-      <c r="C93" s="265"/>
-      <c r="D93" s="269"/>
+      <c r="C93" s="310"/>
+      <c r="D93" s="314"/>
       <c r="E93" s="99" t="s">
         <v>142</v>
       </c>
@@ -14281,19 +14281,25 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:C93"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="D84:D93"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:U71"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:U47"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="C24:D24"/>
@@ -14310,25 +14316,19 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:U47"/>
-    <mergeCell ref="C74:C93"/>
-    <mergeCell ref="D74:D83"/>
-    <mergeCell ref="D84:D93"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:U71"/>
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -14499,13 +14499,13 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="305" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="260" t="s">
         <v>144</v>
       </c>
       <c r="P6" s="327" t="s">
@@ -14521,29 +14521,29 @@
     <row r="7" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="324"/>
       <c r="P7" s="330" t="s">
         <v>81</v>
@@ -14558,39 +14558,39 @@
     <row r="8" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
-      <c r="P8" s="325" t="s">
+      <c r="P8" s="319" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="124" t="s">
@@ -14611,32 +14611,32 @@
       <c r="V8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="311" t="s">
+      <c r="W8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="306"/>
-      <c r="P9" s="326"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="320"/>
       <c r="Q9" s="124" t="s">
         <v>153</v>
       </c>
@@ -14655,7 +14655,7 @@
       <c r="V9" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="312" t="s">
+      <c r="W9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15445,38 +15445,38 @@
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="C22" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="259"/>
+      <c r="C22" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="283"/>
       <c r="E22" s="77"/>
-      <c r="F22" s="322">
+      <c r="F22" s="325">
         <v>12</v>
       </c>
-      <c r="G22" s="323"/>
-      <c r="H22" s="323"/>
-      <c r="I22" s="323"/>
-      <c r="J22" s="323"/>
-      <c r="K22" s="323"/>
-      <c r="L22" s="323"/>
-      <c r="M22" s="323"/>
-      <c r="N22" s="323"/>
-      <c r="O22" s="323"/>
-      <c r="P22" s="323"/>
-      <c r="Q22" s="323"/>
-      <c r="R22" s="323"/>
-      <c r="S22" s="323"/>
-      <c r="T22" s="323"/>
-      <c r="U22" s="319"/>
-      <c r="V22" s="319" t="s">
+      <c r="G22" s="326"/>
+      <c r="H22" s="326"/>
+      <c r="I22" s="326"/>
+      <c r="J22" s="326"/>
+      <c r="K22" s="326"/>
+      <c r="L22" s="326"/>
+      <c r="M22" s="326"/>
+      <c r="N22" s="326"/>
+      <c r="O22" s="326"/>
+      <c r="P22" s="326"/>
+      <c r="Q22" s="326"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="321"/>
+      <c r="V22" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="C23" s="260" t="s">
+      <c r="C23" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="261"/>
+      <c r="D23" s="306"/>
       <c r="E23" s="78"/>
       <c r="F23" s="81">
         <v>1</v>
@@ -15524,13 +15524,13 @@
         <v>15</v>
       </c>
       <c r="U23" s="91"/>
-      <c r="V23" s="320"/>
+      <c r="V23" s="322"/>
     </row>
     <row r="24" spans="2:24" ht="14.25" thickBot="1">
-      <c r="C24" s="262" t="s">
+      <c r="C24" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="263"/>
+      <c r="D24" s="308"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145" t="s">
         <v>146</v>
@@ -15578,13 +15578,13 @@
         <v>119</v>
       </c>
       <c r="U24" s="203"/>
-      <c r="V24" s="321"/>
+      <c r="V24" s="323"/>
     </row>
     <row r="25" spans="2:24" ht="17.25">
-      <c r="C25" s="264" t="s">
+      <c r="C25" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="266" t="s">
+      <c r="D25" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="96" t="s">
@@ -15612,8 +15612,8 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="17.25">
-      <c r="C26" s="264"/>
-      <c r="D26" s="266"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="97" t="s">
         <v>158</v>
       </c>
@@ -15639,8 +15639,8 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -15666,8 +15666,8 @@
       </c>
     </row>
     <row r="28" spans="2:24" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -15693,8 +15693,8 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -15720,8 +15720,8 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -15747,8 +15747,8 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -15774,8 +15774,8 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -15801,8 +15801,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="s">
         <v>142</v>
       </c>
@@ -15828,8 +15828,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="18" thickBot="1">
-      <c r="C34" s="264"/>
-      <c r="D34" s="267"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="312"/>
       <c r="E34" s="98"/>
       <c r="F34" s="195"/>
       <c r="G34" s="196"/>
@@ -15853,8 +15853,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="17.25">
-      <c r="C35" s="264"/>
-      <c r="D35" s="268" t="s">
+      <c r="C35" s="309"/>
+      <c r="D35" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="32" t="s">
@@ -15882,8 +15882,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="266"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="311"/>
       <c r="E36" s="31" t="s">
         <v>158</v>
       </c>
@@ -15909,8 +15909,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -15936,8 +15936,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -15963,8 +15963,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="s">
         <v>136</v>
       </c>
@@ -15990,8 +15990,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -16023,8 +16023,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -16050,8 +16050,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -16077,8 +16077,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="s">
         <v>142</v>
       </c>
@@ -16104,8 +16104,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="18" thickBot="1">
-      <c r="C44" s="265"/>
-      <c r="D44" s="269"/>
+      <c r="C44" s="310"/>
+      <c r="D44" s="314"/>
       <c r="E44" s="99"/>
       <c r="F44" s="197"/>
       <c r="G44" s="198"/>
@@ -16133,38 +16133,38 @@
       <c r="D45" s="72"/>
     </row>
     <row r="46" spans="3:22">
-      <c r="C46" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="259"/>
+      <c r="C46" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="283"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="322">
+      <c r="F46" s="325">
         <v>12</v>
       </c>
-      <c r="G46" s="323"/>
-      <c r="H46" s="323"/>
-      <c r="I46" s="323"/>
-      <c r="J46" s="323"/>
-      <c r="K46" s="323"/>
-      <c r="L46" s="323"/>
-      <c r="M46" s="323"/>
-      <c r="N46" s="323"/>
-      <c r="O46" s="323"/>
-      <c r="P46" s="323"/>
-      <c r="Q46" s="323"/>
-      <c r="R46" s="323"/>
-      <c r="S46" s="323"/>
-      <c r="T46" s="323"/>
-      <c r="U46" s="319"/>
-      <c r="V46" s="319" t="s">
+      <c r="G46" s="326"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="326"/>
+      <c r="N46" s="326"/>
+      <c r="O46" s="326"/>
+      <c r="P46" s="326"/>
+      <c r="Q46" s="326"/>
+      <c r="R46" s="326"/>
+      <c r="S46" s="326"/>
+      <c r="T46" s="326"/>
+      <c r="U46" s="321"/>
+      <c r="V46" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="260" t="s">
+      <c r="C47" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="261"/>
+      <c r="D47" s="306"/>
       <c r="E47" s="78"/>
       <c r="F47" s="81">
         <v>16</v>
@@ -16214,13 +16214,13 @@
       <c r="U47" s="91">
         <v>31</v>
       </c>
-      <c r="V47" s="320"/>
+      <c r="V47" s="322"/>
     </row>
     <row r="48" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C48" s="262" t="s">
+      <c r="C48" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="263"/>
+      <c r="D48" s="308"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145" t="s">
         <v>147</v>
@@ -16270,13 +16270,13 @@
       <c r="U48" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V48" s="321"/>
+      <c r="V48" s="323"/>
     </row>
     <row r="49" spans="3:22" ht="17.25">
-      <c r="C49" s="264" t="s">
+      <c r="C49" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="266" t="s">
+      <c r="D49" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="96" t="s">
@@ -16304,8 +16304,8 @@
       </c>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="264"/>
-      <c r="D50" s="266"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="311"/>
       <c r="E50" s="97" t="s">
         <v>158</v>
       </c>
@@ -16331,8 +16331,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -16358,8 +16358,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -16385,8 +16385,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -16412,8 +16412,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -16439,8 +16439,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -16466,8 +16466,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -16493,8 +16493,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="s">
         <v>142</v>
       </c>
@@ -16520,8 +16520,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="18" thickBot="1">
-      <c r="C58" s="264"/>
-      <c r="D58" s="267"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="312"/>
       <c r="E58" s="98"/>
       <c r="F58" s="195"/>
       <c r="G58" s="196"/>
@@ -16545,8 +16545,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="17.25">
-      <c r="C59" s="264"/>
-      <c r="D59" s="268" t="s">
+      <c r="C59" s="309"/>
+      <c r="D59" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="32" t="s">
@@ -16574,8 +16574,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="266"/>
+      <c r="C60" s="309"/>
+      <c r="D60" s="311"/>
       <c r="E60" s="31" t="s">
         <v>158</v>
       </c>
@@ -16601,8 +16601,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -16628,8 +16628,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -16655,8 +16655,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -16684,8 +16684,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -16711,8 +16711,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -16738,8 +16738,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -16765,8 +16765,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="s">
         <v>142</v>
       </c>
@@ -16792,8 +16792,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="18" thickBot="1">
-      <c r="C68" s="265"/>
-      <c r="D68" s="269"/>
+      <c r="C68" s="310"/>
+      <c r="D68" s="314"/>
       <c r="E68" s="99"/>
       <c r="F68" s="197"/>
       <c r="G68" s="198"/>
@@ -16818,38 +16818,38 @@
     </row>
     <row r="69" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="70" spans="3:22">
-      <c r="C70" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="259"/>
+      <c r="C70" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="283"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="322">
+      <c r="F70" s="325">
         <v>1</v>
       </c>
-      <c r="G70" s="323"/>
-      <c r="H70" s="323"/>
-      <c r="I70" s="323"/>
-      <c r="J70" s="323"/>
-      <c r="K70" s="323"/>
-      <c r="L70" s="323"/>
-      <c r="M70" s="323"/>
-      <c r="N70" s="323"/>
-      <c r="O70" s="323"/>
-      <c r="P70" s="323"/>
-      <c r="Q70" s="323"/>
-      <c r="R70" s="323"/>
-      <c r="S70" s="323"/>
-      <c r="T70" s="323"/>
-      <c r="U70" s="319"/>
-      <c r="V70" s="319" t="s">
+      <c r="G70" s="326"/>
+      <c r="H70" s="326"/>
+      <c r="I70" s="326"/>
+      <c r="J70" s="326"/>
+      <c r="K70" s="326"/>
+      <c r="L70" s="326"/>
+      <c r="M70" s="326"/>
+      <c r="N70" s="326"/>
+      <c r="O70" s="326"/>
+      <c r="P70" s="326"/>
+      <c r="Q70" s="326"/>
+      <c r="R70" s="326"/>
+      <c r="S70" s="326"/>
+      <c r="T70" s="326"/>
+      <c r="U70" s="321"/>
+      <c r="V70" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="260" t="s">
+      <c r="C71" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="261"/>
+      <c r="D71" s="306"/>
       <c r="E71" s="78"/>
       <c r="F71" s="81">
         <v>1</v>
@@ -16897,13 +16897,13 @@
         <v>15</v>
       </c>
       <c r="U71" s="91"/>
-      <c r="V71" s="320"/>
+      <c r="V71" s="322"/>
     </row>
     <row r="72" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C72" s="262" t="s">
+      <c r="C72" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="263"/>
+      <c r="D72" s="308"/>
       <c r="E72" s="79"/>
       <c r="F72" s="82" t="s">
         <v>160</v>
@@ -16951,13 +16951,13 @@
         <v>122</v>
       </c>
       <c r="U72" s="203"/>
-      <c r="V72" s="321"/>
+      <c r="V72" s="323"/>
     </row>
     <row r="73" spans="3:22" ht="17.25">
-      <c r="C73" s="264" t="s">
+      <c r="C73" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="266" t="s">
+      <c r="D73" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="96" t="s">
@@ -16999,8 +16999,8 @@
       </c>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="264"/>
-      <c r="D74" s="266"/>
+      <c r="C74" s="309"/>
+      <c r="D74" s="311"/>
       <c r="E74" s="97" t="s">
         <v>158</v>
       </c>
@@ -17028,8 +17028,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="264"/>
-      <c r="D75" s="266"/>
+      <c r="C75" s="309"/>
+      <c r="D75" s="311"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -17055,8 +17055,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="264"/>
-      <c r="D76" s="266"/>
+      <c r="C76" s="309"/>
+      <c r="D76" s="311"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -17096,8 +17096,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="264"/>
-      <c r="D77" s="266"/>
+      <c r="C77" s="309"/>
+      <c r="D77" s="311"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -17131,8 +17131,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="264"/>
-      <c r="D78" s="266"/>
+      <c r="C78" s="309"/>
+      <c r="D78" s="311"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -17160,8 +17160,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="264"/>
-      <c r="D79" s="266"/>
+      <c r="C79" s="309"/>
+      <c r="D79" s="311"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -17187,8 +17187,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="264"/>
-      <c r="D80" s="266"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="311"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -17214,8 +17214,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="264"/>
-      <c r="D81" s="266"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="311"/>
       <c r="E81" s="97" t="s">
         <v>142</v>
       </c>
@@ -17241,8 +17241,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="18" thickBot="1">
-      <c r="C82" s="264"/>
-      <c r="D82" s="267"/>
+      <c r="C82" s="309"/>
+      <c r="D82" s="312"/>
       <c r="E82" s="98"/>
       <c r="F82" s="171"/>
       <c r="G82" s="173"/>
@@ -17266,8 +17266,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="17.25">
-      <c r="C83" s="264"/>
-      <c r="D83" s="268" t="s">
+      <c r="C83" s="309"/>
+      <c r="D83" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="32" t="s">
@@ -17295,8 +17295,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="264"/>
-      <c r="D84" s="266"/>
+      <c r="C84" s="309"/>
+      <c r="D84" s="311"/>
       <c r="E84" s="31" t="s">
         <v>158</v>
       </c>
@@ -17322,8 +17322,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="264"/>
-      <c r="D85" s="266"/>
+      <c r="C85" s="309"/>
+      <c r="D85" s="311"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -17349,8 +17349,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="264"/>
-      <c r="D86" s="266"/>
+      <c r="C86" s="309"/>
+      <c r="D86" s="311"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -17376,8 +17376,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="264"/>
-      <c r="D87" s="266"/>
+      <c r="C87" s="309"/>
+      <c r="D87" s="311"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -17403,8 +17403,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="264"/>
-      <c r="D88" s="266"/>
+      <c r="C88" s="309"/>
+      <c r="D88" s="311"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -17430,8 +17430,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="264"/>
-      <c r="D89" s="266"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="311"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -17457,8 +17457,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="264"/>
-      <c r="D90" s="266"/>
+      <c r="C90" s="309"/>
+      <c r="D90" s="311"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -17484,8 +17484,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="264"/>
-      <c r="D91" s="266"/>
+      <c r="C91" s="309"/>
+      <c r="D91" s="311"/>
       <c r="E91" s="31" t="s">
         <v>142</v>
       </c>
@@ -17511,8 +17511,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="18" thickBot="1">
-      <c r="C92" s="265"/>
-      <c r="D92" s="269"/>
+      <c r="C92" s="310"/>
+      <c r="D92" s="314"/>
       <c r="E92" s="99"/>
       <c r="F92" s="176"/>
       <c r="G92" s="178"/>
@@ -17540,38 +17540,38 @@
       <c r="D93" s="72"/>
     </row>
     <row r="94" spans="3:22">
-      <c r="C94" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="259"/>
+      <c r="C94" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="283"/>
       <c r="E94" s="77"/>
-      <c r="F94" s="322">
+      <c r="F94" s="325">
         <v>1</v>
       </c>
-      <c r="G94" s="323"/>
-      <c r="H94" s="323"/>
-      <c r="I94" s="323"/>
-      <c r="J94" s="323"/>
-      <c r="K94" s="323"/>
-      <c r="L94" s="323"/>
-      <c r="M94" s="323"/>
-      <c r="N94" s="323"/>
-      <c r="O94" s="323"/>
-      <c r="P94" s="323"/>
-      <c r="Q94" s="323"/>
-      <c r="R94" s="323"/>
-      <c r="S94" s="323"/>
-      <c r="T94" s="323"/>
-      <c r="U94" s="319"/>
-      <c r="V94" s="319" t="s">
+      <c r="G94" s="326"/>
+      <c r="H94" s="326"/>
+      <c r="I94" s="326"/>
+      <c r="J94" s="326"/>
+      <c r="K94" s="326"/>
+      <c r="L94" s="326"/>
+      <c r="M94" s="326"/>
+      <c r="N94" s="326"/>
+      <c r="O94" s="326"/>
+      <c r="P94" s="326"/>
+      <c r="Q94" s="326"/>
+      <c r="R94" s="326"/>
+      <c r="S94" s="326"/>
+      <c r="T94" s="326"/>
+      <c r="U94" s="321"/>
+      <c r="V94" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="3:22">
-      <c r="C95" s="260" t="s">
+      <c r="C95" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="261"/>
+      <c r="D95" s="306"/>
       <c r="E95" s="78"/>
       <c r="F95" s="81">
         <v>16</v>
@@ -17621,13 +17621,13 @@
       <c r="U95" s="91">
         <v>31</v>
       </c>
-      <c r="V95" s="320"/>
+      <c r="V95" s="322"/>
     </row>
     <row r="96" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C96" s="262" t="s">
+      <c r="C96" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="263"/>
+      <c r="D96" s="308"/>
       <c r="E96" s="79"/>
       <c r="F96" s="82" t="s">
         <v>161</v>
@@ -17677,13 +17677,13 @@
       <c r="U96" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="V96" s="321"/>
+      <c r="V96" s="323"/>
     </row>
     <row r="97" spans="3:22" ht="17.25">
-      <c r="C97" s="264" t="s">
+      <c r="C97" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="266" t="s">
+      <c r="D97" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E97" s="96" t="s">
@@ -17711,8 +17711,8 @@
       </c>
     </row>
     <row r="98" spans="3:22" ht="17.25">
-      <c r="C98" s="264"/>
-      <c r="D98" s="266"/>
+      <c r="C98" s="309"/>
+      <c r="D98" s="311"/>
       <c r="E98" s="97" t="s">
         <v>158</v>
       </c>
@@ -17738,8 +17738,8 @@
       </c>
     </row>
     <row r="99" spans="3:22" ht="17.25">
-      <c r="C99" s="264"/>
-      <c r="D99" s="266"/>
+      <c r="C99" s="309"/>
+      <c r="D99" s="311"/>
       <c r="E99" s="97" t="s">
         <v>134</v>
       </c>
@@ -17765,8 +17765,8 @@
       </c>
     </row>
     <row r="100" spans="3:22" ht="17.25">
-      <c r="C100" s="264"/>
-      <c r="D100" s="266"/>
+      <c r="C100" s="309"/>
+      <c r="D100" s="311"/>
       <c r="E100" s="97" t="s">
         <v>135</v>
       </c>
@@ -17794,8 +17794,8 @@
       </c>
     </row>
     <row r="101" spans="3:22" ht="17.25">
-      <c r="C101" s="264"/>
-      <c r="D101" s="266"/>
+      <c r="C101" s="309"/>
+      <c r="D101" s="311"/>
       <c r="E101" s="97" t="s">
         <v>136</v>
       </c>
@@ -17827,8 +17827,8 @@
       </c>
     </row>
     <row r="102" spans="3:22" ht="17.25">
-      <c r="C102" s="264"/>
-      <c r="D102" s="266"/>
+      <c r="C102" s="309"/>
+      <c r="D102" s="311"/>
       <c r="E102" s="97" t="s">
         <v>137</v>
       </c>
@@ -17864,8 +17864,8 @@
       </c>
     </row>
     <row r="103" spans="3:22" ht="17.25">
-      <c r="C103" s="264"/>
-      <c r="D103" s="266"/>
+      <c r="C103" s="309"/>
+      <c r="D103" s="311"/>
       <c r="E103" s="97" t="s">
         <v>138</v>
       </c>
@@ -17909,8 +17909,8 @@
       </c>
     </row>
     <row r="104" spans="3:22" ht="17.25">
-      <c r="C104" s="264"/>
-      <c r="D104" s="266"/>
+      <c r="C104" s="309"/>
+      <c r="D104" s="311"/>
       <c r="E104" s="97" t="s">
         <v>139</v>
       </c>
@@ -17954,8 +17954,8 @@
       </c>
     </row>
     <row r="105" spans="3:22" ht="17.25">
-      <c r="C105" s="264"/>
-      <c r="D105" s="266"/>
+      <c r="C105" s="309"/>
+      <c r="D105" s="311"/>
       <c r="E105" s="97" t="s">
         <v>142</v>
       </c>
@@ -17981,8 +17981,8 @@
       </c>
     </row>
     <row r="106" spans="3:22" ht="18" thickBot="1">
-      <c r="C106" s="264"/>
-      <c r="D106" s="267"/>
+      <c r="C106" s="309"/>
+      <c r="D106" s="312"/>
       <c r="E106" s="98"/>
       <c r="F106" s="171"/>
       <c r="G106" s="196"/>
@@ -18006,8 +18006,8 @@
       </c>
     </row>
     <row r="107" spans="3:22" ht="17.25">
-      <c r="C107" s="264"/>
-      <c r="D107" s="268" t="s">
+      <c r="C107" s="309"/>
+      <c r="D107" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="32" t="s">
@@ -18035,8 +18035,8 @@
       </c>
     </row>
     <row r="108" spans="3:22" ht="17.25">
-      <c r="C108" s="264"/>
-      <c r="D108" s="266"/>
+      <c r="C108" s="309"/>
+      <c r="D108" s="311"/>
       <c r="E108" s="31" t="s">
         <v>158</v>
       </c>
@@ -18062,8 +18062,8 @@
       </c>
     </row>
     <row r="109" spans="3:22" ht="17.25">
-      <c r="C109" s="264"/>
-      <c r="D109" s="266"/>
+      <c r="C109" s="309"/>
+      <c r="D109" s="311"/>
       <c r="E109" s="31" t="s">
         <v>134</v>
       </c>
@@ -18089,8 +18089,8 @@
       </c>
     </row>
     <row r="110" spans="3:22" ht="17.25">
-      <c r="C110" s="264"/>
-      <c r="D110" s="266"/>
+      <c r="C110" s="309"/>
+      <c r="D110" s="311"/>
       <c r="E110" s="31" t="s">
         <v>135</v>
       </c>
@@ -18116,8 +18116,8 @@
       </c>
     </row>
     <row r="111" spans="3:22" ht="17.25">
-      <c r="C111" s="264"/>
-      <c r="D111" s="266"/>
+      <c r="C111" s="309"/>
+      <c r="D111" s="311"/>
       <c r="E111" s="31" t="s">
         <v>136</v>
       </c>
@@ -18143,8 +18143,8 @@
       </c>
     </row>
     <row r="112" spans="3:22" ht="17.25">
-      <c r="C112" s="264"/>
-      <c r="D112" s="266"/>
+      <c r="C112" s="309"/>
+      <c r="D112" s="311"/>
       <c r="E112" s="31" t="s">
         <v>137</v>
       </c>
@@ -18170,8 +18170,8 @@
       </c>
     </row>
     <row r="113" spans="3:22" ht="17.25">
-      <c r="C113" s="264"/>
-      <c r="D113" s="266"/>
+      <c r="C113" s="309"/>
+      <c r="D113" s="311"/>
       <c r="E113" s="31" t="s">
         <v>138</v>
       </c>
@@ -18197,8 +18197,8 @@
       </c>
     </row>
     <row r="114" spans="3:22" ht="17.25">
-      <c r="C114" s="264"/>
-      <c r="D114" s="266"/>
+      <c r="C114" s="309"/>
+      <c r="D114" s="311"/>
       <c r="E114" s="31" t="s">
         <v>139</v>
       </c>
@@ -18224,8 +18224,8 @@
       </c>
     </row>
     <row r="115" spans="3:22" ht="17.25">
-      <c r="C115" s="264"/>
-      <c r="D115" s="266"/>
+      <c r="C115" s="309"/>
+      <c r="D115" s="311"/>
       <c r="E115" s="31" t="s">
         <v>142</v>
       </c>
@@ -18251,8 +18251,8 @@
       </c>
     </row>
     <row r="116" spans="3:22" ht="18" thickBot="1">
-      <c r="C116" s="265"/>
-      <c r="D116" s="269"/>
+      <c r="C116" s="310"/>
+      <c r="D116" s="314"/>
       <c r="E116" s="99"/>
       <c r="F116" s="176"/>
       <c r="G116" s="198"/>
@@ -18280,38 +18280,38 @@
       <c r="D117" s="72"/>
     </row>
     <row r="118" spans="3:22">
-      <c r="C118" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="259"/>
+      <c r="C118" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="283"/>
       <c r="E118" s="77"/>
-      <c r="F118" s="322">
+      <c r="F118" s="325">
         <v>2</v>
       </c>
-      <c r="G118" s="323"/>
-      <c r="H118" s="323"/>
-      <c r="I118" s="323"/>
-      <c r="J118" s="323"/>
-      <c r="K118" s="323"/>
-      <c r="L118" s="323"/>
-      <c r="M118" s="323"/>
-      <c r="N118" s="323"/>
-      <c r="O118" s="323"/>
-      <c r="P118" s="323"/>
-      <c r="Q118" s="323"/>
-      <c r="R118" s="323"/>
-      <c r="S118" s="323"/>
-      <c r="T118" s="323"/>
-      <c r="U118" s="319"/>
-      <c r="V118" s="319" t="s">
+      <c r="G118" s="326"/>
+      <c r="H118" s="326"/>
+      <c r="I118" s="326"/>
+      <c r="J118" s="326"/>
+      <c r="K118" s="326"/>
+      <c r="L118" s="326"/>
+      <c r="M118" s="326"/>
+      <c r="N118" s="326"/>
+      <c r="O118" s="326"/>
+      <c r="P118" s="326"/>
+      <c r="Q118" s="326"/>
+      <c r="R118" s="326"/>
+      <c r="S118" s="326"/>
+      <c r="T118" s="326"/>
+      <c r="U118" s="321"/>
+      <c r="V118" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="3:22">
-      <c r="C119" s="260" t="s">
+      <c r="C119" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="261"/>
+      <c r="D119" s="306"/>
       <c r="E119" s="78"/>
       <c r="F119" s="81">
         <v>1</v>
@@ -18359,13 +18359,13 @@
         <v>15</v>
       </c>
       <c r="U119" s="91"/>
-      <c r="V119" s="320"/>
+      <c r="V119" s="322"/>
     </row>
     <row r="120" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C120" s="262" t="s">
+      <c r="C120" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="263"/>
+      <c r="D120" s="308"/>
       <c r="E120" s="79"/>
       <c r="F120" s="145" t="s">
         <v>162</v>
@@ -18413,13 +18413,13 @@
         <v>118</v>
       </c>
       <c r="U120" s="92"/>
-      <c r="V120" s="321"/>
+      <c r="V120" s="323"/>
     </row>
     <row r="121" spans="3:22" ht="17.25">
-      <c r="C121" s="264" t="s">
+      <c r="C121" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="266" t="s">
+      <c r="D121" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="96" t="s">
@@ -18447,8 +18447,8 @@
       </c>
     </row>
     <row r="122" spans="3:22" ht="17.25">
-      <c r="C122" s="264"/>
-      <c r="D122" s="266"/>
+      <c r="C122" s="309"/>
+      <c r="D122" s="311"/>
       <c r="E122" s="97" t="s">
         <v>158</v>
       </c>
@@ -18474,8 +18474,8 @@
       </c>
     </row>
     <row r="123" spans="3:22" ht="17.25">
-      <c r="C123" s="264"/>
-      <c r="D123" s="266"/>
+      <c r="C123" s="309"/>
+      <c r="D123" s="311"/>
       <c r="E123" s="97" t="s">
         <v>134</v>
       </c>
@@ -18501,8 +18501,8 @@
       </c>
     </row>
     <row r="124" spans="3:22" ht="17.25">
-      <c r="C124" s="264"/>
-      <c r="D124" s="266"/>
+      <c r="C124" s="309"/>
+      <c r="D124" s="311"/>
       <c r="E124" s="97" t="s">
         <v>135</v>
       </c>
@@ -18528,8 +18528,8 @@
       </c>
     </row>
     <row r="125" spans="3:22" ht="17.25">
-      <c r="C125" s="264"/>
-      <c r="D125" s="266"/>
+      <c r="C125" s="309"/>
+      <c r="D125" s="311"/>
       <c r="E125" s="97" t="s">
         <v>136</v>
       </c>
@@ -18559,8 +18559,8 @@
       </c>
     </row>
     <row r="126" spans="3:22" ht="17.25">
-      <c r="C126" s="264"/>
-      <c r="D126" s="266"/>
+      <c r="C126" s="309"/>
+      <c r="D126" s="311"/>
       <c r="E126" s="97" t="s">
         <v>137</v>
       </c>
@@ -18586,8 +18586,8 @@
       </c>
     </row>
     <row r="127" spans="3:22" ht="17.25">
-      <c r="C127" s="264"/>
-      <c r="D127" s="266"/>
+      <c r="C127" s="309"/>
+      <c r="D127" s="311"/>
       <c r="E127" s="97" t="s">
         <v>138</v>
       </c>
@@ -18615,8 +18615,8 @@
       </c>
     </row>
     <row r="128" spans="3:22" ht="17.25">
-      <c r="C128" s="264"/>
-      <c r="D128" s="266"/>
+      <c r="C128" s="309"/>
+      <c r="D128" s="311"/>
       <c r="E128" s="97" t="s">
         <v>139</v>
       </c>
@@ -18644,8 +18644,8 @@
       </c>
     </row>
     <row r="129" spans="3:22" ht="17.25">
-      <c r="C129" s="264"/>
-      <c r="D129" s="266"/>
+      <c r="C129" s="309"/>
+      <c r="D129" s="311"/>
       <c r="E129" s="97" t="s">
         <v>142</v>
       </c>
@@ -18687,8 +18687,8 @@
       </c>
     </row>
     <row r="130" spans="3:22" ht="18" thickBot="1">
-      <c r="C130" s="264"/>
-      <c r="D130" s="267"/>
+      <c r="C130" s="309"/>
+      <c r="D130" s="312"/>
       <c r="E130" s="98"/>
       <c r="F130" s="195"/>
       <c r="G130" s="196"/>
@@ -18712,8 +18712,8 @@
       </c>
     </row>
     <row r="131" spans="3:22" ht="17.25">
-      <c r="C131" s="264"/>
-      <c r="D131" s="268" t="s">
+      <c r="C131" s="309"/>
+      <c r="D131" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E131" s="32" t="s">
@@ -18741,8 +18741,8 @@
       </c>
     </row>
     <row r="132" spans="3:22" ht="17.25">
-      <c r="C132" s="264"/>
-      <c r="D132" s="266"/>
+      <c r="C132" s="309"/>
+      <c r="D132" s="311"/>
       <c r="E132" s="31" t="s">
         <v>158</v>
       </c>
@@ -18768,8 +18768,8 @@
       </c>
     </row>
     <row r="133" spans="3:22" ht="17.25">
-      <c r="C133" s="264"/>
-      <c r="D133" s="266"/>
+      <c r="C133" s="309"/>
+      <c r="D133" s="311"/>
       <c r="E133" s="31" t="s">
         <v>134</v>
       </c>
@@ -18795,8 +18795,8 @@
       </c>
     </row>
     <row r="134" spans="3:22" ht="17.25">
-      <c r="C134" s="264"/>
-      <c r="D134" s="266"/>
+      <c r="C134" s="309"/>
+      <c r="D134" s="311"/>
       <c r="E134" s="31" t="s">
         <v>135</v>
       </c>
@@ -18822,8 +18822,8 @@
       </c>
     </row>
     <row r="135" spans="3:22" ht="17.25">
-      <c r="C135" s="264"/>
-      <c r="D135" s="266"/>
+      <c r="C135" s="309"/>
+      <c r="D135" s="311"/>
       <c r="E135" s="31" t="s">
         <v>136</v>
       </c>
@@ -18849,8 +18849,8 @@
       </c>
     </row>
     <row r="136" spans="3:22" ht="17.25">
-      <c r="C136" s="264"/>
-      <c r="D136" s="266"/>
+      <c r="C136" s="309"/>
+      <c r="D136" s="311"/>
       <c r="E136" s="31" t="s">
         <v>137</v>
       </c>
@@ -18876,8 +18876,8 @@
       </c>
     </row>
     <row r="137" spans="3:22" ht="17.25">
-      <c r="C137" s="264"/>
-      <c r="D137" s="266"/>
+      <c r="C137" s="309"/>
+      <c r="D137" s="311"/>
       <c r="E137" s="31" t="s">
         <v>138</v>
       </c>
@@ -18903,8 +18903,8 @@
       </c>
     </row>
     <row r="138" spans="3:22" ht="17.25">
-      <c r="C138" s="264"/>
-      <c r="D138" s="266"/>
+      <c r="C138" s="309"/>
+      <c r="D138" s="311"/>
       <c r="E138" s="31" t="s">
         <v>139</v>
       </c>
@@ -18930,8 +18930,8 @@
       </c>
     </row>
     <row r="139" spans="3:22" ht="17.25">
-      <c r="C139" s="264"/>
-      <c r="D139" s="266"/>
+      <c r="C139" s="309"/>
+      <c r="D139" s="311"/>
       <c r="E139" s="31" t="s">
         <v>142</v>
       </c>
@@ -18957,8 +18957,8 @@
       </c>
     </row>
     <row r="140" spans="3:22" ht="18" thickBot="1">
-      <c r="C140" s="265"/>
-      <c r="D140" s="269"/>
+      <c r="C140" s="310"/>
+      <c r="D140" s="314"/>
       <c r="E140" s="99"/>
       <c r="F140" s="197"/>
       <c r="G140" s="198"/>
@@ -18983,38 +18983,38 @@
     </row>
     <row r="141" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="142" spans="3:22">
-      <c r="C142" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="259"/>
+      <c r="C142" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="283"/>
       <c r="E142" s="77"/>
-      <c r="F142" s="322">
+      <c r="F142" s="325">
         <v>2</v>
       </c>
-      <c r="G142" s="323"/>
-      <c r="H142" s="323"/>
-      <c r="I142" s="323"/>
-      <c r="J142" s="323"/>
-      <c r="K142" s="323"/>
-      <c r="L142" s="323"/>
-      <c r="M142" s="323"/>
-      <c r="N142" s="323"/>
-      <c r="O142" s="323"/>
-      <c r="P142" s="323"/>
-      <c r="Q142" s="323"/>
-      <c r="R142" s="323"/>
-      <c r="S142" s="323"/>
-      <c r="T142" s="323"/>
-      <c r="U142" s="319"/>
-      <c r="V142" s="319" t="s">
+      <c r="G142" s="326"/>
+      <c r="H142" s="326"/>
+      <c r="I142" s="326"/>
+      <c r="J142" s="326"/>
+      <c r="K142" s="326"/>
+      <c r="L142" s="326"/>
+      <c r="M142" s="326"/>
+      <c r="N142" s="326"/>
+      <c r="O142" s="326"/>
+      <c r="P142" s="326"/>
+      <c r="Q142" s="326"/>
+      <c r="R142" s="326"/>
+      <c r="S142" s="326"/>
+      <c r="T142" s="326"/>
+      <c r="U142" s="321"/>
+      <c r="V142" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" spans="3:22">
-      <c r="C143" s="260" t="s">
+      <c r="C143" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="261"/>
+      <c r="D143" s="306"/>
       <c r="E143" s="78"/>
       <c r="F143" s="81">
         <v>16</v>
@@ -19058,13 +19058,13 @@
       <c r="S143" s="86"/>
       <c r="T143" s="86"/>
       <c r="U143" s="91"/>
-      <c r="V143" s="320"/>
+      <c r="V143" s="322"/>
     </row>
     <row r="144" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C144" s="262" t="s">
+      <c r="C144" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="263"/>
+      <c r="D144" s="308"/>
       <c r="E144" s="79"/>
       <c r="F144" s="145" t="s">
         <v>146</v>
@@ -19108,13 +19108,13 @@
       <c r="S144" s="150"/>
       <c r="T144" s="150"/>
       <c r="U144" s="210"/>
-      <c r="V144" s="321"/>
+      <c r="V144" s="323"/>
     </row>
     <row r="145" spans="3:22" ht="17.25">
-      <c r="C145" s="264" t="s">
+      <c r="C145" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="266" t="s">
+      <c r="D145" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E145" s="96" t="s">
@@ -19142,8 +19142,8 @@
       </c>
     </row>
     <row r="146" spans="3:22" ht="17.25">
-      <c r="C146" s="264"/>
-      <c r="D146" s="266"/>
+      <c r="C146" s="309"/>
+      <c r="D146" s="311"/>
       <c r="E146" s="97" t="s">
         <v>158</v>
       </c>
@@ -19169,8 +19169,8 @@
       </c>
     </row>
     <row r="147" spans="3:22" ht="17.25">
-      <c r="C147" s="264"/>
-      <c r="D147" s="266"/>
+      <c r="C147" s="309"/>
+      <c r="D147" s="311"/>
       <c r="E147" s="97" t="s">
         <v>134</v>
       </c>
@@ -19196,8 +19196,8 @@
       </c>
     </row>
     <row r="148" spans="3:22" ht="17.25">
-      <c r="C148" s="264"/>
-      <c r="D148" s="266"/>
+      <c r="C148" s="309"/>
+      <c r="D148" s="311"/>
       <c r="E148" s="97" t="s">
         <v>135</v>
       </c>
@@ -19223,8 +19223,8 @@
       </c>
     </row>
     <row r="149" spans="3:22" ht="17.25">
-      <c r="C149" s="264"/>
-      <c r="D149" s="266"/>
+      <c r="C149" s="309"/>
+      <c r="D149" s="311"/>
       <c r="E149" s="97" t="s">
         <v>136</v>
       </c>
@@ -19254,8 +19254,8 @@
       </c>
     </row>
     <row r="150" spans="3:22" ht="17.25">
-      <c r="C150" s="264"/>
-      <c r="D150" s="266"/>
+      <c r="C150" s="309"/>
+      <c r="D150" s="311"/>
       <c r="E150" s="97" t="s">
         <v>137</v>
       </c>
@@ -19281,8 +19281,8 @@
       </c>
     </row>
     <row r="151" spans="3:22" ht="17.25">
-      <c r="C151" s="264"/>
-      <c r="D151" s="266"/>
+      <c r="C151" s="309"/>
+      <c r="D151" s="311"/>
       <c r="E151" s="97" t="s">
         <v>138</v>
       </c>
@@ -19308,8 +19308,8 @@
       </c>
     </row>
     <row r="152" spans="3:22" ht="17.25">
-      <c r="C152" s="264"/>
-      <c r="D152" s="266"/>
+      <c r="C152" s="309"/>
+      <c r="D152" s="311"/>
       <c r="E152" s="97" t="s">
         <v>139</v>
       </c>
@@ -19335,8 +19335,8 @@
       </c>
     </row>
     <row r="153" spans="3:22" ht="17.25">
-      <c r="C153" s="264"/>
-      <c r="D153" s="266"/>
+      <c r="C153" s="309"/>
+      <c r="D153" s="311"/>
       <c r="E153" s="97" t="s">
         <v>142</v>
       </c>
@@ -19362,8 +19362,8 @@
       </c>
     </row>
     <row r="154" spans="3:22" ht="18" thickBot="1">
-      <c r="C154" s="264"/>
-      <c r="D154" s="267"/>
+      <c r="C154" s="309"/>
+      <c r="D154" s="312"/>
       <c r="E154" s="98"/>
       <c r="F154" s="195"/>
       <c r="G154" s="196"/>
@@ -19387,8 +19387,8 @@
       </c>
     </row>
     <row r="155" spans="3:22" ht="17.25">
-      <c r="C155" s="264"/>
-      <c r="D155" s="268" t="s">
+      <c r="C155" s="309"/>
+      <c r="D155" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E155" s="32" t="s">
@@ -19416,8 +19416,8 @@
       </c>
     </row>
     <row r="156" spans="3:22" ht="17.25">
-      <c r="C156" s="264"/>
-      <c r="D156" s="266"/>
+      <c r="C156" s="309"/>
+      <c r="D156" s="311"/>
       <c r="E156" s="31" t="s">
         <v>158</v>
       </c>
@@ -19443,8 +19443,8 @@
       </c>
     </row>
     <row r="157" spans="3:22" ht="17.25">
-      <c r="C157" s="264"/>
-      <c r="D157" s="266"/>
+      <c r="C157" s="309"/>
+      <c r="D157" s="311"/>
       <c r="E157" s="31" t="s">
         <v>134</v>
       </c>
@@ -19470,8 +19470,8 @@
       </c>
     </row>
     <row r="158" spans="3:22" ht="17.25">
-      <c r="C158" s="264"/>
-      <c r="D158" s="266"/>
+      <c r="C158" s="309"/>
+      <c r="D158" s="311"/>
       <c r="E158" s="31" t="s">
         <v>135</v>
       </c>
@@ -19497,8 +19497,8 @@
       </c>
     </row>
     <row r="159" spans="3:22" ht="17.25">
-      <c r="C159" s="264"/>
-      <c r="D159" s="266"/>
+      <c r="C159" s="309"/>
+      <c r="D159" s="311"/>
       <c r="E159" s="31" t="s">
         <v>136</v>
       </c>
@@ -19524,8 +19524,8 @@
       </c>
     </row>
     <row r="160" spans="3:22" ht="17.25">
-      <c r="C160" s="264"/>
-      <c r="D160" s="266"/>
+      <c r="C160" s="309"/>
+      <c r="D160" s="311"/>
       <c r="E160" s="31" t="s">
         <v>137</v>
       </c>
@@ -19551,8 +19551,8 @@
       </c>
     </row>
     <row r="161" spans="3:22" ht="17.25">
-      <c r="C161" s="264"/>
-      <c r="D161" s="266"/>
+      <c r="C161" s="309"/>
+      <c r="D161" s="311"/>
       <c r="E161" s="31" t="s">
         <v>138</v>
       </c>
@@ -19578,8 +19578,8 @@
       </c>
     </row>
     <row r="162" spans="3:22" ht="17.25">
-      <c r="C162" s="264"/>
-      <c r="D162" s="266"/>
+      <c r="C162" s="309"/>
+      <c r="D162" s="311"/>
       <c r="E162" s="31" t="s">
         <v>139</v>
       </c>
@@ -19605,8 +19605,8 @@
       </c>
     </row>
     <row r="163" spans="3:22" ht="17.25">
-      <c r="C163" s="264"/>
-      <c r="D163" s="266"/>
+      <c r="C163" s="309"/>
+      <c r="D163" s="311"/>
       <c r="E163" s="31" t="s">
         <v>142</v>
       </c>
@@ -19632,8 +19632,8 @@
       </c>
     </row>
     <row r="164" spans="3:22" ht="18" thickBot="1">
-      <c r="C164" s="265"/>
-      <c r="D164" s="269"/>
+      <c r="C164" s="310"/>
+      <c r="D164" s="314"/>
       <c r="E164" s="99"/>
       <c r="F164" s="197"/>
       <c r="G164" s="198"/>
@@ -19658,49 +19658,19 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C49:C68"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:U46"/>
-    <mergeCell ref="V46:V48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="C25:C44"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="F94:U94"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:C116"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="F142:U142"/>
-    <mergeCell ref="V142:V144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="V118:V120"/>
-    <mergeCell ref="F118:U118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:C140"/>
-    <mergeCell ref="D121:D130"/>
-    <mergeCell ref="D131:D140"/>
-    <mergeCell ref="C73:C92"/>
-    <mergeCell ref="D73:D82"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="C145:C164"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="D155:D164"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="C70:D70"/>
@@ -19717,19 +19687,49 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C73:C92"/>
+    <mergeCell ref="D73:D82"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="C145:C164"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="D155:D164"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F142:U142"/>
+    <mergeCell ref="V142:V144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="V118:V120"/>
+    <mergeCell ref="F118:U118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:C140"/>
+    <mergeCell ref="D121:D130"/>
+    <mergeCell ref="D131:D140"/>
+    <mergeCell ref="F94:U94"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:C116"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="V46:V48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="C25:C44"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="C49:C68"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:U46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -19774,7 +19774,7 @@
   <dimension ref="B1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:J6"/>
+      <selection activeCell="P175" sqref="P175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -19832,7 +19832,7 @@
       </c>
       <c r="I3" s="71">
         <f>Q25</f>
-        <v>0.37962962962962965</v>
+        <v>0.38310185185185186</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>69</v>
@@ -19894,27 +19894,27 @@
     <row r="6" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="272"/>
-      <c r="D6" s="337">
+      <c r="D6" s="340">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="339"/>
-      <c r="K6" s="340">
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="341"/>
+      <c r="I6" s="341"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="343">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="L6" s="341"/>
-      <c r="M6" s="341"/>
-      <c r="N6" s="342"/>
-      <c r="O6" s="305" t="s">
+      <c r="L6" s="344"/>
+      <c r="M6" s="344"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="305" t="s">
+      <c r="P6" s="260" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="327" t="s">
@@ -19930,29 +19930,29 @@
     <row r="7" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="324"/>
       <c r="P7" s="324"/>
       <c r="Q7" s="330" t="s">
@@ -19968,40 +19968,40 @@
     <row r="8" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
       <c r="P8" s="324"/>
-      <c r="Q8" s="315" t="s">
+      <c r="Q8" s="317" t="s">
         <v>59</v>
       </c>
       <c r="R8" s="246" t="s">
@@ -20022,7 +20022,7 @@
       <c r="W8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="333" t="s">
+      <c r="X8" s="338" t="s">
         <v>4</v>
       </c>
       <c r="Y8" s="254" t="s">
@@ -20032,26 +20032,26 @@
     <row r="9" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="316"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="318"/>
       <c r="R9" s="246" t="s">
         <v>177</v>
       </c>
@@ -20070,7 +20070,7 @@
       <c r="W9" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="X9" s="334" t="s">
+      <c r="X9" s="339" t="s">
         <v>4</v>
       </c>
       <c r="Y9" s="254"/>
@@ -20402,11 +20402,11 @@
       </c>
       <c r="P13" s="193">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="251">
         <f t="shared" si="8"/>
-        <v>0.61764705882352944</v>
+        <v>0.66176470588235292</v>
       </c>
       <c r="R13" s="248">
         <f t="shared" si="9"/>
@@ -20426,7 +20426,7 @@
       </c>
       <c r="V13" s="133">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W13" s="40">
         <f t="shared" si="14"/>
@@ -20434,7 +20434,7 @@
       </c>
       <c r="X13" s="46">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" si="16"/>
@@ -21476,7 +21476,7 @@
       <c r="P25" s="118"/>
       <c r="Q25" s="139">
         <f>IF(E25=0,"",SUM(G25,20,X25)/E25)</f>
-        <v>0.37962962962962965</v>
+        <v>0.38310185185185186</v>
       </c>
       <c r="R25" s="250">
         <f t="shared" ref="R25:T25" si="27">SUM(R10:R24)</f>
@@ -21496,7 +21496,7 @@
       </c>
       <c r="V25" s="141">
         <f>SUM(V10:V24)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W25" s="142">
         <f>SUM(W10:W24)</f>
@@ -21504,7 +21504,7 @@
       </c>
       <c r="X25" s="253">
         <f>SUM(X10:X24)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y25" s="21"/>
     </row>
@@ -21515,38 +21515,38 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C27" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="259"/>
+      <c r="C27" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="283"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="258">
+      <c r="F27" s="282">
         <v>11</v>
       </c>
-      <c r="G27" s="259"/>
+      <c r="G27" s="283"/>
       <c r="H27" s="216"/>
       <c r="I27" s="346">
         <v>12</v>
       </c>
-      <c r="J27" s="270"/>
-      <c r="K27" s="270"/>
-      <c r="L27" s="270"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="270"/>
-      <c r="R27" s="270"/>
-      <c r="S27" s="259"/>
-      <c r="T27" s="319" t="s">
+      <c r="J27" s="284"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="284"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="284"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="283"/>
+      <c r="T27" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C28" s="260" t="s">
+      <c r="C28" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="261"/>
+      <c r="D28" s="306"/>
       <c r="E28" s="78"/>
       <c r="F28" s="214">
         <v>44529</v>
@@ -21603,13 +21603,13 @@
         <f t="shared" si="28"/>
         <v>44542</v>
       </c>
-      <c r="T28" s="320"/>
+      <c r="T28" s="322"/>
     </row>
     <row r="29" spans="2:29" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C29" s="335" t="s">
+      <c r="C29" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="336"/>
+      <c r="D29" s="334"/>
       <c r="E29" s="217"/>
       <c r="F29" s="218">
         <f t="shared" ref="F29:S29" si="29">WEEKDAY(F28)</f>
@@ -21667,13 +21667,13 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="T29" s="320"/>
+      <c r="T29" s="322"/>
     </row>
     <row r="30" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C30" s="258" t="s">
+      <c r="C30" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="343" t="s">
+      <c r="D30" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="223" t="s">
@@ -21699,8 +21699,8 @@
       </c>
     </row>
     <row r="31" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C31" s="260"/>
-      <c r="D31" s="344"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="336"/>
       <c r="E31" s="224" t="s">
         <v>141</v>
       </c>
@@ -21724,8 +21724,8 @@
       </c>
     </row>
     <row r="32" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C32" s="260"/>
-      <c r="D32" s="344"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="336"/>
       <c r="E32" s="224" t="s">
         <v>134</v>
       </c>
@@ -21749,8 +21749,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C33" s="260"/>
-      <c r="D33" s="344"/>
+      <c r="C33" s="305"/>
+      <c r="D33" s="336"/>
       <c r="E33" s="224" t="s">
         <v>136</v>
       </c>
@@ -21774,8 +21774,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C34" s="260"/>
-      <c r="D34" s="344"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="336"/>
       <c r="E34" s="224" t="s">
         <v>139</v>
       </c>
@@ -21799,8 +21799,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C35" s="260"/>
-      <c r="D35" s="344"/>
+      <c r="C35" s="305"/>
+      <c r="D35" s="336"/>
       <c r="E35" s="224" t="s">
         <v>137</v>
       </c>
@@ -21824,8 +21824,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C36" s="260"/>
-      <c r="D36" s="344"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="336"/>
       <c r="E36" s="224" t="s">
         <v>133</v>
       </c>
@@ -21849,8 +21849,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C37" s="260"/>
-      <c r="D37" s="344"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="336"/>
       <c r="E37" s="224" t="s">
         <v>140</v>
       </c>
@@ -21874,8 +21874,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C38" s="260"/>
-      <c r="D38" s="344"/>
+      <c r="C38" s="305"/>
+      <c r="D38" s="336"/>
       <c r="E38" s="224" t="s">
         <v>138</v>
       </c>
@@ -21899,8 +21899,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C39" s="260"/>
-      <c r="D39" s="344"/>
+      <c r="C39" s="305"/>
+      <c r="D39" s="336"/>
       <c r="E39" s="224" t="s">
         <v>135</v>
       </c>
@@ -21924,8 +21924,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C40" s="260"/>
-      <c r="D40" s="344"/>
+      <c r="C40" s="305"/>
+      <c r="D40" s="336"/>
       <c r="E40" s="224" t="s">
         <v>158</v>
       </c>
@@ -21949,8 +21949,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C41" s="260"/>
-      <c r="D41" s="344"/>
+      <c r="C41" s="305"/>
+      <c r="D41" s="336"/>
       <c r="E41" s="224" t="s">
         <v>174</v>
       </c>
@@ -21974,8 +21974,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C42" s="260"/>
-      <c r="D42" s="344"/>
+      <c r="C42" s="305"/>
+      <c r="D42" s="336"/>
       <c r="E42" s="224" t="s">
         <v>175</v>
       </c>
@@ -21999,8 +21999,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C43" s="260"/>
-      <c r="D43" s="345"/>
+      <c r="C43" s="305"/>
+      <c r="D43" s="337"/>
       <c r="E43" s="225"/>
       <c r="F43" s="243"/>
       <c r="G43" s="244"/>
@@ -22022,8 +22022,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C44" s="260"/>
-      <c r="D44" s="343" t="s">
+      <c r="C44" s="305"/>
+      <c r="D44" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="223" t="s">
@@ -22049,8 +22049,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C45" s="260"/>
-      <c r="D45" s="344"/>
+      <c r="C45" s="305"/>
+      <c r="D45" s="336"/>
       <c r="E45" s="224" t="s">
         <v>141</v>
       </c>
@@ -22074,8 +22074,8 @@
       </c>
     </row>
     <row r="46" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C46" s="260"/>
-      <c r="D46" s="344"/>
+      <c r="C46" s="305"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="224" t="s">
         <v>134</v>
       </c>
@@ -22099,8 +22099,8 @@
       </c>
     </row>
     <row r="47" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C47" s="260"/>
-      <c r="D47" s="344"/>
+      <c r="C47" s="305"/>
+      <c r="D47" s="336"/>
       <c r="E47" s="224" t="s">
         <v>136</v>
       </c>
@@ -22124,8 +22124,8 @@
       </c>
     </row>
     <row r="48" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C48" s="260"/>
-      <c r="D48" s="344"/>
+      <c r="C48" s="305"/>
+      <c r="D48" s="336"/>
       <c r="E48" s="224" t="s">
         <v>139</v>
       </c>
@@ -22149,8 +22149,8 @@
       </c>
     </row>
     <row r="49" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C49" s="260"/>
-      <c r="D49" s="344"/>
+      <c r="C49" s="305"/>
+      <c r="D49" s="336"/>
       <c r="E49" s="224" t="s">
         <v>137</v>
       </c>
@@ -22180,8 +22180,8 @@
       </c>
     </row>
     <row r="50" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C50" s="260"/>
-      <c r="D50" s="344"/>
+      <c r="C50" s="305"/>
+      <c r="D50" s="336"/>
       <c r="E50" s="224" t="s">
         <v>133</v>
       </c>
@@ -22205,8 +22205,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C51" s="260"/>
-      <c r="D51" s="344"/>
+      <c r="C51" s="305"/>
+      <c r="D51" s="336"/>
       <c r="E51" s="224" t="s">
         <v>140</v>
       </c>
@@ -22230,8 +22230,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C52" s="260"/>
-      <c r="D52" s="344"/>
+      <c r="C52" s="305"/>
+      <c r="D52" s="336"/>
       <c r="E52" s="224" t="s">
         <v>138</v>
       </c>
@@ -22255,8 +22255,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C53" s="260"/>
-      <c r="D53" s="344"/>
+      <c r="C53" s="305"/>
+      <c r="D53" s="336"/>
       <c r="E53" s="224" t="s">
         <v>135</v>
       </c>
@@ -22282,8 +22282,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C54" s="260"/>
-      <c r="D54" s="344"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="336"/>
       <c r="E54" s="224" t="s">
         <v>158</v>
       </c>
@@ -22309,8 +22309,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C55" s="260"/>
-      <c r="D55" s="344"/>
+      <c r="C55" s="305"/>
+      <c r="D55" s="336"/>
       <c r="E55" s="224" t="s">
         <v>174</v>
       </c>
@@ -22334,8 +22334,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C56" s="260"/>
-      <c r="D56" s="344"/>
+      <c r="C56" s="305"/>
+      <c r="D56" s="336"/>
       <c r="E56" s="224" t="s">
         <v>175</v>
       </c>
@@ -22359,8 +22359,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C57" s="262"/>
-      <c r="D57" s="345"/>
+      <c r="C57" s="307"/>
+      <c r="D57" s="337"/>
       <c r="E57" s="225"/>
       <c r="F57" s="234"/>
       <c r="G57" s="235"/>
@@ -22383,36 +22383,36 @@
     </row>
     <row r="58" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="59" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C59" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="259"/>
+      <c r="C59" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="283"/>
       <c r="E59" s="77"/>
-      <c r="F59" s="258">
+      <c r="F59" s="282">
         <v>12</v>
       </c>
-      <c r="G59" s="270"/>
-      <c r="H59" s="270"/>
-      <c r="I59" s="270"/>
-      <c r="J59" s="270"/>
-      <c r="K59" s="270"/>
-      <c r="L59" s="270"/>
-      <c r="M59" s="270"/>
-      <c r="N59" s="270"/>
-      <c r="O59" s="270"/>
-      <c r="P59" s="270"/>
-      <c r="Q59" s="270"/>
-      <c r="R59" s="270"/>
-      <c r="S59" s="259"/>
-      <c r="T59" s="319" t="s">
+      <c r="G59" s="284"/>
+      <c r="H59" s="284"/>
+      <c r="I59" s="284"/>
+      <c r="J59" s="284"/>
+      <c r="K59" s="284"/>
+      <c r="L59" s="284"/>
+      <c r="M59" s="284"/>
+      <c r="N59" s="284"/>
+      <c r="O59" s="284"/>
+      <c r="P59" s="284"/>
+      <c r="Q59" s="284"/>
+      <c r="R59" s="284"/>
+      <c r="S59" s="283"/>
+      <c r="T59" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C60" s="260" t="s">
+      <c r="C60" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="261"/>
+      <c r="D60" s="306"/>
       <c r="E60" s="78"/>
       <c r="F60" s="214">
         <f>S28+1</f>
@@ -22470,13 +22470,13 @@
         <f t="shared" si="31"/>
         <v>44556</v>
       </c>
-      <c r="T60" s="320"/>
+      <c r="T60" s="322"/>
     </row>
     <row r="61" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C61" s="335" t="s">
+      <c r="C61" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="336"/>
+      <c r="D61" s="334"/>
       <c r="E61" s="217"/>
       <c r="F61" s="218">
         <f t="shared" ref="F61" si="32">WEEKDAY(F60)</f>
@@ -22534,13 +22534,13 @@
         <f t="shared" ref="S61" si="45">WEEKDAY(S60)</f>
         <v>1</v>
       </c>
-      <c r="T61" s="320"/>
+      <c r="T61" s="322"/>
     </row>
     <row r="62" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C62" s="258" t="s">
+      <c r="C62" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="343" t="s">
+      <c r="D62" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="223" t="s">
@@ -22566,8 +22566,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C63" s="260"/>
-      <c r="D63" s="344"/>
+      <c r="C63" s="305"/>
+      <c r="D63" s="336"/>
       <c r="E63" s="224" t="s">
         <v>141</v>
       </c>
@@ -22591,8 +22591,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C64" s="260"/>
-      <c r="D64" s="344"/>
+      <c r="C64" s="305"/>
+      <c r="D64" s="336"/>
       <c r="E64" s="224" t="s">
         <v>134</v>
       </c>
@@ -22616,8 +22616,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C65" s="260"/>
-      <c r="D65" s="344"/>
+      <c r="C65" s="305"/>
+      <c r="D65" s="336"/>
       <c r="E65" s="224" t="s">
         <v>136</v>
       </c>
@@ -22641,8 +22641,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C66" s="260"/>
-      <c r="D66" s="344"/>
+      <c r="C66" s="305"/>
+      <c r="D66" s="336"/>
       <c r="E66" s="224" t="s">
         <v>139</v>
       </c>
@@ -22666,8 +22666,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C67" s="260"/>
-      <c r="D67" s="344"/>
+      <c r="C67" s="305"/>
+      <c r="D67" s="336"/>
       <c r="E67" s="224" t="s">
         <v>137</v>
       </c>
@@ -22691,8 +22691,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C68" s="260"/>
-      <c r="D68" s="344"/>
+      <c r="C68" s="305"/>
+      <c r="D68" s="336"/>
       <c r="E68" s="224" t="s">
         <v>133</v>
       </c>
@@ -22716,8 +22716,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C69" s="260"/>
-      <c r="D69" s="344"/>
+      <c r="C69" s="305"/>
+      <c r="D69" s="336"/>
       <c r="E69" s="224" t="s">
         <v>140</v>
       </c>
@@ -22741,8 +22741,8 @@
       </c>
     </row>
     <row r="70" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C70" s="260"/>
-      <c r="D70" s="344"/>
+      <c r="C70" s="305"/>
+      <c r="D70" s="336"/>
       <c r="E70" s="224" t="s">
         <v>138</v>
       </c>
@@ -22766,8 +22766,8 @@
       </c>
     </row>
     <row r="71" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C71" s="260"/>
-      <c r="D71" s="344"/>
+      <c r="C71" s="305"/>
+      <c r="D71" s="336"/>
       <c r="E71" s="224" t="s">
         <v>135</v>
       </c>
@@ -22791,8 +22791,8 @@
       </c>
     </row>
     <row r="72" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C72" s="260"/>
-      <c r="D72" s="344"/>
+      <c r="C72" s="305"/>
+      <c r="D72" s="336"/>
       <c r="E72" s="224" t="s">
         <v>158</v>
       </c>
@@ -22816,8 +22816,8 @@
       </c>
     </row>
     <row r="73" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C73" s="260"/>
-      <c r="D73" s="344"/>
+      <c r="C73" s="305"/>
+      <c r="D73" s="336"/>
       <c r="E73" s="224" t="s">
         <v>174</v>
       </c>
@@ -22841,8 +22841,8 @@
       </c>
     </row>
     <row r="74" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C74" s="260"/>
-      <c r="D74" s="344"/>
+      <c r="C74" s="305"/>
+      <c r="D74" s="336"/>
       <c r="E74" s="224" t="s">
         <v>175</v>
       </c>
@@ -22866,8 +22866,8 @@
       </c>
     </row>
     <row r="75" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C75" s="260"/>
-      <c r="D75" s="345"/>
+      <c r="C75" s="305"/>
+      <c r="D75" s="337"/>
       <c r="E75" s="225"/>
       <c r="F75" s="243"/>
       <c r="G75" s="244"/>
@@ -22889,8 +22889,8 @@
       </c>
     </row>
     <row r="76" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C76" s="260"/>
-      <c r="D76" s="343" t="s">
+      <c r="C76" s="305"/>
+      <c r="D76" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="223" t="s">
@@ -22918,8 +22918,8 @@
       </c>
     </row>
     <row r="77" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C77" s="260"/>
-      <c r="D77" s="344"/>
+      <c r="C77" s="305"/>
+      <c r="D77" s="336"/>
       <c r="E77" s="224" t="s">
         <v>141</v>
       </c>
@@ -22943,8 +22943,8 @@
       </c>
     </row>
     <row r="78" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C78" s="260"/>
-      <c r="D78" s="344"/>
+      <c r="C78" s="305"/>
+      <c r="D78" s="336"/>
       <c r="E78" s="224" t="s">
         <v>134</v>
       </c>
@@ -22968,8 +22968,8 @@
       </c>
     </row>
     <row r="79" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C79" s="260"/>
-      <c r="D79" s="344"/>
+      <c r="C79" s="305"/>
+      <c r="D79" s="336"/>
       <c r="E79" s="224" t="s">
         <v>136</v>
       </c>
@@ -22997,8 +22997,8 @@
       </c>
     </row>
     <row r="80" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C80" s="260"/>
-      <c r="D80" s="344"/>
+      <c r="C80" s="305"/>
+      <c r="D80" s="336"/>
       <c r="E80" s="224" t="s">
         <v>139</v>
       </c>
@@ -23022,8 +23022,8 @@
       </c>
     </row>
     <row r="81" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C81" s="260"/>
-      <c r="D81" s="344"/>
+      <c r="C81" s="305"/>
+      <c r="D81" s="336"/>
       <c r="E81" s="224" t="s">
         <v>137</v>
       </c>
@@ -23047,8 +23047,8 @@
       </c>
     </row>
     <row r="82" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C82" s="260"/>
-      <c r="D82" s="344"/>
+      <c r="C82" s="305"/>
+      <c r="D82" s="336"/>
       <c r="E82" s="224" t="s">
         <v>133</v>
       </c>
@@ -23072,8 +23072,8 @@
       </c>
     </row>
     <row r="83" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C83" s="260"/>
-      <c r="D83" s="344"/>
+      <c r="C83" s="305"/>
+      <c r="D83" s="336"/>
       <c r="E83" s="224" t="s">
         <v>140</v>
       </c>
@@ -23097,8 +23097,8 @@
       </c>
     </row>
     <row r="84" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C84" s="260"/>
-      <c r="D84" s="344"/>
+      <c r="C84" s="305"/>
+      <c r="D84" s="336"/>
       <c r="E84" s="224" t="s">
         <v>138</v>
       </c>
@@ -23122,8 +23122,8 @@
       </c>
     </row>
     <row r="85" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C85" s="260"/>
-      <c r="D85" s="344"/>
+      <c r="C85" s="305"/>
+      <c r="D85" s="336"/>
       <c r="E85" s="224" t="s">
         <v>135</v>
       </c>
@@ -23155,8 +23155,8 @@
       </c>
     </row>
     <row r="86" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C86" s="260"/>
-      <c r="D86" s="344"/>
+      <c r="C86" s="305"/>
+      <c r="D86" s="336"/>
       <c r="E86" s="224" t="s">
         <v>158</v>
       </c>
@@ -23182,8 +23182,8 @@
       </c>
     </row>
     <row r="87" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C87" s="260"/>
-      <c r="D87" s="344"/>
+      <c r="C87" s="305"/>
+      <c r="D87" s="336"/>
       <c r="E87" s="224" t="s">
         <v>174</v>
       </c>
@@ -23213,8 +23213,8 @@
       </c>
     </row>
     <row r="88" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C88" s="260"/>
-      <c r="D88" s="344"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="336"/>
       <c r="E88" s="224" t="s">
         <v>175</v>
       </c>
@@ -23238,8 +23238,8 @@
       </c>
     </row>
     <row r="89" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C89" s="262"/>
-      <c r="D89" s="345"/>
+      <c r="C89" s="307"/>
+      <c r="D89" s="337"/>
       <c r="E89" s="225"/>
       <c r="F89" s="234"/>
       <c r="G89" s="235"/>
@@ -23262,38 +23262,38 @@
     </row>
     <row r="90" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="91" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C91" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="259"/>
+      <c r="C91" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="283"/>
       <c r="E91" s="77"/>
-      <c r="F91" s="258">
+      <c r="F91" s="282">
         <v>12</v>
       </c>
-      <c r="G91" s="270"/>
-      <c r="H91" s="270"/>
-      <c r="I91" s="270"/>
-      <c r="J91" s="270"/>
-      <c r="K91" s="270">
+      <c r="G91" s="284"/>
+      <c r="H91" s="284"/>
+      <c r="I91" s="284"/>
+      <c r="J91" s="284"/>
+      <c r="K91" s="284">
         <v>1</v>
       </c>
-      <c r="L91" s="270"/>
-      <c r="M91" s="270"/>
-      <c r="N91" s="270"/>
-      <c r="O91" s="270"/>
-      <c r="P91" s="270"/>
-      <c r="Q91" s="270"/>
-      <c r="R91" s="270"/>
-      <c r="S91" s="259"/>
-      <c r="T91" s="319" t="s">
+      <c r="L91" s="284"/>
+      <c r="M91" s="284"/>
+      <c r="N91" s="284"/>
+      <c r="O91" s="284"/>
+      <c r="P91" s="284"/>
+      <c r="Q91" s="284"/>
+      <c r="R91" s="284"/>
+      <c r="S91" s="283"/>
+      <c r="T91" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="92" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C92" s="260" t="s">
+      <c r="C92" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="261"/>
+      <c r="D92" s="306"/>
       <c r="E92" s="78"/>
       <c r="F92" s="214">
         <f>S60+1</f>
@@ -23351,13 +23351,13 @@
         <f t="shared" si="47"/>
         <v>44570</v>
       </c>
-      <c r="T92" s="320"/>
+      <c r="T92" s="322"/>
     </row>
     <row r="93" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C93" s="335" t="s">
+      <c r="C93" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="336"/>
+      <c r="D93" s="334"/>
       <c r="E93" s="217"/>
       <c r="F93" s="218">
         <f t="shared" ref="F93" si="48">WEEKDAY(F92)</f>
@@ -23415,13 +23415,13 @@
         <f t="shared" ref="S93" si="61">WEEKDAY(S92)</f>
         <v>1</v>
       </c>
-      <c r="T93" s="320"/>
+      <c r="T93" s="322"/>
     </row>
     <row r="94" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C94" s="258" t="s">
+      <c r="C94" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="343" t="s">
+      <c r="D94" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="223" t="s">
@@ -23447,8 +23447,8 @@
       </c>
     </row>
     <row r="95" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C95" s="260"/>
-      <c r="D95" s="344"/>
+      <c r="C95" s="305"/>
+      <c r="D95" s="336"/>
       <c r="E95" s="224" t="s">
         <v>141</v>
       </c>
@@ -23472,8 +23472,8 @@
       </c>
     </row>
     <row r="96" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C96" s="260"/>
-      <c r="D96" s="344"/>
+      <c r="C96" s="305"/>
+      <c r="D96" s="336"/>
       <c r="E96" s="224" t="s">
         <v>134</v>
       </c>
@@ -23497,8 +23497,8 @@
       </c>
     </row>
     <row r="97" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C97" s="260"/>
-      <c r="D97" s="344"/>
+      <c r="C97" s="305"/>
+      <c r="D97" s="336"/>
       <c r="E97" s="224" t="s">
         <v>136</v>
       </c>
@@ -23522,8 +23522,8 @@
       </c>
     </row>
     <row r="98" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C98" s="260"/>
-      <c r="D98" s="344"/>
+      <c r="C98" s="305"/>
+      <c r="D98" s="336"/>
       <c r="E98" s="224" t="s">
         <v>139</v>
       </c>
@@ -23547,8 +23547,8 @@
       </c>
     </row>
     <row r="99" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C99" s="260"/>
-      <c r="D99" s="344"/>
+      <c r="C99" s="305"/>
+      <c r="D99" s="336"/>
       <c r="E99" s="224" t="s">
         <v>137</v>
       </c>
@@ -23572,8 +23572,8 @@
       </c>
     </row>
     <row r="100" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C100" s="260"/>
-      <c r="D100" s="344"/>
+      <c r="C100" s="305"/>
+      <c r="D100" s="336"/>
       <c r="E100" s="224" t="s">
         <v>133</v>
       </c>
@@ -23597,8 +23597,8 @@
       </c>
     </row>
     <row r="101" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C101" s="260"/>
-      <c r="D101" s="344"/>
+      <c r="C101" s="305"/>
+      <c r="D101" s="336"/>
       <c r="E101" s="224" t="s">
         <v>140</v>
       </c>
@@ -23622,8 +23622,8 @@
       </c>
     </row>
     <row r="102" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C102" s="260"/>
-      <c r="D102" s="344"/>
+      <c r="C102" s="305"/>
+      <c r="D102" s="336"/>
       <c r="E102" s="224" t="s">
         <v>138</v>
       </c>
@@ -23647,8 +23647,8 @@
       </c>
     </row>
     <row r="103" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C103" s="260"/>
-      <c r="D103" s="344"/>
+      <c r="C103" s="305"/>
+      <c r="D103" s="336"/>
       <c r="E103" s="224" t="s">
         <v>135</v>
       </c>
@@ -23672,8 +23672,8 @@
       </c>
     </row>
     <row r="104" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C104" s="260"/>
-      <c r="D104" s="344"/>
+      <c r="C104" s="305"/>
+      <c r="D104" s="336"/>
       <c r="E104" s="224" t="s">
         <v>158</v>
       </c>
@@ -23697,8 +23697,8 @@
       </c>
     </row>
     <row r="105" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C105" s="260"/>
-      <c r="D105" s="344"/>
+      <c r="C105" s="305"/>
+      <c r="D105" s="336"/>
       <c r="E105" s="224" t="s">
         <v>174</v>
       </c>
@@ -23722,8 +23722,8 @@
       </c>
     </row>
     <row r="106" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C106" s="260"/>
-      <c r="D106" s="344"/>
+      <c r="C106" s="305"/>
+      <c r="D106" s="336"/>
       <c r="E106" s="224" t="s">
         <v>175</v>
       </c>
@@ -23747,8 +23747,8 @@
       </c>
     </row>
     <row r="107" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C107" s="260"/>
-      <c r="D107" s="345"/>
+      <c r="C107" s="305"/>
+      <c r="D107" s="337"/>
       <c r="E107" s="225"/>
       <c r="F107" s="243"/>
       <c r="G107" s="244"/>
@@ -23770,8 +23770,8 @@
       </c>
     </row>
     <row r="108" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C108" s="260"/>
-      <c r="D108" s="343" t="s">
+      <c r="C108" s="305"/>
+      <c r="D108" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="223" t="s">
@@ -23799,8 +23799,8 @@
       </c>
     </row>
     <row r="109" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C109" s="260"/>
-      <c r="D109" s="344"/>
+      <c r="C109" s="305"/>
+      <c r="D109" s="336"/>
       <c r="E109" s="224" t="s">
         <v>141</v>
       </c>
@@ -23826,8 +23826,8 @@
       </c>
     </row>
     <row r="110" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C110" s="260"/>
-      <c r="D110" s="344"/>
+      <c r="C110" s="305"/>
+      <c r="D110" s="336"/>
       <c r="E110" s="224" t="s">
         <v>134</v>
       </c>
@@ -23851,8 +23851,8 @@
       </c>
     </row>
     <row r="111" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C111" s="260"/>
-      <c r="D111" s="344"/>
+      <c r="C111" s="305"/>
+      <c r="D111" s="336"/>
       <c r="E111" s="224" t="s">
         <v>136</v>
       </c>
@@ -23880,8 +23880,8 @@
       </c>
     </row>
     <row r="112" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C112" s="260"/>
-      <c r="D112" s="344"/>
+      <c r="C112" s="305"/>
+      <c r="D112" s="336"/>
       <c r="E112" s="224" t="s">
         <v>139</v>
       </c>
@@ -23905,8 +23905,8 @@
       </c>
     </row>
     <row r="113" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C113" s="260"/>
-      <c r="D113" s="344"/>
+      <c r="C113" s="305"/>
+      <c r="D113" s="336"/>
       <c r="E113" s="224" t="s">
         <v>137</v>
       </c>
@@ -23930,8 +23930,8 @@
       </c>
     </row>
     <row r="114" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C114" s="260"/>
-      <c r="D114" s="344"/>
+      <c r="C114" s="305"/>
+      <c r="D114" s="336"/>
       <c r="E114" s="224" t="s">
         <v>133</v>
       </c>
@@ -23955,8 +23955,8 @@
       </c>
     </row>
     <row r="115" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C115" s="260"/>
-      <c r="D115" s="344"/>
+      <c r="C115" s="305"/>
+      <c r="D115" s="336"/>
       <c r="E115" s="224" t="s">
         <v>140</v>
       </c>
@@ -23980,8 +23980,8 @@
       </c>
     </row>
     <row r="116" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C116" s="260"/>
-      <c r="D116" s="344"/>
+      <c r="C116" s="305"/>
+      <c r="D116" s="336"/>
       <c r="E116" s="224" t="s">
         <v>138</v>
       </c>
@@ -24005,8 +24005,8 @@
       </c>
     </row>
     <row r="117" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C117" s="260"/>
-      <c r="D117" s="344"/>
+      <c r="C117" s="305"/>
+      <c r="D117" s="336"/>
       <c r="E117" s="224" t="s">
         <v>135</v>
       </c>
@@ -24030,8 +24030,8 @@
       </c>
     </row>
     <row r="118" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C118" s="260"/>
-      <c r="D118" s="344"/>
+      <c r="C118" s="305"/>
+      <c r="D118" s="336"/>
       <c r="E118" s="224" t="s">
         <v>158</v>
       </c>
@@ -24055,8 +24055,8 @@
       </c>
     </row>
     <row r="119" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C119" s="260"/>
-      <c r="D119" s="344"/>
+      <c r="C119" s="305"/>
+      <c r="D119" s="336"/>
       <c r="E119" s="224" t="s">
         <v>174</v>
       </c>
@@ -24080,8 +24080,8 @@
       </c>
     </row>
     <row r="120" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C120" s="260"/>
-      <c r="D120" s="344"/>
+      <c r="C120" s="305"/>
+      <c r="D120" s="336"/>
       <c r="E120" s="224" t="s">
         <v>175</v>
       </c>
@@ -24105,8 +24105,8 @@
       </c>
     </row>
     <row r="121" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C121" s="262"/>
-      <c r="D121" s="345"/>
+      <c r="C121" s="307"/>
+      <c r="D121" s="337"/>
       <c r="E121" s="225"/>
       <c r="F121" s="234"/>
       <c r="G121" s="235"/>
@@ -24129,36 +24129,36 @@
     </row>
     <row r="122" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="123" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C123" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="259"/>
+      <c r="C123" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="283"/>
       <c r="E123" s="77"/>
-      <c r="F123" s="258">
+      <c r="F123" s="282">
         <v>1</v>
       </c>
-      <c r="G123" s="270"/>
-      <c r="H123" s="270"/>
-      <c r="I123" s="270"/>
-      <c r="J123" s="270"/>
-      <c r="K123" s="270"/>
-      <c r="L123" s="270"/>
-      <c r="M123" s="270"/>
-      <c r="N123" s="270"/>
-      <c r="O123" s="270"/>
-      <c r="P123" s="270"/>
-      <c r="Q123" s="270"/>
-      <c r="R123" s="270"/>
-      <c r="S123" s="259"/>
-      <c r="T123" s="319" t="s">
+      <c r="G123" s="284"/>
+      <c r="H123" s="284"/>
+      <c r="I123" s="284"/>
+      <c r="J123" s="284"/>
+      <c r="K123" s="284"/>
+      <c r="L123" s="284"/>
+      <c r="M123" s="284"/>
+      <c r="N123" s="284"/>
+      <c r="O123" s="284"/>
+      <c r="P123" s="284"/>
+      <c r="Q123" s="284"/>
+      <c r="R123" s="284"/>
+      <c r="S123" s="283"/>
+      <c r="T123" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="124" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C124" s="260" t="s">
+      <c r="C124" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D124" s="261"/>
+      <c r="D124" s="306"/>
       <c r="E124" s="78"/>
       <c r="F124" s="214">
         <f>S92+1</f>
@@ -24216,13 +24216,13 @@
         <f t="shared" si="63"/>
         <v>44584</v>
       </c>
-      <c r="T124" s="320"/>
+      <c r="T124" s="322"/>
     </row>
     <row r="125" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C125" s="335" t="s">
+      <c r="C125" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="336"/>
+      <c r="D125" s="334"/>
       <c r="E125" s="217"/>
       <c r="F125" s="218">
         <f t="shared" ref="F125" si="64">WEEKDAY(F124)</f>
@@ -24280,13 +24280,13 @@
         <f t="shared" ref="S125" si="77">WEEKDAY(S124)</f>
         <v>1</v>
       </c>
-      <c r="T125" s="320"/>
+      <c r="T125" s="322"/>
     </row>
     <row r="126" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C126" s="258" t="s">
+      <c r="C126" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D126" s="343" t="s">
+      <c r="D126" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E126" s="223" t="s">
@@ -24312,8 +24312,8 @@
       </c>
     </row>
     <row r="127" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C127" s="260"/>
-      <c r="D127" s="344"/>
+      <c r="C127" s="305"/>
+      <c r="D127" s="336"/>
       <c r="E127" s="224" t="s">
         <v>141</v>
       </c>
@@ -24337,8 +24337,8 @@
       </c>
     </row>
     <row r="128" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C128" s="260"/>
-      <c r="D128" s="344"/>
+      <c r="C128" s="305"/>
+      <c r="D128" s="336"/>
       <c r="E128" s="224" t="s">
         <v>134</v>
       </c>
@@ -24362,8 +24362,8 @@
       </c>
     </row>
     <row r="129" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C129" s="260"/>
-      <c r="D129" s="344"/>
+      <c r="C129" s="305"/>
+      <c r="D129" s="336"/>
       <c r="E129" s="224" t="s">
         <v>136</v>
       </c>
@@ -24387,8 +24387,8 @@
       </c>
     </row>
     <row r="130" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C130" s="260"/>
-      <c r="D130" s="344"/>
+      <c r="C130" s="305"/>
+      <c r="D130" s="336"/>
       <c r="E130" s="224" t="s">
         <v>139</v>
       </c>
@@ -24412,8 +24412,8 @@
       </c>
     </row>
     <row r="131" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C131" s="260"/>
-      <c r="D131" s="344"/>
+      <c r="C131" s="305"/>
+      <c r="D131" s="336"/>
       <c r="E131" s="224" t="s">
         <v>137</v>
       </c>
@@ -24437,8 +24437,8 @@
       </c>
     </row>
     <row r="132" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C132" s="260"/>
-      <c r="D132" s="344"/>
+      <c r="C132" s="305"/>
+      <c r="D132" s="336"/>
       <c r="E132" s="224" t="s">
         <v>133</v>
       </c>
@@ -24462,8 +24462,8 @@
       </c>
     </row>
     <row r="133" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C133" s="260"/>
-      <c r="D133" s="344"/>
+      <c r="C133" s="305"/>
+      <c r="D133" s="336"/>
       <c r="E133" s="224" t="s">
         <v>140</v>
       </c>
@@ -24487,8 +24487,8 @@
       </c>
     </row>
     <row r="134" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C134" s="260"/>
-      <c r="D134" s="344"/>
+      <c r="C134" s="305"/>
+      <c r="D134" s="336"/>
       <c r="E134" s="224" t="s">
         <v>138</v>
       </c>
@@ -24512,8 +24512,8 @@
       </c>
     </row>
     <row r="135" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C135" s="260"/>
-      <c r="D135" s="344"/>
+      <c r="C135" s="305"/>
+      <c r="D135" s="336"/>
       <c r="E135" s="224" t="s">
         <v>135</v>
       </c>
@@ -24537,8 +24537,8 @@
       </c>
     </row>
     <row r="136" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C136" s="260"/>
-      <c r="D136" s="344"/>
+      <c r="C136" s="305"/>
+      <c r="D136" s="336"/>
       <c r="E136" s="224" t="s">
         <v>158</v>
       </c>
@@ -24562,8 +24562,8 @@
       </c>
     </row>
     <row r="137" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C137" s="260"/>
-      <c r="D137" s="344"/>
+      <c r="C137" s="305"/>
+      <c r="D137" s="336"/>
       <c r="E137" s="224" t="s">
         <v>174</v>
       </c>
@@ -24587,8 +24587,8 @@
       </c>
     </row>
     <row r="138" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C138" s="260"/>
-      <c r="D138" s="344"/>
+      <c r="C138" s="305"/>
+      <c r="D138" s="336"/>
       <c r="E138" s="224" t="s">
         <v>175</v>
       </c>
@@ -24612,8 +24612,8 @@
       </c>
     </row>
     <row r="139" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C139" s="260"/>
-      <c r="D139" s="345"/>
+      <c r="C139" s="305"/>
+      <c r="D139" s="337"/>
       <c r="E139" s="225"/>
       <c r="F139" s="243"/>
       <c r="G139" s="244"/>
@@ -24635,8 +24635,8 @@
       </c>
     </row>
     <row r="140" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C140" s="260"/>
-      <c r="D140" s="343" t="s">
+      <c r="C140" s="305"/>
+      <c r="D140" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="223" t="s">
@@ -24662,8 +24662,8 @@
       </c>
     </row>
     <row r="141" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C141" s="260"/>
-      <c r="D141" s="344"/>
+      <c r="C141" s="305"/>
+      <c r="D141" s="336"/>
       <c r="E141" s="224" t="s">
         <v>141</v>
       </c>
@@ -24687,8 +24687,8 @@
       </c>
     </row>
     <row r="142" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C142" s="260"/>
-      <c r="D142" s="344"/>
+      <c r="C142" s="305"/>
+      <c r="D142" s="336"/>
       <c r="E142" s="224" t="s">
         <v>134</v>
       </c>
@@ -24712,8 +24712,8 @@
       </c>
     </row>
     <row r="143" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C143" s="260"/>
-      <c r="D143" s="344"/>
+      <c r="C143" s="305"/>
+      <c r="D143" s="336"/>
       <c r="E143" s="224" t="s">
         <v>136</v>
       </c>
@@ -24737,8 +24737,8 @@
       </c>
     </row>
     <row r="144" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C144" s="260"/>
-      <c r="D144" s="344"/>
+      <c r="C144" s="305"/>
+      <c r="D144" s="336"/>
       <c r="E144" s="224" t="s">
         <v>139</v>
       </c>
@@ -24762,8 +24762,8 @@
       </c>
     </row>
     <row r="145" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C145" s="260"/>
-      <c r="D145" s="344"/>
+      <c r="C145" s="305"/>
+      <c r="D145" s="336"/>
       <c r="E145" s="224" t="s">
         <v>137</v>
       </c>
@@ -24789,8 +24789,8 @@
       </c>
     </row>
     <row r="146" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C146" s="260"/>
-      <c r="D146" s="344"/>
+      <c r="C146" s="305"/>
+      <c r="D146" s="336"/>
       <c r="E146" s="224" t="s">
         <v>133</v>
       </c>
@@ -24814,8 +24814,8 @@
       </c>
     </row>
     <row r="147" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C147" s="260"/>
-      <c r="D147" s="344"/>
+      <c r="C147" s="305"/>
+      <c r="D147" s="336"/>
       <c r="E147" s="224" t="s">
         <v>140</v>
       </c>
@@ -24839,8 +24839,8 @@
       </c>
     </row>
     <row r="148" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C148" s="260"/>
-      <c r="D148" s="344"/>
+      <c r="C148" s="305"/>
+      <c r="D148" s="336"/>
       <c r="E148" s="224" t="s">
         <v>138</v>
       </c>
@@ -24864,8 +24864,8 @@
       </c>
     </row>
     <row r="149" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C149" s="260"/>
-      <c r="D149" s="344"/>
+      <c r="C149" s="305"/>
+      <c r="D149" s="336"/>
       <c r="E149" s="224" t="s">
         <v>135</v>
       </c>
@@ -24889,8 +24889,8 @@
       </c>
     </row>
     <row r="150" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C150" s="260"/>
-      <c r="D150" s="344"/>
+      <c r="C150" s="305"/>
+      <c r="D150" s="336"/>
       <c r="E150" s="224" t="s">
         <v>158</v>
       </c>
@@ -24914,8 +24914,8 @@
       </c>
     </row>
     <row r="151" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C151" s="260"/>
-      <c r="D151" s="344"/>
+      <c r="C151" s="305"/>
+      <c r="D151" s="336"/>
       <c r="E151" s="224" t="s">
         <v>174</v>
       </c>
@@ -24939,8 +24939,8 @@
       </c>
     </row>
     <row r="152" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C152" s="260"/>
-      <c r="D152" s="344"/>
+      <c r="C152" s="305"/>
+      <c r="D152" s="336"/>
       <c r="E152" s="224" t="s">
         <v>175</v>
       </c>
@@ -24964,8 +24964,8 @@
       </c>
     </row>
     <row r="153" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C153" s="262"/>
-      <c r="D153" s="345"/>
+      <c r="C153" s="307"/>
+      <c r="D153" s="337"/>
       <c r="E153" s="225"/>
       <c r="F153" s="234"/>
       <c r="G153" s="235"/>
@@ -24988,38 +24988,38 @@
     </row>
     <row r="154" spans="3:20" ht="14.25" collapsed="1" thickBot="1"/>
     <row r="155" spans="3:20">
-      <c r="C155" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="259"/>
+      <c r="C155" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="283"/>
       <c r="E155" s="77"/>
-      <c r="F155" s="258">
+      <c r="F155" s="282">
         <v>1</v>
       </c>
-      <c r="G155" s="270"/>
-      <c r="H155" s="270"/>
-      <c r="I155" s="270"/>
-      <c r="J155" s="270"/>
-      <c r="K155" s="270"/>
-      <c r="L155" s="270"/>
-      <c r="M155" s="270"/>
-      <c r="N155" s="270">
+      <c r="G155" s="284"/>
+      <c r="H155" s="284"/>
+      <c r="I155" s="284"/>
+      <c r="J155" s="284"/>
+      <c r="K155" s="284"/>
+      <c r="L155" s="284"/>
+      <c r="M155" s="284"/>
+      <c r="N155" s="284">
         <v>2</v>
       </c>
-      <c r="O155" s="270"/>
-      <c r="P155" s="270"/>
-      <c r="Q155" s="270"/>
-      <c r="R155" s="270"/>
-      <c r="S155" s="259"/>
-      <c r="T155" s="319" t="s">
+      <c r="O155" s="284"/>
+      <c r="P155" s="284"/>
+      <c r="Q155" s="284"/>
+      <c r="R155" s="284"/>
+      <c r="S155" s="283"/>
+      <c r="T155" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="156" spans="3:20">
-      <c r="C156" s="260" t="s">
+      <c r="C156" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="261"/>
+      <c r="D156" s="306"/>
       <c r="E156" s="78"/>
       <c r="F156" s="214">
         <f>S124+1</f>
@@ -25077,13 +25077,13 @@
         <f t="shared" si="79"/>
         <v>44598</v>
       </c>
-      <c r="T156" s="320"/>
+      <c r="T156" s="322"/>
     </row>
     <row r="157" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C157" s="335" t="s">
+      <c r="C157" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="336"/>
+      <c r="D157" s="334"/>
       <c r="E157" s="217"/>
       <c r="F157" s="218">
         <f t="shared" ref="F157" si="80">WEEKDAY(F156)</f>
@@ -25141,13 +25141,13 @@
         <f t="shared" ref="S157" si="93">WEEKDAY(S156)</f>
         <v>1</v>
       </c>
-      <c r="T157" s="320"/>
+      <c r="T157" s="322"/>
     </row>
     <row r="158" spans="3:20">
-      <c r="C158" s="258" t="s">
+      <c r="C158" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D158" s="343" t="s">
+      <c r="D158" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E158" s="223" t="s">
@@ -25173,8 +25173,8 @@
       </c>
     </row>
     <row r="159" spans="3:20">
-      <c r="C159" s="260"/>
-      <c r="D159" s="344"/>
+      <c r="C159" s="305"/>
+      <c r="D159" s="336"/>
       <c r="E159" s="224" t="s">
         <v>141</v>
       </c>
@@ -25198,8 +25198,8 @@
       </c>
     </row>
     <row r="160" spans="3:20">
-      <c r="C160" s="260"/>
-      <c r="D160" s="344"/>
+      <c r="C160" s="305"/>
+      <c r="D160" s="336"/>
       <c r="E160" s="224" t="s">
         <v>134</v>
       </c>
@@ -25223,8 +25223,8 @@
       </c>
     </row>
     <row r="161" spans="3:20">
-      <c r="C161" s="260"/>
-      <c r="D161" s="344"/>
+      <c r="C161" s="305"/>
+      <c r="D161" s="336"/>
       <c r="E161" s="224" t="s">
         <v>136</v>
       </c>
@@ -25258,8 +25258,8 @@
       </c>
     </row>
     <row r="162" spans="3:20">
-      <c r="C162" s="260"/>
-      <c r="D162" s="344"/>
+      <c r="C162" s="305"/>
+      <c r="D162" s="336"/>
       <c r="E162" s="224" t="s">
         <v>139</v>
       </c>
@@ -25291,8 +25291,8 @@
       </c>
     </row>
     <row r="163" spans="3:20">
-      <c r="C163" s="260"/>
-      <c r="D163" s="344"/>
+      <c r="C163" s="305"/>
+      <c r="D163" s="336"/>
       <c r="E163" s="224" t="s">
         <v>137</v>
       </c>
@@ -25324,8 +25324,8 @@
       </c>
     </row>
     <row r="164" spans="3:20">
-      <c r="C164" s="260"/>
-      <c r="D164" s="344"/>
+      <c r="C164" s="305"/>
+      <c r="D164" s="336"/>
       <c r="E164" s="224" t="s">
         <v>133</v>
       </c>
@@ -25349,8 +25349,8 @@
       </c>
     </row>
     <row r="165" spans="3:20">
-      <c r="C165" s="260"/>
-      <c r="D165" s="344"/>
+      <c r="C165" s="305"/>
+      <c r="D165" s="336"/>
       <c r="E165" s="224" t="s">
         <v>140</v>
       </c>
@@ -25374,8 +25374,8 @@
       </c>
     </row>
     <row r="166" spans="3:20">
-      <c r="C166" s="260"/>
-      <c r="D166" s="344"/>
+      <c r="C166" s="305"/>
+      <c r="D166" s="336"/>
       <c r="E166" s="224" t="s">
         <v>138</v>
       </c>
@@ -25399,8 +25399,8 @@
       </c>
     </row>
     <row r="167" spans="3:20">
-      <c r="C167" s="260"/>
-      <c r="D167" s="344"/>
+      <c r="C167" s="305"/>
+      <c r="D167" s="336"/>
       <c r="E167" s="224" t="s">
         <v>135</v>
       </c>
@@ -25426,8 +25426,8 @@
       </c>
     </row>
     <row r="168" spans="3:20">
-      <c r="C168" s="260"/>
-      <c r="D168" s="344"/>
+      <c r="C168" s="305"/>
+      <c r="D168" s="336"/>
       <c r="E168" s="224" t="s">
         <v>158</v>
       </c>
@@ -25451,8 +25451,8 @@
       </c>
     </row>
     <row r="169" spans="3:20">
-      <c r="C169" s="260"/>
-      <c r="D169" s="344"/>
+      <c r="C169" s="305"/>
+      <c r="D169" s="336"/>
       <c r="E169" s="224" t="s">
         <v>174</v>
       </c>
@@ -25476,8 +25476,8 @@
       </c>
     </row>
     <row r="170" spans="3:20">
-      <c r="C170" s="260"/>
-      <c r="D170" s="344"/>
+      <c r="C170" s="305"/>
+      <c r="D170" s="336"/>
       <c r="E170" s="224" t="s">
         <v>175</v>
       </c>
@@ -25507,8 +25507,8 @@
       </c>
     </row>
     <row r="171" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C171" s="260"/>
-      <c r="D171" s="345"/>
+      <c r="C171" s="305"/>
+      <c r="D171" s="337"/>
       <c r="E171" s="225"/>
       <c r="F171" s="243"/>
       <c r="G171" s="244"/>
@@ -25530,8 +25530,8 @@
       </c>
     </row>
     <row r="172" spans="3:20">
-      <c r="C172" s="260"/>
-      <c r="D172" s="343" t="s">
+      <c r="C172" s="305"/>
+      <c r="D172" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E172" s="223" t="s">
@@ -25557,8 +25557,8 @@
       </c>
     </row>
     <row r="173" spans="3:20">
-      <c r="C173" s="260"/>
-      <c r="D173" s="344"/>
+      <c r="C173" s="305"/>
+      <c r="D173" s="336"/>
       <c r="E173" s="224" t="s">
         <v>141</v>
       </c>
@@ -25588,8 +25588,8 @@
       </c>
     </row>
     <row r="174" spans="3:20">
-      <c r="C174" s="260"/>
-      <c r="D174" s="344"/>
+      <c r="C174" s="305"/>
+      <c r="D174" s="336"/>
       <c r="E174" s="224" t="s">
         <v>134</v>
       </c>
@@ -25613,8 +25613,8 @@
       </c>
     </row>
     <row r="175" spans="3:20">
-      <c r="C175" s="260"/>
-      <c r="D175" s="344"/>
+      <c r="C175" s="305"/>
+      <c r="D175" s="336"/>
       <c r="E175" s="224" t="s">
         <v>136</v>
       </c>
@@ -25625,21 +25625,27 @@
       <c r="J175" s="232"/>
       <c r="K175" s="233"/>
       <c r="L175" s="233"/>
-      <c r="M175" s="232"/>
-      <c r="N175" s="232"/>
-      <c r="O175" s="232"/>
+      <c r="M175" s="232">
+        <v>1</v>
+      </c>
+      <c r="N175" s="232">
+        <v>1</v>
+      </c>
+      <c r="O175" s="232">
+        <v>1</v>
+      </c>
       <c r="P175" s="232"/>
       <c r="Q175" s="232"/>
       <c r="R175" s="233"/>
       <c r="S175" s="233"/>
       <c r="T175" s="221">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="3:20">
-      <c r="C176" s="260"/>
-      <c r="D176" s="344"/>
+      <c r="C176" s="305"/>
+      <c r="D176" s="336"/>
       <c r="E176" s="224" t="s">
         <v>139</v>
       </c>
@@ -25663,8 +25669,8 @@
       </c>
     </row>
     <row r="177" spans="3:20">
-      <c r="C177" s="260"/>
-      <c r="D177" s="344"/>
+      <c r="C177" s="305"/>
+      <c r="D177" s="336"/>
       <c r="E177" s="224" t="s">
         <v>137</v>
       </c>
@@ -25688,8 +25694,8 @@
       </c>
     </row>
     <row r="178" spans="3:20">
-      <c r="C178" s="260"/>
-      <c r="D178" s="344"/>
+      <c r="C178" s="305"/>
+      <c r="D178" s="336"/>
       <c r="E178" s="224" t="s">
         <v>133</v>
       </c>
@@ -25713,8 +25719,8 @@
       </c>
     </row>
     <row r="179" spans="3:20">
-      <c r="C179" s="260"/>
-      <c r="D179" s="344"/>
+      <c r="C179" s="305"/>
+      <c r="D179" s="336"/>
       <c r="E179" s="224" t="s">
         <v>140</v>
       </c>
@@ -25738,8 +25744,8 @@
       </c>
     </row>
     <row r="180" spans="3:20">
-      <c r="C180" s="260"/>
-      <c r="D180" s="344"/>
+      <c r="C180" s="305"/>
+      <c r="D180" s="336"/>
       <c r="E180" s="224" t="s">
         <v>138</v>
       </c>
@@ -25763,8 +25769,8 @@
       </c>
     </row>
     <row r="181" spans="3:20">
-      <c r="C181" s="260"/>
-      <c r="D181" s="344"/>
+      <c r="C181" s="305"/>
+      <c r="D181" s="336"/>
       <c r="E181" s="224" t="s">
         <v>135</v>
       </c>
@@ -25790,8 +25796,8 @@
       </c>
     </row>
     <row r="182" spans="3:20">
-      <c r="C182" s="260"/>
-      <c r="D182" s="344"/>
+      <c r="C182" s="305"/>
+      <c r="D182" s="336"/>
       <c r="E182" s="224" t="s">
         <v>158</v>
       </c>
@@ -25815,8 +25821,8 @@
       </c>
     </row>
     <row r="183" spans="3:20">
-      <c r="C183" s="260"/>
-      <c r="D183" s="344"/>
+      <c r="C183" s="305"/>
+      <c r="D183" s="336"/>
       <c r="E183" s="224" t="s">
         <v>174</v>
       </c>
@@ -25840,8 +25846,8 @@
       </c>
     </row>
     <row r="184" spans="3:20">
-      <c r="C184" s="260"/>
-      <c r="D184" s="344"/>
+      <c r="C184" s="305"/>
+      <c r="D184" s="336"/>
       <c r="E184" s="224" t="s">
         <v>175</v>
       </c>
@@ -25865,8 +25871,8 @@
       </c>
     </row>
     <row r="185" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C185" s="262"/>
-      <c r="D185" s="345"/>
+      <c r="C185" s="307"/>
+      <c r="D185" s="337"/>
       <c r="E185" s="225"/>
       <c r="F185" s="234"/>
       <c r="G185" s="235"/>
@@ -25889,36 +25895,36 @@
     </row>
     <row r="186" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="187" spans="3:20">
-      <c r="C187" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="259"/>
+      <c r="C187" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="283"/>
       <c r="E187" s="77"/>
-      <c r="F187" s="258">
+      <c r="F187" s="282">
         <v>2</v>
       </c>
-      <c r="G187" s="270"/>
-      <c r="H187" s="270"/>
-      <c r="I187" s="270"/>
-      <c r="J187" s="270"/>
-      <c r="K187" s="270"/>
-      <c r="L187" s="270"/>
-      <c r="M187" s="270"/>
-      <c r="N187" s="270"/>
-      <c r="O187" s="270"/>
-      <c r="P187" s="270"/>
-      <c r="Q187" s="270"/>
-      <c r="R187" s="270"/>
-      <c r="S187" s="259"/>
-      <c r="T187" s="319" t="s">
+      <c r="G187" s="284"/>
+      <c r="H187" s="284"/>
+      <c r="I187" s="284"/>
+      <c r="J187" s="284"/>
+      <c r="K187" s="284"/>
+      <c r="L187" s="284"/>
+      <c r="M187" s="284"/>
+      <c r="N187" s="284"/>
+      <c r="O187" s="284"/>
+      <c r="P187" s="284"/>
+      <c r="Q187" s="284"/>
+      <c r="R187" s="284"/>
+      <c r="S187" s="283"/>
+      <c r="T187" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="188" spans="3:20">
-      <c r="C188" s="260" t="s">
+      <c r="C188" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="261"/>
+      <c r="D188" s="306"/>
       <c r="E188" s="78"/>
       <c r="F188" s="214">
         <f>S156+1</f>
@@ -25976,13 +25982,13 @@
         <f t="shared" si="95"/>
         <v>44612</v>
       </c>
-      <c r="T188" s="320"/>
+      <c r="T188" s="322"/>
     </row>
     <row r="189" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C189" s="335" t="s">
+      <c r="C189" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="336"/>
+      <c r="D189" s="334"/>
       <c r="E189" s="217"/>
       <c r="F189" s="218">
         <f t="shared" ref="F189" si="96">WEEKDAY(F188)</f>
@@ -26040,13 +26046,13 @@
         <f t="shared" ref="S189" si="109">WEEKDAY(S188)</f>
         <v>1</v>
       </c>
-      <c r="T189" s="320"/>
+      <c r="T189" s="322"/>
     </row>
     <row r="190" spans="3:20">
-      <c r="C190" s="258" t="s">
+      <c r="C190" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="343" t="s">
+      <c r="D190" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E190" s="223" t="s">
@@ -26072,8 +26078,8 @@
       </c>
     </row>
     <row r="191" spans="3:20">
-      <c r="C191" s="260"/>
-      <c r="D191" s="344"/>
+      <c r="C191" s="305"/>
+      <c r="D191" s="336"/>
       <c r="E191" s="224" t="s">
         <v>141</v>
       </c>
@@ -26097,8 +26103,8 @@
       </c>
     </row>
     <row r="192" spans="3:20">
-      <c r="C192" s="260"/>
-      <c r="D192" s="344"/>
+      <c r="C192" s="305"/>
+      <c r="D192" s="336"/>
       <c r="E192" s="224" t="s">
         <v>134</v>
       </c>
@@ -26122,8 +26128,8 @@
       </c>
     </row>
     <row r="193" spans="3:20">
-      <c r="C193" s="260"/>
-      <c r="D193" s="344"/>
+      <c r="C193" s="305"/>
+      <c r="D193" s="336"/>
       <c r="E193" s="224" t="s">
         <v>136</v>
       </c>
@@ -26159,8 +26165,8 @@
       </c>
     </row>
     <row r="194" spans="3:20">
-      <c r="C194" s="260"/>
-      <c r="D194" s="344"/>
+      <c r="C194" s="305"/>
+      <c r="D194" s="336"/>
       <c r="E194" s="224" t="s">
         <v>139</v>
       </c>
@@ -26188,8 +26194,8 @@
       </c>
     </row>
     <row r="195" spans="3:20">
-      <c r="C195" s="260"/>
-      <c r="D195" s="344"/>
+      <c r="C195" s="305"/>
+      <c r="D195" s="336"/>
       <c r="E195" s="224" t="s">
         <v>137</v>
       </c>
@@ -26227,8 +26233,8 @@
       </c>
     </row>
     <row r="196" spans="3:20">
-      <c r="C196" s="260"/>
-      <c r="D196" s="344"/>
+      <c r="C196" s="305"/>
+      <c r="D196" s="336"/>
       <c r="E196" s="224" t="s">
         <v>133</v>
       </c>
@@ -26252,8 +26258,8 @@
       </c>
     </row>
     <row r="197" spans="3:20">
-      <c r="C197" s="260"/>
-      <c r="D197" s="344"/>
+      <c r="C197" s="305"/>
+      <c r="D197" s="336"/>
       <c r="E197" s="224" t="s">
         <v>140</v>
       </c>
@@ -26277,8 +26283,8 @@
       </c>
     </row>
     <row r="198" spans="3:20">
-      <c r="C198" s="260"/>
-      <c r="D198" s="344"/>
+      <c r="C198" s="305"/>
+      <c r="D198" s="336"/>
       <c r="E198" s="224" t="s">
         <v>138</v>
       </c>
@@ -26312,8 +26318,8 @@
       </c>
     </row>
     <row r="199" spans="3:20">
-      <c r="C199" s="260"/>
-      <c r="D199" s="344"/>
+      <c r="C199" s="305"/>
+      <c r="D199" s="336"/>
       <c r="E199" s="224" t="s">
         <v>135</v>
       </c>
@@ -26345,8 +26351,8 @@
       </c>
     </row>
     <row r="200" spans="3:20">
-      <c r="C200" s="260"/>
-      <c r="D200" s="344"/>
+      <c r="C200" s="305"/>
+      <c r="D200" s="336"/>
       <c r="E200" s="224" t="s">
         <v>158</v>
       </c>
@@ -26370,8 +26376,8 @@
       </c>
     </row>
     <row r="201" spans="3:20">
-      <c r="C201" s="260"/>
-      <c r="D201" s="344"/>
+      <c r="C201" s="305"/>
+      <c r="D201" s="336"/>
       <c r="E201" s="224" t="s">
         <v>174</v>
       </c>
@@ -26395,8 +26401,8 @@
       </c>
     </row>
     <row r="202" spans="3:20">
-      <c r="C202" s="260"/>
-      <c r="D202" s="344"/>
+      <c r="C202" s="305"/>
+      <c r="D202" s="336"/>
       <c r="E202" s="224" t="s">
         <v>175</v>
       </c>
@@ -26424,8 +26430,8 @@
       </c>
     </row>
     <row r="203" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C203" s="260"/>
-      <c r="D203" s="345"/>
+      <c r="C203" s="305"/>
+      <c r="D203" s="337"/>
       <c r="E203" s="225"/>
       <c r="F203" s="243"/>
       <c r="G203" s="244"/>
@@ -26447,8 +26453,8 @@
       </c>
     </row>
     <row r="204" spans="3:20">
-      <c r="C204" s="260"/>
-      <c r="D204" s="343" t="s">
+      <c r="C204" s="305"/>
+      <c r="D204" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E204" s="223" t="s">
@@ -26474,8 +26480,8 @@
       </c>
     </row>
     <row r="205" spans="3:20">
-      <c r="C205" s="260"/>
-      <c r="D205" s="344"/>
+      <c r="C205" s="305"/>
+      <c r="D205" s="336"/>
       <c r="E205" s="224" t="s">
         <v>141</v>
       </c>
@@ -26499,8 +26505,8 @@
       </c>
     </row>
     <row r="206" spans="3:20">
-      <c r="C206" s="260"/>
-      <c r="D206" s="344"/>
+      <c r="C206" s="305"/>
+      <c r="D206" s="336"/>
       <c r="E206" s="224" t="s">
         <v>134</v>
       </c>
@@ -26524,8 +26530,8 @@
       </c>
     </row>
     <row r="207" spans="3:20">
-      <c r="C207" s="260"/>
-      <c r="D207" s="344"/>
+      <c r="C207" s="305"/>
+      <c r="D207" s="336"/>
       <c r="E207" s="224" t="s">
         <v>136</v>
       </c>
@@ -26549,8 +26555,8 @@
       </c>
     </row>
     <row r="208" spans="3:20">
-      <c r="C208" s="260"/>
-      <c r="D208" s="344"/>
+      <c r="C208" s="305"/>
+      <c r="D208" s="336"/>
       <c r="E208" s="224" t="s">
         <v>139</v>
       </c>
@@ -26574,8 +26580,8 @@
       </c>
     </row>
     <row r="209" spans="3:20">
-      <c r="C209" s="260"/>
-      <c r="D209" s="344"/>
+      <c r="C209" s="305"/>
+      <c r="D209" s="336"/>
       <c r="E209" s="224" t="s">
         <v>137</v>
       </c>
@@ -26599,8 +26605,8 @@
       </c>
     </row>
     <row r="210" spans="3:20">
-      <c r="C210" s="260"/>
-      <c r="D210" s="344"/>
+      <c r="C210" s="305"/>
+      <c r="D210" s="336"/>
       <c r="E210" s="224" t="s">
         <v>133</v>
       </c>
@@ -26624,8 +26630,8 @@
       </c>
     </row>
     <row r="211" spans="3:20">
-      <c r="C211" s="260"/>
-      <c r="D211" s="344"/>
+      <c r="C211" s="305"/>
+      <c r="D211" s="336"/>
       <c r="E211" s="224" t="s">
         <v>140</v>
       </c>
@@ -26649,8 +26655,8 @@
       </c>
     </row>
     <row r="212" spans="3:20">
-      <c r="C212" s="260"/>
-      <c r="D212" s="344"/>
+      <c r="C212" s="305"/>
+      <c r="D212" s="336"/>
       <c r="E212" s="224" t="s">
         <v>138</v>
       </c>
@@ -26674,8 +26680,8 @@
       </c>
     </row>
     <row r="213" spans="3:20">
-      <c r="C213" s="260"/>
-      <c r="D213" s="344"/>
+      <c r="C213" s="305"/>
+      <c r="D213" s="336"/>
       <c r="E213" s="224" t="s">
         <v>135</v>
       </c>
@@ -26699,8 +26705,8 @@
       </c>
     </row>
     <row r="214" spans="3:20">
-      <c r="C214" s="260"/>
-      <c r="D214" s="344"/>
+      <c r="C214" s="305"/>
+      <c r="D214" s="336"/>
       <c r="E214" s="224" t="s">
         <v>158</v>
       </c>
@@ -26724,8 +26730,8 @@
       </c>
     </row>
     <row r="215" spans="3:20">
-      <c r="C215" s="260"/>
-      <c r="D215" s="344"/>
+      <c r="C215" s="305"/>
+      <c r="D215" s="336"/>
       <c r="E215" s="224" t="s">
         <v>174</v>
       </c>
@@ -26749,8 +26755,8 @@
       </c>
     </row>
     <row r="216" spans="3:20">
-      <c r="C216" s="260"/>
-      <c r="D216" s="344"/>
+      <c r="C216" s="305"/>
+      <c r="D216" s="336"/>
       <c r="E216" s="224" t="s">
         <v>175</v>
       </c>
@@ -26774,8 +26780,8 @@
       </c>
     </row>
     <row r="217" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C217" s="262"/>
-      <c r="D217" s="345"/>
+      <c r="C217" s="307"/>
+      <c r="D217" s="337"/>
       <c r="E217" s="225"/>
       <c r="F217" s="234"/>
       <c r="G217" s="235"/>
@@ -26798,38 +26804,38 @@
     </row>
     <row r="218" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="219" spans="3:20">
-      <c r="C219" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="259"/>
+      <c r="C219" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="283"/>
       <c r="E219" s="77"/>
-      <c r="F219" s="258">
+      <c r="F219" s="282">
         <v>2</v>
       </c>
-      <c r="G219" s="270"/>
-      <c r="H219" s="270"/>
-      <c r="I219" s="270"/>
-      <c r="J219" s="270"/>
-      <c r="K219" s="270"/>
-      <c r="L219" s="270"/>
-      <c r="M219" s="270"/>
-      <c r="N219" s="270">
+      <c r="G219" s="284"/>
+      <c r="H219" s="284"/>
+      <c r="I219" s="284"/>
+      <c r="J219" s="284"/>
+      <c r="K219" s="284"/>
+      <c r="L219" s="284"/>
+      <c r="M219" s="284"/>
+      <c r="N219" s="284">
         <v>3</v>
       </c>
-      <c r="O219" s="270"/>
-      <c r="P219" s="270"/>
-      <c r="Q219" s="270"/>
-      <c r="R219" s="270"/>
-      <c r="S219" s="259"/>
-      <c r="T219" s="319" t="s">
+      <c r="O219" s="284"/>
+      <c r="P219" s="284"/>
+      <c r="Q219" s="284"/>
+      <c r="R219" s="284"/>
+      <c r="S219" s="283"/>
+      <c r="T219" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="220" spans="3:20">
-      <c r="C220" s="260" t="s">
+      <c r="C220" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D220" s="261"/>
+      <c r="D220" s="306"/>
       <c r="E220" s="78"/>
       <c r="F220" s="214">
         <f>S188+1</f>
@@ -26887,13 +26893,13 @@
         <f t="shared" si="111"/>
         <v>44626</v>
       </c>
-      <c r="T220" s="320"/>
+      <c r="T220" s="322"/>
     </row>
     <row r="221" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C221" s="335" t="s">
+      <c r="C221" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="336"/>
+      <c r="D221" s="334"/>
       <c r="E221" s="217"/>
       <c r="F221" s="218">
         <f t="shared" ref="F221" si="112">WEEKDAY(F220)</f>
@@ -26951,13 +26957,13 @@
         <f t="shared" ref="S221" si="125">WEEKDAY(S220)</f>
         <v>1</v>
       </c>
-      <c r="T221" s="320"/>
+      <c r="T221" s="322"/>
     </row>
     <row r="222" spans="3:20">
-      <c r="C222" s="258" t="s">
+      <c r="C222" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D222" s="343" t="s">
+      <c r="D222" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="223" t="s">
@@ -26983,8 +26989,8 @@
       </c>
     </row>
     <row r="223" spans="3:20">
-      <c r="C223" s="260"/>
-      <c r="D223" s="344"/>
+      <c r="C223" s="305"/>
+      <c r="D223" s="336"/>
       <c r="E223" s="224" t="s">
         <v>141</v>
       </c>
@@ -27008,8 +27014,8 @@
       </c>
     </row>
     <row r="224" spans="3:20">
-      <c r="C224" s="260"/>
-      <c r="D224" s="344"/>
+      <c r="C224" s="305"/>
+      <c r="D224" s="336"/>
       <c r="E224" s="224" t="s">
         <v>134</v>
       </c>
@@ -27033,8 +27039,8 @@
       </c>
     </row>
     <row r="225" spans="3:20">
-      <c r="C225" s="260"/>
-      <c r="D225" s="344"/>
+      <c r="C225" s="305"/>
+      <c r="D225" s="336"/>
       <c r="E225" s="224" t="s">
         <v>136</v>
       </c>
@@ -27062,8 +27068,8 @@
       </c>
     </row>
     <row r="226" spans="3:20">
-      <c r="C226" s="260"/>
-      <c r="D226" s="344"/>
+      <c r="C226" s="305"/>
+      <c r="D226" s="336"/>
       <c r="E226" s="224" t="s">
         <v>139</v>
       </c>
@@ -27087,8 +27093,8 @@
       </c>
     </row>
     <row r="227" spans="3:20">
-      <c r="C227" s="260"/>
-      <c r="D227" s="344"/>
+      <c r="C227" s="305"/>
+      <c r="D227" s="336"/>
       <c r="E227" s="224" t="s">
         <v>137</v>
       </c>
@@ -27112,8 +27118,8 @@
       </c>
     </row>
     <row r="228" spans="3:20">
-      <c r="C228" s="260"/>
-      <c r="D228" s="344"/>
+      <c r="C228" s="305"/>
+      <c r="D228" s="336"/>
       <c r="E228" s="224" t="s">
         <v>133</v>
       </c>
@@ -27137,8 +27143,8 @@
       </c>
     </row>
     <row r="229" spans="3:20">
-      <c r="C229" s="260"/>
-      <c r="D229" s="344"/>
+      <c r="C229" s="305"/>
+      <c r="D229" s="336"/>
       <c r="E229" s="224" t="s">
         <v>140</v>
       </c>
@@ -27162,8 +27168,8 @@
       </c>
     </row>
     <row r="230" spans="3:20">
-      <c r="C230" s="260"/>
-      <c r="D230" s="344"/>
+      <c r="C230" s="305"/>
+      <c r="D230" s="336"/>
       <c r="E230" s="224" t="s">
         <v>138</v>
       </c>
@@ -27197,8 +27203,8 @@
       </c>
     </row>
     <row r="231" spans="3:20">
-      <c r="C231" s="260"/>
-      <c r="D231" s="344"/>
+      <c r="C231" s="305"/>
+      <c r="D231" s="336"/>
       <c r="E231" s="224" t="s">
         <v>135</v>
       </c>
@@ -27222,8 +27228,8 @@
       </c>
     </row>
     <row r="232" spans="3:20">
-      <c r="C232" s="260"/>
-      <c r="D232" s="344"/>
+      <c r="C232" s="305"/>
+      <c r="D232" s="336"/>
       <c r="E232" s="224" t="s">
         <v>158</v>
       </c>
@@ -27247,8 +27253,8 @@
       </c>
     </row>
     <row r="233" spans="3:20">
-      <c r="C233" s="260"/>
-      <c r="D233" s="344"/>
+      <c r="C233" s="305"/>
+      <c r="D233" s="336"/>
       <c r="E233" s="224" t="s">
         <v>174</v>
       </c>
@@ -27272,8 +27278,8 @@
       </c>
     </row>
     <row r="234" spans="3:20">
-      <c r="C234" s="260"/>
-      <c r="D234" s="344"/>
+      <c r="C234" s="305"/>
+      <c r="D234" s="336"/>
       <c r="E234" s="224" t="s">
         <v>175</v>
       </c>
@@ -27297,8 +27303,8 @@
       </c>
     </row>
     <row r="235" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C235" s="260"/>
-      <c r="D235" s="345"/>
+      <c r="C235" s="305"/>
+      <c r="D235" s="337"/>
       <c r="E235" s="225"/>
       <c r="F235" s="243"/>
       <c r="G235" s="244"/>
@@ -27320,8 +27326,8 @@
       </c>
     </row>
     <row r="236" spans="3:20">
-      <c r="C236" s="260"/>
-      <c r="D236" s="343" t="s">
+      <c r="C236" s="305"/>
+      <c r="D236" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E236" s="223" t="s">
@@ -27347,8 +27353,8 @@
       </c>
     </row>
     <row r="237" spans="3:20">
-      <c r="C237" s="260"/>
-      <c r="D237" s="344"/>
+      <c r="C237" s="305"/>
+      <c r="D237" s="336"/>
       <c r="E237" s="224" t="s">
         <v>141</v>
       </c>
@@ -27372,8 +27378,8 @@
       </c>
     </row>
     <row r="238" spans="3:20">
-      <c r="C238" s="260"/>
-      <c r="D238" s="344"/>
+      <c r="C238" s="305"/>
+      <c r="D238" s="336"/>
       <c r="E238" s="224" t="s">
         <v>134</v>
       </c>
@@ -27397,8 +27403,8 @@
       </c>
     </row>
     <row r="239" spans="3:20">
-      <c r="C239" s="260"/>
-      <c r="D239" s="344"/>
+      <c r="C239" s="305"/>
+      <c r="D239" s="336"/>
       <c r="E239" s="224" t="s">
         <v>136</v>
       </c>
@@ -27422,8 +27428,8 @@
       </c>
     </row>
     <row r="240" spans="3:20">
-      <c r="C240" s="260"/>
-      <c r="D240" s="344"/>
+      <c r="C240" s="305"/>
+      <c r="D240" s="336"/>
       <c r="E240" s="224" t="s">
         <v>139</v>
       </c>
@@ -27447,8 +27453,8 @@
       </c>
     </row>
     <row r="241" spans="3:20">
-      <c r="C241" s="260"/>
-      <c r="D241" s="344"/>
+      <c r="C241" s="305"/>
+      <c r="D241" s="336"/>
       <c r="E241" s="224" t="s">
         <v>137</v>
       </c>
@@ -27472,8 +27478,8 @@
       </c>
     </row>
     <row r="242" spans="3:20">
-      <c r="C242" s="260"/>
-      <c r="D242" s="344"/>
+      <c r="C242" s="305"/>
+      <c r="D242" s="336"/>
       <c r="E242" s="224" t="s">
         <v>133</v>
       </c>
@@ -27497,8 +27503,8 @@
       </c>
     </row>
     <row r="243" spans="3:20">
-      <c r="C243" s="260"/>
-      <c r="D243" s="344"/>
+      <c r="C243" s="305"/>
+      <c r="D243" s="336"/>
       <c r="E243" s="224" t="s">
         <v>140</v>
       </c>
@@ -27522,8 +27528,8 @@
       </c>
     </row>
     <row r="244" spans="3:20">
-      <c r="C244" s="260"/>
-      <c r="D244" s="344"/>
+      <c r="C244" s="305"/>
+      <c r="D244" s="336"/>
       <c r="E244" s="224" t="s">
         <v>138</v>
       </c>
@@ -27547,8 +27553,8 @@
       </c>
     </row>
     <row r="245" spans="3:20">
-      <c r="C245" s="260"/>
-      <c r="D245" s="344"/>
+      <c r="C245" s="305"/>
+      <c r="D245" s="336"/>
       <c r="E245" s="224" t="s">
         <v>135</v>
       </c>
@@ -27572,8 +27578,8 @@
       </c>
     </row>
     <row r="246" spans="3:20">
-      <c r="C246" s="260"/>
-      <c r="D246" s="344"/>
+      <c r="C246" s="305"/>
+      <c r="D246" s="336"/>
       <c r="E246" s="224" t="s">
         <v>158</v>
       </c>
@@ -27597,8 +27603,8 @@
       </c>
     </row>
     <row r="247" spans="3:20">
-      <c r="C247" s="260"/>
-      <c r="D247" s="344"/>
+      <c r="C247" s="305"/>
+      <c r="D247" s="336"/>
       <c r="E247" s="224" t="s">
         <v>174</v>
       </c>
@@ -27622,8 +27628,8 @@
       </c>
     </row>
     <row r="248" spans="3:20">
-      <c r="C248" s="260"/>
-      <c r="D248" s="344"/>
+      <c r="C248" s="305"/>
+      <c r="D248" s="336"/>
       <c r="E248" s="224" t="s">
         <v>175</v>
       </c>
@@ -27647,8 +27653,8 @@
       </c>
     </row>
     <row r="249" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C249" s="262"/>
-      <c r="D249" s="345"/>
+      <c r="C249" s="307"/>
+      <c r="D249" s="337"/>
       <c r="E249" s="225"/>
       <c r="F249" s="234"/>
       <c r="G249" s="235"/>
@@ -27671,34 +27677,48 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="T219:T221"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="T187:T189"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:C217"/>
-    <mergeCell ref="D190:D203"/>
-    <mergeCell ref="D204:D217"/>
-    <mergeCell ref="F187:S187"/>
-    <mergeCell ref="C158:C185"/>
-    <mergeCell ref="D158:D171"/>
-    <mergeCell ref="D172:D185"/>
-    <mergeCell ref="C222:C249"/>
-    <mergeCell ref="D222:D235"/>
-    <mergeCell ref="D236:D249"/>
-    <mergeCell ref="F219:M219"/>
-    <mergeCell ref="N219:S219"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="F155:M155"/>
-    <mergeCell ref="N155:S155"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="D140:D153"/>
-    <mergeCell ref="F123:S123"/>
-    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C62:C89"/>
+    <mergeCell ref="D62:D75"/>
+    <mergeCell ref="D76:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C126:C153"/>
+    <mergeCell ref="D126:D139"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F59:S59"/>
     <mergeCell ref="D30:D43"/>
     <mergeCell ref="D44:D57"/>
     <mergeCell ref="C30:C57"/>
@@ -27715,48 +27735,34 @@
     <mergeCell ref="C94:C121"/>
     <mergeCell ref="D94:D107"/>
     <mergeCell ref="D108:D121"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F59:S59"/>
-    <mergeCell ref="C62:C89"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D89"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C126:C153"/>
-    <mergeCell ref="D126:D139"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I27:S27"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="F155:M155"/>
+    <mergeCell ref="N155:S155"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="D140:D153"/>
+    <mergeCell ref="F123:S123"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C222:C249"/>
+    <mergeCell ref="D222:D235"/>
+    <mergeCell ref="D236:D249"/>
+    <mergeCell ref="F219:M219"/>
+    <mergeCell ref="N219:S219"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="T219:T221"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="T187:T189"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:C217"/>
+    <mergeCell ref="D190:D203"/>
+    <mergeCell ref="D204:D217"/>
+    <mergeCell ref="F187:S187"/>
+    <mergeCell ref="C158:C185"/>
+    <mergeCell ref="D158:D171"/>
+    <mergeCell ref="D172:D185"/>
+    <mergeCell ref="F91:J91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10 J13:J24">

--- a/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
+++ b/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.ueda\Downloads\Desktop\HOKOU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plady\Desktop\HOKOU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="186">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -1815,6 +1815,10 @@
     <rPh sb="1" eb="4">
       <t>ホコウスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4010,12 +4014,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4049,146 +4188,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4196,10 +4206,22 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4208,24 +4230,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4244,12 +4248,39 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4257,33 +4288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5591,91 +5595,91 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="268" t="s">
+      <c r="K6" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="279" t="s">
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="281"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="283"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="302" t="s">
+      <c r="E7" s="294"/>
+      <c r="F7" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="299"/>
-      <c r="H7" s="296" t="s">
+      <c r="G7" s="294"/>
+      <c r="H7" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="297"/>
-      <c r="J7" s="289" t="s">
+      <c r="I7" s="292"/>
+      <c r="J7" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="268" t="s">
+      <c r="K7" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="269"/>
-      <c r="M7" s="270" t="s">
+      <c r="L7" s="280"/>
+      <c r="M7" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="271"/>
-      <c r="O7" s="257" t="s">
+      <c r="N7" s="314"/>
+      <c r="O7" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="258"/>
-      <c r="Q7" s="258"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="259"/>
+      <c r="P7" s="303"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="304"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="300" t="s">
+      <c r="D8" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="297" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="303" t="s">
+      <c r="F8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="255" t="s">
+      <c r="G8" s="297" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="292" t="s">
+      <c r="H8" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="294" t="s">
+      <c r="I8" s="289" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="290"/>
-      <c r="K8" s="260" t="s">
+      <c r="J8" s="285"/>
+      <c r="K8" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="260" t="s">
+      <c r="L8" s="305" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="262" t="s">
+      <c r="M8" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="264" t="s">
+      <c r="N8" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="266" t="s">
+      <c r="O8" s="311" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -5690,31 +5694,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="266" t="s">
+      <c r="T8" s="311" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261" t="s">
+      <c r="D9" s="296"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="263">
+      <c r="M9" s="308">
         <v>0.8</v>
       </c>
-      <c r="N9" s="265" t="s">
+      <c r="N9" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="267"/>
+      <c r="O9" s="312"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -5727,7 +5731,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="267" t="s">
+      <c r="T9" s="312" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6507,36 +6511,36 @@
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="C23" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="283"/>
+      <c r="C23" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="259"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="282">
+      <c r="F23" s="258">
         <v>8</v>
       </c>
-      <c r="G23" s="284"/>
-      <c r="H23" s="284"/>
-      <c r="I23" s="284"/>
-      <c r="J23" s="284"/>
-      <c r="K23" s="284"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="284"/>
-      <c r="O23" s="284"/>
-      <c r="P23" s="284"/>
-      <c r="Q23" s="284"/>
-      <c r="R23" s="284"/>
-      <c r="S23" s="285"/>
-      <c r="T23" s="286" t="s">
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="270"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="271"/>
+      <c r="T23" s="255" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="305" t="s">
+      <c r="C24" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="306"/>
+      <c r="D24" s="261"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -6580,13 +6584,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="287"/>
+      <c r="T24" s="256"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="307" t="s">
+      <c r="C25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="308"/>
+      <c r="D25" s="263"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -6630,13 +6634,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="288"/>
+      <c r="T25" s="257"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="309" t="s">
+      <c r="C26" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="311" t="s">
+      <c r="D26" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -6675,8 +6679,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="309"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="266"/>
       <c r="E27" s="97"/>
       <c r="F27" s="84"/>
       <c r="G27" s="73"/>
@@ -6698,8 +6702,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="309"/>
-      <c r="D28" s="311"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="266"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -6730,8 +6734,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="309"/>
-      <c r="D29" s="311"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="266"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -6764,8 +6768,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="266"/>
       <c r="E30" s="188" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -6796,8 +6800,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="309"/>
-      <c r="D31" s="311"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="266"/>
       <c r="E31" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -6828,8 +6832,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="309"/>
-      <c r="D32" s="311"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="266"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -6862,8 +6866,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="309"/>
-      <c r="D33" s="311"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="266"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -6892,8 +6896,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="309"/>
-      <c r="D34" s="311"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="266"/>
       <c r="E34" s="97"/>
       <c r="F34" s="84"/>
       <c r="G34" s="73"/>
@@ -6915,8 +6919,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="309"/>
-      <c r="D35" s="312"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -6941,8 +6945,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="309"/>
-      <c r="D36" s="313" t="s">
+      <c r="C36" s="264"/>
+      <c r="D36" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -6973,8 +6977,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="309"/>
-      <c r="D37" s="311"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="31"/>
       <c r="F37" s="84"/>
       <c r="G37" s="73"/>
@@ -6996,8 +7000,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="309"/>
-      <c r="D38" s="311"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="266"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7026,8 +7030,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="309"/>
-      <c r="D39" s="311"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7054,8 +7058,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="309"/>
-      <c r="D40" s="311"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="266"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7080,8 +7084,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="309"/>
-      <c r="D41" s="311"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="266"/>
       <c r="E41" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7108,8 +7112,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="309"/>
-      <c r="D42" s="311"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="266"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7138,8 +7142,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="309"/>
-      <c r="D43" s="311"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="266"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7166,8 +7170,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="309"/>
-      <c r="D44" s="311"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="266"/>
       <c r="E44" s="31"/>
       <c r="F44" s="84"/>
       <c r="G44" s="73"/>
@@ -7189,8 +7193,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="310"/>
-      <c r="D45" s="314"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7219,38 +7223,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="283"/>
+      <c r="C47" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="259"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="282">
+      <c r="F47" s="258">
         <v>8</v>
       </c>
-      <c r="G47" s="284"/>
-      <c r="H47" s="284"/>
-      <c r="I47" s="284"/>
-      <c r="J47" s="284"/>
-      <c r="K47" s="284"/>
-      <c r="L47" s="284"/>
-      <c r="M47" s="284"/>
-      <c r="N47" s="284"/>
-      <c r="O47" s="284">
+      <c r="G47" s="270"/>
+      <c r="H47" s="270"/>
+      <c r="I47" s="270"/>
+      <c r="J47" s="270"/>
+      <c r="K47" s="270"/>
+      <c r="L47" s="270"/>
+      <c r="M47" s="270"/>
+      <c r="N47" s="270"/>
+      <c r="O47" s="270">
         <v>9</v>
       </c>
-      <c r="P47" s="284"/>
-      <c r="Q47" s="284"/>
-      <c r="R47" s="284"/>
-      <c r="S47" s="285"/>
-      <c r="T47" s="286" t="s">
+      <c r="P47" s="270"/>
+      <c r="Q47" s="270"/>
+      <c r="R47" s="270"/>
+      <c r="S47" s="271"/>
+      <c r="T47" s="255" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="305" t="s">
+      <c r="C48" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="306"/>
+      <c r="D48" s="261"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -7294,13 +7298,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="287"/>
+      <c r="T48" s="256"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="307" t="s">
+      <c r="C49" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="308"/>
+      <c r="D49" s="263"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -7344,13 +7348,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="288"/>
+      <c r="T49" s="257"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="309" t="s">
+      <c r="C50" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="311" t="s">
+      <c r="D50" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -7377,8 +7381,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="309"/>
-      <c r="D51" s="311"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="266"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -7400,8 +7404,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="309"/>
-      <c r="D52" s="311"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="266"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7426,8 +7430,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="309"/>
-      <c r="D53" s="311"/>
+      <c r="C53" s="264"/>
+      <c r="D53" s="266"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7452,8 +7456,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="17.25">
-      <c r="C54" s="309"/>
-      <c r="D54" s="311"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="266"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7480,8 +7484,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="309"/>
-      <c r="D55" s="311"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="266"/>
       <c r="E55" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7506,8 +7510,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="309"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="266"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7532,8 +7536,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="309"/>
-      <c r="D57" s="311"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="266"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7558,8 +7562,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="309"/>
-      <c r="D58" s="311"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="266"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -7581,8 +7585,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="309"/>
-      <c r="D59" s="312"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="267"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7607,8 +7611,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="309"/>
-      <c r="D60" s="313" t="s">
+      <c r="C60" s="264"/>
+      <c r="D60" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -7635,8 +7639,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="309"/>
-      <c r="D61" s="311"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="266"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -7658,8 +7662,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="309"/>
-      <c r="D62" s="311"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="266"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7684,8 +7688,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="309"/>
-      <c r="D63" s="311"/>
+      <c r="C63" s="264"/>
+      <c r="D63" s="266"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7710,8 +7714,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="309"/>
-      <c r="D64" s="311"/>
+      <c r="C64" s="264"/>
+      <c r="D64" s="266"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7736,8 +7740,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="309"/>
-      <c r="D65" s="311"/>
+      <c r="C65" s="264"/>
+      <c r="D65" s="266"/>
       <c r="E65" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7762,8 +7766,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="309"/>
-      <c r="D66" s="311"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="266"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7792,8 +7796,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="309"/>
-      <c r="D67" s="311"/>
+      <c r="C67" s="264"/>
+      <c r="D67" s="266"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7818,8 +7822,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="309"/>
-      <c r="D68" s="311"/>
+      <c r="C68" s="264"/>
+      <c r="D68" s="266"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -7841,8 +7845,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="310"/>
-      <c r="D69" s="314"/>
+      <c r="C69" s="265"/>
+      <c r="D69" s="269"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7872,20 +7876,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
@@ -7902,16 +7902,20 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="O47:S47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -8086,91 +8090,91 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="268" t="s">
+      <c r="K6" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="279" t="s">
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="281"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="283"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="302" t="s">
+      <c r="E7" s="294"/>
+      <c r="F7" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="299"/>
-      <c r="H7" s="296" t="s">
+      <c r="G7" s="294"/>
+      <c r="H7" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="297"/>
-      <c r="J7" s="289" t="s">
+      <c r="I7" s="292"/>
+      <c r="J7" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="268" t="s">
+      <c r="K7" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="269"/>
-      <c r="M7" s="270" t="s">
+      <c r="L7" s="280"/>
+      <c r="M7" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="271"/>
-      <c r="O7" s="257" t="s">
+      <c r="N7" s="314"/>
+      <c r="O7" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="258"/>
-      <c r="Q7" s="258"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="259"/>
+      <c r="P7" s="303"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="304"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="300" t="s">
+      <c r="D8" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="297" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="303" t="s">
+      <c r="F8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G8" s="317" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="292" t="s">
+      <c r="H8" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="294" t="s">
+      <c r="I8" s="289" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="290"/>
-      <c r="K8" s="260" t="s">
+      <c r="J8" s="285"/>
+      <c r="K8" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="260" t="s">
+      <c r="L8" s="305" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="262" t="s">
+      <c r="M8" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="264" t="s">
+      <c r="N8" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="317" t="s">
+      <c r="O8" s="315" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -8185,31 +8189,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="266" t="s">
+      <c r="T8" s="311" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261" t="s">
+      <c r="D9" s="296"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="263">
+      <c r="M9" s="308">
         <v>0.8</v>
       </c>
-      <c r="N9" s="265" t="s">
+      <c r="N9" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="318"/>
+      <c r="O9" s="316"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -8222,7 +8226,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="267" t="s">
+      <c r="T9" s="312" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8982,36 +8986,36 @@
     </row>
     <row r="22" spans="2:20" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:20">
-      <c r="C23" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="283"/>
+      <c r="C23" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="259"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="282">
+      <c r="F23" s="258">
         <v>8</v>
       </c>
-      <c r="G23" s="284"/>
-      <c r="H23" s="284"/>
-      <c r="I23" s="284"/>
-      <c r="J23" s="284"/>
-      <c r="K23" s="284"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="284"/>
-      <c r="O23" s="284"/>
-      <c r="P23" s="284"/>
-      <c r="Q23" s="284"/>
-      <c r="R23" s="284"/>
-      <c r="S23" s="285"/>
-      <c r="T23" s="286" t="s">
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="270"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="270"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="271"/>
+      <c r="T23" s="255" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="305" t="s">
+      <c r="C24" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="306"/>
+      <c r="D24" s="261"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -9055,13 +9059,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="287"/>
+      <c r="T24" s="256"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="307" t="s">
+      <c r="C25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="308"/>
+      <c r="D25" s="263"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -9105,13 +9109,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="288"/>
+      <c r="T25" s="257"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="309" t="s">
+      <c r="C26" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="311" t="s">
+      <c r="D26" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -9148,8 +9152,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="309"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="266"/>
       <c r="E27" s="97"/>
       <c r="F27" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F27="","",'55宮本希(第１Q)'!F27)</f>
@@ -9198,8 +9202,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="309"/>
-      <c r="D28" s="311"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="266"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9244,8 +9248,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="309"/>
-      <c r="D29" s="311"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="266"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9290,8 +9294,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="266"/>
       <c r="E30" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9334,8 +9338,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="309"/>
-      <c r="D31" s="311"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="266"/>
       <c r="E31" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -9378,8 +9382,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="309"/>
-      <c r="D32" s="311"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="266"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -9422,8 +9426,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="309"/>
-      <c r="D33" s="311"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="266"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -9466,8 +9470,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="309"/>
-      <c r="D34" s="311"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="266"/>
       <c r="E34" s="97"/>
       <c r="F34" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F34="","",'55宮本希(第１Q)'!F34)</f>
@@ -9507,8 +9511,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="309"/>
-      <c r="D35" s="312"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -9551,8 +9555,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="309"/>
-      <c r="D36" s="313" t="s">
+      <c r="C36" s="264"/>
+      <c r="D36" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -9621,8 +9625,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="309"/>
-      <c r="D37" s="311"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="31"/>
       <c r="F37" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F37="","",'55宮本希(第１Q)'!F37)</f>
@@ -9686,8 +9690,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="309"/>
-      <c r="D38" s="311"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="266"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9754,8 +9758,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="309"/>
-      <c r="D39" s="311"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9822,8 +9826,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="309"/>
-      <c r="D40" s="311"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="266"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9890,8 +9894,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="309"/>
-      <c r="D41" s="311"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="266"/>
       <c r="E41" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -9958,8 +9962,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="309"/>
-      <c r="D42" s="311"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="266"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10026,8 +10030,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="309"/>
-      <c r="D43" s="311"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="266"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10094,8 +10098,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="309"/>
-      <c r="D44" s="311"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="266"/>
       <c r="E44" s="31"/>
       <c r="F44" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F44="","",'55宮本希(第１Q)'!F44)</f>
@@ -10159,8 +10163,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="310"/>
-      <c r="D45" s="314"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10231,38 +10235,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="283"/>
+      <c r="C47" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="259"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="282">
+      <c r="F47" s="258">
         <v>8</v>
       </c>
-      <c r="G47" s="284"/>
-      <c r="H47" s="284"/>
-      <c r="I47" s="284"/>
-      <c r="J47" s="284"/>
-      <c r="K47" s="284"/>
-      <c r="L47" s="284"/>
-      <c r="M47" s="284"/>
-      <c r="N47" s="284"/>
-      <c r="O47" s="284">
+      <c r="G47" s="270"/>
+      <c r="H47" s="270"/>
+      <c r="I47" s="270"/>
+      <c r="J47" s="270"/>
+      <c r="K47" s="270"/>
+      <c r="L47" s="270"/>
+      <c r="M47" s="270"/>
+      <c r="N47" s="270"/>
+      <c r="O47" s="270">
         <v>9</v>
       </c>
-      <c r="P47" s="284"/>
-      <c r="Q47" s="284"/>
-      <c r="R47" s="284"/>
-      <c r="S47" s="285"/>
-      <c r="T47" s="286" t="s">
+      <c r="P47" s="270"/>
+      <c r="Q47" s="270"/>
+      <c r="R47" s="270"/>
+      <c r="S47" s="271"/>
+      <c r="T47" s="255" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="305" t="s">
+      <c r="C48" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="306"/>
+      <c r="D48" s="261"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -10306,13 +10310,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="287"/>
+      <c r="T48" s="256"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="307" t="s">
+      <c r="C49" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="308"/>
+      <c r="D49" s="263"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -10356,13 +10360,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="288"/>
+      <c r="T49" s="257"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="309" t="s">
+      <c r="C50" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="311" t="s">
+      <c r="D50" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -10397,8 +10401,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="309"/>
-      <c r="D51" s="311"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="266"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -10420,8 +10424,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="309"/>
-      <c r="D52" s="311"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="266"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10452,8 +10456,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="309"/>
-      <c r="D53" s="311"/>
+      <c r="C53" s="264"/>
+      <c r="D53" s="266"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10484,8 +10488,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="18.75">
-      <c r="C54" s="309"/>
-      <c r="D54" s="311"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="266"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10516,8 +10520,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="309"/>
-      <c r="D55" s="311"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="266"/>
       <c r="E55" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -10542,8 +10546,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="309"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="266"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10574,8 +10578,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="309"/>
-      <c r="D57" s="311"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="266"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10604,8 +10608,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="309"/>
-      <c r="D58" s="311"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="266"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -10627,8 +10631,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="309"/>
-      <c r="D59" s="312"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="267"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10653,8 +10657,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="309"/>
-      <c r="D60" s="313" t="s">
+      <c r="C60" s="264"/>
+      <c r="D60" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -10681,8 +10685,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="309"/>
-      <c r="D61" s="311"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="266"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -10704,8 +10708,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="309"/>
-      <c r="D62" s="311"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="266"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10730,8 +10734,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="309"/>
-      <c r="D63" s="311"/>
+      <c r="C63" s="264"/>
+      <c r="D63" s="266"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10756,8 +10760,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="309"/>
-      <c r="D64" s="311"/>
+      <c r="C64" s="264"/>
+      <c r="D64" s="266"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10782,8 +10786,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="309"/>
-      <c r="D65" s="311"/>
+      <c r="C65" s="264"/>
+      <c r="D65" s="266"/>
       <c r="E65" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -10808,8 +10812,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="309"/>
-      <c r="D66" s="311"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="266"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10834,8 +10838,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="309"/>
-      <c r="D67" s="311"/>
+      <c r="C67" s="264"/>
+      <c r="D67" s="266"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10860,8 +10864,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="309"/>
-      <c r="D68" s="311"/>
+      <c r="C68" s="264"/>
+      <c r="D68" s="266"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -10883,8 +10887,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="310"/>
-      <c r="D69" s="314"/>
+      <c r="C69" s="265"/>
+      <c r="D69" s="269"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10914,18 +10918,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="C23:D23"/>
@@ -10942,18 +10946,18 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="O47:S47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -11124,96 +11128,96 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="268" t="s">
+      <c r="K6" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="260" t="s">
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="305" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="280" t="s">
+      <c r="P6" s="282" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="280"/>
-      <c r="R6" s="280"/>
-      <c r="S6" s="280"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="281"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="283"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="302" t="s">
+      <c r="E7" s="294"/>
+      <c r="F7" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="299"/>
-      <c r="H7" s="296" t="s">
+      <c r="G7" s="294"/>
+      <c r="H7" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="297"/>
-      <c r="J7" s="289" t="s">
+      <c r="I7" s="292"/>
+      <c r="J7" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="268" t="s">
+      <c r="K7" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="269"/>
-      <c r="M7" s="270" t="s">
+      <c r="L7" s="280"/>
+      <c r="M7" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="271"/>
+      <c r="N7" s="314"/>
       <c r="O7" s="324"/>
-      <c r="P7" s="258" t="s">
+      <c r="P7" s="303" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="258"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="259"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="303"/>
+      <c r="U7" s="304"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="300" t="s">
+      <c r="D8" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="303" t="s">
+      <c r="F8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G8" s="317" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="292" t="s">
+      <c r="H8" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="294" t="s">
+      <c r="I8" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="290"/>
-      <c r="K8" s="260" t="s">
+      <c r="J8" s="285"/>
+      <c r="K8" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="260" t="s">
+      <c r="L8" s="305" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="262" t="s">
+      <c r="M8" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="264" t="s">
+      <c r="N8" s="309" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
-      <c r="P8" s="319" t="s">
+      <c r="P8" s="325" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="123" t="s">
@@ -11228,32 +11232,32 @@
       <c r="T8" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="266" t="s">
+      <c r="U8" s="311" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261" t="s">
+      <c r="D9" s="296"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="263">
+      <c r="M9" s="308">
         <v>0.8</v>
       </c>
-      <c r="N9" s="265" t="s">
+      <c r="N9" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="261"/>
-      <c r="P9" s="320"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="326"/>
       <c r="Q9" s="123" t="s">
         <v>149</v>
       </c>
@@ -11266,7 +11270,7 @@
       <c r="T9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="267" t="s">
+      <c r="U9" s="312" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12094,38 +12098,38 @@
     </row>
     <row r="22" spans="2:22" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:22">
-      <c r="C23" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="283"/>
+      <c r="C23" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="259"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="325">
+      <c r="F23" s="322">
         <v>11</v>
       </c>
-      <c r="G23" s="326"/>
-      <c r="H23" s="326"/>
-      <c r="I23" s="326"/>
-      <c r="J23" s="326"/>
-      <c r="K23" s="326"/>
-      <c r="L23" s="326"/>
-      <c r="M23" s="326"/>
-      <c r="N23" s="326"/>
-      <c r="O23" s="326"/>
-      <c r="P23" s="326"/>
-      <c r="Q23" s="326"/>
-      <c r="R23" s="326"/>
-      <c r="S23" s="326"/>
-      <c r="T23" s="326"/>
-      <c r="U23" s="321"/>
-      <c r="V23" s="321" t="s">
+      <c r="G23" s="323"/>
+      <c r="H23" s="323"/>
+      <c r="I23" s="323"/>
+      <c r="J23" s="323"/>
+      <c r="K23" s="323"/>
+      <c r="L23" s="323"/>
+      <c r="M23" s="323"/>
+      <c r="N23" s="323"/>
+      <c r="O23" s="323"/>
+      <c r="P23" s="323"/>
+      <c r="Q23" s="323"/>
+      <c r="R23" s="323"/>
+      <c r="S23" s="323"/>
+      <c r="T23" s="323"/>
+      <c r="U23" s="319"/>
+      <c r="V23" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:22">
-      <c r="C24" s="305" t="s">
+      <c r="C24" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="306"/>
+      <c r="D24" s="261"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>16</v>
@@ -12173,13 +12177,13 @@
         <v>30</v>
       </c>
       <c r="U24" s="91"/>
-      <c r="V24" s="322"/>
+      <c r="V24" s="320"/>
     </row>
     <row r="25" spans="2:22" ht="14.25" thickBot="1">
-      <c r="C25" s="307" t="s">
+      <c r="C25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="308"/>
+      <c r="D25" s="263"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>145</v>
@@ -12227,13 +12231,13 @@
         <v>118</v>
       </c>
       <c r="U25" s="203"/>
-      <c r="V25" s="323"/>
+      <c r="V25" s="321"/>
     </row>
     <row r="26" spans="2:22" ht="17.25">
-      <c r="C26" s="309" t="s">
+      <c r="C26" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="311" t="s">
+      <c r="D26" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="s">
@@ -12263,8 +12267,8 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="17.25">
-      <c r="C27" s="309"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="266"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -12290,8 +12294,8 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="17.25">
-      <c r="C28" s="309"/>
-      <c r="D28" s="311"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="266"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -12319,8 +12323,8 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="17.25">
-      <c r="C29" s="309"/>
-      <c r="D29" s="311"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="266"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -12352,8 +12356,8 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="17.25">
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="266"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -12379,8 +12383,8 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="17.25">
-      <c r="C31" s="309"/>
-      <c r="D31" s="311"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="266"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -12408,8 +12412,8 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="17.25">
-      <c r="C32" s="309"/>
-      <c r="D32" s="311"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="266"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -12435,8 +12439,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="309"/>
-      <c r="D33" s="311"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="266"/>
       <c r="E33" s="97" t="s">
         <v>140</v>
       </c>
@@ -12466,8 +12470,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="17.25">
-      <c r="C34" s="309"/>
-      <c r="D34" s="311"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="266"/>
       <c r="E34" s="97" t="s">
         <v>141</v>
       </c>
@@ -12497,8 +12501,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="18" thickBot="1">
-      <c r="C35" s="309"/>
-      <c r="D35" s="312"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="98" t="s">
         <v>142</v>
       </c>
@@ -12524,8 +12528,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="309"/>
-      <c r="D36" s="313" t="s">
+      <c r="C36" s="264"/>
+      <c r="D36" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -12553,8 +12557,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="309"/>
-      <c r="D37" s="311"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -12596,8 +12600,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="309"/>
-      <c r="D38" s="311"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="266"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -12623,8 +12627,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="309"/>
-      <c r="D39" s="311"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="31" t="s">
         <v>170</v>
       </c>
@@ -12656,8 +12660,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="309"/>
-      <c r="D40" s="311"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="266"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -12683,8 +12687,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="309"/>
-      <c r="D41" s="311"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="266"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -12710,8 +12714,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="309"/>
-      <c r="D42" s="311"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="266"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -12737,8 +12741,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="309"/>
-      <c r="D43" s="311"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="266"/>
       <c r="E43" s="31" t="s">
         <v>140</v>
       </c>
@@ -12764,8 +12768,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="17.25">
-      <c r="C44" s="309"/>
-      <c r="D44" s="311"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="266"/>
       <c r="E44" s="31" t="s">
         <v>141</v>
       </c>
@@ -12791,8 +12795,8 @@
       </c>
     </row>
     <row r="45" spans="3:22" ht="18" thickBot="1">
-      <c r="C45" s="310"/>
-      <c r="D45" s="314"/>
+      <c r="C45" s="265"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="99" t="s">
         <v>142</v>
       </c>
@@ -12822,38 +12826,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="283"/>
+      <c r="C47" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="259"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="325">
+      <c r="F47" s="322">
         <v>12</v>
       </c>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326"/>
-      <c r="K47" s="326"/>
-      <c r="L47" s="326"/>
-      <c r="M47" s="326"/>
-      <c r="N47" s="326"/>
-      <c r="O47" s="326"/>
-      <c r="P47" s="326"/>
-      <c r="Q47" s="326"/>
-      <c r="R47" s="326"/>
-      <c r="S47" s="326"/>
-      <c r="T47" s="326"/>
-      <c r="U47" s="321"/>
-      <c r="V47" s="321" t="s">
+      <c r="G47" s="323"/>
+      <c r="H47" s="323"/>
+      <c r="I47" s="323"/>
+      <c r="J47" s="323"/>
+      <c r="K47" s="323"/>
+      <c r="L47" s="323"/>
+      <c r="M47" s="323"/>
+      <c r="N47" s="323"/>
+      <c r="O47" s="323"/>
+      <c r="P47" s="323"/>
+      <c r="Q47" s="323"/>
+      <c r="R47" s="323"/>
+      <c r="S47" s="323"/>
+      <c r="T47" s="323"/>
+      <c r="U47" s="319"/>
+      <c r="V47" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:22">
-      <c r="C48" s="305" t="s">
+      <c r="C48" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="306"/>
+      <c r="D48" s="261"/>
       <c r="E48" s="78"/>
       <c r="F48" s="81">
         <v>1</v>
@@ -12901,13 +12905,13 @@
         <v>15</v>
       </c>
       <c r="U48" s="91"/>
-      <c r="V48" s="322"/>
+      <c r="V48" s="320"/>
     </row>
     <row r="49" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C49" s="307" t="s">
+      <c r="C49" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="308"/>
+      <c r="D49" s="263"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>146</v>
@@ -12955,13 +12959,13 @@
         <v>119</v>
       </c>
       <c r="U49" s="203"/>
-      <c r="V49" s="323"/>
+      <c r="V49" s="321"/>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="309" t="s">
+      <c r="C50" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="311" t="s">
+      <c r="D50" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="s">
@@ -12989,8 +12993,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="309"/>
-      <c r="D51" s="311"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="266"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -13016,8 +13020,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="309"/>
-      <c r="D52" s="311"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="266"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -13043,8 +13047,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="309"/>
-      <c r="D53" s="311"/>
+      <c r="C53" s="264"/>
+      <c r="D53" s="266"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -13080,8 +13084,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="309"/>
-      <c r="D54" s="311"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="266"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -13123,8 +13127,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="309"/>
-      <c r="D55" s="311"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="266"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -13160,8 +13164,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="309"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="266"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -13189,8 +13193,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="309"/>
-      <c r="D57" s="311"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="266"/>
       <c r="E57" s="97" t="s">
         <v>140</v>
       </c>
@@ -13216,8 +13220,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="17.25">
-      <c r="C58" s="309"/>
-      <c r="D58" s="311"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="266"/>
       <c r="E58" s="97" t="s">
         <v>141</v>
       </c>
@@ -13243,8 +13247,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="18" thickBot="1">
-      <c r="C59" s="309"/>
-      <c r="D59" s="312"/>
+      <c r="C59" s="264"/>
+      <c r="D59" s="267"/>
       <c r="E59" s="98" t="s">
         <v>142</v>
       </c>
@@ -13282,8 +13286,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="309"/>
-      <c r="D60" s="313" t="s">
+      <c r="C60" s="264"/>
+      <c r="D60" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="s">
@@ -13311,8 +13315,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="309"/>
-      <c r="D61" s="311"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="266"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -13338,8 +13342,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="309"/>
-      <c r="D62" s="311"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="266"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -13365,8 +13369,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="309"/>
-      <c r="D63" s="311"/>
+      <c r="C63" s="264"/>
+      <c r="D63" s="266"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -13392,8 +13396,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="309"/>
-      <c r="D64" s="311"/>
+      <c r="C64" s="264"/>
+      <c r="D64" s="266"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -13423,8 +13427,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="309"/>
-      <c r="D65" s="311"/>
+      <c r="C65" s="264"/>
+      <c r="D65" s="266"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -13450,8 +13454,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="309"/>
-      <c r="D66" s="311"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="266"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -13477,8 +13481,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="309"/>
-      <c r="D67" s="311"/>
+      <c r="C67" s="264"/>
+      <c r="D67" s="266"/>
       <c r="E67" s="31" t="s">
         <v>140</v>
       </c>
@@ -13504,8 +13508,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="17.25">
-      <c r="C68" s="309"/>
-      <c r="D68" s="311"/>
+      <c r="C68" s="264"/>
+      <c r="D68" s="266"/>
       <c r="E68" s="31" t="s">
         <v>141</v>
       </c>
@@ -13531,8 +13535,8 @@
       </c>
     </row>
     <row r="69" spans="3:22" ht="18" thickBot="1">
-      <c r="C69" s="310"/>
-      <c r="D69" s="314"/>
+      <c r="C69" s="265"/>
+      <c r="D69" s="269"/>
       <c r="E69" s="99" t="s">
         <v>142</v>
       </c>
@@ -13562,38 +13566,38 @@
       <c r="D70" s="72"/>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="283"/>
+      <c r="C71" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="259"/>
       <c r="E71" s="77"/>
-      <c r="F71" s="325">
+      <c r="F71" s="322">
         <v>12</v>
       </c>
-      <c r="G71" s="326"/>
-      <c r="H71" s="326"/>
-      <c r="I71" s="326"/>
-      <c r="J71" s="326"/>
-      <c r="K71" s="326"/>
-      <c r="L71" s="326"/>
-      <c r="M71" s="326"/>
-      <c r="N71" s="326"/>
-      <c r="O71" s="326"/>
-      <c r="P71" s="326"/>
-      <c r="Q71" s="326"/>
-      <c r="R71" s="326"/>
-      <c r="S71" s="326"/>
-      <c r="T71" s="326"/>
-      <c r="U71" s="321"/>
-      <c r="V71" s="321" t="s">
+      <c r="G71" s="323"/>
+      <c r="H71" s="323"/>
+      <c r="I71" s="323"/>
+      <c r="J71" s="323"/>
+      <c r="K71" s="323"/>
+      <c r="L71" s="323"/>
+      <c r="M71" s="323"/>
+      <c r="N71" s="323"/>
+      <c r="O71" s="323"/>
+      <c r="P71" s="323"/>
+      <c r="Q71" s="323"/>
+      <c r="R71" s="323"/>
+      <c r="S71" s="323"/>
+      <c r="T71" s="323"/>
+      <c r="U71" s="319"/>
+      <c r="V71" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="3:22">
-      <c r="C72" s="305" t="s">
+      <c r="C72" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="306"/>
+      <c r="D72" s="261"/>
       <c r="E72" s="78"/>
       <c r="F72" s="81">
         <v>16</v>
@@ -13643,13 +13647,13 @@
       <c r="U72" s="91">
         <v>31</v>
       </c>
-      <c r="V72" s="322"/>
+      <c r="V72" s="320"/>
     </row>
     <row r="73" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C73" s="307" t="s">
+      <c r="C73" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="308"/>
+      <c r="D73" s="263"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145" t="s">
         <v>147</v>
@@ -13699,13 +13703,13 @@
       <c r="U73" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V73" s="323"/>
+      <c r="V73" s="321"/>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="309" t="s">
+      <c r="C74" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="311" t="s">
+      <c r="D74" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="96" t="s">
@@ -13733,8 +13737,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="309"/>
-      <c r="D75" s="311"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="266"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -13760,8 +13764,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="309"/>
-      <c r="D76" s="311"/>
+      <c r="C76" s="264"/>
+      <c r="D76" s="266"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -13787,8 +13791,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="309"/>
-      <c r="D77" s="311"/>
+      <c r="C77" s="264"/>
+      <c r="D77" s="266"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -13814,8 +13818,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="309"/>
-      <c r="D78" s="311"/>
+      <c r="C78" s="264"/>
+      <c r="D78" s="266"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -13855,8 +13859,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="309"/>
-      <c r="D79" s="311"/>
+      <c r="C79" s="264"/>
+      <c r="D79" s="266"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -13882,8 +13886,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="309"/>
-      <c r="D80" s="311"/>
+      <c r="C80" s="264"/>
+      <c r="D80" s="266"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -13909,8 +13913,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="309"/>
-      <c r="D81" s="311"/>
+      <c r="C81" s="264"/>
+      <c r="D81" s="266"/>
       <c r="E81" s="97" t="s">
         <v>140</v>
       </c>
@@ -13936,8 +13940,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="17.25">
-      <c r="C82" s="309"/>
-      <c r="D82" s="311"/>
+      <c r="C82" s="264"/>
+      <c r="D82" s="266"/>
       <c r="E82" s="97" t="s">
         <v>141</v>
       </c>
@@ -13963,8 +13967,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="18" thickBot="1">
-      <c r="C83" s="309"/>
-      <c r="D83" s="312"/>
+      <c r="C83" s="264"/>
+      <c r="D83" s="267"/>
       <c r="E83" s="98" t="s">
         <v>142</v>
       </c>
@@ -14006,8 +14010,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="309"/>
-      <c r="D84" s="313" t="s">
+      <c r="C84" s="264"/>
+      <c r="D84" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="32" t="s">
@@ -14035,8 +14039,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="309"/>
-      <c r="D85" s="311"/>
+      <c r="C85" s="264"/>
+      <c r="D85" s="266"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -14062,8 +14066,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="309"/>
-      <c r="D86" s="311"/>
+      <c r="C86" s="264"/>
+      <c r="D86" s="266"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -14089,8 +14093,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="309"/>
-      <c r="D87" s="311"/>
+      <c r="C87" s="264"/>
+      <c r="D87" s="266"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -14116,8 +14120,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="309"/>
-      <c r="D88" s="311"/>
+      <c r="C88" s="264"/>
+      <c r="D88" s="266"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -14143,8 +14147,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="309"/>
-      <c r="D89" s="311"/>
+      <c r="C89" s="264"/>
+      <c r="D89" s="266"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -14170,8 +14174,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="309"/>
-      <c r="D90" s="311"/>
+      <c r="C90" s="264"/>
+      <c r="D90" s="266"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -14197,8 +14201,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="309"/>
-      <c r="D91" s="311"/>
+      <c r="C91" s="264"/>
+      <c r="D91" s="266"/>
       <c r="E91" s="31" t="s">
         <v>140</v>
       </c>
@@ -14224,8 +14228,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="17.25">
-      <c r="C92" s="309"/>
-      <c r="D92" s="311"/>
+      <c r="C92" s="264"/>
+      <c r="D92" s="266"/>
       <c r="E92" s="31" t="s">
         <v>141</v>
       </c>
@@ -14251,8 +14255,8 @@
       </c>
     </row>
     <row r="93" spans="3:22" ht="18" thickBot="1">
-      <c r="C93" s="310"/>
-      <c r="D93" s="314"/>
+      <c r="C93" s="265"/>
+      <c r="D93" s="269"/>
       <c r="E93" s="99" t="s">
         <v>142</v>
       </c>
@@ -14281,25 +14285,19 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:C93"/>
-    <mergeCell ref="D74:D83"/>
-    <mergeCell ref="D84:D93"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:U71"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:U47"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="C24:D24"/>
@@ -14316,19 +14314,25 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:U47"/>
+    <mergeCell ref="C74:C93"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="D84:D93"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:U71"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -14499,13 +14503,13 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="268" t="s">
+      <c r="K6" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="260" t="s">
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="305" t="s">
         <v>144</v>
       </c>
       <c r="P6" s="327" t="s">
@@ -14521,29 +14525,29 @@
     <row r="7" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="302" t="s">
+      <c r="E7" s="294"/>
+      <c r="F7" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="299"/>
-      <c r="H7" s="296" t="s">
+      <c r="G7" s="294"/>
+      <c r="H7" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="297"/>
-      <c r="J7" s="289" t="s">
+      <c r="I7" s="292"/>
+      <c r="J7" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="268" t="s">
+      <c r="K7" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="269"/>
-      <c r="M7" s="270" t="s">
+      <c r="L7" s="280"/>
+      <c r="M7" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="271"/>
+      <c r="N7" s="314"/>
       <c r="O7" s="324"/>
       <c r="P7" s="330" t="s">
         <v>81</v>
@@ -14558,39 +14562,39 @@
     <row r="8" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="300" t="s">
+      <c r="D8" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="303" t="s">
+      <c r="F8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G8" s="317" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="292" t="s">
+      <c r="H8" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="294" t="s">
+      <c r="I8" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="290"/>
-      <c r="K8" s="260" t="s">
+      <c r="J8" s="285"/>
+      <c r="K8" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="260" t="s">
+      <c r="L8" s="305" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="262" t="s">
+      <c r="M8" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="264" t="s">
+      <c r="N8" s="309" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
-      <c r="P8" s="319" t="s">
+      <c r="P8" s="325" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="124" t="s">
@@ -14611,32 +14615,32 @@
       <c r="V8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="266" t="s">
+      <c r="W8" s="311" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261" t="s">
+      <c r="D9" s="296"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="263">
+      <c r="M9" s="308">
         <v>0.8</v>
       </c>
-      <c r="N9" s="265" t="s">
+      <c r="N9" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="261"/>
-      <c r="P9" s="320"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="326"/>
       <c r="Q9" s="124" t="s">
         <v>153</v>
       </c>
@@ -14655,7 +14659,7 @@
       <c r="V9" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="267" t="s">
+      <c r="W9" s="312" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15445,38 +15449,38 @@
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="C22" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="283"/>
+      <c r="C22" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="259"/>
       <c r="E22" s="77"/>
-      <c r="F22" s="325">
+      <c r="F22" s="322">
         <v>12</v>
       </c>
-      <c r="G22" s="326"/>
-      <c r="H22" s="326"/>
-      <c r="I22" s="326"/>
-      <c r="J22" s="326"/>
-      <c r="K22" s="326"/>
-      <c r="L22" s="326"/>
-      <c r="M22" s="326"/>
-      <c r="N22" s="326"/>
-      <c r="O22" s="326"/>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="326"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326"/>
-      <c r="T22" s="326"/>
-      <c r="U22" s="321"/>
-      <c r="V22" s="321" t="s">
+      <c r="G22" s="323"/>
+      <c r="H22" s="323"/>
+      <c r="I22" s="323"/>
+      <c r="J22" s="323"/>
+      <c r="K22" s="323"/>
+      <c r="L22" s="323"/>
+      <c r="M22" s="323"/>
+      <c r="N22" s="323"/>
+      <c r="O22" s="323"/>
+      <c r="P22" s="323"/>
+      <c r="Q22" s="323"/>
+      <c r="R22" s="323"/>
+      <c r="S22" s="323"/>
+      <c r="T22" s="323"/>
+      <c r="U22" s="319"/>
+      <c r="V22" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="C23" s="305" t="s">
+      <c r="C23" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="306"/>
+      <c r="D23" s="261"/>
       <c r="E23" s="78"/>
       <c r="F23" s="81">
         <v>1</v>
@@ -15524,13 +15528,13 @@
         <v>15</v>
       </c>
       <c r="U23" s="91"/>
-      <c r="V23" s="322"/>
+      <c r="V23" s="320"/>
     </row>
     <row r="24" spans="2:24" ht="14.25" thickBot="1">
-      <c r="C24" s="307" t="s">
+      <c r="C24" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="308"/>
+      <c r="D24" s="263"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145" t="s">
         <v>146</v>
@@ -15578,13 +15582,13 @@
         <v>119</v>
       </c>
       <c r="U24" s="203"/>
-      <c r="V24" s="323"/>
+      <c r="V24" s="321"/>
     </row>
     <row r="25" spans="2:24" ht="17.25">
-      <c r="C25" s="309" t="s">
+      <c r="C25" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="311" t="s">
+      <c r="D25" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="96" t="s">
@@ -15612,8 +15616,8 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="17.25">
-      <c r="C26" s="309"/>
-      <c r="D26" s="311"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="266"/>
       <c r="E26" s="97" t="s">
         <v>158</v>
       </c>
@@ -15639,8 +15643,8 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="17.25">
-      <c r="C27" s="309"/>
-      <c r="D27" s="311"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="266"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -15666,8 +15670,8 @@
       </c>
     </row>
     <row r="28" spans="2:24" ht="17.25">
-      <c r="C28" s="309"/>
-      <c r="D28" s="311"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="266"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -15693,8 +15697,8 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="17.25">
-      <c r="C29" s="309"/>
-      <c r="D29" s="311"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="266"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -15720,8 +15724,8 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="17.25">
-      <c r="C30" s="309"/>
-      <c r="D30" s="311"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="266"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -15747,8 +15751,8 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="17.25">
-      <c r="C31" s="309"/>
-      <c r="D31" s="311"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="266"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -15774,8 +15778,8 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="17.25">
-      <c r="C32" s="309"/>
-      <c r="D32" s="311"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="266"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -15801,8 +15805,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="309"/>
-      <c r="D33" s="311"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="266"/>
       <c r="E33" s="97" t="s">
         <v>142</v>
       </c>
@@ -15828,8 +15832,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="18" thickBot="1">
-      <c r="C34" s="309"/>
-      <c r="D34" s="312"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="267"/>
       <c r="E34" s="98"/>
       <c r="F34" s="195"/>
       <c r="G34" s="196"/>
@@ -15853,8 +15857,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="17.25">
-      <c r="C35" s="309"/>
-      <c r="D35" s="313" t="s">
+      <c r="C35" s="264"/>
+      <c r="D35" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="32" t="s">
@@ -15882,8 +15886,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="309"/>
-      <c r="D36" s="311"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="266"/>
       <c r="E36" s="31" t="s">
         <v>158</v>
       </c>
@@ -15909,8 +15913,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="309"/>
-      <c r="D37" s="311"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -15936,8 +15940,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="309"/>
-      <c r="D38" s="311"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="266"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -15963,8 +15967,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="309"/>
-      <c r="D39" s="311"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="31" t="s">
         <v>136</v>
       </c>
@@ -15990,8 +15994,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="309"/>
-      <c r="D40" s="311"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="266"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -16023,8 +16027,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="309"/>
-      <c r="D41" s="311"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="266"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -16050,8 +16054,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="309"/>
-      <c r="D42" s="311"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="266"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -16077,8 +16081,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="309"/>
-      <c r="D43" s="311"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="266"/>
       <c r="E43" s="31" t="s">
         <v>142</v>
       </c>
@@ -16104,8 +16108,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="18" thickBot="1">
-      <c r="C44" s="310"/>
-      <c r="D44" s="314"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="269"/>
       <c r="E44" s="99"/>
       <c r="F44" s="197"/>
       <c r="G44" s="198"/>
@@ -16133,38 +16137,38 @@
       <c r="D45" s="72"/>
     </row>
     <row r="46" spans="3:22">
-      <c r="C46" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="283"/>
+      <c r="C46" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="259"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="325">
+      <c r="F46" s="322">
         <v>12</v>
       </c>
-      <c r="G46" s="326"/>
-      <c r="H46" s="326"/>
-      <c r="I46" s="326"/>
-      <c r="J46" s="326"/>
-      <c r="K46" s="326"/>
-      <c r="L46" s="326"/>
-      <c r="M46" s="326"/>
-      <c r="N46" s="326"/>
-      <c r="O46" s="326"/>
-      <c r="P46" s="326"/>
-      <c r="Q46" s="326"/>
-      <c r="R46" s="326"/>
-      <c r="S46" s="326"/>
-      <c r="T46" s="326"/>
-      <c r="U46" s="321"/>
-      <c r="V46" s="321" t="s">
+      <c r="G46" s="323"/>
+      <c r="H46" s="323"/>
+      <c r="I46" s="323"/>
+      <c r="J46" s="323"/>
+      <c r="K46" s="323"/>
+      <c r="L46" s="323"/>
+      <c r="M46" s="323"/>
+      <c r="N46" s="323"/>
+      <c r="O46" s="323"/>
+      <c r="P46" s="323"/>
+      <c r="Q46" s="323"/>
+      <c r="R46" s="323"/>
+      <c r="S46" s="323"/>
+      <c r="T46" s="323"/>
+      <c r="U46" s="319"/>
+      <c r="V46" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="305" t="s">
+      <c r="C47" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="306"/>
+      <c r="D47" s="261"/>
       <c r="E47" s="78"/>
       <c r="F47" s="81">
         <v>16</v>
@@ -16214,13 +16218,13 @@
       <c r="U47" s="91">
         <v>31</v>
       </c>
-      <c r="V47" s="322"/>
+      <c r="V47" s="320"/>
     </row>
     <row r="48" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C48" s="307" t="s">
+      <c r="C48" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="308"/>
+      <c r="D48" s="263"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145" t="s">
         <v>147</v>
@@ -16270,13 +16274,13 @@
       <c r="U48" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V48" s="323"/>
+      <c r="V48" s="321"/>
     </row>
     <row r="49" spans="3:22" ht="17.25">
-      <c r="C49" s="309" t="s">
+      <c r="C49" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="311" t="s">
+      <c r="D49" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="96" t="s">
@@ -16304,8 +16308,8 @@
       </c>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="309"/>
-      <c r="D50" s="311"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="266"/>
       <c r="E50" s="97" t="s">
         <v>158</v>
       </c>
@@ -16331,8 +16335,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="309"/>
-      <c r="D51" s="311"/>
+      <c r="C51" s="264"/>
+      <c r="D51" s="266"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -16358,8 +16362,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="309"/>
-      <c r="D52" s="311"/>
+      <c r="C52" s="264"/>
+      <c r="D52" s="266"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -16385,8 +16389,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="309"/>
-      <c r="D53" s="311"/>
+      <c r="C53" s="264"/>
+      <c r="D53" s="266"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -16412,8 +16416,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="309"/>
-      <c r="D54" s="311"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="266"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -16439,8 +16443,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="309"/>
-      <c r="D55" s="311"/>
+      <c r="C55" s="264"/>
+      <c r="D55" s="266"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -16466,8 +16470,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="309"/>
-      <c r="D56" s="311"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="266"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -16493,8 +16497,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="309"/>
-      <c r="D57" s="311"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="266"/>
       <c r="E57" s="97" t="s">
         <v>142</v>
       </c>
@@ -16520,8 +16524,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="18" thickBot="1">
-      <c r="C58" s="309"/>
-      <c r="D58" s="312"/>
+      <c r="C58" s="264"/>
+      <c r="D58" s="267"/>
       <c r="E58" s="98"/>
       <c r="F58" s="195"/>
       <c r="G58" s="196"/>
@@ -16545,8 +16549,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="17.25">
-      <c r="C59" s="309"/>
-      <c r="D59" s="313" t="s">
+      <c r="C59" s="264"/>
+      <c r="D59" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="32" t="s">
@@ -16574,8 +16578,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="309"/>
-      <c r="D60" s="311"/>
+      <c r="C60" s="264"/>
+      <c r="D60" s="266"/>
       <c r="E60" s="31" t="s">
         <v>158</v>
       </c>
@@ -16601,8 +16605,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="309"/>
-      <c r="D61" s="311"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="266"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -16628,8 +16632,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="309"/>
-      <c r="D62" s="311"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="266"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -16655,8 +16659,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="309"/>
-      <c r="D63" s="311"/>
+      <c r="C63" s="264"/>
+      <c r="D63" s="266"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -16684,8 +16688,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="309"/>
-      <c r="D64" s="311"/>
+      <c r="C64" s="264"/>
+      <c r="D64" s="266"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -16711,8 +16715,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="309"/>
-      <c r="D65" s="311"/>
+      <c r="C65" s="264"/>
+      <c r="D65" s="266"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -16738,8 +16742,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="309"/>
-      <c r="D66" s="311"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="266"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -16765,8 +16769,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="309"/>
-      <c r="D67" s="311"/>
+      <c r="C67" s="264"/>
+      <c r="D67" s="266"/>
       <c r="E67" s="31" t="s">
         <v>142</v>
       </c>
@@ -16792,8 +16796,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="18" thickBot="1">
-      <c r="C68" s="310"/>
-      <c r="D68" s="314"/>
+      <c r="C68" s="265"/>
+      <c r="D68" s="269"/>
       <c r="E68" s="99"/>
       <c r="F68" s="197"/>
       <c r="G68" s="198"/>
@@ -16818,38 +16822,38 @@
     </row>
     <row r="69" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="70" spans="3:22">
-      <c r="C70" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="283"/>
+      <c r="C70" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="259"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="325">
+      <c r="F70" s="322">
         <v>1</v>
       </c>
-      <c r="G70" s="326"/>
-      <c r="H70" s="326"/>
-      <c r="I70" s="326"/>
-      <c r="J70" s="326"/>
-      <c r="K70" s="326"/>
-      <c r="L70" s="326"/>
-      <c r="M70" s="326"/>
-      <c r="N70" s="326"/>
-      <c r="O70" s="326"/>
-      <c r="P70" s="326"/>
-      <c r="Q70" s="326"/>
-      <c r="R70" s="326"/>
-      <c r="S70" s="326"/>
-      <c r="T70" s="326"/>
-      <c r="U70" s="321"/>
-      <c r="V70" s="321" t="s">
+      <c r="G70" s="323"/>
+      <c r="H70" s="323"/>
+      <c r="I70" s="323"/>
+      <c r="J70" s="323"/>
+      <c r="K70" s="323"/>
+      <c r="L70" s="323"/>
+      <c r="M70" s="323"/>
+      <c r="N70" s="323"/>
+      <c r="O70" s="323"/>
+      <c r="P70" s="323"/>
+      <c r="Q70" s="323"/>
+      <c r="R70" s="323"/>
+      <c r="S70" s="323"/>
+      <c r="T70" s="323"/>
+      <c r="U70" s="319"/>
+      <c r="V70" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="305" t="s">
+      <c r="C71" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="306"/>
+      <c r="D71" s="261"/>
       <c r="E71" s="78"/>
       <c r="F71" s="81">
         <v>1</v>
@@ -16897,13 +16901,13 @@
         <v>15</v>
       </c>
       <c r="U71" s="91"/>
-      <c r="V71" s="322"/>
+      <c r="V71" s="320"/>
     </row>
     <row r="72" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C72" s="307" t="s">
+      <c r="C72" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="308"/>
+      <c r="D72" s="263"/>
       <c r="E72" s="79"/>
       <c r="F72" s="82" t="s">
         <v>160</v>
@@ -16951,13 +16955,13 @@
         <v>122</v>
       </c>
       <c r="U72" s="203"/>
-      <c r="V72" s="323"/>
+      <c r="V72" s="321"/>
     </row>
     <row r="73" spans="3:22" ht="17.25">
-      <c r="C73" s="309" t="s">
+      <c r="C73" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="311" t="s">
+      <c r="D73" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="96" t="s">
@@ -16999,8 +17003,8 @@
       </c>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="309"/>
-      <c r="D74" s="311"/>
+      <c r="C74" s="264"/>
+      <c r="D74" s="266"/>
       <c r="E74" s="97" t="s">
         <v>158</v>
       </c>
@@ -17028,8 +17032,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="309"/>
-      <c r="D75" s="311"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="266"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -17055,8 +17059,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="309"/>
-      <c r="D76" s="311"/>
+      <c r="C76" s="264"/>
+      <c r="D76" s="266"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -17096,8 +17100,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="309"/>
-      <c r="D77" s="311"/>
+      <c r="C77" s="264"/>
+      <c r="D77" s="266"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -17131,8 +17135,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="309"/>
-      <c r="D78" s="311"/>
+      <c r="C78" s="264"/>
+      <c r="D78" s="266"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -17160,8 +17164,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="309"/>
-      <c r="D79" s="311"/>
+      <c r="C79" s="264"/>
+      <c r="D79" s="266"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -17187,8 +17191,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="309"/>
-      <c r="D80" s="311"/>
+      <c r="C80" s="264"/>
+      <c r="D80" s="266"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -17214,8 +17218,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="309"/>
-      <c r="D81" s="311"/>
+      <c r="C81" s="264"/>
+      <c r="D81" s="266"/>
       <c r="E81" s="97" t="s">
         <v>142</v>
       </c>
@@ -17241,8 +17245,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="18" thickBot="1">
-      <c r="C82" s="309"/>
-      <c r="D82" s="312"/>
+      <c r="C82" s="264"/>
+      <c r="D82" s="267"/>
       <c r="E82" s="98"/>
       <c r="F82" s="171"/>
       <c r="G82" s="173"/>
@@ -17266,8 +17270,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="17.25">
-      <c r="C83" s="309"/>
-      <c r="D83" s="313" t="s">
+      <c r="C83" s="264"/>
+      <c r="D83" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="32" t="s">
@@ -17295,8 +17299,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="309"/>
-      <c r="D84" s="311"/>
+      <c r="C84" s="264"/>
+      <c r="D84" s="266"/>
       <c r="E84" s="31" t="s">
         <v>158</v>
       </c>
@@ -17322,8 +17326,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="309"/>
-      <c r="D85" s="311"/>
+      <c r="C85" s="264"/>
+      <c r="D85" s="266"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -17349,8 +17353,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="309"/>
-      <c r="D86" s="311"/>
+      <c r="C86" s="264"/>
+      <c r="D86" s="266"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -17376,8 +17380,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="309"/>
-      <c r="D87" s="311"/>
+      <c r="C87" s="264"/>
+      <c r="D87" s="266"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -17403,8 +17407,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="309"/>
-      <c r="D88" s="311"/>
+      <c r="C88" s="264"/>
+      <c r="D88" s="266"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -17430,8 +17434,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="309"/>
-      <c r="D89" s="311"/>
+      <c r="C89" s="264"/>
+      <c r="D89" s="266"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -17457,8 +17461,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="309"/>
-      <c r="D90" s="311"/>
+      <c r="C90" s="264"/>
+      <c r="D90" s="266"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -17484,8 +17488,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="309"/>
-      <c r="D91" s="311"/>
+      <c r="C91" s="264"/>
+      <c r="D91" s="266"/>
       <c r="E91" s="31" t="s">
         <v>142</v>
       </c>
@@ -17511,8 +17515,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="18" thickBot="1">
-      <c r="C92" s="310"/>
-      <c r="D92" s="314"/>
+      <c r="C92" s="265"/>
+      <c r="D92" s="269"/>
       <c r="E92" s="99"/>
       <c r="F92" s="176"/>
       <c r="G92" s="178"/>
@@ -17540,38 +17544,38 @@
       <c r="D93" s="72"/>
     </row>
     <row r="94" spans="3:22">
-      <c r="C94" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="283"/>
+      <c r="C94" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="259"/>
       <c r="E94" s="77"/>
-      <c r="F94" s="325">
+      <c r="F94" s="322">
         <v>1</v>
       </c>
-      <c r="G94" s="326"/>
-      <c r="H94" s="326"/>
-      <c r="I94" s="326"/>
-      <c r="J94" s="326"/>
-      <c r="K94" s="326"/>
-      <c r="L94" s="326"/>
-      <c r="M94" s="326"/>
-      <c r="N94" s="326"/>
-      <c r="O94" s="326"/>
-      <c r="P94" s="326"/>
-      <c r="Q94" s="326"/>
-      <c r="R94" s="326"/>
-      <c r="S94" s="326"/>
-      <c r="T94" s="326"/>
-      <c r="U94" s="321"/>
-      <c r="V94" s="321" t="s">
+      <c r="G94" s="323"/>
+      <c r="H94" s="323"/>
+      <c r="I94" s="323"/>
+      <c r="J94" s="323"/>
+      <c r="K94" s="323"/>
+      <c r="L94" s="323"/>
+      <c r="M94" s="323"/>
+      <c r="N94" s="323"/>
+      <c r="O94" s="323"/>
+      <c r="P94" s="323"/>
+      <c r="Q94" s="323"/>
+      <c r="R94" s="323"/>
+      <c r="S94" s="323"/>
+      <c r="T94" s="323"/>
+      <c r="U94" s="319"/>
+      <c r="V94" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="3:22">
-      <c r="C95" s="305" t="s">
+      <c r="C95" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="306"/>
+      <c r="D95" s="261"/>
       <c r="E95" s="78"/>
       <c r="F95" s="81">
         <v>16</v>
@@ -17621,13 +17625,13 @@
       <c r="U95" s="91">
         <v>31</v>
       </c>
-      <c r="V95" s="322"/>
+      <c r="V95" s="320"/>
     </row>
     <row r="96" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C96" s="307" t="s">
+      <c r="C96" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="308"/>
+      <c r="D96" s="263"/>
       <c r="E96" s="79"/>
       <c r="F96" s="82" t="s">
         <v>161</v>
@@ -17677,13 +17681,13 @@
       <c r="U96" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="V96" s="323"/>
+      <c r="V96" s="321"/>
     </row>
     <row r="97" spans="3:22" ht="17.25">
-      <c r="C97" s="309" t="s">
+      <c r="C97" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="311" t="s">
+      <c r="D97" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E97" s="96" t="s">
@@ -17711,8 +17715,8 @@
       </c>
     </row>
     <row r="98" spans="3:22" ht="17.25">
-      <c r="C98" s="309"/>
-      <c r="D98" s="311"/>
+      <c r="C98" s="264"/>
+      <c r="D98" s="266"/>
       <c r="E98" s="97" t="s">
         <v>158</v>
       </c>
@@ -17738,8 +17742,8 @@
       </c>
     </row>
     <row r="99" spans="3:22" ht="17.25">
-      <c r="C99" s="309"/>
-      <c r="D99" s="311"/>
+      <c r="C99" s="264"/>
+      <c r="D99" s="266"/>
       <c r="E99" s="97" t="s">
         <v>134</v>
       </c>
@@ -17765,8 +17769,8 @@
       </c>
     </row>
     <row r="100" spans="3:22" ht="17.25">
-      <c r="C100" s="309"/>
-      <c r="D100" s="311"/>
+      <c r="C100" s="264"/>
+      <c r="D100" s="266"/>
       <c r="E100" s="97" t="s">
         <v>135</v>
       </c>
@@ -17794,8 +17798,8 @@
       </c>
     </row>
     <row r="101" spans="3:22" ht="17.25">
-      <c r="C101" s="309"/>
-      <c r="D101" s="311"/>
+      <c r="C101" s="264"/>
+      <c r="D101" s="266"/>
       <c r="E101" s="97" t="s">
         <v>136</v>
       </c>
@@ -17827,8 +17831,8 @@
       </c>
     </row>
     <row r="102" spans="3:22" ht="17.25">
-      <c r="C102" s="309"/>
-      <c r="D102" s="311"/>
+      <c r="C102" s="264"/>
+      <c r="D102" s="266"/>
       <c r="E102" s="97" t="s">
         <v>137</v>
       </c>
@@ -17864,8 +17868,8 @@
       </c>
     </row>
     <row r="103" spans="3:22" ht="17.25">
-      <c r="C103" s="309"/>
-      <c r="D103" s="311"/>
+      <c r="C103" s="264"/>
+      <c r="D103" s="266"/>
       <c r="E103" s="97" t="s">
         <v>138</v>
       </c>
@@ -17909,8 +17913,8 @@
       </c>
     </row>
     <row r="104" spans="3:22" ht="17.25">
-      <c r="C104" s="309"/>
-      <c r="D104" s="311"/>
+      <c r="C104" s="264"/>
+      <c r="D104" s="266"/>
       <c r="E104" s="97" t="s">
         <v>139</v>
       </c>
@@ -17954,8 +17958,8 @@
       </c>
     </row>
     <row r="105" spans="3:22" ht="17.25">
-      <c r="C105" s="309"/>
-      <c r="D105" s="311"/>
+      <c r="C105" s="264"/>
+      <c r="D105" s="266"/>
       <c r="E105" s="97" t="s">
         <v>142</v>
       </c>
@@ -17981,8 +17985,8 @@
       </c>
     </row>
     <row r="106" spans="3:22" ht="18" thickBot="1">
-      <c r="C106" s="309"/>
-      <c r="D106" s="312"/>
+      <c r="C106" s="264"/>
+      <c r="D106" s="267"/>
       <c r="E106" s="98"/>
       <c r="F106" s="171"/>
       <c r="G106" s="196"/>
@@ -18006,8 +18010,8 @@
       </c>
     </row>
     <row r="107" spans="3:22" ht="17.25">
-      <c r="C107" s="309"/>
-      <c r="D107" s="313" t="s">
+      <c r="C107" s="264"/>
+      <c r="D107" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="32" t="s">
@@ -18035,8 +18039,8 @@
       </c>
     </row>
     <row r="108" spans="3:22" ht="17.25">
-      <c r="C108" s="309"/>
-      <c r="D108" s="311"/>
+      <c r="C108" s="264"/>
+      <c r="D108" s="266"/>
       <c r="E108" s="31" t="s">
         <v>158</v>
       </c>
@@ -18062,8 +18066,8 @@
       </c>
     </row>
     <row r="109" spans="3:22" ht="17.25">
-      <c r="C109" s="309"/>
-      <c r="D109" s="311"/>
+      <c r="C109" s="264"/>
+      <c r="D109" s="266"/>
       <c r="E109" s="31" t="s">
         <v>134</v>
       </c>
@@ -18089,8 +18093,8 @@
       </c>
     </row>
     <row r="110" spans="3:22" ht="17.25">
-      <c r="C110" s="309"/>
-      <c r="D110" s="311"/>
+      <c r="C110" s="264"/>
+      <c r="D110" s="266"/>
       <c r="E110" s="31" t="s">
         <v>135</v>
       </c>
@@ -18116,8 +18120,8 @@
       </c>
     </row>
     <row r="111" spans="3:22" ht="17.25">
-      <c r="C111" s="309"/>
-      <c r="D111" s="311"/>
+      <c r="C111" s="264"/>
+      <c r="D111" s="266"/>
       <c r="E111" s="31" t="s">
         <v>136</v>
       </c>
@@ -18143,8 +18147,8 @@
       </c>
     </row>
     <row r="112" spans="3:22" ht="17.25">
-      <c r="C112" s="309"/>
-      <c r="D112" s="311"/>
+      <c r="C112" s="264"/>
+      <c r="D112" s="266"/>
       <c r="E112" s="31" t="s">
         <v>137</v>
       </c>
@@ -18170,8 +18174,8 @@
       </c>
     </row>
     <row r="113" spans="3:22" ht="17.25">
-      <c r="C113" s="309"/>
-      <c r="D113" s="311"/>
+      <c r="C113" s="264"/>
+      <c r="D113" s="266"/>
       <c r="E113" s="31" t="s">
         <v>138</v>
       </c>
@@ -18197,8 +18201,8 @@
       </c>
     </row>
     <row r="114" spans="3:22" ht="17.25">
-      <c r="C114" s="309"/>
-      <c r="D114" s="311"/>
+      <c r="C114" s="264"/>
+      <c r="D114" s="266"/>
       <c r="E114" s="31" t="s">
         <v>139</v>
       </c>
@@ -18224,8 +18228,8 @@
       </c>
     </row>
     <row r="115" spans="3:22" ht="17.25">
-      <c r="C115" s="309"/>
-      <c r="D115" s="311"/>
+      <c r="C115" s="264"/>
+      <c r="D115" s="266"/>
       <c r="E115" s="31" t="s">
         <v>142</v>
       </c>
@@ -18251,8 +18255,8 @@
       </c>
     </row>
     <row r="116" spans="3:22" ht="18" thickBot="1">
-      <c r="C116" s="310"/>
-      <c r="D116" s="314"/>
+      <c r="C116" s="265"/>
+      <c r="D116" s="269"/>
       <c r="E116" s="99"/>
       <c r="F116" s="176"/>
       <c r="G116" s="198"/>
@@ -18280,38 +18284,38 @@
       <c r="D117" s="72"/>
     </row>
     <row r="118" spans="3:22">
-      <c r="C118" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="283"/>
+      <c r="C118" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="259"/>
       <c r="E118" s="77"/>
-      <c r="F118" s="325">
+      <c r="F118" s="322">
         <v>2</v>
       </c>
-      <c r="G118" s="326"/>
-      <c r="H118" s="326"/>
-      <c r="I118" s="326"/>
-      <c r="J118" s="326"/>
-      <c r="K118" s="326"/>
-      <c r="L118" s="326"/>
-      <c r="M118" s="326"/>
-      <c r="N118" s="326"/>
-      <c r="O118" s="326"/>
-      <c r="P118" s="326"/>
-      <c r="Q118" s="326"/>
-      <c r="R118" s="326"/>
-      <c r="S118" s="326"/>
-      <c r="T118" s="326"/>
-      <c r="U118" s="321"/>
-      <c r="V118" s="321" t="s">
+      <c r="G118" s="323"/>
+      <c r="H118" s="323"/>
+      <c r="I118" s="323"/>
+      <c r="J118" s="323"/>
+      <c r="K118" s="323"/>
+      <c r="L118" s="323"/>
+      <c r="M118" s="323"/>
+      <c r="N118" s="323"/>
+      <c r="O118" s="323"/>
+      <c r="P118" s="323"/>
+      <c r="Q118" s="323"/>
+      <c r="R118" s="323"/>
+      <c r="S118" s="323"/>
+      <c r="T118" s="323"/>
+      <c r="U118" s="319"/>
+      <c r="V118" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="3:22">
-      <c r="C119" s="305" t="s">
+      <c r="C119" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="306"/>
+      <c r="D119" s="261"/>
       <c r="E119" s="78"/>
       <c r="F119" s="81">
         <v>1</v>
@@ -18359,13 +18363,13 @@
         <v>15</v>
       </c>
       <c r="U119" s="91"/>
-      <c r="V119" s="322"/>
+      <c r="V119" s="320"/>
     </row>
     <row r="120" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C120" s="307" t="s">
+      <c r="C120" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="308"/>
+      <c r="D120" s="263"/>
       <c r="E120" s="79"/>
       <c r="F120" s="145" t="s">
         <v>162</v>
@@ -18413,13 +18417,13 @@
         <v>118</v>
       </c>
       <c r="U120" s="92"/>
-      <c r="V120" s="323"/>
+      <c r="V120" s="321"/>
     </row>
     <row r="121" spans="3:22" ht="17.25">
-      <c r="C121" s="309" t="s">
+      <c r="C121" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="311" t="s">
+      <c r="D121" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="96" t="s">
@@ -18447,8 +18451,8 @@
       </c>
     </row>
     <row r="122" spans="3:22" ht="17.25">
-      <c r="C122" s="309"/>
-      <c r="D122" s="311"/>
+      <c r="C122" s="264"/>
+      <c r="D122" s="266"/>
       <c r="E122" s="97" t="s">
         <v>158</v>
       </c>
@@ -18474,8 +18478,8 @@
       </c>
     </row>
     <row r="123" spans="3:22" ht="17.25">
-      <c r="C123" s="309"/>
-      <c r="D123" s="311"/>
+      <c r="C123" s="264"/>
+      <c r="D123" s="266"/>
       <c r="E123" s="97" t="s">
         <v>134</v>
       </c>
@@ -18501,8 +18505,8 @@
       </c>
     </row>
     <row r="124" spans="3:22" ht="17.25">
-      <c r="C124" s="309"/>
-      <c r="D124" s="311"/>
+      <c r="C124" s="264"/>
+      <c r="D124" s="266"/>
       <c r="E124" s="97" t="s">
         <v>135</v>
       </c>
@@ -18528,8 +18532,8 @@
       </c>
     </row>
     <row r="125" spans="3:22" ht="17.25">
-      <c r="C125" s="309"/>
-      <c r="D125" s="311"/>
+      <c r="C125" s="264"/>
+      <c r="D125" s="266"/>
       <c r="E125" s="97" t="s">
         <v>136</v>
       </c>
@@ -18559,8 +18563,8 @@
       </c>
     </row>
     <row r="126" spans="3:22" ht="17.25">
-      <c r="C126" s="309"/>
-      <c r="D126" s="311"/>
+      <c r="C126" s="264"/>
+      <c r="D126" s="266"/>
       <c r="E126" s="97" t="s">
         <v>137</v>
       </c>
@@ -18586,8 +18590,8 @@
       </c>
     </row>
     <row r="127" spans="3:22" ht="17.25">
-      <c r="C127" s="309"/>
-      <c r="D127" s="311"/>
+      <c r="C127" s="264"/>
+      <c r="D127" s="266"/>
       <c r="E127" s="97" t="s">
         <v>138</v>
       </c>
@@ -18615,8 +18619,8 @@
       </c>
     </row>
     <row r="128" spans="3:22" ht="17.25">
-      <c r="C128" s="309"/>
-      <c r="D128" s="311"/>
+      <c r="C128" s="264"/>
+      <c r="D128" s="266"/>
       <c r="E128" s="97" t="s">
         <v>139</v>
       </c>
@@ -18644,8 +18648,8 @@
       </c>
     </row>
     <row r="129" spans="3:22" ht="17.25">
-      <c r="C129" s="309"/>
-      <c r="D129" s="311"/>
+      <c r="C129" s="264"/>
+      <c r="D129" s="266"/>
       <c r="E129" s="97" t="s">
         <v>142</v>
       </c>
@@ -18687,8 +18691,8 @@
       </c>
     </row>
     <row r="130" spans="3:22" ht="18" thickBot="1">
-      <c r="C130" s="309"/>
-      <c r="D130" s="312"/>
+      <c r="C130" s="264"/>
+      <c r="D130" s="267"/>
       <c r="E130" s="98"/>
       <c r="F130" s="195"/>
       <c r="G130" s="196"/>
@@ -18712,8 +18716,8 @@
       </c>
     </row>
     <row r="131" spans="3:22" ht="17.25">
-      <c r="C131" s="309"/>
-      <c r="D131" s="313" t="s">
+      <c r="C131" s="264"/>
+      <c r="D131" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E131" s="32" t="s">
@@ -18741,8 +18745,8 @@
       </c>
     </row>
     <row r="132" spans="3:22" ht="17.25">
-      <c r="C132" s="309"/>
-      <c r="D132" s="311"/>
+      <c r="C132" s="264"/>
+      <c r="D132" s="266"/>
       <c r="E132" s="31" t="s">
         <v>158</v>
       </c>
@@ -18768,8 +18772,8 @@
       </c>
     </row>
     <row r="133" spans="3:22" ht="17.25">
-      <c r="C133" s="309"/>
-      <c r="D133" s="311"/>
+      <c r="C133" s="264"/>
+      <c r="D133" s="266"/>
       <c r="E133" s="31" t="s">
         <v>134</v>
       </c>
@@ -18795,8 +18799,8 @@
       </c>
     </row>
     <row r="134" spans="3:22" ht="17.25">
-      <c r="C134" s="309"/>
-      <c r="D134" s="311"/>
+      <c r="C134" s="264"/>
+      <c r="D134" s="266"/>
       <c r="E134" s="31" t="s">
         <v>135</v>
       </c>
@@ -18822,8 +18826,8 @@
       </c>
     </row>
     <row r="135" spans="3:22" ht="17.25">
-      <c r="C135" s="309"/>
-      <c r="D135" s="311"/>
+      <c r="C135" s="264"/>
+      <c r="D135" s="266"/>
       <c r="E135" s="31" t="s">
         <v>136</v>
       </c>
@@ -18849,8 +18853,8 @@
       </c>
     </row>
     <row r="136" spans="3:22" ht="17.25">
-      <c r="C136" s="309"/>
-      <c r="D136" s="311"/>
+      <c r="C136" s="264"/>
+      <c r="D136" s="266"/>
       <c r="E136" s="31" t="s">
         <v>137</v>
       </c>
@@ -18876,8 +18880,8 @@
       </c>
     </row>
     <row r="137" spans="3:22" ht="17.25">
-      <c r="C137" s="309"/>
-      <c r="D137" s="311"/>
+      <c r="C137" s="264"/>
+      <c r="D137" s="266"/>
       <c r="E137" s="31" t="s">
         <v>138</v>
       </c>
@@ -18903,8 +18907,8 @@
       </c>
     </row>
     <row r="138" spans="3:22" ht="17.25">
-      <c r="C138" s="309"/>
-      <c r="D138" s="311"/>
+      <c r="C138" s="264"/>
+      <c r="D138" s="266"/>
       <c r="E138" s="31" t="s">
         <v>139</v>
       </c>
@@ -18930,8 +18934,8 @@
       </c>
     </row>
     <row r="139" spans="3:22" ht="17.25">
-      <c r="C139" s="309"/>
-      <c r="D139" s="311"/>
+      <c r="C139" s="264"/>
+      <c r="D139" s="266"/>
       <c r="E139" s="31" t="s">
         <v>142</v>
       </c>
@@ -18957,8 +18961,8 @@
       </c>
     </row>
     <row r="140" spans="3:22" ht="18" thickBot="1">
-      <c r="C140" s="310"/>
-      <c r="D140" s="314"/>
+      <c r="C140" s="265"/>
+      <c r="D140" s="269"/>
       <c r="E140" s="99"/>
       <c r="F140" s="197"/>
       <c r="G140" s="198"/>
@@ -18983,38 +18987,38 @@
     </row>
     <row r="141" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="142" spans="3:22">
-      <c r="C142" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="283"/>
+      <c r="C142" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="259"/>
       <c r="E142" s="77"/>
-      <c r="F142" s="325">
+      <c r="F142" s="322">
         <v>2</v>
       </c>
-      <c r="G142" s="326"/>
-      <c r="H142" s="326"/>
-      <c r="I142" s="326"/>
-      <c r="J142" s="326"/>
-      <c r="K142" s="326"/>
-      <c r="L142" s="326"/>
-      <c r="M142" s="326"/>
-      <c r="N142" s="326"/>
-      <c r="O142" s="326"/>
-      <c r="P142" s="326"/>
-      <c r="Q142" s="326"/>
-      <c r="R142" s="326"/>
-      <c r="S142" s="326"/>
-      <c r="T142" s="326"/>
-      <c r="U142" s="321"/>
-      <c r="V142" s="321" t="s">
+      <c r="G142" s="323"/>
+      <c r="H142" s="323"/>
+      <c r="I142" s="323"/>
+      <c r="J142" s="323"/>
+      <c r="K142" s="323"/>
+      <c r="L142" s="323"/>
+      <c r="M142" s="323"/>
+      <c r="N142" s="323"/>
+      <c r="O142" s="323"/>
+      <c r="P142" s="323"/>
+      <c r="Q142" s="323"/>
+      <c r="R142" s="323"/>
+      <c r="S142" s="323"/>
+      <c r="T142" s="323"/>
+      <c r="U142" s="319"/>
+      <c r="V142" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" spans="3:22">
-      <c r="C143" s="305" t="s">
+      <c r="C143" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="306"/>
+      <c r="D143" s="261"/>
       <c r="E143" s="78"/>
       <c r="F143" s="81">
         <v>16</v>
@@ -19058,13 +19062,13 @@
       <c r="S143" s="86"/>
       <c r="T143" s="86"/>
       <c r="U143" s="91"/>
-      <c r="V143" s="322"/>
+      <c r="V143" s="320"/>
     </row>
     <row r="144" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C144" s="307" t="s">
+      <c r="C144" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="308"/>
+      <c r="D144" s="263"/>
       <c r="E144" s="79"/>
       <c r="F144" s="145" t="s">
         <v>146</v>
@@ -19108,13 +19112,13 @@
       <c r="S144" s="150"/>
       <c r="T144" s="150"/>
       <c r="U144" s="210"/>
-      <c r="V144" s="323"/>
+      <c r="V144" s="321"/>
     </row>
     <row r="145" spans="3:22" ht="17.25">
-      <c r="C145" s="309" t="s">
+      <c r="C145" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="311" t="s">
+      <c r="D145" s="266" t="s">
         <v>115</v>
       </c>
       <c r="E145" s="96" t="s">
@@ -19142,8 +19146,8 @@
       </c>
     </row>
     <row r="146" spans="3:22" ht="17.25">
-      <c r="C146" s="309"/>
-      <c r="D146" s="311"/>
+      <c r="C146" s="264"/>
+      <c r="D146" s="266"/>
       <c r="E146" s="97" t="s">
         <v>158</v>
       </c>
@@ -19169,8 +19173,8 @@
       </c>
     </row>
     <row r="147" spans="3:22" ht="17.25">
-      <c r="C147" s="309"/>
-      <c r="D147" s="311"/>
+      <c r="C147" s="264"/>
+      <c r="D147" s="266"/>
       <c r="E147" s="97" t="s">
         <v>134</v>
       </c>
@@ -19196,8 +19200,8 @@
       </c>
     </row>
     <row r="148" spans="3:22" ht="17.25">
-      <c r="C148" s="309"/>
-      <c r="D148" s="311"/>
+      <c r="C148" s="264"/>
+      <c r="D148" s="266"/>
       <c r="E148" s="97" t="s">
         <v>135</v>
       </c>
@@ -19223,8 +19227,8 @@
       </c>
     </row>
     <row r="149" spans="3:22" ht="17.25">
-      <c r="C149" s="309"/>
-      <c r="D149" s="311"/>
+      <c r="C149" s="264"/>
+      <c r="D149" s="266"/>
       <c r="E149" s="97" t="s">
         <v>136</v>
       </c>
@@ -19254,8 +19258,8 @@
       </c>
     </row>
     <row r="150" spans="3:22" ht="17.25">
-      <c r="C150" s="309"/>
-      <c r="D150" s="311"/>
+      <c r="C150" s="264"/>
+      <c r="D150" s="266"/>
       <c r="E150" s="97" t="s">
         <v>137</v>
       </c>
@@ -19281,8 +19285,8 @@
       </c>
     </row>
     <row r="151" spans="3:22" ht="17.25">
-      <c r="C151" s="309"/>
-      <c r="D151" s="311"/>
+      <c r="C151" s="264"/>
+      <c r="D151" s="266"/>
       <c r="E151" s="97" t="s">
         <v>138</v>
       </c>
@@ -19308,8 +19312,8 @@
       </c>
     </row>
     <row r="152" spans="3:22" ht="17.25">
-      <c r="C152" s="309"/>
-      <c r="D152" s="311"/>
+      <c r="C152" s="264"/>
+      <c r="D152" s="266"/>
       <c r="E152" s="97" t="s">
         <v>139</v>
       </c>
@@ -19335,8 +19339,8 @@
       </c>
     </row>
     <row r="153" spans="3:22" ht="17.25">
-      <c r="C153" s="309"/>
-      <c r="D153" s="311"/>
+      <c r="C153" s="264"/>
+      <c r="D153" s="266"/>
       <c r="E153" s="97" t="s">
         <v>142</v>
       </c>
@@ -19362,8 +19366,8 @@
       </c>
     </row>
     <row r="154" spans="3:22" ht="18" thickBot="1">
-      <c r="C154" s="309"/>
-      <c r="D154" s="312"/>
+      <c r="C154" s="264"/>
+      <c r="D154" s="267"/>
       <c r="E154" s="98"/>
       <c r="F154" s="195"/>
       <c r="G154" s="196"/>
@@ -19387,8 +19391,8 @@
       </c>
     </row>
     <row r="155" spans="3:22" ht="17.25">
-      <c r="C155" s="309"/>
-      <c r="D155" s="313" t="s">
+      <c r="C155" s="264"/>
+      <c r="D155" s="268" t="s">
         <v>57</v>
       </c>
       <c r="E155" s="32" t="s">
@@ -19416,8 +19420,8 @@
       </c>
     </row>
     <row r="156" spans="3:22" ht="17.25">
-      <c r="C156" s="309"/>
-      <c r="D156" s="311"/>
+      <c r="C156" s="264"/>
+      <c r="D156" s="266"/>
       <c r="E156" s="31" t="s">
         <v>158</v>
       </c>
@@ -19443,8 +19447,8 @@
       </c>
     </row>
     <row r="157" spans="3:22" ht="17.25">
-      <c r="C157" s="309"/>
-      <c r="D157" s="311"/>
+      <c r="C157" s="264"/>
+      <c r="D157" s="266"/>
       <c r="E157" s="31" t="s">
         <v>134</v>
       </c>
@@ -19470,8 +19474,8 @@
       </c>
     </row>
     <row r="158" spans="3:22" ht="17.25">
-      <c r="C158" s="309"/>
-      <c r="D158" s="311"/>
+      <c r="C158" s="264"/>
+      <c r="D158" s="266"/>
       <c r="E158" s="31" t="s">
         <v>135</v>
       </c>
@@ -19497,8 +19501,8 @@
       </c>
     </row>
     <row r="159" spans="3:22" ht="17.25">
-      <c r="C159" s="309"/>
-      <c r="D159" s="311"/>
+      <c r="C159" s="264"/>
+      <c r="D159" s="266"/>
       <c r="E159" s="31" t="s">
         <v>136</v>
       </c>
@@ -19524,8 +19528,8 @@
       </c>
     </row>
     <row r="160" spans="3:22" ht="17.25">
-      <c r="C160" s="309"/>
-      <c r="D160" s="311"/>
+      <c r="C160" s="264"/>
+      <c r="D160" s="266"/>
       <c r="E160" s="31" t="s">
         <v>137</v>
       </c>
@@ -19551,8 +19555,8 @@
       </c>
     </row>
     <row r="161" spans="3:22" ht="17.25">
-      <c r="C161" s="309"/>
-      <c r="D161" s="311"/>
+      <c r="C161" s="264"/>
+      <c r="D161" s="266"/>
       <c r="E161" s="31" t="s">
         <v>138</v>
       </c>
@@ -19578,8 +19582,8 @@
       </c>
     </row>
     <row r="162" spans="3:22" ht="17.25">
-      <c r="C162" s="309"/>
-      <c r="D162" s="311"/>
+      <c r="C162" s="264"/>
+      <c r="D162" s="266"/>
       <c r="E162" s="31" t="s">
         <v>139</v>
       </c>
@@ -19605,8 +19609,8 @@
       </c>
     </row>
     <row r="163" spans="3:22" ht="17.25">
-      <c r="C163" s="309"/>
-      <c r="D163" s="311"/>
+      <c r="C163" s="264"/>
+      <c r="D163" s="266"/>
       <c r="E163" s="31" t="s">
         <v>142</v>
       </c>
@@ -19632,8 +19636,8 @@
       </c>
     </row>
     <row r="164" spans="3:22" ht="18" thickBot="1">
-      <c r="C164" s="310"/>
-      <c r="D164" s="314"/>
+      <c r="C164" s="265"/>
+      <c r="D164" s="269"/>
       <c r="E164" s="99"/>
       <c r="F164" s="197"/>
       <c r="G164" s="198"/>
@@ -19658,19 +19662,49 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C49:C68"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:U46"/>
+    <mergeCell ref="V46:V48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="C25:C44"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="F94:U94"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:C116"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="F142:U142"/>
+    <mergeCell ref="V142:V144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="V118:V120"/>
+    <mergeCell ref="F118:U118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:C140"/>
+    <mergeCell ref="D121:D130"/>
+    <mergeCell ref="D131:D140"/>
+    <mergeCell ref="C73:C92"/>
+    <mergeCell ref="D73:D82"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="C145:C164"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="D155:D164"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="C70:D70"/>
@@ -19687,49 +19721,19 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C73:C92"/>
-    <mergeCell ref="D73:D82"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="C145:C164"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="D155:D164"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F142:U142"/>
-    <mergeCell ref="V142:V144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="V118:V120"/>
-    <mergeCell ref="F118:U118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:C140"/>
-    <mergeCell ref="D121:D130"/>
-    <mergeCell ref="D131:D140"/>
-    <mergeCell ref="F94:U94"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:C116"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="V46:V48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="C25:C44"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="C49:C68"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:U46"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -19774,7 +19778,7 @@
   <dimension ref="B1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P175" sqref="P175"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -19832,7 +19836,7 @@
       </c>
       <c r="I3" s="71">
         <f>Q25</f>
-        <v>0.38310185185185186</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>69</v>
@@ -19894,27 +19898,27 @@
     <row r="6" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="272"/>
-      <c r="D6" s="340">
+      <c r="D6" s="337">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="E6" s="341"/>
-      <c r="F6" s="341"/>
-      <c r="G6" s="341"/>
-      <c r="H6" s="341"/>
-      <c r="I6" s="341"/>
-      <c r="J6" s="342"/>
-      <c r="K6" s="343">
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="339"/>
+      <c r="K6" s="340">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="L6" s="344"/>
-      <c r="M6" s="344"/>
-      <c r="N6" s="345"/>
-      <c r="O6" s="260" t="s">
+      <c r="L6" s="341"/>
+      <c r="M6" s="341"/>
+      <c r="N6" s="342"/>
+      <c r="O6" s="305" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="260" t="s">
+      <c r="P6" s="305" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="327" t="s">
@@ -19930,29 +19934,29 @@
     <row r="7" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="299"/>
-      <c r="F7" s="302" t="s">
+      <c r="E7" s="294"/>
+      <c r="F7" s="299" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="299"/>
-      <c r="H7" s="296" t="s">
+      <c r="G7" s="294"/>
+      <c r="H7" s="291" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="297"/>
-      <c r="J7" s="289" t="s">
+      <c r="I7" s="292"/>
+      <c r="J7" s="284" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="268" t="s">
+      <c r="K7" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="269"/>
-      <c r="M7" s="270" t="s">
+      <c r="L7" s="280"/>
+      <c r="M7" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="271"/>
+      <c r="N7" s="314"/>
       <c r="O7" s="324"/>
       <c r="P7" s="324"/>
       <c r="Q7" s="330" t="s">
@@ -19968,40 +19972,40 @@
     <row r="8" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="300" t="s">
+      <c r="D8" s="295" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="303" t="s">
+      <c r="F8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G8" s="317" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="292" t="s">
+      <c r="H8" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="294" t="s">
+      <c r="I8" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="290"/>
-      <c r="K8" s="260" t="s">
+      <c r="J8" s="285"/>
+      <c r="K8" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="260" t="s">
+      <c r="L8" s="305" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="262" t="s">
+      <c r="M8" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="264" t="s">
+      <c r="N8" s="309" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
       <c r="P8" s="324"/>
-      <c r="Q8" s="317" t="s">
+      <c r="Q8" s="315" t="s">
         <v>59</v>
       </c>
       <c r="R8" s="246" t="s">
@@ -20022,7 +20026,7 @@
       <c r="W8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="338" t="s">
+      <c r="X8" s="333" t="s">
         <v>4</v>
       </c>
       <c r="Y8" s="254" t="s">
@@ -20032,26 +20036,26 @@
     <row r="9" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="304"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="293"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261" t="s">
+      <c r="D9" s="296"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="263">
+      <c r="M9" s="308">
         <v>0.8</v>
       </c>
-      <c r="N9" s="265" t="s">
+      <c r="N9" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="318"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="316"/>
       <c r="R9" s="246" t="s">
         <v>177</v>
       </c>
@@ -20070,7 +20074,7 @@
       <c r="W9" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="X9" s="339" t="s">
+      <c r="X9" s="334" t="s">
         <v>4</v>
       </c>
       <c r="Y9" s="254"/>
@@ -20589,11 +20593,11 @@
       </c>
       <c r="P15" s="193">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="251">
         <f t="shared" si="8"/>
-        <v>0.59183673469387754</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="R15" s="248">
         <f t="shared" si="9"/>
@@ -20613,7 +20617,7 @@
       </c>
       <c r="V15" s="133">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="40">
         <f t="shared" si="14"/>
@@ -20621,7 +20625,7 @@
       </c>
       <c r="X15" s="46">
         <f t="shared" si="22"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y15" s="21">
         <f t="shared" si="16"/>
@@ -21476,7 +21480,7 @@
       <c r="P25" s="118"/>
       <c r="Q25" s="139">
         <f>IF(E25=0,"",SUM(G25,20,X25)/E25)</f>
-        <v>0.38310185185185186</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="R25" s="250">
         <f t="shared" ref="R25:T25" si="27">SUM(R10:R24)</f>
@@ -21496,7 +21500,7 @@
       </c>
       <c r="V25" s="141">
         <f>SUM(V10:V24)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W25" s="142">
         <f>SUM(W10:W24)</f>
@@ -21504,7 +21508,7 @@
       </c>
       <c r="X25" s="253">
         <f>SUM(X10:X24)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y25" s="21"/>
     </row>
@@ -21515,38 +21519,38 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C27" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="283"/>
+      <c r="C27" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="259"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="282">
+      <c r="F27" s="258">
         <v>11</v>
       </c>
-      <c r="G27" s="283"/>
+      <c r="G27" s="259"/>
       <c r="H27" s="216"/>
-      <c r="I27" s="346">
+      <c r="I27" s="343">
         <v>12</v>
       </c>
-      <c r="J27" s="284"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="284"/>
-      <c r="N27" s="284"/>
-      <c r="O27" s="284"/>
-      <c r="P27" s="284"/>
-      <c r="Q27" s="284"/>
-      <c r="R27" s="284"/>
-      <c r="S27" s="283"/>
-      <c r="T27" s="321" t="s">
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="270"/>
+      <c r="R27" s="270"/>
+      <c r="S27" s="259"/>
+      <c r="T27" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C28" s="305" t="s">
+      <c r="C28" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="306"/>
+      <c r="D28" s="261"/>
       <c r="E28" s="78"/>
       <c r="F28" s="214">
         <v>44529</v>
@@ -21603,13 +21607,13 @@
         <f t="shared" si="28"/>
         <v>44542</v>
       </c>
-      <c r="T28" s="322"/>
+      <c r="T28" s="320"/>
     </row>
     <row r="29" spans="2:29" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C29" s="333" t="s">
+      <c r="C29" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="334"/>
+      <c r="D29" s="336"/>
       <c r="E29" s="217"/>
       <c r="F29" s="218">
         <f t="shared" ref="F29:S29" si="29">WEEKDAY(F28)</f>
@@ -21667,13 +21671,13 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="T29" s="322"/>
+      <c r="T29" s="320"/>
     </row>
     <row r="30" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C30" s="282" t="s">
+      <c r="C30" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="335" t="s">
+      <c r="D30" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="223" t="s">
@@ -21699,8 +21703,8 @@
       </c>
     </row>
     <row r="31" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C31" s="305"/>
-      <c r="D31" s="336"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="345"/>
       <c r="E31" s="224" t="s">
         <v>141</v>
       </c>
@@ -21724,8 +21728,8 @@
       </c>
     </row>
     <row r="32" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C32" s="305"/>
-      <c r="D32" s="336"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="345"/>
       <c r="E32" s="224" t="s">
         <v>134</v>
       </c>
@@ -21749,8 +21753,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C33" s="305"/>
-      <c r="D33" s="336"/>
+      <c r="C33" s="260"/>
+      <c r="D33" s="345"/>
       <c r="E33" s="224" t="s">
         <v>136</v>
       </c>
@@ -21774,8 +21778,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C34" s="305"/>
-      <c r="D34" s="336"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="345"/>
       <c r="E34" s="224" t="s">
         <v>139</v>
       </c>
@@ -21799,8 +21803,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C35" s="305"/>
-      <c r="D35" s="336"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="345"/>
       <c r="E35" s="224" t="s">
         <v>137</v>
       </c>
@@ -21824,8 +21828,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C36" s="305"/>
-      <c r="D36" s="336"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="345"/>
       <c r="E36" s="224" t="s">
         <v>133</v>
       </c>
@@ -21849,8 +21853,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C37" s="305"/>
-      <c r="D37" s="336"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="345"/>
       <c r="E37" s="224" t="s">
         <v>140</v>
       </c>
@@ -21874,8 +21878,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C38" s="305"/>
-      <c r="D38" s="336"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="345"/>
       <c r="E38" s="224" t="s">
         <v>138</v>
       </c>
@@ -21899,8 +21903,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C39" s="305"/>
-      <c r="D39" s="336"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="345"/>
       <c r="E39" s="224" t="s">
         <v>135</v>
       </c>
@@ -21924,8 +21928,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C40" s="305"/>
-      <c r="D40" s="336"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="345"/>
       <c r="E40" s="224" t="s">
         <v>158</v>
       </c>
@@ -21949,8 +21953,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C41" s="305"/>
-      <c r="D41" s="336"/>
+      <c r="C41" s="260"/>
+      <c r="D41" s="345"/>
       <c r="E41" s="224" t="s">
         <v>174</v>
       </c>
@@ -21974,8 +21978,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C42" s="305"/>
-      <c r="D42" s="336"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="345"/>
       <c r="E42" s="224" t="s">
         <v>175</v>
       </c>
@@ -21999,8 +22003,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C43" s="305"/>
-      <c r="D43" s="337"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="346"/>
       <c r="E43" s="225"/>
       <c r="F43" s="243"/>
       <c r="G43" s="244"/>
@@ -22022,8 +22026,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C44" s="305"/>
-      <c r="D44" s="335" t="s">
+      <c r="C44" s="260"/>
+      <c r="D44" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="223" t="s">
@@ -22049,8 +22053,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C45" s="305"/>
-      <c r="D45" s="336"/>
+      <c r="C45" s="260"/>
+      <c r="D45" s="345"/>
       <c r="E45" s="224" t="s">
         <v>141</v>
       </c>
@@ -22074,8 +22078,8 @@
       </c>
     </row>
     <row r="46" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C46" s="305"/>
-      <c r="D46" s="336"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="345"/>
       <c r="E46" s="224" t="s">
         <v>134</v>
       </c>
@@ -22099,8 +22103,8 @@
       </c>
     </row>
     <row r="47" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C47" s="305"/>
-      <c r="D47" s="336"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="345"/>
       <c r="E47" s="224" t="s">
         <v>136</v>
       </c>
@@ -22124,8 +22128,8 @@
       </c>
     </row>
     <row r="48" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C48" s="305"/>
-      <c r="D48" s="336"/>
+      <c r="C48" s="260"/>
+      <c r="D48" s="345"/>
       <c r="E48" s="224" t="s">
         <v>139</v>
       </c>
@@ -22149,8 +22153,8 @@
       </c>
     </row>
     <row r="49" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C49" s="305"/>
-      <c r="D49" s="336"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="345"/>
       <c r="E49" s="224" t="s">
         <v>137</v>
       </c>
@@ -22180,8 +22184,8 @@
       </c>
     </row>
     <row r="50" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C50" s="305"/>
-      <c r="D50" s="336"/>
+      <c r="C50" s="260"/>
+      <c r="D50" s="345"/>
       <c r="E50" s="224" t="s">
         <v>133</v>
       </c>
@@ -22205,8 +22209,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C51" s="305"/>
-      <c r="D51" s="336"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="345"/>
       <c r="E51" s="224" t="s">
         <v>140</v>
       </c>
@@ -22230,8 +22234,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C52" s="305"/>
-      <c r="D52" s="336"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="345"/>
       <c r="E52" s="224" t="s">
         <v>138</v>
       </c>
@@ -22255,8 +22259,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C53" s="305"/>
-      <c r="D53" s="336"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="345"/>
       <c r="E53" s="224" t="s">
         <v>135</v>
       </c>
@@ -22282,8 +22286,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C54" s="305"/>
-      <c r="D54" s="336"/>
+      <c r="C54" s="260"/>
+      <c r="D54" s="345"/>
       <c r="E54" s="224" t="s">
         <v>158</v>
       </c>
@@ -22309,8 +22313,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C55" s="305"/>
-      <c r="D55" s="336"/>
+      <c r="C55" s="260"/>
+      <c r="D55" s="345"/>
       <c r="E55" s="224" t="s">
         <v>174</v>
       </c>
@@ -22334,8 +22338,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C56" s="305"/>
-      <c r="D56" s="336"/>
+      <c r="C56" s="260"/>
+      <c r="D56" s="345"/>
       <c r="E56" s="224" t="s">
         <v>175</v>
       </c>
@@ -22359,8 +22363,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C57" s="307"/>
-      <c r="D57" s="337"/>
+      <c r="C57" s="262"/>
+      <c r="D57" s="346"/>
       <c r="E57" s="225"/>
       <c r="F57" s="234"/>
       <c r="G57" s="235"/>
@@ -22383,36 +22387,36 @@
     </row>
     <row r="58" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="59" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C59" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="283"/>
+      <c r="C59" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="259"/>
       <c r="E59" s="77"/>
-      <c r="F59" s="282">
+      <c r="F59" s="258">
         <v>12</v>
       </c>
-      <c r="G59" s="284"/>
-      <c r="H59" s="284"/>
-      <c r="I59" s="284"/>
-      <c r="J59" s="284"/>
-      <c r="K59" s="284"/>
-      <c r="L59" s="284"/>
-      <c r="M59" s="284"/>
-      <c r="N59" s="284"/>
-      <c r="O59" s="284"/>
-      <c r="P59" s="284"/>
-      <c r="Q59" s="284"/>
-      <c r="R59" s="284"/>
-      <c r="S59" s="283"/>
-      <c r="T59" s="321" t="s">
+      <c r="G59" s="270"/>
+      <c r="H59" s="270"/>
+      <c r="I59" s="270"/>
+      <c r="J59" s="270"/>
+      <c r="K59" s="270"/>
+      <c r="L59" s="270"/>
+      <c r="M59" s="270"/>
+      <c r="N59" s="270"/>
+      <c r="O59" s="270"/>
+      <c r="P59" s="270"/>
+      <c r="Q59" s="270"/>
+      <c r="R59" s="270"/>
+      <c r="S59" s="259"/>
+      <c r="T59" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C60" s="305" t="s">
+      <c r="C60" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="306"/>
+      <c r="D60" s="261"/>
       <c r="E60" s="78"/>
       <c r="F60" s="214">
         <f>S28+1</f>
@@ -22470,13 +22474,13 @@
         <f t="shared" si="31"/>
         <v>44556</v>
       </c>
-      <c r="T60" s="322"/>
+      <c r="T60" s="320"/>
     </row>
     <row r="61" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C61" s="333" t="s">
+      <c r="C61" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="334"/>
+      <c r="D61" s="336"/>
       <c r="E61" s="217"/>
       <c r="F61" s="218">
         <f t="shared" ref="F61" si="32">WEEKDAY(F60)</f>
@@ -22534,13 +22538,13 @@
         <f t="shared" ref="S61" si="45">WEEKDAY(S60)</f>
         <v>1</v>
       </c>
-      <c r="T61" s="322"/>
+      <c r="T61" s="320"/>
     </row>
     <row r="62" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C62" s="282" t="s">
+      <c r="C62" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="335" t="s">
+      <c r="D62" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="223" t="s">
@@ -22566,8 +22570,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C63" s="305"/>
-      <c r="D63" s="336"/>
+      <c r="C63" s="260"/>
+      <c r="D63" s="345"/>
       <c r="E63" s="224" t="s">
         <v>141</v>
       </c>
@@ -22591,8 +22595,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C64" s="305"/>
-      <c r="D64" s="336"/>
+      <c r="C64" s="260"/>
+      <c r="D64" s="345"/>
       <c r="E64" s="224" t="s">
         <v>134</v>
       </c>
@@ -22616,8 +22620,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C65" s="305"/>
-      <c r="D65" s="336"/>
+      <c r="C65" s="260"/>
+      <c r="D65" s="345"/>
       <c r="E65" s="224" t="s">
         <v>136</v>
       </c>
@@ -22641,8 +22645,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C66" s="305"/>
-      <c r="D66" s="336"/>
+      <c r="C66" s="260"/>
+      <c r="D66" s="345"/>
       <c r="E66" s="224" t="s">
         <v>139</v>
       </c>
@@ -22666,8 +22670,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C67" s="305"/>
-      <c r="D67" s="336"/>
+      <c r="C67" s="260"/>
+      <c r="D67" s="345"/>
       <c r="E67" s="224" t="s">
         <v>137</v>
       </c>
@@ -22691,8 +22695,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C68" s="305"/>
-      <c r="D68" s="336"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="345"/>
       <c r="E68" s="224" t="s">
         <v>133</v>
       </c>
@@ -22716,8 +22720,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C69" s="305"/>
-      <c r="D69" s="336"/>
+      <c r="C69" s="260"/>
+      <c r="D69" s="345"/>
       <c r="E69" s="224" t="s">
         <v>140</v>
       </c>
@@ -22741,8 +22745,8 @@
       </c>
     </row>
     <row r="70" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C70" s="305"/>
-      <c r="D70" s="336"/>
+      <c r="C70" s="260"/>
+      <c r="D70" s="345"/>
       <c r="E70" s="224" t="s">
         <v>138</v>
       </c>
@@ -22766,8 +22770,8 @@
       </c>
     </row>
     <row r="71" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C71" s="305"/>
-      <c r="D71" s="336"/>
+      <c r="C71" s="260"/>
+      <c r="D71" s="345"/>
       <c r="E71" s="224" t="s">
         <v>135</v>
       </c>
@@ -22791,8 +22795,8 @@
       </c>
     </row>
     <row r="72" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C72" s="305"/>
-      <c r="D72" s="336"/>
+      <c r="C72" s="260"/>
+      <c r="D72" s="345"/>
       <c r="E72" s="224" t="s">
         <v>158</v>
       </c>
@@ -22816,8 +22820,8 @@
       </c>
     </row>
     <row r="73" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C73" s="305"/>
-      <c r="D73" s="336"/>
+      <c r="C73" s="260"/>
+      <c r="D73" s="345"/>
       <c r="E73" s="224" t="s">
         <v>174</v>
       </c>
@@ -22841,8 +22845,8 @@
       </c>
     </row>
     <row r="74" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C74" s="305"/>
-      <c r="D74" s="336"/>
+      <c r="C74" s="260"/>
+      <c r="D74" s="345"/>
       <c r="E74" s="224" t="s">
         <v>175</v>
       </c>
@@ -22866,8 +22870,8 @@
       </c>
     </row>
     <row r="75" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C75" s="305"/>
-      <c r="D75" s="337"/>
+      <c r="C75" s="260"/>
+      <c r="D75" s="346"/>
       <c r="E75" s="225"/>
       <c r="F75" s="243"/>
       <c r="G75" s="244"/>
@@ -22889,8 +22893,8 @@
       </c>
     </row>
     <row r="76" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C76" s="305"/>
-      <c r="D76" s="335" t="s">
+      <c r="C76" s="260"/>
+      <c r="D76" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="223" t="s">
@@ -22918,8 +22922,8 @@
       </c>
     </row>
     <row r="77" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C77" s="305"/>
-      <c r="D77" s="336"/>
+      <c r="C77" s="260"/>
+      <c r="D77" s="345"/>
       <c r="E77" s="224" t="s">
         <v>141</v>
       </c>
@@ -22943,8 +22947,8 @@
       </c>
     </row>
     <row r="78" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C78" s="305"/>
-      <c r="D78" s="336"/>
+      <c r="C78" s="260"/>
+      <c r="D78" s="345"/>
       <c r="E78" s="224" t="s">
         <v>134</v>
       </c>
@@ -22968,8 +22972,8 @@
       </c>
     </row>
     <row r="79" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C79" s="305"/>
-      <c r="D79" s="336"/>
+      <c r="C79" s="260"/>
+      <c r="D79" s="345"/>
       <c r="E79" s="224" t="s">
         <v>136</v>
       </c>
@@ -22997,8 +23001,8 @@
       </c>
     </row>
     <row r="80" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C80" s="305"/>
-      <c r="D80" s="336"/>
+      <c r="C80" s="260"/>
+      <c r="D80" s="345"/>
       <c r="E80" s="224" t="s">
         <v>139</v>
       </c>
@@ -23022,8 +23026,8 @@
       </c>
     </row>
     <row r="81" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C81" s="305"/>
-      <c r="D81" s="336"/>
+      <c r="C81" s="260"/>
+      <c r="D81" s="345"/>
       <c r="E81" s="224" t="s">
         <v>137</v>
       </c>
@@ -23047,8 +23051,8 @@
       </c>
     </row>
     <row r="82" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C82" s="305"/>
-      <c r="D82" s="336"/>
+      <c r="C82" s="260"/>
+      <c r="D82" s="345"/>
       <c r="E82" s="224" t="s">
         <v>133</v>
       </c>
@@ -23072,8 +23076,8 @@
       </c>
     </row>
     <row r="83" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C83" s="305"/>
-      <c r="D83" s="336"/>
+      <c r="C83" s="260"/>
+      <c r="D83" s="345"/>
       <c r="E83" s="224" t="s">
         <v>140</v>
       </c>
@@ -23097,8 +23101,8 @@
       </c>
     </row>
     <row r="84" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C84" s="305"/>
-      <c r="D84" s="336"/>
+      <c r="C84" s="260"/>
+      <c r="D84" s="345"/>
       <c r="E84" s="224" t="s">
         <v>138</v>
       </c>
@@ -23122,8 +23126,8 @@
       </c>
     </row>
     <row r="85" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C85" s="305"/>
-      <c r="D85" s="336"/>
+      <c r="C85" s="260"/>
+      <c r="D85" s="345"/>
       <c r="E85" s="224" t="s">
         <v>135</v>
       </c>
@@ -23155,8 +23159,8 @@
       </c>
     </row>
     <row r="86" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C86" s="305"/>
-      <c r="D86" s="336"/>
+      <c r="C86" s="260"/>
+      <c r="D86" s="345"/>
       <c r="E86" s="224" t="s">
         <v>158</v>
       </c>
@@ -23182,8 +23186,8 @@
       </c>
     </row>
     <row r="87" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C87" s="305"/>
-      <c r="D87" s="336"/>
+      <c r="C87" s="260"/>
+      <c r="D87" s="345"/>
       <c r="E87" s="224" t="s">
         <v>174</v>
       </c>
@@ -23213,8 +23217,8 @@
       </c>
     </row>
     <row r="88" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C88" s="305"/>
-      <c r="D88" s="336"/>
+      <c r="C88" s="260"/>
+      <c r="D88" s="345"/>
       <c r="E88" s="224" t="s">
         <v>175</v>
       </c>
@@ -23238,8 +23242,8 @@
       </c>
     </row>
     <row r="89" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C89" s="307"/>
-      <c r="D89" s="337"/>
+      <c r="C89" s="262"/>
+      <c r="D89" s="346"/>
       <c r="E89" s="225"/>
       <c r="F89" s="234"/>
       <c r="G89" s="235"/>
@@ -23262,38 +23266,38 @@
     </row>
     <row r="90" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="91" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C91" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="283"/>
+      <c r="C91" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="259"/>
       <c r="E91" s="77"/>
-      <c r="F91" s="282">
+      <c r="F91" s="258">
         <v>12</v>
       </c>
-      <c r="G91" s="284"/>
-      <c r="H91" s="284"/>
-      <c r="I91" s="284"/>
-      <c r="J91" s="284"/>
-      <c r="K91" s="284">
+      <c r="G91" s="270"/>
+      <c r="H91" s="270"/>
+      <c r="I91" s="270"/>
+      <c r="J91" s="270"/>
+      <c r="K91" s="270">
         <v>1</v>
       </c>
-      <c r="L91" s="284"/>
-      <c r="M91" s="284"/>
-      <c r="N91" s="284"/>
-      <c r="O91" s="284"/>
-      <c r="P91" s="284"/>
-      <c r="Q91" s="284"/>
-      <c r="R91" s="284"/>
-      <c r="S91" s="283"/>
-      <c r="T91" s="321" t="s">
+      <c r="L91" s="270"/>
+      <c r="M91" s="270"/>
+      <c r="N91" s="270"/>
+      <c r="O91" s="270"/>
+      <c r="P91" s="270"/>
+      <c r="Q91" s="270"/>
+      <c r="R91" s="270"/>
+      <c r="S91" s="259"/>
+      <c r="T91" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="92" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C92" s="305" t="s">
+      <c r="C92" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="306"/>
+      <c r="D92" s="261"/>
       <c r="E92" s="78"/>
       <c r="F92" s="214">
         <f>S60+1</f>
@@ -23351,13 +23355,13 @@
         <f t="shared" si="47"/>
         <v>44570</v>
       </c>
-      <c r="T92" s="322"/>
+      <c r="T92" s="320"/>
     </row>
     <row r="93" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C93" s="333" t="s">
+      <c r="C93" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="334"/>
+      <c r="D93" s="336"/>
       <c r="E93" s="217"/>
       <c r="F93" s="218">
         <f t="shared" ref="F93" si="48">WEEKDAY(F92)</f>
@@ -23415,13 +23419,13 @@
         <f t="shared" ref="S93" si="61">WEEKDAY(S92)</f>
         <v>1</v>
       </c>
-      <c r="T93" s="322"/>
+      <c r="T93" s="320"/>
     </row>
     <row r="94" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C94" s="282" t="s">
+      <c r="C94" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="335" t="s">
+      <c r="D94" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="223" t="s">
@@ -23447,8 +23451,8 @@
       </c>
     </row>
     <row r="95" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C95" s="305"/>
-      <c r="D95" s="336"/>
+      <c r="C95" s="260"/>
+      <c r="D95" s="345"/>
       <c r="E95" s="224" t="s">
         <v>141</v>
       </c>
@@ -23472,8 +23476,8 @@
       </c>
     </row>
     <row r="96" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C96" s="305"/>
-      <c r="D96" s="336"/>
+      <c r="C96" s="260"/>
+      <c r="D96" s="345"/>
       <c r="E96" s="224" t="s">
         <v>134</v>
       </c>
@@ -23497,8 +23501,8 @@
       </c>
     </row>
     <row r="97" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C97" s="305"/>
-      <c r="D97" s="336"/>
+      <c r="C97" s="260"/>
+      <c r="D97" s="345"/>
       <c r="E97" s="224" t="s">
         <v>136</v>
       </c>
@@ -23522,8 +23526,8 @@
       </c>
     </row>
     <row r="98" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C98" s="305"/>
-      <c r="D98" s="336"/>
+      <c r="C98" s="260"/>
+      <c r="D98" s="345"/>
       <c r="E98" s="224" t="s">
         <v>139</v>
       </c>
@@ -23547,8 +23551,8 @@
       </c>
     </row>
     <row r="99" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C99" s="305"/>
-      <c r="D99" s="336"/>
+      <c r="C99" s="260"/>
+      <c r="D99" s="345"/>
       <c r="E99" s="224" t="s">
         <v>137</v>
       </c>
@@ -23572,8 +23576,8 @@
       </c>
     </row>
     <row r="100" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C100" s="305"/>
-      <c r="D100" s="336"/>
+      <c r="C100" s="260"/>
+      <c r="D100" s="345"/>
       <c r="E100" s="224" t="s">
         <v>133</v>
       </c>
@@ -23597,8 +23601,8 @@
       </c>
     </row>
     <row r="101" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C101" s="305"/>
-      <c r="D101" s="336"/>
+      <c r="C101" s="260"/>
+      <c r="D101" s="345"/>
       <c r="E101" s="224" t="s">
         <v>140</v>
       </c>
@@ -23622,8 +23626,8 @@
       </c>
     </row>
     <row r="102" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C102" s="305"/>
-      <c r="D102" s="336"/>
+      <c r="C102" s="260"/>
+      <c r="D102" s="345"/>
       <c r="E102" s="224" t="s">
         <v>138</v>
       </c>
@@ -23647,8 +23651,8 @@
       </c>
     </row>
     <row r="103" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C103" s="305"/>
-      <c r="D103" s="336"/>
+      <c r="C103" s="260"/>
+      <c r="D103" s="345"/>
       <c r="E103" s="224" t="s">
         <v>135</v>
       </c>
@@ -23672,8 +23676,8 @@
       </c>
     </row>
     <row r="104" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C104" s="305"/>
-      <c r="D104" s="336"/>
+      <c r="C104" s="260"/>
+      <c r="D104" s="345"/>
       <c r="E104" s="224" t="s">
         <v>158</v>
       </c>
@@ -23697,8 +23701,8 @@
       </c>
     </row>
     <row r="105" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C105" s="305"/>
-      <c r="D105" s="336"/>
+      <c r="C105" s="260"/>
+      <c r="D105" s="345"/>
       <c r="E105" s="224" t="s">
         <v>174</v>
       </c>
@@ -23722,8 +23726,8 @@
       </c>
     </row>
     <row r="106" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C106" s="305"/>
-      <c r="D106" s="336"/>
+      <c r="C106" s="260"/>
+      <c r="D106" s="345"/>
       <c r="E106" s="224" t="s">
         <v>175</v>
       </c>
@@ -23747,8 +23751,8 @@
       </c>
     </row>
     <row r="107" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C107" s="305"/>
-      <c r="D107" s="337"/>
+      <c r="C107" s="260"/>
+      <c r="D107" s="346"/>
       <c r="E107" s="225"/>
       <c r="F107" s="243"/>
       <c r="G107" s="244"/>
@@ -23770,8 +23774,8 @@
       </c>
     </row>
     <row r="108" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C108" s="305"/>
-      <c r="D108" s="335" t="s">
+      <c r="C108" s="260"/>
+      <c r="D108" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="223" t="s">
@@ -23799,8 +23803,8 @@
       </c>
     </row>
     <row r="109" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C109" s="305"/>
-      <c r="D109" s="336"/>
+      <c r="C109" s="260"/>
+      <c r="D109" s="345"/>
       <c r="E109" s="224" t="s">
         <v>141</v>
       </c>
@@ -23826,8 +23830,8 @@
       </c>
     </row>
     <row r="110" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C110" s="305"/>
-      <c r="D110" s="336"/>
+      <c r="C110" s="260"/>
+      <c r="D110" s="345"/>
       <c r="E110" s="224" t="s">
         <v>134</v>
       </c>
@@ -23851,8 +23855,8 @@
       </c>
     </row>
     <row r="111" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C111" s="305"/>
-      <c r="D111" s="336"/>
+      <c r="C111" s="260"/>
+      <c r="D111" s="345"/>
       <c r="E111" s="224" t="s">
         <v>136</v>
       </c>
@@ -23880,8 +23884,8 @@
       </c>
     </row>
     <row r="112" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C112" s="305"/>
-      <c r="D112" s="336"/>
+      <c r="C112" s="260"/>
+      <c r="D112" s="345"/>
       <c r="E112" s="224" t="s">
         <v>139</v>
       </c>
@@ -23905,8 +23909,8 @@
       </c>
     </row>
     <row r="113" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C113" s="305"/>
-      <c r="D113" s="336"/>
+      <c r="C113" s="260"/>
+      <c r="D113" s="345"/>
       <c r="E113" s="224" t="s">
         <v>137</v>
       </c>
@@ -23930,8 +23934,8 @@
       </c>
     </row>
     <row r="114" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C114" s="305"/>
-      <c r="D114" s="336"/>
+      <c r="C114" s="260"/>
+      <c r="D114" s="345"/>
       <c r="E114" s="224" t="s">
         <v>133</v>
       </c>
@@ -23955,8 +23959,8 @@
       </c>
     </row>
     <row r="115" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C115" s="305"/>
-      <c r="D115" s="336"/>
+      <c r="C115" s="260"/>
+      <c r="D115" s="345"/>
       <c r="E115" s="224" t="s">
         <v>140</v>
       </c>
@@ -23980,8 +23984,8 @@
       </c>
     </row>
     <row r="116" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C116" s="305"/>
-      <c r="D116" s="336"/>
+      <c r="C116" s="260"/>
+      <c r="D116" s="345"/>
       <c r="E116" s="224" t="s">
         <v>138</v>
       </c>
@@ -24005,8 +24009,8 @@
       </c>
     </row>
     <row r="117" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C117" s="305"/>
-      <c r="D117" s="336"/>
+      <c r="C117" s="260"/>
+      <c r="D117" s="345"/>
       <c r="E117" s="224" t="s">
         <v>135</v>
       </c>
@@ -24030,8 +24034,8 @@
       </c>
     </row>
     <row r="118" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C118" s="305"/>
-      <c r="D118" s="336"/>
+      <c r="C118" s="260"/>
+      <c r="D118" s="345"/>
       <c r="E118" s="224" t="s">
         <v>158</v>
       </c>
@@ -24055,8 +24059,8 @@
       </c>
     </row>
     <row r="119" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C119" s="305"/>
-      <c r="D119" s="336"/>
+      <c r="C119" s="260"/>
+      <c r="D119" s="345"/>
       <c r="E119" s="224" t="s">
         <v>174</v>
       </c>
@@ -24080,8 +24084,8 @@
       </c>
     </row>
     <row r="120" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C120" s="305"/>
-      <c r="D120" s="336"/>
+      <c r="C120" s="260"/>
+      <c r="D120" s="345"/>
       <c r="E120" s="224" t="s">
         <v>175</v>
       </c>
@@ -24105,8 +24109,8 @@
       </c>
     </row>
     <row r="121" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C121" s="307"/>
-      <c r="D121" s="337"/>
+      <c r="C121" s="262"/>
+      <c r="D121" s="346"/>
       <c r="E121" s="225"/>
       <c r="F121" s="234"/>
       <c r="G121" s="235"/>
@@ -24129,36 +24133,36 @@
     </row>
     <row r="122" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="123" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C123" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="283"/>
+      <c r="C123" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="259"/>
       <c r="E123" s="77"/>
-      <c r="F123" s="282">
+      <c r="F123" s="258">
         <v>1</v>
       </c>
-      <c r="G123" s="284"/>
-      <c r="H123" s="284"/>
-      <c r="I123" s="284"/>
-      <c r="J123" s="284"/>
-      <c r="K123" s="284"/>
-      <c r="L123" s="284"/>
-      <c r="M123" s="284"/>
-      <c r="N123" s="284"/>
-      <c r="O123" s="284"/>
-      <c r="P123" s="284"/>
-      <c r="Q123" s="284"/>
-      <c r="R123" s="284"/>
-      <c r="S123" s="283"/>
-      <c r="T123" s="321" t="s">
+      <c r="G123" s="270"/>
+      <c r="H123" s="270"/>
+      <c r="I123" s="270"/>
+      <c r="J123" s="270"/>
+      <c r="K123" s="270"/>
+      <c r="L123" s="270"/>
+      <c r="M123" s="270"/>
+      <c r="N123" s="270"/>
+      <c r="O123" s="270"/>
+      <c r="P123" s="270"/>
+      <c r="Q123" s="270"/>
+      <c r="R123" s="270"/>
+      <c r="S123" s="259"/>
+      <c r="T123" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="124" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C124" s="305" t="s">
+      <c r="C124" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D124" s="306"/>
+      <c r="D124" s="261"/>
       <c r="E124" s="78"/>
       <c r="F124" s="214">
         <f>S92+1</f>
@@ -24216,13 +24220,13 @@
         <f t="shared" si="63"/>
         <v>44584</v>
       </c>
-      <c r="T124" s="322"/>
+      <c r="T124" s="320"/>
     </row>
     <row r="125" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C125" s="333" t="s">
+      <c r="C125" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="334"/>
+      <c r="D125" s="336"/>
       <c r="E125" s="217"/>
       <c r="F125" s="218">
         <f t="shared" ref="F125" si="64">WEEKDAY(F124)</f>
@@ -24280,13 +24284,13 @@
         <f t="shared" ref="S125" si="77">WEEKDAY(S124)</f>
         <v>1</v>
       </c>
-      <c r="T125" s="322"/>
+      <c r="T125" s="320"/>
     </row>
     <row r="126" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C126" s="282" t="s">
+      <c r="C126" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D126" s="335" t="s">
+      <c r="D126" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E126" s="223" t="s">
@@ -24312,8 +24316,8 @@
       </c>
     </row>
     <row r="127" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C127" s="305"/>
-      <c r="D127" s="336"/>
+      <c r="C127" s="260"/>
+      <c r="D127" s="345"/>
       <c r="E127" s="224" t="s">
         <v>141</v>
       </c>
@@ -24337,8 +24341,8 @@
       </c>
     </row>
     <row r="128" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C128" s="305"/>
-      <c r="D128" s="336"/>
+      <c r="C128" s="260"/>
+      <c r="D128" s="345"/>
       <c r="E128" s="224" t="s">
         <v>134</v>
       </c>
@@ -24362,8 +24366,8 @@
       </c>
     </row>
     <row r="129" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C129" s="305"/>
-      <c r="D129" s="336"/>
+      <c r="C129" s="260"/>
+      <c r="D129" s="345"/>
       <c r="E129" s="224" t="s">
         <v>136</v>
       </c>
@@ -24387,8 +24391,8 @@
       </c>
     </row>
     <row r="130" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C130" s="305"/>
-      <c r="D130" s="336"/>
+      <c r="C130" s="260"/>
+      <c r="D130" s="345"/>
       <c r="E130" s="224" t="s">
         <v>139</v>
       </c>
@@ -24412,8 +24416,8 @@
       </c>
     </row>
     <row r="131" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C131" s="305"/>
-      <c r="D131" s="336"/>
+      <c r="C131" s="260"/>
+      <c r="D131" s="345"/>
       <c r="E131" s="224" t="s">
         <v>137</v>
       </c>
@@ -24437,8 +24441,8 @@
       </c>
     </row>
     <row r="132" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C132" s="305"/>
-      <c r="D132" s="336"/>
+      <c r="C132" s="260"/>
+      <c r="D132" s="345"/>
       <c r="E132" s="224" t="s">
         <v>133</v>
       </c>
@@ -24462,8 +24466,8 @@
       </c>
     </row>
     <row r="133" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C133" s="305"/>
-      <c r="D133" s="336"/>
+      <c r="C133" s="260"/>
+      <c r="D133" s="345"/>
       <c r="E133" s="224" t="s">
         <v>140</v>
       </c>
@@ -24487,8 +24491,8 @@
       </c>
     </row>
     <row r="134" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C134" s="305"/>
-      <c r="D134" s="336"/>
+      <c r="C134" s="260"/>
+      <c r="D134" s="345"/>
       <c r="E134" s="224" t="s">
         <v>138</v>
       </c>
@@ -24512,8 +24516,8 @@
       </c>
     </row>
     <row r="135" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C135" s="305"/>
-      <c r="D135" s="336"/>
+      <c r="C135" s="260"/>
+      <c r="D135" s="345"/>
       <c r="E135" s="224" t="s">
         <v>135</v>
       </c>
@@ -24537,8 +24541,8 @@
       </c>
     </row>
     <row r="136" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C136" s="305"/>
-      <c r="D136" s="336"/>
+      <c r="C136" s="260"/>
+      <c r="D136" s="345"/>
       <c r="E136" s="224" t="s">
         <v>158</v>
       </c>
@@ -24562,8 +24566,8 @@
       </c>
     </row>
     <row r="137" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C137" s="305"/>
-      <c r="D137" s="336"/>
+      <c r="C137" s="260"/>
+      <c r="D137" s="345"/>
       <c r="E137" s="224" t="s">
         <v>174</v>
       </c>
@@ -24587,8 +24591,8 @@
       </c>
     </row>
     <row r="138" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C138" s="305"/>
-      <c r="D138" s="336"/>
+      <c r="C138" s="260"/>
+      <c r="D138" s="345"/>
       <c r="E138" s="224" t="s">
         <v>175</v>
       </c>
@@ -24612,8 +24616,8 @@
       </c>
     </row>
     <row r="139" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C139" s="305"/>
-      <c r="D139" s="337"/>
+      <c r="C139" s="260"/>
+      <c r="D139" s="346"/>
       <c r="E139" s="225"/>
       <c r="F139" s="243"/>
       <c r="G139" s="244"/>
@@ -24635,8 +24639,8 @@
       </c>
     </row>
     <row r="140" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C140" s="305"/>
-      <c r="D140" s="335" t="s">
+      <c r="C140" s="260"/>
+      <c r="D140" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="223" t="s">
@@ -24662,8 +24666,8 @@
       </c>
     </row>
     <row r="141" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C141" s="305"/>
-      <c r="D141" s="336"/>
+      <c r="C141" s="260"/>
+      <c r="D141" s="345"/>
       <c r="E141" s="224" t="s">
         <v>141</v>
       </c>
@@ -24687,8 +24691,8 @@
       </c>
     </row>
     <row r="142" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C142" s="305"/>
-      <c r="D142" s="336"/>
+      <c r="C142" s="260"/>
+      <c r="D142" s="345"/>
       <c r="E142" s="224" t="s">
         <v>134</v>
       </c>
@@ -24712,8 +24716,8 @@
       </c>
     </row>
     <row r="143" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C143" s="305"/>
-      <c r="D143" s="336"/>
+      <c r="C143" s="260"/>
+      <c r="D143" s="345"/>
       <c r="E143" s="224" t="s">
         <v>136</v>
       </c>
@@ -24737,8 +24741,8 @@
       </c>
     </row>
     <row r="144" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C144" s="305"/>
-      <c r="D144" s="336"/>
+      <c r="C144" s="260"/>
+      <c r="D144" s="345"/>
       <c r="E144" s="224" t="s">
         <v>139</v>
       </c>
@@ -24762,8 +24766,8 @@
       </c>
     </row>
     <row r="145" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C145" s="305"/>
-      <c r="D145" s="336"/>
+      <c r="C145" s="260"/>
+      <c r="D145" s="345"/>
       <c r="E145" s="224" t="s">
         <v>137</v>
       </c>
@@ -24789,8 +24793,8 @@
       </c>
     </row>
     <row r="146" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C146" s="305"/>
-      <c r="D146" s="336"/>
+      <c r="C146" s="260"/>
+      <c r="D146" s="345"/>
       <c r="E146" s="224" t="s">
         <v>133</v>
       </c>
@@ -24814,8 +24818,8 @@
       </c>
     </row>
     <row r="147" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C147" s="305"/>
-      <c r="D147" s="336"/>
+      <c r="C147" s="260"/>
+      <c r="D147" s="345"/>
       <c r="E147" s="224" t="s">
         <v>140</v>
       </c>
@@ -24839,8 +24843,8 @@
       </c>
     </row>
     <row r="148" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C148" s="305"/>
-      <c r="D148" s="336"/>
+      <c r="C148" s="260"/>
+      <c r="D148" s="345"/>
       <c r="E148" s="224" t="s">
         <v>138</v>
       </c>
@@ -24864,8 +24868,8 @@
       </c>
     </row>
     <row r="149" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C149" s="305"/>
-      <c r="D149" s="336"/>
+      <c r="C149" s="260"/>
+      <c r="D149" s="345"/>
       <c r="E149" s="224" t="s">
         <v>135</v>
       </c>
@@ -24889,8 +24893,8 @@
       </c>
     </row>
     <row r="150" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C150" s="305"/>
-      <c r="D150" s="336"/>
+      <c r="C150" s="260"/>
+      <c r="D150" s="345"/>
       <c r="E150" s="224" t="s">
         <v>158</v>
       </c>
@@ -24914,8 +24918,8 @@
       </c>
     </row>
     <row r="151" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C151" s="305"/>
-      <c r="D151" s="336"/>
+      <c r="C151" s="260"/>
+      <c r="D151" s="345"/>
       <c r="E151" s="224" t="s">
         <v>174</v>
       </c>
@@ -24939,8 +24943,8 @@
       </c>
     </row>
     <row r="152" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C152" s="305"/>
-      <c r="D152" s="336"/>
+      <c r="C152" s="260"/>
+      <c r="D152" s="345"/>
       <c r="E152" s="224" t="s">
         <v>175</v>
       </c>
@@ -24964,8 +24968,8 @@
       </c>
     </row>
     <row r="153" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C153" s="307"/>
-      <c r="D153" s="337"/>
+      <c r="C153" s="262"/>
+      <c r="D153" s="346"/>
       <c r="E153" s="225"/>
       <c r="F153" s="234"/>
       <c r="G153" s="235"/>
@@ -24988,38 +24992,38 @@
     </row>
     <row r="154" spans="3:20" ht="14.25" collapsed="1" thickBot="1"/>
     <row r="155" spans="3:20">
-      <c r="C155" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="283"/>
+      <c r="C155" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="259"/>
       <c r="E155" s="77"/>
-      <c r="F155" s="282">
+      <c r="F155" s="258">
         <v>1</v>
       </c>
-      <c r="G155" s="284"/>
-      <c r="H155" s="284"/>
-      <c r="I155" s="284"/>
-      <c r="J155" s="284"/>
-      <c r="K155" s="284"/>
-      <c r="L155" s="284"/>
-      <c r="M155" s="284"/>
-      <c r="N155" s="284">
+      <c r="G155" s="270"/>
+      <c r="H155" s="270"/>
+      <c r="I155" s="270"/>
+      <c r="J155" s="270"/>
+      <c r="K155" s="270"/>
+      <c r="L155" s="270"/>
+      <c r="M155" s="270"/>
+      <c r="N155" s="270">
         <v>2</v>
       </c>
-      <c r="O155" s="284"/>
-      <c r="P155" s="284"/>
-      <c r="Q155" s="284"/>
-      <c r="R155" s="284"/>
-      <c r="S155" s="283"/>
-      <c r="T155" s="321" t="s">
+      <c r="O155" s="270"/>
+      <c r="P155" s="270"/>
+      <c r="Q155" s="270"/>
+      <c r="R155" s="270"/>
+      <c r="S155" s="259"/>
+      <c r="T155" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="156" spans="3:20">
-      <c r="C156" s="305" t="s">
+      <c r="C156" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="306"/>
+      <c r="D156" s="261"/>
       <c r="E156" s="78"/>
       <c r="F156" s="214">
         <f>S124+1</f>
@@ -25077,13 +25081,13 @@
         <f t="shared" si="79"/>
         <v>44598</v>
       </c>
-      <c r="T156" s="322"/>
+      <c r="T156" s="320"/>
     </row>
     <row r="157" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C157" s="333" t="s">
+      <c r="C157" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="334"/>
+      <c r="D157" s="336"/>
       <c r="E157" s="217"/>
       <c r="F157" s="218">
         <f t="shared" ref="F157" si="80">WEEKDAY(F156)</f>
@@ -25141,13 +25145,13 @@
         <f t="shared" ref="S157" si="93">WEEKDAY(S156)</f>
         <v>1</v>
       </c>
-      <c r="T157" s="322"/>
+      <c r="T157" s="320"/>
     </row>
     <row r="158" spans="3:20">
-      <c r="C158" s="282" t="s">
+      <c r="C158" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D158" s="335" t="s">
+      <c r="D158" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E158" s="223" t="s">
@@ -25173,8 +25177,8 @@
       </c>
     </row>
     <row r="159" spans="3:20">
-      <c r="C159" s="305"/>
-      <c r="D159" s="336"/>
+      <c r="C159" s="260"/>
+      <c r="D159" s="345"/>
       <c r="E159" s="224" t="s">
         <v>141</v>
       </c>
@@ -25198,8 +25202,8 @@
       </c>
     </row>
     <row r="160" spans="3:20">
-      <c r="C160" s="305"/>
-      <c r="D160" s="336"/>
+      <c r="C160" s="260"/>
+      <c r="D160" s="345"/>
       <c r="E160" s="224" t="s">
         <v>134</v>
       </c>
@@ -25223,8 +25227,8 @@
       </c>
     </row>
     <row r="161" spans="3:20">
-      <c r="C161" s="305"/>
-      <c r="D161" s="336"/>
+      <c r="C161" s="260"/>
+      <c r="D161" s="345"/>
       <c r="E161" s="224" t="s">
         <v>136</v>
       </c>
@@ -25258,8 +25262,8 @@
       </c>
     </row>
     <row r="162" spans="3:20">
-      <c r="C162" s="305"/>
-      <c r="D162" s="336"/>
+      <c r="C162" s="260"/>
+      <c r="D162" s="345"/>
       <c r="E162" s="224" t="s">
         <v>139</v>
       </c>
@@ -25291,8 +25295,8 @@
       </c>
     </row>
     <row r="163" spans="3:20">
-      <c r="C163" s="305"/>
-      <c r="D163" s="336"/>
+      <c r="C163" s="260"/>
+      <c r="D163" s="345"/>
       <c r="E163" s="224" t="s">
         <v>137</v>
       </c>
@@ -25324,8 +25328,8 @@
       </c>
     </row>
     <row r="164" spans="3:20">
-      <c r="C164" s="305"/>
-      <c r="D164" s="336"/>
+      <c r="C164" s="260"/>
+      <c r="D164" s="345"/>
       <c r="E164" s="224" t="s">
         <v>133</v>
       </c>
@@ -25349,8 +25353,8 @@
       </c>
     </row>
     <row r="165" spans="3:20">
-      <c r="C165" s="305"/>
-      <c r="D165" s="336"/>
+      <c r="C165" s="260"/>
+      <c r="D165" s="345"/>
       <c r="E165" s="224" t="s">
         <v>140</v>
       </c>
@@ -25374,8 +25378,8 @@
       </c>
     </row>
     <row r="166" spans="3:20">
-      <c r="C166" s="305"/>
-      <c r="D166" s="336"/>
+      <c r="C166" s="260"/>
+      <c r="D166" s="345"/>
       <c r="E166" s="224" t="s">
         <v>138</v>
       </c>
@@ -25399,8 +25403,8 @@
       </c>
     </row>
     <row r="167" spans="3:20">
-      <c r="C167" s="305"/>
-      <c r="D167" s="336"/>
+      <c r="C167" s="260"/>
+      <c r="D167" s="345"/>
       <c r="E167" s="224" t="s">
         <v>135</v>
       </c>
@@ -25426,8 +25430,8 @@
       </c>
     </row>
     <row r="168" spans="3:20">
-      <c r="C168" s="305"/>
-      <c r="D168" s="336"/>
+      <c r="C168" s="260"/>
+      <c r="D168" s="345"/>
       <c r="E168" s="224" t="s">
         <v>158</v>
       </c>
@@ -25451,8 +25455,8 @@
       </c>
     </row>
     <row r="169" spans="3:20">
-      <c r="C169" s="305"/>
-      <c r="D169" s="336"/>
+      <c r="C169" s="260"/>
+      <c r="D169" s="345"/>
       <c r="E169" s="224" t="s">
         <v>174</v>
       </c>
@@ -25476,8 +25480,8 @@
       </c>
     </row>
     <row r="170" spans="3:20">
-      <c r="C170" s="305"/>
-      <c r="D170" s="336"/>
+      <c r="C170" s="260"/>
+      <c r="D170" s="345"/>
       <c r="E170" s="224" t="s">
         <v>175</v>
       </c>
@@ -25507,8 +25511,8 @@
       </c>
     </row>
     <row r="171" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C171" s="305"/>
-      <c r="D171" s="337"/>
+      <c r="C171" s="260"/>
+      <c r="D171" s="346"/>
       <c r="E171" s="225"/>
       <c r="F171" s="243"/>
       <c r="G171" s="244"/>
@@ -25530,8 +25534,8 @@
       </c>
     </row>
     <row r="172" spans="3:20">
-      <c r="C172" s="305"/>
-      <c r="D172" s="335" t="s">
+      <c r="C172" s="260"/>
+      <c r="D172" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E172" s="223" t="s">
@@ -25557,8 +25561,8 @@
       </c>
     </row>
     <row r="173" spans="3:20">
-      <c r="C173" s="305"/>
-      <c r="D173" s="336"/>
+      <c r="C173" s="260"/>
+      <c r="D173" s="345"/>
       <c r="E173" s="224" t="s">
         <v>141</v>
       </c>
@@ -25588,8 +25592,8 @@
       </c>
     </row>
     <row r="174" spans="3:20">
-      <c r="C174" s="305"/>
-      <c r="D174" s="336"/>
+      <c r="C174" s="260"/>
+      <c r="D174" s="345"/>
       <c r="E174" s="224" t="s">
         <v>134</v>
       </c>
@@ -25613,8 +25617,8 @@
       </c>
     </row>
     <row r="175" spans="3:20">
-      <c r="C175" s="305"/>
-      <c r="D175" s="336"/>
+      <c r="C175" s="260"/>
+      <c r="D175" s="345"/>
       <c r="E175" s="224" t="s">
         <v>136</v>
       </c>
@@ -25644,8 +25648,8 @@
       </c>
     </row>
     <row r="176" spans="3:20">
-      <c r="C176" s="305"/>
-      <c r="D176" s="336"/>
+      <c r="C176" s="260"/>
+      <c r="D176" s="345"/>
       <c r="E176" s="224" t="s">
         <v>139</v>
       </c>
@@ -25657,7 +25661,9 @@
       <c r="K176" s="233"/>
       <c r="L176" s="233"/>
       <c r="M176" s="232"/>
-      <c r="N176" s="232"/>
+      <c r="N176" s="232" t="s">
+        <v>185</v>
+      </c>
       <c r="O176" s="232"/>
       <c r="P176" s="232"/>
       <c r="Q176" s="232"/>
@@ -25669,8 +25675,8 @@
       </c>
     </row>
     <row r="177" spans="3:20">
-      <c r="C177" s="305"/>
-      <c r="D177" s="336"/>
+      <c r="C177" s="260"/>
+      <c r="D177" s="345"/>
       <c r="E177" s="224" t="s">
         <v>137</v>
       </c>
@@ -25682,7 +25688,9 @@
       <c r="K177" s="233"/>
       <c r="L177" s="233"/>
       <c r="M177" s="232"/>
-      <c r="N177" s="232"/>
+      <c r="N177" s="232">
+        <v>2</v>
+      </c>
       <c r="O177" s="232"/>
       <c r="P177" s="232"/>
       <c r="Q177" s="232"/>
@@ -25690,12 +25698,12 @@
       <c r="S177" s="233"/>
       <c r="T177" s="221">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="3:20">
-      <c r="C178" s="305"/>
-      <c r="D178" s="336"/>
+      <c r="C178" s="260"/>
+      <c r="D178" s="345"/>
       <c r="E178" s="224" t="s">
         <v>133</v>
       </c>
@@ -25719,8 +25727,8 @@
       </c>
     </row>
     <row r="179" spans="3:20">
-      <c r="C179" s="305"/>
-      <c r="D179" s="336"/>
+      <c r="C179" s="260"/>
+      <c r="D179" s="345"/>
       <c r="E179" s="224" t="s">
         <v>140</v>
       </c>
@@ -25744,8 +25752,8 @@
       </c>
     </row>
     <row r="180" spans="3:20">
-      <c r="C180" s="305"/>
-      <c r="D180" s="336"/>
+      <c r="C180" s="260"/>
+      <c r="D180" s="345"/>
       <c r="E180" s="224" t="s">
         <v>138</v>
       </c>
@@ -25769,8 +25777,8 @@
       </c>
     </row>
     <row r="181" spans="3:20">
-      <c r="C181" s="305"/>
-      <c r="D181" s="336"/>
+      <c r="C181" s="260"/>
+      <c r="D181" s="345"/>
       <c r="E181" s="224" t="s">
         <v>135</v>
       </c>
@@ -25796,8 +25804,8 @@
       </c>
     </row>
     <row r="182" spans="3:20">
-      <c r="C182" s="305"/>
-      <c r="D182" s="336"/>
+      <c r="C182" s="260"/>
+      <c r="D182" s="345"/>
       <c r="E182" s="224" t="s">
         <v>158</v>
       </c>
@@ -25821,8 +25829,8 @@
       </c>
     </row>
     <row r="183" spans="3:20">
-      <c r="C183" s="305"/>
-      <c r="D183" s="336"/>
+      <c r="C183" s="260"/>
+      <c r="D183" s="345"/>
       <c r="E183" s="224" t="s">
         <v>174</v>
       </c>
@@ -25846,8 +25854,8 @@
       </c>
     </row>
     <row r="184" spans="3:20">
-      <c r="C184" s="305"/>
-      <c r="D184" s="336"/>
+      <c r="C184" s="260"/>
+      <c r="D184" s="345"/>
       <c r="E184" s="224" t="s">
         <v>175</v>
       </c>
@@ -25871,8 +25879,8 @@
       </c>
     </row>
     <row r="185" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C185" s="307"/>
-      <c r="D185" s="337"/>
+      <c r="C185" s="262"/>
+      <c r="D185" s="346"/>
       <c r="E185" s="225"/>
       <c r="F185" s="234"/>
       <c r="G185" s="235"/>
@@ -25895,36 +25903,36 @@
     </row>
     <row r="186" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="187" spans="3:20">
-      <c r="C187" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="283"/>
+      <c r="C187" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="259"/>
       <c r="E187" s="77"/>
-      <c r="F187" s="282">
+      <c r="F187" s="258">
         <v>2</v>
       </c>
-      <c r="G187" s="284"/>
-      <c r="H187" s="284"/>
-      <c r="I187" s="284"/>
-      <c r="J187" s="284"/>
-      <c r="K187" s="284"/>
-      <c r="L187" s="284"/>
-      <c r="M187" s="284"/>
-      <c r="N187" s="284"/>
-      <c r="O187" s="284"/>
-      <c r="P187" s="284"/>
-      <c r="Q187" s="284"/>
-      <c r="R187" s="284"/>
-      <c r="S187" s="283"/>
-      <c r="T187" s="321" t="s">
+      <c r="G187" s="270"/>
+      <c r="H187" s="270"/>
+      <c r="I187" s="270"/>
+      <c r="J187" s="270"/>
+      <c r="K187" s="270"/>
+      <c r="L187" s="270"/>
+      <c r="M187" s="270"/>
+      <c r="N187" s="270"/>
+      <c r="O187" s="270"/>
+      <c r="P187" s="270"/>
+      <c r="Q187" s="270"/>
+      <c r="R187" s="270"/>
+      <c r="S187" s="259"/>
+      <c r="T187" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="188" spans="3:20">
-      <c r="C188" s="305" t="s">
+      <c r="C188" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="306"/>
+      <c r="D188" s="261"/>
       <c r="E188" s="78"/>
       <c r="F188" s="214">
         <f>S156+1</f>
@@ -25982,13 +25990,13 @@
         <f t="shared" si="95"/>
         <v>44612</v>
       </c>
-      <c r="T188" s="322"/>
+      <c r="T188" s="320"/>
     </row>
     <row r="189" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C189" s="333" t="s">
+      <c r="C189" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="334"/>
+      <c r="D189" s="336"/>
       <c r="E189" s="217"/>
       <c r="F189" s="218">
         <f t="shared" ref="F189" si="96">WEEKDAY(F188)</f>
@@ -26046,13 +26054,13 @@
         <f t="shared" ref="S189" si="109">WEEKDAY(S188)</f>
         <v>1</v>
       </c>
-      <c r="T189" s="322"/>
+      <c r="T189" s="320"/>
     </row>
     <row r="190" spans="3:20">
-      <c r="C190" s="282" t="s">
+      <c r="C190" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="335" t="s">
+      <c r="D190" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E190" s="223" t="s">
@@ -26078,8 +26086,8 @@
       </c>
     </row>
     <row r="191" spans="3:20">
-      <c r="C191" s="305"/>
-      <c r="D191" s="336"/>
+      <c r="C191" s="260"/>
+      <c r="D191" s="345"/>
       <c r="E191" s="224" t="s">
         <v>141</v>
       </c>
@@ -26103,8 +26111,8 @@
       </c>
     </row>
     <row r="192" spans="3:20">
-      <c r="C192" s="305"/>
-      <c r="D192" s="336"/>
+      <c r="C192" s="260"/>
+      <c r="D192" s="345"/>
       <c r="E192" s="224" t="s">
         <v>134</v>
       </c>
@@ -26128,8 +26136,8 @@
       </c>
     </row>
     <row r="193" spans="3:20">
-      <c r="C193" s="305"/>
-      <c r="D193" s="336"/>
+      <c r="C193" s="260"/>
+      <c r="D193" s="345"/>
       <c r="E193" s="224" t="s">
         <v>136</v>
       </c>
@@ -26165,8 +26173,8 @@
       </c>
     </row>
     <row r="194" spans="3:20">
-      <c r="C194" s="305"/>
-      <c r="D194" s="336"/>
+      <c r="C194" s="260"/>
+      <c r="D194" s="345"/>
       <c r="E194" s="224" t="s">
         <v>139</v>
       </c>
@@ -26194,8 +26202,8 @@
       </c>
     </row>
     <row r="195" spans="3:20">
-      <c r="C195" s="305"/>
-      <c r="D195" s="336"/>
+      <c r="C195" s="260"/>
+      <c r="D195" s="345"/>
       <c r="E195" s="224" t="s">
         <v>137</v>
       </c>
@@ -26233,8 +26241,8 @@
       </c>
     </row>
     <row r="196" spans="3:20">
-      <c r="C196" s="305"/>
-      <c r="D196" s="336"/>
+      <c r="C196" s="260"/>
+      <c r="D196" s="345"/>
       <c r="E196" s="224" t="s">
         <v>133</v>
       </c>
@@ -26258,8 +26266,8 @@
       </c>
     </row>
     <row r="197" spans="3:20">
-      <c r="C197" s="305"/>
-      <c r="D197" s="336"/>
+      <c r="C197" s="260"/>
+      <c r="D197" s="345"/>
       <c r="E197" s="224" t="s">
         <v>140</v>
       </c>
@@ -26283,8 +26291,8 @@
       </c>
     </row>
     <row r="198" spans="3:20">
-      <c r="C198" s="305"/>
-      <c r="D198" s="336"/>
+      <c r="C198" s="260"/>
+      <c r="D198" s="345"/>
       <c r="E198" s="224" t="s">
         <v>138</v>
       </c>
@@ -26318,8 +26326,8 @@
       </c>
     </row>
     <row r="199" spans="3:20">
-      <c r="C199" s="305"/>
-      <c r="D199" s="336"/>
+      <c r="C199" s="260"/>
+      <c r="D199" s="345"/>
       <c r="E199" s="224" t="s">
         <v>135</v>
       </c>
@@ -26351,8 +26359,8 @@
       </c>
     </row>
     <row r="200" spans="3:20">
-      <c r="C200" s="305"/>
-      <c r="D200" s="336"/>
+      <c r="C200" s="260"/>
+      <c r="D200" s="345"/>
       <c r="E200" s="224" t="s">
         <v>158</v>
       </c>
@@ -26376,8 +26384,8 @@
       </c>
     </row>
     <row r="201" spans="3:20">
-      <c r="C201" s="305"/>
-      <c r="D201" s="336"/>
+      <c r="C201" s="260"/>
+      <c r="D201" s="345"/>
       <c r="E201" s="224" t="s">
         <v>174</v>
       </c>
@@ -26401,8 +26409,8 @@
       </c>
     </row>
     <row r="202" spans="3:20">
-      <c r="C202" s="305"/>
-      <c r="D202" s="336"/>
+      <c r="C202" s="260"/>
+      <c r="D202" s="345"/>
       <c r="E202" s="224" t="s">
         <v>175</v>
       </c>
@@ -26430,8 +26438,8 @@
       </c>
     </row>
     <row r="203" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C203" s="305"/>
-      <c r="D203" s="337"/>
+      <c r="C203" s="260"/>
+      <c r="D203" s="346"/>
       <c r="E203" s="225"/>
       <c r="F203" s="243"/>
       <c r="G203" s="244"/>
@@ -26453,8 +26461,8 @@
       </c>
     </row>
     <row r="204" spans="3:20">
-      <c r="C204" s="305"/>
-      <c r="D204" s="335" t="s">
+      <c r="C204" s="260"/>
+      <c r="D204" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E204" s="223" t="s">
@@ -26480,8 +26488,8 @@
       </c>
     </row>
     <row r="205" spans="3:20">
-      <c r="C205" s="305"/>
-      <c r="D205" s="336"/>
+      <c r="C205" s="260"/>
+      <c r="D205" s="345"/>
       <c r="E205" s="224" t="s">
         <v>141</v>
       </c>
@@ -26505,8 +26513,8 @@
       </c>
     </row>
     <row r="206" spans="3:20">
-      <c r="C206" s="305"/>
-      <c r="D206" s="336"/>
+      <c r="C206" s="260"/>
+      <c r="D206" s="345"/>
       <c r="E206" s="224" t="s">
         <v>134</v>
       </c>
@@ -26530,8 +26538,8 @@
       </c>
     </row>
     <row r="207" spans="3:20">
-      <c r="C207" s="305"/>
-      <c r="D207" s="336"/>
+      <c r="C207" s="260"/>
+      <c r="D207" s="345"/>
       <c r="E207" s="224" t="s">
         <v>136</v>
       </c>
@@ -26555,8 +26563,8 @@
       </c>
     </row>
     <row r="208" spans="3:20">
-      <c r="C208" s="305"/>
-      <c r="D208" s="336"/>
+      <c r="C208" s="260"/>
+      <c r="D208" s="345"/>
       <c r="E208" s="224" t="s">
         <v>139</v>
       </c>
@@ -26580,8 +26588,8 @@
       </c>
     </row>
     <row r="209" spans="3:20">
-      <c r="C209" s="305"/>
-      <c r="D209" s="336"/>
+      <c r="C209" s="260"/>
+      <c r="D209" s="345"/>
       <c r="E209" s="224" t="s">
         <v>137</v>
       </c>
@@ -26605,8 +26613,8 @@
       </c>
     </row>
     <row r="210" spans="3:20">
-      <c r="C210" s="305"/>
-      <c r="D210" s="336"/>
+      <c r="C210" s="260"/>
+      <c r="D210" s="345"/>
       <c r="E210" s="224" t="s">
         <v>133</v>
       </c>
@@ -26630,8 +26638,8 @@
       </c>
     </row>
     <row r="211" spans="3:20">
-      <c r="C211" s="305"/>
-      <c r="D211" s="336"/>
+      <c r="C211" s="260"/>
+      <c r="D211" s="345"/>
       <c r="E211" s="224" t="s">
         <v>140</v>
       </c>
@@ -26655,8 +26663,8 @@
       </c>
     </row>
     <row r="212" spans="3:20">
-      <c r="C212" s="305"/>
-      <c r="D212" s="336"/>
+      <c r="C212" s="260"/>
+      <c r="D212" s="345"/>
       <c r="E212" s="224" t="s">
         <v>138</v>
       </c>
@@ -26680,8 +26688,8 @@
       </c>
     </row>
     <row r="213" spans="3:20">
-      <c r="C213" s="305"/>
-      <c r="D213" s="336"/>
+      <c r="C213" s="260"/>
+      <c r="D213" s="345"/>
       <c r="E213" s="224" t="s">
         <v>135</v>
       </c>
@@ -26705,8 +26713,8 @@
       </c>
     </row>
     <row r="214" spans="3:20">
-      <c r="C214" s="305"/>
-      <c r="D214" s="336"/>
+      <c r="C214" s="260"/>
+      <c r="D214" s="345"/>
       <c r="E214" s="224" t="s">
         <v>158</v>
       </c>
@@ -26730,8 +26738,8 @@
       </c>
     </row>
     <row r="215" spans="3:20">
-      <c r="C215" s="305"/>
-      <c r="D215" s="336"/>
+      <c r="C215" s="260"/>
+      <c r="D215" s="345"/>
       <c r="E215" s="224" t="s">
         <v>174</v>
       </c>
@@ -26755,8 +26763,8 @@
       </c>
     </row>
     <row r="216" spans="3:20">
-      <c r="C216" s="305"/>
-      <c r="D216" s="336"/>
+      <c r="C216" s="260"/>
+      <c r="D216" s="345"/>
       <c r="E216" s="224" t="s">
         <v>175</v>
       </c>
@@ -26780,8 +26788,8 @@
       </c>
     </row>
     <row r="217" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C217" s="307"/>
-      <c r="D217" s="337"/>
+      <c r="C217" s="262"/>
+      <c r="D217" s="346"/>
       <c r="E217" s="225"/>
       <c r="F217" s="234"/>
       <c r="G217" s="235"/>
@@ -26804,38 +26812,38 @@
     </row>
     <row r="218" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="219" spans="3:20">
-      <c r="C219" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="283"/>
+      <c r="C219" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="259"/>
       <c r="E219" s="77"/>
-      <c r="F219" s="282">
+      <c r="F219" s="258">
         <v>2</v>
       </c>
-      <c r="G219" s="284"/>
-      <c r="H219" s="284"/>
-      <c r="I219" s="284"/>
-      <c r="J219" s="284"/>
-      <c r="K219" s="284"/>
-      <c r="L219" s="284"/>
-      <c r="M219" s="284"/>
-      <c r="N219" s="284">
+      <c r="G219" s="270"/>
+      <c r="H219" s="270"/>
+      <c r="I219" s="270"/>
+      <c r="J219" s="270"/>
+      <c r="K219" s="270"/>
+      <c r="L219" s="270"/>
+      <c r="M219" s="270"/>
+      <c r="N219" s="270">
         <v>3</v>
       </c>
-      <c r="O219" s="284"/>
-      <c r="P219" s="284"/>
-      <c r="Q219" s="284"/>
-      <c r="R219" s="284"/>
-      <c r="S219" s="283"/>
-      <c r="T219" s="321" t="s">
+      <c r="O219" s="270"/>
+      <c r="P219" s="270"/>
+      <c r="Q219" s="270"/>
+      <c r="R219" s="270"/>
+      <c r="S219" s="259"/>
+      <c r="T219" s="319" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="220" spans="3:20">
-      <c r="C220" s="305" t="s">
+      <c r="C220" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D220" s="306"/>
+      <c r="D220" s="261"/>
       <c r="E220" s="78"/>
       <c r="F220" s="214">
         <f>S188+1</f>
@@ -26893,13 +26901,13 @@
         <f t="shared" si="111"/>
         <v>44626</v>
       </c>
-      <c r="T220" s="322"/>
+      <c r="T220" s="320"/>
     </row>
     <row r="221" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C221" s="333" t="s">
+      <c r="C221" s="335" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="334"/>
+      <c r="D221" s="336"/>
       <c r="E221" s="217"/>
       <c r="F221" s="218">
         <f t="shared" ref="F221" si="112">WEEKDAY(F220)</f>
@@ -26957,13 +26965,13 @@
         <f t="shared" ref="S221" si="125">WEEKDAY(S220)</f>
         <v>1</v>
       </c>
-      <c r="T221" s="322"/>
+      <c r="T221" s="320"/>
     </row>
     <row r="222" spans="3:20">
-      <c r="C222" s="282" t="s">
+      <c r="C222" s="258" t="s">
         <v>176</v>
       </c>
-      <c r="D222" s="335" t="s">
+      <c r="D222" s="344" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="223" t="s">
@@ -26989,8 +26997,8 @@
       </c>
     </row>
     <row r="223" spans="3:20">
-      <c r="C223" s="305"/>
-      <c r="D223" s="336"/>
+      <c r="C223" s="260"/>
+      <c r="D223" s="345"/>
       <c r="E223" s="224" t="s">
         <v>141</v>
       </c>
@@ -27014,8 +27022,8 @@
       </c>
     </row>
     <row r="224" spans="3:20">
-      <c r="C224" s="305"/>
-      <c r="D224" s="336"/>
+      <c r="C224" s="260"/>
+      <c r="D224" s="345"/>
       <c r="E224" s="224" t="s">
         <v>134</v>
       </c>
@@ -27039,8 +27047,8 @@
       </c>
     </row>
     <row r="225" spans="3:20">
-      <c r="C225" s="305"/>
-      <c r="D225" s="336"/>
+      <c r="C225" s="260"/>
+      <c r="D225" s="345"/>
       <c r="E225" s="224" t="s">
         <v>136</v>
       </c>
@@ -27068,8 +27076,8 @@
       </c>
     </row>
     <row r="226" spans="3:20">
-      <c r="C226" s="305"/>
-      <c r="D226" s="336"/>
+      <c r="C226" s="260"/>
+      <c r="D226" s="345"/>
       <c r="E226" s="224" t="s">
         <v>139</v>
       </c>
@@ -27093,8 +27101,8 @@
       </c>
     </row>
     <row r="227" spans="3:20">
-      <c r="C227" s="305"/>
-      <c r="D227" s="336"/>
+      <c r="C227" s="260"/>
+      <c r="D227" s="345"/>
       <c r="E227" s="224" t="s">
         <v>137</v>
       </c>
@@ -27118,8 +27126,8 @@
       </c>
     </row>
     <row r="228" spans="3:20">
-      <c r="C228" s="305"/>
-      <c r="D228" s="336"/>
+      <c r="C228" s="260"/>
+      <c r="D228" s="345"/>
       <c r="E228" s="224" t="s">
         <v>133</v>
       </c>
@@ -27143,8 +27151,8 @@
       </c>
     </row>
     <row r="229" spans="3:20">
-      <c r="C229" s="305"/>
-      <c r="D229" s="336"/>
+      <c r="C229" s="260"/>
+      <c r="D229" s="345"/>
       <c r="E229" s="224" t="s">
         <v>140</v>
       </c>
@@ -27168,8 +27176,8 @@
       </c>
     </row>
     <row r="230" spans="3:20">
-      <c r="C230" s="305"/>
-      <c r="D230" s="336"/>
+      <c r="C230" s="260"/>
+      <c r="D230" s="345"/>
       <c r="E230" s="224" t="s">
         <v>138</v>
       </c>
@@ -27203,8 +27211,8 @@
       </c>
     </row>
     <row r="231" spans="3:20">
-      <c r="C231" s="305"/>
-      <c r="D231" s="336"/>
+      <c r="C231" s="260"/>
+      <c r="D231" s="345"/>
       <c r="E231" s="224" t="s">
         <v>135</v>
       </c>
@@ -27228,8 +27236,8 @@
       </c>
     </row>
     <row r="232" spans="3:20">
-      <c r="C232" s="305"/>
-      <c r="D232" s="336"/>
+      <c r="C232" s="260"/>
+      <c r="D232" s="345"/>
       <c r="E232" s="224" t="s">
         <v>158</v>
       </c>
@@ -27253,8 +27261,8 @@
       </c>
     </row>
     <row r="233" spans="3:20">
-      <c r="C233" s="305"/>
-      <c r="D233" s="336"/>
+      <c r="C233" s="260"/>
+      <c r="D233" s="345"/>
       <c r="E233" s="224" t="s">
         <v>174</v>
       </c>
@@ -27278,8 +27286,8 @@
       </c>
     </row>
     <row r="234" spans="3:20">
-      <c r="C234" s="305"/>
-      <c r="D234" s="336"/>
+      <c r="C234" s="260"/>
+      <c r="D234" s="345"/>
       <c r="E234" s="224" t="s">
         <v>175</v>
       </c>
@@ -27303,8 +27311,8 @@
       </c>
     </row>
     <row r="235" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C235" s="305"/>
-      <c r="D235" s="337"/>
+      <c r="C235" s="260"/>
+      <c r="D235" s="346"/>
       <c r="E235" s="225"/>
       <c r="F235" s="243"/>
       <c r="G235" s="244"/>
@@ -27326,8 +27334,8 @@
       </c>
     </row>
     <row r="236" spans="3:20">
-      <c r="C236" s="305"/>
-      <c r="D236" s="335" t="s">
+      <c r="C236" s="260"/>
+      <c r="D236" s="344" t="s">
         <v>57</v>
       </c>
       <c r="E236" s="223" t="s">
@@ -27353,8 +27361,8 @@
       </c>
     </row>
     <row r="237" spans="3:20">
-      <c r="C237" s="305"/>
-      <c r="D237" s="336"/>
+      <c r="C237" s="260"/>
+      <c r="D237" s="345"/>
       <c r="E237" s="224" t="s">
         <v>141</v>
       </c>
@@ -27378,8 +27386,8 @@
       </c>
     </row>
     <row r="238" spans="3:20">
-      <c r="C238" s="305"/>
-      <c r="D238" s="336"/>
+      <c r="C238" s="260"/>
+      <c r="D238" s="345"/>
       <c r="E238" s="224" t="s">
         <v>134</v>
       </c>
@@ -27403,8 +27411,8 @@
       </c>
     </row>
     <row r="239" spans="3:20">
-      <c r="C239" s="305"/>
-      <c r="D239" s="336"/>
+      <c r="C239" s="260"/>
+      <c r="D239" s="345"/>
       <c r="E239" s="224" t="s">
         <v>136</v>
       </c>
@@ -27428,8 +27436,8 @@
       </c>
     </row>
     <row r="240" spans="3:20">
-      <c r="C240" s="305"/>
-      <c r="D240" s="336"/>
+      <c r="C240" s="260"/>
+      <c r="D240" s="345"/>
       <c r="E240" s="224" t="s">
         <v>139</v>
       </c>
@@ -27453,8 +27461,8 @@
       </c>
     </row>
     <row r="241" spans="3:20">
-      <c r="C241" s="305"/>
-      <c r="D241" s="336"/>
+      <c r="C241" s="260"/>
+      <c r="D241" s="345"/>
       <c r="E241" s="224" t="s">
         <v>137</v>
       </c>
@@ -27478,8 +27486,8 @@
       </c>
     </row>
     <row r="242" spans="3:20">
-      <c r="C242" s="305"/>
-      <c r="D242" s="336"/>
+      <c r="C242" s="260"/>
+      <c r="D242" s="345"/>
       <c r="E242" s="224" t="s">
         <v>133</v>
       </c>
@@ -27503,8 +27511,8 @@
       </c>
     </row>
     <row r="243" spans="3:20">
-      <c r="C243" s="305"/>
-      <c r="D243" s="336"/>
+      <c r="C243" s="260"/>
+      <c r="D243" s="345"/>
       <c r="E243" s="224" t="s">
         <v>140</v>
       </c>
@@ -27528,8 +27536,8 @@
       </c>
     </row>
     <row r="244" spans="3:20">
-      <c r="C244" s="305"/>
-      <c r="D244" s="336"/>
+      <c r="C244" s="260"/>
+      <c r="D244" s="345"/>
       <c r="E244" s="224" t="s">
         <v>138</v>
       </c>
@@ -27553,8 +27561,8 @@
       </c>
     </row>
     <row r="245" spans="3:20">
-      <c r="C245" s="305"/>
-      <c r="D245" s="336"/>
+      <c r="C245" s="260"/>
+      <c r="D245" s="345"/>
       <c r="E245" s="224" t="s">
         <v>135</v>
       </c>
@@ -27578,8 +27586,8 @@
       </c>
     </row>
     <row r="246" spans="3:20">
-      <c r="C246" s="305"/>
-      <c r="D246" s="336"/>
+      <c r="C246" s="260"/>
+      <c r="D246" s="345"/>
       <c r="E246" s="224" t="s">
         <v>158</v>
       </c>
@@ -27603,8 +27611,8 @@
       </c>
     </row>
     <row r="247" spans="3:20">
-      <c r="C247" s="305"/>
-      <c r="D247" s="336"/>
+      <c r="C247" s="260"/>
+      <c r="D247" s="345"/>
       <c r="E247" s="224" t="s">
         <v>174</v>
       </c>
@@ -27628,8 +27636,8 @@
       </c>
     </row>
     <row r="248" spans="3:20">
-      <c r="C248" s="305"/>
-      <c r="D248" s="336"/>
+      <c r="C248" s="260"/>
+      <c r="D248" s="345"/>
       <c r="E248" s="224" t="s">
         <v>175</v>
       </c>
@@ -27653,8 +27661,8 @@
       </c>
     </row>
     <row r="249" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C249" s="307"/>
-      <c r="D249" s="337"/>
+      <c r="C249" s="262"/>
+      <c r="D249" s="346"/>
       <c r="E249" s="225"/>
       <c r="F249" s="234"/>
       <c r="G249" s="235"/>
@@ -27677,6 +27685,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="T219:T221"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="T187:T189"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:C217"/>
+    <mergeCell ref="D190:D203"/>
+    <mergeCell ref="D204:D217"/>
+    <mergeCell ref="F187:S187"/>
+    <mergeCell ref="C158:C185"/>
+    <mergeCell ref="D158:D171"/>
+    <mergeCell ref="D172:D185"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="C222:C249"/>
+    <mergeCell ref="D222:D235"/>
+    <mergeCell ref="D236:D249"/>
+    <mergeCell ref="F219:M219"/>
+    <mergeCell ref="N219:S219"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="F155:M155"/>
+    <mergeCell ref="N155:S155"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="D140:D153"/>
+    <mergeCell ref="F123:S123"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="D44:D57"/>
+    <mergeCell ref="C30:C57"/>
+    <mergeCell ref="T155:T157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="K91:S91"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="T123:T125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F59:S59"/>
+    <mergeCell ref="C62:C89"/>
+    <mergeCell ref="D62:D75"/>
+    <mergeCell ref="D76:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C126:C153"/>
+    <mergeCell ref="D126:D139"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="Q7:W7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -27693,76 +27771,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I27:S27"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C62:C89"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D89"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C126:C153"/>
-    <mergeCell ref="D126:D139"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F59:S59"/>
-    <mergeCell ref="D30:D43"/>
-    <mergeCell ref="D44:D57"/>
-    <mergeCell ref="C30:C57"/>
-    <mergeCell ref="T155:T157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="K91:S91"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="T123:T125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D107"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="F155:M155"/>
-    <mergeCell ref="N155:S155"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="D140:D153"/>
-    <mergeCell ref="F123:S123"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C222:C249"/>
-    <mergeCell ref="D222:D235"/>
-    <mergeCell ref="D236:D249"/>
-    <mergeCell ref="F219:M219"/>
-    <mergeCell ref="N219:S219"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="T219:T221"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="T187:T189"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:C217"/>
-    <mergeCell ref="D190:D203"/>
-    <mergeCell ref="D204:D217"/>
-    <mergeCell ref="F187:S187"/>
-    <mergeCell ref="C158:C185"/>
-    <mergeCell ref="D158:D171"/>
-    <mergeCell ref="D172:D185"/>
-    <mergeCell ref="F91:J91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10 J13:J24">

--- a/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
+++ b/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
@@ -2120,7 +2120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -3242,13 +3242,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4014,6 +4122,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4023,10 +4224,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4059,139 +4302,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4200,11 +4314,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4215,21 +4329,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4248,18 +4356,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4281,14 +4398,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="91" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5595,91 +5829,91 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="281" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="283"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="281"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
-      <c r="O7" s="302" t="s">
+      <c r="N7" s="271"/>
+      <c r="O7" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="304"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="259"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="297" t="s">
+      <c r="G8" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="311" t="s">
+      <c r="O8" s="266" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -5694,31 +5928,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="311" t="s">
+      <c r="T8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="312"/>
+      <c r="O9" s="267"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -5731,7 +5965,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="312" t="s">
+      <c r="T9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6511,36 +6745,36 @@
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="C23" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="259"/>
+      <c r="C23" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="283"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="258">
+      <c r="F23" s="282">
         <v>8</v>
       </c>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="255" t="s">
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284"/>
+      <c r="O23" s="284"/>
+      <c r="P23" s="284"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="284"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="286" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="261"/>
+      <c r="D24" s="306"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -6584,13 +6818,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="256"/>
+      <c r="T24" s="287"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -6634,13 +6868,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="257"/>
+      <c r="T25" s="288"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -6679,8 +6913,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97"/>
       <c r="F27" s="84"/>
       <c r="G27" s="73"/>
@@ -6702,8 +6936,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -6734,8 +6968,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -6768,8 +7002,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="188" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -6800,8 +7034,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -6832,8 +7066,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -6866,8 +7100,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -6896,8 +7130,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="264"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="97"/>
       <c r="F34" s="84"/>
       <c r="G34" s="73"/>
@@ -6919,8 +7153,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="264"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -6945,8 +7179,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="268" t="s">
+      <c r="C36" s="309"/>
+      <c r="D36" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -6977,8 +7211,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31"/>
       <c r="F37" s="84"/>
       <c r="G37" s="73"/>
@@ -7000,8 +7234,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7030,8 +7264,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7058,8 +7292,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7084,8 +7318,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7112,8 +7346,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7142,8 +7376,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7170,8 +7404,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="264"/>
-      <c r="D44" s="266"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="31"/>
       <c r="F44" s="84"/>
       <c r="G44" s="73"/>
@@ -7193,8 +7427,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="265"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="314"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7223,38 +7457,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="259"/>
+      <c r="C47" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="283"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="258">
+      <c r="F47" s="282">
         <v>8</v>
       </c>
-      <c r="G47" s="270"/>
-      <c r="H47" s="270"/>
-      <c r="I47" s="270"/>
-      <c r="J47" s="270"/>
-      <c r="K47" s="270"/>
-      <c r="L47" s="270"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
-      <c r="O47" s="270">
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284">
         <v>9</v>
       </c>
-      <c r="P47" s="270"/>
-      <c r="Q47" s="270"/>
-      <c r="R47" s="270"/>
-      <c r="S47" s="271"/>
-      <c r="T47" s="255" t="s">
+      <c r="P47" s="284"/>
+      <c r="Q47" s="284"/>
+      <c r="R47" s="284"/>
+      <c r="S47" s="285"/>
+      <c r="T47" s="286" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="261"/>
+      <c r="D48" s="306"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -7298,13 +7532,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="256"/>
+      <c r="T48" s="287"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="263"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -7348,13 +7582,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="257"/>
+      <c r="T49" s="288"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="264" t="s">
+      <c r="C50" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="266" t="s">
+      <c r="D50" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -7381,8 +7615,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -7404,8 +7638,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7430,8 +7664,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7456,8 +7690,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="17.25">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7484,8 +7718,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7510,8 +7744,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7536,8 +7770,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7562,8 +7796,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="264"/>
-      <c r="D58" s="266"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -7585,8 +7819,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="264"/>
-      <c r="D59" s="267"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="312"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7611,8 +7845,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="268" t="s">
+      <c r="C60" s="309"/>
+      <c r="D60" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -7639,8 +7873,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -7662,8 +7896,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7688,8 +7922,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7714,8 +7948,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7740,8 +7974,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7766,8 +8000,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7796,8 +8030,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7822,8 +8056,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="264"/>
-      <c r="D68" s="266"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="311"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -7845,8 +8079,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="265"/>
-      <c r="D69" s="269"/>
+      <c r="C69" s="310"/>
+      <c r="D69" s="314"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7876,16 +8110,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
@@ -7902,20 +8140,16 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -8090,91 +8324,91 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="281" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="282"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="283"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="281"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
-      <c r="O7" s="302" t="s">
+      <c r="N7" s="271"/>
+      <c r="O7" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="304"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="259"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="315" t="s">
+      <c r="O8" s="317" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -8189,31 +8423,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="311" t="s">
+      <c r="T8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="316"/>
+      <c r="O9" s="318"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -8226,7 +8460,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="312" t="s">
+      <c r="T9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8986,36 +9220,36 @@
     </row>
     <row r="22" spans="2:20" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:20">
-      <c r="C23" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="259"/>
+      <c r="C23" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="283"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="258">
+      <c r="F23" s="282">
         <v>8</v>
       </c>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="255" t="s">
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284"/>
+      <c r="O23" s="284"/>
+      <c r="P23" s="284"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="284"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="286" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="261"/>
+      <c r="D24" s="306"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -9059,13 +9293,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="256"/>
+      <c r="T24" s="287"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -9109,13 +9343,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="257"/>
+      <c r="T25" s="288"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -9152,8 +9386,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97"/>
       <c r="F27" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F27="","",'55宮本希(第１Q)'!F27)</f>
@@ -9202,8 +9436,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9248,8 +9482,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9294,8 +9528,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9338,8 +9572,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -9382,8 +9616,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -9426,8 +9660,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -9470,8 +9704,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="264"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="97"/>
       <c r="F34" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F34="","",'55宮本希(第１Q)'!F34)</f>
@@ -9511,8 +9745,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="264"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -9555,8 +9789,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="268" t="s">
+      <c r="C36" s="309"/>
+      <c r="D36" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -9625,8 +9859,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31"/>
       <c r="F37" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F37="","",'55宮本希(第１Q)'!F37)</f>
@@ -9690,8 +9924,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9758,8 +9992,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9826,8 +10060,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9894,8 +10128,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -9962,8 +10196,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10030,8 +10264,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10098,8 +10332,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="264"/>
-      <c r="D44" s="266"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="31"/>
       <c r="F44" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F44="","",'55宮本希(第１Q)'!F44)</f>
@@ -10163,8 +10397,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="265"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="314"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10235,38 +10469,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="259"/>
+      <c r="C47" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="283"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="258">
+      <c r="F47" s="282">
         <v>8</v>
       </c>
-      <c r="G47" s="270"/>
-      <c r="H47" s="270"/>
-      <c r="I47" s="270"/>
-      <c r="J47" s="270"/>
-      <c r="K47" s="270"/>
-      <c r="L47" s="270"/>
-      <c r="M47" s="270"/>
-      <c r="N47" s="270"/>
-      <c r="O47" s="270">
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="284"/>
+      <c r="K47" s="284"/>
+      <c r="L47" s="284"/>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284">
         <v>9</v>
       </c>
-      <c r="P47" s="270"/>
-      <c r="Q47" s="270"/>
-      <c r="R47" s="270"/>
-      <c r="S47" s="271"/>
-      <c r="T47" s="255" t="s">
+      <c r="P47" s="284"/>
+      <c r="Q47" s="284"/>
+      <c r="R47" s="284"/>
+      <c r="S47" s="285"/>
+      <c r="T47" s="286" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="261"/>
+      <c r="D48" s="306"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -10310,13 +10544,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="256"/>
+      <c r="T48" s="287"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="263"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -10360,13 +10594,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="257"/>
+      <c r="T49" s="288"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="264" t="s">
+      <c r="C50" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="266" t="s">
+      <c r="D50" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -10401,8 +10635,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -10424,8 +10658,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10456,8 +10690,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10488,8 +10722,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="18.75">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10520,8 +10754,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -10546,8 +10780,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10578,8 +10812,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10608,8 +10842,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="264"/>
-      <c r="D58" s="266"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -10631,8 +10865,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="264"/>
-      <c r="D59" s="267"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="312"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10657,8 +10891,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="268" t="s">
+      <c r="C60" s="309"/>
+      <c r="D60" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -10685,8 +10919,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -10708,8 +10942,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10734,8 +10968,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10760,8 +10994,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10786,8 +11020,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -10812,8 +11046,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10838,8 +11072,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10864,8 +11098,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="264"/>
-      <c r="D68" s="266"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="311"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -10887,8 +11121,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="265"/>
-      <c r="D69" s="269"/>
+      <c r="C69" s="310"/>
+      <c r="D69" s="314"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10918,18 +11152,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:N47"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="C23:D23"/>
@@ -10946,18 +11180,18 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -11128,96 +11362,96 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="305" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="282" t="s">
+      <c r="P6" s="280" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="282"/>
-      <c r="S6" s="282"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="283"/>
+      <c r="Q6" s="280"/>
+      <c r="R6" s="280"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="281"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="324"/>
-      <c r="P7" s="303" t="s">
+      <c r="P7" s="258" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="303"/>
-      <c r="U7" s="304"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="259"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
-      <c r="P8" s="325" t="s">
+      <c r="P8" s="319" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="123" t="s">
@@ -11232,32 +11466,32 @@
       <c r="T8" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="311" t="s">
+      <c r="U8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="306"/>
-      <c r="P9" s="326"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="320"/>
       <c r="Q9" s="123" t="s">
         <v>149</v>
       </c>
@@ -11270,7 +11504,7 @@
       <c r="T9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="312" t="s">
+      <c r="U9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12098,38 +12332,38 @@
     </row>
     <row r="22" spans="2:22" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:22">
-      <c r="C23" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="259"/>
+      <c r="C23" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="283"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="322">
+      <c r="F23" s="325">
         <v>11</v>
       </c>
-      <c r="G23" s="323"/>
-      <c r="H23" s="323"/>
-      <c r="I23" s="323"/>
-      <c r="J23" s="323"/>
-      <c r="K23" s="323"/>
-      <c r="L23" s="323"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="323"/>
-      <c r="Q23" s="323"/>
-      <c r="R23" s="323"/>
-      <c r="S23" s="323"/>
-      <c r="T23" s="323"/>
-      <c r="U23" s="319"/>
-      <c r="V23" s="319" t="s">
+      <c r="G23" s="326"/>
+      <c r="H23" s="326"/>
+      <c r="I23" s="326"/>
+      <c r="J23" s="326"/>
+      <c r="K23" s="326"/>
+      <c r="L23" s="326"/>
+      <c r="M23" s="326"/>
+      <c r="N23" s="326"/>
+      <c r="O23" s="326"/>
+      <c r="P23" s="326"/>
+      <c r="Q23" s="326"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="321"/>
+      <c r="V23" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:22">
-      <c r="C24" s="260" t="s">
+      <c r="C24" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="261"/>
+      <c r="D24" s="306"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>16</v>
@@ -12177,13 +12411,13 @@
         <v>30</v>
       </c>
       <c r="U24" s="91"/>
-      <c r="V24" s="320"/>
+      <c r="V24" s="322"/>
     </row>
     <row r="25" spans="2:22" ht="14.25" thickBot="1">
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>145</v>
@@ -12231,13 +12465,13 @@
         <v>118</v>
       </c>
       <c r="U25" s="203"/>
-      <c r="V25" s="321"/>
+      <c r="V25" s="323"/>
     </row>
     <row r="26" spans="2:22" ht="17.25">
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="266" t="s">
+      <c r="D26" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="s">
@@ -12267,8 +12501,8 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -12294,8 +12528,8 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -12323,8 +12557,8 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -12356,8 +12590,8 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -12383,8 +12617,8 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -12412,8 +12646,8 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -12439,8 +12673,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="s">
         <v>140</v>
       </c>
@@ -12470,8 +12704,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="17.25">
-      <c r="C34" s="264"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="311"/>
       <c r="E34" s="97" t="s">
         <v>141</v>
       </c>
@@ -12501,8 +12735,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="18" thickBot="1">
-      <c r="C35" s="264"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="98" t="s">
         <v>142</v>
       </c>
@@ -12528,8 +12762,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="268" t="s">
+      <c r="C36" s="309"/>
+      <c r="D36" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -12557,8 +12791,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -12600,8 +12834,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -12627,8 +12861,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="s">
         <v>170</v>
       </c>
@@ -12660,8 +12894,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -12687,8 +12921,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -12714,8 +12948,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -12741,8 +12975,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="s">
         <v>140</v>
       </c>
@@ -12768,8 +13002,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="17.25">
-      <c r="C44" s="264"/>
-      <c r="D44" s="266"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="311"/>
       <c r="E44" s="31" t="s">
         <v>141</v>
       </c>
@@ -12795,8 +13029,8 @@
       </c>
     </row>
     <row r="45" spans="3:22" ht="18" thickBot="1">
-      <c r="C45" s="265"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="314"/>
       <c r="E45" s="99" t="s">
         <v>142</v>
       </c>
@@ -12826,38 +13060,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="259"/>
+      <c r="C47" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="283"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="322">
+      <c r="F47" s="325">
         <v>12</v>
       </c>
-      <c r="G47" s="323"/>
-      <c r="H47" s="323"/>
-      <c r="I47" s="323"/>
-      <c r="J47" s="323"/>
-      <c r="K47" s="323"/>
-      <c r="L47" s="323"/>
-      <c r="M47" s="323"/>
-      <c r="N47" s="323"/>
-      <c r="O47" s="323"/>
-      <c r="P47" s="323"/>
-      <c r="Q47" s="323"/>
-      <c r="R47" s="323"/>
-      <c r="S47" s="323"/>
-      <c r="T47" s="323"/>
-      <c r="U47" s="319"/>
-      <c r="V47" s="319" t="s">
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="326"/>
+      <c r="N47" s="326"/>
+      <c r="O47" s="326"/>
+      <c r="P47" s="326"/>
+      <c r="Q47" s="326"/>
+      <c r="R47" s="326"/>
+      <c r="S47" s="326"/>
+      <c r="T47" s="326"/>
+      <c r="U47" s="321"/>
+      <c r="V47" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:22">
-      <c r="C48" s="260" t="s">
+      <c r="C48" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="261"/>
+      <c r="D48" s="306"/>
       <c r="E48" s="78"/>
       <c r="F48" s="81">
         <v>1</v>
@@ -12905,13 +13139,13 @@
         <v>15</v>
       </c>
       <c r="U48" s="91"/>
-      <c r="V48" s="320"/>
+      <c r="V48" s="322"/>
     </row>
     <row r="49" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="263"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>146</v>
@@ -12959,13 +13193,13 @@
         <v>119</v>
       </c>
       <c r="U49" s="203"/>
-      <c r="V49" s="321"/>
+      <c r="V49" s="323"/>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="264" t="s">
+      <c r="C50" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="266" t="s">
+      <c r="D50" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="s">
@@ -12993,8 +13227,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -13020,8 +13254,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -13047,8 +13281,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -13084,8 +13318,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -13127,8 +13361,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -13164,8 +13398,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -13193,8 +13427,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="s">
         <v>140</v>
       </c>
@@ -13220,8 +13454,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="17.25">
-      <c r="C58" s="264"/>
-      <c r="D58" s="266"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="311"/>
       <c r="E58" s="97" t="s">
         <v>141</v>
       </c>
@@ -13247,8 +13481,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="18" thickBot="1">
-      <c r="C59" s="264"/>
-      <c r="D59" s="267"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="312"/>
       <c r="E59" s="98" t="s">
         <v>142</v>
       </c>
@@ -13286,8 +13520,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="268" t="s">
+      <c r="C60" s="309"/>
+      <c r="D60" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="s">
@@ -13315,8 +13549,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -13342,8 +13576,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -13369,8 +13603,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -13396,8 +13630,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -13427,8 +13661,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -13454,8 +13688,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -13481,8 +13715,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="s">
         <v>140</v>
       </c>
@@ -13508,8 +13742,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="17.25">
-      <c r="C68" s="264"/>
-      <c r="D68" s="266"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="311"/>
       <c r="E68" s="31" t="s">
         <v>141</v>
       </c>
@@ -13535,8 +13769,8 @@
       </c>
     </row>
     <row r="69" spans="3:22" ht="18" thickBot="1">
-      <c r="C69" s="265"/>
-      <c r="D69" s="269"/>
+      <c r="C69" s="310"/>
+      <c r="D69" s="314"/>
       <c r="E69" s="99" t="s">
         <v>142</v>
       </c>
@@ -13566,38 +13800,38 @@
       <c r="D70" s="72"/>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="259"/>
+      <c r="C71" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="283"/>
       <c r="E71" s="77"/>
-      <c r="F71" s="322">
+      <c r="F71" s="325">
         <v>12</v>
       </c>
-      <c r="G71" s="323"/>
-      <c r="H71" s="323"/>
-      <c r="I71" s="323"/>
-      <c r="J71" s="323"/>
-      <c r="K71" s="323"/>
-      <c r="L71" s="323"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="323"/>
-      <c r="O71" s="323"/>
-      <c r="P71" s="323"/>
-      <c r="Q71" s="323"/>
-      <c r="R71" s="323"/>
-      <c r="S71" s="323"/>
-      <c r="T71" s="323"/>
-      <c r="U71" s="319"/>
-      <c r="V71" s="319" t="s">
+      <c r="G71" s="326"/>
+      <c r="H71" s="326"/>
+      <c r="I71" s="326"/>
+      <c r="J71" s="326"/>
+      <c r="K71" s="326"/>
+      <c r="L71" s="326"/>
+      <c r="M71" s="326"/>
+      <c r="N71" s="326"/>
+      <c r="O71" s="326"/>
+      <c r="P71" s="326"/>
+      <c r="Q71" s="326"/>
+      <c r="R71" s="326"/>
+      <c r="S71" s="326"/>
+      <c r="T71" s="326"/>
+      <c r="U71" s="321"/>
+      <c r="V71" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="3:22">
-      <c r="C72" s="260" t="s">
+      <c r="C72" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="261"/>
+      <c r="D72" s="306"/>
       <c r="E72" s="78"/>
       <c r="F72" s="81">
         <v>16</v>
@@ -13647,13 +13881,13 @@
       <c r="U72" s="91">
         <v>31</v>
       </c>
-      <c r="V72" s="320"/>
+      <c r="V72" s="322"/>
     </row>
     <row r="73" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C73" s="262" t="s">
+      <c r="C73" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="263"/>
+      <c r="D73" s="308"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145" t="s">
         <v>147</v>
@@ -13703,13 +13937,13 @@
       <c r="U73" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V73" s="321"/>
+      <c r="V73" s="323"/>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="264" t="s">
+      <c r="C74" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="266" t="s">
+      <c r="D74" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="96" t="s">
@@ -13737,8 +13971,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="264"/>
-      <c r="D75" s="266"/>
+      <c r="C75" s="309"/>
+      <c r="D75" s="311"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -13764,8 +13998,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="264"/>
-      <c r="D76" s="266"/>
+      <c r="C76" s="309"/>
+      <c r="D76" s="311"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -13791,8 +14025,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="264"/>
-      <c r="D77" s="266"/>
+      <c r="C77" s="309"/>
+      <c r="D77" s="311"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -13818,8 +14052,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="264"/>
-      <c r="D78" s="266"/>
+      <c r="C78" s="309"/>
+      <c r="D78" s="311"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -13859,8 +14093,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="264"/>
-      <c r="D79" s="266"/>
+      <c r="C79" s="309"/>
+      <c r="D79" s="311"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -13886,8 +14120,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="264"/>
-      <c r="D80" s="266"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="311"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -13913,8 +14147,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="264"/>
-      <c r="D81" s="266"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="311"/>
       <c r="E81" s="97" t="s">
         <v>140</v>
       </c>
@@ -13940,8 +14174,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="17.25">
-      <c r="C82" s="264"/>
-      <c r="D82" s="266"/>
+      <c r="C82" s="309"/>
+      <c r="D82" s="311"/>
       <c r="E82" s="97" t="s">
         <v>141</v>
       </c>
@@ -13967,8 +14201,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="18" thickBot="1">
-      <c r="C83" s="264"/>
-      <c r="D83" s="267"/>
+      <c r="C83" s="309"/>
+      <c r="D83" s="312"/>
       <c r="E83" s="98" t="s">
         <v>142</v>
       </c>
@@ -14010,8 +14244,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="264"/>
-      <c r="D84" s="268" t="s">
+      <c r="C84" s="309"/>
+      <c r="D84" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="32" t="s">
@@ -14039,8 +14273,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="264"/>
-      <c r="D85" s="266"/>
+      <c r="C85" s="309"/>
+      <c r="D85" s="311"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -14066,8 +14300,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="264"/>
-      <c r="D86" s="266"/>
+      <c r="C86" s="309"/>
+      <c r="D86" s="311"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -14093,8 +14327,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="264"/>
-      <c r="D87" s="266"/>
+      <c r="C87" s="309"/>
+      <c r="D87" s="311"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -14120,8 +14354,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="264"/>
-      <c r="D88" s="266"/>
+      <c r="C88" s="309"/>
+      <c r="D88" s="311"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -14147,8 +14381,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="264"/>
-      <c r="D89" s="266"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="311"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -14174,8 +14408,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="264"/>
-      <c r="D90" s="266"/>
+      <c r="C90" s="309"/>
+      <c r="D90" s="311"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -14201,8 +14435,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="264"/>
-      <c r="D91" s="266"/>
+      <c r="C91" s="309"/>
+      <c r="D91" s="311"/>
       <c r="E91" s="31" t="s">
         <v>140</v>
       </c>
@@ -14228,8 +14462,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="17.25">
-      <c r="C92" s="264"/>
-      <c r="D92" s="266"/>
+      <c r="C92" s="309"/>
+      <c r="D92" s="311"/>
       <c r="E92" s="31" t="s">
         <v>141</v>
       </c>
@@ -14255,8 +14489,8 @@
       </c>
     </row>
     <row r="93" spans="3:22" ht="18" thickBot="1">
-      <c r="C93" s="265"/>
-      <c r="D93" s="269"/>
+      <c r="C93" s="310"/>
+      <c r="D93" s="314"/>
       <c r="E93" s="99" t="s">
         <v>142</v>
       </c>
@@ -14285,19 +14519,25 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:C93"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="D84:D93"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:U71"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:U47"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="C24:D24"/>
@@ -14314,25 +14554,19 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:U47"/>
-    <mergeCell ref="C74:C93"/>
-    <mergeCell ref="D74:D83"/>
-    <mergeCell ref="D84:D93"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:U71"/>
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -14503,13 +14737,13 @@
       <c r="H6" s="276"/>
       <c r="I6" s="276"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="268" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="305" t="s">
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="260" t="s">
         <v>144</v>
       </c>
       <c r="P6" s="327" t="s">
@@ -14525,29 +14759,29 @@
     <row r="7" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="324"/>
       <c r="P7" s="330" t="s">
         <v>81</v>
@@ -14562,39 +14796,39 @@
     <row r="8" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
-      <c r="P8" s="325" t="s">
+      <c r="P8" s="319" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="124" t="s">
@@ -14615,32 +14849,32 @@
       <c r="V8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="311" t="s">
+      <c r="W8" s="266" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="306"/>
-      <c r="P9" s="326"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="320"/>
       <c r="Q9" s="124" t="s">
         <v>153</v>
       </c>
@@ -14659,7 +14893,7 @@
       <c r="V9" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="312" t="s">
+      <c r="W9" s="267" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15449,38 +15683,38 @@
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="C22" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="259"/>
+      <c r="C22" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="283"/>
       <c r="E22" s="77"/>
-      <c r="F22" s="322">
+      <c r="F22" s="325">
         <v>12</v>
       </c>
-      <c r="G22" s="323"/>
-      <c r="H22" s="323"/>
-      <c r="I22" s="323"/>
-      <c r="J22" s="323"/>
-      <c r="K22" s="323"/>
-      <c r="L22" s="323"/>
-      <c r="M22" s="323"/>
-      <c r="N22" s="323"/>
-      <c r="O22" s="323"/>
-      <c r="P22" s="323"/>
-      <c r="Q22" s="323"/>
-      <c r="R22" s="323"/>
-      <c r="S22" s="323"/>
-      <c r="T22" s="323"/>
-      <c r="U22" s="319"/>
-      <c r="V22" s="319" t="s">
+      <c r="G22" s="326"/>
+      <c r="H22" s="326"/>
+      <c r="I22" s="326"/>
+      <c r="J22" s="326"/>
+      <c r="K22" s="326"/>
+      <c r="L22" s="326"/>
+      <c r="M22" s="326"/>
+      <c r="N22" s="326"/>
+      <c r="O22" s="326"/>
+      <c r="P22" s="326"/>
+      <c r="Q22" s="326"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="321"/>
+      <c r="V22" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="C23" s="260" t="s">
+      <c r="C23" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="261"/>
+      <c r="D23" s="306"/>
       <c r="E23" s="78"/>
       <c r="F23" s="81">
         <v>1</v>
@@ -15528,13 +15762,13 @@
         <v>15</v>
       </c>
       <c r="U23" s="91"/>
-      <c r="V23" s="320"/>
+      <c r="V23" s="322"/>
     </row>
     <row r="24" spans="2:24" ht="14.25" thickBot="1">
-      <c r="C24" s="262" t="s">
+      <c r="C24" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="263"/>
+      <c r="D24" s="308"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145" t="s">
         <v>146</v>
@@ -15582,13 +15816,13 @@
         <v>119</v>
       </c>
       <c r="U24" s="203"/>
-      <c r="V24" s="321"/>
+      <c r="V24" s="323"/>
     </row>
     <row r="25" spans="2:24" ht="17.25">
-      <c r="C25" s="264" t="s">
+      <c r="C25" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="266" t="s">
+      <c r="D25" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="96" t="s">
@@ -15616,8 +15850,8 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="17.25">
-      <c r="C26" s="264"/>
-      <c r="D26" s="266"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="311"/>
       <c r="E26" s="97" t="s">
         <v>158</v>
       </c>
@@ -15643,8 +15877,8 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="17.25">
-      <c r="C27" s="264"/>
-      <c r="D27" s="266"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="311"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -15670,8 +15904,8 @@
       </c>
     </row>
     <row r="28" spans="2:24" ht="17.25">
-      <c r="C28" s="264"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="311"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -15697,8 +15931,8 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="17.25">
-      <c r="C29" s="264"/>
-      <c r="D29" s="266"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="311"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -15724,8 +15958,8 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="17.25">
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="311"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -15751,8 +15985,8 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="17.25">
-      <c r="C31" s="264"/>
-      <c r="D31" s="266"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="311"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -15778,8 +16012,8 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="17.25">
-      <c r="C32" s="264"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="311"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -15805,8 +16039,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="264"/>
-      <c r="D33" s="266"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="97" t="s">
         <v>142</v>
       </c>
@@ -15832,8 +16066,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="18" thickBot="1">
-      <c r="C34" s="264"/>
-      <c r="D34" s="267"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="312"/>
       <c r="E34" s="98"/>
       <c r="F34" s="195"/>
       <c r="G34" s="196"/>
@@ -15857,8 +16091,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="17.25">
-      <c r="C35" s="264"/>
-      <c r="D35" s="268" t="s">
+      <c r="C35" s="309"/>
+      <c r="D35" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="32" t="s">
@@ -15886,8 +16120,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="264"/>
-      <c r="D36" s="266"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="311"/>
       <c r="E36" s="31" t="s">
         <v>158</v>
       </c>
@@ -15913,8 +16147,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="311"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -15940,8 +16174,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="264"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="311"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -15967,8 +16201,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="264"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="311"/>
       <c r="E39" s="31" t="s">
         <v>136</v>
       </c>
@@ -15994,8 +16228,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="264"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="311"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -16027,8 +16261,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="264"/>
-      <c r="D41" s="266"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="311"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -16054,8 +16288,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="264"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="311"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -16081,8 +16315,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="264"/>
-      <c r="D43" s="266"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="311"/>
       <c r="E43" s="31" t="s">
         <v>142</v>
       </c>
@@ -16108,8 +16342,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="18" thickBot="1">
-      <c r="C44" s="265"/>
-      <c r="D44" s="269"/>
+      <c r="C44" s="310"/>
+      <c r="D44" s="314"/>
       <c r="E44" s="99"/>
       <c r="F44" s="197"/>
       <c r="G44" s="198"/>
@@ -16137,38 +16371,38 @@
       <c r="D45" s="72"/>
     </row>
     <row r="46" spans="3:22">
-      <c r="C46" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="259"/>
+      <c r="C46" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="283"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="322">
+      <c r="F46" s="325">
         <v>12</v>
       </c>
-      <c r="G46" s="323"/>
-      <c r="H46" s="323"/>
-      <c r="I46" s="323"/>
-      <c r="J46" s="323"/>
-      <c r="K46" s="323"/>
-      <c r="L46" s="323"/>
-      <c r="M46" s="323"/>
-      <c r="N46" s="323"/>
-      <c r="O46" s="323"/>
-      <c r="P46" s="323"/>
-      <c r="Q46" s="323"/>
-      <c r="R46" s="323"/>
-      <c r="S46" s="323"/>
-      <c r="T46" s="323"/>
-      <c r="U46" s="319"/>
-      <c r="V46" s="319" t="s">
+      <c r="G46" s="326"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="326"/>
+      <c r="N46" s="326"/>
+      <c r="O46" s="326"/>
+      <c r="P46" s="326"/>
+      <c r="Q46" s="326"/>
+      <c r="R46" s="326"/>
+      <c r="S46" s="326"/>
+      <c r="T46" s="326"/>
+      <c r="U46" s="321"/>
+      <c r="V46" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="260" t="s">
+      <c r="C47" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="261"/>
+      <c r="D47" s="306"/>
       <c r="E47" s="78"/>
       <c r="F47" s="81">
         <v>16</v>
@@ -16218,13 +16452,13 @@
       <c r="U47" s="91">
         <v>31</v>
       </c>
-      <c r="V47" s="320"/>
+      <c r="V47" s="322"/>
     </row>
     <row r="48" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C48" s="262" t="s">
+      <c r="C48" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="263"/>
+      <c r="D48" s="308"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145" t="s">
         <v>147</v>
@@ -16274,13 +16508,13 @@
       <c r="U48" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V48" s="321"/>
+      <c r="V48" s="323"/>
     </row>
     <row r="49" spans="3:22" ht="17.25">
-      <c r="C49" s="264" t="s">
+      <c r="C49" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="266" t="s">
+      <c r="D49" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="96" t="s">
@@ -16308,8 +16542,8 @@
       </c>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="264"/>
-      <c r="D50" s="266"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="311"/>
       <c r="E50" s="97" t="s">
         <v>158</v>
       </c>
@@ -16335,8 +16569,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="264"/>
-      <c r="D51" s="266"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="311"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -16362,8 +16596,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="264"/>
-      <c r="D52" s="266"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="311"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -16389,8 +16623,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="264"/>
-      <c r="D53" s="266"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="311"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -16416,8 +16650,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="264"/>
-      <c r="D54" s="266"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -16443,8 +16677,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="264"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="311"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -16470,8 +16704,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="264"/>
-      <c r="D56" s="266"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="311"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -16497,8 +16731,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="264"/>
-      <c r="D57" s="266"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="311"/>
       <c r="E57" s="97" t="s">
         <v>142</v>
       </c>
@@ -16524,8 +16758,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="18" thickBot="1">
-      <c r="C58" s="264"/>
-      <c r="D58" s="267"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="312"/>
       <c r="E58" s="98"/>
       <c r="F58" s="195"/>
       <c r="G58" s="196"/>
@@ -16549,8 +16783,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="17.25">
-      <c r="C59" s="264"/>
-      <c r="D59" s="268" t="s">
+      <c r="C59" s="309"/>
+      <c r="D59" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="32" t="s">
@@ -16578,8 +16812,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="264"/>
-      <c r="D60" s="266"/>
+      <c r="C60" s="309"/>
+      <c r="D60" s="311"/>
       <c r="E60" s="31" t="s">
         <v>158</v>
       </c>
@@ -16605,8 +16839,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="264"/>
-      <c r="D61" s="266"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="311"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -16632,8 +16866,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="264"/>
-      <c r="D62" s="266"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="311"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -16659,8 +16893,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="264"/>
-      <c r="D63" s="266"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="311"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -16688,8 +16922,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="264"/>
-      <c r="D64" s="266"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="311"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -16715,8 +16949,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="264"/>
-      <c r="D65" s="266"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="311"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -16742,8 +16976,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="264"/>
-      <c r="D66" s="266"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="311"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -16769,8 +17003,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="264"/>
-      <c r="D67" s="266"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="311"/>
       <c r="E67" s="31" t="s">
         <v>142</v>
       </c>
@@ -16796,8 +17030,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="18" thickBot="1">
-      <c r="C68" s="265"/>
-      <c r="D68" s="269"/>
+      <c r="C68" s="310"/>
+      <c r="D68" s="314"/>
       <c r="E68" s="99"/>
       <c r="F68" s="197"/>
       <c r="G68" s="198"/>
@@ -16822,38 +17056,38 @@
     </row>
     <row r="69" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="70" spans="3:22">
-      <c r="C70" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="259"/>
+      <c r="C70" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="283"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="322">
+      <c r="F70" s="325">
         <v>1</v>
       </c>
-      <c r="G70" s="323"/>
-      <c r="H70" s="323"/>
-      <c r="I70" s="323"/>
-      <c r="J70" s="323"/>
-      <c r="K70" s="323"/>
-      <c r="L70" s="323"/>
-      <c r="M70" s="323"/>
-      <c r="N70" s="323"/>
-      <c r="O70" s="323"/>
-      <c r="P70" s="323"/>
-      <c r="Q70" s="323"/>
-      <c r="R70" s="323"/>
-      <c r="S70" s="323"/>
-      <c r="T70" s="323"/>
-      <c r="U70" s="319"/>
-      <c r="V70" s="319" t="s">
+      <c r="G70" s="326"/>
+      <c r="H70" s="326"/>
+      <c r="I70" s="326"/>
+      <c r="J70" s="326"/>
+      <c r="K70" s="326"/>
+      <c r="L70" s="326"/>
+      <c r="M70" s="326"/>
+      <c r="N70" s="326"/>
+      <c r="O70" s="326"/>
+      <c r="P70" s="326"/>
+      <c r="Q70" s="326"/>
+      <c r="R70" s="326"/>
+      <c r="S70" s="326"/>
+      <c r="T70" s="326"/>
+      <c r="U70" s="321"/>
+      <c r="V70" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="260" t="s">
+      <c r="C71" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="261"/>
+      <c r="D71" s="306"/>
       <c r="E71" s="78"/>
       <c r="F71" s="81">
         <v>1</v>
@@ -16901,13 +17135,13 @@
         <v>15</v>
       </c>
       <c r="U71" s="91"/>
-      <c r="V71" s="320"/>
+      <c r="V71" s="322"/>
     </row>
     <row r="72" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C72" s="262" t="s">
+      <c r="C72" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="263"/>
+      <c r="D72" s="308"/>
       <c r="E72" s="79"/>
       <c r="F72" s="82" t="s">
         <v>160</v>
@@ -16955,13 +17189,13 @@
         <v>122</v>
       </c>
       <c r="U72" s="203"/>
-      <c r="V72" s="321"/>
+      <c r="V72" s="323"/>
     </row>
     <row r="73" spans="3:22" ht="17.25">
-      <c r="C73" s="264" t="s">
+      <c r="C73" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="266" t="s">
+      <c r="D73" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="96" t="s">
@@ -17003,8 +17237,8 @@
       </c>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="264"/>
-      <c r="D74" s="266"/>
+      <c r="C74" s="309"/>
+      <c r="D74" s="311"/>
       <c r="E74" s="97" t="s">
         <v>158</v>
       </c>
@@ -17032,8 +17266,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="264"/>
-      <c r="D75" s="266"/>
+      <c r="C75" s="309"/>
+      <c r="D75" s="311"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -17059,8 +17293,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="264"/>
-      <c r="D76" s="266"/>
+      <c r="C76" s="309"/>
+      <c r="D76" s="311"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -17100,8 +17334,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="264"/>
-      <c r="D77" s="266"/>
+      <c r="C77" s="309"/>
+      <c r="D77" s="311"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -17135,8 +17369,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="264"/>
-      <c r="D78" s="266"/>
+      <c r="C78" s="309"/>
+      <c r="D78" s="311"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -17164,8 +17398,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="264"/>
-      <c r="D79" s="266"/>
+      <c r="C79" s="309"/>
+      <c r="D79" s="311"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -17191,8 +17425,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="264"/>
-      <c r="D80" s="266"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="311"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -17218,8 +17452,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="264"/>
-      <c r="D81" s="266"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="311"/>
       <c r="E81" s="97" t="s">
         <v>142</v>
       </c>
@@ -17245,8 +17479,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="18" thickBot="1">
-      <c r="C82" s="264"/>
-      <c r="D82" s="267"/>
+      <c r="C82" s="309"/>
+      <c r="D82" s="312"/>
       <c r="E82" s="98"/>
       <c r="F82" s="171"/>
       <c r="G82" s="173"/>
@@ -17270,8 +17504,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="17.25">
-      <c r="C83" s="264"/>
-      <c r="D83" s="268" t="s">
+      <c r="C83" s="309"/>
+      <c r="D83" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="32" t="s">
@@ -17299,8 +17533,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="264"/>
-      <c r="D84" s="266"/>
+      <c r="C84" s="309"/>
+      <c r="D84" s="311"/>
       <c r="E84" s="31" t="s">
         <v>158</v>
       </c>
@@ -17326,8 +17560,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="264"/>
-      <c r="D85" s="266"/>
+      <c r="C85" s="309"/>
+      <c r="D85" s="311"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -17353,8 +17587,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="264"/>
-      <c r="D86" s="266"/>
+      <c r="C86" s="309"/>
+      <c r="D86" s="311"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -17380,8 +17614,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="264"/>
-      <c r="D87" s="266"/>
+      <c r="C87" s="309"/>
+      <c r="D87" s="311"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -17407,8 +17641,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="264"/>
-      <c r="D88" s="266"/>
+      <c r="C88" s="309"/>
+      <c r="D88" s="311"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -17434,8 +17668,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="264"/>
-      <c r="D89" s="266"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="311"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -17461,8 +17695,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="264"/>
-      <c r="D90" s="266"/>
+      <c r="C90" s="309"/>
+      <c r="D90" s="311"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -17488,8 +17722,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="264"/>
-      <c r="D91" s="266"/>
+      <c r="C91" s="309"/>
+      <c r="D91" s="311"/>
       <c r="E91" s="31" t="s">
         <v>142</v>
       </c>
@@ -17515,8 +17749,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="18" thickBot="1">
-      <c r="C92" s="265"/>
-      <c r="D92" s="269"/>
+      <c r="C92" s="310"/>
+      <c r="D92" s="314"/>
       <c r="E92" s="99"/>
       <c r="F92" s="176"/>
       <c r="G92" s="178"/>
@@ -17544,38 +17778,38 @@
       <c r="D93" s="72"/>
     </row>
     <row r="94" spans="3:22">
-      <c r="C94" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="259"/>
+      <c r="C94" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="283"/>
       <c r="E94" s="77"/>
-      <c r="F94" s="322">
+      <c r="F94" s="325">
         <v>1</v>
       </c>
-      <c r="G94" s="323"/>
-      <c r="H94" s="323"/>
-      <c r="I94" s="323"/>
-      <c r="J94" s="323"/>
-      <c r="K94" s="323"/>
-      <c r="L94" s="323"/>
-      <c r="M94" s="323"/>
-      <c r="N94" s="323"/>
-      <c r="O94" s="323"/>
-      <c r="P94" s="323"/>
-      <c r="Q94" s="323"/>
-      <c r="R94" s="323"/>
-      <c r="S94" s="323"/>
-      <c r="T94" s="323"/>
-      <c r="U94" s="319"/>
-      <c r="V94" s="319" t="s">
+      <c r="G94" s="326"/>
+      <c r="H94" s="326"/>
+      <c r="I94" s="326"/>
+      <c r="J94" s="326"/>
+      <c r="K94" s="326"/>
+      <c r="L94" s="326"/>
+      <c r="M94" s="326"/>
+      <c r="N94" s="326"/>
+      <c r="O94" s="326"/>
+      <c r="P94" s="326"/>
+      <c r="Q94" s="326"/>
+      <c r="R94" s="326"/>
+      <c r="S94" s="326"/>
+      <c r="T94" s="326"/>
+      <c r="U94" s="321"/>
+      <c r="V94" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="3:22">
-      <c r="C95" s="260" t="s">
+      <c r="C95" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="261"/>
+      <c r="D95" s="306"/>
       <c r="E95" s="78"/>
       <c r="F95" s="81">
         <v>16</v>
@@ -17625,13 +17859,13 @@
       <c r="U95" s="91">
         <v>31</v>
       </c>
-      <c r="V95" s="320"/>
+      <c r="V95" s="322"/>
     </row>
     <row r="96" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C96" s="262" t="s">
+      <c r="C96" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="263"/>
+      <c r="D96" s="308"/>
       <c r="E96" s="79"/>
       <c r="F96" s="82" t="s">
         <v>161</v>
@@ -17681,13 +17915,13 @@
       <c r="U96" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="V96" s="321"/>
+      <c r="V96" s="323"/>
     </row>
     <row r="97" spans="3:22" ht="17.25">
-      <c r="C97" s="264" t="s">
+      <c r="C97" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="266" t="s">
+      <c r="D97" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E97" s="96" t="s">
@@ -17715,8 +17949,8 @@
       </c>
     </row>
     <row r="98" spans="3:22" ht="17.25">
-      <c r="C98" s="264"/>
-      <c r="D98" s="266"/>
+      <c r="C98" s="309"/>
+      <c r="D98" s="311"/>
       <c r="E98" s="97" t="s">
         <v>158</v>
       </c>
@@ -17742,8 +17976,8 @@
       </c>
     </row>
     <row r="99" spans="3:22" ht="17.25">
-      <c r="C99" s="264"/>
-      <c r="D99" s="266"/>
+      <c r="C99" s="309"/>
+      <c r="D99" s="311"/>
       <c r="E99" s="97" t="s">
         <v>134</v>
       </c>
@@ -17769,8 +18003,8 @@
       </c>
     </row>
     <row r="100" spans="3:22" ht="17.25">
-      <c r="C100" s="264"/>
-      <c r="D100" s="266"/>
+      <c r="C100" s="309"/>
+      <c r="D100" s="311"/>
       <c r="E100" s="97" t="s">
         <v>135</v>
       </c>
@@ -17798,8 +18032,8 @@
       </c>
     </row>
     <row r="101" spans="3:22" ht="17.25">
-      <c r="C101" s="264"/>
-      <c r="D101" s="266"/>
+      <c r="C101" s="309"/>
+      <c r="D101" s="311"/>
       <c r="E101" s="97" t="s">
         <v>136</v>
       </c>
@@ -17831,8 +18065,8 @@
       </c>
     </row>
     <row r="102" spans="3:22" ht="17.25">
-      <c r="C102" s="264"/>
-      <c r="D102" s="266"/>
+      <c r="C102" s="309"/>
+      <c r="D102" s="311"/>
       <c r="E102" s="97" t="s">
         <v>137</v>
       </c>
@@ -17868,8 +18102,8 @@
       </c>
     </row>
     <row r="103" spans="3:22" ht="17.25">
-      <c r="C103" s="264"/>
-      <c r="D103" s="266"/>
+      <c r="C103" s="309"/>
+      <c r="D103" s="311"/>
       <c r="E103" s="97" t="s">
         <v>138</v>
       </c>
@@ -17913,8 +18147,8 @@
       </c>
     </row>
     <row r="104" spans="3:22" ht="17.25">
-      <c r="C104" s="264"/>
-      <c r="D104" s="266"/>
+      <c r="C104" s="309"/>
+      <c r="D104" s="311"/>
       <c r="E104" s="97" t="s">
         <v>139</v>
       </c>
@@ -17958,8 +18192,8 @@
       </c>
     </row>
     <row r="105" spans="3:22" ht="17.25">
-      <c r="C105" s="264"/>
-      <c r="D105" s="266"/>
+      <c r="C105" s="309"/>
+      <c r="D105" s="311"/>
       <c r="E105" s="97" t="s">
         <v>142</v>
       </c>
@@ -17985,8 +18219,8 @@
       </c>
     </row>
     <row r="106" spans="3:22" ht="18" thickBot="1">
-      <c r="C106" s="264"/>
-      <c r="D106" s="267"/>
+      <c r="C106" s="309"/>
+      <c r="D106" s="312"/>
       <c r="E106" s="98"/>
       <c r="F106" s="171"/>
       <c r="G106" s="196"/>
@@ -18010,8 +18244,8 @@
       </c>
     </row>
     <row r="107" spans="3:22" ht="17.25">
-      <c r="C107" s="264"/>
-      <c r="D107" s="268" t="s">
+      <c r="C107" s="309"/>
+      <c r="D107" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="32" t="s">
@@ -18039,8 +18273,8 @@
       </c>
     </row>
     <row r="108" spans="3:22" ht="17.25">
-      <c r="C108" s="264"/>
-      <c r="D108" s="266"/>
+      <c r="C108" s="309"/>
+      <c r="D108" s="311"/>
       <c r="E108" s="31" t="s">
         <v>158</v>
       </c>
@@ -18066,8 +18300,8 @@
       </c>
     </row>
     <row r="109" spans="3:22" ht="17.25">
-      <c r="C109" s="264"/>
-      <c r="D109" s="266"/>
+      <c r="C109" s="309"/>
+      <c r="D109" s="311"/>
       <c r="E109" s="31" t="s">
         <v>134</v>
       </c>
@@ -18093,8 +18327,8 @@
       </c>
     </row>
     <row r="110" spans="3:22" ht="17.25">
-      <c r="C110" s="264"/>
-      <c r="D110" s="266"/>
+      <c r="C110" s="309"/>
+      <c r="D110" s="311"/>
       <c r="E110" s="31" t="s">
         <v>135</v>
       </c>
@@ -18120,8 +18354,8 @@
       </c>
     </row>
     <row r="111" spans="3:22" ht="17.25">
-      <c r="C111" s="264"/>
-      <c r="D111" s="266"/>
+      <c r="C111" s="309"/>
+      <c r="D111" s="311"/>
       <c r="E111" s="31" t="s">
         <v>136</v>
       </c>
@@ -18147,8 +18381,8 @@
       </c>
     </row>
     <row r="112" spans="3:22" ht="17.25">
-      <c r="C112" s="264"/>
-      <c r="D112" s="266"/>
+      <c r="C112" s="309"/>
+      <c r="D112" s="311"/>
       <c r="E112" s="31" t="s">
         <v>137</v>
       </c>
@@ -18174,8 +18408,8 @@
       </c>
     </row>
     <row r="113" spans="3:22" ht="17.25">
-      <c r="C113" s="264"/>
-      <c r="D113" s="266"/>
+      <c r="C113" s="309"/>
+      <c r="D113" s="311"/>
       <c r="E113" s="31" t="s">
         <v>138</v>
       </c>
@@ -18201,8 +18435,8 @@
       </c>
     </row>
     <row r="114" spans="3:22" ht="17.25">
-      <c r="C114" s="264"/>
-      <c r="D114" s="266"/>
+      <c r="C114" s="309"/>
+      <c r="D114" s="311"/>
       <c r="E114" s="31" t="s">
         <v>139</v>
       </c>
@@ -18228,8 +18462,8 @@
       </c>
     </row>
     <row r="115" spans="3:22" ht="17.25">
-      <c r="C115" s="264"/>
-      <c r="D115" s="266"/>
+      <c r="C115" s="309"/>
+      <c r="D115" s="311"/>
       <c r="E115" s="31" t="s">
         <v>142</v>
       </c>
@@ -18255,8 +18489,8 @@
       </c>
     </row>
     <row r="116" spans="3:22" ht="18" thickBot="1">
-      <c r="C116" s="265"/>
-      <c r="D116" s="269"/>
+      <c r="C116" s="310"/>
+      <c r="D116" s="314"/>
       <c r="E116" s="99"/>
       <c r="F116" s="176"/>
       <c r="G116" s="198"/>
@@ -18284,38 +18518,38 @@
       <c r="D117" s="72"/>
     </row>
     <row r="118" spans="3:22">
-      <c r="C118" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="259"/>
+      <c r="C118" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="283"/>
       <c r="E118" s="77"/>
-      <c r="F118" s="322">
+      <c r="F118" s="325">
         <v>2</v>
       </c>
-      <c r="G118" s="323"/>
-      <c r="H118" s="323"/>
-      <c r="I118" s="323"/>
-      <c r="J118" s="323"/>
-      <c r="K118" s="323"/>
-      <c r="L118" s="323"/>
-      <c r="M118" s="323"/>
-      <c r="N118" s="323"/>
-      <c r="O118" s="323"/>
-      <c r="P118" s="323"/>
-      <c r="Q118" s="323"/>
-      <c r="R118" s="323"/>
-      <c r="S118" s="323"/>
-      <c r="T118" s="323"/>
-      <c r="U118" s="319"/>
-      <c r="V118" s="319" t="s">
+      <c r="G118" s="326"/>
+      <c r="H118" s="326"/>
+      <c r="I118" s="326"/>
+      <c r="J118" s="326"/>
+      <c r="K118" s="326"/>
+      <c r="L118" s="326"/>
+      <c r="M118" s="326"/>
+      <c r="N118" s="326"/>
+      <c r="O118" s="326"/>
+      <c r="P118" s="326"/>
+      <c r="Q118" s="326"/>
+      <c r="R118" s="326"/>
+      <c r="S118" s="326"/>
+      <c r="T118" s="326"/>
+      <c r="U118" s="321"/>
+      <c r="V118" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="3:22">
-      <c r="C119" s="260" t="s">
+      <c r="C119" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="261"/>
+      <c r="D119" s="306"/>
       <c r="E119" s="78"/>
       <c r="F119" s="81">
         <v>1</v>
@@ -18363,13 +18597,13 @@
         <v>15</v>
       </c>
       <c r="U119" s="91"/>
-      <c r="V119" s="320"/>
+      <c r="V119" s="322"/>
     </row>
     <row r="120" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C120" s="262" t="s">
+      <c r="C120" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="263"/>
+      <c r="D120" s="308"/>
       <c r="E120" s="79"/>
       <c r="F120" s="145" t="s">
         <v>162</v>
@@ -18417,13 +18651,13 @@
         <v>118</v>
       </c>
       <c r="U120" s="92"/>
-      <c r="V120" s="321"/>
+      <c r="V120" s="323"/>
     </row>
     <row r="121" spans="3:22" ht="17.25">
-      <c r="C121" s="264" t="s">
+      <c r="C121" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="266" t="s">
+      <c r="D121" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="96" t="s">
@@ -18451,8 +18685,8 @@
       </c>
     </row>
     <row r="122" spans="3:22" ht="17.25">
-      <c r="C122" s="264"/>
-      <c r="D122" s="266"/>
+      <c r="C122" s="309"/>
+      <c r="D122" s="311"/>
       <c r="E122" s="97" t="s">
         <v>158</v>
       </c>
@@ -18478,8 +18712,8 @@
       </c>
     </row>
     <row r="123" spans="3:22" ht="17.25">
-      <c r="C123" s="264"/>
-      <c r="D123" s="266"/>
+      <c r="C123" s="309"/>
+      <c r="D123" s="311"/>
       <c r="E123" s="97" t="s">
         <v>134</v>
       </c>
@@ -18505,8 +18739,8 @@
       </c>
     </row>
     <row r="124" spans="3:22" ht="17.25">
-      <c r="C124" s="264"/>
-      <c r="D124" s="266"/>
+      <c r="C124" s="309"/>
+      <c r="D124" s="311"/>
       <c r="E124" s="97" t="s">
         <v>135</v>
       </c>
@@ -18532,8 +18766,8 @@
       </c>
     </row>
     <row r="125" spans="3:22" ht="17.25">
-      <c r="C125" s="264"/>
-      <c r="D125" s="266"/>
+      <c r="C125" s="309"/>
+      <c r="D125" s="311"/>
       <c r="E125" s="97" t="s">
         <v>136</v>
       </c>
@@ -18563,8 +18797,8 @@
       </c>
     </row>
     <row r="126" spans="3:22" ht="17.25">
-      <c r="C126" s="264"/>
-      <c r="D126" s="266"/>
+      <c r="C126" s="309"/>
+      <c r="D126" s="311"/>
       <c r="E126" s="97" t="s">
         <v>137</v>
       </c>
@@ -18590,8 +18824,8 @@
       </c>
     </row>
     <row r="127" spans="3:22" ht="17.25">
-      <c r="C127" s="264"/>
-      <c r="D127" s="266"/>
+      <c r="C127" s="309"/>
+      <c r="D127" s="311"/>
       <c r="E127" s="97" t="s">
         <v>138</v>
       </c>
@@ -18619,8 +18853,8 @@
       </c>
     </row>
     <row r="128" spans="3:22" ht="17.25">
-      <c r="C128" s="264"/>
-      <c r="D128" s="266"/>
+      <c r="C128" s="309"/>
+      <c r="D128" s="311"/>
       <c r="E128" s="97" t="s">
         <v>139</v>
       </c>
@@ -18648,8 +18882,8 @@
       </c>
     </row>
     <row r="129" spans="3:22" ht="17.25">
-      <c r="C129" s="264"/>
-      <c r="D129" s="266"/>
+      <c r="C129" s="309"/>
+      <c r="D129" s="311"/>
       <c r="E129" s="97" t="s">
         <v>142</v>
       </c>
@@ -18691,8 +18925,8 @@
       </c>
     </row>
     <row r="130" spans="3:22" ht="18" thickBot="1">
-      <c r="C130" s="264"/>
-      <c r="D130" s="267"/>
+      <c r="C130" s="309"/>
+      <c r="D130" s="312"/>
       <c r="E130" s="98"/>
       <c r="F130" s="195"/>
       <c r="G130" s="196"/>
@@ -18716,8 +18950,8 @@
       </c>
     </row>
     <row r="131" spans="3:22" ht="17.25">
-      <c r="C131" s="264"/>
-      <c r="D131" s="268" t="s">
+      <c r="C131" s="309"/>
+      <c r="D131" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E131" s="32" t="s">
@@ -18745,8 +18979,8 @@
       </c>
     </row>
     <row r="132" spans="3:22" ht="17.25">
-      <c r="C132" s="264"/>
-      <c r="D132" s="266"/>
+      <c r="C132" s="309"/>
+      <c r="D132" s="311"/>
       <c r="E132" s="31" t="s">
         <v>158</v>
       </c>
@@ -18772,8 +19006,8 @@
       </c>
     </row>
     <row r="133" spans="3:22" ht="17.25">
-      <c r="C133" s="264"/>
-      <c r="D133" s="266"/>
+      <c r="C133" s="309"/>
+      <c r="D133" s="311"/>
       <c r="E133" s="31" t="s">
         <v>134</v>
       </c>
@@ -18799,8 +19033,8 @@
       </c>
     </row>
     <row r="134" spans="3:22" ht="17.25">
-      <c r="C134" s="264"/>
-      <c r="D134" s="266"/>
+      <c r="C134" s="309"/>
+      <c r="D134" s="311"/>
       <c r="E134" s="31" t="s">
         <v>135</v>
       </c>
@@ -18826,8 +19060,8 @@
       </c>
     </row>
     <row r="135" spans="3:22" ht="17.25">
-      <c r="C135" s="264"/>
-      <c r="D135" s="266"/>
+      <c r="C135" s="309"/>
+      <c r="D135" s="311"/>
       <c r="E135" s="31" t="s">
         <v>136</v>
       </c>
@@ -18853,8 +19087,8 @@
       </c>
     </row>
     <row r="136" spans="3:22" ht="17.25">
-      <c r="C136" s="264"/>
-      <c r="D136" s="266"/>
+      <c r="C136" s="309"/>
+      <c r="D136" s="311"/>
       <c r="E136" s="31" t="s">
         <v>137</v>
       </c>
@@ -18880,8 +19114,8 @@
       </c>
     </row>
     <row r="137" spans="3:22" ht="17.25">
-      <c r="C137" s="264"/>
-      <c r="D137" s="266"/>
+      <c r="C137" s="309"/>
+      <c r="D137" s="311"/>
       <c r="E137" s="31" t="s">
         <v>138</v>
       </c>
@@ -18907,8 +19141,8 @@
       </c>
     </row>
     <row r="138" spans="3:22" ht="17.25">
-      <c r="C138" s="264"/>
-      <c r="D138" s="266"/>
+      <c r="C138" s="309"/>
+      <c r="D138" s="311"/>
       <c r="E138" s="31" t="s">
         <v>139</v>
       </c>
@@ -18934,8 +19168,8 @@
       </c>
     </row>
     <row r="139" spans="3:22" ht="17.25">
-      <c r="C139" s="264"/>
-      <c r="D139" s="266"/>
+      <c r="C139" s="309"/>
+      <c r="D139" s="311"/>
       <c r="E139" s="31" t="s">
         <v>142</v>
       </c>
@@ -18961,8 +19195,8 @@
       </c>
     </row>
     <row r="140" spans="3:22" ht="18" thickBot="1">
-      <c r="C140" s="265"/>
-      <c r="D140" s="269"/>
+      <c r="C140" s="310"/>
+      <c r="D140" s="314"/>
       <c r="E140" s="99"/>
       <c r="F140" s="197"/>
       <c r="G140" s="198"/>
@@ -18987,38 +19221,38 @@
     </row>
     <row r="141" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="142" spans="3:22">
-      <c r="C142" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="259"/>
+      <c r="C142" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="283"/>
       <c r="E142" s="77"/>
-      <c r="F142" s="322">
+      <c r="F142" s="325">
         <v>2</v>
       </c>
-      <c r="G142" s="323"/>
-      <c r="H142" s="323"/>
-      <c r="I142" s="323"/>
-      <c r="J142" s="323"/>
-      <c r="K142" s="323"/>
-      <c r="L142" s="323"/>
-      <c r="M142" s="323"/>
-      <c r="N142" s="323"/>
-      <c r="O142" s="323"/>
-      <c r="P142" s="323"/>
-      <c r="Q142" s="323"/>
-      <c r="R142" s="323"/>
-      <c r="S142" s="323"/>
-      <c r="T142" s="323"/>
-      <c r="U142" s="319"/>
-      <c r="V142" s="319" t="s">
+      <c r="G142" s="326"/>
+      <c r="H142" s="326"/>
+      <c r="I142" s="326"/>
+      <c r="J142" s="326"/>
+      <c r="K142" s="326"/>
+      <c r="L142" s="326"/>
+      <c r="M142" s="326"/>
+      <c r="N142" s="326"/>
+      <c r="O142" s="326"/>
+      <c r="P142" s="326"/>
+      <c r="Q142" s="326"/>
+      <c r="R142" s="326"/>
+      <c r="S142" s="326"/>
+      <c r="T142" s="326"/>
+      <c r="U142" s="321"/>
+      <c r="V142" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" spans="3:22">
-      <c r="C143" s="260" t="s">
+      <c r="C143" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="261"/>
+      <c r="D143" s="306"/>
       <c r="E143" s="78"/>
       <c r="F143" s="81">
         <v>16</v>
@@ -19062,13 +19296,13 @@
       <c r="S143" s="86"/>
       <c r="T143" s="86"/>
       <c r="U143" s="91"/>
-      <c r="V143" s="320"/>
+      <c r="V143" s="322"/>
     </row>
     <row r="144" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C144" s="262" t="s">
+      <c r="C144" s="307" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="263"/>
+      <c r="D144" s="308"/>
       <c r="E144" s="79"/>
       <c r="F144" s="145" t="s">
         <v>146</v>
@@ -19112,13 +19346,13 @@
       <c r="S144" s="150"/>
       <c r="T144" s="150"/>
       <c r="U144" s="210"/>
-      <c r="V144" s="321"/>
+      <c r="V144" s="323"/>
     </row>
     <row r="145" spans="3:22" ht="17.25">
-      <c r="C145" s="264" t="s">
+      <c r="C145" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="266" t="s">
+      <c r="D145" s="311" t="s">
         <v>115</v>
       </c>
       <c r="E145" s="96" t="s">
@@ -19146,8 +19380,8 @@
       </c>
     </row>
     <row r="146" spans="3:22" ht="17.25">
-      <c r="C146" s="264"/>
-      <c r="D146" s="266"/>
+      <c r="C146" s="309"/>
+      <c r="D146" s="311"/>
       <c r="E146" s="97" t="s">
         <v>158</v>
       </c>
@@ -19173,8 +19407,8 @@
       </c>
     </row>
     <row r="147" spans="3:22" ht="17.25">
-      <c r="C147" s="264"/>
-      <c r="D147" s="266"/>
+      <c r="C147" s="309"/>
+      <c r="D147" s="311"/>
       <c r="E147" s="97" t="s">
         <v>134</v>
       </c>
@@ -19200,8 +19434,8 @@
       </c>
     </row>
     <row r="148" spans="3:22" ht="17.25">
-      <c r="C148" s="264"/>
-      <c r="D148" s="266"/>
+      <c r="C148" s="309"/>
+      <c r="D148" s="311"/>
       <c r="E148" s="97" t="s">
         <v>135</v>
       </c>
@@ -19227,8 +19461,8 @@
       </c>
     </row>
     <row r="149" spans="3:22" ht="17.25">
-      <c r="C149" s="264"/>
-      <c r="D149" s="266"/>
+      <c r="C149" s="309"/>
+      <c r="D149" s="311"/>
       <c r="E149" s="97" t="s">
         <v>136</v>
       </c>
@@ -19258,8 +19492,8 @@
       </c>
     </row>
     <row r="150" spans="3:22" ht="17.25">
-      <c r="C150" s="264"/>
-      <c r="D150" s="266"/>
+      <c r="C150" s="309"/>
+      <c r="D150" s="311"/>
       <c r="E150" s="97" t="s">
         <v>137</v>
       </c>
@@ -19285,8 +19519,8 @@
       </c>
     </row>
     <row r="151" spans="3:22" ht="17.25">
-      <c r="C151" s="264"/>
-      <c r="D151" s="266"/>
+      <c r="C151" s="309"/>
+      <c r="D151" s="311"/>
       <c r="E151" s="97" t="s">
         <v>138</v>
       </c>
@@ -19312,8 +19546,8 @@
       </c>
     </row>
     <row r="152" spans="3:22" ht="17.25">
-      <c r="C152" s="264"/>
-      <c r="D152" s="266"/>
+      <c r="C152" s="309"/>
+      <c r="D152" s="311"/>
       <c r="E152" s="97" t="s">
         <v>139</v>
       </c>
@@ -19339,8 +19573,8 @@
       </c>
     </row>
     <row r="153" spans="3:22" ht="17.25">
-      <c r="C153" s="264"/>
-      <c r="D153" s="266"/>
+      <c r="C153" s="309"/>
+      <c r="D153" s="311"/>
       <c r="E153" s="97" t="s">
         <v>142</v>
       </c>
@@ -19366,8 +19600,8 @@
       </c>
     </row>
     <row r="154" spans="3:22" ht="18" thickBot="1">
-      <c r="C154" s="264"/>
-      <c r="D154" s="267"/>
+      <c r="C154" s="309"/>
+      <c r="D154" s="312"/>
       <c r="E154" s="98"/>
       <c r="F154" s="195"/>
       <c r="G154" s="196"/>
@@ -19391,8 +19625,8 @@
       </c>
     </row>
     <row r="155" spans="3:22" ht="17.25">
-      <c r="C155" s="264"/>
-      <c r="D155" s="268" t="s">
+      <c r="C155" s="309"/>
+      <c r="D155" s="313" t="s">
         <v>57</v>
       </c>
       <c r="E155" s="32" t="s">
@@ -19420,8 +19654,8 @@
       </c>
     </row>
     <row r="156" spans="3:22" ht="17.25">
-      <c r="C156" s="264"/>
-      <c r="D156" s="266"/>
+      <c r="C156" s="309"/>
+      <c r="D156" s="311"/>
       <c r="E156" s="31" t="s">
         <v>158</v>
       </c>
@@ -19447,8 +19681,8 @@
       </c>
     </row>
     <row r="157" spans="3:22" ht="17.25">
-      <c r="C157" s="264"/>
-      <c r="D157" s="266"/>
+      <c r="C157" s="309"/>
+      <c r="D157" s="311"/>
       <c r="E157" s="31" t="s">
         <v>134</v>
       </c>
@@ -19474,8 +19708,8 @@
       </c>
     </row>
     <row r="158" spans="3:22" ht="17.25">
-      <c r="C158" s="264"/>
-      <c r="D158" s="266"/>
+      <c r="C158" s="309"/>
+      <c r="D158" s="311"/>
       <c r="E158" s="31" t="s">
         <v>135</v>
       </c>
@@ -19501,8 +19735,8 @@
       </c>
     </row>
     <row r="159" spans="3:22" ht="17.25">
-      <c r="C159" s="264"/>
-      <c r="D159" s="266"/>
+      <c r="C159" s="309"/>
+      <c r="D159" s="311"/>
       <c r="E159" s="31" t="s">
         <v>136</v>
       </c>
@@ -19528,8 +19762,8 @@
       </c>
     </row>
     <row r="160" spans="3:22" ht="17.25">
-      <c r="C160" s="264"/>
-      <c r="D160" s="266"/>
+      <c r="C160" s="309"/>
+      <c r="D160" s="311"/>
       <c r="E160" s="31" t="s">
         <v>137</v>
       </c>
@@ -19555,8 +19789,8 @@
       </c>
     </row>
     <row r="161" spans="3:22" ht="17.25">
-      <c r="C161" s="264"/>
-      <c r="D161" s="266"/>
+      <c r="C161" s="309"/>
+      <c r="D161" s="311"/>
       <c r="E161" s="31" t="s">
         <v>138</v>
       </c>
@@ -19582,8 +19816,8 @@
       </c>
     </row>
     <row r="162" spans="3:22" ht="17.25">
-      <c r="C162" s="264"/>
-      <c r="D162" s="266"/>
+      <c r="C162" s="309"/>
+      <c r="D162" s="311"/>
       <c r="E162" s="31" t="s">
         <v>139</v>
       </c>
@@ -19609,8 +19843,8 @@
       </c>
     </row>
     <row r="163" spans="3:22" ht="17.25">
-      <c r="C163" s="264"/>
-      <c r="D163" s="266"/>
+      <c r="C163" s="309"/>
+      <c r="D163" s="311"/>
       <c r="E163" s="31" t="s">
         <v>142</v>
       </c>
@@ -19636,8 +19870,8 @@
       </c>
     </row>
     <row r="164" spans="3:22" ht="18" thickBot="1">
-      <c r="C164" s="265"/>
-      <c r="D164" s="269"/>
+      <c r="C164" s="310"/>
+      <c r="D164" s="314"/>
       <c r="E164" s="99"/>
       <c r="F164" s="197"/>
       <c r="G164" s="198"/>
@@ -19662,49 +19896,19 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C49:C68"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:U46"/>
-    <mergeCell ref="V46:V48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="C25:C44"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="F94:U94"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:C116"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="F142:U142"/>
-    <mergeCell ref="V142:V144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="V118:V120"/>
-    <mergeCell ref="F118:U118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:C140"/>
-    <mergeCell ref="D121:D130"/>
-    <mergeCell ref="D131:D140"/>
-    <mergeCell ref="C73:C92"/>
-    <mergeCell ref="D73:D82"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="C145:C164"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="D155:D164"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="C70:D70"/>
@@ -19721,19 +19925,49 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C73:C92"/>
+    <mergeCell ref="D73:D82"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="C145:C164"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="D155:D164"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F142:U142"/>
+    <mergeCell ref="V142:V144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="V118:V120"/>
+    <mergeCell ref="F118:U118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:C140"/>
+    <mergeCell ref="D121:D130"/>
+    <mergeCell ref="D131:D140"/>
+    <mergeCell ref="F94:U94"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:C116"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="V46:V48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="C25:C44"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="C49:C68"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:U46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -19777,8 +20011,8 @@
   </sheetPr>
   <dimension ref="B1:AC249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P181" sqref="P181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -19836,7 +20070,7 @@
       </c>
       <c r="I3" s="71">
         <f>Q25</f>
-        <v>0.38541666666666669</v>
+        <v>0.38657407407407407</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>69</v>
@@ -19898,27 +20132,27 @@
     <row r="6" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="272"/>
-      <c r="D6" s="337">
+      <c r="D6" s="340">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="339"/>
-      <c r="K6" s="340">
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="341"/>
+      <c r="I6" s="341"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="343">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="L6" s="341"/>
-      <c r="M6" s="341"/>
-      <c r="N6" s="342"/>
-      <c r="O6" s="305" t="s">
+      <c r="L6" s="344"/>
+      <c r="M6" s="344"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="305" t="s">
+      <c r="P6" s="260" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="327" t="s">
@@ -19934,29 +20168,29 @@
     <row r="7" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="273"/>
-      <c r="D7" s="293" t="s">
+      <c r="D7" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="294"/>
-      <c r="F7" s="299" t="s">
+      <c r="E7" s="299"/>
+      <c r="F7" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="294"/>
-      <c r="H7" s="291" t="s">
+      <c r="G7" s="299"/>
+      <c r="H7" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="292"/>
-      <c r="J7" s="284" t="s">
+      <c r="I7" s="297"/>
+      <c r="J7" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="313" t="s">
+      <c r="L7" s="269"/>
+      <c r="M7" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="314"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="324"/>
       <c r="P7" s="324"/>
       <c r="Q7" s="330" t="s">
@@ -19972,40 +20206,40 @@
     <row r="8" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="273"/>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="300" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="300" t="s">
+      <c r="F8" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="317" t="s">
+      <c r="G8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="287" t="s">
+      <c r="H8" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="289" t="s">
+      <c r="I8" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="285"/>
-      <c r="K8" s="305" t="s">
+      <c r="J8" s="290"/>
+      <c r="K8" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="305" t="s">
+      <c r="L8" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="307" t="s">
+      <c r="M8" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="309" t="s">
+      <c r="N8" s="264" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="324"/>
       <c r="P8" s="324"/>
-      <c r="Q8" s="315" t="s">
+      <c r="Q8" s="317" t="s">
         <v>59</v>
       </c>
       <c r="R8" s="246" t="s">
@@ -20026,7 +20260,7 @@
       <c r="W8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="333" t="s">
+      <c r="X8" s="338" t="s">
         <v>4</v>
       </c>
       <c r="Y8" s="254" t="s">
@@ -20036,26 +20270,26 @@
     <row r="9" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="274"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306" t="s">
+      <c r="D9" s="301"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="304"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="308">
+      <c r="M9" s="263">
         <v>0.8</v>
       </c>
-      <c r="N9" s="310" t="s">
+      <c r="N9" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="316"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="318"/>
       <c r="R9" s="246" t="s">
         <v>177</v>
       </c>
@@ -20074,7 +20308,7 @@
       <c r="W9" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="X9" s="334" t="s">
+      <c r="X9" s="339" t="s">
         <v>4</v>
       </c>
       <c r="Y9" s="254"/>
@@ -20220,13 +20454,13 @@
       <c r="O11" s="193">
         <v>2</v>
       </c>
-      <c r="P11" s="193" t="str">
+      <c r="P11" s="193">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q11" s="251">
         <f t="shared" si="8"/>
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="248">
         <f t="shared" si="9"/>
@@ -20246,7 +20480,7 @@
       </c>
       <c r="V11" s="133">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W11" s="40">
         <f t="shared" si="14"/>
@@ -20254,11 +20488,11 @@
       </c>
       <c r="X11" s="46">
         <f t="shared" ref="X11:X19" si="22">SUM(R11:W11)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="21">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z11" s="29"/>
     </row>
@@ -20406,11 +20640,11 @@
       </c>
       <c r="P13" s="193">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="251">
         <f t="shared" si="8"/>
-        <v>0.66176470588235292</v>
+        <v>0.67647058823529416</v>
       </c>
       <c r="R13" s="248">
         <f t="shared" si="9"/>
@@ -20430,7 +20664,7 @@
       </c>
       <c r="V13" s="133">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W13" s="40">
         <f t="shared" si="14"/>
@@ -20438,101 +20672,101 @@
       </c>
       <c r="X13" s="46">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:29" ht="18.75" customHeight="1">
+    <row r="14" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B14" s="19"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="356" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="357">
         <v>22</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="358">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="359">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="358">
         <f t="shared" si="23"/>
         <v>12</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="360">
         <v>16</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="361">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="J14" s="120">
+      <c r="J14" s="362">
         <f t="shared" si="19"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="363">
         <f t="shared" si="20"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="L14" s="112">
+      <c r="L14" s="364">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="365">
         <f t="shared" si="21"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="N14" s="116">
+      <c r="N14" s="366">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="O14" s="193">
+      <c r="O14" s="367">
         <f>2+8</f>
         <v>10</v>
       </c>
-      <c r="P14" s="193">
+      <c r="P14" s="367">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Q14" s="251">
+      <c r="Q14" s="368">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="R14" s="248">
+      <c r="R14" s="369">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S14" s="133">
+      <c r="S14" s="370">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T14" s="133">
+      <c r="T14" s="370">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U14" s="133">
+      <c r="U14" s="370">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V14" s="133">
+      <c r="V14" s="370">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W14" s="40">
+      <c r="W14" s="358">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14" s="359">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="371">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
@@ -20540,50 +20774,50 @@
       <c r="AB14" s="33"/>
       <c r="AC14" s="33"/>
     </row>
-    <row r="15" spans="2:29" ht="18.75" customHeight="1">
+    <row r="15" spans="2:29" ht="18.75" customHeight="1" thickTop="1">
       <c r="B15" s="19"/>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="347" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="348">
         <v>49</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="130">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="252">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="130">
         <f t="shared" si="23"/>
         <v>18</v>
       </c>
-      <c r="H15" s="105">
+      <c r="H15" s="349">
         <v>40</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="350">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J15" s="120">
+      <c r="J15" s="351">
         <f t="shared" si="19"/>
         <v>0.18367346938775511</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="352">
         <f t="shared" si="20"/>
         <v>0.67346938775510201</v>
       </c>
-      <c r="L15" s="112">
+      <c r="L15" s="353">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="354">
         <f t="shared" si="21"/>
         <v>0.80612244897959184</v>
       </c>
-      <c r="N15" s="116">
+      <c r="N15" s="193">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -20599,35 +20833,35 @@
         <f t="shared" si="8"/>
         <v>0.61224489795918369</v>
       </c>
-      <c r="R15" s="248">
+      <c r="R15" s="247">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="S15" s="133">
+      <c r="S15" s="129">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T15" s="133">
+      <c r="T15" s="129">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U15" s="133">
+      <c r="U15" s="129">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="V15" s="133">
+      <c r="V15" s="129">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="W15" s="40">
+      <c r="W15" s="130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15" s="252">
         <f t="shared" si="22"/>
         <v>38</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="355">
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
@@ -20866,11 +21100,11 @@
       </c>
       <c r="P18" s="193">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="251">
         <f t="shared" si="8"/>
-        <v>0.48958333333333331</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="R18" s="248">
         <f t="shared" si="9"/>
@@ -20890,7 +21124,7 @@
       </c>
       <c r="V18" s="133">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" s="40">
         <f t="shared" si="14"/>
@@ -20898,148 +21132,148 @@
       </c>
       <c r="X18" s="46">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="21">
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="18.75" customHeight="1">
+    <row r="19" spans="2:29" ht="18.75" customHeight="1" thickBot="1">
       <c r="B19" s="19"/>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="372" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="357">
         <v>37</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="358">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="359">
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="358">
         <f t="shared" si="23"/>
         <v>18</v>
       </c>
-      <c r="H19" s="105">
+      <c r="H19" s="360">
         <v>28</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="361">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="362">
         <f t="shared" si="19"/>
         <v>0.24324324324324326</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="363">
         <f t="shared" si="20"/>
         <v>0.67567567567567566</v>
       </c>
-      <c r="L19" s="112">
+      <c r="L19" s="364">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="365">
         <f t="shared" si="21"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="N19" s="116">
+      <c r="N19" s="366">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O19" s="193">
+      <c r="O19" s="367">
         <v>14</v>
       </c>
-      <c r="P19" s="193">
+      <c r="P19" s="367">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Q19" s="251">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="368">
         <f>IF(E19=0,"",SUM(G19,X19)/E19)</f>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="R19" s="248">
+        <v>0.45945945945945948</v>
+      </c>
+      <c r="R19" s="369">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S19" s="133">
+      <c r="S19" s="370">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="T19" s="133">
+      <c r="T19" s="370">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U19" s="133">
+      <c r="U19" s="370">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V19" s="133">
+      <c r="V19" s="370">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="W19" s="40">
+        <v>6</v>
+      </c>
+      <c r="W19" s="358">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X19" s="46">
+      <c r="X19" s="359">
         <f t="shared" si="22"/>
-        <v>12</v>
-      </c>
-      <c r="Y19" s="21">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="371">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="18.75" customHeight="1">
+    <row r="20" spans="2:29" ht="18.75" customHeight="1" thickTop="1">
       <c r="B20" s="19"/>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="347" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="348">
         <v>7</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="130">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="252">
         <f t="shared" ref="F20:F24" si="24">D20-H20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="130">
         <f>F20*2</f>
         <v>0</v>
       </c>
-      <c r="H20" s="105">
+      <c r="H20" s="349">
         <v>7</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="350">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="351">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="352">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L20" s="112">
+      <c r="L20" s="353">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="354">
         <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="N20" s="116">
+      <c r="N20" s="193">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -21054,35 +21288,35 @@
         <f>IF(E20=0,"",SUM(G20,O20,X20)/E20)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="248">
+      <c r="R20" s="247">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="S20" s="133">
+      <c r="S20" s="129">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="T20" s="133">
+      <c r="T20" s="129">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U20" s="133">
+      <c r="U20" s="129">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V20" s="133">
+      <c r="V20" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W20" s="40">
+      <c r="W20" s="130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X20" s="46">
+      <c r="X20" s="252">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="355">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -21477,10 +21711,13 @@
         <f>SUM(O10:O24)</f>
         <v>201</v>
       </c>
-      <c r="P25" s="118"/>
+      <c r="P25" s="118">
+        <f>SUM(P10:P24)</f>
+        <v>205</v>
+      </c>
       <c r="Q25" s="139">
         <f>IF(E25=0,"",SUM(G25,20,X25)/E25)</f>
-        <v>0.38541666666666669</v>
+        <v>0.38657407407407407</v>
       </c>
       <c r="R25" s="250">
         <f t="shared" ref="R25:T25" si="27">SUM(R10:R24)</f>
@@ -21500,7 +21737,7 @@
       </c>
       <c r="V25" s="141">
         <f>SUM(V10:V24)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W25" s="142">
         <f>SUM(W10:W24)</f>
@@ -21508,7 +21745,7 @@
       </c>
       <c r="X25" s="253">
         <f>SUM(X10:X24)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y25" s="21"/>
     </row>
@@ -21519,38 +21756,38 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C27" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="259"/>
+      <c r="C27" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="283"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="258">
+      <c r="F27" s="282">
         <v>11</v>
       </c>
-      <c r="G27" s="259"/>
+      <c r="G27" s="283"/>
       <c r="H27" s="216"/>
-      <c r="I27" s="343">
+      <c r="I27" s="346">
         <v>12</v>
       </c>
-      <c r="J27" s="270"/>
-      <c r="K27" s="270"/>
-      <c r="L27" s="270"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="270"/>
-      <c r="R27" s="270"/>
-      <c r="S27" s="259"/>
-      <c r="T27" s="319" t="s">
+      <c r="J27" s="284"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="284"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="284"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="283"/>
+      <c r="T27" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C28" s="260" t="s">
+      <c r="C28" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="261"/>
+      <c r="D28" s="306"/>
       <c r="E28" s="78"/>
       <c r="F28" s="214">
         <v>44529</v>
@@ -21607,13 +21844,13 @@
         <f t="shared" si="28"/>
         <v>44542</v>
       </c>
-      <c r="T28" s="320"/>
+      <c r="T28" s="322"/>
     </row>
     <row r="29" spans="2:29" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C29" s="335" t="s">
+      <c r="C29" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="336"/>
+      <c r="D29" s="334"/>
       <c r="E29" s="217"/>
       <c r="F29" s="218">
         <f t="shared" ref="F29:S29" si="29">WEEKDAY(F28)</f>
@@ -21671,13 +21908,13 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="T29" s="320"/>
+      <c r="T29" s="322"/>
     </row>
     <row r="30" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C30" s="258" t="s">
+      <c r="C30" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="344" t="s">
+      <c r="D30" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="223" t="s">
@@ -21703,8 +21940,8 @@
       </c>
     </row>
     <row r="31" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C31" s="260"/>
-      <c r="D31" s="345"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="336"/>
       <c r="E31" s="224" t="s">
         <v>141</v>
       </c>
@@ -21728,8 +21965,8 @@
       </c>
     </row>
     <row r="32" spans="2:29" hidden="1" outlineLevel="1">
-      <c r="C32" s="260"/>
-      <c r="D32" s="345"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="336"/>
       <c r="E32" s="224" t="s">
         <v>134</v>
       </c>
@@ -21753,8 +21990,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C33" s="260"/>
-      <c r="D33" s="345"/>
+      <c r="C33" s="305"/>
+      <c r="D33" s="336"/>
       <c r="E33" s="224" t="s">
         <v>136</v>
       </c>
@@ -21778,8 +22015,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C34" s="260"/>
-      <c r="D34" s="345"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="336"/>
       <c r="E34" s="224" t="s">
         <v>139</v>
       </c>
@@ -21803,8 +22040,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C35" s="260"/>
-      <c r="D35" s="345"/>
+      <c r="C35" s="305"/>
+      <c r="D35" s="336"/>
       <c r="E35" s="224" t="s">
         <v>137</v>
       </c>
@@ -21828,8 +22065,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C36" s="260"/>
-      <c r="D36" s="345"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="336"/>
       <c r="E36" s="224" t="s">
         <v>133</v>
       </c>
@@ -21853,8 +22090,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C37" s="260"/>
-      <c r="D37" s="345"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="336"/>
       <c r="E37" s="224" t="s">
         <v>140</v>
       </c>
@@ -21878,8 +22115,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C38" s="260"/>
-      <c r="D38" s="345"/>
+      <c r="C38" s="305"/>
+      <c r="D38" s="336"/>
       <c r="E38" s="224" t="s">
         <v>138</v>
       </c>
@@ -21903,8 +22140,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C39" s="260"/>
-      <c r="D39" s="345"/>
+      <c r="C39" s="305"/>
+      <c r="D39" s="336"/>
       <c r="E39" s="224" t="s">
         <v>135</v>
       </c>
@@ -21928,8 +22165,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C40" s="260"/>
-      <c r="D40" s="345"/>
+      <c r="C40" s="305"/>
+      <c r="D40" s="336"/>
       <c r="E40" s="224" t="s">
         <v>158</v>
       </c>
@@ -21953,8 +22190,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C41" s="260"/>
-      <c r="D41" s="345"/>
+      <c r="C41" s="305"/>
+      <c r="D41" s="336"/>
       <c r="E41" s="224" t="s">
         <v>174</v>
       </c>
@@ -21978,8 +22215,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C42" s="260"/>
-      <c r="D42" s="345"/>
+      <c r="C42" s="305"/>
+      <c r="D42" s="336"/>
       <c r="E42" s="224" t="s">
         <v>175</v>
       </c>
@@ -22003,8 +22240,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C43" s="260"/>
-      <c r="D43" s="346"/>
+      <c r="C43" s="305"/>
+      <c r="D43" s="337"/>
       <c r="E43" s="225"/>
       <c r="F43" s="243"/>
       <c r="G43" s="244"/>
@@ -22026,8 +22263,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C44" s="260"/>
-      <c r="D44" s="344" t="s">
+      <c r="C44" s="305"/>
+      <c r="D44" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="223" t="s">
@@ -22053,8 +22290,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C45" s="260"/>
-      <c r="D45" s="345"/>
+      <c r="C45" s="305"/>
+      <c r="D45" s="336"/>
       <c r="E45" s="224" t="s">
         <v>141</v>
       </c>
@@ -22078,8 +22315,8 @@
       </c>
     </row>
     <row r="46" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C46" s="260"/>
-      <c r="D46" s="345"/>
+      <c r="C46" s="305"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="224" t="s">
         <v>134</v>
       </c>
@@ -22103,8 +22340,8 @@
       </c>
     </row>
     <row r="47" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C47" s="260"/>
-      <c r="D47" s="345"/>
+      <c r="C47" s="305"/>
+      <c r="D47" s="336"/>
       <c r="E47" s="224" t="s">
         <v>136</v>
       </c>
@@ -22128,8 +22365,8 @@
       </c>
     </row>
     <row r="48" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C48" s="260"/>
-      <c r="D48" s="345"/>
+      <c r="C48" s="305"/>
+      <c r="D48" s="336"/>
       <c r="E48" s="224" t="s">
         <v>139</v>
       </c>
@@ -22153,8 +22390,8 @@
       </c>
     </row>
     <row r="49" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C49" s="260"/>
-      <c r="D49" s="345"/>
+      <c r="C49" s="305"/>
+      <c r="D49" s="336"/>
       <c r="E49" s="224" t="s">
         <v>137</v>
       </c>
@@ -22184,8 +22421,8 @@
       </c>
     </row>
     <row r="50" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C50" s="260"/>
-      <c r="D50" s="345"/>
+      <c r="C50" s="305"/>
+      <c r="D50" s="336"/>
       <c r="E50" s="224" t="s">
         <v>133</v>
       </c>
@@ -22209,8 +22446,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C51" s="260"/>
-      <c r="D51" s="345"/>
+      <c r="C51" s="305"/>
+      <c r="D51" s="336"/>
       <c r="E51" s="224" t="s">
         <v>140</v>
       </c>
@@ -22234,8 +22471,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C52" s="260"/>
-      <c r="D52" s="345"/>
+      <c r="C52" s="305"/>
+      <c r="D52" s="336"/>
       <c r="E52" s="224" t="s">
         <v>138</v>
       </c>
@@ -22259,8 +22496,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C53" s="260"/>
-      <c r="D53" s="345"/>
+      <c r="C53" s="305"/>
+      <c r="D53" s="336"/>
       <c r="E53" s="224" t="s">
         <v>135</v>
       </c>
@@ -22286,8 +22523,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C54" s="260"/>
-      <c r="D54" s="345"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="336"/>
       <c r="E54" s="224" t="s">
         <v>158</v>
       </c>
@@ -22313,8 +22550,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C55" s="260"/>
-      <c r="D55" s="345"/>
+      <c r="C55" s="305"/>
+      <c r="D55" s="336"/>
       <c r="E55" s="224" t="s">
         <v>174</v>
       </c>
@@ -22338,8 +22575,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C56" s="260"/>
-      <c r="D56" s="345"/>
+      <c r="C56" s="305"/>
+      <c r="D56" s="336"/>
       <c r="E56" s="224" t="s">
         <v>175</v>
       </c>
@@ -22363,8 +22600,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C57" s="262"/>
-      <c r="D57" s="346"/>
+      <c r="C57" s="307"/>
+      <c r="D57" s="337"/>
       <c r="E57" s="225"/>
       <c r="F57" s="234"/>
       <c r="G57" s="235"/>
@@ -22387,36 +22624,36 @@
     </row>
     <row r="58" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="59" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C59" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="259"/>
+      <c r="C59" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="283"/>
       <c r="E59" s="77"/>
-      <c r="F59" s="258">
+      <c r="F59" s="282">
         <v>12</v>
       </c>
-      <c r="G59" s="270"/>
-      <c r="H59" s="270"/>
-      <c r="I59" s="270"/>
-      <c r="J59" s="270"/>
-      <c r="K59" s="270"/>
-      <c r="L59" s="270"/>
-      <c r="M59" s="270"/>
-      <c r="N59" s="270"/>
-      <c r="O59" s="270"/>
-      <c r="P59" s="270"/>
-      <c r="Q59" s="270"/>
-      <c r="R59" s="270"/>
-      <c r="S59" s="259"/>
-      <c r="T59" s="319" t="s">
+      <c r="G59" s="284"/>
+      <c r="H59" s="284"/>
+      <c r="I59" s="284"/>
+      <c r="J59" s="284"/>
+      <c r="K59" s="284"/>
+      <c r="L59" s="284"/>
+      <c r="M59" s="284"/>
+      <c r="N59" s="284"/>
+      <c r="O59" s="284"/>
+      <c r="P59" s="284"/>
+      <c r="Q59" s="284"/>
+      <c r="R59" s="284"/>
+      <c r="S59" s="283"/>
+      <c r="T59" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C60" s="260" t="s">
+      <c r="C60" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="261"/>
+      <c r="D60" s="306"/>
       <c r="E60" s="78"/>
       <c r="F60" s="214">
         <f>S28+1</f>
@@ -22474,13 +22711,13 @@
         <f t="shared" si="31"/>
         <v>44556</v>
       </c>
-      <c r="T60" s="320"/>
+      <c r="T60" s="322"/>
     </row>
     <row r="61" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C61" s="335" t="s">
+      <c r="C61" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="336"/>
+      <c r="D61" s="334"/>
       <c r="E61" s="217"/>
       <c r="F61" s="218">
         <f t="shared" ref="F61" si="32">WEEKDAY(F60)</f>
@@ -22538,13 +22775,13 @@
         <f t="shared" ref="S61" si="45">WEEKDAY(S60)</f>
         <v>1</v>
       </c>
-      <c r="T61" s="320"/>
+      <c r="T61" s="322"/>
     </row>
     <row r="62" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C62" s="258" t="s">
+      <c r="C62" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="344" t="s">
+      <c r="D62" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="223" t="s">
@@ -22570,8 +22807,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C63" s="260"/>
-      <c r="D63" s="345"/>
+      <c r="C63" s="305"/>
+      <c r="D63" s="336"/>
       <c r="E63" s="224" t="s">
         <v>141</v>
       </c>
@@ -22595,8 +22832,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C64" s="260"/>
-      <c r="D64" s="345"/>
+      <c r="C64" s="305"/>
+      <c r="D64" s="336"/>
       <c r="E64" s="224" t="s">
         <v>134</v>
       </c>
@@ -22620,8 +22857,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C65" s="260"/>
-      <c r="D65" s="345"/>
+      <c r="C65" s="305"/>
+      <c r="D65" s="336"/>
       <c r="E65" s="224" t="s">
         <v>136</v>
       </c>
@@ -22645,8 +22882,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C66" s="260"/>
-      <c r="D66" s="345"/>
+      <c r="C66" s="305"/>
+      <c r="D66" s="336"/>
       <c r="E66" s="224" t="s">
         <v>139</v>
       </c>
@@ -22670,8 +22907,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C67" s="260"/>
-      <c r="D67" s="345"/>
+      <c r="C67" s="305"/>
+      <c r="D67" s="336"/>
       <c r="E67" s="224" t="s">
         <v>137</v>
       </c>
@@ -22695,8 +22932,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C68" s="260"/>
-      <c r="D68" s="345"/>
+      <c r="C68" s="305"/>
+      <c r="D68" s="336"/>
       <c r="E68" s="224" t="s">
         <v>133</v>
       </c>
@@ -22720,8 +22957,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C69" s="260"/>
-      <c r="D69" s="345"/>
+      <c r="C69" s="305"/>
+      <c r="D69" s="336"/>
       <c r="E69" s="224" t="s">
         <v>140</v>
       </c>
@@ -22745,8 +22982,8 @@
       </c>
     </row>
     <row r="70" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C70" s="260"/>
-      <c r="D70" s="345"/>
+      <c r="C70" s="305"/>
+      <c r="D70" s="336"/>
       <c r="E70" s="224" t="s">
         <v>138</v>
       </c>
@@ -22770,8 +23007,8 @@
       </c>
     </row>
     <row r="71" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C71" s="260"/>
-      <c r="D71" s="345"/>
+      <c r="C71" s="305"/>
+      <c r="D71" s="336"/>
       <c r="E71" s="224" t="s">
         <v>135</v>
       </c>
@@ -22795,8 +23032,8 @@
       </c>
     </row>
     <row r="72" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C72" s="260"/>
-      <c r="D72" s="345"/>
+      <c r="C72" s="305"/>
+      <c r="D72" s="336"/>
       <c r="E72" s="224" t="s">
         <v>158</v>
       </c>
@@ -22820,8 +23057,8 @@
       </c>
     </row>
     <row r="73" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C73" s="260"/>
-      <c r="D73" s="345"/>
+      <c r="C73" s="305"/>
+      <c r="D73" s="336"/>
       <c r="E73" s="224" t="s">
         <v>174</v>
       </c>
@@ -22845,8 +23082,8 @@
       </c>
     </row>
     <row r="74" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C74" s="260"/>
-      <c r="D74" s="345"/>
+      <c r="C74" s="305"/>
+      <c r="D74" s="336"/>
       <c r="E74" s="224" t="s">
         <v>175</v>
       </c>
@@ -22870,8 +23107,8 @@
       </c>
     </row>
     <row r="75" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C75" s="260"/>
-      <c r="D75" s="346"/>
+      <c r="C75" s="305"/>
+      <c r="D75" s="337"/>
       <c r="E75" s="225"/>
       <c r="F75" s="243"/>
       <c r="G75" s="244"/>
@@ -22893,8 +23130,8 @@
       </c>
     </row>
     <row r="76" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C76" s="260"/>
-      <c r="D76" s="344" t="s">
+      <c r="C76" s="305"/>
+      <c r="D76" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="223" t="s">
@@ -22922,8 +23159,8 @@
       </c>
     </row>
     <row r="77" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C77" s="260"/>
-      <c r="D77" s="345"/>
+      <c r="C77" s="305"/>
+      <c r="D77" s="336"/>
       <c r="E77" s="224" t="s">
         <v>141</v>
       </c>
@@ -22947,8 +23184,8 @@
       </c>
     </row>
     <row r="78" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C78" s="260"/>
-      <c r="D78" s="345"/>
+      <c r="C78" s="305"/>
+      <c r="D78" s="336"/>
       <c r="E78" s="224" t="s">
         <v>134</v>
       </c>
@@ -22972,8 +23209,8 @@
       </c>
     </row>
     <row r="79" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C79" s="260"/>
-      <c r="D79" s="345"/>
+      <c r="C79" s="305"/>
+      <c r="D79" s="336"/>
       <c r="E79" s="224" t="s">
         <v>136</v>
       </c>
@@ -23001,8 +23238,8 @@
       </c>
     </row>
     <row r="80" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C80" s="260"/>
-      <c r="D80" s="345"/>
+      <c r="C80" s="305"/>
+      <c r="D80" s="336"/>
       <c r="E80" s="224" t="s">
         <v>139</v>
       </c>
@@ -23026,8 +23263,8 @@
       </c>
     </row>
     <row r="81" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C81" s="260"/>
-      <c r="D81" s="345"/>
+      <c r="C81" s="305"/>
+      <c r="D81" s="336"/>
       <c r="E81" s="224" t="s">
         <v>137</v>
       </c>
@@ -23051,8 +23288,8 @@
       </c>
     </row>
     <row r="82" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C82" s="260"/>
-      <c r="D82" s="345"/>
+      <c r="C82" s="305"/>
+      <c r="D82" s="336"/>
       <c r="E82" s="224" t="s">
         <v>133</v>
       </c>
@@ -23076,8 +23313,8 @@
       </c>
     </row>
     <row r="83" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C83" s="260"/>
-      <c r="D83" s="345"/>
+      <c r="C83" s="305"/>
+      <c r="D83" s="336"/>
       <c r="E83" s="224" t="s">
         <v>140</v>
       </c>
@@ -23101,8 +23338,8 @@
       </c>
     </row>
     <row r="84" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C84" s="260"/>
-      <c r="D84" s="345"/>
+      <c r="C84" s="305"/>
+      <c r="D84" s="336"/>
       <c r="E84" s="224" t="s">
         <v>138</v>
       </c>
@@ -23126,8 +23363,8 @@
       </c>
     </row>
     <row r="85" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C85" s="260"/>
-      <c r="D85" s="345"/>
+      <c r="C85" s="305"/>
+      <c r="D85" s="336"/>
       <c r="E85" s="224" t="s">
         <v>135</v>
       </c>
@@ -23159,8 +23396,8 @@
       </c>
     </row>
     <row r="86" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C86" s="260"/>
-      <c r="D86" s="345"/>
+      <c r="C86" s="305"/>
+      <c r="D86" s="336"/>
       <c r="E86" s="224" t="s">
         <v>158</v>
       </c>
@@ -23186,8 +23423,8 @@
       </c>
     </row>
     <row r="87" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C87" s="260"/>
-      <c r="D87" s="345"/>
+      <c r="C87" s="305"/>
+      <c r="D87" s="336"/>
       <c r="E87" s="224" t="s">
         <v>174</v>
       </c>
@@ -23217,8 +23454,8 @@
       </c>
     </row>
     <row r="88" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C88" s="260"/>
-      <c r="D88" s="345"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="336"/>
       <c r="E88" s="224" t="s">
         <v>175</v>
       </c>
@@ -23242,8 +23479,8 @@
       </c>
     </row>
     <row r="89" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C89" s="262"/>
-      <c r="D89" s="346"/>
+      <c r="C89" s="307"/>
+      <c r="D89" s="337"/>
       <c r="E89" s="225"/>
       <c r="F89" s="234"/>
       <c r="G89" s="235"/>
@@ -23266,38 +23503,38 @@
     </row>
     <row r="90" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="91" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C91" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="259"/>
+      <c r="C91" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="283"/>
       <c r="E91" s="77"/>
-      <c r="F91" s="258">
+      <c r="F91" s="282">
         <v>12</v>
       </c>
-      <c r="G91" s="270"/>
-      <c r="H91" s="270"/>
-      <c r="I91" s="270"/>
-      <c r="J91" s="270"/>
-      <c r="K91" s="270">
+      <c r="G91" s="284"/>
+      <c r="H91" s="284"/>
+      <c r="I91" s="284"/>
+      <c r="J91" s="284"/>
+      <c r="K91" s="284">
         <v>1</v>
       </c>
-      <c r="L91" s="270"/>
-      <c r="M91" s="270"/>
-      <c r="N91" s="270"/>
-      <c r="O91" s="270"/>
-      <c r="P91" s="270"/>
-      <c r="Q91" s="270"/>
-      <c r="R91" s="270"/>
-      <c r="S91" s="259"/>
-      <c r="T91" s="319" t="s">
+      <c r="L91" s="284"/>
+      <c r="M91" s="284"/>
+      <c r="N91" s="284"/>
+      <c r="O91" s="284"/>
+      <c r="P91" s="284"/>
+      <c r="Q91" s="284"/>
+      <c r="R91" s="284"/>
+      <c r="S91" s="283"/>
+      <c r="T91" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="92" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C92" s="260" t="s">
+      <c r="C92" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="261"/>
+      <c r="D92" s="306"/>
       <c r="E92" s="78"/>
       <c r="F92" s="214">
         <f>S60+1</f>
@@ -23355,13 +23592,13 @@
         <f t="shared" si="47"/>
         <v>44570</v>
       </c>
-      <c r="T92" s="320"/>
+      <c r="T92" s="322"/>
     </row>
     <row r="93" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C93" s="335" t="s">
+      <c r="C93" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="336"/>
+      <c r="D93" s="334"/>
       <c r="E93" s="217"/>
       <c r="F93" s="218">
         <f t="shared" ref="F93" si="48">WEEKDAY(F92)</f>
@@ -23419,13 +23656,13 @@
         <f t="shared" ref="S93" si="61">WEEKDAY(S92)</f>
         <v>1</v>
       </c>
-      <c r="T93" s="320"/>
+      <c r="T93" s="322"/>
     </row>
     <row r="94" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C94" s="258" t="s">
+      <c r="C94" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="344" t="s">
+      <c r="D94" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="223" t="s">
@@ -23451,8 +23688,8 @@
       </c>
     </row>
     <row r="95" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C95" s="260"/>
-      <c r="D95" s="345"/>
+      <c r="C95" s="305"/>
+      <c r="D95" s="336"/>
       <c r="E95" s="224" t="s">
         <v>141</v>
       </c>
@@ -23476,8 +23713,8 @@
       </c>
     </row>
     <row r="96" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C96" s="260"/>
-      <c r="D96" s="345"/>
+      <c r="C96" s="305"/>
+      <c r="D96" s="336"/>
       <c r="E96" s="224" t="s">
         <v>134</v>
       </c>
@@ -23501,8 +23738,8 @@
       </c>
     </row>
     <row r="97" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C97" s="260"/>
-      <c r="D97" s="345"/>
+      <c r="C97" s="305"/>
+      <c r="D97" s="336"/>
       <c r="E97" s="224" t="s">
         <v>136</v>
       </c>
@@ -23526,8 +23763,8 @@
       </c>
     </row>
     <row r="98" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C98" s="260"/>
-      <c r="D98" s="345"/>
+      <c r="C98" s="305"/>
+      <c r="D98" s="336"/>
       <c r="E98" s="224" t="s">
         <v>139</v>
       </c>
@@ -23551,8 +23788,8 @@
       </c>
     </row>
     <row r="99" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C99" s="260"/>
-      <c r="D99" s="345"/>
+      <c r="C99" s="305"/>
+      <c r="D99" s="336"/>
       <c r="E99" s="224" t="s">
         <v>137</v>
       </c>
@@ -23576,8 +23813,8 @@
       </c>
     </row>
     <row r="100" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C100" s="260"/>
-      <c r="D100" s="345"/>
+      <c r="C100" s="305"/>
+      <c r="D100" s="336"/>
       <c r="E100" s="224" t="s">
         <v>133</v>
       </c>
@@ -23601,8 +23838,8 @@
       </c>
     </row>
     <row r="101" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C101" s="260"/>
-      <c r="D101" s="345"/>
+      <c r="C101" s="305"/>
+      <c r="D101" s="336"/>
       <c r="E101" s="224" t="s">
         <v>140</v>
       </c>
@@ -23626,8 +23863,8 @@
       </c>
     </row>
     <row r="102" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C102" s="260"/>
-      <c r="D102" s="345"/>
+      <c r="C102" s="305"/>
+      <c r="D102" s="336"/>
       <c r="E102" s="224" t="s">
         <v>138</v>
       </c>
@@ -23651,8 +23888,8 @@
       </c>
     </row>
     <row r="103" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C103" s="260"/>
-      <c r="D103" s="345"/>
+      <c r="C103" s="305"/>
+      <c r="D103" s="336"/>
       <c r="E103" s="224" t="s">
         <v>135</v>
       </c>
@@ -23676,8 +23913,8 @@
       </c>
     </row>
     <row r="104" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C104" s="260"/>
-      <c r="D104" s="345"/>
+      <c r="C104" s="305"/>
+      <c r="D104" s="336"/>
       <c r="E104" s="224" t="s">
         <v>158</v>
       </c>
@@ -23701,8 +23938,8 @@
       </c>
     </row>
     <row r="105" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C105" s="260"/>
-      <c r="D105" s="345"/>
+      <c r="C105" s="305"/>
+      <c r="D105" s="336"/>
       <c r="E105" s="224" t="s">
         <v>174</v>
       </c>
@@ -23726,8 +23963,8 @@
       </c>
     </row>
     <row r="106" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C106" s="260"/>
-      <c r="D106" s="345"/>
+      <c r="C106" s="305"/>
+      <c r="D106" s="336"/>
       <c r="E106" s="224" t="s">
         <v>175</v>
       </c>
@@ -23751,8 +23988,8 @@
       </c>
     </row>
     <row r="107" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C107" s="260"/>
-      <c r="D107" s="346"/>
+      <c r="C107" s="305"/>
+      <c r="D107" s="337"/>
       <c r="E107" s="225"/>
       <c r="F107" s="243"/>
       <c r="G107" s="244"/>
@@ -23774,8 +24011,8 @@
       </c>
     </row>
     <row r="108" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C108" s="260"/>
-      <c r="D108" s="344" t="s">
+      <c r="C108" s="305"/>
+      <c r="D108" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="223" t="s">
@@ -23803,8 +24040,8 @@
       </c>
     </row>
     <row r="109" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C109" s="260"/>
-      <c r="D109" s="345"/>
+      <c r="C109" s="305"/>
+      <c r="D109" s="336"/>
       <c r="E109" s="224" t="s">
         <v>141</v>
       </c>
@@ -23830,8 +24067,8 @@
       </c>
     </row>
     <row r="110" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C110" s="260"/>
-      <c r="D110" s="345"/>
+      <c r="C110" s="305"/>
+      <c r="D110" s="336"/>
       <c r="E110" s="224" t="s">
         <v>134</v>
       </c>
@@ -23855,8 +24092,8 @@
       </c>
     </row>
     <row r="111" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C111" s="260"/>
-      <c r="D111" s="345"/>
+      <c r="C111" s="305"/>
+      <c r="D111" s="336"/>
       <c r="E111" s="224" t="s">
         <v>136</v>
       </c>
@@ -23884,8 +24121,8 @@
       </c>
     </row>
     <row r="112" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C112" s="260"/>
-      <c r="D112" s="345"/>
+      <c r="C112" s="305"/>
+      <c r="D112" s="336"/>
       <c r="E112" s="224" t="s">
         <v>139</v>
       </c>
@@ -23909,8 +24146,8 @@
       </c>
     </row>
     <row r="113" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C113" s="260"/>
-      <c r="D113" s="345"/>
+      <c r="C113" s="305"/>
+      <c r="D113" s="336"/>
       <c r="E113" s="224" t="s">
         <v>137</v>
       </c>
@@ -23934,8 +24171,8 @@
       </c>
     </row>
     <row r="114" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C114" s="260"/>
-      <c r="D114" s="345"/>
+      <c r="C114" s="305"/>
+      <c r="D114" s="336"/>
       <c r="E114" s="224" t="s">
         <v>133</v>
       </c>
@@ -23959,8 +24196,8 @@
       </c>
     </row>
     <row r="115" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C115" s="260"/>
-      <c r="D115" s="345"/>
+      <c r="C115" s="305"/>
+      <c r="D115" s="336"/>
       <c r="E115" s="224" t="s">
         <v>140</v>
       </c>
@@ -23984,8 +24221,8 @@
       </c>
     </row>
     <row r="116" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C116" s="260"/>
-      <c r="D116" s="345"/>
+      <c r="C116" s="305"/>
+      <c r="D116" s="336"/>
       <c r="E116" s="224" t="s">
         <v>138</v>
       </c>
@@ -24009,8 +24246,8 @@
       </c>
     </row>
     <row r="117" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C117" s="260"/>
-      <c r="D117" s="345"/>
+      <c r="C117" s="305"/>
+      <c r="D117" s="336"/>
       <c r="E117" s="224" t="s">
         <v>135</v>
       </c>
@@ -24034,8 +24271,8 @@
       </c>
     </row>
     <row r="118" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C118" s="260"/>
-      <c r="D118" s="345"/>
+      <c r="C118" s="305"/>
+      <c r="D118" s="336"/>
       <c r="E118" s="224" t="s">
         <v>158</v>
       </c>
@@ -24059,8 +24296,8 @@
       </c>
     </row>
     <row r="119" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C119" s="260"/>
-      <c r="D119" s="345"/>
+      <c r="C119" s="305"/>
+      <c r="D119" s="336"/>
       <c r="E119" s="224" t="s">
         <v>174</v>
       </c>
@@ -24084,8 +24321,8 @@
       </c>
     </row>
     <row r="120" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C120" s="260"/>
-      <c r="D120" s="345"/>
+      <c r="C120" s="305"/>
+      <c r="D120" s="336"/>
       <c r="E120" s="224" t="s">
         <v>175</v>
       </c>
@@ -24109,8 +24346,8 @@
       </c>
     </row>
     <row r="121" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C121" s="262"/>
-      <c r="D121" s="346"/>
+      <c r="C121" s="307"/>
+      <c r="D121" s="337"/>
       <c r="E121" s="225"/>
       <c r="F121" s="234"/>
       <c r="G121" s="235"/>
@@ -24133,36 +24370,36 @@
     </row>
     <row r="122" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1"/>
     <row r="123" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C123" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="259"/>
+      <c r="C123" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="283"/>
       <c r="E123" s="77"/>
-      <c r="F123" s="258">
+      <c r="F123" s="282">
         <v>1</v>
       </c>
-      <c r="G123" s="270"/>
-      <c r="H123" s="270"/>
-      <c r="I123" s="270"/>
-      <c r="J123" s="270"/>
-      <c r="K123" s="270"/>
-      <c r="L123" s="270"/>
-      <c r="M123" s="270"/>
-      <c r="N123" s="270"/>
-      <c r="O123" s="270"/>
-      <c r="P123" s="270"/>
-      <c r="Q123" s="270"/>
-      <c r="R123" s="270"/>
-      <c r="S123" s="259"/>
-      <c r="T123" s="319" t="s">
+      <c r="G123" s="284"/>
+      <c r="H123" s="284"/>
+      <c r="I123" s="284"/>
+      <c r="J123" s="284"/>
+      <c r="K123" s="284"/>
+      <c r="L123" s="284"/>
+      <c r="M123" s="284"/>
+      <c r="N123" s="284"/>
+      <c r="O123" s="284"/>
+      <c r="P123" s="284"/>
+      <c r="Q123" s="284"/>
+      <c r="R123" s="284"/>
+      <c r="S123" s="283"/>
+      <c r="T123" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="124" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C124" s="260" t="s">
+      <c r="C124" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D124" s="261"/>
+      <c r="D124" s="306"/>
       <c r="E124" s="78"/>
       <c r="F124" s="214">
         <f>S92+1</f>
@@ -24220,13 +24457,13 @@
         <f t="shared" si="63"/>
         <v>44584</v>
       </c>
-      <c r="T124" s="320"/>
+      <c r="T124" s="322"/>
     </row>
     <row r="125" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C125" s="335" t="s">
+      <c r="C125" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="336"/>
+      <c r="D125" s="334"/>
       <c r="E125" s="217"/>
       <c r="F125" s="218">
         <f t="shared" ref="F125" si="64">WEEKDAY(F124)</f>
@@ -24284,13 +24521,13 @@
         <f t="shared" ref="S125" si="77">WEEKDAY(S124)</f>
         <v>1</v>
       </c>
-      <c r="T125" s="320"/>
+      <c r="T125" s="322"/>
     </row>
     <row r="126" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C126" s="258" t="s">
+      <c r="C126" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D126" s="344" t="s">
+      <c r="D126" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E126" s="223" t="s">
@@ -24316,8 +24553,8 @@
       </c>
     </row>
     <row r="127" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C127" s="260"/>
-      <c r="D127" s="345"/>
+      <c r="C127" s="305"/>
+      <c r="D127" s="336"/>
       <c r="E127" s="224" t="s">
         <v>141</v>
       </c>
@@ -24341,8 +24578,8 @@
       </c>
     </row>
     <row r="128" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C128" s="260"/>
-      <c r="D128" s="345"/>
+      <c r="C128" s="305"/>
+      <c r="D128" s="336"/>
       <c r="E128" s="224" t="s">
         <v>134</v>
       </c>
@@ -24366,8 +24603,8 @@
       </c>
     </row>
     <row r="129" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C129" s="260"/>
-      <c r="D129" s="345"/>
+      <c r="C129" s="305"/>
+      <c r="D129" s="336"/>
       <c r="E129" s="224" t="s">
         <v>136</v>
       </c>
@@ -24391,8 +24628,8 @@
       </c>
     </row>
     <row r="130" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C130" s="260"/>
-      <c r="D130" s="345"/>
+      <c r="C130" s="305"/>
+      <c r="D130" s="336"/>
       <c r="E130" s="224" t="s">
         <v>139</v>
       </c>
@@ -24416,8 +24653,8 @@
       </c>
     </row>
     <row r="131" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C131" s="260"/>
-      <c r="D131" s="345"/>
+      <c r="C131" s="305"/>
+      <c r="D131" s="336"/>
       <c r="E131" s="224" t="s">
         <v>137</v>
       </c>
@@ -24441,8 +24678,8 @@
       </c>
     </row>
     <row r="132" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C132" s="260"/>
-      <c r="D132" s="345"/>
+      <c r="C132" s="305"/>
+      <c r="D132" s="336"/>
       <c r="E132" s="224" t="s">
         <v>133</v>
       </c>
@@ -24466,8 +24703,8 @@
       </c>
     </row>
     <row r="133" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C133" s="260"/>
-      <c r="D133" s="345"/>
+      <c r="C133" s="305"/>
+      <c r="D133" s="336"/>
       <c r="E133" s="224" t="s">
         <v>140</v>
       </c>
@@ -24491,8 +24728,8 @@
       </c>
     </row>
     <row r="134" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C134" s="260"/>
-      <c r="D134" s="345"/>
+      <c r="C134" s="305"/>
+      <c r="D134" s="336"/>
       <c r="E134" s="224" t="s">
         <v>138</v>
       </c>
@@ -24516,8 +24753,8 @@
       </c>
     </row>
     <row r="135" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C135" s="260"/>
-      <c r="D135" s="345"/>
+      <c r="C135" s="305"/>
+      <c r="D135" s="336"/>
       <c r="E135" s="224" t="s">
         <v>135</v>
       </c>
@@ -24541,8 +24778,8 @@
       </c>
     </row>
     <row r="136" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C136" s="260"/>
-      <c r="D136" s="345"/>
+      <c r="C136" s="305"/>
+      <c r="D136" s="336"/>
       <c r="E136" s="224" t="s">
         <v>158</v>
       </c>
@@ -24566,8 +24803,8 @@
       </c>
     </row>
     <row r="137" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C137" s="260"/>
-      <c r="D137" s="345"/>
+      <c r="C137" s="305"/>
+      <c r="D137" s="336"/>
       <c r="E137" s="224" t="s">
         <v>174</v>
       </c>
@@ -24591,8 +24828,8 @@
       </c>
     </row>
     <row r="138" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C138" s="260"/>
-      <c r="D138" s="345"/>
+      <c r="C138" s="305"/>
+      <c r="D138" s="336"/>
       <c r="E138" s="224" t="s">
         <v>175</v>
       </c>
@@ -24616,8 +24853,8 @@
       </c>
     </row>
     <row r="139" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C139" s="260"/>
-      <c r="D139" s="346"/>
+      <c r="C139" s="305"/>
+      <c r="D139" s="337"/>
       <c r="E139" s="225"/>
       <c r="F139" s="243"/>
       <c r="G139" s="244"/>
@@ -24639,8 +24876,8 @@
       </c>
     </row>
     <row r="140" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C140" s="260"/>
-      <c r="D140" s="344" t="s">
+      <c r="C140" s="305"/>
+      <c r="D140" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="223" t="s">
@@ -24666,8 +24903,8 @@
       </c>
     </row>
     <row r="141" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C141" s="260"/>
-      <c r="D141" s="345"/>
+      <c r="C141" s="305"/>
+      <c r="D141" s="336"/>
       <c r="E141" s="224" t="s">
         <v>141</v>
       </c>
@@ -24691,8 +24928,8 @@
       </c>
     </row>
     <row r="142" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C142" s="260"/>
-      <c r="D142" s="345"/>
+      <c r="C142" s="305"/>
+      <c r="D142" s="336"/>
       <c r="E142" s="224" t="s">
         <v>134</v>
       </c>
@@ -24716,8 +24953,8 @@
       </c>
     </row>
     <row r="143" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C143" s="260"/>
-      <c r="D143" s="345"/>
+      <c r="C143" s="305"/>
+      <c r="D143" s="336"/>
       <c r="E143" s="224" t="s">
         <v>136</v>
       </c>
@@ -24741,8 +24978,8 @@
       </c>
     </row>
     <row r="144" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C144" s="260"/>
-      <c r="D144" s="345"/>
+      <c r="C144" s="305"/>
+      <c r="D144" s="336"/>
       <c r="E144" s="224" t="s">
         <v>139</v>
       </c>
@@ -24766,8 +25003,8 @@
       </c>
     </row>
     <row r="145" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C145" s="260"/>
-      <c r="D145" s="345"/>
+      <c r="C145" s="305"/>
+      <c r="D145" s="336"/>
       <c r="E145" s="224" t="s">
         <v>137</v>
       </c>
@@ -24793,8 +25030,8 @@
       </c>
     </row>
     <row r="146" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C146" s="260"/>
-      <c r="D146" s="345"/>
+      <c r="C146" s="305"/>
+      <c r="D146" s="336"/>
       <c r="E146" s="224" t="s">
         <v>133</v>
       </c>
@@ -24818,8 +25055,8 @@
       </c>
     </row>
     <row r="147" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C147" s="260"/>
-      <c r="D147" s="345"/>
+      <c r="C147" s="305"/>
+      <c r="D147" s="336"/>
       <c r="E147" s="224" t="s">
         <v>140</v>
       </c>
@@ -24843,8 +25080,8 @@
       </c>
     </row>
     <row r="148" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C148" s="260"/>
-      <c r="D148" s="345"/>
+      <c r="C148" s="305"/>
+      <c r="D148" s="336"/>
       <c r="E148" s="224" t="s">
         <v>138</v>
       </c>
@@ -24868,8 +25105,8 @@
       </c>
     </row>
     <row r="149" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C149" s="260"/>
-      <c r="D149" s="345"/>
+      <c r="C149" s="305"/>
+      <c r="D149" s="336"/>
       <c r="E149" s="224" t="s">
         <v>135</v>
       </c>
@@ -24893,8 +25130,8 @@
       </c>
     </row>
     <row r="150" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C150" s="260"/>
-      <c r="D150" s="345"/>
+      <c r="C150" s="305"/>
+      <c r="D150" s="336"/>
       <c r="E150" s="224" t="s">
         <v>158</v>
       </c>
@@ -24918,8 +25155,8 @@
       </c>
     </row>
     <row r="151" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C151" s="260"/>
-      <c r="D151" s="345"/>
+      <c r="C151" s="305"/>
+      <c r="D151" s="336"/>
       <c r="E151" s="224" t="s">
         <v>174</v>
       </c>
@@ -24943,8 +25180,8 @@
       </c>
     </row>
     <row r="152" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C152" s="260"/>
-      <c r="D152" s="345"/>
+      <c r="C152" s="305"/>
+      <c r="D152" s="336"/>
       <c r="E152" s="224" t="s">
         <v>175</v>
       </c>
@@ -24968,8 +25205,8 @@
       </c>
     </row>
     <row r="153" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C153" s="262"/>
-      <c r="D153" s="346"/>
+      <c r="C153" s="307"/>
+      <c r="D153" s="337"/>
       <c r="E153" s="225"/>
       <c r="F153" s="234"/>
       <c r="G153" s="235"/>
@@ -24992,38 +25229,38 @@
     </row>
     <row r="154" spans="3:20" ht="14.25" collapsed="1" thickBot="1"/>
     <row r="155" spans="3:20">
-      <c r="C155" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="259"/>
+      <c r="C155" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="283"/>
       <c r="E155" s="77"/>
-      <c r="F155" s="258">
+      <c r="F155" s="282">
         <v>1</v>
       </c>
-      <c r="G155" s="270"/>
-      <c r="H155" s="270"/>
-      <c r="I155" s="270"/>
-      <c r="J155" s="270"/>
-      <c r="K155" s="270"/>
-      <c r="L155" s="270"/>
-      <c r="M155" s="270"/>
-      <c r="N155" s="270">
+      <c r="G155" s="284"/>
+      <c r="H155" s="284"/>
+      <c r="I155" s="284"/>
+      <c r="J155" s="284"/>
+      <c r="K155" s="284"/>
+      <c r="L155" s="284"/>
+      <c r="M155" s="284"/>
+      <c r="N155" s="284">
         <v>2</v>
       </c>
-      <c r="O155" s="270"/>
-      <c r="P155" s="270"/>
-      <c r="Q155" s="270"/>
-      <c r="R155" s="270"/>
-      <c r="S155" s="259"/>
-      <c r="T155" s="319" t="s">
+      <c r="O155" s="284"/>
+      <c r="P155" s="284"/>
+      <c r="Q155" s="284"/>
+      <c r="R155" s="284"/>
+      <c r="S155" s="283"/>
+      <c r="T155" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="156" spans="3:20">
-      <c r="C156" s="260" t="s">
+      <c r="C156" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="261"/>
+      <c r="D156" s="306"/>
       <c r="E156" s="78"/>
       <c r="F156" s="214">
         <f>S124+1</f>
@@ -25081,13 +25318,13 @@
         <f t="shared" si="79"/>
         <v>44598</v>
       </c>
-      <c r="T156" s="320"/>
+      <c r="T156" s="322"/>
     </row>
     <row r="157" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C157" s="335" t="s">
+      <c r="C157" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="336"/>
+      <c r="D157" s="334"/>
       <c r="E157" s="217"/>
       <c r="F157" s="218">
         <f t="shared" ref="F157" si="80">WEEKDAY(F156)</f>
@@ -25145,13 +25382,13 @@
         <f t="shared" ref="S157" si="93">WEEKDAY(S156)</f>
         <v>1</v>
       </c>
-      <c r="T157" s="320"/>
+      <c r="T157" s="322"/>
     </row>
     <row r="158" spans="3:20">
-      <c r="C158" s="258" t="s">
+      <c r="C158" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D158" s="344" t="s">
+      <c r="D158" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E158" s="223" t="s">
@@ -25177,8 +25414,8 @@
       </c>
     </row>
     <row r="159" spans="3:20">
-      <c r="C159" s="260"/>
-      <c r="D159" s="345"/>
+      <c r="C159" s="305"/>
+      <c r="D159" s="336"/>
       <c r="E159" s="224" t="s">
         <v>141</v>
       </c>
@@ -25191,19 +25428,25 @@
       <c r="L159" s="242"/>
       <c r="M159" s="241"/>
       <c r="N159" s="241"/>
-      <c r="O159" s="241"/>
-      <c r="P159" s="241"/>
-      <c r="Q159" s="241"/>
+      <c r="O159" s="241">
+        <v>2</v>
+      </c>
+      <c r="P159" s="241">
+        <v>2</v>
+      </c>
+      <c r="Q159" s="241">
+        <v>2</v>
+      </c>
       <c r="R159" s="242"/>
       <c r="S159" s="242"/>
       <c r="T159" s="221">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="3:20">
-      <c r="C160" s="260"/>
-      <c r="D160" s="345"/>
+      <c r="C160" s="305"/>
+      <c r="D160" s="336"/>
       <c r="E160" s="224" t="s">
         <v>134</v>
       </c>
@@ -25227,8 +25470,8 @@
       </c>
     </row>
     <row r="161" spans="3:20">
-      <c r="C161" s="260"/>
-      <c r="D161" s="345"/>
+      <c r="C161" s="305"/>
+      <c r="D161" s="336"/>
       <c r="E161" s="224" t="s">
         <v>136</v>
       </c>
@@ -25261,75 +25504,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="3:20">
-      <c r="C162" s="260"/>
-      <c r="D162" s="345"/>
-      <c r="E162" s="224" t="s">
+    <row r="162" spans="3:20" ht="14.25" thickBot="1">
+      <c r="C162" s="305"/>
+      <c r="D162" s="336"/>
+      <c r="E162" s="378" t="s">
         <v>139</v>
       </c>
-      <c r="F162" s="240"/>
-      <c r="G162" s="241"/>
-      <c r="H162" s="241"/>
-      <c r="I162" s="241"/>
-      <c r="J162" s="241"/>
-      <c r="K162" s="242"/>
-      <c r="L162" s="242"/>
-      <c r="M162" s="241"/>
-      <c r="N162" s="241"/>
-      <c r="O162" s="241">
+      <c r="F162" s="379"/>
+      <c r="G162" s="380"/>
+      <c r="H162" s="380"/>
+      <c r="I162" s="380"/>
+      <c r="J162" s="380"/>
+      <c r="K162" s="381"/>
+      <c r="L162" s="381"/>
+      <c r="M162" s="380"/>
+      <c r="N162" s="380"/>
+      <c r="O162" s="380">
         <v>4</v>
       </c>
-      <c r="P162" s="241"/>
-      <c r="Q162" s="241">
+      <c r="P162" s="380"/>
+      <c r="Q162" s="380">
         <v>2</v>
       </c>
-      <c r="R162" s="242">
+      <c r="R162" s="381">
         <v>2</v>
       </c>
-      <c r="S162" s="242">
+      <c r="S162" s="381">
         <v>2</v>
       </c>
-      <c r="T162" s="221">
+      <c r="T162" s="382">
         <f t="shared" si="94"/>
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="3:20">
-      <c r="C163" s="260"/>
-      <c r="D163" s="345"/>
-      <c r="E163" s="224" t="s">
+    <row r="163" spans="3:20" ht="14.25" thickTop="1">
+      <c r="C163" s="305"/>
+      <c r="D163" s="336"/>
+      <c r="E163" s="373" t="s">
         <v>137</v>
       </c>
-      <c r="F163" s="240"/>
-      <c r="G163" s="241"/>
-      <c r="H163" s="241"/>
-      <c r="I163" s="241"/>
-      <c r="J163" s="241"/>
-      <c r="K163" s="242"/>
-      <c r="L163" s="242"/>
-      <c r="M163" s="241"/>
-      <c r="N163" s="241"/>
-      <c r="O163" s="241"/>
-      <c r="P163" s="241">
+      <c r="F163" s="374"/>
+      <c r="G163" s="375"/>
+      <c r="H163" s="375"/>
+      <c r="I163" s="375"/>
+      <c r="J163" s="375"/>
+      <c r="K163" s="376"/>
+      <c r="L163" s="376"/>
+      <c r="M163" s="375"/>
+      <c r="N163" s="375"/>
+      <c r="O163" s="375"/>
+      <c r="P163" s="375">
         <v>4</v>
       </c>
-      <c r="Q163" s="241">
+      <c r="Q163" s="375">
         <v>2</v>
       </c>
-      <c r="R163" s="242">
+      <c r="R163" s="376">
         <v>2</v>
       </c>
-      <c r="S163" s="242">
+      <c r="S163" s="376">
         <v>2</v>
       </c>
-      <c r="T163" s="221">
+      <c r="T163" s="377">
         <f t="shared" si="94"/>
         <v>10</v>
       </c>
     </row>
     <row r="164" spans="3:20">
-      <c r="C164" s="260"/>
-      <c r="D164" s="345"/>
+      <c r="C164" s="305"/>
+      <c r="D164" s="336"/>
       <c r="E164" s="224" t="s">
         <v>133</v>
       </c>
@@ -25353,8 +25596,8 @@
       </c>
     </row>
     <row r="165" spans="3:20">
-      <c r="C165" s="260"/>
-      <c r="D165" s="345"/>
+      <c r="C165" s="305"/>
+      <c r="D165" s="336"/>
       <c r="E165" s="224" t="s">
         <v>140</v>
       </c>
@@ -25378,8 +25621,8 @@
       </c>
     </row>
     <row r="166" spans="3:20">
-      <c r="C166" s="260"/>
-      <c r="D166" s="345"/>
+      <c r="C166" s="305"/>
+      <c r="D166" s="336"/>
       <c r="E166" s="224" t="s">
         <v>138</v>
       </c>
@@ -25402,61 +25645,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:20">
-      <c r="C167" s="260"/>
-      <c r="D167" s="345"/>
-      <c r="E167" s="224" t="s">
+    <row r="167" spans="3:20" ht="14.25" thickBot="1">
+      <c r="C167" s="305"/>
+      <c r="D167" s="336"/>
+      <c r="E167" s="378" t="s">
         <v>135</v>
       </c>
-      <c r="F167" s="240"/>
-      <c r="G167" s="241"/>
-      <c r="H167" s="241"/>
-      <c r="I167" s="241"/>
-      <c r="J167" s="241"/>
-      <c r="K167" s="242"/>
-      <c r="L167" s="242"/>
-      <c r="M167" s="241"/>
-      <c r="N167" s="241">
+      <c r="F167" s="379"/>
+      <c r="G167" s="380"/>
+      <c r="H167" s="380"/>
+      <c r="I167" s="380"/>
+      <c r="J167" s="380"/>
+      <c r="K167" s="381"/>
+      <c r="L167" s="381"/>
+      <c r="M167" s="380"/>
+      <c r="N167" s="380">
         <v>4</v>
       </c>
-      <c r="O167" s="241"/>
-      <c r="P167" s="241"/>
-      <c r="Q167" s="241"/>
-      <c r="R167" s="242"/>
-      <c r="S167" s="242"/>
-      <c r="T167" s="221">
+      <c r="O167" s="380"/>
+      <c r="P167" s="380"/>
+      <c r="Q167" s="380"/>
+      <c r="R167" s="381"/>
+      <c r="S167" s="381"/>
+      <c r="T167" s="382">
         <f t="shared" si="94"/>
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="3:20">
-      <c r="C168" s="260"/>
-      <c r="D168" s="345"/>
-      <c r="E168" s="224" t="s">
+    <row r="168" spans="3:20" ht="14.25" thickTop="1">
+      <c r="C168" s="305"/>
+      <c r="D168" s="336"/>
+      <c r="E168" s="373" t="s">
         <v>158</v>
       </c>
-      <c r="F168" s="240"/>
-      <c r="G168" s="241"/>
-      <c r="H168" s="241"/>
-      <c r="I168" s="241"/>
-      <c r="J168" s="241"/>
-      <c r="K168" s="242"/>
-      <c r="L168" s="242"/>
-      <c r="M168" s="241"/>
-      <c r="N168" s="241"/>
-      <c r="O168" s="241"/>
-      <c r="P168" s="241"/>
-      <c r="Q168" s="241"/>
-      <c r="R168" s="242"/>
-      <c r="S168" s="242"/>
-      <c r="T168" s="221">
+      <c r="F168" s="374"/>
+      <c r="G168" s="375"/>
+      <c r="H168" s="375"/>
+      <c r="I168" s="375"/>
+      <c r="J168" s="375"/>
+      <c r="K168" s="376"/>
+      <c r="L168" s="376"/>
+      <c r="M168" s="375"/>
+      <c r="N168" s="375"/>
+      <c r="O168" s="375"/>
+      <c r="P168" s="375"/>
+      <c r="Q168" s="375"/>
+      <c r="R168" s="376"/>
+      <c r="S168" s="376"/>
+      <c r="T168" s="377">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="3:20">
-      <c r="C169" s="260"/>
-      <c r="D169" s="345"/>
+      <c r="C169" s="305"/>
+      <c r="D169" s="336"/>
       <c r="E169" s="224" t="s">
         <v>174</v>
       </c>
@@ -25480,8 +25723,8 @@
       </c>
     </row>
     <row r="170" spans="3:20">
-      <c r="C170" s="260"/>
-      <c r="D170" s="345"/>
+      <c r="C170" s="305"/>
+      <c r="D170" s="336"/>
       <c r="E170" s="224" t="s">
         <v>175</v>
       </c>
@@ -25511,8 +25754,8 @@
       </c>
     </row>
     <row r="171" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C171" s="260"/>
-      <c r="D171" s="346"/>
+      <c r="C171" s="305"/>
+      <c r="D171" s="337"/>
       <c r="E171" s="225"/>
       <c r="F171" s="243"/>
       <c r="G171" s="244"/>
@@ -25534,8 +25777,8 @@
       </c>
     </row>
     <row r="172" spans="3:20">
-      <c r="C172" s="260"/>
-      <c r="D172" s="344" t="s">
+      <c r="C172" s="305"/>
+      <c r="D172" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E172" s="223" t="s">
@@ -25561,8 +25804,8 @@
       </c>
     </row>
     <row r="173" spans="3:20">
-      <c r="C173" s="260"/>
-      <c r="D173" s="345"/>
+      <c r="C173" s="305"/>
+      <c r="D173" s="336"/>
       <c r="E173" s="224" t="s">
         <v>141</v>
       </c>
@@ -25575,25 +25818,19 @@
       <c r="L173" s="233"/>
       <c r="M173" s="232"/>
       <c r="N173" s="232"/>
-      <c r="O173" s="232">
-        <v>2</v>
-      </c>
-      <c r="P173" s="232">
-        <v>2</v>
-      </c>
-      <c r="Q173" s="232">
-        <v>2</v>
-      </c>
+      <c r="O173" s="232"/>
+      <c r="P173" s="232"/>
+      <c r="Q173" s="232"/>
       <c r="R173" s="233"/>
       <c r="S173" s="233"/>
       <c r="T173" s="221">
         <f t="shared" si="94"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="3:20">
-      <c r="C174" s="260"/>
-      <c r="D174" s="345"/>
+      <c r="C174" s="305"/>
+      <c r="D174" s="336"/>
       <c r="E174" s="224" t="s">
         <v>134</v>
       </c>
@@ -25617,8 +25854,8 @@
       </c>
     </row>
     <row r="175" spans="3:20">
-      <c r="C175" s="260"/>
-      <c r="D175" s="345"/>
+      <c r="C175" s="305"/>
+      <c r="D175" s="336"/>
       <c r="E175" s="224" t="s">
         <v>136</v>
       </c>
@@ -25638,72 +25875,74 @@
       <c r="O175" s="232">
         <v>1</v>
       </c>
-      <c r="P175" s="232"/>
+      <c r="P175" s="232">
+        <v>1</v>
+      </c>
       <c r="Q175" s="232"/>
       <c r="R175" s="233"/>
       <c r="S175" s="233"/>
       <c r="T175" s="221">
         <f t="shared" si="94"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="3:20">
-      <c r="C176" s="260"/>
-      <c r="D176" s="345"/>
-      <c r="E176" s="224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="3:20" ht="14.25" thickBot="1">
+      <c r="C176" s="305"/>
+      <c r="D176" s="336"/>
+      <c r="E176" s="378" t="s">
         <v>139</v>
       </c>
-      <c r="F176" s="231"/>
-      <c r="G176" s="232"/>
-      <c r="H176" s="232"/>
-      <c r="I176" s="232"/>
-      <c r="J176" s="232"/>
-      <c r="K176" s="233"/>
-      <c r="L176" s="233"/>
-      <c r="M176" s="232"/>
-      <c r="N176" s="232" t="s">
+      <c r="F176" s="386"/>
+      <c r="G176" s="387"/>
+      <c r="H176" s="387"/>
+      <c r="I176" s="387"/>
+      <c r="J176" s="387"/>
+      <c r="K176" s="388"/>
+      <c r="L176" s="388"/>
+      <c r="M176" s="387"/>
+      <c r="N176" s="387" t="s">
         <v>185</v>
       </c>
-      <c r="O176" s="232"/>
-      <c r="P176" s="232"/>
-      <c r="Q176" s="232"/>
-      <c r="R176" s="233"/>
-      <c r="S176" s="233"/>
-      <c r="T176" s="221">
+      <c r="O176" s="387"/>
+      <c r="P176" s="387"/>
+      <c r="Q176" s="387"/>
+      <c r="R176" s="388"/>
+      <c r="S176" s="388"/>
+      <c r="T176" s="382">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:20">
-      <c r="C177" s="260"/>
-      <c r="D177" s="345"/>
-      <c r="E177" s="224" t="s">
+    <row r="177" spans="3:20" ht="14.25" thickTop="1">
+      <c r="C177" s="305"/>
+      <c r="D177" s="336"/>
+      <c r="E177" s="373" t="s">
         <v>137</v>
       </c>
-      <c r="F177" s="231"/>
-      <c r="G177" s="232"/>
-      <c r="H177" s="232"/>
-      <c r="I177" s="232"/>
-      <c r="J177" s="232"/>
-      <c r="K177" s="233"/>
-      <c r="L177" s="233"/>
-      <c r="M177" s="232"/>
-      <c r="N177" s="232">
+      <c r="F177" s="383"/>
+      <c r="G177" s="384"/>
+      <c r="H177" s="384"/>
+      <c r="I177" s="384"/>
+      <c r="J177" s="384"/>
+      <c r="K177" s="385"/>
+      <c r="L177" s="385"/>
+      <c r="M177" s="384"/>
+      <c r="N177" s="384">
         <v>2</v>
       </c>
-      <c r="O177" s="232"/>
-      <c r="P177" s="232"/>
-      <c r="Q177" s="232"/>
-      <c r="R177" s="233"/>
-      <c r="S177" s="233"/>
-      <c r="T177" s="221">
+      <c r="O177" s="384"/>
+      <c r="P177" s="384"/>
+      <c r="Q177" s="384"/>
+      <c r="R177" s="385"/>
+      <c r="S177" s="385"/>
+      <c r="T177" s="377">
         <f t="shared" si="94"/>
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="3:20">
-      <c r="C178" s="260"/>
-      <c r="D178" s="345"/>
+    <row r="178" spans="3:20" ht="12.75" customHeight="1">
+      <c r="C178" s="305"/>
+      <c r="D178" s="336"/>
       <c r="E178" s="224" t="s">
         <v>133</v>
       </c>
@@ -25727,8 +25966,8 @@
       </c>
     </row>
     <row r="179" spans="3:20">
-      <c r="C179" s="260"/>
-      <c r="D179" s="345"/>
+      <c r="C179" s="305"/>
+      <c r="D179" s="336"/>
       <c r="E179" s="224" t="s">
         <v>140</v>
       </c>
@@ -25752,8 +25991,8 @@
       </c>
     </row>
     <row r="180" spans="3:20">
-      <c r="C180" s="260"/>
-      <c r="D180" s="345"/>
+      <c r="C180" s="305"/>
+      <c r="D180" s="336"/>
       <c r="E180" s="224" t="s">
         <v>138</v>
       </c>
@@ -25767,70 +26006,74 @@
       <c r="M180" s="232"/>
       <c r="N180" s="232"/>
       <c r="O180" s="232"/>
-      <c r="P180" s="232"/>
+      <c r="P180" s="232">
+        <v>2</v>
+      </c>
       <c r="Q180" s="232"/>
       <c r="R180" s="233"/>
       <c r="S180" s="233"/>
       <c r="T180" s="221">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="3:20">
-      <c r="C181" s="260"/>
-      <c r="D181" s="345"/>
-      <c r="E181" s="224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="3:20" ht="14.25" thickBot="1">
+      <c r="C181" s="305"/>
+      <c r="D181" s="336"/>
+      <c r="E181" s="378" t="s">
         <v>135</v>
       </c>
-      <c r="F181" s="231"/>
-      <c r="G181" s="232"/>
-      <c r="H181" s="232"/>
-      <c r="I181" s="232"/>
-      <c r="J181" s="232"/>
-      <c r="K181" s="233">
+      <c r="F181" s="386"/>
+      <c r="G181" s="387"/>
+      <c r="H181" s="387"/>
+      <c r="I181" s="387"/>
+      <c r="J181" s="387"/>
+      <c r="K181" s="388">
         <v>2</v>
       </c>
-      <c r="L181" s="233"/>
-      <c r="M181" s="232"/>
-      <c r="N181" s="232"/>
-      <c r="O181" s="232"/>
-      <c r="P181" s="232"/>
-      <c r="Q181" s="232"/>
-      <c r="R181" s="233"/>
-      <c r="S181" s="233"/>
-      <c r="T181" s="221">
+      <c r="L181" s="388"/>
+      <c r="M181" s="387"/>
+      <c r="N181" s="387"/>
+      <c r="O181" s="387"/>
+      <c r="P181" s="387">
+        <v>4</v>
+      </c>
+      <c r="Q181" s="387"/>
+      <c r="R181" s="388"/>
+      <c r="S181" s="388"/>
+      <c r="T181" s="382">
         <f t="shared" si="94"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="3:20">
-      <c r="C182" s="260"/>
-      <c r="D182" s="345"/>
-      <c r="E182" s="224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="3:20" ht="14.25" thickTop="1">
+      <c r="C182" s="305"/>
+      <c r="D182" s="336"/>
+      <c r="E182" s="373" t="s">
         <v>158</v>
       </c>
-      <c r="F182" s="231"/>
-      <c r="G182" s="232"/>
-      <c r="H182" s="232"/>
-      <c r="I182" s="232"/>
-      <c r="J182" s="232"/>
-      <c r="K182" s="233"/>
-      <c r="L182" s="233"/>
-      <c r="M182" s="232"/>
-      <c r="N182" s="232"/>
-      <c r="O182" s="232"/>
-      <c r="P182" s="232"/>
-      <c r="Q182" s="232"/>
-      <c r="R182" s="233"/>
-      <c r="S182" s="233"/>
-      <c r="T182" s="221">
+      <c r="F182" s="383"/>
+      <c r="G182" s="384"/>
+      <c r="H182" s="384"/>
+      <c r="I182" s="384"/>
+      <c r="J182" s="384"/>
+      <c r="K182" s="385"/>
+      <c r="L182" s="385"/>
+      <c r="M182" s="384"/>
+      <c r="N182" s="384"/>
+      <c r="O182" s="384"/>
+      <c r="P182" s="384"/>
+      <c r="Q182" s="384"/>
+      <c r="R182" s="385"/>
+      <c r="S182" s="385"/>
+      <c r="T182" s="377">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="3:20">
-      <c r="C183" s="260"/>
-      <c r="D183" s="345"/>
+      <c r="C183" s="305"/>
+      <c r="D183" s="336"/>
       <c r="E183" s="224" t="s">
         <v>174</v>
       </c>
@@ -25854,8 +26097,8 @@
       </c>
     </row>
     <row r="184" spans="3:20">
-      <c r="C184" s="260"/>
-      <c r="D184" s="345"/>
+      <c r="C184" s="305"/>
+      <c r="D184" s="336"/>
       <c r="E184" s="224" t="s">
         <v>175</v>
       </c>
@@ -25879,8 +26122,8 @@
       </c>
     </row>
     <row r="185" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C185" s="262"/>
-      <c r="D185" s="346"/>
+      <c r="C185" s="307"/>
+      <c r="D185" s="337"/>
       <c r="E185" s="225"/>
       <c r="F185" s="234"/>
       <c r="G185" s="235"/>
@@ -25903,36 +26146,36 @@
     </row>
     <row r="186" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="187" spans="3:20">
-      <c r="C187" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="259"/>
+      <c r="C187" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="283"/>
       <c r="E187" s="77"/>
-      <c r="F187" s="258">
+      <c r="F187" s="282">
         <v>2</v>
       </c>
-      <c r="G187" s="270"/>
-      <c r="H187" s="270"/>
-      <c r="I187" s="270"/>
-      <c r="J187" s="270"/>
-      <c r="K187" s="270"/>
-      <c r="L187" s="270"/>
-      <c r="M187" s="270"/>
-      <c r="N187" s="270"/>
-      <c r="O187" s="270"/>
-      <c r="P187" s="270"/>
-      <c r="Q187" s="270"/>
-      <c r="R187" s="270"/>
-      <c r="S187" s="259"/>
-      <c r="T187" s="319" t="s">
+      <c r="G187" s="284"/>
+      <c r="H187" s="284"/>
+      <c r="I187" s="284"/>
+      <c r="J187" s="284"/>
+      <c r="K187" s="284"/>
+      <c r="L187" s="284"/>
+      <c r="M187" s="284"/>
+      <c r="N187" s="284"/>
+      <c r="O187" s="284"/>
+      <c r="P187" s="284"/>
+      <c r="Q187" s="284"/>
+      <c r="R187" s="284"/>
+      <c r="S187" s="283"/>
+      <c r="T187" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="188" spans="3:20">
-      <c r="C188" s="260" t="s">
+      <c r="C188" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="261"/>
+      <c r="D188" s="306"/>
       <c r="E188" s="78"/>
       <c r="F188" s="214">
         <f>S156+1</f>
@@ -25990,13 +26233,13 @@
         <f t="shared" si="95"/>
         <v>44612</v>
       </c>
-      <c r="T188" s="320"/>
+      <c r="T188" s="322"/>
     </row>
     <row r="189" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C189" s="335" t="s">
+      <c r="C189" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="336"/>
+      <c r="D189" s="334"/>
       <c r="E189" s="217"/>
       <c r="F189" s="218">
         <f t="shared" ref="F189" si="96">WEEKDAY(F188)</f>
@@ -26054,13 +26297,13 @@
         <f t="shared" ref="S189" si="109">WEEKDAY(S188)</f>
         <v>1</v>
       </c>
-      <c r="T189" s="320"/>
+      <c r="T189" s="322"/>
     </row>
     <row r="190" spans="3:20">
-      <c r="C190" s="258" t="s">
+      <c r="C190" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="344" t="s">
+      <c r="D190" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E190" s="223" t="s">
@@ -26086,14 +26329,20 @@
       </c>
     </row>
     <row r="191" spans="3:20">
-      <c r="C191" s="260"/>
-      <c r="D191" s="345"/>
+      <c r="C191" s="305"/>
+      <c r="D191" s="336"/>
       <c r="E191" s="224" t="s">
         <v>141</v>
       </c>
-      <c r="F191" s="240"/>
-      <c r="G191" s="241"/>
-      <c r="H191" s="241"/>
+      <c r="F191" s="240">
+        <v>2</v>
+      </c>
+      <c r="G191" s="241">
+        <v>2</v>
+      </c>
+      <c r="H191" s="241">
+        <v>1</v>
+      </c>
       <c r="I191" s="241"/>
       <c r="J191" s="241"/>
       <c r="K191" s="242"/>
@@ -26107,12 +26356,12 @@
       <c r="S191" s="242"/>
       <c r="T191" s="221">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="3:20">
-      <c r="C192" s="260"/>
-      <c r="D192" s="345"/>
+      <c r="C192" s="305"/>
+      <c r="D192" s="336"/>
       <c r="E192" s="224" t="s">
         <v>134</v>
       </c>
@@ -26136,8 +26385,8 @@
       </c>
     </row>
     <row r="193" spans="3:20">
-      <c r="C193" s="260"/>
-      <c r="D193" s="345"/>
+      <c r="C193" s="305"/>
+      <c r="D193" s="336"/>
       <c r="E193" s="224" t="s">
         <v>136</v>
       </c>
@@ -26173,8 +26422,8 @@
       </c>
     </row>
     <row r="194" spans="3:20">
-      <c r="C194" s="260"/>
-      <c r="D194" s="345"/>
+      <c r="C194" s="305"/>
+      <c r="D194" s="336"/>
       <c r="E194" s="224" t="s">
         <v>139</v>
       </c>
@@ -26202,8 +26451,8 @@
       </c>
     </row>
     <row r="195" spans="3:20">
-      <c r="C195" s="260"/>
-      <c r="D195" s="345"/>
+      <c r="C195" s="305"/>
+      <c r="D195" s="336"/>
       <c r="E195" s="224" t="s">
         <v>137</v>
       </c>
@@ -26241,8 +26490,8 @@
       </c>
     </row>
     <row r="196" spans="3:20">
-      <c r="C196" s="260"/>
-      <c r="D196" s="345"/>
+      <c r="C196" s="305"/>
+      <c r="D196" s="336"/>
       <c r="E196" s="224" t="s">
         <v>133</v>
       </c>
@@ -26266,8 +26515,8 @@
       </c>
     </row>
     <row r="197" spans="3:20">
-      <c r="C197" s="260"/>
-      <c r="D197" s="345"/>
+      <c r="C197" s="305"/>
+      <c r="D197" s="336"/>
       <c r="E197" s="224" t="s">
         <v>140</v>
       </c>
@@ -26291,8 +26540,8 @@
       </c>
     </row>
     <row r="198" spans="3:20">
-      <c r="C198" s="260"/>
-      <c r="D198" s="345"/>
+      <c r="C198" s="305"/>
+      <c r="D198" s="336"/>
       <c r="E198" s="224" t="s">
         <v>138</v>
       </c>
@@ -26326,8 +26575,8 @@
       </c>
     </row>
     <row r="199" spans="3:20">
-      <c r="C199" s="260"/>
-      <c r="D199" s="345"/>
+      <c r="C199" s="305"/>
+      <c r="D199" s="336"/>
       <c r="E199" s="224" t="s">
         <v>135</v>
       </c>
@@ -26359,8 +26608,8 @@
       </c>
     </row>
     <row r="200" spans="3:20">
-      <c r="C200" s="260"/>
-      <c r="D200" s="345"/>
+      <c r="C200" s="305"/>
+      <c r="D200" s="336"/>
       <c r="E200" s="224" t="s">
         <v>158</v>
       </c>
@@ -26384,8 +26633,8 @@
       </c>
     </row>
     <row r="201" spans="3:20">
-      <c r="C201" s="260"/>
-      <c r="D201" s="345"/>
+      <c r="C201" s="305"/>
+      <c r="D201" s="336"/>
       <c r="E201" s="224" t="s">
         <v>174</v>
       </c>
@@ -26409,8 +26658,8 @@
       </c>
     </row>
     <row r="202" spans="3:20">
-      <c r="C202" s="260"/>
-      <c r="D202" s="345"/>
+      <c r="C202" s="305"/>
+      <c r="D202" s="336"/>
       <c r="E202" s="224" t="s">
         <v>175</v>
       </c>
@@ -26438,8 +26687,8 @@
       </c>
     </row>
     <row r="203" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C203" s="260"/>
-      <c r="D203" s="346"/>
+      <c r="C203" s="305"/>
+      <c r="D203" s="337"/>
       <c r="E203" s="225"/>
       <c r="F203" s="243"/>
       <c r="G203" s="244"/>
@@ -26461,8 +26710,8 @@
       </c>
     </row>
     <row r="204" spans="3:20">
-      <c r="C204" s="260"/>
-      <c r="D204" s="344" t="s">
+      <c r="C204" s="305"/>
+      <c r="D204" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E204" s="223" t="s">
@@ -26488,8 +26737,8 @@
       </c>
     </row>
     <row r="205" spans="3:20">
-      <c r="C205" s="260"/>
-      <c r="D205" s="345"/>
+      <c r="C205" s="305"/>
+      <c r="D205" s="336"/>
       <c r="E205" s="224" t="s">
         <v>141</v>
       </c>
@@ -26513,8 +26762,8 @@
       </c>
     </row>
     <row r="206" spans="3:20">
-      <c r="C206" s="260"/>
-      <c r="D206" s="345"/>
+      <c r="C206" s="305"/>
+      <c r="D206" s="336"/>
       <c r="E206" s="224" t="s">
         <v>134</v>
       </c>
@@ -26538,8 +26787,8 @@
       </c>
     </row>
     <row r="207" spans="3:20">
-      <c r="C207" s="260"/>
-      <c r="D207" s="345"/>
+      <c r="C207" s="305"/>
+      <c r="D207" s="336"/>
       <c r="E207" s="224" t="s">
         <v>136</v>
       </c>
@@ -26563,8 +26812,8 @@
       </c>
     </row>
     <row r="208" spans="3:20">
-      <c r="C208" s="260"/>
-      <c r="D208" s="345"/>
+      <c r="C208" s="305"/>
+      <c r="D208" s="336"/>
       <c r="E208" s="224" t="s">
         <v>139</v>
       </c>
@@ -26588,8 +26837,8 @@
       </c>
     </row>
     <row r="209" spans="3:20">
-      <c r="C209" s="260"/>
-      <c r="D209" s="345"/>
+      <c r="C209" s="305"/>
+      <c r="D209" s="336"/>
       <c r="E209" s="224" t="s">
         <v>137</v>
       </c>
@@ -26613,8 +26862,8 @@
       </c>
     </row>
     <row r="210" spans="3:20">
-      <c r="C210" s="260"/>
-      <c r="D210" s="345"/>
+      <c r="C210" s="305"/>
+      <c r="D210" s="336"/>
       <c r="E210" s="224" t="s">
         <v>133</v>
       </c>
@@ -26638,8 +26887,8 @@
       </c>
     </row>
     <row r="211" spans="3:20">
-      <c r="C211" s="260"/>
-      <c r="D211" s="345"/>
+      <c r="C211" s="305"/>
+      <c r="D211" s="336"/>
       <c r="E211" s="224" t="s">
         <v>140</v>
       </c>
@@ -26663,8 +26912,8 @@
       </c>
     </row>
     <row r="212" spans="3:20">
-      <c r="C212" s="260"/>
-      <c r="D212" s="345"/>
+      <c r="C212" s="305"/>
+      <c r="D212" s="336"/>
       <c r="E212" s="224" t="s">
         <v>138</v>
       </c>
@@ -26688,8 +26937,8 @@
       </c>
     </row>
     <row r="213" spans="3:20">
-      <c r="C213" s="260"/>
-      <c r="D213" s="345"/>
+      <c r="C213" s="305"/>
+      <c r="D213" s="336"/>
       <c r="E213" s="224" t="s">
         <v>135</v>
       </c>
@@ -26713,8 +26962,8 @@
       </c>
     </row>
     <row r="214" spans="3:20">
-      <c r="C214" s="260"/>
-      <c r="D214" s="345"/>
+      <c r="C214" s="305"/>
+      <c r="D214" s="336"/>
       <c r="E214" s="224" t="s">
         <v>158</v>
       </c>
@@ -26738,8 +26987,8 @@
       </c>
     </row>
     <row r="215" spans="3:20">
-      <c r="C215" s="260"/>
-      <c r="D215" s="345"/>
+      <c r="C215" s="305"/>
+      <c r="D215" s="336"/>
       <c r="E215" s="224" t="s">
         <v>174</v>
       </c>
@@ -26763,8 +27012,8 @@
       </c>
     </row>
     <row r="216" spans="3:20">
-      <c r="C216" s="260"/>
-      <c r="D216" s="345"/>
+      <c r="C216" s="305"/>
+      <c r="D216" s="336"/>
       <c r="E216" s="224" t="s">
         <v>175</v>
       </c>
@@ -26788,8 +27037,8 @@
       </c>
     </row>
     <row r="217" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C217" s="262"/>
-      <c r="D217" s="346"/>
+      <c r="C217" s="307"/>
+      <c r="D217" s="337"/>
       <c r="E217" s="225"/>
       <c r="F217" s="234"/>
       <c r="G217" s="235"/>
@@ -26812,38 +27061,38 @@
     </row>
     <row r="218" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="219" spans="3:20">
-      <c r="C219" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="259"/>
+      <c r="C219" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="283"/>
       <c r="E219" s="77"/>
-      <c r="F219" s="258">
+      <c r="F219" s="282">
         <v>2</v>
       </c>
-      <c r="G219" s="270"/>
-      <c r="H219" s="270"/>
-      <c r="I219" s="270"/>
-      <c r="J219" s="270"/>
-      <c r="K219" s="270"/>
-      <c r="L219" s="270"/>
-      <c r="M219" s="270"/>
-      <c r="N219" s="270">
+      <c r="G219" s="284"/>
+      <c r="H219" s="284"/>
+      <c r="I219" s="284"/>
+      <c r="J219" s="284"/>
+      <c r="K219" s="284"/>
+      <c r="L219" s="284"/>
+      <c r="M219" s="284"/>
+      <c r="N219" s="284">
         <v>3</v>
       </c>
-      <c r="O219" s="270"/>
-      <c r="P219" s="270"/>
-      <c r="Q219" s="270"/>
-      <c r="R219" s="270"/>
-      <c r="S219" s="259"/>
-      <c r="T219" s="319" t="s">
+      <c r="O219" s="284"/>
+      <c r="P219" s="284"/>
+      <c r="Q219" s="284"/>
+      <c r="R219" s="284"/>
+      <c r="S219" s="283"/>
+      <c r="T219" s="321" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="220" spans="3:20">
-      <c r="C220" s="260" t="s">
+      <c r="C220" s="305" t="s">
         <v>1</v>
       </c>
-      <c r="D220" s="261"/>
+      <c r="D220" s="306"/>
       <c r="E220" s="78"/>
       <c r="F220" s="214">
         <f>S188+1</f>
@@ -26901,13 +27150,13 @@
         <f t="shared" si="111"/>
         <v>44626</v>
       </c>
-      <c r="T220" s="320"/>
+      <c r="T220" s="322"/>
     </row>
     <row r="221" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C221" s="335" t="s">
+      <c r="C221" s="333" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="336"/>
+      <c r="D221" s="334"/>
       <c r="E221" s="217"/>
       <c r="F221" s="218">
         <f t="shared" ref="F221" si="112">WEEKDAY(F220)</f>
@@ -26965,13 +27214,13 @@
         <f t="shared" ref="S221" si="125">WEEKDAY(S220)</f>
         <v>1</v>
       </c>
-      <c r="T221" s="320"/>
+      <c r="T221" s="322"/>
     </row>
     <row r="222" spans="3:20">
-      <c r="C222" s="258" t="s">
+      <c r="C222" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="D222" s="344" t="s">
+      <c r="D222" s="335" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="223" t="s">
@@ -26997,8 +27246,8 @@
       </c>
     </row>
     <row r="223" spans="3:20">
-      <c r="C223" s="260"/>
-      <c r="D223" s="345"/>
+      <c r="C223" s="305"/>
+      <c r="D223" s="336"/>
       <c r="E223" s="224" t="s">
         <v>141</v>
       </c>
@@ -27022,8 +27271,8 @@
       </c>
     </row>
     <row r="224" spans="3:20">
-      <c r="C224" s="260"/>
-      <c r="D224" s="345"/>
+      <c r="C224" s="305"/>
+      <c r="D224" s="336"/>
       <c r="E224" s="224" t="s">
         <v>134</v>
       </c>
@@ -27047,8 +27296,8 @@
       </c>
     </row>
     <row r="225" spans="3:20">
-      <c r="C225" s="260"/>
-      <c r="D225" s="345"/>
+      <c r="C225" s="305"/>
+      <c r="D225" s="336"/>
       <c r="E225" s="224" t="s">
         <v>136</v>
       </c>
@@ -27076,8 +27325,8 @@
       </c>
     </row>
     <row r="226" spans="3:20">
-      <c r="C226" s="260"/>
-      <c r="D226" s="345"/>
+      <c r="C226" s="305"/>
+      <c r="D226" s="336"/>
       <c r="E226" s="224" t="s">
         <v>139</v>
       </c>
@@ -27101,8 +27350,8 @@
       </c>
     </row>
     <row r="227" spans="3:20">
-      <c r="C227" s="260"/>
-      <c r="D227" s="345"/>
+      <c r="C227" s="305"/>
+      <c r="D227" s="336"/>
       <c r="E227" s="224" t="s">
         <v>137</v>
       </c>
@@ -27126,8 +27375,8 @@
       </c>
     </row>
     <row r="228" spans="3:20">
-      <c r="C228" s="260"/>
-      <c r="D228" s="345"/>
+      <c r="C228" s="305"/>
+      <c r="D228" s="336"/>
       <c r="E228" s="224" t="s">
         <v>133</v>
       </c>
@@ -27151,8 +27400,8 @@
       </c>
     </row>
     <row r="229" spans="3:20">
-      <c r="C229" s="260"/>
-      <c r="D229" s="345"/>
+      <c r="C229" s="305"/>
+      <c r="D229" s="336"/>
       <c r="E229" s="224" t="s">
         <v>140</v>
       </c>
@@ -27176,8 +27425,8 @@
       </c>
     </row>
     <row r="230" spans="3:20">
-      <c r="C230" s="260"/>
-      <c r="D230" s="345"/>
+      <c r="C230" s="305"/>
+      <c r="D230" s="336"/>
       <c r="E230" s="224" t="s">
         <v>138</v>
       </c>
@@ -27211,8 +27460,8 @@
       </c>
     </row>
     <row r="231" spans="3:20">
-      <c r="C231" s="260"/>
-      <c r="D231" s="345"/>
+      <c r="C231" s="305"/>
+      <c r="D231" s="336"/>
       <c r="E231" s="224" t="s">
         <v>135</v>
       </c>
@@ -27236,8 +27485,8 @@
       </c>
     </row>
     <row r="232" spans="3:20">
-      <c r="C232" s="260"/>
-      <c r="D232" s="345"/>
+      <c r="C232" s="305"/>
+      <c r="D232" s="336"/>
       <c r="E232" s="224" t="s">
         <v>158</v>
       </c>
@@ -27261,8 +27510,8 @@
       </c>
     </row>
     <row r="233" spans="3:20">
-      <c r="C233" s="260"/>
-      <c r="D233" s="345"/>
+      <c r="C233" s="305"/>
+      <c r="D233" s="336"/>
       <c r="E233" s="224" t="s">
         <v>174</v>
       </c>
@@ -27286,8 +27535,8 @@
       </c>
     </row>
     <row r="234" spans="3:20">
-      <c r="C234" s="260"/>
-      <c r="D234" s="345"/>
+      <c r="C234" s="305"/>
+      <c r="D234" s="336"/>
       <c r="E234" s="224" t="s">
         <v>175</v>
       </c>
@@ -27311,8 +27560,8 @@
       </c>
     </row>
     <row r="235" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C235" s="260"/>
-      <c r="D235" s="346"/>
+      <c r="C235" s="305"/>
+      <c r="D235" s="337"/>
       <c r="E235" s="225"/>
       <c r="F235" s="243"/>
       <c r="G235" s="244"/>
@@ -27334,8 +27583,8 @@
       </c>
     </row>
     <row r="236" spans="3:20">
-      <c r="C236" s="260"/>
-      <c r="D236" s="344" t="s">
+      <c r="C236" s="305"/>
+      <c r="D236" s="335" t="s">
         <v>57</v>
       </c>
       <c r="E236" s="223" t="s">
@@ -27361,8 +27610,8 @@
       </c>
     </row>
     <row r="237" spans="3:20">
-      <c r="C237" s="260"/>
-      <c r="D237" s="345"/>
+      <c r="C237" s="305"/>
+      <c r="D237" s="336"/>
       <c r="E237" s="224" t="s">
         <v>141</v>
       </c>
@@ -27386,8 +27635,8 @@
       </c>
     </row>
     <row r="238" spans="3:20">
-      <c r="C238" s="260"/>
-      <c r="D238" s="345"/>
+      <c r="C238" s="305"/>
+      <c r="D238" s="336"/>
       <c r="E238" s="224" t="s">
         <v>134</v>
       </c>
@@ -27411,8 +27660,8 @@
       </c>
     </row>
     <row r="239" spans="3:20">
-      <c r="C239" s="260"/>
-      <c r="D239" s="345"/>
+      <c r="C239" s="305"/>
+      <c r="D239" s="336"/>
       <c r="E239" s="224" t="s">
         <v>136</v>
       </c>
@@ -27436,8 +27685,8 @@
       </c>
     </row>
     <row r="240" spans="3:20">
-      <c r="C240" s="260"/>
-      <c r="D240" s="345"/>
+      <c r="C240" s="305"/>
+      <c r="D240" s="336"/>
       <c r="E240" s="224" t="s">
         <v>139</v>
       </c>
@@ -27461,8 +27710,8 @@
       </c>
     </row>
     <row r="241" spans="3:20">
-      <c r="C241" s="260"/>
-      <c r="D241" s="345"/>
+      <c r="C241" s="305"/>
+      <c r="D241" s="336"/>
       <c r="E241" s="224" t="s">
         <v>137</v>
       </c>
@@ -27486,8 +27735,8 @@
       </c>
     </row>
     <row r="242" spans="3:20">
-      <c r="C242" s="260"/>
-      <c r="D242" s="345"/>
+      <c r="C242" s="305"/>
+      <c r="D242" s="336"/>
       <c r="E242" s="224" t="s">
         <v>133</v>
       </c>
@@ -27511,8 +27760,8 @@
       </c>
     </row>
     <row r="243" spans="3:20">
-      <c r="C243" s="260"/>
-      <c r="D243" s="345"/>
+      <c r="C243" s="305"/>
+      <c r="D243" s="336"/>
       <c r="E243" s="224" t="s">
         <v>140</v>
       </c>
@@ -27536,8 +27785,8 @@
       </c>
     </row>
     <row r="244" spans="3:20">
-      <c r="C244" s="260"/>
-      <c r="D244" s="345"/>
+      <c r="C244" s="305"/>
+      <c r="D244" s="336"/>
       <c r="E244" s="224" t="s">
         <v>138</v>
       </c>
@@ -27561,8 +27810,8 @@
       </c>
     </row>
     <row r="245" spans="3:20">
-      <c r="C245" s="260"/>
-      <c r="D245" s="345"/>
+      <c r="C245" s="305"/>
+      <c r="D245" s="336"/>
       <c r="E245" s="224" t="s">
         <v>135</v>
       </c>
@@ -27586,8 +27835,8 @@
       </c>
     </row>
     <row r="246" spans="3:20">
-      <c r="C246" s="260"/>
-      <c r="D246" s="345"/>
+      <c r="C246" s="305"/>
+      <c r="D246" s="336"/>
       <c r="E246" s="224" t="s">
         <v>158</v>
       </c>
@@ -27611,8 +27860,8 @@
       </c>
     </row>
     <row r="247" spans="3:20">
-      <c r="C247" s="260"/>
-      <c r="D247" s="345"/>
+      <c r="C247" s="305"/>
+      <c r="D247" s="336"/>
       <c r="E247" s="224" t="s">
         <v>174</v>
       </c>
@@ -27636,8 +27885,8 @@
       </c>
     </row>
     <row r="248" spans="3:20">
-      <c r="C248" s="260"/>
-      <c r="D248" s="345"/>
+      <c r="C248" s="305"/>
+      <c r="D248" s="336"/>
       <c r="E248" s="224" t="s">
         <v>175</v>
       </c>
@@ -27661,8 +27910,8 @@
       </c>
     </row>
     <row r="249" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C249" s="262"/>
-      <c r="D249" s="346"/>
+      <c r="C249" s="307"/>
+      <c r="D249" s="337"/>
       <c r="E249" s="225"/>
       <c r="F249" s="234"/>
       <c r="G249" s="235"/>
@@ -27685,6 +27934,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="C62:C89"/>
+    <mergeCell ref="D62:D75"/>
+    <mergeCell ref="D76:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C126:C153"/>
+    <mergeCell ref="D126:D139"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F59:S59"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="D44:D57"/>
+    <mergeCell ref="C30:C57"/>
+    <mergeCell ref="T155:T157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="K91:S91"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="T123:T125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="F155:M155"/>
+    <mergeCell ref="N155:S155"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="D140:D153"/>
+    <mergeCell ref="F123:S123"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C222:C249"/>
+    <mergeCell ref="D222:D235"/>
+    <mergeCell ref="D236:D249"/>
+    <mergeCell ref="F219:M219"/>
+    <mergeCell ref="N219:S219"/>
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="T219:T221"/>
@@ -27701,76 +28020,6 @@
     <mergeCell ref="D158:D171"/>
     <mergeCell ref="D172:D185"/>
     <mergeCell ref="F91:J91"/>
-    <mergeCell ref="C222:C249"/>
-    <mergeCell ref="D222:D235"/>
-    <mergeCell ref="D236:D249"/>
-    <mergeCell ref="F219:M219"/>
-    <mergeCell ref="N219:S219"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="F155:M155"/>
-    <mergeCell ref="N155:S155"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="D140:D153"/>
-    <mergeCell ref="F123:S123"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="D30:D43"/>
-    <mergeCell ref="D44:D57"/>
-    <mergeCell ref="C30:C57"/>
-    <mergeCell ref="T155:T157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="K91:S91"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="T123:T125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D107"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F59:S59"/>
-    <mergeCell ref="C62:C89"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D89"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C126:C153"/>
-    <mergeCell ref="D126:D139"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I27:S27"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="M8:M9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10 J13:J24">

--- a/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
+++ b/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
@@ -4466,12 +4466,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4505,146 +4640,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4652,10 +4658,22 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4664,24 +4682,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4700,19 +4700,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4740,18 +4752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6060,91 +6060,91 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="328" t="s">
+      <c r="K6" s="338" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="338"/>
-      <c r="M6" s="338"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="339" t="s">
+      <c r="L6" s="339"/>
+      <c r="M6" s="339"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="341" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="340"/>
-      <c r="Q6" s="340"/>
-      <c r="R6" s="340"/>
-      <c r="S6" s="340"/>
-      <c r="T6" s="341"/>
+      <c r="P6" s="342"/>
+      <c r="Q6" s="342"/>
+      <c r="R6" s="342"/>
+      <c r="S6" s="342"/>
+      <c r="T6" s="343"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="353" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="359"/>
-      <c r="F7" s="362" t="s">
+      <c r="E7" s="354"/>
+      <c r="F7" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="359"/>
-      <c r="H7" s="356" t="s">
+      <c r="G7" s="354"/>
+      <c r="H7" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="357"/>
-      <c r="J7" s="349" t="s">
+      <c r="I7" s="352"/>
+      <c r="J7" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="328" t="s">
+      <c r="K7" s="338" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="329"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="373" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="331"/>
-      <c r="O7" s="317" t="s">
+      <c r="N7" s="374"/>
+      <c r="O7" s="362" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="318"/>
-      <c r="Q7" s="318"/>
-      <c r="R7" s="318"/>
-      <c r="S7" s="318"/>
-      <c r="T7" s="319"/>
+      <c r="P7" s="363"/>
+      <c r="Q7" s="363"/>
+      <c r="R7" s="363"/>
+      <c r="S7" s="363"/>
+      <c r="T7" s="364"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="315" t="s">
+      <c r="E8" s="357" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G8" s="357" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="352" t="s">
+      <c r="H8" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="354" t="s">
+      <c r="I8" s="349" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="350"/>
-      <c r="K8" s="320" t="s">
+      <c r="J8" s="345"/>
+      <c r="K8" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="320" t="s">
+      <c r="L8" s="365" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="367" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="324" t="s">
+      <c r="N8" s="369" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="326" t="s">
+      <c r="O8" s="371" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -6159,31 +6159,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="326" t="s">
+      <c r="T8" s="371" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321" t="s">
+      <c r="D9" s="356"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="358"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="323">
+      <c r="M9" s="368">
         <v>0.8</v>
       </c>
-      <c r="N9" s="325" t="s">
+      <c r="N9" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="327"/>
+      <c r="O9" s="372"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="327" t="s">
+      <c r="T9" s="372" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6976,36 +6976,36 @@
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="C23" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="343"/>
+      <c r="C23" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="319"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="342">
+      <c r="F23" s="318">
         <v>8</v>
       </c>
-      <c r="G23" s="344"/>
-      <c r="H23" s="344"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
-      <c r="K23" s="344"/>
-      <c r="L23" s="344"/>
-      <c r="M23" s="344"/>
-      <c r="N23" s="344"/>
-      <c r="O23" s="344"/>
-      <c r="P23" s="344"/>
-      <c r="Q23" s="344"/>
-      <c r="R23" s="344"/>
-      <c r="S23" s="345"/>
-      <c r="T23" s="346" t="s">
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
+      <c r="K23" s="330"/>
+      <c r="L23" s="330"/>
+      <c r="M23" s="330"/>
+      <c r="N23" s="330"/>
+      <c r="O23" s="330"/>
+      <c r="P23" s="330"/>
+      <c r="Q23" s="330"/>
+      <c r="R23" s="330"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="315" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="365" t="s">
+      <c r="C24" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="366"/>
+      <c r="D24" s="321"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -7049,13 +7049,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="347"/>
+      <c r="T24" s="316"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="367" t="s">
+      <c r="C25" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="368"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -7099,13 +7099,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="348"/>
+      <c r="T25" s="317"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="369" t="s">
+      <c r="C26" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="371" t="s">
+      <c r="D26" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -7144,8 +7144,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="369"/>
-      <c r="D27" s="371"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="326"/>
       <c r="E27" s="97"/>
       <c r="F27" s="84"/>
       <c r="G27" s="73"/>
@@ -7167,8 +7167,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="369"/>
-      <c r="D28" s="371"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="326"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7199,8 +7199,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="369"/>
-      <c r="D29" s="371"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="326"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7233,8 +7233,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="369"/>
-      <c r="D30" s="371"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="326"/>
       <c r="E30" s="188" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7265,8 +7265,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="369"/>
-      <c r="D31" s="371"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="326"/>
       <c r="E31" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7297,8 +7297,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="369"/>
-      <c r="D32" s="371"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="326"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7331,8 +7331,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="369"/>
-      <c r="D33" s="371"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="326"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7361,8 +7361,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="369"/>
-      <c r="D34" s="371"/>
+      <c r="C34" s="324"/>
+      <c r="D34" s="326"/>
       <c r="E34" s="97"/>
       <c r="F34" s="84"/>
       <c r="G34" s="73"/>
@@ -7384,8 +7384,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="369"/>
-      <c r="D35" s="372"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="327"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7410,8 +7410,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="369"/>
-      <c r="D36" s="373" t="s">
+      <c r="C36" s="324"/>
+      <c r="D36" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -7442,8 +7442,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="369"/>
-      <c r="D37" s="371"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="326"/>
       <c r="E37" s="31"/>
       <c r="F37" s="84"/>
       <c r="G37" s="73"/>
@@ -7465,8 +7465,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="369"/>
-      <c r="D38" s="371"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="326"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7495,8 +7495,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="369"/>
-      <c r="D39" s="371"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="326"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7523,8 +7523,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="369"/>
-      <c r="D40" s="371"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="326"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7549,8 +7549,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="369"/>
-      <c r="D41" s="371"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="326"/>
       <c r="E41" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7577,8 +7577,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="369"/>
-      <c r="D42" s="371"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="326"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7607,8 +7607,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="369"/>
-      <c r="D43" s="371"/>
+      <c r="C43" s="324"/>
+      <c r="D43" s="326"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7635,8 +7635,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="369"/>
-      <c r="D44" s="371"/>
+      <c r="C44" s="324"/>
+      <c r="D44" s="326"/>
       <c r="E44" s="31"/>
       <c r="F44" s="84"/>
       <c r="G44" s="73"/>
@@ -7658,8 +7658,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="370"/>
-      <c r="D45" s="374"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="329"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7688,38 +7688,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="343"/>
+      <c r="C47" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="319"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="342">
+      <c r="F47" s="318">
         <v>8</v>
       </c>
-      <c r="G47" s="344"/>
-      <c r="H47" s="344"/>
-      <c r="I47" s="344"/>
-      <c r="J47" s="344"/>
-      <c r="K47" s="344"/>
-      <c r="L47" s="344"/>
-      <c r="M47" s="344"/>
-      <c r="N47" s="344"/>
-      <c r="O47" s="344">
+      <c r="G47" s="330"/>
+      <c r="H47" s="330"/>
+      <c r="I47" s="330"/>
+      <c r="J47" s="330"/>
+      <c r="K47" s="330"/>
+      <c r="L47" s="330"/>
+      <c r="M47" s="330"/>
+      <c r="N47" s="330"/>
+      <c r="O47" s="330">
         <v>9</v>
       </c>
-      <c r="P47" s="344"/>
-      <c r="Q47" s="344"/>
-      <c r="R47" s="344"/>
-      <c r="S47" s="345"/>
-      <c r="T47" s="346" t="s">
+      <c r="P47" s="330"/>
+      <c r="Q47" s="330"/>
+      <c r="R47" s="330"/>
+      <c r="S47" s="331"/>
+      <c r="T47" s="315" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="365" t="s">
+      <c r="C48" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="366"/>
+      <c r="D48" s="321"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -7763,13 +7763,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="347"/>
+      <c r="T48" s="316"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="367" t="s">
+      <c r="C49" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="368"/>
+      <c r="D49" s="323"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -7813,13 +7813,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="348"/>
+      <c r="T49" s="317"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="369" t="s">
+      <c r="C50" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="371" t="s">
+      <c r="D50" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -7846,8 +7846,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="369"/>
-      <c r="D51" s="371"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="326"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -7869,8 +7869,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="369"/>
-      <c r="D52" s="371"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7895,8 +7895,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="369"/>
-      <c r="D53" s="371"/>
+      <c r="C53" s="324"/>
+      <c r="D53" s="326"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7921,8 +7921,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="17.25">
-      <c r="C54" s="369"/>
-      <c r="D54" s="371"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7949,8 +7949,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="369"/>
-      <c r="D55" s="371"/>
+      <c r="C55" s="324"/>
+      <c r="D55" s="326"/>
       <c r="E55" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7975,8 +7975,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="369"/>
-      <c r="D56" s="371"/>
+      <c r="C56" s="324"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -8001,8 +8001,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="369"/>
-      <c r="D57" s="371"/>
+      <c r="C57" s="324"/>
+      <c r="D57" s="326"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -8027,8 +8027,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="369"/>
-      <c r="D58" s="371"/>
+      <c r="C58" s="324"/>
+      <c r="D58" s="326"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -8050,8 +8050,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="369"/>
-      <c r="D59" s="372"/>
+      <c r="C59" s="324"/>
+      <c r="D59" s="327"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -8076,8 +8076,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="369"/>
-      <c r="D60" s="373" t="s">
+      <c r="C60" s="324"/>
+      <c r="D60" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -8104,8 +8104,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="369"/>
-      <c r="D61" s="371"/>
+      <c r="C61" s="324"/>
+      <c r="D61" s="326"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -8127,8 +8127,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="369"/>
-      <c r="D62" s="371"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="326"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -8153,8 +8153,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="369"/>
-      <c r="D63" s="371"/>
+      <c r="C63" s="324"/>
+      <c r="D63" s="326"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -8179,8 +8179,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="369"/>
-      <c r="D64" s="371"/>
+      <c r="C64" s="324"/>
+      <c r="D64" s="326"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -8205,8 +8205,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="369"/>
-      <c r="D65" s="371"/>
+      <c r="C65" s="324"/>
+      <c r="D65" s="326"/>
       <c r="E65" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -8231,8 +8231,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="369"/>
-      <c r="D66" s="371"/>
+      <c r="C66" s="324"/>
+      <c r="D66" s="326"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -8261,8 +8261,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="369"/>
-      <c r="D67" s="371"/>
+      <c r="C67" s="324"/>
+      <c r="D67" s="326"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -8287,8 +8287,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="369"/>
-      <c r="D68" s="371"/>
+      <c r="C68" s="324"/>
+      <c r="D68" s="326"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -8310,8 +8310,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="370"/>
-      <c r="D69" s="374"/>
+      <c r="C69" s="325"/>
+      <c r="D69" s="329"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -8341,20 +8341,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
@@ -8371,16 +8367,20 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="O47:S47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -8555,91 +8555,91 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="328" t="s">
+      <c r="K6" s="338" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="338"/>
-      <c r="M6" s="338"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="339" t="s">
+      <c r="L6" s="339"/>
+      <c r="M6" s="339"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="341" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="340"/>
-      <c r="Q6" s="340"/>
-      <c r="R6" s="340"/>
-      <c r="S6" s="340"/>
-      <c r="T6" s="341"/>
+      <c r="P6" s="342"/>
+      <c r="Q6" s="342"/>
+      <c r="R6" s="342"/>
+      <c r="S6" s="342"/>
+      <c r="T6" s="343"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="353" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="359"/>
-      <c r="F7" s="362" t="s">
+      <c r="E7" s="354"/>
+      <c r="F7" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="359"/>
-      <c r="H7" s="356" t="s">
+      <c r="G7" s="354"/>
+      <c r="H7" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="357"/>
-      <c r="J7" s="349" t="s">
+      <c r="I7" s="352"/>
+      <c r="J7" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="328" t="s">
+      <c r="K7" s="338" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="329"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="373" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="331"/>
-      <c r="O7" s="317" t="s">
+      <c r="N7" s="374"/>
+      <c r="O7" s="362" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="318"/>
-      <c r="Q7" s="318"/>
-      <c r="R7" s="318"/>
-      <c r="S7" s="318"/>
-      <c r="T7" s="319"/>
+      <c r="P7" s="363"/>
+      <c r="Q7" s="363"/>
+      <c r="R7" s="363"/>
+      <c r="S7" s="363"/>
+      <c r="T7" s="364"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="315" t="s">
+      <c r="E8" s="357" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="375" t="s">
+      <c r="G8" s="377" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="352" t="s">
+      <c r="H8" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="354" t="s">
+      <c r="I8" s="349" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="350"/>
-      <c r="K8" s="320" t="s">
+      <c r="J8" s="345"/>
+      <c r="K8" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="320" t="s">
+      <c r="L8" s="365" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="367" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="324" t="s">
+      <c r="N8" s="369" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="377" t="s">
+      <c r="O8" s="375" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -8654,31 +8654,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="326" t="s">
+      <c r="T8" s="371" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321" t="s">
+      <c r="D9" s="356"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="323">
+      <c r="M9" s="368">
         <v>0.8</v>
       </c>
-      <c r="N9" s="325" t="s">
+      <c r="N9" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="378"/>
+      <c r="O9" s="376"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="327" t="s">
+      <c r="T9" s="372" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9451,36 +9451,36 @@
     </row>
     <row r="22" spans="2:20" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:20">
-      <c r="C23" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="343"/>
+      <c r="C23" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="319"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="342">
+      <c r="F23" s="318">
         <v>8</v>
       </c>
-      <c r="G23" s="344"/>
-      <c r="H23" s="344"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
-      <c r="K23" s="344"/>
-      <c r="L23" s="344"/>
-      <c r="M23" s="344"/>
-      <c r="N23" s="344"/>
-      <c r="O23" s="344"/>
-      <c r="P23" s="344"/>
-      <c r="Q23" s="344"/>
-      <c r="R23" s="344"/>
-      <c r="S23" s="345"/>
-      <c r="T23" s="346" t="s">
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
+      <c r="K23" s="330"/>
+      <c r="L23" s="330"/>
+      <c r="M23" s="330"/>
+      <c r="N23" s="330"/>
+      <c r="O23" s="330"/>
+      <c r="P23" s="330"/>
+      <c r="Q23" s="330"/>
+      <c r="R23" s="330"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="315" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="365" t="s">
+      <c r="C24" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="366"/>
+      <c r="D24" s="321"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -9524,13 +9524,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="347"/>
+      <c r="T24" s="316"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="367" t="s">
+      <c r="C25" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="368"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -9574,13 +9574,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="348"/>
+      <c r="T25" s="317"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="369" t="s">
+      <c r="C26" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="371" t="s">
+      <c r="D26" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -9617,8 +9617,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="369"/>
-      <c r="D27" s="371"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="326"/>
       <c r="E27" s="97"/>
       <c r="F27" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F27="","",'55宮本希(第１Q)'!F27)</f>
@@ -9667,8 +9667,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="369"/>
-      <c r="D28" s="371"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="326"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9713,8 +9713,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="369"/>
-      <c r="D29" s="371"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="326"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9759,8 +9759,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="369"/>
-      <c r="D30" s="371"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="326"/>
       <c r="E30" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9803,8 +9803,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="369"/>
-      <c r="D31" s="371"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="326"/>
       <c r="E31" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -9847,8 +9847,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="369"/>
-      <c r="D32" s="371"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="326"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -9891,8 +9891,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="369"/>
-      <c r="D33" s="371"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="326"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -9935,8 +9935,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="369"/>
-      <c r="D34" s="371"/>
+      <c r="C34" s="324"/>
+      <c r="D34" s="326"/>
       <c r="E34" s="97"/>
       <c r="F34" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F34="","",'55宮本希(第１Q)'!F34)</f>
@@ -9976,8 +9976,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="369"/>
-      <c r="D35" s="372"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="327"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10020,8 +10020,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="369"/>
-      <c r="D36" s="373" t="s">
+      <c r="C36" s="324"/>
+      <c r="D36" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -10090,8 +10090,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="369"/>
-      <c r="D37" s="371"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="326"/>
       <c r="E37" s="31"/>
       <c r="F37" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F37="","",'55宮本希(第１Q)'!F37)</f>
@@ -10155,8 +10155,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="369"/>
-      <c r="D38" s="371"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="326"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10223,8 +10223,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="369"/>
-      <c r="D39" s="371"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="326"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10291,8 +10291,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="369"/>
-      <c r="D40" s="371"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="326"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10359,8 +10359,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="369"/>
-      <c r="D41" s="371"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="326"/>
       <c r="E41" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -10427,8 +10427,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="369"/>
-      <c r="D42" s="371"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="326"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10495,8 +10495,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="369"/>
-      <c r="D43" s="371"/>
+      <c r="C43" s="324"/>
+      <c r="D43" s="326"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10563,8 +10563,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="369"/>
-      <c r="D44" s="371"/>
+      <c r="C44" s="324"/>
+      <c r="D44" s="326"/>
       <c r="E44" s="31"/>
       <c r="F44" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F44="","",'55宮本希(第１Q)'!F44)</f>
@@ -10628,8 +10628,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="370"/>
-      <c r="D45" s="374"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="329"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10700,38 +10700,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="343"/>
+      <c r="C47" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="319"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="342">
+      <c r="F47" s="318">
         <v>8</v>
       </c>
-      <c r="G47" s="344"/>
-      <c r="H47" s="344"/>
-      <c r="I47" s="344"/>
-      <c r="J47" s="344"/>
-      <c r="K47" s="344"/>
-      <c r="L47" s="344"/>
-      <c r="M47" s="344"/>
-      <c r="N47" s="344"/>
-      <c r="O47" s="344">
+      <c r="G47" s="330"/>
+      <c r="H47" s="330"/>
+      <c r="I47" s="330"/>
+      <c r="J47" s="330"/>
+      <c r="K47" s="330"/>
+      <c r="L47" s="330"/>
+      <c r="M47" s="330"/>
+      <c r="N47" s="330"/>
+      <c r="O47" s="330">
         <v>9</v>
       </c>
-      <c r="P47" s="344"/>
-      <c r="Q47" s="344"/>
-      <c r="R47" s="344"/>
-      <c r="S47" s="345"/>
-      <c r="T47" s="346" t="s">
+      <c r="P47" s="330"/>
+      <c r="Q47" s="330"/>
+      <c r="R47" s="330"/>
+      <c r="S47" s="331"/>
+      <c r="T47" s="315" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="365" t="s">
+      <c r="C48" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="366"/>
+      <c r="D48" s="321"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -10775,13 +10775,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="347"/>
+      <c r="T48" s="316"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="367" t="s">
+      <c r="C49" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="368"/>
+      <c r="D49" s="323"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -10825,13 +10825,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="348"/>
+      <c r="T49" s="317"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="369" t="s">
+      <c r="C50" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="371" t="s">
+      <c r="D50" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -10866,8 +10866,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="369"/>
-      <c r="D51" s="371"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="326"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -10889,8 +10889,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="369"/>
-      <c r="D52" s="371"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10921,8 +10921,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="369"/>
-      <c r="D53" s="371"/>
+      <c r="C53" s="324"/>
+      <c r="D53" s="326"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10953,8 +10953,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="18.75">
-      <c r="C54" s="369"/>
-      <c r="D54" s="371"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10985,8 +10985,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="369"/>
-      <c r="D55" s="371"/>
+      <c r="C55" s="324"/>
+      <c r="D55" s="326"/>
       <c r="E55" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -11011,8 +11011,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="369"/>
-      <c r="D56" s="371"/>
+      <c r="C56" s="324"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -11043,8 +11043,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="369"/>
-      <c r="D57" s="371"/>
+      <c r="C57" s="324"/>
+      <c r="D57" s="326"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -11073,8 +11073,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="369"/>
-      <c r="D58" s="371"/>
+      <c r="C58" s="324"/>
+      <c r="D58" s="326"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -11096,8 +11096,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="369"/>
-      <c r="D59" s="372"/>
+      <c r="C59" s="324"/>
+      <c r="D59" s="327"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -11122,8 +11122,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="369"/>
-      <c r="D60" s="373" t="s">
+      <c r="C60" s="324"/>
+      <c r="D60" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -11150,8 +11150,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="369"/>
-      <c r="D61" s="371"/>
+      <c r="C61" s="324"/>
+      <c r="D61" s="326"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -11173,8 +11173,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="369"/>
-      <c r="D62" s="371"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="326"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -11199,8 +11199,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="369"/>
-      <c r="D63" s="371"/>
+      <c r="C63" s="324"/>
+      <c r="D63" s="326"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -11225,8 +11225,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="369"/>
-      <c r="D64" s="371"/>
+      <c r="C64" s="324"/>
+      <c r="D64" s="326"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -11251,8 +11251,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="369"/>
-      <c r="D65" s="371"/>
+      <c r="C65" s="324"/>
+      <c r="D65" s="326"/>
       <c r="E65" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -11277,8 +11277,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="369"/>
-      <c r="D66" s="371"/>
+      <c r="C66" s="324"/>
+      <c r="D66" s="326"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -11303,8 +11303,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="369"/>
-      <c r="D67" s="371"/>
+      <c r="C67" s="324"/>
+      <c r="D67" s="326"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -11329,8 +11329,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="369"/>
-      <c r="D68" s="371"/>
+      <c r="C68" s="324"/>
+      <c r="D68" s="326"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -11352,8 +11352,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="370"/>
-      <c r="D69" s="374"/>
+      <c r="C69" s="325"/>
+      <c r="D69" s="329"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -11383,18 +11383,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="C23:D23"/>
@@ -11411,18 +11411,18 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="O47:S47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -11593,96 +11593,96 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="328" t="s">
+      <c r="K6" s="338" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="338"/>
-      <c r="M6" s="338"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="320" t="s">
+      <c r="L6" s="339"/>
+      <c r="M6" s="339"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="365" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="340" t="s">
+      <c r="P6" s="342" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="340"/>
-      <c r="R6" s="340"/>
-      <c r="S6" s="340"/>
-      <c r="T6" s="340"/>
-      <c r="U6" s="341"/>
+      <c r="Q6" s="342"/>
+      <c r="R6" s="342"/>
+      <c r="S6" s="342"/>
+      <c r="T6" s="342"/>
+      <c r="U6" s="343"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="353" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="359"/>
-      <c r="F7" s="362" t="s">
+      <c r="E7" s="354"/>
+      <c r="F7" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="359"/>
-      <c r="H7" s="356" t="s">
+      <c r="G7" s="354"/>
+      <c r="H7" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="357"/>
-      <c r="J7" s="349" t="s">
+      <c r="I7" s="352"/>
+      <c r="J7" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="328" t="s">
+      <c r="K7" s="338" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="329"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="373" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="331"/>
+      <c r="N7" s="374"/>
       <c r="O7" s="384"/>
-      <c r="P7" s="318" t="s">
+      <c r="P7" s="363" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="318"/>
-      <c r="R7" s="318"/>
-      <c r="S7" s="318"/>
-      <c r="T7" s="318"/>
-      <c r="U7" s="319"/>
+      <c r="Q7" s="363"/>
+      <c r="R7" s="363"/>
+      <c r="S7" s="363"/>
+      <c r="T7" s="363"/>
+      <c r="U7" s="364"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="315" t="s">
+      <c r="E8" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="375" t="s">
+      <c r="G8" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="352" t="s">
+      <c r="H8" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="354" t="s">
+      <c r="I8" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="350"/>
-      <c r="K8" s="320" t="s">
+      <c r="J8" s="345"/>
+      <c r="K8" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="320" t="s">
+      <c r="L8" s="365" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="367" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="324" t="s">
+      <c r="N8" s="369" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="384"/>
-      <c r="P8" s="379" t="s">
+      <c r="P8" s="385" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="123" t="s">
@@ -11697,32 +11697,32 @@
       <c r="T8" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="326" t="s">
+      <c r="U8" s="371" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321" t="s">
+      <c r="D9" s="356"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="323">
+      <c r="M9" s="368">
         <v>0.8</v>
       </c>
-      <c r="N9" s="325" t="s">
+      <c r="N9" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="321"/>
-      <c r="P9" s="380"/>
+      <c r="O9" s="366"/>
+      <c r="P9" s="386"/>
       <c r="Q9" s="123" t="s">
         <v>149</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="T9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="327" t="s">
+      <c r="U9" s="372" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12563,38 +12563,38 @@
     </row>
     <row r="22" spans="2:22" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:22">
-      <c r="C23" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="343"/>
+      <c r="C23" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="319"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="385">
+      <c r="F23" s="382">
         <v>11</v>
       </c>
-      <c r="G23" s="386"/>
-      <c r="H23" s="386"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
-      <c r="K23" s="386"/>
-      <c r="L23" s="386"/>
-      <c r="M23" s="386"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="386"/>
-      <c r="P23" s="386"/>
-      <c r="Q23" s="386"/>
-      <c r="R23" s="386"/>
-      <c r="S23" s="386"/>
-      <c r="T23" s="386"/>
-      <c r="U23" s="381"/>
-      <c r="V23" s="381" t="s">
+      <c r="G23" s="383"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
+      <c r="K23" s="383"/>
+      <c r="L23" s="383"/>
+      <c r="M23" s="383"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="383"/>
+      <c r="P23" s="383"/>
+      <c r="Q23" s="383"/>
+      <c r="R23" s="383"/>
+      <c r="S23" s="383"/>
+      <c r="T23" s="383"/>
+      <c r="U23" s="379"/>
+      <c r="V23" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:22">
-      <c r="C24" s="365" t="s">
+      <c r="C24" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="366"/>
+      <c r="D24" s="321"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>16</v>
@@ -12642,13 +12642,13 @@
         <v>30</v>
       </c>
       <c r="U24" s="91"/>
-      <c r="V24" s="382"/>
+      <c r="V24" s="380"/>
     </row>
     <row r="25" spans="2:22" ht="14.25" thickBot="1">
-      <c r="C25" s="367" t="s">
+      <c r="C25" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="368"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>145</v>
@@ -12696,13 +12696,13 @@
         <v>118</v>
       </c>
       <c r="U25" s="203"/>
-      <c r="V25" s="383"/>
+      <c r="V25" s="381"/>
     </row>
     <row r="26" spans="2:22" ht="17.25">
-      <c r="C26" s="369" t="s">
+      <c r="C26" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="371" t="s">
+      <c r="D26" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="s">
@@ -12732,8 +12732,8 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="17.25">
-      <c r="C27" s="369"/>
-      <c r="D27" s="371"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="326"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -12759,8 +12759,8 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="17.25">
-      <c r="C28" s="369"/>
-      <c r="D28" s="371"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="326"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -12788,8 +12788,8 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="17.25">
-      <c r="C29" s="369"/>
-      <c r="D29" s="371"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="326"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -12821,8 +12821,8 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="17.25">
-      <c r="C30" s="369"/>
-      <c r="D30" s="371"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="326"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -12848,8 +12848,8 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="17.25">
-      <c r="C31" s="369"/>
-      <c r="D31" s="371"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="326"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -12877,8 +12877,8 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="17.25">
-      <c r="C32" s="369"/>
-      <c r="D32" s="371"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="326"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -12904,8 +12904,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="369"/>
-      <c r="D33" s="371"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="326"/>
       <c r="E33" s="97" t="s">
         <v>140</v>
       </c>
@@ -12935,8 +12935,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="17.25">
-      <c r="C34" s="369"/>
-      <c r="D34" s="371"/>
+      <c r="C34" s="324"/>
+      <c r="D34" s="326"/>
       <c r="E34" s="97" t="s">
         <v>141</v>
       </c>
@@ -12966,8 +12966,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="18" thickBot="1">
-      <c r="C35" s="369"/>
-      <c r="D35" s="372"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="327"/>
       <c r="E35" s="98" t="s">
         <v>142</v>
       </c>
@@ -12993,8 +12993,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="369"/>
-      <c r="D36" s="373" t="s">
+      <c r="C36" s="324"/>
+      <c r="D36" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -13022,8 +13022,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="369"/>
-      <c r="D37" s="371"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="326"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -13065,8 +13065,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="369"/>
-      <c r="D38" s="371"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="326"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -13092,8 +13092,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="369"/>
-      <c r="D39" s="371"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="326"/>
       <c r="E39" s="31" t="s">
         <v>170</v>
       </c>
@@ -13125,8 +13125,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="369"/>
-      <c r="D40" s="371"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="326"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -13152,8 +13152,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="369"/>
-      <c r="D41" s="371"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="326"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -13179,8 +13179,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="369"/>
-      <c r="D42" s="371"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="326"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -13206,8 +13206,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="369"/>
-      <c r="D43" s="371"/>
+      <c r="C43" s="324"/>
+      <c r="D43" s="326"/>
       <c r="E43" s="31" t="s">
         <v>140</v>
       </c>
@@ -13233,8 +13233,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="17.25">
-      <c r="C44" s="369"/>
-      <c r="D44" s="371"/>
+      <c r="C44" s="324"/>
+      <c r="D44" s="326"/>
       <c r="E44" s="31" t="s">
         <v>141</v>
       </c>
@@ -13260,8 +13260,8 @@
       </c>
     </row>
     <row r="45" spans="3:22" ht="18" thickBot="1">
-      <c r="C45" s="370"/>
-      <c r="D45" s="374"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="329"/>
       <c r="E45" s="99" t="s">
         <v>142</v>
       </c>
@@ -13291,38 +13291,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="343"/>
+      <c r="C47" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="319"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="385">
+      <c r="F47" s="382">
         <v>12</v>
       </c>
-      <c r="G47" s="386"/>
-      <c r="H47" s="386"/>
-      <c r="I47" s="386"/>
-      <c r="J47" s="386"/>
-      <c r="K47" s="386"/>
-      <c r="L47" s="386"/>
-      <c r="M47" s="386"/>
-      <c r="N47" s="386"/>
-      <c r="O47" s="386"/>
-      <c r="P47" s="386"/>
-      <c r="Q47" s="386"/>
-      <c r="R47" s="386"/>
-      <c r="S47" s="386"/>
-      <c r="T47" s="386"/>
-      <c r="U47" s="381"/>
-      <c r="V47" s="381" t="s">
+      <c r="G47" s="383"/>
+      <c r="H47" s="383"/>
+      <c r="I47" s="383"/>
+      <c r="J47" s="383"/>
+      <c r="K47" s="383"/>
+      <c r="L47" s="383"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="383"/>
+      <c r="O47" s="383"/>
+      <c r="P47" s="383"/>
+      <c r="Q47" s="383"/>
+      <c r="R47" s="383"/>
+      <c r="S47" s="383"/>
+      <c r="T47" s="383"/>
+      <c r="U47" s="379"/>
+      <c r="V47" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:22">
-      <c r="C48" s="365" t="s">
+      <c r="C48" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="366"/>
+      <c r="D48" s="321"/>
       <c r="E48" s="78"/>
       <c r="F48" s="81">
         <v>1</v>
@@ -13370,13 +13370,13 @@
         <v>15</v>
       </c>
       <c r="U48" s="91"/>
-      <c r="V48" s="382"/>
+      <c r="V48" s="380"/>
     </row>
     <row r="49" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C49" s="367" t="s">
+      <c r="C49" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="368"/>
+      <c r="D49" s="323"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>146</v>
@@ -13424,13 +13424,13 @@
         <v>119</v>
       </c>
       <c r="U49" s="203"/>
-      <c r="V49" s="383"/>
+      <c r="V49" s="381"/>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="369" t="s">
+      <c r="C50" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="371" t="s">
+      <c r="D50" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="s">
@@ -13458,8 +13458,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="369"/>
-      <c r="D51" s="371"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="326"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -13485,8 +13485,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="369"/>
-      <c r="D52" s="371"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -13512,8 +13512,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="369"/>
-      <c r="D53" s="371"/>
+      <c r="C53" s="324"/>
+      <c r="D53" s="326"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -13549,8 +13549,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="369"/>
-      <c r="D54" s="371"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -13592,8 +13592,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="369"/>
-      <c r="D55" s="371"/>
+      <c r="C55" s="324"/>
+      <c r="D55" s="326"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -13629,8 +13629,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="369"/>
-      <c r="D56" s="371"/>
+      <c r="C56" s="324"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -13658,8 +13658,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="369"/>
-      <c r="D57" s="371"/>
+      <c r="C57" s="324"/>
+      <c r="D57" s="326"/>
       <c r="E57" s="97" t="s">
         <v>140</v>
       </c>
@@ -13685,8 +13685,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="17.25">
-      <c r="C58" s="369"/>
-      <c r="D58" s="371"/>
+      <c r="C58" s="324"/>
+      <c r="D58" s="326"/>
       <c r="E58" s="97" t="s">
         <v>141</v>
       </c>
@@ -13712,8 +13712,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="18" thickBot="1">
-      <c r="C59" s="369"/>
-      <c r="D59" s="372"/>
+      <c r="C59" s="324"/>
+      <c r="D59" s="327"/>
       <c r="E59" s="98" t="s">
         <v>142</v>
       </c>
@@ -13751,8 +13751,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="369"/>
-      <c r="D60" s="373" t="s">
+      <c r="C60" s="324"/>
+      <c r="D60" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="s">
@@ -13780,8 +13780,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="369"/>
-      <c r="D61" s="371"/>
+      <c r="C61" s="324"/>
+      <c r="D61" s="326"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -13807,8 +13807,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="369"/>
-      <c r="D62" s="371"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="326"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -13834,8 +13834,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="369"/>
-      <c r="D63" s="371"/>
+      <c r="C63" s="324"/>
+      <c r="D63" s="326"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -13861,8 +13861,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="369"/>
-      <c r="D64" s="371"/>
+      <c r="C64" s="324"/>
+      <c r="D64" s="326"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -13892,8 +13892,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="369"/>
-      <c r="D65" s="371"/>
+      <c r="C65" s="324"/>
+      <c r="D65" s="326"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -13919,8 +13919,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="369"/>
-      <c r="D66" s="371"/>
+      <c r="C66" s="324"/>
+      <c r="D66" s="326"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -13946,8 +13946,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="369"/>
-      <c r="D67" s="371"/>
+      <c r="C67" s="324"/>
+      <c r="D67" s="326"/>
       <c r="E67" s="31" t="s">
         <v>140</v>
       </c>
@@ -13973,8 +13973,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="17.25">
-      <c r="C68" s="369"/>
-      <c r="D68" s="371"/>
+      <c r="C68" s="324"/>
+      <c r="D68" s="326"/>
       <c r="E68" s="31" t="s">
         <v>141</v>
       </c>
@@ -14000,8 +14000,8 @@
       </c>
     </row>
     <row r="69" spans="3:22" ht="18" thickBot="1">
-      <c r="C69" s="370"/>
-      <c r="D69" s="374"/>
+      <c r="C69" s="325"/>
+      <c r="D69" s="329"/>
       <c r="E69" s="99" t="s">
         <v>142</v>
       </c>
@@ -14031,38 +14031,38 @@
       <c r="D70" s="72"/>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="343"/>
+      <c r="C71" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="319"/>
       <c r="E71" s="77"/>
-      <c r="F71" s="385">
+      <c r="F71" s="382">
         <v>12</v>
       </c>
-      <c r="G71" s="386"/>
-      <c r="H71" s="386"/>
-      <c r="I71" s="386"/>
-      <c r="J71" s="386"/>
-      <c r="K71" s="386"/>
-      <c r="L71" s="386"/>
-      <c r="M71" s="386"/>
-      <c r="N71" s="386"/>
-      <c r="O71" s="386"/>
-      <c r="P71" s="386"/>
-      <c r="Q71" s="386"/>
-      <c r="R71" s="386"/>
-      <c r="S71" s="386"/>
-      <c r="T71" s="386"/>
-      <c r="U71" s="381"/>
-      <c r="V71" s="381" t="s">
+      <c r="G71" s="383"/>
+      <c r="H71" s="383"/>
+      <c r="I71" s="383"/>
+      <c r="J71" s="383"/>
+      <c r="K71" s="383"/>
+      <c r="L71" s="383"/>
+      <c r="M71" s="383"/>
+      <c r="N71" s="383"/>
+      <c r="O71" s="383"/>
+      <c r="P71" s="383"/>
+      <c r="Q71" s="383"/>
+      <c r="R71" s="383"/>
+      <c r="S71" s="383"/>
+      <c r="T71" s="383"/>
+      <c r="U71" s="379"/>
+      <c r="V71" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="3:22">
-      <c r="C72" s="365" t="s">
+      <c r="C72" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="366"/>
+      <c r="D72" s="321"/>
       <c r="E72" s="78"/>
       <c r="F72" s="81">
         <v>16</v>
@@ -14112,13 +14112,13 @@
       <c r="U72" s="91">
         <v>31</v>
       </c>
-      <c r="V72" s="382"/>
+      <c r="V72" s="380"/>
     </row>
     <row r="73" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C73" s="367" t="s">
+      <c r="C73" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="368"/>
+      <c r="D73" s="323"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145" t="s">
         <v>147</v>
@@ -14168,13 +14168,13 @@
       <c r="U73" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V73" s="383"/>
+      <c r="V73" s="381"/>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="369" t="s">
+      <c r="C74" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="371" t="s">
+      <c r="D74" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="96" t="s">
@@ -14202,8 +14202,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="369"/>
-      <c r="D75" s="371"/>
+      <c r="C75" s="324"/>
+      <c r="D75" s="326"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -14229,8 +14229,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="369"/>
-      <c r="D76" s="371"/>
+      <c r="C76" s="324"/>
+      <c r="D76" s="326"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -14256,8 +14256,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="369"/>
-      <c r="D77" s="371"/>
+      <c r="C77" s="324"/>
+      <c r="D77" s="326"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -14283,8 +14283,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="369"/>
-      <c r="D78" s="371"/>
+      <c r="C78" s="324"/>
+      <c r="D78" s="326"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -14324,8 +14324,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="369"/>
-      <c r="D79" s="371"/>
+      <c r="C79" s="324"/>
+      <c r="D79" s="326"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -14351,8 +14351,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="369"/>
-      <c r="D80" s="371"/>
+      <c r="C80" s="324"/>
+      <c r="D80" s="326"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -14378,8 +14378,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="369"/>
-      <c r="D81" s="371"/>
+      <c r="C81" s="324"/>
+      <c r="D81" s="326"/>
       <c r="E81" s="97" t="s">
         <v>140</v>
       </c>
@@ -14405,8 +14405,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="17.25">
-      <c r="C82" s="369"/>
-      <c r="D82" s="371"/>
+      <c r="C82" s="324"/>
+      <c r="D82" s="326"/>
       <c r="E82" s="97" t="s">
         <v>141</v>
       </c>
@@ -14432,8 +14432,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="18" thickBot="1">
-      <c r="C83" s="369"/>
-      <c r="D83" s="372"/>
+      <c r="C83" s="324"/>
+      <c r="D83" s="327"/>
       <c r="E83" s="98" t="s">
         <v>142</v>
       </c>
@@ -14475,8 +14475,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="369"/>
-      <c r="D84" s="373" t="s">
+      <c r="C84" s="324"/>
+      <c r="D84" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="32" t="s">
@@ -14504,8 +14504,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="369"/>
-      <c r="D85" s="371"/>
+      <c r="C85" s="324"/>
+      <c r="D85" s="326"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -14531,8 +14531,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="369"/>
-      <c r="D86" s="371"/>
+      <c r="C86" s="324"/>
+      <c r="D86" s="326"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -14558,8 +14558,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="369"/>
-      <c r="D87" s="371"/>
+      <c r="C87" s="324"/>
+      <c r="D87" s="326"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -14585,8 +14585,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="369"/>
-      <c r="D88" s="371"/>
+      <c r="C88" s="324"/>
+      <c r="D88" s="326"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -14612,8 +14612,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="369"/>
-      <c r="D89" s="371"/>
+      <c r="C89" s="324"/>
+      <c r="D89" s="326"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -14639,8 +14639,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="369"/>
-      <c r="D90" s="371"/>
+      <c r="C90" s="324"/>
+      <c r="D90" s="326"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -14666,8 +14666,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="369"/>
-      <c r="D91" s="371"/>
+      <c r="C91" s="324"/>
+      <c r="D91" s="326"/>
       <c r="E91" s="31" t="s">
         <v>140</v>
       </c>
@@ -14693,8 +14693,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="17.25">
-      <c r="C92" s="369"/>
-      <c r="D92" s="371"/>
+      <c r="C92" s="324"/>
+      <c r="D92" s="326"/>
       <c r="E92" s="31" t="s">
         <v>141</v>
       </c>
@@ -14720,8 +14720,8 @@
       </c>
     </row>
     <row r="93" spans="3:22" ht="18" thickBot="1">
-      <c r="C93" s="370"/>
-      <c r="D93" s="374"/>
+      <c r="C93" s="325"/>
+      <c r="D93" s="329"/>
       <c r="E93" s="99" t="s">
         <v>142</v>
       </c>
@@ -14750,25 +14750,19 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:C93"/>
-    <mergeCell ref="D74:D83"/>
-    <mergeCell ref="D84:D93"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:U71"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:U47"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="C24:D24"/>
@@ -14785,19 +14779,25 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:U47"/>
+    <mergeCell ref="C74:C93"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="D84:D93"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:U71"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -14968,13 +14968,13 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="328" t="s">
+      <c r="K6" s="338" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="338"/>
-      <c r="M6" s="338"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="320" t="s">
+      <c r="L6" s="339"/>
+      <c r="M6" s="339"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="365" t="s">
         <v>144</v>
       </c>
       <c r="P6" s="387" t="s">
@@ -14990,29 +14990,29 @@
     <row r="7" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="353" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="359"/>
-      <c r="F7" s="362" t="s">
+      <c r="E7" s="354"/>
+      <c r="F7" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="359"/>
-      <c r="H7" s="356" t="s">
+      <c r="G7" s="354"/>
+      <c r="H7" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="357"/>
-      <c r="J7" s="349" t="s">
+      <c r="I7" s="352"/>
+      <c r="J7" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="328" t="s">
+      <c r="K7" s="338" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="329"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="373" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="331"/>
+      <c r="N7" s="374"/>
       <c r="O7" s="384"/>
       <c r="P7" s="390" t="s">
         <v>81</v>
@@ -15027,39 +15027,39 @@
     <row r="8" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="315" t="s">
+      <c r="E8" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="375" t="s">
+      <c r="G8" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="352" t="s">
+      <c r="H8" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="354" t="s">
+      <c r="I8" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="350"/>
-      <c r="K8" s="320" t="s">
+      <c r="J8" s="345"/>
+      <c r="K8" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="320" t="s">
+      <c r="L8" s="365" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="367" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="324" t="s">
+      <c r="N8" s="369" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="384"/>
-      <c r="P8" s="379" t="s">
+      <c r="P8" s="385" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="124" t="s">
@@ -15080,32 +15080,32 @@
       <c r="V8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="326" t="s">
+      <c r="W8" s="371" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321" t="s">
+      <c r="D9" s="356"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="323">
+      <c r="M9" s="368">
         <v>0.8</v>
       </c>
-      <c r="N9" s="325" t="s">
+      <c r="N9" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="321"/>
-      <c r="P9" s="380"/>
+      <c r="O9" s="366"/>
+      <c r="P9" s="386"/>
       <c r="Q9" s="124" t="s">
         <v>153</v>
       </c>
@@ -15124,7 +15124,7 @@
       <c r="V9" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="327" t="s">
+      <c r="W9" s="372" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15914,38 +15914,38 @@
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="C22" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="343"/>
+      <c r="C22" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="319"/>
       <c r="E22" s="77"/>
-      <c r="F22" s="385">
+      <c r="F22" s="382">
         <v>12</v>
       </c>
-      <c r="G22" s="386"/>
-      <c r="H22" s="386"/>
-      <c r="I22" s="386"/>
-      <c r="J22" s="386"/>
-      <c r="K22" s="386"/>
-      <c r="L22" s="386"/>
-      <c r="M22" s="386"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="386"/>
-      <c r="P22" s="386"/>
-      <c r="Q22" s="386"/>
-      <c r="R22" s="386"/>
-      <c r="S22" s="386"/>
-      <c r="T22" s="386"/>
-      <c r="U22" s="381"/>
-      <c r="V22" s="381" t="s">
+      <c r="G22" s="383"/>
+      <c r="H22" s="383"/>
+      <c r="I22" s="383"/>
+      <c r="J22" s="383"/>
+      <c r="K22" s="383"/>
+      <c r="L22" s="383"/>
+      <c r="M22" s="383"/>
+      <c r="N22" s="383"/>
+      <c r="O22" s="383"/>
+      <c r="P22" s="383"/>
+      <c r="Q22" s="383"/>
+      <c r="R22" s="383"/>
+      <c r="S22" s="383"/>
+      <c r="T22" s="383"/>
+      <c r="U22" s="379"/>
+      <c r="V22" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="C23" s="365" t="s">
+      <c r="C23" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="366"/>
+      <c r="D23" s="321"/>
       <c r="E23" s="78"/>
       <c r="F23" s="81">
         <v>1</v>
@@ -15993,13 +15993,13 @@
         <v>15</v>
       </c>
       <c r="U23" s="91"/>
-      <c r="V23" s="382"/>
+      <c r="V23" s="380"/>
     </row>
     <row r="24" spans="2:24" ht="14.25" thickBot="1">
-      <c r="C24" s="367" t="s">
+      <c r="C24" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="368"/>
+      <c r="D24" s="323"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145" t="s">
         <v>146</v>
@@ -16047,13 +16047,13 @@
         <v>119</v>
       </c>
       <c r="U24" s="203"/>
-      <c r="V24" s="383"/>
+      <c r="V24" s="381"/>
     </row>
     <row r="25" spans="2:24" ht="17.25">
-      <c r="C25" s="369" t="s">
+      <c r="C25" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="371" t="s">
+      <c r="D25" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="96" t="s">
@@ -16081,8 +16081,8 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="17.25">
-      <c r="C26" s="369"/>
-      <c r="D26" s="371"/>
+      <c r="C26" s="324"/>
+      <c r="D26" s="326"/>
       <c r="E26" s="97" t="s">
         <v>158</v>
       </c>
@@ -16108,8 +16108,8 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="17.25">
-      <c r="C27" s="369"/>
-      <c r="D27" s="371"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="326"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -16135,8 +16135,8 @@
       </c>
     </row>
     <row r="28" spans="2:24" ht="17.25">
-      <c r="C28" s="369"/>
-      <c r="D28" s="371"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="326"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -16162,8 +16162,8 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="17.25">
-      <c r="C29" s="369"/>
-      <c r="D29" s="371"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="326"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -16189,8 +16189,8 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="17.25">
-      <c r="C30" s="369"/>
-      <c r="D30" s="371"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="326"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -16216,8 +16216,8 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="17.25">
-      <c r="C31" s="369"/>
-      <c r="D31" s="371"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="326"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -16243,8 +16243,8 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="17.25">
-      <c r="C32" s="369"/>
-      <c r="D32" s="371"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="326"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -16270,8 +16270,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="369"/>
-      <c r="D33" s="371"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="326"/>
       <c r="E33" s="97" t="s">
         <v>142</v>
       </c>
@@ -16297,8 +16297,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="18" thickBot="1">
-      <c r="C34" s="369"/>
-      <c r="D34" s="372"/>
+      <c r="C34" s="324"/>
+      <c r="D34" s="327"/>
       <c r="E34" s="98"/>
       <c r="F34" s="195"/>
       <c r="G34" s="196"/>
@@ -16322,8 +16322,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="17.25">
-      <c r="C35" s="369"/>
-      <c r="D35" s="373" t="s">
+      <c r="C35" s="324"/>
+      <c r="D35" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="32" t="s">
@@ -16351,8 +16351,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="369"/>
-      <c r="D36" s="371"/>
+      <c r="C36" s="324"/>
+      <c r="D36" s="326"/>
       <c r="E36" s="31" t="s">
         <v>158</v>
       </c>
@@ -16378,8 +16378,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="369"/>
-      <c r="D37" s="371"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="326"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -16405,8 +16405,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="369"/>
-      <c r="D38" s="371"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="326"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -16432,8 +16432,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="369"/>
-      <c r="D39" s="371"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="326"/>
       <c r="E39" s="31" t="s">
         <v>136</v>
       </c>
@@ -16459,8 +16459,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="369"/>
-      <c r="D40" s="371"/>
+      <c r="C40" s="324"/>
+      <c r="D40" s="326"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -16492,8 +16492,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="369"/>
-      <c r="D41" s="371"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="326"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -16519,8 +16519,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="369"/>
-      <c r="D42" s="371"/>
+      <c r="C42" s="324"/>
+      <c r="D42" s="326"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -16546,8 +16546,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="369"/>
-      <c r="D43" s="371"/>
+      <c r="C43" s="324"/>
+      <c r="D43" s="326"/>
       <c r="E43" s="31" t="s">
         <v>142</v>
       </c>
@@ -16573,8 +16573,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="18" thickBot="1">
-      <c r="C44" s="370"/>
-      <c r="D44" s="374"/>
+      <c r="C44" s="325"/>
+      <c r="D44" s="329"/>
       <c r="E44" s="99"/>
       <c r="F44" s="197"/>
       <c r="G44" s="198"/>
@@ -16602,38 +16602,38 @@
       <c r="D45" s="72"/>
     </row>
     <row r="46" spans="3:22">
-      <c r="C46" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="343"/>
+      <c r="C46" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="319"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="385">
+      <c r="F46" s="382">
         <v>12</v>
       </c>
-      <c r="G46" s="386"/>
-      <c r="H46" s="386"/>
-      <c r="I46" s="386"/>
-      <c r="J46" s="386"/>
-      <c r="K46" s="386"/>
-      <c r="L46" s="386"/>
-      <c r="M46" s="386"/>
-      <c r="N46" s="386"/>
-      <c r="O46" s="386"/>
-      <c r="P46" s="386"/>
-      <c r="Q46" s="386"/>
-      <c r="R46" s="386"/>
-      <c r="S46" s="386"/>
-      <c r="T46" s="386"/>
-      <c r="U46" s="381"/>
-      <c r="V46" s="381" t="s">
+      <c r="G46" s="383"/>
+      <c r="H46" s="383"/>
+      <c r="I46" s="383"/>
+      <c r="J46" s="383"/>
+      <c r="K46" s="383"/>
+      <c r="L46" s="383"/>
+      <c r="M46" s="383"/>
+      <c r="N46" s="383"/>
+      <c r="O46" s="383"/>
+      <c r="P46" s="383"/>
+      <c r="Q46" s="383"/>
+      <c r="R46" s="383"/>
+      <c r="S46" s="383"/>
+      <c r="T46" s="383"/>
+      <c r="U46" s="379"/>
+      <c r="V46" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="365" t="s">
+      <c r="C47" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="366"/>
+      <c r="D47" s="321"/>
       <c r="E47" s="78"/>
       <c r="F47" s="81">
         <v>16</v>
@@ -16683,13 +16683,13 @@
       <c r="U47" s="91">
         <v>31</v>
       </c>
-      <c r="V47" s="382"/>
+      <c r="V47" s="380"/>
     </row>
     <row r="48" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C48" s="367" t="s">
+      <c r="C48" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="368"/>
+      <c r="D48" s="323"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145" t="s">
         <v>147</v>
@@ -16739,13 +16739,13 @@
       <c r="U48" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V48" s="383"/>
+      <c r="V48" s="381"/>
     </row>
     <row r="49" spans="3:22" ht="17.25">
-      <c r="C49" s="369" t="s">
+      <c r="C49" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="371" t="s">
+      <c r="D49" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="96" t="s">
@@ -16773,8 +16773,8 @@
       </c>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="369"/>
-      <c r="D50" s="371"/>
+      <c r="C50" s="324"/>
+      <c r="D50" s="326"/>
       <c r="E50" s="97" t="s">
         <v>158</v>
       </c>
@@ -16800,8 +16800,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="369"/>
-      <c r="D51" s="371"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="326"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -16827,8 +16827,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="369"/>
-      <c r="D52" s="371"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -16854,8 +16854,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="369"/>
-      <c r="D53" s="371"/>
+      <c r="C53" s="324"/>
+      <c r="D53" s="326"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -16881,8 +16881,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="369"/>
-      <c r="D54" s="371"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -16908,8 +16908,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="369"/>
-      <c r="D55" s="371"/>
+      <c r="C55" s="324"/>
+      <c r="D55" s="326"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -16935,8 +16935,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="369"/>
-      <c r="D56" s="371"/>
+      <c r="C56" s="324"/>
+      <c r="D56" s="326"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -16962,8 +16962,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="369"/>
-      <c r="D57" s="371"/>
+      <c r="C57" s="324"/>
+      <c r="D57" s="326"/>
       <c r="E57" s="97" t="s">
         <v>142</v>
       </c>
@@ -16989,8 +16989,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="18" thickBot="1">
-      <c r="C58" s="369"/>
-      <c r="D58" s="372"/>
+      <c r="C58" s="324"/>
+      <c r="D58" s="327"/>
       <c r="E58" s="98"/>
       <c r="F58" s="195"/>
       <c r="G58" s="196"/>
@@ -17014,8 +17014,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="17.25">
-      <c r="C59" s="369"/>
-      <c r="D59" s="373" t="s">
+      <c r="C59" s="324"/>
+      <c r="D59" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="32" t="s">
@@ -17043,8 +17043,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="369"/>
-      <c r="D60" s="371"/>
+      <c r="C60" s="324"/>
+      <c r="D60" s="326"/>
       <c r="E60" s="31" t="s">
         <v>158</v>
       </c>
@@ -17070,8 +17070,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="369"/>
-      <c r="D61" s="371"/>
+      <c r="C61" s="324"/>
+      <c r="D61" s="326"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -17097,8 +17097,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="369"/>
-      <c r="D62" s="371"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="326"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -17124,8 +17124,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="369"/>
-      <c r="D63" s="371"/>
+      <c r="C63" s="324"/>
+      <c r="D63" s="326"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -17153,8 +17153,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="369"/>
-      <c r="D64" s="371"/>
+      <c r="C64" s="324"/>
+      <c r="D64" s="326"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -17180,8 +17180,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="369"/>
-      <c r="D65" s="371"/>
+      <c r="C65" s="324"/>
+      <c r="D65" s="326"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -17207,8 +17207,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="369"/>
-      <c r="D66" s="371"/>
+      <c r="C66" s="324"/>
+      <c r="D66" s="326"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -17234,8 +17234,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="369"/>
-      <c r="D67" s="371"/>
+      <c r="C67" s="324"/>
+      <c r="D67" s="326"/>
       <c r="E67" s="31" t="s">
         <v>142</v>
       </c>
@@ -17261,8 +17261,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="18" thickBot="1">
-      <c r="C68" s="370"/>
-      <c r="D68" s="374"/>
+      <c r="C68" s="325"/>
+      <c r="D68" s="329"/>
       <c r="E68" s="99"/>
       <c r="F68" s="197"/>
       <c r="G68" s="198"/>
@@ -17287,38 +17287,38 @@
     </row>
     <row r="69" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="70" spans="3:22">
-      <c r="C70" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="343"/>
+      <c r="C70" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="319"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="385">
+      <c r="F70" s="382">
         <v>1</v>
       </c>
-      <c r="G70" s="386"/>
-      <c r="H70" s="386"/>
-      <c r="I70" s="386"/>
-      <c r="J70" s="386"/>
-      <c r="K70" s="386"/>
-      <c r="L70" s="386"/>
-      <c r="M70" s="386"/>
-      <c r="N70" s="386"/>
-      <c r="O70" s="386"/>
-      <c r="P70" s="386"/>
-      <c r="Q70" s="386"/>
-      <c r="R70" s="386"/>
-      <c r="S70" s="386"/>
-      <c r="T70" s="386"/>
-      <c r="U70" s="381"/>
-      <c r="V70" s="381" t="s">
+      <c r="G70" s="383"/>
+      <c r="H70" s="383"/>
+      <c r="I70" s="383"/>
+      <c r="J70" s="383"/>
+      <c r="K70" s="383"/>
+      <c r="L70" s="383"/>
+      <c r="M70" s="383"/>
+      <c r="N70" s="383"/>
+      <c r="O70" s="383"/>
+      <c r="P70" s="383"/>
+      <c r="Q70" s="383"/>
+      <c r="R70" s="383"/>
+      <c r="S70" s="383"/>
+      <c r="T70" s="383"/>
+      <c r="U70" s="379"/>
+      <c r="V70" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="365" t="s">
+      <c r="C71" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="366"/>
+      <c r="D71" s="321"/>
       <c r="E71" s="78"/>
       <c r="F71" s="81">
         <v>1</v>
@@ -17366,13 +17366,13 @@
         <v>15</v>
       </c>
       <c r="U71" s="91"/>
-      <c r="V71" s="382"/>
+      <c r="V71" s="380"/>
     </row>
     <row r="72" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C72" s="367" t="s">
+      <c r="C72" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="368"/>
+      <c r="D72" s="323"/>
       <c r="E72" s="79"/>
       <c r="F72" s="82" t="s">
         <v>160</v>
@@ -17420,13 +17420,13 @@
         <v>122</v>
       </c>
       <c r="U72" s="203"/>
-      <c r="V72" s="383"/>
+      <c r="V72" s="381"/>
     </row>
     <row r="73" spans="3:22" ht="17.25">
-      <c r="C73" s="369" t="s">
+      <c r="C73" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="371" t="s">
+      <c r="D73" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="96" t="s">
@@ -17468,8 +17468,8 @@
       </c>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="369"/>
-      <c r="D74" s="371"/>
+      <c r="C74" s="324"/>
+      <c r="D74" s="326"/>
       <c r="E74" s="97" t="s">
         <v>158</v>
       </c>
@@ -17497,8 +17497,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="369"/>
-      <c r="D75" s="371"/>
+      <c r="C75" s="324"/>
+      <c r="D75" s="326"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -17524,8 +17524,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="369"/>
-      <c r="D76" s="371"/>
+      <c r="C76" s="324"/>
+      <c r="D76" s="326"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -17565,8 +17565,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="369"/>
-      <c r="D77" s="371"/>
+      <c r="C77" s="324"/>
+      <c r="D77" s="326"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -17600,8 +17600,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="369"/>
-      <c r="D78" s="371"/>
+      <c r="C78" s="324"/>
+      <c r="D78" s="326"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -17629,8 +17629,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="369"/>
-      <c r="D79" s="371"/>
+      <c r="C79" s="324"/>
+      <c r="D79" s="326"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -17656,8 +17656,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="369"/>
-      <c r="D80" s="371"/>
+      <c r="C80" s="324"/>
+      <c r="D80" s="326"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -17683,8 +17683,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="369"/>
-      <c r="D81" s="371"/>
+      <c r="C81" s="324"/>
+      <c r="D81" s="326"/>
       <c r="E81" s="97" t="s">
         <v>142</v>
       </c>
@@ -17710,8 +17710,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="18" thickBot="1">
-      <c r="C82" s="369"/>
-      <c r="D82" s="372"/>
+      <c r="C82" s="324"/>
+      <c r="D82" s="327"/>
       <c r="E82" s="98"/>
       <c r="F82" s="171"/>
       <c r="G82" s="173"/>
@@ -17735,8 +17735,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="17.25">
-      <c r="C83" s="369"/>
-      <c r="D83" s="373" t="s">
+      <c r="C83" s="324"/>
+      <c r="D83" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="32" t="s">
@@ -17764,8 +17764,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="369"/>
-      <c r="D84" s="371"/>
+      <c r="C84" s="324"/>
+      <c r="D84" s="326"/>
       <c r="E84" s="31" t="s">
         <v>158</v>
       </c>
@@ -17791,8 +17791,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="369"/>
-      <c r="D85" s="371"/>
+      <c r="C85" s="324"/>
+      <c r="D85" s="326"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -17818,8 +17818,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="369"/>
-      <c r="D86" s="371"/>
+      <c r="C86" s="324"/>
+      <c r="D86" s="326"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -17845,8 +17845,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="369"/>
-      <c r="D87" s="371"/>
+      <c r="C87" s="324"/>
+      <c r="D87" s="326"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -17872,8 +17872,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="369"/>
-      <c r="D88" s="371"/>
+      <c r="C88" s="324"/>
+      <c r="D88" s="326"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -17899,8 +17899,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="369"/>
-      <c r="D89" s="371"/>
+      <c r="C89" s="324"/>
+      <c r="D89" s="326"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -17926,8 +17926,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="369"/>
-      <c r="D90" s="371"/>
+      <c r="C90" s="324"/>
+      <c r="D90" s="326"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -17953,8 +17953,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="369"/>
-      <c r="D91" s="371"/>
+      <c r="C91" s="324"/>
+      <c r="D91" s="326"/>
       <c r="E91" s="31" t="s">
         <v>142</v>
       </c>
@@ -17980,8 +17980,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="18" thickBot="1">
-      <c r="C92" s="370"/>
-      <c r="D92" s="374"/>
+      <c r="C92" s="325"/>
+      <c r="D92" s="329"/>
       <c r="E92" s="99"/>
       <c r="F92" s="176"/>
       <c r="G92" s="178"/>
@@ -18009,38 +18009,38 @@
       <c r="D93" s="72"/>
     </row>
     <row r="94" spans="3:22">
-      <c r="C94" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="343"/>
+      <c r="C94" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="319"/>
       <c r="E94" s="77"/>
-      <c r="F94" s="385">
+      <c r="F94" s="382">
         <v>1</v>
       </c>
-      <c r="G94" s="386"/>
-      <c r="H94" s="386"/>
-      <c r="I94" s="386"/>
-      <c r="J94" s="386"/>
-      <c r="K94" s="386"/>
-      <c r="L94" s="386"/>
-      <c r="M94" s="386"/>
-      <c r="N94" s="386"/>
-      <c r="O94" s="386"/>
-      <c r="P94" s="386"/>
-      <c r="Q94" s="386"/>
-      <c r="R94" s="386"/>
-      <c r="S94" s="386"/>
-      <c r="T94" s="386"/>
-      <c r="U94" s="381"/>
-      <c r="V94" s="381" t="s">
+      <c r="G94" s="383"/>
+      <c r="H94" s="383"/>
+      <c r="I94" s="383"/>
+      <c r="J94" s="383"/>
+      <c r="K94" s="383"/>
+      <c r="L94" s="383"/>
+      <c r="M94" s="383"/>
+      <c r="N94" s="383"/>
+      <c r="O94" s="383"/>
+      <c r="P94" s="383"/>
+      <c r="Q94" s="383"/>
+      <c r="R94" s="383"/>
+      <c r="S94" s="383"/>
+      <c r="T94" s="383"/>
+      <c r="U94" s="379"/>
+      <c r="V94" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="3:22">
-      <c r="C95" s="365" t="s">
+      <c r="C95" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="366"/>
+      <c r="D95" s="321"/>
       <c r="E95" s="78"/>
       <c r="F95" s="81">
         <v>16</v>
@@ -18090,13 +18090,13 @@
       <c r="U95" s="91">
         <v>31</v>
       </c>
-      <c r="V95" s="382"/>
+      <c r="V95" s="380"/>
     </row>
     <row r="96" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C96" s="367" t="s">
+      <c r="C96" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="368"/>
+      <c r="D96" s="323"/>
       <c r="E96" s="79"/>
       <c r="F96" s="82" t="s">
         <v>161</v>
@@ -18146,13 +18146,13 @@
       <c r="U96" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="V96" s="383"/>
+      <c r="V96" s="381"/>
     </row>
     <row r="97" spans="3:22" ht="17.25">
-      <c r="C97" s="369" t="s">
+      <c r="C97" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="371" t="s">
+      <c r="D97" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E97" s="96" t="s">
@@ -18180,8 +18180,8 @@
       </c>
     </row>
     <row r="98" spans="3:22" ht="17.25">
-      <c r="C98" s="369"/>
-      <c r="D98" s="371"/>
+      <c r="C98" s="324"/>
+      <c r="D98" s="326"/>
       <c r="E98" s="97" t="s">
         <v>158</v>
       </c>
@@ -18207,8 +18207,8 @@
       </c>
     </row>
     <row r="99" spans="3:22" ht="17.25">
-      <c r="C99" s="369"/>
-      <c r="D99" s="371"/>
+      <c r="C99" s="324"/>
+      <c r="D99" s="326"/>
       <c r="E99" s="97" t="s">
         <v>134</v>
       </c>
@@ -18234,8 +18234,8 @@
       </c>
     </row>
     <row r="100" spans="3:22" ht="17.25">
-      <c r="C100" s="369"/>
-      <c r="D100" s="371"/>
+      <c r="C100" s="324"/>
+      <c r="D100" s="326"/>
       <c r="E100" s="97" t="s">
         <v>135</v>
       </c>
@@ -18263,8 +18263,8 @@
       </c>
     </row>
     <row r="101" spans="3:22" ht="17.25">
-      <c r="C101" s="369"/>
-      <c r="D101" s="371"/>
+      <c r="C101" s="324"/>
+      <c r="D101" s="326"/>
       <c r="E101" s="97" t="s">
         <v>136</v>
       </c>
@@ -18296,8 +18296,8 @@
       </c>
     </row>
     <row r="102" spans="3:22" ht="17.25">
-      <c r="C102" s="369"/>
-      <c r="D102" s="371"/>
+      <c r="C102" s="324"/>
+      <c r="D102" s="326"/>
       <c r="E102" s="97" t="s">
         <v>137</v>
       </c>
@@ -18333,8 +18333,8 @@
       </c>
     </row>
     <row r="103" spans="3:22" ht="17.25">
-      <c r="C103" s="369"/>
-      <c r="D103" s="371"/>
+      <c r="C103" s="324"/>
+      <c r="D103" s="326"/>
       <c r="E103" s="97" t="s">
         <v>138</v>
       </c>
@@ -18378,8 +18378,8 @@
       </c>
     </row>
     <row r="104" spans="3:22" ht="17.25">
-      <c r="C104" s="369"/>
-      <c r="D104" s="371"/>
+      <c r="C104" s="324"/>
+      <c r="D104" s="326"/>
       <c r="E104" s="97" t="s">
         <v>139</v>
       </c>
@@ -18423,8 +18423,8 @@
       </c>
     </row>
     <row r="105" spans="3:22" ht="17.25">
-      <c r="C105" s="369"/>
-      <c r="D105" s="371"/>
+      <c r="C105" s="324"/>
+      <c r="D105" s="326"/>
       <c r="E105" s="97" t="s">
         <v>142</v>
       </c>
@@ -18450,8 +18450,8 @@
       </c>
     </row>
     <row r="106" spans="3:22" ht="18" thickBot="1">
-      <c r="C106" s="369"/>
-      <c r="D106" s="372"/>
+      <c r="C106" s="324"/>
+      <c r="D106" s="327"/>
       <c r="E106" s="98"/>
       <c r="F106" s="171"/>
       <c r="G106" s="196"/>
@@ -18475,8 +18475,8 @@
       </c>
     </row>
     <row r="107" spans="3:22" ht="17.25">
-      <c r="C107" s="369"/>
-      <c r="D107" s="373" t="s">
+      <c r="C107" s="324"/>
+      <c r="D107" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="32" t="s">
@@ -18504,8 +18504,8 @@
       </c>
     </row>
     <row r="108" spans="3:22" ht="17.25">
-      <c r="C108" s="369"/>
-      <c r="D108" s="371"/>
+      <c r="C108" s="324"/>
+      <c r="D108" s="326"/>
       <c r="E108" s="31" t="s">
         <v>158</v>
       </c>
@@ -18531,8 +18531,8 @@
       </c>
     </row>
     <row r="109" spans="3:22" ht="17.25">
-      <c r="C109" s="369"/>
-      <c r="D109" s="371"/>
+      <c r="C109" s="324"/>
+      <c r="D109" s="326"/>
       <c r="E109" s="31" t="s">
         <v>134</v>
       </c>
@@ -18558,8 +18558,8 @@
       </c>
     </row>
     <row r="110" spans="3:22" ht="17.25">
-      <c r="C110" s="369"/>
-      <c r="D110" s="371"/>
+      <c r="C110" s="324"/>
+      <c r="D110" s="326"/>
       <c r="E110" s="31" t="s">
         <v>135</v>
       </c>
@@ -18585,8 +18585,8 @@
       </c>
     </row>
     <row r="111" spans="3:22" ht="17.25">
-      <c r="C111" s="369"/>
-      <c r="D111" s="371"/>
+      <c r="C111" s="324"/>
+      <c r="D111" s="326"/>
       <c r="E111" s="31" t="s">
         <v>136</v>
       </c>
@@ -18612,8 +18612,8 @@
       </c>
     </row>
     <row r="112" spans="3:22" ht="17.25">
-      <c r="C112" s="369"/>
-      <c r="D112" s="371"/>
+      <c r="C112" s="324"/>
+      <c r="D112" s="326"/>
       <c r="E112" s="31" t="s">
         <v>137</v>
       </c>
@@ -18639,8 +18639,8 @@
       </c>
     </row>
     <row r="113" spans="3:22" ht="17.25">
-      <c r="C113" s="369"/>
-      <c r="D113" s="371"/>
+      <c r="C113" s="324"/>
+      <c r="D113" s="326"/>
       <c r="E113" s="31" t="s">
         <v>138</v>
       </c>
@@ -18666,8 +18666,8 @@
       </c>
     </row>
     <row r="114" spans="3:22" ht="17.25">
-      <c r="C114" s="369"/>
-      <c r="D114" s="371"/>
+      <c r="C114" s="324"/>
+      <c r="D114" s="326"/>
       <c r="E114" s="31" t="s">
         <v>139</v>
       </c>
@@ -18693,8 +18693,8 @@
       </c>
     </row>
     <row r="115" spans="3:22" ht="17.25">
-      <c r="C115" s="369"/>
-      <c r="D115" s="371"/>
+      <c r="C115" s="324"/>
+      <c r="D115" s="326"/>
       <c r="E115" s="31" t="s">
         <v>142</v>
       </c>
@@ -18720,8 +18720,8 @@
       </c>
     </row>
     <row r="116" spans="3:22" ht="18" thickBot="1">
-      <c r="C116" s="370"/>
-      <c r="D116" s="374"/>
+      <c r="C116" s="325"/>
+      <c r="D116" s="329"/>
       <c r="E116" s="99"/>
       <c r="F116" s="176"/>
       <c r="G116" s="198"/>
@@ -18749,38 +18749,38 @@
       <c r="D117" s="72"/>
     </row>
     <row r="118" spans="3:22">
-      <c r="C118" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="343"/>
+      <c r="C118" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="319"/>
       <c r="E118" s="77"/>
-      <c r="F118" s="385">
+      <c r="F118" s="382">
         <v>2</v>
       </c>
-      <c r="G118" s="386"/>
-      <c r="H118" s="386"/>
-      <c r="I118" s="386"/>
-      <c r="J118" s="386"/>
-      <c r="K118" s="386"/>
-      <c r="L118" s="386"/>
-      <c r="M118" s="386"/>
-      <c r="N118" s="386"/>
-      <c r="O118" s="386"/>
-      <c r="P118" s="386"/>
-      <c r="Q118" s="386"/>
-      <c r="R118" s="386"/>
-      <c r="S118" s="386"/>
-      <c r="T118" s="386"/>
-      <c r="U118" s="381"/>
-      <c r="V118" s="381" t="s">
+      <c r="G118" s="383"/>
+      <c r="H118" s="383"/>
+      <c r="I118" s="383"/>
+      <c r="J118" s="383"/>
+      <c r="K118" s="383"/>
+      <c r="L118" s="383"/>
+      <c r="M118" s="383"/>
+      <c r="N118" s="383"/>
+      <c r="O118" s="383"/>
+      <c r="P118" s="383"/>
+      <c r="Q118" s="383"/>
+      <c r="R118" s="383"/>
+      <c r="S118" s="383"/>
+      <c r="T118" s="383"/>
+      <c r="U118" s="379"/>
+      <c r="V118" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="3:22">
-      <c r="C119" s="365" t="s">
+      <c r="C119" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="366"/>
+      <c r="D119" s="321"/>
       <c r="E119" s="78"/>
       <c r="F119" s="81">
         <v>1</v>
@@ -18828,13 +18828,13 @@
         <v>15</v>
       </c>
       <c r="U119" s="91"/>
-      <c r="V119" s="382"/>
+      <c r="V119" s="380"/>
     </row>
     <row r="120" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C120" s="367" t="s">
+      <c r="C120" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="368"/>
+      <c r="D120" s="323"/>
       <c r="E120" s="79"/>
       <c r="F120" s="145" t="s">
         <v>162</v>
@@ -18882,13 +18882,13 @@
         <v>118</v>
       </c>
       <c r="U120" s="92"/>
-      <c r="V120" s="383"/>
+      <c r="V120" s="381"/>
     </row>
     <row r="121" spans="3:22" ht="17.25">
-      <c r="C121" s="369" t="s">
+      <c r="C121" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="371" t="s">
+      <c r="D121" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="96" t="s">
@@ -18916,8 +18916,8 @@
       </c>
     </row>
     <row r="122" spans="3:22" ht="17.25">
-      <c r="C122" s="369"/>
-      <c r="D122" s="371"/>
+      <c r="C122" s="324"/>
+      <c r="D122" s="326"/>
       <c r="E122" s="97" t="s">
         <v>158</v>
       </c>
@@ -18943,8 +18943,8 @@
       </c>
     </row>
     <row r="123" spans="3:22" ht="17.25">
-      <c r="C123" s="369"/>
-      <c r="D123" s="371"/>
+      <c r="C123" s="324"/>
+      <c r="D123" s="326"/>
       <c r="E123" s="97" t="s">
         <v>134</v>
       </c>
@@ -18970,8 +18970,8 @@
       </c>
     </row>
     <row r="124" spans="3:22" ht="17.25">
-      <c r="C124" s="369"/>
-      <c r="D124" s="371"/>
+      <c r="C124" s="324"/>
+      <c r="D124" s="326"/>
       <c r="E124" s="97" t="s">
         <v>135</v>
       </c>
@@ -18997,8 +18997,8 @@
       </c>
     </row>
     <row r="125" spans="3:22" ht="17.25">
-      <c r="C125" s="369"/>
-      <c r="D125" s="371"/>
+      <c r="C125" s="324"/>
+      <c r="D125" s="326"/>
       <c r="E125" s="97" t="s">
         <v>136</v>
       </c>
@@ -19028,8 +19028,8 @@
       </c>
     </row>
     <row r="126" spans="3:22" ht="17.25">
-      <c r="C126" s="369"/>
-      <c r="D126" s="371"/>
+      <c r="C126" s="324"/>
+      <c r="D126" s="326"/>
       <c r="E126" s="97" t="s">
         <v>137</v>
       </c>
@@ -19055,8 +19055,8 @@
       </c>
     </row>
     <row r="127" spans="3:22" ht="17.25">
-      <c r="C127" s="369"/>
-      <c r="D127" s="371"/>
+      <c r="C127" s="324"/>
+      <c r="D127" s="326"/>
       <c r="E127" s="97" t="s">
         <v>138</v>
       </c>
@@ -19084,8 +19084,8 @@
       </c>
     </row>
     <row r="128" spans="3:22" ht="17.25">
-      <c r="C128" s="369"/>
-      <c r="D128" s="371"/>
+      <c r="C128" s="324"/>
+      <c r="D128" s="326"/>
       <c r="E128" s="97" t="s">
         <v>139</v>
       </c>
@@ -19113,8 +19113,8 @@
       </c>
     </row>
     <row r="129" spans="3:22" ht="17.25">
-      <c r="C129" s="369"/>
-      <c r="D129" s="371"/>
+      <c r="C129" s="324"/>
+      <c r="D129" s="326"/>
       <c r="E129" s="97" t="s">
         <v>142</v>
       </c>
@@ -19156,8 +19156,8 @@
       </c>
     </row>
     <row r="130" spans="3:22" ht="18" thickBot="1">
-      <c r="C130" s="369"/>
-      <c r="D130" s="372"/>
+      <c r="C130" s="324"/>
+      <c r="D130" s="327"/>
       <c r="E130" s="98"/>
       <c r="F130" s="195"/>
       <c r="G130" s="196"/>
@@ -19181,8 +19181,8 @@
       </c>
     </row>
     <row r="131" spans="3:22" ht="17.25">
-      <c r="C131" s="369"/>
-      <c r="D131" s="373" t="s">
+      <c r="C131" s="324"/>
+      <c r="D131" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E131" s="32" t="s">
@@ -19210,8 +19210,8 @@
       </c>
     </row>
     <row r="132" spans="3:22" ht="17.25">
-      <c r="C132" s="369"/>
-      <c r="D132" s="371"/>
+      <c r="C132" s="324"/>
+      <c r="D132" s="326"/>
       <c r="E132" s="31" t="s">
         <v>158</v>
       </c>
@@ -19237,8 +19237,8 @@
       </c>
     </row>
     <row r="133" spans="3:22" ht="17.25">
-      <c r="C133" s="369"/>
-      <c r="D133" s="371"/>
+      <c r="C133" s="324"/>
+      <c r="D133" s="326"/>
       <c r="E133" s="31" t="s">
         <v>134</v>
       </c>
@@ -19264,8 +19264,8 @@
       </c>
     </row>
     <row r="134" spans="3:22" ht="17.25">
-      <c r="C134" s="369"/>
-      <c r="D134" s="371"/>
+      <c r="C134" s="324"/>
+      <c r="D134" s="326"/>
       <c r="E134" s="31" t="s">
         <v>135</v>
       </c>
@@ -19291,8 +19291,8 @@
       </c>
     </row>
     <row r="135" spans="3:22" ht="17.25">
-      <c r="C135" s="369"/>
-      <c r="D135" s="371"/>
+      <c r="C135" s="324"/>
+      <c r="D135" s="326"/>
       <c r="E135" s="31" t="s">
         <v>136</v>
       </c>
@@ -19318,8 +19318,8 @@
       </c>
     </row>
     <row r="136" spans="3:22" ht="17.25">
-      <c r="C136" s="369"/>
-      <c r="D136" s="371"/>
+      <c r="C136" s="324"/>
+      <c r="D136" s="326"/>
       <c r="E136" s="31" t="s">
         <v>137</v>
       </c>
@@ -19345,8 +19345,8 @@
       </c>
     </row>
     <row r="137" spans="3:22" ht="17.25">
-      <c r="C137" s="369"/>
-      <c r="D137" s="371"/>
+      <c r="C137" s="324"/>
+      <c r="D137" s="326"/>
       <c r="E137" s="31" t="s">
         <v>138</v>
       </c>
@@ -19372,8 +19372,8 @@
       </c>
     </row>
     <row r="138" spans="3:22" ht="17.25">
-      <c r="C138" s="369"/>
-      <c r="D138" s="371"/>
+      <c r="C138" s="324"/>
+      <c r="D138" s="326"/>
       <c r="E138" s="31" t="s">
         <v>139</v>
       </c>
@@ -19399,8 +19399,8 @@
       </c>
     </row>
     <row r="139" spans="3:22" ht="17.25">
-      <c r="C139" s="369"/>
-      <c r="D139" s="371"/>
+      <c r="C139" s="324"/>
+      <c r="D139" s="326"/>
       <c r="E139" s="31" t="s">
         <v>142</v>
       </c>
@@ -19426,8 +19426,8 @@
       </c>
     </row>
     <row r="140" spans="3:22" ht="18" thickBot="1">
-      <c r="C140" s="370"/>
-      <c r="D140" s="374"/>
+      <c r="C140" s="325"/>
+      <c r="D140" s="329"/>
       <c r="E140" s="99"/>
       <c r="F140" s="197"/>
       <c r="G140" s="198"/>
@@ -19452,38 +19452,38 @@
     </row>
     <row r="141" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="142" spans="3:22">
-      <c r="C142" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="343"/>
+      <c r="C142" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="319"/>
       <c r="E142" s="77"/>
-      <c r="F142" s="385">
+      <c r="F142" s="382">
         <v>2</v>
       </c>
-      <c r="G142" s="386"/>
-      <c r="H142" s="386"/>
-      <c r="I142" s="386"/>
-      <c r="J142" s="386"/>
-      <c r="K142" s="386"/>
-      <c r="L142" s="386"/>
-      <c r="M142" s="386"/>
-      <c r="N142" s="386"/>
-      <c r="O142" s="386"/>
-      <c r="P142" s="386"/>
-      <c r="Q142" s="386"/>
-      <c r="R142" s="386"/>
-      <c r="S142" s="386"/>
-      <c r="T142" s="386"/>
-      <c r="U142" s="381"/>
-      <c r="V142" s="381" t="s">
+      <c r="G142" s="383"/>
+      <c r="H142" s="383"/>
+      <c r="I142" s="383"/>
+      <c r="J142" s="383"/>
+      <c r="K142" s="383"/>
+      <c r="L142" s="383"/>
+      <c r="M142" s="383"/>
+      <c r="N142" s="383"/>
+      <c r="O142" s="383"/>
+      <c r="P142" s="383"/>
+      <c r="Q142" s="383"/>
+      <c r="R142" s="383"/>
+      <c r="S142" s="383"/>
+      <c r="T142" s="383"/>
+      <c r="U142" s="379"/>
+      <c r="V142" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" spans="3:22">
-      <c r="C143" s="365" t="s">
+      <c r="C143" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="366"/>
+      <c r="D143" s="321"/>
       <c r="E143" s="78"/>
       <c r="F143" s="81">
         <v>16</v>
@@ -19527,13 +19527,13 @@
       <c r="S143" s="86"/>
       <c r="T143" s="86"/>
       <c r="U143" s="91"/>
-      <c r="V143" s="382"/>
+      <c r="V143" s="380"/>
     </row>
     <row r="144" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C144" s="367" t="s">
+      <c r="C144" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="368"/>
+      <c r="D144" s="323"/>
       <c r="E144" s="79"/>
       <c r="F144" s="145" t="s">
         <v>146</v>
@@ -19577,13 +19577,13 @@
       <c r="S144" s="150"/>
       <c r="T144" s="150"/>
       <c r="U144" s="210"/>
-      <c r="V144" s="383"/>
+      <c r="V144" s="381"/>
     </row>
     <row r="145" spans="3:22" ht="17.25">
-      <c r="C145" s="369" t="s">
+      <c r="C145" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="371" t="s">
+      <c r="D145" s="326" t="s">
         <v>115</v>
       </c>
       <c r="E145" s="96" t="s">
@@ -19611,8 +19611,8 @@
       </c>
     </row>
     <row r="146" spans="3:22" ht="17.25">
-      <c r="C146" s="369"/>
-      <c r="D146" s="371"/>
+      <c r="C146" s="324"/>
+      <c r="D146" s="326"/>
       <c r="E146" s="97" t="s">
         <v>158</v>
       </c>
@@ -19638,8 +19638,8 @@
       </c>
     </row>
     <row r="147" spans="3:22" ht="17.25">
-      <c r="C147" s="369"/>
-      <c r="D147" s="371"/>
+      <c r="C147" s="324"/>
+      <c r="D147" s="326"/>
       <c r="E147" s="97" t="s">
         <v>134</v>
       </c>
@@ -19665,8 +19665,8 @@
       </c>
     </row>
     <row r="148" spans="3:22" ht="17.25">
-      <c r="C148" s="369"/>
-      <c r="D148" s="371"/>
+      <c r="C148" s="324"/>
+      <c r="D148" s="326"/>
       <c r="E148" s="97" t="s">
         <v>135</v>
       </c>
@@ -19692,8 +19692,8 @@
       </c>
     </row>
     <row r="149" spans="3:22" ht="17.25">
-      <c r="C149" s="369"/>
-      <c r="D149" s="371"/>
+      <c r="C149" s="324"/>
+      <c r="D149" s="326"/>
       <c r="E149" s="97" t="s">
         <v>136</v>
       </c>
@@ -19723,8 +19723,8 @@
       </c>
     </row>
     <row r="150" spans="3:22" ht="17.25">
-      <c r="C150" s="369"/>
-      <c r="D150" s="371"/>
+      <c r="C150" s="324"/>
+      <c r="D150" s="326"/>
       <c r="E150" s="97" t="s">
         <v>137</v>
       </c>
@@ -19750,8 +19750,8 @@
       </c>
     </row>
     <row r="151" spans="3:22" ht="17.25">
-      <c r="C151" s="369"/>
-      <c r="D151" s="371"/>
+      <c r="C151" s="324"/>
+      <c r="D151" s="326"/>
       <c r="E151" s="97" t="s">
         <v>138</v>
       </c>
@@ -19777,8 +19777,8 @@
       </c>
     </row>
     <row r="152" spans="3:22" ht="17.25">
-      <c r="C152" s="369"/>
-      <c r="D152" s="371"/>
+      <c r="C152" s="324"/>
+      <c r="D152" s="326"/>
       <c r="E152" s="97" t="s">
         <v>139</v>
       </c>
@@ -19804,8 +19804,8 @@
       </c>
     </row>
     <row r="153" spans="3:22" ht="17.25">
-      <c r="C153" s="369"/>
-      <c r="D153" s="371"/>
+      <c r="C153" s="324"/>
+      <c r="D153" s="326"/>
       <c r="E153" s="97" t="s">
         <v>142</v>
       </c>
@@ -19831,8 +19831,8 @@
       </c>
     </row>
     <row r="154" spans="3:22" ht="18" thickBot="1">
-      <c r="C154" s="369"/>
-      <c r="D154" s="372"/>
+      <c r="C154" s="324"/>
+      <c r="D154" s="327"/>
       <c r="E154" s="98"/>
       <c r="F154" s="195"/>
       <c r="G154" s="196"/>
@@ -19856,8 +19856,8 @@
       </c>
     </row>
     <row r="155" spans="3:22" ht="17.25">
-      <c r="C155" s="369"/>
-      <c r="D155" s="373" t="s">
+      <c r="C155" s="324"/>
+      <c r="D155" s="328" t="s">
         <v>57</v>
       </c>
       <c r="E155" s="32" t="s">
@@ -19885,8 +19885,8 @@
       </c>
     </row>
     <row r="156" spans="3:22" ht="17.25">
-      <c r="C156" s="369"/>
-      <c r="D156" s="371"/>
+      <c r="C156" s="324"/>
+      <c r="D156" s="326"/>
       <c r="E156" s="31" t="s">
         <v>158</v>
       </c>
@@ -19912,8 +19912,8 @@
       </c>
     </row>
     <row r="157" spans="3:22" ht="17.25">
-      <c r="C157" s="369"/>
-      <c r="D157" s="371"/>
+      <c r="C157" s="324"/>
+      <c r="D157" s="326"/>
       <c r="E157" s="31" t="s">
         <v>134</v>
       </c>
@@ -19939,8 +19939,8 @@
       </c>
     </row>
     <row r="158" spans="3:22" ht="17.25">
-      <c r="C158" s="369"/>
-      <c r="D158" s="371"/>
+      <c r="C158" s="324"/>
+      <c r="D158" s="326"/>
       <c r="E158" s="31" t="s">
         <v>135</v>
       </c>
@@ -19966,8 +19966,8 @@
       </c>
     </row>
     <row r="159" spans="3:22" ht="17.25">
-      <c r="C159" s="369"/>
-      <c r="D159" s="371"/>
+      <c r="C159" s="324"/>
+      <c r="D159" s="326"/>
       <c r="E159" s="31" t="s">
         <v>136</v>
       </c>
@@ -19993,8 +19993,8 @@
       </c>
     </row>
     <row r="160" spans="3:22" ht="17.25">
-      <c r="C160" s="369"/>
-      <c r="D160" s="371"/>
+      <c r="C160" s="324"/>
+      <c r="D160" s="326"/>
       <c r="E160" s="31" t="s">
         <v>137</v>
       </c>
@@ -20020,8 +20020,8 @@
       </c>
     </row>
     <row r="161" spans="3:22" ht="17.25">
-      <c r="C161" s="369"/>
-      <c r="D161" s="371"/>
+      <c r="C161" s="324"/>
+      <c r="D161" s="326"/>
       <c r="E161" s="31" t="s">
         <v>138</v>
       </c>
@@ -20047,8 +20047,8 @@
       </c>
     </row>
     <row r="162" spans="3:22" ht="17.25">
-      <c r="C162" s="369"/>
-      <c r="D162" s="371"/>
+      <c r="C162" s="324"/>
+      <c r="D162" s="326"/>
       <c r="E162" s="31" t="s">
         <v>139</v>
       </c>
@@ -20074,8 +20074,8 @@
       </c>
     </row>
     <row r="163" spans="3:22" ht="17.25">
-      <c r="C163" s="369"/>
-      <c r="D163" s="371"/>
+      <c r="C163" s="324"/>
+      <c r="D163" s="326"/>
       <c r="E163" s="31" t="s">
         <v>142</v>
       </c>
@@ -20101,8 +20101,8 @@
       </c>
     </row>
     <row r="164" spans="3:22" ht="18" thickBot="1">
-      <c r="C164" s="370"/>
-      <c r="D164" s="374"/>
+      <c r="C164" s="325"/>
+      <c r="D164" s="329"/>
       <c r="E164" s="99"/>
       <c r="F164" s="197"/>
       <c r="G164" s="198"/>
@@ -20127,19 +20127,49 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C49:C68"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:U46"/>
+    <mergeCell ref="V46:V48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="C25:C44"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="F94:U94"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:C116"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="F142:U142"/>
+    <mergeCell ref="V142:V144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="V118:V120"/>
+    <mergeCell ref="F118:U118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:C140"/>
+    <mergeCell ref="D121:D130"/>
+    <mergeCell ref="D131:D140"/>
+    <mergeCell ref="C73:C92"/>
+    <mergeCell ref="D73:D82"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="C145:C164"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="D155:D164"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="C70:D70"/>
@@ -20156,49 +20186,19 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C73:C92"/>
-    <mergeCell ref="D73:D82"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="C145:C164"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="D155:D164"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F142:U142"/>
-    <mergeCell ref="V142:V144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="V118:V120"/>
-    <mergeCell ref="F118:U118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:C140"/>
-    <mergeCell ref="D121:D130"/>
-    <mergeCell ref="D131:D140"/>
-    <mergeCell ref="F94:U94"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:C116"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="V46:V48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="C25:C44"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="C49:C68"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:U46"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -20242,8 +20242,8 @@
   </sheetPr>
   <dimension ref="B1:AE317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J268" sqref="F257:J268"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="I3" s="71">
         <f>Q25</f>
-        <v>0.48390342052313884</v>
+        <v>0.4859154929577465</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>69</v>
@@ -20363,118 +20363,118 @@
     <row r="6" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="332"/>
-      <c r="D6" s="400">
+      <c r="D6" s="404">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="E6" s="401"/>
-      <c r="F6" s="401"/>
-      <c r="G6" s="401"/>
-      <c r="H6" s="401"/>
-      <c r="I6" s="401"/>
-      <c r="J6" s="402"/>
-      <c r="K6" s="403">
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="405"/>
+      <c r="I6" s="405"/>
+      <c r="J6" s="406"/>
+      <c r="K6" s="407">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="L6" s="404"/>
-      <c r="M6" s="404"/>
-      <c r="N6" s="405"/>
-      <c r="O6" s="320" t="s">
+      <c r="L6" s="408"/>
+      <c r="M6" s="408"/>
+      <c r="N6" s="409"/>
+      <c r="O6" s="365" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="320" t="s">
+      <c r="P6" s="365" t="s">
         <v>184</v>
       </c>
-      <c r="Q6" s="407" t="s">
+      <c r="Q6" s="398" t="s">
         <v>156</v>
       </c>
-      <c r="R6" s="408"/>
-      <c r="S6" s="408"/>
-      <c r="T6" s="408"/>
-      <c r="U6" s="408"/>
-      <c r="V6" s="408"/>
-      <c r="W6" s="408"/>
-      <c r="X6" s="408"/>
-      <c r="Y6" s="408"/>
+      <c r="R6" s="399"/>
+      <c r="S6" s="399"/>
+      <c r="T6" s="399"/>
+      <c r="U6" s="399"/>
+      <c r="V6" s="399"/>
+      <c r="W6" s="399"/>
+      <c r="X6" s="399"/>
+      <c r="Y6" s="399"/>
     </row>
     <row r="7" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="353" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="359"/>
-      <c r="F7" s="362" t="s">
+      <c r="E7" s="354"/>
+      <c r="F7" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="359"/>
-      <c r="H7" s="356" t="s">
+      <c r="G7" s="354"/>
+      <c r="H7" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="357"/>
-      <c r="J7" s="349" t="s">
+      <c r="I7" s="352"/>
+      <c r="J7" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="328" t="s">
+      <c r="K7" s="338" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="329"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="340"/>
+      <c r="M7" s="373" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="331"/>
+      <c r="N7" s="374"/>
       <c r="O7" s="384"/>
       <c r="P7" s="384"/>
-      <c r="Q7" s="409" t="s">
+      <c r="Q7" s="400" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="410"/>
-      <c r="S7" s="410"/>
-      <c r="T7" s="410"/>
-      <c r="U7" s="410"/>
-      <c r="V7" s="410"/>
-      <c r="W7" s="410"/>
-      <c r="X7" s="410"/>
-      <c r="Y7" s="410"/>
+      <c r="R7" s="401"/>
+      <c r="S7" s="401"/>
+      <c r="T7" s="401"/>
+      <c r="U7" s="401"/>
+      <c r="V7" s="401"/>
+      <c r="W7" s="401"/>
+      <c r="X7" s="401"/>
+      <c r="Y7" s="401"/>
     </row>
     <row r="8" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="360" t="s">
+      <c r="D8" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="315" t="s">
+      <c r="E8" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="363" t="s">
+      <c r="F8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="375" t="s">
+      <c r="G8" s="377" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="352" t="s">
+      <c r="H8" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="354" t="s">
+      <c r="I8" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="350"/>
-      <c r="K8" s="320" t="s">
+      <c r="J8" s="345"/>
+      <c r="K8" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="320" t="s">
+      <c r="L8" s="365" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="367" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="324" t="s">
+      <c r="N8" s="369" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="384"/>
       <c r="P8" s="384"/>
-      <c r="Q8" s="377" t="s">
+      <c r="Q8" s="375" t="s">
         <v>59</v>
       </c>
       <c r="R8" s="246" t="s">
@@ -20501,7 +20501,7 @@
       <c r="Y8" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" s="398" t="s">
+      <c r="Z8" s="402" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="314" t="s">
@@ -20511,26 +20511,26 @@
     <row r="9" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="361"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="364"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="351"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321" t="s">
+      <c r="D9" s="356"/>
+      <c r="E9" s="358"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="323">
+      <c r="M9" s="368">
         <v>0.8</v>
       </c>
-      <c r="N9" s="325" t="s">
+      <c r="N9" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="321"/>
-      <c r="P9" s="321"/>
-      <c r="Q9" s="378"/>
+      <c r="O9" s="366"/>
+      <c r="P9" s="366"/>
+      <c r="Q9" s="376"/>
       <c r="R9" s="246" t="s">
         <v>177</v>
       </c>
@@ -20555,7 +20555,7 @@
       <c r="Y9" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" s="399" t="s">
+      <c r="Z9" s="403" t="s">
         <v>4</v>
       </c>
       <c r="AA9" s="314"/>
@@ -21215,7 +21215,7 @@
       </c>
       <c r="Q16" s="251">
         <f t="shared" si="8"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="R16" s="248">
         <f t="shared" si="9"/>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="X16" s="133">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="40">
         <f t="shared" si="16"/>
@@ -21251,7 +21251,7 @@
       </c>
       <c r="Z16" s="46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="21">
         <f t="shared" si="18"/>
@@ -22082,7 +22082,7 @@
       </c>
       <c r="Q25" s="139">
         <f>IF(E25=0,"",SUM(G25,20,Z25)/E25)</f>
-        <v>0.48390342052313884</v>
+        <v>0.4859154929577465</v>
       </c>
       <c r="R25" s="250">
         <f t="shared" ref="R25:T25" si="28">SUM(R10:R24)</f>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="X25" s="141">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="142">
         <f t="shared" si="29"/>
@@ -22118,7 +22118,7 @@
       </c>
       <c r="Z25" s="253">
         <f t="shared" si="29"/>
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AA25" s="21"/>
     </row>
@@ -22129,38 +22129,38 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C27" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="343"/>
+      <c r="C27" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="319"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="342">
+      <c r="F27" s="318">
         <v>11</v>
       </c>
-      <c r="G27" s="343"/>
+      <c r="G27" s="319"/>
       <c r="H27" s="216"/>
-      <c r="I27" s="406">
+      <c r="I27" s="410">
         <v>12</v>
       </c>
-      <c r="J27" s="344"/>
-      <c r="K27" s="344"/>
-      <c r="L27" s="344"/>
-      <c r="M27" s="344"/>
-      <c r="N27" s="344"/>
-      <c r="O27" s="344"/>
-      <c r="P27" s="344"/>
-      <c r="Q27" s="344"/>
-      <c r="R27" s="344"/>
-      <c r="S27" s="343"/>
-      <c r="T27" s="381" t="s">
+      <c r="J27" s="330"/>
+      <c r="K27" s="330"/>
+      <c r="L27" s="330"/>
+      <c r="M27" s="330"/>
+      <c r="N27" s="330"/>
+      <c r="O27" s="330"/>
+      <c r="P27" s="330"/>
+      <c r="Q27" s="330"/>
+      <c r="R27" s="330"/>
+      <c r="S27" s="319"/>
+      <c r="T27" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C28" s="365" t="s">
+      <c r="C28" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="366"/>
+      <c r="D28" s="321"/>
       <c r="E28" s="78"/>
       <c r="F28" s="214">
         <v>44529</v>
@@ -22217,13 +22217,13 @@
         <f t="shared" si="30"/>
         <v>44542</v>
       </c>
-      <c r="T28" s="382"/>
+      <c r="T28" s="380"/>
     </row>
     <row r="29" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C29" s="393" t="s">
+      <c r="C29" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="394"/>
+      <c r="D29" s="397"/>
       <c r="E29" s="217"/>
       <c r="F29" s="218">
         <f t="shared" ref="F29:S29" si="31">WEEKDAY(F28)</f>
@@ -22281,13 +22281,13 @@
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="T29" s="382"/>
+      <c r="T29" s="380"/>
     </row>
     <row r="30" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C30" s="342" t="s">
+      <c r="C30" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="395" t="s">
+      <c r="D30" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="223" t="s">
@@ -22313,8 +22313,8 @@
       </c>
     </row>
     <row r="31" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C31" s="365"/>
-      <c r="D31" s="396"/>
+      <c r="C31" s="320"/>
+      <c r="D31" s="394"/>
       <c r="E31" s="224" t="s">
         <v>141</v>
       </c>
@@ -22338,8 +22338,8 @@
       </c>
     </row>
     <row r="32" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C32" s="365"/>
-      <c r="D32" s="396"/>
+      <c r="C32" s="320"/>
+      <c r="D32" s="394"/>
       <c r="E32" s="224" t="s">
         <v>134</v>
       </c>
@@ -22363,8 +22363,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C33" s="365"/>
-      <c r="D33" s="396"/>
+      <c r="C33" s="320"/>
+      <c r="D33" s="394"/>
       <c r="E33" s="224" t="s">
         <v>136</v>
       </c>
@@ -22388,8 +22388,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C34" s="365"/>
-      <c r="D34" s="396"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="394"/>
       <c r="E34" s="224" t="s">
         <v>139</v>
       </c>
@@ -22413,8 +22413,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C35" s="365"/>
-      <c r="D35" s="396"/>
+      <c r="C35" s="320"/>
+      <c r="D35" s="394"/>
       <c r="E35" s="224" t="s">
         <v>137</v>
       </c>
@@ -22438,8 +22438,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C36" s="365"/>
-      <c r="D36" s="396"/>
+      <c r="C36" s="320"/>
+      <c r="D36" s="394"/>
       <c r="E36" s="224" t="s">
         <v>133</v>
       </c>
@@ -22463,8 +22463,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C37" s="365"/>
-      <c r="D37" s="396"/>
+      <c r="C37" s="320"/>
+      <c r="D37" s="394"/>
       <c r="E37" s="224" t="s">
         <v>140</v>
       </c>
@@ -22488,8 +22488,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C38" s="365"/>
-      <c r="D38" s="396"/>
+      <c r="C38" s="320"/>
+      <c r="D38" s="394"/>
       <c r="E38" s="224" t="s">
         <v>138</v>
       </c>
@@ -22513,8 +22513,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C39" s="365"/>
-      <c r="D39" s="396"/>
+      <c r="C39" s="320"/>
+      <c r="D39" s="394"/>
       <c r="E39" s="224" t="s">
         <v>135</v>
       </c>
@@ -22538,8 +22538,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C40" s="365"/>
-      <c r="D40" s="396"/>
+      <c r="C40" s="320"/>
+      <c r="D40" s="394"/>
       <c r="E40" s="224" t="s">
         <v>158</v>
       </c>
@@ -22563,8 +22563,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C41" s="365"/>
-      <c r="D41" s="396"/>
+      <c r="C41" s="320"/>
+      <c r="D41" s="394"/>
       <c r="E41" s="224" t="s">
         <v>174</v>
       </c>
@@ -22588,8 +22588,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C42" s="365"/>
-      <c r="D42" s="396"/>
+      <c r="C42" s="320"/>
+      <c r="D42" s="394"/>
       <c r="E42" s="224" t="s">
         <v>175</v>
       </c>
@@ -22613,8 +22613,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C43" s="365"/>
-      <c r="D43" s="397"/>
+      <c r="C43" s="320"/>
+      <c r="D43" s="395"/>
       <c r="E43" s="225"/>
       <c r="F43" s="243"/>
       <c r="G43" s="244"/>
@@ -22636,8 +22636,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C44" s="365"/>
-      <c r="D44" s="395" t="s">
+      <c r="C44" s="320"/>
+      <c r="D44" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="223" t="s">
@@ -22663,8 +22663,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C45" s="365"/>
-      <c r="D45" s="396"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="394"/>
       <c r="E45" s="224" t="s">
         <v>141</v>
       </c>
@@ -22688,8 +22688,8 @@
       </c>
     </row>
     <row r="46" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C46" s="365"/>
-      <c r="D46" s="396"/>
+      <c r="C46" s="320"/>
+      <c r="D46" s="394"/>
       <c r="E46" s="224" t="s">
         <v>134</v>
       </c>
@@ -22715,8 +22715,8 @@
       </c>
     </row>
     <row r="47" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C47" s="365"/>
-      <c r="D47" s="396"/>
+      <c r="C47" s="320"/>
+      <c r="D47" s="394"/>
       <c r="E47" s="224" t="s">
         <v>136</v>
       </c>
@@ -22740,8 +22740,8 @@
       </c>
     </row>
     <row r="48" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C48" s="365"/>
-      <c r="D48" s="396"/>
+      <c r="C48" s="320"/>
+      <c r="D48" s="394"/>
       <c r="E48" s="224" t="s">
         <v>139</v>
       </c>
@@ -22765,8 +22765,8 @@
       </c>
     </row>
     <row r="49" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C49" s="365"/>
-      <c r="D49" s="396"/>
+      <c r="C49" s="320"/>
+      <c r="D49" s="394"/>
       <c r="E49" s="224" t="s">
         <v>137</v>
       </c>
@@ -22796,8 +22796,8 @@
       </c>
     </row>
     <row r="50" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C50" s="365"/>
-      <c r="D50" s="396"/>
+      <c r="C50" s="320"/>
+      <c r="D50" s="394"/>
       <c r="E50" s="224" t="s">
         <v>133</v>
       </c>
@@ -22821,8 +22821,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C51" s="365"/>
-      <c r="D51" s="396"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="394"/>
       <c r="E51" s="224" t="s">
         <v>140</v>
       </c>
@@ -22846,8 +22846,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C52" s="365"/>
-      <c r="D52" s="396"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="394"/>
       <c r="E52" s="224" t="s">
         <v>138</v>
       </c>
@@ -22871,8 +22871,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C53" s="365"/>
-      <c r="D53" s="396"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="394"/>
       <c r="E53" s="224" t="s">
         <v>135</v>
       </c>
@@ -22898,8 +22898,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C54" s="365"/>
-      <c r="D54" s="396"/>
+      <c r="C54" s="320"/>
+      <c r="D54" s="394"/>
       <c r="E54" s="224" t="s">
         <v>158</v>
       </c>
@@ -22925,8 +22925,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C55" s="365"/>
-      <c r="D55" s="396"/>
+      <c r="C55" s="320"/>
+      <c r="D55" s="394"/>
       <c r="E55" s="224" t="s">
         <v>174</v>
       </c>
@@ -22950,8 +22950,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C56" s="365"/>
-      <c r="D56" s="396"/>
+      <c r="C56" s="320"/>
+      <c r="D56" s="394"/>
       <c r="E56" s="224" t="s">
         <v>175</v>
       </c>
@@ -22975,8 +22975,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C57" s="367"/>
-      <c r="D57" s="397"/>
+      <c r="C57" s="322"/>
+      <c r="D57" s="395"/>
       <c r="E57" s="225" t="s">
         <v>186</v>
       </c>
@@ -23003,36 +23003,36 @@
     </row>
     <row r="58" spans="3:20" hidden="1" outlineLevel="1"/>
     <row r="59" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C59" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="343"/>
+      <c r="C59" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="319"/>
       <c r="E59" s="77"/>
-      <c r="F59" s="342">
+      <c r="F59" s="318">
         <v>12</v>
       </c>
-      <c r="G59" s="344"/>
-      <c r="H59" s="344"/>
-      <c r="I59" s="344"/>
-      <c r="J59" s="344"/>
-      <c r="K59" s="344"/>
-      <c r="L59" s="344"/>
-      <c r="M59" s="344"/>
-      <c r="N59" s="344"/>
-      <c r="O59" s="344"/>
-      <c r="P59" s="344"/>
-      <c r="Q59" s="344"/>
-      <c r="R59" s="344"/>
-      <c r="S59" s="343"/>
-      <c r="T59" s="381" t="s">
+      <c r="G59" s="330"/>
+      <c r="H59" s="330"/>
+      <c r="I59" s="330"/>
+      <c r="J59" s="330"/>
+      <c r="K59" s="330"/>
+      <c r="L59" s="330"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="330"/>
+      <c r="O59" s="330"/>
+      <c r="P59" s="330"/>
+      <c r="Q59" s="330"/>
+      <c r="R59" s="330"/>
+      <c r="S59" s="319"/>
+      <c r="T59" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C60" s="365" t="s">
+      <c r="C60" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="366"/>
+      <c r="D60" s="321"/>
       <c r="E60" s="78"/>
       <c r="F60" s="214">
         <f>S28+1</f>
@@ -23090,13 +23090,13 @@
         <f t="shared" si="33"/>
         <v>44556</v>
       </c>
-      <c r="T60" s="382"/>
+      <c r="T60" s="380"/>
     </row>
     <row r="61" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C61" s="393" t="s">
+      <c r="C61" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="394"/>
+      <c r="D61" s="397"/>
       <c r="E61" s="217"/>
       <c r="F61" s="218">
         <f t="shared" ref="F61" si="34">WEEKDAY(F60)</f>
@@ -23154,13 +23154,13 @@
         <f t="shared" ref="S61" si="47">WEEKDAY(S60)</f>
         <v>1</v>
       </c>
-      <c r="T61" s="382"/>
+      <c r="T61" s="380"/>
     </row>
     <row r="62" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C62" s="342" t="s">
+      <c r="C62" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="395" t="s">
+      <c r="D62" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="223" t="s">
@@ -23186,8 +23186,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C63" s="365"/>
-      <c r="D63" s="396"/>
+      <c r="C63" s="320"/>
+      <c r="D63" s="394"/>
       <c r="E63" s="224" t="s">
         <v>141</v>
       </c>
@@ -23211,8 +23211,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C64" s="365"/>
-      <c r="D64" s="396"/>
+      <c r="C64" s="320"/>
+      <c r="D64" s="394"/>
       <c r="E64" s="224" t="s">
         <v>134</v>
       </c>
@@ -23236,8 +23236,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C65" s="365"/>
-      <c r="D65" s="396"/>
+      <c r="C65" s="320"/>
+      <c r="D65" s="394"/>
       <c r="E65" s="224" t="s">
         <v>136</v>
       </c>
@@ -23261,8 +23261,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C66" s="365"/>
-      <c r="D66" s="396"/>
+      <c r="C66" s="320"/>
+      <c r="D66" s="394"/>
       <c r="E66" s="224" t="s">
         <v>139</v>
       </c>
@@ -23286,8 +23286,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C67" s="365"/>
-      <c r="D67" s="396"/>
+      <c r="C67" s="320"/>
+      <c r="D67" s="394"/>
       <c r="E67" s="224" t="s">
         <v>137</v>
       </c>
@@ -23311,8 +23311,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C68" s="365"/>
-      <c r="D68" s="396"/>
+      <c r="C68" s="320"/>
+      <c r="D68" s="394"/>
       <c r="E68" s="224" t="s">
         <v>133</v>
       </c>
@@ -23336,8 +23336,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C69" s="365"/>
-      <c r="D69" s="396"/>
+      <c r="C69" s="320"/>
+      <c r="D69" s="394"/>
       <c r="E69" s="224" t="s">
         <v>140</v>
       </c>
@@ -23361,8 +23361,8 @@
       </c>
     </row>
     <row r="70" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C70" s="365"/>
-      <c r="D70" s="396"/>
+      <c r="C70" s="320"/>
+      <c r="D70" s="394"/>
       <c r="E70" s="224" t="s">
         <v>138</v>
       </c>
@@ -23386,8 +23386,8 @@
       </c>
     </row>
     <row r="71" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C71" s="365"/>
-      <c r="D71" s="396"/>
+      <c r="C71" s="320"/>
+      <c r="D71" s="394"/>
       <c r="E71" s="224" t="s">
         <v>135</v>
       </c>
@@ -23411,8 +23411,8 @@
       </c>
     </row>
     <row r="72" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C72" s="365"/>
-      <c r="D72" s="396"/>
+      <c r="C72" s="320"/>
+      <c r="D72" s="394"/>
       <c r="E72" s="224" t="s">
         <v>158</v>
       </c>
@@ -23436,8 +23436,8 @@
       </c>
     </row>
     <row r="73" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C73" s="365"/>
-      <c r="D73" s="396"/>
+      <c r="C73" s="320"/>
+      <c r="D73" s="394"/>
       <c r="E73" s="224" t="s">
         <v>174</v>
       </c>
@@ -23461,8 +23461,8 @@
       </c>
     </row>
     <row r="74" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C74" s="365"/>
-      <c r="D74" s="396"/>
+      <c r="C74" s="320"/>
+      <c r="D74" s="394"/>
       <c r="E74" s="224" t="s">
         <v>175</v>
       </c>
@@ -23486,8 +23486,8 @@
       </c>
     </row>
     <row r="75" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C75" s="365"/>
-      <c r="D75" s="397"/>
+      <c r="C75" s="320"/>
+      <c r="D75" s="395"/>
       <c r="E75" s="225"/>
       <c r="F75" s="243"/>
       <c r="G75" s="244"/>
@@ -23509,8 +23509,8 @@
       </c>
     </row>
     <row r="76" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C76" s="365"/>
-      <c r="D76" s="395" t="s">
+      <c r="C76" s="320"/>
+      <c r="D76" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="223" t="s">
@@ -23538,8 +23538,8 @@
       </c>
     </row>
     <row r="77" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C77" s="365"/>
-      <c r="D77" s="396"/>
+      <c r="C77" s="320"/>
+      <c r="D77" s="394"/>
       <c r="E77" s="224" t="s">
         <v>141</v>
       </c>
@@ -23563,8 +23563,8 @@
       </c>
     </row>
     <row r="78" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C78" s="365"/>
-      <c r="D78" s="396"/>
+      <c r="C78" s="320"/>
+      <c r="D78" s="394"/>
       <c r="E78" s="224" t="s">
         <v>134</v>
       </c>
@@ -23588,8 +23588,8 @@
       </c>
     </row>
     <row r="79" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C79" s="365"/>
-      <c r="D79" s="396"/>
+      <c r="C79" s="320"/>
+      <c r="D79" s="394"/>
       <c r="E79" s="224" t="s">
         <v>136</v>
       </c>
@@ -23617,8 +23617,8 @@
       </c>
     </row>
     <row r="80" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C80" s="365"/>
-      <c r="D80" s="396"/>
+      <c r="C80" s="320"/>
+      <c r="D80" s="394"/>
       <c r="E80" s="224" t="s">
         <v>139</v>
       </c>
@@ -23642,8 +23642,8 @@
       </c>
     </row>
     <row r="81" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C81" s="365"/>
-      <c r="D81" s="396"/>
+      <c r="C81" s="320"/>
+      <c r="D81" s="394"/>
       <c r="E81" s="224" t="s">
         <v>137</v>
       </c>
@@ -23667,8 +23667,8 @@
       </c>
     </row>
     <row r="82" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C82" s="365"/>
-      <c r="D82" s="396"/>
+      <c r="C82" s="320"/>
+      <c r="D82" s="394"/>
       <c r="E82" s="224" t="s">
         <v>133</v>
       </c>
@@ -23692,8 +23692,8 @@
       </c>
     </row>
     <row r="83" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C83" s="365"/>
-      <c r="D83" s="396"/>
+      <c r="C83" s="320"/>
+      <c r="D83" s="394"/>
       <c r="E83" s="224" t="s">
         <v>140</v>
       </c>
@@ -23717,8 +23717,8 @@
       </c>
     </row>
     <row r="84" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C84" s="365"/>
-      <c r="D84" s="396"/>
+      <c r="C84" s="320"/>
+      <c r="D84" s="394"/>
       <c r="E84" s="224" t="s">
         <v>138</v>
       </c>
@@ -23742,8 +23742,8 @@
       </c>
     </row>
     <row r="85" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C85" s="365"/>
-      <c r="D85" s="396"/>
+      <c r="C85" s="320"/>
+      <c r="D85" s="394"/>
       <c r="E85" s="224" t="s">
         <v>135</v>
       </c>
@@ -23775,8 +23775,8 @@
       </c>
     </row>
     <row r="86" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C86" s="365"/>
-      <c r="D86" s="396"/>
+      <c r="C86" s="320"/>
+      <c r="D86" s="394"/>
       <c r="E86" s="224" t="s">
         <v>158</v>
       </c>
@@ -23802,8 +23802,8 @@
       </c>
     </row>
     <row r="87" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C87" s="365"/>
-      <c r="D87" s="396"/>
+      <c r="C87" s="320"/>
+      <c r="D87" s="394"/>
       <c r="E87" s="224" t="s">
         <v>174</v>
       </c>
@@ -23835,8 +23835,8 @@
       </c>
     </row>
     <row r="88" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C88" s="365"/>
-      <c r="D88" s="396"/>
+      <c r="C88" s="320"/>
+      <c r="D88" s="394"/>
       <c r="E88" s="224" t="s">
         <v>175</v>
       </c>
@@ -23860,8 +23860,8 @@
       </c>
     </row>
     <row r="89" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C89" s="367"/>
-      <c r="D89" s="397"/>
+      <c r="C89" s="322"/>
+      <c r="D89" s="395"/>
       <c r="E89" s="225"/>
       <c r="F89" s="234"/>
       <c r="G89" s="235"/>
@@ -23884,38 +23884,38 @@
     </row>
     <row r="90" spans="3:20" hidden="1" outlineLevel="1"/>
     <row r="91" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C91" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="343"/>
+      <c r="C91" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="319"/>
       <c r="E91" s="77"/>
-      <c r="F91" s="342">
+      <c r="F91" s="318">
         <v>12</v>
       </c>
-      <c r="G91" s="344"/>
-      <c r="H91" s="344"/>
-      <c r="I91" s="344"/>
-      <c r="J91" s="344"/>
-      <c r="K91" s="344">
+      <c r="G91" s="330"/>
+      <c r="H91" s="330"/>
+      <c r="I91" s="330"/>
+      <c r="J91" s="330"/>
+      <c r="K91" s="330">
         <v>1</v>
       </c>
-      <c r="L91" s="344"/>
-      <c r="M91" s="344"/>
-      <c r="N91" s="344"/>
-      <c r="O91" s="344"/>
-      <c r="P91" s="344"/>
-      <c r="Q91" s="344"/>
-      <c r="R91" s="344"/>
-      <c r="S91" s="343"/>
-      <c r="T91" s="381" t="s">
+      <c r="L91" s="330"/>
+      <c r="M91" s="330"/>
+      <c r="N91" s="330"/>
+      <c r="O91" s="330"/>
+      <c r="P91" s="330"/>
+      <c r="Q91" s="330"/>
+      <c r="R91" s="330"/>
+      <c r="S91" s="319"/>
+      <c r="T91" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="92" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C92" s="365" t="s">
+      <c r="C92" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="366"/>
+      <c r="D92" s="321"/>
       <c r="E92" s="78"/>
       <c r="F92" s="214">
         <f>S60+1</f>
@@ -23973,13 +23973,13 @@
         <f t="shared" si="49"/>
         <v>44570</v>
       </c>
-      <c r="T92" s="382"/>
+      <c r="T92" s="380"/>
     </row>
     <row r="93" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C93" s="393" t="s">
+      <c r="C93" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="394"/>
+      <c r="D93" s="397"/>
       <c r="E93" s="217"/>
       <c r="F93" s="218">
         <f t="shared" ref="F93" si="50">WEEKDAY(F92)</f>
@@ -24037,13 +24037,13 @@
         <f t="shared" ref="S93" si="63">WEEKDAY(S92)</f>
         <v>1</v>
       </c>
-      <c r="T93" s="382"/>
+      <c r="T93" s="380"/>
     </row>
     <row r="94" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C94" s="342" t="s">
+      <c r="C94" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="395" t="s">
+      <c r="D94" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="223" t="s">
@@ -24069,8 +24069,8 @@
       </c>
     </row>
     <row r="95" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C95" s="365"/>
-      <c r="D95" s="396"/>
+      <c r="C95" s="320"/>
+      <c r="D95" s="394"/>
       <c r="E95" s="224" t="s">
         <v>141</v>
       </c>
@@ -24094,8 +24094,8 @@
       </c>
     </row>
     <row r="96" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C96" s="365"/>
-      <c r="D96" s="396"/>
+      <c r="C96" s="320"/>
+      <c r="D96" s="394"/>
       <c r="E96" s="224" t="s">
         <v>134</v>
       </c>
@@ -24119,8 +24119,8 @@
       </c>
     </row>
     <row r="97" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C97" s="365"/>
-      <c r="D97" s="396"/>
+      <c r="C97" s="320"/>
+      <c r="D97" s="394"/>
       <c r="E97" s="224" t="s">
         <v>136</v>
       </c>
@@ -24144,8 +24144,8 @@
       </c>
     </row>
     <row r="98" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C98" s="365"/>
-      <c r="D98" s="396"/>
+      <c r="C98" s="320"/>
+      <c r="D98" s="394"/>
       <c r="E98" s="224" t="s">
         <v>139</v>
       </c>
@@ -24169,8 +24169,8 @@
       </c>
     </row>
     <row r="99" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C99" s="365"/>
-      <c r="D99" s="396"/>
+      <c r="C99" s="320"/>
+      <c r="D99" s="394"/>
       <c r="E99" s="224" t="s">
         <v>137</v>
       </c>
@@ -24194,8 +24194,8 @@
       </c>
     </row>
     <row r="100" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C100" s="365"/>
-      <c r="D100" s="396"/>
+      <c r="C100" s="320"/>
+      <c r="D100" s="394"/>
       <c r="E100" s="224" t="s">
         <v>133</v>
       </c>
@@ -24219,8 +24219,8 @@
       </c>
     </row>
     <row r="101" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C101" s="365"/>
-      <c r="D101" s="396"/>
+      <c r="C101" s="320"/>
+      <c r="D101" s="394"/>
       <c r="E101" s="224" t="s">
         <v>140</v>
       </c>
@@ -24244,8 +24244,8 @@
       </c>
     </row>
     <row r="102" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C102" s="365"/>
-      <c r="D102" s="396"/>
+      <c r="C102" s="320"/>
+      <c r="D102" s="394"/>
       <c r="E102" s="224" t="s">
         <v>138</v>
       </c>
@@ -24269,8 +24269,8 @@
       </c>
     </row>
     <row r="103" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C103" s="365"/>
-      <c r="D103" s="396"/>
+      <c r="C103" s="320"/>
+      <c r="D103" s="394"/>
       <c r="E103" s="224" t="s">
         <v>135</v>
       </c>
@@ -24294,8 +24294,8 @@
       </c>
     </row>
     <row r="104" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C104" s="365"/>
-      <c r="D104" s="396"/>
+      <c r="C104" s="320"/>
+      <c r="D104" s="394"/>
       <c r="E104" s="224" t="s">
         <v>158</v>
       </c>
@@ -24319,8 +24319,8 @@
       </c>
     </row>
     <row r="105" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C105" s="365"/>
-      <c r="D105" s="396"/>
+      <c r="C105" s="320"/>
+      <c r="D105" s="394"/>
       <c r="E105" s="224" t="s">
         <v>174</v>
       </c>
@@ -24344,8 +24344,8 @@
       </c>
     </row>
     <row r="106" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C106" s="365"/>
-      <c r="D106" s="396"/>
+      <c r="C106" s="320"/>
+      <c r="D106" s="394"/>
       <c r="E106" s="224" t="s">
         <v>175</v>
       </c>
@@ -24369,8 +24369,8 @@
       </c>
     </row>
     <row r="107" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C107" s="365"/>
-      <c r="D107" s="397"/>
+      <c r="C107" s="320"/>
+      <c r="D107" s="395"/>
       <c r="E107" s="225"/>
       <c r="F107" s="243"/>
       <c r="G107" s="244"/>
@@ -24392,8 +24392,8 @@
       </c>
     </row>
     <row r="108" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C108" s="365"/>
-      <c r="D108" s="395" t="s">
+      <c r="C108" s="320"/>
+      <c r="D108" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="223" t="s">
@@ -24421,8 +24421,8 @@
       </c>
     </row>
     <row r="109" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C109" s="365"/>
-      <c r="D109" s="396"/>
+      <c r="C109" s="320"/>
+      <c r="D109" s="394"/>
       <c r="E109" s="224" t="s">
         <v>141</v>
       </c>
@@ -24448,8 +24448,8 @@
       </c>
     </row>
     <row r="110" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C110" s="365"/>
-      <c r="D110" s="396"/>
+      <c r="C110" s="320"/>
+      <c r="D110" s="394"/>
       <c r="E110" s="224" t="s">
         <v>134</v>
       </c>
@@ -24473,8 +24473,8 @@
       </c>
     </row>
     <row r="111" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C111" s="365"/>
-      <c r="D111" s="396"/>
+      <c r="C111" s="320"/>
+      <c r="D111" s="394"/>
       <c r="E111" s="224" t="s">
         <v>136</v>
       </c>
@@ -24502,8 +24502,8 @@
       </c>
     </row>
     <row r="112" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C112" s="365"/>
-      <c r="D112" s="396"/>
+      <c r="C112" s="320"/>
+      <c r="D112" s="394"/>
       <c r="E112" s="224" t="s">
         <v>139</v>
       </c>
@@ -24527,8 +24527,8 @@
       </c>
     </row>
     <row r="113" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C113" s="365"/>
-      <c r="D113" s="396"/>
+      <c r="C113" s="320"/>
+      <c r="D113" s="394"/>
       <c r="E113" s="224" t="s">
         <v>137</v>
       </c>
@@ -24552,8 +24552,8 @@
       </c>
     </row>
     <row r="114" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C114" s="365"/>
-      <c r="D114" s="396"/>
+      <c r="C114" s="320"/>
+      <c r="D114" s="394"/>
       <c r="E114" s="224" t="s">
         <v>133</v>
       </c>
@@ -24577,8 +24577,8 @@
       </c>
     </row>
     <row r="115" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C115" s="365"/>
-      <c r="D115" s="396"/>
+      <c r="C115" s="320"/>
+      <c r="D115" s="394"/>
       <c r="E115" s="224" t="s">
         <v>140</v>
       </c>
@@ -24602,8 +24602,8 @@
       </c>
     </row>
     <row r="116" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C116" s="365"/>
-      <c r="D116" s="396"/>
+      <c r="C116" s="320"/>
+      <c r="D116" s="394"/>
       <c r="E116" s="224" t="s">
         <v>138</v>
       </c>
@@ -24627,8 +24627,8 @@
       </c>
     </row>
     <row r="117" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C117" s="365"/>
-      <c r="D117" s="396"/>
+      <c r="C117" s="320"/>
+      <c r="D117" s="394"/>
       <c r="E117" s="224" t="s">
         <v>135</v>
       </c>
@@ -24652,8 +24652,8 @@
       </c>
     </row>
     <row r="118" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C118" s="365"/>
-      <c r="D118" s="396"/>
+      <c r="C118" s="320"/>
+      <c r="D118" s="394"/>
       <c r="E118" s="224" t="s">
         <v>158</v>
       </c>
@@ -24677,8 +24677,8 @@
       </c>
     </row>
     <row r="119" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C119" s="365"/>
-      <c r="D119" s="396"/>
+      <c r="C119" s="320"/>
+      <c r="D119" s="394"/>
       <c r="E119" s="224" t="s">
         <v>174</v>
       </c>
@@ -24702,8 +24702,8 @@
       </c>
     </row>
     <row r="120" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C120" s="365"/>
-      <c r="D120" s="396"/>
+      <c r="C120" s="320"/>
+      <c r="D120" s="394"/>
       <c r="E120" s="224" t="s">
         <v>175</v>
       </c>
@@ -24727,8 +24727,8 @@
       </c>
     </row>
     <row r="121" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C121" s="367"/>
-      <c r="D121" s="397"/>
+      <c r="C121" s="322"/>
+      <c r="D121" s="395"/>
       <c r="E121" s="225"/>
       <c r="F121" s="234"/>
       <c r="G121" s="235"/>
@@ -24751,36 +24751,36 @@
     </row>
     <row r="122" spans="3:20" hidden="1" outlineLevel="1"/>
     <row r="123" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C123" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="343"/>
+      <c r="C123" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="319"/>
       <c r="E123" s="77"/>
-      <c r="F123" s="342">
+      <c r="F123" s="318">
         <v>1</v>
       </c>
-      <c r="G123" s="344"/>
-      <c r="H123" s="344"/>
-      <c r="I123" s="344"/>
-      <c r="J123" s="344"/>
-      <c r="K123" s="344"/>
-      <c r="L123" s="344"/>
-      <c r="M123" s="344"/>
-      <c r="N123" s="344"/>
-      <c r="O123" s="344"/>
-      <c r="P123" s="344"/>
-      <c r="Q123" s="344"/>
-      <c r="R123" s="344"/>
-      <c r="S123" s="343"/>
-      <c r="T123" s="381" t="s">
+      <c r="G123" s="330"/>
+      <c r="H123" s="330"/>
+      <c r="I123" s="330"/>
+      <c r="J123" s="330"/>
+      <c r="K123" s="330"/>
+      <c r="L123" s="330"/>
+      <c r="M123" s="330"/>
+      <c r="N123" s="330"/>
+      <c r="O123" s="330"/>
+      <c r="P123" s="330"/>
+      <c r="Q123" s="330"/>
+      <c r="R123" s="330"/>
+      <c r="S123" s="319"/>
+      <c r="T123" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="124" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C124" s="365" t="s">
+      <c r="C124" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D124" s="366"/>
+      <c r="D124" s="321"/>
       <c r="E124" s="78"/>
       <c r="F124" s="214">
         <f>S92+1</f>
@@ -24838,13 +24838,13 @@
         <f t="shared" si="65"/>
         <v>44584</v>
       </c>
-      <c r="T124" s="382"/>
+      <c r="T124" s="380"/>
     </row>
     <row r="125" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C125" s="393" t="s">
+      <c r="C125" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="394"/>
+      <c r="D125" s="397"/>
       <c r="E125" s="217"/>
       <c r="F125" s="218">
         <f t="shared" ref="F125" si="66">WEEKDAY(F124)</f>
@@ -24902,13 +24902,13 @@
         <f t="shared" ref="S125" si="79">WEEKDAY(S124)</f>
         <v>1</v>
       </c>
-      <c r="T125" s="382"/>
+      <c r="T125" s="380"/>
     </row>
     <row r="126" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C126" s="342" t="s">
+      <c r="C126" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D126" s="395" t="s">
+      <c r="D126" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E126" s="223" t="s">
@@ -24934,8 +24934,8 @@
       </c>
     </row>
     <row r="127" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C127" s="365"/>
-      <c r="D127" s="396"/>
+      <c r="C127" s="320"/>
+      <c r="D127" s="394"/>
       <c r="E127" s="224" t="s">
         <v>141</v>
       </c>
@@ -24959,8 +24959,8 @@
       </c>
     </row>
     <row r="128" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C128" s="365"/>
-      <c r="D128" s="396"/>
+      <c r="C128" s="320"/>
+      <c r="D128" s="394"/>
       <c r="E128" s="224" t="s">
         <v>134</v>
       </c>
@@ -24984,8 +24984,8 @@
       </c>
     </row>
     <row r="129" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C129" s="365"/>
-      <c r="D129" s="396"/>
+      <c r="C129" s="320"/>
+      <c r="D129" s="394"/>
       <c r="E129" s="224" t="s">
         <v>136</v>
       </c>
@@ -25009,8 +25009,8 @@
       </c>
     </row>
     <row r="130" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C130" s="365"/>
-      <c r="D130" s="396"/>
+      <c r="C130" s="320"/>
+      <c r="D130" s="394"/>
       <c r="E130" s="224" t="s">
         <v>139</v>
       </c>
@@ -25034,8 +25034,8 @@
       </c>
     </row>
     <row r="131" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C131" s="365"/>
-      <c r="D131" s="396"/>
+      <c r="C131" s="320"/>
+      <c r="D131" s="394"/>
       <c r="E131" s="224" t="s">
         <v>137</v>
       </c>
@@ -25059,8 +25059,8 @@
       </c>
     </row>
     <row r="132" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C132" s="365"/>
-      <c r="D132" s="396"/>
+      <c r="C132" s="320"/>
+      <c r="D132" s="394"/>
       <c r="E132" s="224" t="s">
         <v>133</v>
       </c>
@@ -25084,8 +25084,8 @@
       </c>
     </row>
     <row r="133" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C133" s="365"/>
-      <c r="D133" s="396"/>
+      <c r="C133" s="320"/>
+      <c r="D133" s="394"/>
       <c r="E133" s="224" t="s">
         <v>140</v>
       </c>
@@ -25109,8 +25109,8 @@
       </c>
     </row>
     <row r="134" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C134" s="365"/>
-      <c r="D134" s="396"/>
+      <c r="C134" s="320"/>
+      <c r="D134" s="394"/>
       <c r="E134" s="224" t="s">
         <v>138</v>
       </c>
@@ -25134,8 +25134,8 @@
       </c>
     </row>
     <row r="135" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C135" s="365"/>
-      <c r="D135" s="396"/>
+      <c r="C135" s="320"/>
+      <c r="D135" s="394"/>
       <c r="E135" s="224" t="s">
         <v>135</v>
       </c>
@@ -25159,8 +25159,8 @@
       </c>
     </row>
     <row r="136" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C136" s="365"/>
-      <c r="D136" s="396"/>
+      <c r="C136" s="320"/>
+      <c r="D136" s="394"/>
       <c r="E136" s="224" t="s">
         <v>158</v>
       </c>
@@ -25184,8 +25184,8 @@
       </c>
     </row>
     <row r="137" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C137" s="365"/>
-      <c r="D137" s="396"/>
+      <c r="C137" s="320"/>
+      <c r="D137" s="394"/>
       <c r="E137" s="224" t="s">
         <v>174</v>
       </c>
@@ -25209,8 +25209,8 @@
       </c>
     </row>
     <row r="138" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C138" s="365"/>
-      <c r="D138" s="396"/>
+      <c r="C138" s="320"/>
+      <c r="D138" s="394"/>
       <c r="E138" s="224" t="s">
         <v>175</v>
       </c>
@@ -25234,8 +25234,8 @@
       </c>
     </row>
     <row r="139" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C139" s="365"/>
-      <c r="D139" s="397"/>
+      <c r="C139" s="320"/>
+      <c r="D139" s="395"/>
       <c r="E139" s="225"/>
       <c r="F139" s="243"/>
       <c r="G139" s="244"/>
@@ -25257,8 +25257,8 @@
       </c>
     </row>
     <row r="140" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C140" s="365"/>
-      <c r="D140" s="395" t="s">
+      <c r="C140" s="320"/>
+      <c r="D140" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="223" t="s">
@@ -25284,8 +25284,8 @@
       </c>
     </row>
     <row r="141" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C141" s="365"/>
-      <c r="D141" s="396"/>
+      <c r="C141" s="320"/>
+      <c r="D141" s="394"/>
       <c r="E141" s="224" t="s">
         <v>141</v>
       </c>
@@ -25309,8 +25309,8 @@
       </c>
     </row>
     <row r="142" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C142" s="365"/>
-      <c r="D142" s="396"/>
+      <c r="C142" s="320"/>
+      <c r="D142" s="394"/>
       <c r="E142" s="224" t="s">
         <v>134</v>
       </c>
@@ -25334,8 +25334,8 @@
       </c>
     </row>
     <row r="143" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C143" s="365"/>
-      <c r="D143" s="396"/>
+      <c r="C143" s="320"/>
+      <c r="D143" s="394"/>
       <c r="E143" s="224" t="s">
         <v>136</v>
       </c>
@@ -25359,8 +25359,8 @@
       </c>
     </row>
     <row r="144" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C144" s="365"/>
-      <c r="D144" s="396"/>
+      <c r="C144" s="320"/>
+      <c r="D144" s="394"/>
       <c r="E144" s="224" t="s">
         <v>139</v>
       </c>
@@ -25384,8 +25384,8 @@
       </c>
     </row>
     <row r="145" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C145" s="365"/>
-      <c r="D145" s="396"/>
+      <c r="C145" s="320"/>
+      <c r="D145" s="394"/>
       <c r="E145" s="224" t="s">
         <v>137</v>
       </c>
@@ -25411,8 +25411,8 @@
       </c>
     </row>
     <row r="146" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C146" s="365"/>
-      <c r="D146" s="396"/>
+      <c r="C146" s="320"/>
+      <c r="D146" s="394"/>
       <c r="E146" s="224" t="s">
         <v>133</v>
       </c>
@@ -25436,8 +25436,8 @@
       </c>
     </row>
     <row r="147" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C147" s="365"/>
-      <c r="D147" s="396"/>
+      <c r="C147" s="320"/>
+      <c r="D147" s="394"/>
       <c r="E147" s="224" t="s">
         <v>140</v>
       </c>
@@ -25461,8 +25461,8 @@
       </c>
     </row>
     <row r="148" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C148" s="365"/>
-      <c r="D148" s="396"/>
+      <c r="C148" s="320"/>
+      <c r="D148" s="394"/>
       <c r="E148" s="224" t="s">
         <v>138</v>
       </c>
@@ -25486,8 +25486,8 @@
       </c>
     </row>
     <row r="149" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C149" s="365"/>
-      <c r="D149" s="396"/>
+      <c r="C149" s="320"/>
+      <c r="D149" s="394"/>
       <c r="E149" s="224" t="s">
         <v>135</v>
       </c>
@@ -25511,8 +25511,8 @@
       </c>
     </row>
     <row r="150" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C150" s="365"/>
-      <c r="D150" s="396"/>
+      <c r="C150" s="320"/>
+      <c r="D150" s="394"/>
       <c r="E150" s="224" t="s">
         <v>158</v>
       </c>
@@ -25536,8 +25536,8 @@
       </c>
     </row>
     <row r="151" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C151" s="365"/>
-      <c r="D151" s="396"/>
+      <c r="C151" s="320"/>
+      <c r="D151" s="394"/>
       <c r="E151" s="224" t="s">
         <v>174</v>
       </c>
@@ -25561,8 +25561,8 @@
       </c>
     </row>
     <row r="152" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C152" s="365"/>
-      <c r="D152" s="396"/>
+      <c r="C152" s="320"/>
+      <c r="D152" s="394"/>
       <c r="E152" s="224" t="s">
         <v>175</v>
       </c>
@@ -25586,8 +25586,8 @@
       </c>
     </row>
     <row r="153" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C153" s="367"/>
-      <c r="D153" s="397"/>
+      <c r="C153" s="322"/>
+      <c r="D153" s="395"/>
       <c r="E153" s="225"/>
       <c r="F153" s="234"/>
       <c r="G153" s="235"/>
@@ -25610,38 +25610,38 @@
     </row>
     <row r="154" spans="3:20" collapsed="1"/>
     <row r="155" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C155" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="343"/>
+      <c r="C155" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="319"/>
       <c r="E155" s="77"/>
-      <c r="F155" s="342">
+      <c r="F155" s="318">
         <v>1</v>
       </c>
-      <c r="G155" s="344"/>
-      <c r="H155" s="344"/>
-      <c r="I155" s="344"/>
-      <c r="J155" s="344"/>
-      <c r="K155" s="344"/>
-      <c r="L155" s="344"/>
-      <c r="M155" s="344"/>
-      <c r="N155" s="344">
+      <c r="G155" s="330"/>
+      <c r="H155" s="330"/>
+      <c r="I155" s="330"/>
+      <c r="J155" s="330"/>
+      <c r="K155" s="330"/>
+      <c r="L155" s="330"/>
+      <c r="M155" s="330"/>
+      <c r="N155" s="330">
         <v>2</v>
       </c>
-      <c r="O155" s="344"/>
-      <c r="P155" s="344"/>
-      <c r="Q155" s="344"/>
-      <c r="R155" s="344"/>
-      <c r="S155" s="343"/>
-      <c r="T155" s="381" t="s">
+      <c r="O155" s="330"/>
+      <c r="P155" s="330"/>
+      <c r="Q155" s="330"/>
+      <c r="R155" s="330"/>
+      <c r="S155" s="319"/>
+      <c r="T155" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="156" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C156" s="365" t="s">
+      <c r="C156" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="366"/>
+      <c r="D156" s="321"/>
       <c r="E156" s="78"/>
       <c r="F156" s="214">
         <f>S124+1</f>
@@ -25699,13 +25699,13 @@
         <f t="shared" si="81"/>
         <v>44598</v>
       </c>
-      <c r="T156" s="382"/>
+      <c r="T156" s="380"/>
     </row>
     <row r="157" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C157" s="393" t="s">
+      <c r="C157" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="394"/>
+      <c r="D157" s="397"/>
       <c r="E157" s="217"/>
       <c r="F157" s="218">
         <f t="shared" ref="F157" si="82">WEEKDAY(F156)</f>
@@ -25763,13 +25763,13 @@
         <f t="shared" ref="S157" si="95">WEEKDAY(S156)</f>
         <v>1</v>
       </c>
-      <c r="T157" s="382"/>
+      <c r="T157" s="380"/>
     </row>
     <row r="158" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C158" s="342" t="s">
+      <c r="C158" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D158" s="395" t="s">
+      <c r="D158" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E158" s="223" t="s">
@@ -25795,8 +25795,8 @@
       </c>
     </row>
     <row r="159" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C159" s="365"/>
-      <c r="D159" s="396"/>
+      <c r="C159" s="320"/>
+      <c r="D159" s="394"/>
       <c r="E159" s="224" t="s">
         <v>141</v>
       </c>
@@ -25826,8 +25826,8 @@
       </c>
     </row>
     <row r="160" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C160" s="365"/>
-      <c r="D160" s="396"/>
+      <c r="C160" s="320"/>
+      <c r="D160" s="394"/>
       <c r="E160" s="224" t="s">
         <v>134</v>
       </c>
@@ -25851,8 +25851,8 @@
       </c>
     </row>
     <row r="161" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C161" s="365"/>
-      <c r="D161" s="396"/>
+      <c r="C161" s="320"/>
+      <c r="D161" s="394"/>
       <c r="E161" s="224" t="s">
         <v>136</v>
       </c>
@@ -25886,8 +25886,8 @@
       </c>
     </row>
     <row r="162" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C162" s="365"/>
-      <c r="D162" s="396"/>
+      <c r="C162" s="320"/>
+      <c r="D162" s="394"/>
       <c r="E162" s="285" t="s">
         <v>139</v>
       </c>
@@ -25919,8 +25919,8 @@
       </c>
     </row>
     <row r="163" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C163" s="365"/>
-      <c r="D163" s="396"/>
+      <c r="C163" s="320"/>
+      <c r="D163" s="394"/>
       <c r="E163" s="280" t="s">
         <v>137</v>
       </c>
@@ -25952,8 +25952,8 @@
       </c>
     </row>
     <row r="164" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C164" s="365"/>
-      <c r="D164" s="396"/>
+      <c r="C164" s="320"/>
+      <c r="D164" s="394"/>
       <c r="E164" s="224" t="s">
         <v>133</v>
       </c>
@@ -25977,8 +25977,8 @@
       </c>
     </row>
     <row r="165" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C165" s="365"/>
-      <c r="D165" s="396"/>
+      <c r="C165" s="320"/>
+      <c r="D165" s="394"/>
       <c r="E165" s="224" t="s">
         <v>140</v>
       </c>
@@ -26002,8 +26002,8 @@
       </c>
     </row>
     <row r="166" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C166" s="365"/>
-      <c r="D166" s="396"/>
+      <c r="C166" s="320"/>
+      <c r="D166" s="394"/>
       <c r="E166" s="224" t="s">
         <v>138</v>
       </c>
@@ -26027,8 +26027,8 @@
       </c>
     </row>
     <row r="167" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C167" s="365"/>
-      <c r="D167" s="396"/>
+      <c r="C167" s="320"/>
+      <c r="D167" s="394"/>
       <c r="E167" s="285" t="s">
         <v>135</v>
       </c>
@@ -26054,8 +26054,8 @@
       </c>
     </row>
     <row r="168" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C168" s="365"/>
-      <c r="D168" s="396"/>
+      <c r="C168" s="320"/>
+      <c r="D168" s="394"/>
       <c r="E168" s="280" t="s">
         <v>158</v>
       </c>
@@ -26079,8 +26079,8 @@
       </c>
     </row>
     <row r="169" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C169" s="365"/>
-      <c r="D169" s="396"/>
+      <c r="C169" s="320"/>
+      <c r="D169" s="394"/>
       <c r="E169" s="224" t="s">
         <v>174</v>
       </c>
@@ -26104,8 +26104,8 @@
       </c>
     </row>
     <row r="170" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C170" s="365"/>
-      <c r="D170" s="396"/>
+      <c r="C170" s="320"/>
+      <c r="D170" s="394"/>
       <c r="E170" s="224" t="s">
         <v>175</v>
       </c>
@@ -26135,8 +26135,8 @@
       </c>
     </row>
     <row r="171" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C171" s="365"/>
-      <c r="D171" s="397"/>
+      <c r="C171" s="320"/>
+      <c r="D171" s="395"/>
       <c r="E171" s="225"/>
       <c r="F171" s="243"/>
       <c r="G171" s="244"/>
@@ -26158,8 +26158,8 @@
       </c>
     </row>
     <row r="172" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C172" s="365"/>
-      <c r="D172" s="395" t="s">
+      <c r="C172" s="320"/>
+      <c r="D172" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E172" s="223" t="s">
@@ -26185,8 +26185,8 @@
       </c>
     </row>
     <row r="173" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C173" s="365"/>
-      <c r="D173" s="396"/>
+      <c r="C173" s="320"/>
+      <c r="D173" s="394"/>
       <c r="E173" s="224" t="s">
         <v>141</v>
       </c>
@@ -26210,8 +26210,8 @@
       </c>
     </row>
     <row r="174" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C174" s="365"/>
-      <c r="D174" s="396"/>
+      <c r="C174" s="320"/>
+      <c r="D174" s="394"/>
       <c r="E174" s="224" t="s">
         <v>134</v>
       </c>
@@ -26235,8 +26235,8 @@
       </c>
     </row>
     <row r="175" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C175" s="365"/>
-      <c r="D175" s="396"/>
+      <c r="C175" s="320"/>
+      <c r="D175" s="394"/>
       <c r="E175" s="224" t="s">
         <v>136</v>
       </c>
@@ -26268,8 +26268,8 @@
       </c>
     </row>
     <row r="176" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C176" s="365"/>
-      <c r="D176" s="396"/>
+      <c r="C176" s="320"/>
+      <c r="D176" s="394"/>
       <c r="E176" s="285" t="s">
         <v>139</v>
       </c>
@@ -26295,8 +26295,8 @@
       </c>
     </row>
     <row r="177" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C177" s="365"/>
-      <c r="D177" s="396"/>
+      <c r="C177" s="320"/>
+      <c r="D177" s="394"/>
       <c r="E177" s="280" t="s">
         <v>137</v>
       </c>
@@ -26322,8 +26322,8 @@
       </c>
     </row>
     <row r="178" spans="3:20" ht="12.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C178" s="365"/>
-      <c r="D178" s="396"/>
+      <c r="C178" s="320"/>
+      <c r="D178" s="394"/>
       <c r="E178" s="224" t="s">
         <v>133</v>
       </c>
@@ -26347,8 +26347,8 @@
       </c>
     </row>
     <row r="179" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C179" s="365"/>
-      <c r="D179" s="396"/>
+      <c r="C179" s="320"/>
+      <c r="D179" s="394"/>
       <c r="E179" s="224" t="s">
         <v>140</v>
       </c>
@@ -26372,8 +26372,8 @@
       </c>
     </row>
     <row r="180" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C180" s="365"/>
-      <c r="D180" s="396"/>
+      <c r="C180" s="320"/>
+      <c r="D180" s="394"/>
       <c r="E180" s="224" t="s">
         <v>138</v>
       </c>
@@ -26399,8 +26399,8 @@
       </c>
     </row>
     <row r="181" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C181" s="365"/>
-      <c r="D181" s="396"/>
+      <c r="C181" s="320"/>
+      <c r="D181" s="394"/>
       <c r="E181" s="285" t="s">
         <v>135</v>
       </c>
@@ -26428,8 +26428,8 @@
       </c>
     </row>
     <row r="182" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C182" s="365"/>
-      <c r="D182" s="396"/>
+      <c r="C182" s="320"/>
+      <c r="D182" s="394"/>
       <c r="E182" s="280" t="s">
         <v>158</v>
       </c>
@@ -26453,8 +26453,8 @@
       </c>
     </row>
     <row r="183" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C183" s="365"/>
-      <c r="D183" s="396"/>
+      <c r="C183" s="320"/>
+      <c r="D183" s="394"/>
       <c r="E183" s="224" t="s">
         <v>174</v>
       </c>
@@ -26478,8 +26478,8 @@
       </c>
     </row>
     <row r="184" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C184" s="365"/>
-      <c r="D184" s="396"/>
+      <c r="C184" s="320"/>
+      <c r="D184" s="394"/>
       <c r="E184" s="224" t="s">
         <v>175</v>
       </c>
@@ -26509,8 +26509,8 @@
       </c>
     </row>
     <row r="185" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C185" s="367"/>
-      <c r="D185" s="397"/>
+      <c r="C185" s="322"/>
+      <c r="D185" s="395"/>
       <c r="E185" s="225"/>
       <c r="F185" s="234"/>
       <c r="G185" s="235"/>
@@ -26533,36 +26533,36 @@
     </row>
     <row r="186" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" collapsed="1" thickBot="1"/>
     <row r="187" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C187" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="343"/>
+      <c r="C187" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="319"/>
       <c r="E187" s="77"/>
-      <c r="F187" s="342">
+      <c r="F187" s="318">
         <v>2</v>
       </c>
-      <c r="G187" s="344"/>
-      <c r="H187" s="344"/>
-      <c r="I187" s="344"/>
-      <c r="J187" s="344"/>
-      <c r="K187" s="344"/>
-      <c r="L187" s="344"/>
-      <c r="M187" s="344"/>
-      <c r="N187" s="344"/>
-      <c r="O187" s="344"/>
-      <c r="P187" s="344"/>
-      <c r="Q187" s="344"/>
-      <c r="R187" s="344"/>
-      <c r="S187" s="343"/>
-      <c r="T187" s="381" t="s">
+      <c r="G187" s="330"/>
+      <c r="H187" s="330"/>
+      <c r="I187" s="330"/>
+      <c r="J187" s="330"/>
+      <c r="K187" s="330"/>
+      <c r="L187" s="330"/>
+      <c r="M187" s="330"/>
+      <c r="N187" s="330"/>
+      <c r="O187" s="330"/>
+      <c r="P187" s="330"/>
+      <c r="Q187" s="330"/>
+      <c r="R187" s="330"/>
+      <c r="S187" s="319"/>
+      <c r="T187" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="188" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C188" s="365" t="s">
+      <c r="C188" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="366"/>
+      <c r="D188" s="321"/>
       <c r="E188" s="78"/>
       <c r="F188" s="214">
         <f>S156+1</f>
@@ -26620,13 +26620,13 @@
         <f t="shared" si="97"/>
         <v>44612</v>
       </c>
-      <c r="T188" s="382"/>
+      <c r="T188" s="380"/>
     </row>
     <row r="189" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C189" s="393" t="s">
+      <c r="C189" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="394"/>
+      <c r="D189" s="397"/>
       <c r="E189" s="217"/>
       <c r="F189" s="218">
         <f t="shared" ref="F189" si="98">WEEKDAY(F188)</f>
@@ -26684,13 +26684,13 @@
         <f t="shared" ref="S189" si="111">WEEKDAY(S188)</f>
         <v>1</v>
       </c>
-      <c r="T189" s="382"/>
+      <c r="T189" s="380"/>
     </row>
     <row r="190" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C190" s="342" t="s">
+      <c r="C190" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="395" t="s">
+      <c r="D190" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E190" s="223" t="s">
@@ -26716,8 +26716,8 @@
       </c>
     </row>
     <row r="191" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C191" s="365"/>
-      <c r="D191" s="396"/>
+      <c r="C191" s="320"/>
+      <c r="D191" s="394"/>
       <c r="E191" s="224" t="s">
         <v>141</v>
       </c>
@@ -26747,8 +26747,8 @@
       </c>
     </row>
     <row r="192" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C192" s="365"/>
-      <c r="D192" s="396"/>
+      <c r="C192" s="320"/>
+      <c r="D192" s="394"/>
       <c r="E192" s="224" t="s">
         <v>134</v>
       </c>
@@ -26772,8 +26772,8 @@
       </c>
     </row>
     <row r="193" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C193" s="365"/>
-      <c r="D193" s="396"/>
+      <c r="C193" s="320"/>
+      <c r="D193" s="394"/>
       <c r="E193" s="224" t="s">
         <v>136</v>
       </c>
@@ -26809,8 +26809,8 @@
       </c>
     </row>
     <row r="194" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C194" s="365"/>
-      <c r="D194" s="396"/>
+      <c r="C194" s="320"/>
+      <c r="D194" s="394"/>
       <c r="E194" s="224" t="s">
         <v>139</v>
       </c>
@@ -26838,8 +26838,8 @@
       </c>
     </row>
     <row r="195" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C195" s="365"/>
-      <c r="D195" s="396"/>
+      <c r="C195" s="320"/>
+      <c r="D195" s="394"/>
       <c r="E195" s="224" t="s">
         <v>137</v>
       </c>
@@ -26877,8 +26877,8 @@
       </c>
     </row>
     <row r="196" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C196" s="365"/>
-      <c r="D196" s="396"/>
+      <c r="C196" s="320"/>
+      <c r="D196" s="394"/>
       <c r="E196" s="224" t="s">
         <v>133</v>
       </c>
@@ -26902,8 +26902,8 @@
       </c>
     </row>
     <row r="197" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C197" s="365"/>
-      <c r="D197" s="396"/>
+      <c r="C197" s="320"/>
+      <c r="D197" s="394"/>
       <c r="E197" s="224" t="s">
         <v>140</v>
       </c>
@@ -26927,8 +26927,8 @@
       </c>
     </row>
     <row r="198" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C198" s="365"/>
-      <c r="D198" s="396"/>
+      <c r="C198" s="320"/>
+      <c r="D198" s="394"/>
       <c r="E198" s="224" t="s">
         <v>138</v>
       </c>
@@ -26962,8 +26962,8 @@
       </c>
     </row>
     <row r="199" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C199" s="365"/>
-      <c r="D199" s="396"/>
+      <c r="C199" s="320"/>
+      <c r="D199" s="394"/>
       <c r="E199" s="224" t="s">
         <v>135</v>
       </c>
@@ -26995,8 +26995,8 @@
       </c>
     </row>
     <row r="200" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C200" s="365"/>
-      <c r="D200" s="396"/>
+      <c r="C200" s="320"/>
+      <c r="D200" s="394"/>
       <c r="E200" s="224" t="s">
         <v>158</v>
       </c>
@@ -27020,8 +27020,8 @@
       </c>
     </row>
     <row r="201" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C201" s="365"/>
-      <c r="D201" s="396"/>
+      <c r="C201" s="320"/>
+      <c r="D201" s="394"/>
       <c r="E201" s="224" t="s">
         <v>174</v>
       </c>
@@ -27045,8 +27045,8 @@
       </c>
     </row>
     <row r="202" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C202" s="365"/>
-      <c r="D202" s="396"/>
+      <c r="C202" s="320"/>
+      <c r="D202" s="394"/>
       <c r="E202" s="224" t="s">
         <v>175</v>
       </c>
@@ -27074,8 +27074,8 @@
       </c>
     </row>
     <row r="203" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C203" s="365"/>
-      <c r="D203" s="397"/>
+      <c r="C203" s="320"/>
+      <c r="D203" s="395"/>
       <c r="E203" s="225"/>
       <c r="F203" s="243"/>
       <c r="G203" s="244"/>
@@ -27097,8 +27097,8 @@
       </c>
     </row>
     <row r="204" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C204" s="365"/>
-      <c r="D204" s="395" t="s">
+      <c r="C204" s="320"/>
+      <c r="D204" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E204" s="223" t="s">
@@ -27124,8 +27124,8 @@
       </c>
     </row>
     <row r="205" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C205" s="365"/>
-      <c r="D205" s="396"/>
+      <c r="C205" s="320"/>
+      <c r="D205" s="394"/>
       <c r="E205" s="224" t="s">
         <v>141</v>
       </c>
@@ -27149,8 +27149,8 @@
       </c>
     </row>
     <row r="206" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C206" s="365"/>
-      <c r="D206" s="396"/>
+      <c r="C206" s="320"/>
+      <c r="D206" s="394"/>
       <c r="E206" s="224" t="s">
         <v>134</v>
       </c>
@@ -27176,8 +27176,8 @@
       </c>
     </row>
     <row r="207" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C207" s="365"/>
-      <c r="D207" s="396"/>
+      <c r="C207" s="320"/>
+      <c r="D207" s="394"/>
       <c r="E207" s="224" t="s">
         <v>136</v>
       </c>
@@ -27213,8 +27213,8 @@
       </c>
     </row>
     <row r="208" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C208" s="365"/>
-      <c r="D208" s="396"/>
+      <c r="C208" s="320"/>
+      <c r="D208" s="394"/>
       <c r="E208" s="224" t="s">
         <v>139</v>
       </c>
@@ -27238,8 +27238,8 @@
       </c>
     </row>
     <row r="209" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C209" s="365"/>
-      <c r="D209" s="396"/>
+      <c r="C209" s="320"/>
+      <c r="D209" s="394"/>
       <c r="E209" s="224" t="s">
         <v>137</v>
       </c>
@@ -27263,8 +27263,8 @@
       </c>
     </row>
     <row r="210" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C210" s="365"/>
-      <c r="D210" s="396"/>
+      <c r="C210" s="320"/>
+      <c r="D210" s="394"/>
       <c r="E210" s="224" t="s">
         <v>133</v>
       </c>
@@ -27288,8 +27288,8 @@
       </c>
     </row>
     <row r="211" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C211" s="365"/>
-      <c r="D211" s="396"/>
+      <c r="C211" s="320"/>
+      <c r="D211" s="394"/>
       <c r="E211" s="224" t="s">
         <v>140</v>
       </c>
@@ -27313,8 +27313,8 @@
       </c>
     </row>
     <row r="212" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C212" s="365"/>
-      <c r="D212" s="396"/>
+      <c r="C212" s="320"/>
+      <c r="D212" s="394"/>
       <c r="E212" s="224" t="s">
         <v>138</v>
       </c>
@@ -27340,8 +27340,8 @@
       </c>
     </row>
     <row r="213" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C213" s="365"/>
-      <c r="D213" s="396"/>
+      <c r="C213" s="320"/>
+      <c r="D213" s="394"/>
       <c r="E213" s="224" t="s">
         <v>135</v>
       </c>
@@ -27367,8 +27367,8 @@
       </c>
     </row>
     <row r="214" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C214" s="365"/>
-      <c r="D214" s="396"/>
+      <c r="C214" s="320"/>
+      <c r="D214" s="394"/>
       <c r="E214" s="224" t="s">
         <v>158</v>
       </c>
@@ -27392,8 +27392,8 @@
       </c>
     </row>
     <row r="215" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C215" s="365"/>
-      <c r="D215" s="396"/>
+      <c r="C215" s="320"/>
+      <c r="D215" s="394"/>
       <c r="E215" s="224" t="s">
         <v>174</v>
       </c>
@@ -27417,8 +27417,8 @@
       </c>
     </row>
     <row r="216" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C216" s="365"/>
-      <c r="D216" s="396"/>
+      <c r="C216" s="320"/>
+      <c r="D216" s="394"/>
       <c r="E216" s="224" t="s">
         <v>175</v>
       </c>
@@ -27442,8 +27442,8 @@
       </c>
     </row>
     <row r="217" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C217" s="367"/>
-      <c r="D217" s="397"/>
+      <c r="C217" s="322"/>
+      <c r="D217" s="395"/>
       <c r="E217" s="225"/>
       <c r="F217" s="234"/>
       <c r="G217" s="235"/>
@@ -27466,38 +27466,38 @@
     </row>
     <row r="218" spans="3:20" ht="14.25" collapsed="1" thickBot="1"/>
     <row r="219" spans="3:20">
-      <c r="C219" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="343"/>
+      <c r="C219" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="319"/>
       <c r="E219" s="77"/>
-      <c r="F219" s="342">
+      <c r="F219" s="318">
         <v>2</v>
       </c>
-      <c r="G219" s="344"/>
-      <c r="H219" s="344"/>
-      <c r="I219" s="344"/>
-      <c r="J219" s="344"/>
-      <c r="K219" s="344"/>
-      <c r="L219" s="344"/>
-      <c r="M219" s="344"/>
-      <c r="N219" s="344">
+      <c r="G219" s="330"/>
+      <c r="H219" s="330"/>
+      <c r="I219" s="330"/>
+      <c r="J219" s="330"/>
+      <c r="K219" s="330"/>
+      <c r="L219" s="330"/>
+      <c r="M219" s="330"/>
+      <c r="N219" s="330">
         <v>3</v>
       </c>
-      <c r="O219" s="344"/>
-      <c r="P219" s="344"/>
-      <c r="Q219" s="344"/>
-      <c r="R219" s="344"/>
-      <c r="S219" s="343"/>
-      <c r="T219" s="381" t="s">
+      <c r="O219" s="330"/>
+      <c r="P219" s="330"/>
+      <c r="Q219" s="330"/>
+      <c r="R219" s="330"/>
+      <c r="S219" s="319"/>
+      <c r="T219" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="220" spans="3:20">
-      <c r="C220" s="365" t="s">
+      <c r="C220" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D220" s="366"/>
+      <c r="D220" s="321"/>
       <c r="E220" s="78"/>
       <c r="F220" s="214">
         <f>S188+1</f>
@@ -27555,13 +27555,13 @@
         <f t="shared" si="113"/>
         <v>44626</v>
       </c>
-      <c r="T220" s="382"/>
+      <c r="T220" s="380"/>
     </row>
     <row r="221" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C221" s="393" t="s">
+      <c r="C221" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="394"/>
+      <c r="D221" s="397"/>
       <c r="E221" s="217"/>
       <c r="F221" s="218">
         <f t="shared" ref="F221" si="114">WEEKDAY(F220)</f>
@@ -27619,13 +27619,13 @@
         <f t="shared" ref="S221" si="127">WEEKDAY(S220)</f>
         <v>1</v>
       </c>
-      <c r="T221" s="382"/>
+      <c r="T221" s="380"/>
     </row>
     <row r="222" spans="3:20">
-      <c r="C222" s="342" t="s">
+      <c r="C222" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D222" s="395" t="s">
+      <c r="D222" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="223" t="s">
@@ -27651,8 +27651,8 @@
       </c>
     </row>
     <row r="223" spans="3:20">
-      <c r="C223" s="365"/>
-      <c r="D223" s="396"/>
+      <c r="C223" s="320"/>
+      <c r="D223" s="394"/>
       <c r="E223" s="224" t="s">
         <v>141</v>
       </c>
@@ -27678,8 +27678,8 @@
       </c>
     </row>
     <row r="224" spans="3:20">
-      <c r="C224" s="365"/>
-      <c r="D224" s="396"/>
+      <c r="C224" s="320"/>
+      <c r="D224" s="394"/>
       <c r="E224" s="224" t="s">
         <v>134</v>
       </c>
@@ -27703,8 +27703,8 @@
       </c>
     </row>
     <row r="225" spans="3:20">
-      <c r="C225" s="365"/>
-      <c r="D225" s="396"/>
+      <c r="C225" s="320"/>
+      <c r="D225" s="394"/>
       <c r="E225" s="224" t="s">
         <v>136</v>
       </c>
@@ -27728,8 +27728,8 @@
       </c>
     </row>
     <row r="226" spans="3:20">
-      <c r="C226" s="365"/>
-      <c r="D226" s="396"/>
+      <c r="C226" s="320"/>
+      <c r="D226" s="394"/>
       <c r="E226" s="224" t="s">
         <v>139</v>
       </c>
@@ -27763,8 +27763,8 @@
       </c>
     </row>
     <row r="227" spans="3:20">
-      <c r="C227" s="365"/>
-      <c r="D227" s="396"/>
+      <c r="C227" s="320"/>
+      <c r="D227" s="394"/>
       <c r="E227" s="224" t="s">
         <v>137</v>
       </c>
@@ -27788,8 +27788,8 @@
       </c>
     </row>
     <row r="228" spans="3:20">
-      <c r="C228" s="365"/>
-      <c r="D228" s="396"/>
+      <c r="C228" s="320"/>
+      <c r="D228" s="394"/>
       <c r="E228" s="224" t="s">
         <v>133</v>
       </c>
@@ -27813,8 +27813,8 @@
       </c>
     </row>
     <row r="229" spans="3:20">
-      <c r="C229" s="365"/>
-      <c r="D229" s="396"/>
+      <c r="C229" s="320"/>
+      <c r="D229" s="394"/>
       <c r="E229" s="224" t="s">
         <v>140</v>
       </c>
@@ -27838,8 +27838,8 @@
       </c>
     </row>
     <row r="230" spans="3:20">
-      <c r="C230" s="365"/>
-      <c r="D230" s="396"/>
+      <c r="C230" s="320"/>
+      <c r="D230" s="394"/>
       <c r="E230" s="224" t="s">
         <v>138</v>
       </c>
@@ -27863,8 +27863,8 @@
       </c>
     </row>
     <row r="231" spans="3:20">
-      <c r="C231" s="365"/>
-      <c r="D231" s="396"/>
+      <c r="C231" s="320"/>
+      <c r="D231" s="394"/>
       <c r="E231" s="224" t="s">
         <v>135</v>
       </c>
@@ -27900,8 +27900,8 @@
       </c>
     </row>
     <row r="232" spans="3:20">
-      <c r="C232" s="365"/>
-      <c r="D232" s="396"/>
+      <c r="C232" s="320"/>
+      <c r="D232" s="394"/>
       <c r="E232" s="224" t="s">
         <v>158</v>
       </c>
@@ -27925,8 +27925,8 @@
       </c>
     </row>
     <row r="233" spans="3:20">
-      <c r="C233" s="365"/>
-      <c r="D233" s="396"/>
+      <c r="C233" s="320"/>
+      <c r="D233" s="394"/>
       <c r="E233" s="224" t="s">
         <v>174</v>
       </c>
@@ -27950,8 +27950,8 @@
       </c>
     </row>
     <row r="234" spans="3:20">
-      <c r="C234" s="365"/>
-      <c r="D234" s="396"/>
+      <c r="C234" s="320"/>
+      <c r="D234" s="394"/>
       <c r="E234" s="224" t="s">
         <v>175</v>
       </c>
@@ -27975,8 +27975,8 @@
       </c>
     </row>
     <row r="235" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C235" s="365"/>
-      <c r="D235" s="397"/>
+      <c r="C235" s="320"/>
+      <c r="D235" s="395"/>
       <c r="E235" s="225" t="s">
         <v>188</v>
       </c>
@@ -28018,8 +28018,8 @@
       </c>
     </row>
     <row r="236" spans="3:20">
-      <c r="C236" s="365"/>
-      <c r="D236" s="395" t="s">
+      <c r="C236" s="320"/>
+      <c r="D236" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E236" s="223" t="s">
@@ -28045,8 +28045,8 @@
       </c>
     </row>
     <row r="237" spans="3:20">
-      <c r="C237" s="365"/>
-      <c r="D237" s="396"/>
+      <c r="C237" s="320"/>
+      <c r="D237" s="394"/>
       <c r="E237" s="224" t="s">
         <v>141</v>
       </c>
@@ -28072,8 +28072,8 @@
       </c>
     </row>
     <row r="238" spans="3:20">
-      <c r="C238" s="365"/>
-      <c r="D238" s="396"/>
+      <c r="C238" s="320"/>
+      <c r="D238" s="394"/>
       <c r="E238" s="224" t="s">
         <v>134</v>
       </c>
@@ -28097,8 +28097,8 @@
       </c>
     </row>
     <row r="239" spans="3:20">
-      <c r="C239" s="365"/>
-      <c r="D239" s="396"/>
+      <c r="C239" s="320"/>
+      <c r="D239" s="394"/>
       <c r="E239" s="224" t="s">
         <v>136</v>
       </c>
@@ -28122,8 +28122,8 @@
       </c>
     </row>
     <row r="240" spans="3:20">
-      <c r="C240" s="365"/>
-      <c r="D240" s="396"/>
+      <c r="C240" s="320"/>
+      <c r="D240" s="394"/>
       <c r="E240" s="224" t="s">
         <v>139</v>
       </c>
@@ -28147,8 +28147,8 @@
       </c>
     </row>
     <row r="241" spans="3:26">
-      <c r="C241" s="365"/>
-      <c r="D241" s="396"/>
+      <c r="C241" s="320"/>
+      <c r="D241" s="394"/>
       <c r="E241" s="224" t="s">
         <v>137</v>
       </c>
@@ -28172,12 +28172,14 @@
       </c>
     </row>
     <row r="242" spans="3:26">
-      <c r="C242" s="365"/>
-      <c r="D242" s="396"/>
+      <c r="C242" s="320"/>
+      <c r="D242" s="394"/>
       <c r="E242" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="F242" s="231"/>
+      <c r="F242" s="231">
+        <v>2</v>
+      </c>
       <c r="G242" s="232"/>
       <c r="H242" s="233"/>
       <c r="I242" s="232"/>
@@ -28193,7 +28195,7 @@
       <c r="S242" s="233"/>
       <c r="T242" s="221">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V242" s="18" t="s">
         <v>193</v>
@@ -28206,8 +28208,8 @@
       </c>
     </row>
     <row r="243" spans="3:26">
-      <c r="C243" s="365"/>
-      <c r="D243" s="396"/>
+      <c r="C243" s="320"/>
+      <c r="D243" s="394"/>
       <c r="E243" s="224" t="s">
         <v>140</v>
       </c>
@@ -28240,8 +28242,8 @@
       </c>
     </row>
     <row r="244" spans="3:26">
-      <c r="C244" s="365"/>
-      <c r="D244" s="396"/>
+      <c r="C244" s="320"/>
+      <c r="D244" s="394"/>
       <c r="E244" s="224" t="s">
         <v>138</v>
       </c>
@@ -28268,15 +28270,15 @@
       </c>
       <c r="Y244" s="18">
         <f>O25+Z25</f>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z244" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="245" spans="3:26">
-      <c r="C245" s="365"/>
-      <c r="D245" s="396"/>
+      <c r="C245" s="320"/>
+      <c r="D245" s="394"/>
       <c r="E245" s="224" t="s">
         <v>135</v>
       </c>
@@ -28303,12 +28305,12 @@
       </c>
       <c r="Y245" s="306">
         <f>(Y242-Y243+Y244)/Y242</f>
-        <v>0.68473895582329314</v>
+        <v>0.68674698795180722</v>
       </c>
     </row>
     <row r="246" spans="3:26">
-      <c r="C246" s="365"/>
-      <c r="D246" s="396"/>
+      <c r="C246" s="320"/>
+      <c r="D246" s="394"/>
       <c r="E246" s="224" t="s">
         <v>158</v>
       </c>
@@ -28339,8 +28341,8 @@
       </c>
     </row>
     <row r="247" spans="3:26">
-      <c r="C247" s="365"/>
-      <c r="D247" s="396"/>
+      <c r="C247" s="320"/>
+      <c r="D247" s="394"/>
       <c r="E247" s="224" t="s">
         <v>174</v>
       </c>
@@ -28371,8 +28373,8 @@
       </c>
     </row>
     <row r="248" spans="3:26">
-      <c r="C248" s="365"/>
-      <c r="D248" s="396"/>
+      <c r="C248" s="320"/>
+      <c r="D248" s="394"/>
       <c r="E248" s="224" t="s">
         <v>175</v>
       </c>
@@ -28403,8 +28405,8 @@
       </c>
     </row>
     <row r="249" spans="3:26" ht="14.25" thickBot="1">
-      <c r="C249" s="367"/>
-      <c r="D249" s="397"/>
+      <c r="C249" s="322"/>
+      <c r="D249" s="395"/>
       <c r="E249" s="225" t="s">
         <v>188</v>
       </c>
@@ -28469,36 +28471,36 @@
     </row>
     <row r="252" spans="3:26" ht="14.25" thickBot="1"/>
     <row r="253" spans="3:26">
-      <c r="C253" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D253" s="343"/>
+      <c r="C253" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="319"/>
       <c r="E253" s="296"/>
-      <c r="F253" s="342">
+      <c r="F253" s="318">
         <v>3</v>
       </c>
-      <c r="G253" s="344"/>
-      <c r="H253" s="344"/>
-      <c r="I253" s="344"/>
-      <c r="J253" s="344"/>
-      <c r="K253" s="344"/>
-      <c r="L253" s="344"/>
-      <c r="M253" s="344"/>
-      <c r="N253" s="344"/>
-      <c r="O253" s="344"/>
-      <c r="P253" s="344"/>
-      <c r="Q253" s="344"/>
-      <c r="R253" s="344"/>
-      <c r="S253" s="343"/>
-      <c r="T253" s="381" t="s">
+      <c r="G253" s="330"/>
+      <c r="H253" s="330"/>
+      <c r="I253" s="330"/>
+      <c r="J253" s="330"/>
+      <c r="K253" s="330"/>
+      <c r="L253" s="330"/>
+      <c r="M253" s="330"/>
+      <c r="N253" s="330"/>
+      <c r="O253" s="330"/>
+      <c r="P253" s="330"/>
+      <c r="Q253" s="330"/>
+      <c r="R253" s="330"/>
+      <c r="S253" s="319"/>
+      <c r="T253" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="254" spans="3:26">
-      <c r="C254" s="365" t="s">
+      <c r="C254" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D254" s="366"/>
+      <c r="D254" s="321"/>
       <c r="E254" s="78"/>
       <c r="F254" s="214">
         <f>S220+1</f>
@@ -28556,13 +28558,13 @@
         <f t="shared" ref="S254" si="141">R254+1</f>
         <v>44640</v>
       </c>
-      <c r="T254" s="382"/>
+      <c r="T254" s="380"/>
     </row>
     <row r="255" spans="3:26" ht="14.25" thickBot="1">
-      <c r="C255" s="393" t="s">
+      <c r="C255" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="394"/>
+      <c r="D255" s="397"/>
       <c r="E255" s="217"/>
       <c r="F255" s="218">
         <f t="shared" ref="F255:S255" si="142">WEEKDAY(F254)</f>
@@ -28620,13 +28622,13 @@
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
-      <c r="T255" s="382"/>
+      <c r="T255" s="380"/>
     </row>
     <row r="256" spans="3:26">
-      <c r="C256" s="342" t="s">
+      <c r="C256" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D256" s="395" t="s">
+      <c r="D256" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E256" s="223" t="s">
@@ -28652,8 +28654,8 @@
       </c>
     </row>
     <row r="257" spans="3:20">
-      <c r="C257" s="365"/>
-      <c r="D257" s="396"/>
+      <c r="C257" s="320"/>
+      <c r="D257" s="394"/>
       <c r="E257" s="224" t="s">
         <v>141</v>
       </c>
@@ -28677,8 +28679,8 @@
       </c>
     </row>
     <row r="258" spans="3:20">
-      <c r="C258" s="365"/>
-      <c r="D258" s="396"/>
+      <c r="C258" s="320"/>
+      <c r="D258" s="394"/>
       <c r="E258" s="224" t="s">
         <v>134</v>
       </c>
@@ -28702,8 +28704,8 @@
       </c>
     </row>
     <row r="259" spans="3:20">
-      <c r="C259" s="365"/>
-      <c r="D259" s="396"/>
+      <c r="C259" s="320"/>
+      <c r="D259" s="394"/>
       <c r="E259" s="224" t="s">
         <v>136</v>
       </c>
@@ -28727,8 +28729,8 @@
       </c>
     </row>
     <row r="260" spans="3:20">
-      <c r="C260" s="365"/>
-      <c r="D260" s="396"/>
+      <c r="C260" s="320"/>
+      <c r="D260" s="394"/>
       <c r="E260" s="224" t="s">
         <v>139</v>
       </c>
@@ -28752,8 +28754,8 @@
       </c>
     </row>
     <row r="261" spans="3:20">
-      <c r="C261" s="365"/>
-      <c r="D261" s="396"/>
+      <c r="C261" s="320"/>
+      <c r="D261" s="394"/>
       <c r="E261" s="224" t="s">
         <v>137</v>
       </c>
@@ -28777,8 +28779,8 @@
       </c>
     </row>
     <row r="262" spans="3:20">
-      <c r="C262" s="365"/>
-      <c r="D262" s="396"/>
+      <c r="C262" s="320"/>
+      <c r="D262" s="394"/>
       <c r="E262" s="224" t="s">
         <v>133</v>
       </c>
@@ -28802,8 +28804,8 @@
       </c>
     </row>
     <row r="263" spans="3:20">
-      <c r="C263" s="365"/>
-      <c r="D263" s="396"/>
+      <c r="C263" s="320"/>
+      <c r="D263" s="394"/>
       <c r="E263" s="224" t="s">
         <v>140</v>
       </c>
@@ -28827,8 +28829,8 @@
       </c>
     </row>
     <row r="264" spans="3:20">
-      <c r="C264" s="365"/>
-      <c r="D264" s="396"/>
+      <c r="C264" s="320"/>
+      <c r="D264" s="394"/>
       <c r="E264" s="224" t="s">
         <v>138</v>
       </c>
@@ -28852,8 +28854,8 @@
       </c>
     </row>
     <row r="265" spans="3:20">
-      <c r="C265" s="365"/>
-      <c r="D265" s="396"/>
+      <c r="C265" s="320"/>
+      <c r="D265" s="394"/>
       <c r="E265" s="224" t="s">
         <v>135</v>
       </c>
@@ -28877,8 +28879,8 @@
       </c>
     </row>
     <row r="266" spans="3:20">
-      <c r="C266" s="365"/>
-      <c r="D266" s="396"/>
+      <c r="C266" s="320"/>
+      <c r="D266" s="394"/>
       <c r="E266" s="224" t="s">
         <v>158</v>
       </c>
@@ -28902,8 +28904,8 @@
       </c>
     </row>
     <row r="267" spans="3:20">
-      <c r="C267" s="365"/>
-      <c r="D267" s="396"/>
+      <c r="C267" s="320"/>
+      <c r="D267" s="394"/>
       <c r="E267" s="224" t="s">
         <v>174</v>
       </c>
@@ -28927,8 +28929,8 @@
       </c>
     </row>
     <row r="268" spans="3:20">
-      <c r="C268" s="365"/>
-      <c r="D268" s="396"/>
+      <c r="C268" s="320"/>
+      <c r="D268" s="394"/>
       <c r="E268" s="224" t="s">
         <v>175</v>
       </c>
@@ -28952,8 +28954,8 @@
       </c>
     </row>
     <row r="269" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C269" s="365"/>
-      <c r="D269" s="397"/>
+      <c r="C269" s="320"/>
+      <c r="D269" s="395"/>
       <c r="E269" s="225" t="s">
         <v>188</v>
       </c>
@@ -29005,8 +29007,8 @@
       </c>
     </row>
     <row r="270" spans="3:20">
-      <c r="C270" s="365"/>
-      <c r="D270" s="395" t="s">
+      <c r="C270" s="320"/>
+      <c r="D270" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E270" s="223" t="s">
@@ -29032,8 +29034,8 @@
       </c>
     </row>
     <row r="271" spans="3:20">
-      <c r="C271" s="365"/>
-      <c r="D271" s="396"/>
+      <c r="C271" s="320"/>
+      <c r="D271" s="394"/>
       <c r="E271" s="224" t="s">
         <v>141</v>
       </c>
@@ -29057,8 +29059,8 @@
       </c>
     </row>
     <row r="272" spans="3:20">
-      <c r="C272" s="365"/>
-      <c r="D272" s="396"/>
+      <c r="C272" s="320"/>
+      <c r="D272" s="394"/>
       <c r="E272" s="224" t="s">
         <v>134</v>
       </c>
@@ -29082,8 +29084,8 @@
       </c>
     </row>
     <row r="273" spans="3:20">
-      <c r="C273" s="365"/>
-      <c r="D273" s="396"/>
+      <c r="C273" s="320"/>
+      <c r="D273" s="394"/>
       <c r="E273" s="224" t="s">
         <v>136</v>
       </c>
@@ -29107,8 +29109,8 @@
       </c>
     </row>
     <row r="274" spans="3:20">
-      <c r="C274" s="365"/>
-      <c r="D274" s="396"/>
+      <c r="C274" s="320"/>
+      <c r="D274" s="394"/>
       <c r="E274" s="224" t="s">
         <v>139</v>
       </c>
@@ -29132,8 +29134,8 @@
       </c>
     </row>
     <row r="275" spans="3:20">
-      <c r="C275" s="365"/>
-      <c r="D275" s="396"/>
+      <c r="C275" s="320"/>
+      <c r="D275" s="394"/>
       <c r="E275" s="224" t="s">
         <v>137</v>
       </c>
@@ -29157,8 +29159,8 @@
       </c>
     </row>
     <row r="276" spans="3:20">
-      <c r="C276" s="365"/>
-      <c r="D276" s="396"/>
+      <c r="C276" s="320"/>
+      <c r="D276" s="394"/>
       <c r="E276" s="224" t="s">
         <v>133</v>
       </c>
@@ -29182,8 +29184,8 @@
       </c>
     </row>
     <row r="277" spans="3:20">
-      <c r="C277" s="365"/>
-      <c r="D277" s="396"/>
+      <c r="C277" s="320"/>
+      <c r="D277" s="394"/>
       <c r="E277" s="224" t="s">
         <v>140</v>
       </c>
@@ -29207,8 +29209,8 @@
       </c>
     </row>
     <row r="278" spans="3:20">
-      <c r="C278" s="365"/>
-      <c r="D278" s="396"/>
+      <c r="C278" s="320"/>
+      <c r="D278" s="394"/>
       <c r="E278" s="224" t="s">
         <v>138</v>
       </c>
@@ -29232,8 +29234,8 @@
       </c>
     </row>
     <row r="279" spans="3:20">
-      <c r="C279" s="365"/>
-      <c r="D279" s="396"/>
+      <c r="C279" s="320"/>
+      <c r="D279" s="394"/>
       <c r="E279" s="224" t="s">
         <v>135</v>
       </c>
@@ -29257,8 +29259,8 @@
       </c>
     </row>
     <row r="280" spans="3:20">
-      <c r="C280" s="365"/>
-      <c r="D280" s="396"/>
+      <c r="C280" s="320"/>
+      <c r="D280" s="394"/>
       <c r="E280" s="224" t="s">
         <v>158</v>
       </c>
@@ -29282,8 +29284,8 @@
       </c>
     </row>
     <row r="281" spans="3:20">
-      <c r="C281" s="365"/>
-      <c r="D281" s="396"/>
+      <c r="C281" s="320"/>
+      <c r="D281" s="394"/>
       <c r="E281" s="224" t="s">
         <v>174</v>
       </c>
@@ -29307,8 +29309,8 @@
       </c>
     </row>
     <row r="282" spans="3:20">
-      <c r="C282" s="365"/>
-      <c r="D282" s="396"/>
+      <c r="C282" s="320"/>
+      <c r="D282" s="394"/>
       <c r="E282" s="224" t="s">
         <v>175</v>
       </c>
@@ -29332,8 +29334,8 @@
       </c>
     </row>
     <row r="283" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C283" s="367"/>
-      <c r="D283" s="397"/>
+      <c r="C283" s="322"/>
+      <c r="D283" s="395"/>
       <c r="E283" s="225" t="s">
         <v>188</v>
       </c>
@@ -29398,36 +29400,36 @@
     </row>
     <row r="286" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="287" spans="3:20">
-      <c r="C287" s="342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="343"/>
+      <c r="C287" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="319"/>
       <c r="E287" s="308"/>
-      <c r="F287" s="342">
+      <c r="F287" s="318">
         <v>3</v>
       </c>
-      <c r="G287" s="344"/>
-      <c r="H287" s="344"/>
-      <c r="I287" s="344"/>
-      <c r="J287" s="344"/>
-      <c r="K287" s="344"/>
-      <c r="L287" s="344"/>
-      <c r="M287" s="344"/>
-      <c r="N287" s="344"/>
-      <c r="O287" s="344"/>
-      <c r="P287" s="344"/>
-      <c r="Q287" s="344"/>
-      <c r="R287" s="344"/>
-      <c r="S287" s="343"/>
-      <c r="T287" s="381" t="s">
+      <c r="G287" s="330"/>
+      <c r="H287" s="330"/>
+      <c r="I287" s="330"/>
+      <c r="J287" s="330"/>
+      <c r="K287" s="330"/>
+      <c r="L287" s="330"/>
+      <c r="M287" s="330"/>
+      <c r="N287" s="330"/>
+      <c r="O287" s="330"/>
+      <c r="P287" s="330"/>
+      <c r="Q287" s="330"/>
+      <c r="R287" s="330"/>
+      <c r="S287" s="319"/>
+      <c r="T287" s="379" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="288" spans="3:20">
-      <c r="C288" s="365" t="s">
+      <c r="C288" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D288" s="366"/>
+      <c r="D288" s="321"/>
       <c r="E288" s="78"/>
       <c r="F288" s="214">
         <f>S254+1</f>
@@ -29476,16 +29478,16 @@
       <c r="Q288" s="215"/>
       <c r="R288" s="226"/>
       <c r="S288" s="226"/>
-      <c r="T288" s="382"/>
+      <c r="T288" s="380"/>
     </row>
     <row r="289" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C289" s="393" t="s">
+      <c r="C289" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="D289" s="394"/>
+      <c r="D289" s="397"/>
       <c r="E289" s="217"/>
       <c r="F289" s="218">
-        <f t="shared" ref="F289:S289" si="154">WEEKDAY(F288)</f>
+        <f t="shared" ref="F289:P289" si="154">WEEKDAY(F288)</f>
         <v>2</v>
       </c>
       <c r="G289" s="219">
@@ -29531,13 +29533,13 @@
       <c r="Q289" s="219"/>
       <c r="R289" s="227"/>
       <c r="S289" s="227"/>
-      <c r="T289" s="382"/>
+      <c r="T289" s="380"/>
     </row>
     <row r="290" spans="3:20">
-      <c r="C290" s="342" t="s">
+      <c r="C290" s="318" t="s">
         <v>176</v>
       </c>
-      <c r="D290" s="395" t="s">
+      <c r="D290" s="393" t="s">
         <v>115</v>
       </c>
       <c r="E290" s="223" t="s">
@@ -29563,8 +29565,8 @@
       </c>
     </row>
     <row r="291" spans="3:20">
-      <c r="C291" s="365"/>
-      <c r="D291" s="396"/>
+      <c r="C291" s="320"/>
+      <c r="D291" s="394"/>
       <c r="E291" s="224" t="s">
         <v>141</v>
       </c>
@@ -29588,8 +29590,8 @@
       </c>
     </row>
     <row r="292" spans="3:20">
-      <c r="C292" s="365"/>
-      <c r="D292" s="396"/>
+      <c r="C292" s="320"/>
+      <c r="D292" s="394"/>
       <c r="E292" s="224" t="s">
         <v>134</v>
       </c>
@@ -29613,8 +29615,8 @@
       </c>
     </row>
     <row r="293" spans="3:20">
-      <c r="C293" s="365"/>
-      <c r="D293" s="396"/>
+      <c r="C293" s="320"/>
+      <c r="D293" s="394"/>
       <c r="E293" s="224" t="s">
         <v>136</v>
       </c>
@@ -29638,8 +29640,8 @@
       </c>
     </row>
     <row r="294" spans="3:20">
-      <c r="C294" s="365"/>
-      <c r="D294" s="396"/>
+      <c r="C294" s="320"/>
+      <c r="D294" s="394"/>
       <c r="E294" s="224" t="s">
         <v>139</v>
       </c>
@@ -29663,8 +29665,8 @@
       </c>
     </row>
     <row r="295" spans="3:20">
-      <c r="C295" s="365"/>
-      <c r="D295" s="396"/>
+      <c r="C295" s="320"/>
+      <c r="D295" s="394"/>
       <c r="E295" s="224" t="s">
         <v>137</v>
       </c>
@@ -29688,8 +29690,8 @@
       </c>
     </row>
     <row r="296" spans="3:20">
-      <c r="C296" s="365"/>
-      <c r="D296" s="396"/>
+      <c r="C296" s="320"/>
+      <c r="D296" s="394"/>
       <c r="E296" s="224" t="s">
         <v>133</v>
       </c>
@@ -29713,8 +29715,8 @@
       </c>
     </row>
     <row r="297" spans="3:20">
-      <c r="C297" s="365"/>
-      <c r="D297" s="396"/>
+      <c r="C297" s="320"/>
+      <c r="D297" s="394"/>
       <c r="E297" s="224" t="s">
         <v>140</v>
       </c>
@@ -29738,8 +29740,8 @@
       </c>
     </row>
     <row r="298" spans="3:20">
-      <c r="C298" s="365"/>
-      <c r="D298" s="396"/>
+      <c r="C298" s="320"/>
+      <c r="D298" s="394"/>
       <c r="E298" s="224" t="s">
         <v>138</v>
       </c>
@@ -29763,8 +29765,8 @@
       </c>
     </row>
     <row r="299" spans="3:20">
-      <c r="C299" s="365"/>
-      <c r="D299" s="396"/>
+      <c r="C299" s="320"/>
+      <c r="D299" s="394"/>
       <c r="E299" s="224" t="s">
         <v>135</v>
       </c>
@@ -29788,8 +29790,8 @@
       </c>
     </row>
     <row r="300" spans="3:20">
-      <c r="C300" s="365"/>
-      <c r="D300" s="396"/>
+      <c r="C300" s="320"/>
+      <c r="D300" s="394"/>
       <c r="E300" s="224" t="s">
         <v>158</v>
       </c>
@@ -29813,8 +29815,8 @@
       </c>
     </row>
     <row r="301" spans="3:20">
-      <c r="C301" s="365"/>
-      <c r="D301" s="396"/>
+      <c r="C301" s="320"/>
+      <c r="D301" s="394"/>
       <c r="E301" s="224" t="s">
         <v>174</v>
       </c>
@@ -29838,8 +29840,8 @@
       </c>
     </row>
     <row r="302" spans="3:20">
-      <c r="C302" s="365"/>
-      <c r="D302" s="396"/>
+      <c r="C302" s="320"/>
+      <c r="D302" s="394"/>
       <c r="E302" s="224" t="s">
         <v>175</v>
       </c>
@@ -29863,8 +29865,8 @@
       </c>
     </row>
     <row r="303" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C303" s="365"/>
-      <c r="D303" s="397"/>
+      <c r="C303" s="320"/>
+      <c r="D303" s="395"/>
       <c r="E303" s="225" t="s">
         <v>188</v>
       </c>
@@ -29888,8 +29890,8 @@
       </c>
     </row>
     <row r="304" spans="3:20">
-      <c r="C304" s="365"/>
-      <c r="D304" s="395" t="s">
+      <c r="C304" s="320"/>
+      <c r="D304" s="393" t="s">
         <v>57</v>
       </c>
       <c r="E304" s="223" t="s">
@@ -29915,8 +29917,8 @@
       </c>
     </row>
     <row r="305" spans="3:20">
-      <c r="C305" s="365"/>
-      <c r="D305" s="396"/>
+      <c r="C305" s="320"/>
+      <c r="D305" s="394"/>
       <c r="E305" s="224" t="s">
         <v>141</v>
       </c>
@@ -29940,8 +29942,8 @@
       </c>
     </row>
     <row r="306" spans="3:20">
-      <c r="C306" s="365"/>
-      <c r="D306" s="396"/>
+      <c r="C306" s="320"/>
+      <c r="D306" s="394"/>
       <c r="E306" s="224" t="s">
         <v>134</v>
       </c>
@@ -29965,8 +29967,8 @@
       </c>
     </row>
     <row r="307" spans="3:20">
-      <c r="C307" s="365"/>
-      <c r="D307" s="396"/>
+      <c r="C307" s="320"/>
+      <c r="D307" s="394"/>
       <c r="E307" s="224" t="s">
         <v>136</v>
       </c>
@@ -29990,8 +29992,8 @@
       </c>
     </row>
     <row r="308" spans="3:20">
-      <c r="C308" s="365"/>
-      <c r="D308" s="396"/>
+      <c r="C308" s="320"/>
+      <c r="D308" s="394"/>
       <c r="E308" s="224" t="s">
         <v>139</v>
       </c>
@@ -30015,8 +30017,8 @@
       </c>
     </row>
     <row r="309" spans="3:20">
-      <c r="C309" s="365"/>
-      <c r="D309" s="396"/>
+      <c r="C309" s="320"/>
+      <c r="D309" s="394"/>
       <c r="E309" s="224" t="s">
         <v>137</v>
       </c>
@@ -30040,8 +30042,8 @@
       </c>
     </row>
     <row r="310" spans="3:20">
-      <c r="C310" s="365"/>
-      <c r="D310" s="396"/>
+      <c r="C310" s="320"/>
+      <c r="D310" s="394"/>
       <c r="E310" s="224" t="s">
         <v>133</v>
       </c>
@@ -30065,8 +30067,8 @@
       </c>
     </row>
     <row r="311" spans="3:20">
-      <c r="C311" s="365"/>
-      <c r="D311" s="396"/>
+      <c r="C311" s="320"/>
+      <c r="D311" s="394"/>
       <c r="E311" s="224" t="s">
         <v>140</v>
       </c>
@@ -30090,8 +30092,8 @@
       </c>
     </row>
     <row r="312" spans="3:20">
-      <c r="C312" s="365"/>
-      <c r="D312" s="396"/>
+      <c r="C312" s="320"/>
+      <c r="D312" s="394"/>
       <c r="E312" s="224" t="s">
         <v>138</v>
       </c>
@@ -30115,8 +30117,8 @@
       </c>
     </row>
     <row r="313" spans="3:20">
-      <c r="C313" s="365"/>
-      <c r="D313" s="396"/>
+      <c r="C313" s="320"/>
+      <c r="D313" s="394"/>
       <c r="E313" s="224" t="s">
         <v>135</v>
       </c>
@@ -30140,8 +30142,8 @@
       </c>
     </row>
     <row r="314" spans="3:20">
-      <c r="C314" s="365"/>
-      <c r="D314" s="396"/>
+      <c r="C314" s="320"/>
+      <c r="D314" s="394"/>
       <c r="E314" s="224" t="s">
         <v>158</v>
       </c>
@@ -30165,8 +30167,8 @@
       </c>
     </row>
     <row r="315" spans="3:20">
-      <c r="C315" s="365"/>
-      <c r="D315" s="396"/>
+      <c r="C315" s="320"/>
+      <c r="D315" s="394"/>
       <c r="E315" s="224" t="s">
         <v>174</v>
       </c>
@@ -30190,8 +30192,8 @@
       </c>
     </row>
     <row r="316" spans="3:20">
-      <c r="C316" s="365"/>
-      <c r="D316" s="396"/>
+      <c r="C316" s="320"/>
+      <c r="D316" s="394"/>
       <c r="E316" s="224" t="s">
         <v>175</v>
       </c>
@@ -30215,8 +30217,8 @@
       </c>
     </row>
     <row r="317" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C317" s="367"/>
-      <c r="D317" s="397"/>
+      <c r="C317" s="322"/>
+      <c r="D317" s="395"/>
       <c r="E317" s="225" t="s">
         <v>188</v>
       </c>
@@ -30241,6 +30243,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="T219:T221"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="T187:T189"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:C217"/>
+    <mergeCell ref="D190:D203"/>
+    <mergeCell ref="D204:D217"/>
+    <mergeCell ref="F187:S187"/>
+    <mergeCell ref="C158:C185"/>
+    <mergeCell ref="D158:D171"/>
+    <mergeCell ref="D172:D185"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="D140:D153"/>
+    <mergeCell ref="F123:S123"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C62:C89"/>
+    <mergeCell ref="D62:D75"/>
+    <mergeCell ref="D76:D89"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C222:C249"/>
+    <mergeCell ref="D222:D235"/>
+    <mergeCell ref="D236:D249"/>
+    <mergeCell ref="F219:M219"/>
+    <mergeCell ref="N219:S219"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="D44:D57"/>
+    <mergeCell ref="C30:C57"/>
+    <mergeCell ref="T155:T157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="K91:S91"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="T123:T125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="F155:M155"/>
+    <mergeCell ref="N155:S155"/>
+    <mergeCell ref="C126:C153"/>
+    <mergeCell ref="D126:D139"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F59:S59"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="C290:C317"/>
     <mergeCell ref="D290:D303"/>
     <mergeCell ref="D304:D317"/>
@@ -30265,84 +30345,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I27:S27"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C126:C153"/>
-    <mergeCell ref="D126:D139"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F59:S59"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C222:C249"/>
-    <mergeCell ref="D222:D235"/>
-    <mergeCell ref="D236:D249"/>
-    <mergeCell ref="F219:M219"/>
-    <mergeCell ref="N219:S219"/>
-    <mergeCell ref="D30:D43"/>
-    <mergeCell ref="D44:D57"/>
-    <mergeCell ref="C30:C57"/>
-    <mergeCell ref="T155:T157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="K91:S91"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="T123:T125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D107"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="F155:M155"/>
-    <mergeCell ref="N155:S155"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="T219:T221"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="T187:T189"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:C217"/>
-    <mergeCell ref="D190:D203"/>
-    <mergeCell ref="D204:D217"/>
-    <mergeCell ref="F187:S187"/>
-    <mergeCell ref="C158:C185"/>
-    <mergeCell ref="D158:D171"/>
-    <mergeCell ref="D172:D185"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="D140:D153"/>
-    <mergeCell ref="F123:S123"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C62:C89"/>
-    <mergeCell ref="D62:D75"/>
-    <mergeCell ref="D76:D89"/>
-    <mergeCell ref="C91:D91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10 J13:J24">

--- a/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
+++ b/補習指導計画(一般3年_19055 宮本希)_第１＆第２Q.xlsx
@@ -1947,7 +1947,7 @@
     <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;&quot;終&quot;&quot;了&quot;&quot;時&quot;"/>
     <numFmt numFmtId="181" formatCode="m&quot;月&quot;d&quot;日&quot;&quot;終&quot;&quot;了&quot;&quot;時&quot;&quot;の&quot;&quot;不&quot;&quot;足&quot;&quot;時&quot;&quot;間&quot;&quot;数&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2169,6 +2169,15 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3520,7 +3529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4466,6 +4475,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4475,10 +4577,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4511,139 +4655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4652,11 +4667,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4667,21 +4682,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4700,6 +4709,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4709,10 +4724,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="10" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4727,32 +4763,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6060,91 +6072,91 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="338" t="s">
+      <c r="K6" s="328" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="339"/>
-      <c r="M6" s="339"/>
-      <c r="N6" s="340"/>
-      <c r="O6" s="341" t="s">
+      <c r="L6" s="338"/>
+      <c r="M6" s="338"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="342"/>
-      <c r="Q6" s="342"/>
-      <c r="R6" s="342"/>
-      <c r="S6" s="342"/>
-      <c r="T6" s="343"/>
+      <c r="P6" s="340"/>
+      <c r="Q6" s="340"/>
+      <c r="R6" s="340"/>
+      <c r="S6" s="340"/>
+      <c r="T6" s="341"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="353" t="s">
+      <c r="D7" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="354"/>
-      <c r="F7" s="359" t="s">
+      <c r="E7" s="359"/>
+      <c r="F7" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="354"/>
-      <c r="H7" s="351" t="s">
+      <c r="G7" s="359"/>
+      <c r="H7" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="344" t="s">
+      <c r="I7" s="357"/>
+      <c r="J7" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="338" t="s">
+      <c r="K7" s="328" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="373" t="s">
+      <c r="L7" s="329"/>
+      <c r="M7" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="374"/>
-      <c r="O7" s="362" t="s">
+      <c r="N7" s="331"/>
+      <c r="O7" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="363"/>
-      <c r="Q7" s="363"/>
-      <c r="R7" s="363"/>
-      <c r="S7" s="363"/>
-      <c r="T7" s="364"/>
+      <c r="P7" s="318"/>
+      <c r="Q7" s="318"/>
+      <c r="R7" s="318"/>
+      <c r="S7" s="318"/>
+      <c r="T7" s="319"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="357" t="s">
+      <c r="E8" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="357" t="s">
+      <c r="G8" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="347" t="s">
+      <c r="H8" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="349" t="s">
+      <c r="I8" s="354" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="345"/>
-      <c r="K8" s="365" t="s">
+      <c r="J8" s="350"/>
+      <c r="K8" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="365" t="s">
+      <c r="L8" s="320" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="367" t="s">
+      <c r="M8" s="322" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="369" t="s">
+      <c r="N8" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="371" t="s">
+      <c r="O8" s="326" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -6159,31 +6171,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="371" t="s">
+      <c r="T8" s="326" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="358"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="346"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366" t="s">
+      <c r="D9" s="361"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="323">
         <v>0.8</v>
       </c>
-      <c r="N9" s="370" t="s">
+      <c r="N9" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="372"/>
+      <c r="O9" s="327"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -6196,7 +6208,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="372" t="s">
+      <c r="T9" s="327" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6976,36 +6988,36 @@
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="C23" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="319"/>
+      <c r="C23" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="343"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="318">
+      <c r="F23" s="342">
         <v>8</v>
       </c>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330"/>
-      <c r="K23" s="330"/>
-      <c r="L23" s="330"/>
-      <c r="M23" s="330"/>
-      <c r="N23" s="330"/>
-      <c r="O23" s="330"/>
-      <c r="P23" s="330"/>
-      <c r="Q23" s="330"/>
-      <c r="R23" s="330"/>
-      <c r="S23" s="331"/>
-      <c r="T23" s="315" t="s">
+      <c r="G23" s="344"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
+      <c r="K23" s="344"/>
+      <c r="L23" s="344"/>
+      <c r="M23" s="344"/>
+      <c r="N23" s="344"/>
+      <c r="O23" s="344"/>
+      <c r="P23" s="344"/>
+      <c r="Q23" s="344"/>
+      <c r="R23" s="344"/>
+      <c r="S23" s="345"/>
+      <c r="T23" s="346" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="320" t="s">
+      <c r="C24" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="321"/>
+      <c r="D24" s="366"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -7049,13 +7061,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="316"/>
+      <c r="T24" s="347"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="323"/>
+      <c r="D25" s="368"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -7099,13 +7111,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="317"/>
+      <c r="T25" s="348"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="324" t="s">
+      <c r="C26" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="326" t="s">
+      <c r="D26" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -7144,8 +7156,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="324"/>
-      <c r="D27" s="326"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="371"/>
       <c r="E27" s="97"/>
       <c r="F27" s="84"/>
       <c r="G27" s="73"/>
@@ -7167,8 +7179,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="324"/>
-      <c r="D28" s="326"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="371"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7199,8 +7211,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="324"/>
-      <c r="D29" s="326"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="371"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7233,8 +7245,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="324"/>
-      <c r="D30" s="326"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="371"/>
       <c r="E30" s="188" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7265,8 +7277,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="324"/>
-      <c r="D31" s="326"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="371"/>
       <c r="E31" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7297,8 +7309,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="324"/>
-      <c r="D32" s="326"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="371"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7331,8 +7343,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="324"/>
-      <c r="D33" s="326"/>
+      <c r="C33" s="369"/>
+      <c r="D33" s="371"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7361,8 +7373,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="324"/>
-      <c r="D34" s="326"/>
+      <c r="C34" s="369"/>
+      <c r="D34" s="371"/>
       <c r="E34" s="97"/>
       <c r="F34" s="84"/>
       <c r="G34" s="73"/>
@@ -7384,8 +7396,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="324"/>
-      <c r="D35" s="327"/>
+      <c r="C35" s="369"/>
+      <c r="D35" s="372"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7410,8 +7422,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="324"/>
-      <c r="D36" s="328" t="s">
+      <c r="C36" s="369"/>
+      <c r="D36" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -7442,8 +7454,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="324"/>
-      <c r="D37" s="326"/>
+      <c r="C37" s="369"/>
+      <c r="D37" s="371"/>
       <c r="E37" s="31"/>
       <c r="F37" s="84"/>
       <c r="G37" s="73"/>
@@ -7465,8 +7477,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="324"/>
-      <c r="D38" s="326"/>
+      <c r="C38" s="369"/>
+      <c r="D38" s="371"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7495,8 +7507,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="324"/>
-      <c r="D39" s="326"/>
+      <c r="C39" s="369"/>
+      <c r="D39" s="371"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7523,8 +7535,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="324"/>
-      <c r="D40" s="326"/>
+      <c r="C40" s="369"/>
+      <c r="D40" s="371"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7549,8 +7561,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="324"/>
-      <c r="D41" s="326"/>
+      <c r="C41" s="369"/>
+      <c r="D41" s="371"/>
       <c r="E41" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7577,8 +7589,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="324"/>
-      <c r="D42" s="326"/>
+      <c r="C42" s="369"/>
+      <c r="D42" s="371"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -7607,8 +7619,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="324"/>
-      <c r="D43" s="326"/>
+      <c r="C43" s="369"/>
+      <c r="D43" s="371"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -7635,8 +7647,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="324"/>
-      <c r="D44" s="326"/>
+      <c r="C44" s="369"/>
+      <c r="D44" s="371"/>
       <c r="E44" s="31"/>
       <c r="F44" s="84"/>
       <c r="G44" s="73"/>
@@ -7658,8 +7670,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="325"/>
-      <c r="D45" s="329"/>
+      <c r="C45" s="370"/>
+      <c r="D45" s="374"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -7688,38 +7700,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="319"/>
+      <c r="C47" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="343"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="318">
+      <c r="F47" s="342">
         <v>8</v>
       </c>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
-      <c r="J47" s="330"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="330"/>
-      <c r="N47" s="330"/>
-      <c r="O47" s="330">
+      <c r="G47" s="344"/>
+      <c r="H47" s="344"/>
+      <c r="I47" s="344"/>
+      <c r="J47" s="344"/>
+      <c r="K47" s="344"/>
+      <c r="L47" s="344"/>
+      <c r="M47" s="344"/>
+      <c r="N47" s="344"/>
+      <c r="O47" s="344">
         <v>9</v>
       </c>
-      <c r="P47" s="330"/>
-      <c r="Q47" s="330"/>
-      <c r="R47" s="330"/>
-      <c r="S47" s="331"/>
-      <c r="T47" s="315" t="s">
+      <c r="P47" s="344"/>
+      <c r="Q47" s="344"/>
+      <c r="R47" s="344"/>
+      <c r="S47" s="345"/>
+      <c r="T47" s="346" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="320" t="s">
+      <c r="C48" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="321"/>
+      <c r="D48" s="366"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -7763,13 +7775,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="316"/>
+      <c r="T48" s="347"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="322" t="s">
+      <c r="C49" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="323"/>
+      <c r="D49" s="368"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -7813,13 +7825,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="317"/>
+      <c r="T49" s="348"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="324" t="s">
+      <c r="C50" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="326" t="s">
+      <c r="D50" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -7846,8 +7858,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="324"/>
-      <c r="D51" s="326"/>
+      <c r="C51" s="369"/>
+      <c r="D51" s="371"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -7869,8 +7881,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="324"/>
-      <c r="D52" s="326"/>
+      <c r="C52" s="369"/>
+      <c r="D52" s="371"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -7895,8 +7907,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="324"/>
-      <c r="D53" s="326"/>
+      <c r="C53" s="369"/>
+      <c r="D53" s="371"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -7921,8 +7933,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="17.25">
-      <c r="C54" s="324"/>
-      <c r="D54" s="326"/>
+      <c r="C54" s="369"/>
+      <c r="D54" s="371"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -7949,8 +7961,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="324"/>
-      <c r="D55" s="326"/>
+      <c r="C55" s="369"/>
+      <c r="D55" s="371"/>
       <c r="E55" s="97" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -7975,8 +7987,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="324"/>
-      <c r="D56" s="326"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="371"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -8001,8 +8013,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="324"/>
-      <c r="D57" s="326"/>
+      <c r="C57" s="369"/>
+      <c r="D57" s="371"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -8027,8 +8039,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="324"/>
-      <c r="D58" s="326"/>
+      <c r="C58" s="369"/>
+      <c r="D58" s="371"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -8050,8 +8062,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="324"/>
-      <c r="D59" s="327"/>
+      <c r="C59" s="369"/>
+      <c r="D59" s="372"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -8076,8 +8088,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="324"/>
-      <c r="D60" s="328" t="s">
+      <c r="C60" s="369"/>
+      <c r="D60" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -8104,8 +8116,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="324"/>
-      <c r="D61" s="326"/>
+      <c r="C61" s="369"/>
+      <c r="D61" s="371"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -8127,8 +8139,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="324"/>
-      <c r="D62" s="326"/>
+      <c r="C62" s="369"/>
+      <c r="D62" s="371"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>DB入門</v>
@@ -8153,8 +8165,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="324"/>
-      <c r="D63" s="326"/>
+      <c r="C63" s="369"/>
+      <c r="D63" s="371"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG入門</v>
@@ -8179,8 +8191,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="324"/>
-      <c r="D64" s="326"/>
+      <c r="C64" s="369"/>
+      <c r="D64" s="371"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -8205,8 +8217,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="324"/>
-      <c r="D65" s="326"/>
+      <c r="C65" s="369"/>
+      <c r="D65" s="371"/>
       <c r="E65" s="31" t="str">
         <f>$C$15</f>
         <v>情報NW演習</v>
@@ -8231,8 +8243,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="324"/>
-      <c r="D66" s="326"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="371"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -8261,8 +8273,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="324"/>
-      <c r="D67" s="326"/>
+      <c r="C67" s="369"/>
+      <c r="D67" s="371"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -8287,8 +8299,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="324"/>
-      <c r="D68" s="326"/>
+      <c r="C68" s="369"/>
+      <c r="D68" s="371"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -8310,8 +8322,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="325"/>
-      <c r="D69" s="329"/>
+      <c r="C69" s="370"/>
+      <c r="D69" s="374"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -8341,16 +8353,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="F47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
@@ -8367,20 +8383,16 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -8555,91 +8567,91 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="338" t="s">
+      <c r="K6" s="328" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="339"/>
-      <c r="M6" s="339"/>
-      <c r="N6" s="340"/>
-      <c r="O6" s="341" t="s">
+      <c r="L6" s="338"/>
+      <c r="M6" s="338"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="342"/>
-      <c r="Q6" s="342"/>
-      <c r="R6" s="342"/>
-      <c r="S6" s="342"/>
-      <c r="T6" s="343"/>
+      <c r="P6" s="340"/>
+      <c r="Q6" s="340"/>
+      <c r="R6" s="340"/>
+      <c r="S6" s="340"/>
+      <c r="T6" s="341"/>
     </row>
     <row r="7" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="353" t="s">
+      <c r="D7" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="354"/>
-      <c r="F7" s="359" t="s">
+      <c r="E7" s="359"/>
+      <c r="F7" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="354"/>
-      <c r="H7" s="351" t="s">
+      <c r="G7" s="359"/>
+      <c r="H7" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="344" t="s">
+      <c r="I7" s="357"/>
+      <c r="J7" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="338" t="s">
+      <c r="K7" s="328" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="373" t="s">
+      <c r="L7" s="329"/>
+      <c r="M7" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="374"/>
-      <c r="O7" s="362" t="s">
+      <c r="N7" s="331"/>
+      <c r="O7" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="363"/>
-      <c r="Q7" s="363"/>
-      <c r="R7" s="363"/>
-      <c r="S7" s="363"/>
-      <c r="T7" s="364"/>
+      <c r="P7" s="318"/>
+      <c r="Q7" s="318"/>
+      <c r="R7" s="318"/>
+      <c r="S7" s="318"/>
+      <c r="T7" s="319"/>
     </row>
     <row r="8" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="357" t="s">
+      <c r="E8" s="315" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="375" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="347" t="s">
+      <c r="H8" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="349" t="s">
+      <c r="I8" s="354" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="345"/>
-      <c r="K8" s="365" t="s">
+      <c r="J8" s="350"/>
+      <c r="K8" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="365" t="s">
+      <c r="L8" s="320" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="367" t="s">
+      <c r="M8" s="322" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="369" t="s">
+      <c r="N8" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="375" t="s">
+      <c r="O8" s="377" t="s">
         <v>59</v>
       </c>
       <c r="P8" s="123" t="s">
@@ -8654,31 +8666,31 @@
       <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="371" t="s">
+      <c r="T8" s="326" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="346"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366" t="s">
+      <c r="D9" s="361"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="323">
         <v>0.8</v>
       </c>
-      <c r="N9" s="370" t="s">
+      <c r="N9" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="376"/>
+      <c r="O9" s="378"/>
       <c r="P9" s="123" t="s">
         <v>111</v>
       </c>
@@ -8691,7 +8703,7 @@
       <c r="S9" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="372" t="s">
+      <c r="T9" s="327" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9451,36 +9463,36 @@
     </row>
     <row r="22" spans="2:20" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:20">
-      <c r="C23" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="319"/>
+      <c r="C23" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="343"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="318">
+      <c r="F23" s="342">
         <v>8</v>
       </c>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330"/>
-      <c r="K23" s="330"/>
-      <c r="L23" s="330"/>
-      <c r="M23" s="330"/>
-      <c r="N23" s="330"/>
-      <c r="O23" s="330"/>
-      <c r="P23" s="330"/>
-      <c r="Q23" s="330"/>
-      <c r="R23" s="330"/>
-      <c r="S23" s="331"/>
-      <c r="T23" s="315" t="s">
+      <c r="G23" s="344"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
+      <c r="K23" s="344"/>
+      <c r="L23" s="344"/>
+      <c r="M23" s="344"/>
+      <c r="N23" s="344"/>
+      <c r="O23" s="344"/>
+      <c r="P23" s="344"/>
+      <c r="Q23" s="344"/>
+      <c r="R23" s="344"/>
+      <c r="S23" s="345"/>
+      <c r="T23" s="346" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="C24" s="320" t="s">
+      <c r="C24" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="321"/>
+      <c r="D24" s="366"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>9</v>
@@ -9524,13 +9536,13 @@
       <c r="S24" s="91">
         <v>22</v>
       </c>
-      <c r="T24" s="316"/>
+      <c r="T24" s="347"/>
     </row>
     <row r="25" spans="2:20" ht="14.25" thickBot="1">
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="323"/>
+      <c r="D25" s="368"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>117</v>
@@ -9574,13 +9586,13 @@
       <c r="S25" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T25" s="317"/>
+      <c r="T25" s="348"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="C26" s="324" t="s">
+      <c r="C26" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="326" t="s">
+      <c r="D26" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="str">
@@ -9617,8 +9629,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="C27" s="324"/>
-      <c r="D27" s="326"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="371"/>
       <c r="E27" s="97"/>
       <c r="F27" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F27="","",'55宮本希(第１Q)'!F27)</f>
@@ -9667,8 +9679,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="C28" s="324"/>
-      <c r="D28" s="326"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="371"/>
       <c r="E28" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -9713,8 +9725,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" ht="17.25">
-      <c r="C29" s="324"/>
-      <c r="D29" s="326"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="371"/>
       <c r="E29" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -9759,8 +9771,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="C30" s="324"/>
-      <c r="D30" s="326"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="371"/>
       <c r="E30" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -9803,8 +9815,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="C31" s="324"/>
-      <c r="D31" s="326"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="371"/>
       <c r="E31" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -9847,8 +9859,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="C32" s="324"/>
-      <c r="D32" s="326"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="371"/>
       <c r="E32" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -9891,8 +9903,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" ht="17.25">
-      <c r="C33" s="324"/>
-      <c r="D33" s="326"/>
+      <c r="C33" s="369"/>
+      <c r="D33" s="371"/>
       <c r="E33" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -9935,8 +9947,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" ht="17.25">
-      <c r="C34" s="324"/>
-      <c r="D34" s="326"/>
+      <c r="C34" s="369"/>
+      <c r="D34" s="371"/>
       <c r="E34" s="97"/>
       <c r="F34" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F34="","",'55宮本希(第１Q)'!F34)</f>
@@ -9976,8 +9988,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" ht="18" thickBot="1">
-      <c r="C35" s="324"/>
-      <c r="D35" s="327"/>
+      <c r="C35" s="369"/>
+      <c r="D35" s="372"/>
       <c r="E35" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10020,8 +10032,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" ht="17.25">
-      <c r="C36" s="324"/>
-      <c r="D36" s="328" t="s">
+      <c r="C36" s="369"/>
+      <c r="D36" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="str">
@@ -10090,8 +10102,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" ht="17.25">
-      <c r="C37" s="324"/>
-      <c r="D37" s="326"/>
+      <c r="C37" s="369"/>
+      <c r="D37" s="371"/>
       <c r="E37" s="31"/>
       <c r="F37" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F37="","",'55宮本希(第１Q)'!F37)</f>
@@ -10155,8 +10167,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" ht="17.25">
-      <c r="C38" s="324"/>
-      <c r="D38" s="326"/>
+      <c r="C38" s="369"/>
+      <c r="D38" s="371"/>
       <c r="E38" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10223,8 +10235,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" ht="17.25">
-      <c r="C39" s="324"/>
-      <c r="D39" s="326"/>
+      <c r="C39" s="369"/>
+      <c r="D39" s="371"/>
       <c r="E39" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10291,8 +10303,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" ht="17.25">
-      <c r="C40" s="324"/>
-      <c r="D40" s="326"/>
+      <c r="C40" s="369"/>
+      <c r="D40" s="371"/>
       <c r="E40" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10359,8 +10371,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" ht="17.25">
-      <c r="C41" s="324"/>
-      <c r="D41" s="326"/>
+      <c r="C41" s="369"/>
+      <c r="D41" s="371"/>
       <c r="E41" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -10427,8 +10439,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" ht="17.25">
-      <c r="C42" s="324"/>
-      <c r="D42" s="326"/>
+      <c r="C42" s="369"/>
+      <c r="D42" s="371"/>
       <c r="E42" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -10495,8 +10507,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="17.25">
-      <c r="C43" s="324"/>
-      <c r="D43" s="326"/>
+      <c r="C43" s="369"/>
+      <c r="D43" s="371"/>
       <c r="E43" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -10563,8 +10575,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" ht="17.25">
-      <c r="C44" s="324"/>
-      <c r="D44" s="326"/>
+      <c r="C44" s="369"/>
+      <c r="D44" s="371"/>
       <c r="E44" s="31"/>
       <c r="F44" s="166" t="str">
         <f>IF('55宮本希(第１Q)'!F44="","",'55宮本希(第１Q)'!F44)</f>
@@ -10628,8 +10640,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" ht="18" thickBot="1">
-      <c r="C45" s="325"/>
-      <c r="D45" s="329"/>
+      <c r="C45" s="370"/>
+      <c r="D45" s="374"/>
       <c r="E45" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -10700,38 +10712,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:20">
-      <c r="C47" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="319"/>
+      <c r="C47" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="343"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="318">
+      <c r="F47" s="342">
         <v>8</v>
       </c>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
-      <c r="J47" s="330"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="330"/>
-      <c r="N47" s="330"/>
-      <c r="O47" s="330">
+      <c r="G47" s="344"/>
+      <c r="H47" s="344"/>
+      <c r="I47" s="344"/>
+      <c r="J47" s="344"/>
+      <c r="K47" s="344"/>
+      <c r="L47" s="344"/>
+      <c r="M47" s="344"/>
+      <c r="N47" s="344"/>
+      <c r="O47" s="344">
         <v>9</v>
       </c>
-      <c r="P47" s="330"/>
-      <c r="Q47" s="330"/>
-      <c r="R47" s="330"/>
-      <c r="S47" s="331"/>
-      <c r="T47" s="315" t="s">
+      <c r="P47" s="344"/>
+      <c r="Q47" s="344"/>
+      <c r="R47" s="344"/>
+      <c r="S47" s="345"/>
+      <c r="T47" s="346" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:20">
-      <c r="C48" s="320" t="s">
+      <c r="C48" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="321"/>
+      <c r="D48" s="366"/>
       <c r="E48" s="78"/>
       <c r="F48" s="144">
         <v>23</v>
@@ -10775,13 +10787,13 @@
       <c r="S48" s="91">
         <v>5</v>
       </c>
-      <c r="T48" s="316"/>
+      <c r="T48" s="347"/>
     </row>
     <row r="49" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C49" s="322" t="s">
+      <c r="C49" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="323"/>
+      <c r="D49" s="368"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>117</v>
@@ -10825,13 +10837,13 @@
       <c r="S49" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="317"/>
+      <c r="T49" s="348"/>
     </row>
     <row r="50" spans="3:20" ht="17.25">
-      <c r="C50" s="324" t="s">
+      <c r="C50" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="326" t="s">
+      <c r="D50" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="str">
@@ -10866,8 +10878,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" ht="17.25">
-      <c r="C51" s="324"/>
-      <c r="D51" s="326"/>
+      <c r="C51" s="369"/>
+      <c r="D51" s="371"/>
       <c r="E51" s="97"/>
       <c r="F51" s="147"/>
       <c r="G51" s="73"/>
@@ -10889,8 +10901,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" ht="17.25">
-      <c r="C52" s="324"/>
-      <c r="D52" s="326"/>
+      <c r="C52" s="369"/>
+      <c r="D52" s="371"/>
       <c r="E52" s="97" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -10921,8 +10933,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" ht="17.25">
-      <c r="C53" s="324"/>
-      <c r="D53" s="326"/>
+      <c r="C53" s="369"/>
+      <c r="D53" s="371"/>
       <c r="E53" s="97" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -10953,8 +10965,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" ht="18.75">
-      <c r="C54" s="324"/>
-      <c r="D54" s="326"/>
+      <c r="C54" s="369"/>
+      <c r="D54" s="371"/>
       <c r="E54" s="97" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -10985,8 +10997,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" ht="17.25">
-      <c r="C55" s="324"/>
-      <c r="D55" s="326"/>
+      <c r="C55" s="369"/>
+      <c r="D55" s="371"/>
       <c r="E55" s="97">
         <f>$C$15</f>
         <v>0</v>
@@ -11011,8 +11023,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" ht="17.25">
-      <c r="C56" s="324"/>
-      <c r="D56" s="326"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="371"/>
       <c r="E56" s="97" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -11043,8 +11055,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="17.25">
-      <c r="C57" s="324"/>
-      <c r="D57" s="326"/>
+      <c r="C57" s="369"/>
+      <c r="D57" s="371"/>
       <c r="E57" s="97" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -11073,8 +11085,8 @@
       </c>
     </row>
     <row r="58" spans="3:20" ht="17.25">
-      <c r="C58" s="324"/>
-      <c r="D58" s="326"/>
+      <c r="C58" s="369"/>
+      <c r="D58" s="371"/>
       <c r="E58" s="97"/>
       <c r="F58" s="147"/>
       <c r="G58" s="73"/>
@@ -11096,8 +11108,8 @@
       </c>
     </row>
     <row r="59" spans="3:20" ht="18" thickBot="1">
-      <c r="C59" s="324"/>
-      <c r="D59" s="327"/>
+      <c r="C59" s="369"/>
+      <c r="D59" s="372"/>
       <c r="E59" s="98" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -11122,8 +11134,8 @@
       </c>
     </row>
     <row r="60" spans="3:20" ht="17.25">
-      <c r="C60" s="324"/>
-      <c r="D60" s="328" t="s">
+      <c r="C60" s="369"/>
+      <c r="D60" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="str">
@@ -11150,8 +11162,8 @@
       </c>
     </row>
     <row r="61" spans="3:20" ht="17.25">
-      <c r="C61" s="324"/>
-      <c r="D61" s="326"/>
+      <c r="C61" s="369"/>
+      <c r="D61" s="371"/>
       <c r="E61" s="31"/>
       <c r="F61" s="147"/>
       <c r="G61" s="73"/>
@@ -11173,8 +11185,8 @@
       </c>
     </row>
     <row r="62" spans="3:20" ht="17.25">
-      <c r="C62" s="324"/>
-      <c r="D62" s="326"/>
+      <c r="C62" s="369"/>
+      <c r="D62" s="371"/>
       <c r="E62" s="31" t="str">
         <f>$C$12</f>
         <v>HTML・CSS</v>
@@ -11199,8 +11211,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" ht="17.25">
-      <c r="C63" s="324"/>
-      <c r="D63" s="326"/>
+      <c r="C63" s="369"/>
+      <c r="D63" s="371"/>
       <c r="E63" s="31" t="str">
         <f>$C$13</f>
         <v>PG基礎</v>
@@ -11225,8 +11237,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" ht="17.25">
-      <c r="C64" s="324"/>
-      <c r="D64" s="326"/>
+      <c r="C64" s="369"/>
+      <c r="D64" s="371"/>
       <c r="E64" s="31" t="str">
         <f>$C$14</f>
         <v>Unity</v>
@@ -11251,8 +11263,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" ht="17.25">
-      <c r="C65" s="324"/>
-      <c r="D65" s="326"/>
+      <c r="C65" s="369"/>
+      <c r="D65" s="371"/>
       <c r="E65" s="31">
         <f>$C$15</f>
         <v>0</v>
@@ -11277,8 +11289,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" ht="17.25">
-      <c r="C66" s="324"/>
-      <c r="D66" s="326"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="371"/>
       <c r="E66" s="31" t="str">
         <f>$C$16</f>
         <v>情報システム</v>
@@ -11303,8 +11315,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" ht="17.25">
-      <c r="C67" s="324"/>
-      <c r="D67" s="326"/>
+      <c r="C67" s="369"/>
+      <c r="D67" s="371"/>
       <c r="E67" s="31" t="str">
         <f>$C$17</f>
         <v>プレゼン</v>
@@ -11329,8 +11341,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" ht="17.25">
-      <c r="C68" s="324"/>
-      <c r="D68" s="326"/>
+      <c r="C68" s="369"/>
+      <c r="D68" s="371"/>
       <c r="E68" s="31"/>
       <c r="F68" s="147"/>
       <c r="G68" s="73"/>
@@ -11352,8 +11364,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" ht="18" thickBot="1">
-      <c r="C69" s="325"/>
-      <c r="D69" s="329"/>
+      <c r="C69" s="370"/>
+      <c r="D69" s="374"/>
       <c r="E69" s="99" t="str">
         <f>$C$19</f>
         <v>eスポーツ</v>
@@ -11383,18 +11395,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:N47"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="C23:D23"/>
@@ -11411,18 +11423,18 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:N47"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -11593,96 +11605,96 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="338" t="s">
+      <c r="K6" s="328" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="339"/>
-      <c r="M6" s="339"/>
-      <c r="N6" s="340"/>
-      <c r="O6" s="365" t="s">
+      <c r="L6" s="338"/>
+      <c r="M6" s="338"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="320" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="342" t="s">
+      <c r="P6" s="340" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="342"/>
-      <c r="R6" s="342"/>
-      <c r="S6" s="342"/>
-      <c r="T6" s="342"/>
-      <c r="U6" s="343"/>
+      <c r="Q6" s="340"/>
+      <c r="R6" s="340"/>
+      <c r="S6" s="340"/>
+      <c r="T6" s="340"/>
+      <c r="U6" s="341"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="353" t="s">
+      <c r="D7" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="354"/>
-      <c r="F7" s="359" t="s">
+      <c r="E7" s="359"/>
+      <c r="F7" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="354"/>
-      <c r="H7" s="351" t="s">
+      <c r="G7" s="359"/>
+      <c r="H7" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="344" t="s">
+      <c r="I7" s="357"/>
+      <c r="J7" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="338" t="s">
+      <c r="K7" s="328" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="373" t="s">
+      <c r="L7" s="329"/>
+      <c r="M7" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="374"/>
+      <c r="N7" s="331"/>
       <c r="O7" s="384"/>
-      <c r="P7" s="363" t="s">
+      <c r="P7" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="363"/>
-      <c r="R7" s="363"/>
-      <c r="S7" s="363"/>
-      <c r="T7" s="363"/>
-      <c r="U7" s="364"/>
+      <c r="Q7" s="318"/>
+      <c r="R7" s="318"/>
+      <c r="S7" s="318"/>
+      <c r="T7" s="318"/>
+      <c r="U7" s="319"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="357" t="s">
+      <c r="E8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="375" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="347" t="s">
+      <c r="H8" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="349" t="s">
+      <c r="I8" s="354" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="345"/>
-      <c r="K8" s="365" t="s">
+      <c r="J8" s="350"/>
+      <c r="K8" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="365" t="s">
+      <c r="L8" s="320" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="367" t="s">
+      <c r="M8" s="322" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="369" t="s">
+      <c r="N8" s="324" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="384"/>
-      <c r="P8" s="385" t="s">
+      <c r="P8" s="379" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="123" t="s">
@@ -11697,32 +11709,32 @@
       <c r="T8" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="371" t="s">
+      <c r="U8" s="326" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="346"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366" t="s">
+      <c r="D9" s="361"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="323">
         <v>0.8</v>
       </c>
-      <c r="N9" s="370" t="s">
+      <c r="N9" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="366"/>
-      <c r="P9" s="386"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="380"/>
       <c r="Q9" s="123" t="s">
         <v>149</v>
       </c>
@@ -11735,7 +11747,7 @@
       <c r="T9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="372" t="s">
+      <c r="U9" s="327" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12563,38 +12575,38 @@
     </row>
     <row r="22" spans="2:22" ht="14.25" thickBot="1"/>
     <row r="23" spans="2:22">
-      <c r="C23" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="319"/>
+      <c r="C23" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="343"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="382">
+      <c r="F23" s="385">
         <v>11</v>
       </c>
-      <c r="G23" s="383"/>
-      <c r="H23" s="383"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
-      <c r="K23" s="383"/>
-      <c r="L23" s="383"/>
-      <c r="M23" s="383"/>
-      <c r="N23" s="383"/>
-      <c r="O23" s="383"/>
-      <c r="P23" s="383"/>
-      <c r="Q23" s="383"/>
-      <c r="R23" s="383"/>
-      <c r="S23" s="383"/>
-      <c r="T23" s="383"/>
-      <c r="U23" s="379"/>
-      <c r="V23" s="379" t="s">
+      <c r="G23" s="386"/>
+      <c r="H23" s="386"/>
+      <c r="I23" s="386"/>
+      <c r="J23" s="386"/>
+      <c r="K23" s="386"/>
+      <c r="L23" s="386"/>
+      <c r="M23" s="386"/>
+      <c r="N23" s="386"/>
+      <c r="O23" s="386"/>
+      <c r="P23" s="386"/>
+      <c r="Q23" s="386"/>
+      <c r="R23" s="386"/>
+      <c r="S23" s="386"/>
+      <c r="T23" s="386"/>
+      <c r="U23" s="381"/>
+      <c r="V23" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="2:22">
-      <c r="C24" s="320" t="s">
+      <c r="C24" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="321"/>
+      <c r="D24" s="366"/>
       <c r="E24" s="78"/>
       <c r="F24" s="81">
         <v>16</v>
@@ -12642,13 +12654,13 @@
         <v>30</v>
       </c>
       <c r="U24" s="91"/>
-      <c r="V24" s="380"/>
+      <c r="V24" s="382"/>
     </row>
     <row r="25" spans="2:22" ht="14.25" thickBot="1">
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="323"/>
+      <c r="D25" s="368"/>
       <c r="E25" s="79"/>
       <c r="F25" s="82" t="s">
         <v>145</v>
@@ -12696,13 +12708,13 @@
         <v>118</v>
       </c>
       <c r="U25" s="203"/>
-      <c r="V25" s="381"/>
+      <c r="V25" s="383"/>
     </row>
     <row r="26" spans="2:22" ht="17.25">
-      <c r="C26" s="324" t="s">
+      <c r="C26" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="326" t="s">
+      <c r="D26" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="96" t="s">
@@ -12732,8 +12744,8 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="17.25">
-      <c r="C27" s="324"/>
-      <c r="D27" s="326"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="371"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -12759,8 +12771,8 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="17.25">
-      <c r="C28" s="324"/>
-      <c r="D28" s="326"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="371"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -12788,8 +12800,8 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="17.25">
-      <c r="C29" s="324"/>
-      <c r="D29" s="326"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="371"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -12821,8 +12833,8 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="17.25">
-      <c r="C30" s="324"/>
-      <c r="D30" s="326"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="371"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -12848,8 +12860,8 @@
       </c>
     </row>
     <row r="31" spans="2:22" ht="17.25">
-      <c r="C31" s="324"/>
-      <c r="D31" s="326"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="371"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -12877,8 +12889,8 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="17.25">
-      <c r="C32" s="324"/>
-      <c r="D32" s="326"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="371"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -12904,8 +12916,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="324"/>
-      <c r="D33" s="326"/>
+      <c r="C33" s="369"/>
+      <c r="D33" s="371"/>
       <c r="E33" s="97" t="s">
         <v>140</v>
       </c>
@@ -12935,8 +12947,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="17.25">
-      <c r="C34" s="324"/>
-      <c r="D34" s="326"/>
+      <c r="C34" s="369"/>
+      <c r="D34" s="371"/>
       <c r="E34" s="97" t="s">
         <v>141</v>
       </c>
@@ -12966,8 +12978,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="18" thickBot="1">
-      <c r="C35" s="324"/>
-      <c r="D35" s="327"/>
+      <c r="C35" s="369"/>
+      <c r="D35" s="372"/>
       <c r="E35" s="98" t="s">
         <v>142</v>
       </c>
@@ -12993,8 +13005,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="324"/>
-      <c r="D36" s="328" t="s">
+      <c r="C36" s="369"/>
+      <c r="D36" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -13022,8 +13034,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="324"/>
-      <c r="D37" s="326"/>
+      <c r="C37" s="369"/>
+      <c r="D37" s="371"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -13065,8 +13077,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="324"/>
-      <c r="D38" s="326"/>
+      <c r="C38" s="369"/>
+      <c r="D38" s="371"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -13092,8 +13104,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="324"/>
-      <c r="D39" s="326"/>
+      <c r="C39" s="369"/>
+      <c r="D39" s="371"/>
       <c r="E39" s="31" t="s">
         <v>170</v>
       </c>
@@ -13125,8 +13137,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="324"/>
-      <c r="D40" s="326"/>
+      <c r="C40" s="369"/>
+      <c r="D40" s="371"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -13152,8 +13164,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="324"/>
-      <c r="D41" s="326"/>
+      <c r="C41" s="369"/>
+      <c r="D41" s="371"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -13179,8 +13191,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="324"/>
-      <c r="D42" s="326"/>
+      <c r="C42" s="369"/>
+      <c r="D42" s="371"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -13206,8 +13218,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="324"/>
-      <c r="D43" s="326"/>
+      <c r="C43" s="369"/>
+      <c r="D43" s="371"/>
       <c r="E43" s="31" t="s">
         <v>140</v>
       </c>
@@ -13233,8 +13245,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="17.25">
-      <c r="C44" s="324"/>
-      <c r="D44" s="326"/>
+      <c r="C44" s="369"/>
+      <c r="D44" s="371"/>
       <c r="E44" s="31" t="s">
         <v>141</v>
       </c>
@@ -13260,8 +13272,8 @@
       </c>
     </row>
     <row r="45" spans="3:22" ht="18" thickBot="1">
-      <c r="C45" s="325"/>
-      <c r="D45" s="329"/>
+      <c r="C45" s="370"/>
+      <c r="D45" s="374"/>
       <c r="E45" s="99" t="s">
         <v>142</v>
       </c>
@@ -13291,38 +13303,38 @@
       <c r="D46" s="72"/>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="319"/>
+      <c r="C47" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="343"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="382">
+      <c r="F47" s="385">
         <v>12</v>
       </c>
-      <c r="G47" s="383"/>
-      <c r="H47" s="383"/>
-      <c r="I47" s="383"/>
-      <c r="J47" s="383"/>
-      <c r="K47" s="383"/>
-      <c r="L47" s="383"/>
-      <c r="M47" s="383"/>
-      <c r="N47" s="383"/>
-      <c r="O47" s="383"/>
-      <c r="P47" s="383"/>
-      <c r="Q47" s="383"/>
-      <c r="R47" s="383"/>
-      <c r="S47" s="383"/>
-      <c r="T47" s="383"/>
-      <c r="U47" s="379"/>
-      <c r="V47" s="379" t="s">
+      <c r="G47" s="386"/>
+      <c r="H47" s="386"/>
+      <c r="I47" s="386"/>
+      <c r="J47" s="386"/>
+      <c r="K47" s="386"/>
+      <c r="L47" s="386"/>
+      <c r="M47" s="386"/>
+      <c r="N47" s="386"/>
+      <c r="O47" s="386"/>
+      <c r="P47" s="386"/>
+      <c r="Q47" s="386"/>
+      <c r="R47" s="386"/>
+      <c r="S47" s="386"/>
+      <c r="T47" s="386"/>
+      <c r="U47" s="381"/>
+      <c r="V47" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:22">
-      <c r="C48" s="320" t="s">
+      <c r="C48" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="321"/>
+      <c r="D48" s="366"/>
       <c r="E48" s="78"/>
       <c r="F48" s="81">
         <v>1</v>
@@ -13370,13 +13382,13 @@
         <v>15</v>
       </c>
       <c r="U48" s="91"/>
-      <c r="V48" s="380"/>
+      <c r="V48" s="382"/>
     </row>
     <row r="49" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C49" s="322" t="s">
+      <c r="C49" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="323"/>
+      <c r="D49" s="368"/>
       <c r="E49" s="79"/>
       <c r="F49" s="145" t="s">
         <v>146</v>
@@ -13424,13 +13436,13 @@
         <v>119</v>
       </c>
       <c r="U49" s="203"/>
-      <c r="V49" s="381"/>
+      <c r="V49" s="383"/>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="324" t="s">
+      <c r="C50" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="326" t="s">
+      <c r="D50" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E50" s="96" t="s">
@@ -13458,8 +13470,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="324"/>
-      <c r="D51" s="326"/>
+      <c r="C51" s="369"/>
+      <c r="D51" s="371"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -13485,8 +13497,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="324"/>
-      <c r="D52" s="326"/>
+      <c r="C52" s="369"/>
+      <c r="D52" s="371"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -13512,8 +13524,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="324"/>
-      <c r="D53" s="326"/>
+      <c r="C53" s="369"/>
+      <c r="D53" s="371"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -13549,8 +13561,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="324"/>
-      <c r="D54" s="326"/>
+      <c r="C54" s="369"/>
+      <c r="D54" s="371"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -13592,8 +13604,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="324"/>
-      <c r="D55" s="326"/>
+      <c r="C55" s="369"/>
+      <c r="D55" s="371"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -13629,8 +13641,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="324"/>
-      <c r="D56" s="326"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="371"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -13658,8 +13670,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="324"/>
-      <c r="D57" s="326"/>
+      <c r="C57" s="369"/>
+      <c r="D57" s="371"/>
       <c r="E57" s="97" t="s">
         <v>140</v>
       </c>
@@ -13685,8 +13697,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="17.25">
-      <c r="C58" s="324"/>
-      <c r="D58" s="326"/>
+      <c r="C58" s="369"/>
+      <c r="D58" s="371"/>
       <c r="E58" s="97" t="s">
         <v>141</v>
       </c>
@@ -13712,8 +13724,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="18" thickBot="1">
-      <c r="C59" s="324"/>
-      <c r="D59" s="327"/>
+      <c r="C59" s="369"/>
+      <c r="D59" s="372"/>
       <c r="E59" s="98" t="s">
         <v>142</v>
       </c>
@@ -13751,8 +13763,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="324"/>
-      <c r="D60" s="328" t="s">
+      <c r="C60" s="369"/>
+      <c r="D60" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="32" t="s">
@@ -13780,8 +13792,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="324"/>
-      <c r="D61" s="326"/>
+      <c r="C61" s="369"/>
+      <c r="D61" s="371"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -13807,8 +13819,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="324"/>
-      <c r="D62" s="326"/>
+      <c r="C62" s="369"/>
+      <c r="D62" s="371"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -13834,8 +13846,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="324"/>
-      <c r="D63" s="326"/>
+      <c r="C63" s="369"/>
+      <c r="D63" s="371"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -13861,8 +13873,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="324"/>
-      <c r="D64" s="326"/>
+      <c r="C64" s="369"/>
+      <c r="D64" s="371"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -13892,8 +13904,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="324"/>
-      <c r="D65" s="326"/>
+      <c r="C65" s="369"/>
+      <c r="D65" s="371"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -13919,8 +13931,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="324"/>
-      <c r="D66" s="326"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="371"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -13946,8 +13958,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="324"/>
-      <c r="D67" s="326"/>
+      <c r="C67" s="369"/>
+      <c r="D67" s="371"/>
       <c r="E67" s="31" t="s">
         <v>140</v>
       </c>
@@ -13973,8 +13985,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="17.25">
-      <c r="C68" s="324"/>
-      <c r="D68" s="326"/>
+      <c r="C68" s="369"/>
+      <c r="D68" s="371"/>
       <c r="E68" s="31" t="s">
         <v>141</v>
       </c>
@@ -14000,8 +14012,8 @@
       </c>
     </row>
     <row r="69" spans="3:22" ht="18" thickBot="1">
-      <c r="C69" s="325"/>
-      <c r="D69" s="329"/>
+      <c r="C69" s="370"/>
+      <c r="D69" s="374"/>
       <c r="E69" s="99" t="s">
         <v>142</v>
       </c>
@@ -14031,38 +14043,38 @@
       <c r="D70" s="72"/>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="319"/>
+      <c r="C71" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="343"/>
       <c r="E71" s="77"/>
-      <c r="F71" s="382">
+      <c r="F71" s="385">
         <v>12</v>
       </c>
-      <c r="G71" s="383"/>
-      <c r="H71" s="383"/>
-      <c r="I71" s="383"/>
-      <c r="J71" s="383"/>
-      <c r="K71" s="383"/>
-      <c r="L71" s="383"/>
-      <c r="M71" s="383"/>
-      <c r="N71" s="383"/>
-      <c r="O71" s="383"/>
-      <c r="P71" s="383"/>
-      <c r="Q71" s="383"/>
-      <c r="R71" s="383"/>
-      <c r="S71" s="383"/>
-      <c r="T71" s="383"/>
-      <c r="U71" s="379"/>
-      <c r="V71" s="379" t="s">
+      <c r="G71" s="386"/>
+      <c r="H71" s="386"/>
+      <c r="I71" s="386"/>
+      <c r="J71" s="386"/>
+      <c r="K71" s="386"/>
+      <c r="L71" s="386"/>
+      <c r="M71" s="386"/>
+      <c r="N71" s="386"/>
+      <c r="O71" s="386"/>
+      <c r="P71" s="386"/>
+      <c r="Q71" s="386"/>
+      <c r="R71" s="386"/>
+      <c r="S71" s="386"/>
+      <c r="T71" s="386"/>
+      <c r="U71" s="381"/>
+      <c r="V71" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="3:22">
-      <c r="C72" s="320" t="s">
+      <c r="C72" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="321"/>
+      <c r="D72" s="366"/>
       <c r="E72" s="78"/>
       <c r="F72" s="81">
         <v>16</v>
@@ -14112,13 +14124,13 @@
       <c r="U72" s="91">
         <v>31</v>
       </c>
-      <c r="V72" s="380"/>
+      <c r="V72" s="382"/>
     </row>
     <row r="73" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C73" s="322" t="s">
+      <c r="C73" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="323"/>
+      <c r="D73" s="368"/>
       <c r="E73" s="79"/>
       <c r="F73" s="145" t="s">
         <v>147</v>
@@ -14168,13 +14180,13 @@
       <c r="U73" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V73" s="381"/>
+      <c r="V73" s="383"/>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="324" t="s">
+      <c r="C74" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="326" t="s">
+      <c r="D74" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="96" t="s">
@@ -14202,8 +14214,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="324"/>
-      <c r="D75" s="326"/>
+      <c r="C75" s="369"/>
+      <c r="D75" s="371"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -14229,8 +14241,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="324"/>
-      <c r="D76" s="326"/>
+      <c r="C76" s="369"/>
+      <c r="D76" s="371"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -14256,8 +14268,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="324"/>
-      <c r="D77" s="326"/>
+      <c r="C77" s="369"/>
+      <c r="D77" s="371"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -14283,8 +14295,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="324"/>
-      <c r="D78" s="326"/>
+      <c r="C78" s="369"/>
+      <c r="D78" s="371"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -14324,8 +14336,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="324"/>
-      <c r="D79" s="326"/>
+      <c r="C79" s="369"/>
+      <c r="D79" s="371"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -14351,8 +14363,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="324"/>
-      <c r="D80" s="326"/>
+      <c r="C80" s="369"/>
+      <c r="D80" s="371"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -14378,8 +14390,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="324"/>
-      <c r="D81" s="326"/>
+      <c r="C81" s="369"/>
+      <c r="D81" s="371"/>
       <c r="E81" s="97" t="s">
         <v>140</v>
       </c>
@@ -14405,8 +14417,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="17.25">
-      <c r="C82" s="324"/>
-      <c r="D82" s="326"/>
+      <c r="C82" s="369"/>
+      <c r="D82" s="371"/>
       <c r="E82" s="97" t="s">
         <v>141</v>
       </c>
@@ -14432,8 +14444,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="18" thickBot="1">
-      <c r="C83" s="324"/>
-      <c r="D83" s="327"/>
+      <c r="C83" s="369"/>
+      <c r="D83" s="372"/>
       <c r="E83" s="98" t="s">
         <v>142</v>
       </c>
@@ -14475,8 +14487,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="324"/>
-      <c r="D84" s="328" t="s">
+      <c r="C84" s="369"/>
+      <c r="D84" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="32" t="s">
@@ -14504,8 +14516,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="324"/>
-      <c r="D85" s="326"/>
+      <c r="C85" s="369"/>
+      <c r="D85" s="371"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -14531,8 +14543,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="324"/>
-      <c r="D86" s="326"/>
+      <c r="C86" s="369"/>
+      <c r="D86" s="371"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -14558,8 +14570,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="324"/>
-      <c r="D87" s="326"/>
+      <c r="C87" s="369"/>
+      <c r="D87" s="371"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -14585,8 +14597,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="324"/>
-      <c r="D88" s="326"/>
+      <c r="C88" s="369"/>
+      <c r="D88" s="371"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -14612,8 +14624,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="324"/>
-      <c r="D89" s="326"/>
+      <c r="C89" s="369"/>
+      <c r="D89" s="371"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -14639,8 +14651,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="324"/>
-      <c r="D90" s="326"/>
+      <c r="C90" s="369"/>
+      <c r="D90" s="371"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -14666,8 +14678,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="324"/>
-      <c r="D91" s="326"/>
+      <c r="C91" s="369"/>
+      <c r="D91" s="371"/>
       <c r="E91" s="31" t="s">
         <v>140</v>
       </c>
@@ -14693,8 +14705,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="17.25">
-      <c r="C92" s="324"/>
-      <c r="D92" s="326"/>
+      <c r="C92" s="369"/>
+      <c r="D92" s="371"/>
       <c r="E92" s="31" t="s">
         <v>141</v>
       </c>
@@ -14720,8 +14732,8 @@
       </c>
     </row>
     <row r="93" spans="3:22" ht="18" thickBot="1">
-      <c r="C93" s="325"/>
-      <c r="D93" s="329"/>
+      <c r="C93" s="370"/>
+      <c r="D93" s="374"/>
       <c r="E93" s="99" t="s">
         <v>142</v>
       </c>
@@ -14750,19 +14762,25 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:C69"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:C93"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="D84:D93"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:U71"/>
+    <mergeCell ref="C26:C45"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:U47"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="V23:V25"/>
     <mergeCell ref="C24:D24"/>
@@ -14779,25 +14797,19 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C26:C45"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:U47"/>
-    <mergeCell ref="C74:C93"/>
-    <mergeCell ref="D74:D83"/>
-    <mergeCell ref="D84:D93"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:U71"/>
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:C69"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -14968,13 +14980,13 @@
       <c r="H6" s="336"/>
       <c r="I6" s="336"/>
       <c r="J6" s="337"/>
-      <c r="K6" s="338" t="s">
+      <c r="K6" s="328" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="339"/>
-      <c r="M6" s="339"/>
-      <c r="N6" s="340"/>
-      <c r="O6" s="365" t="s">
+      <c r="L6" s="338"/>
+      <c r="M6" s="338"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="320" t="s">
         <v>144</v>
       </c>
       <c r="P6" s="387" t="s">
@@ -14990,29 +15002,29 @@
     <row r="7" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="353" t="s">
+      <c r="D7" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="354"/>
-      <c r="F7" s="359" t="s">
+      <c r="E7" s="359"/>
+      <c r="F7" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="354"/>
-      <c r="H7" s="351" t="s">
+      <c r="G7" s="359"/>
+      <c r="H7" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="344" t="s">
+      <c r="I7" s="357"/>
+      <c r="J7" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="338" t="s">
+      <c r="K7" s="328" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="373" t="s">
+      <c r="L7" s="329"/>
+      <c r="M7" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="374"/>
+      <c r="N7" s="331"/>
       <c r="O7" s="384"/>
       <c r="P7" s="390" t="s">
         <v>81</v>
@@ -15027,39 +15039,39 @@
     <row r="8" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="357" t="s">
+      <c r="E8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="375" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="347" t="s">
+      <c r="H8" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="349" t="s">
+      <c r="I8" s="354" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="345"/>
-      <c r="K8" s="365" t="s">
+      <c r="J8" s="350"/>
+      <c r="K8" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="365" t="s">
+      <c r="L8" s="320" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="367" t="s">
+      <c r="M8" s="322" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="369" t="s">
+      <c r="N8" s="324" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="384"/>
-      <c r="P8" s="385" t="s">
+      <c r="P8" s="379" t="s">
         <v>59</v>
       </c>
       <c r="Q8" s="124" t="s">
@@ -15080,32 +15092,32 @@
       <c r="V8" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="W8" s="371" t="s">
+      <c r="W8" s="326" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="346"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366" t="s">
+      <c r="D9" s="361"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="323">
         <v>0.8</v>
       </c>
-      <c r="N9" s="370" t="s">
+      <c r="N9" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="366"/>
-      <c r="P9" s="386"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="380"/>
       <c r="Q9" s="124" t="s">
         <v>153</v>
       </c>
@@ -15124,7 +15136,7 @@
       <c r="V9" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="372" t="s">
+      <c r="W9" s="327" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15914,38 +15926,38 @@
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="C22" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="319"/>
+      <c r="C22" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="343"/>
       <c r="E22" s="77"/>
-      <c r="F22" s="382">
+      <c r="F22" s="385">
         <v>12</v>
       </c>
-      <c r="G22" s="383"/>
-      <c r="H22" s="383"/>
-      <c r="I22" s="383"/>
-      <c r="J22" s="383"/>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
-      <c r="M22" s="383"/>
-      <c r="N22" s="383"/>
-      <c r="O22" s="383"/>
-      <c r="P22" s="383"/>
-      <c r="Q22" s="383"/>
-      <c r="R22" s="383"/>
-      <c r="S22" s="383"/>
-      <c r="T22" s="383"/>
-      <c r="U22" s="379"/>
-      <c r="V22" s="379" t="s">
+      <c r="G22" s="386"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="386"/>
+      <c r="K22" s="386"/>
+      <c r="L22" s="386"/>
+      <c r="M22" s="386"/>
+      <c r="N22" s="386"/>
+      <c r="O22" s="386"/>
+      <c r="P22" s="386"/>
+      <c r="Q22" s="386"/>
+      <c r="R22" s="386"/>
+      <c r="S22" s="386"/>
+      <c r="T22" s="386"/>
+      <c r="U22" s="381"/>
+      <c r="V22" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="C23" s="320" t="s">
+      <c r="C23" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="321"/>
+      <c r="D23" s="366"/>
       <c r="E23" s="78"/>
       <c r="F23" s="81">
         <v>1</v>
@@ -15993,13 +16005,13 @@
         <v>15</v>
       </c>
       <c r="U23" s="91"/>
-      <c r="V23" s="380"/>
+      <c r="V23" s="382"/>
     </row>
     <row r="24" spans="2:24" ht="14.25" thickBot="1">
-      <c r="C24" s="322" t="s">
+      <c r="C24" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="323"/>
+      <c r="D24" s="368"/>
       <c r="E24" s="79"/>
       <c r="F24" s="145" t="s">
         <v>146</v>
@@ -16047,13 +16059,13 @@
         <v>119</v>
       </c>
       <c r="U24" s="203"/>
-      <c r="V24" s="381"/>
+      <c r="V24" s="383"/>
     </row>
     <row r="25" spans="2:24" ht="17.25">
-      <c r="C25" s="324" t="s">
+      <c r="C25" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="326" t="s">
+      <c r="D25" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="96" t="s">
@@ -16081,8 +16093,8 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="17.25">
-      <c r="C26" s="324"/>
-      <c r="D26" s="326"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="371"/>
       <c r="E26" s="97" t="s">
         <v>158</v>
       </c>
@@ -16108,8 +16120,8 @@
       </c>
     </row>
     <row r="27" spans="2:24" ht="17.25">
-      <c r="C27" s="324"/>
-      <c r="D27" s="326"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="371"/>
       <c r="E27" s="97" t="s">
         <v>134</v>
       </c>
@@ -16135,8 +16147,8 @@
       </c>
     </row>
     <row r="28" spans="2:24" ht="17.25">
-      <c r="C28" s="324"/>
-      <c r="D28" s="326"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="371"/>
       <c r="E28" s="97" t="s">
         <v>135</v>
       </c>
@@ -16162,8 +16174,8 @@
       </c>
     </row>
     <row r="29" spans="2:24" ht="17.25">
-      <c r="C29" s="324"/>
-      <c r="D29" s="326"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="371"/>
       <c r="E29" s="97" t="s">
         <v>136</v>
       </c>
@@ -16189,8 +16201,8 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="17.25">
-      <c r="C30" s="324"/>
-      <c r="D30" s="326"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="371"/>
       <c r="E30" s="97" t="s">
         <v>137</v>
       </c>
@@ -16216,8 +16228,8 @@
       </c>
     </row>
     <row r="31" spans="2:24" ht="17.25">
-      <c r="C31" s="324"/>
-      <c r="D31" s="326"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="371"/>
       <c r="E31" s="97" t="s">
         <v>138</v>
       </c>
@@ -16243,8 +16255,8 @@
       </c>
     </row>
     <row r="32" spans="2:24" ht="17.25">
-      <c r="C32" s="324"/>
-      <c r="D32" s="326"/>
+      <c r="C32" s="369"/>
+      <c r="D32" s="371"/>
       <c r="E32" s="97" t="s">
         <v>139</v>
       </c>
@@ -16270,8 +16282,8 @@
       </c>
     </row>
     <row r="33" spans="3:22" ht="17.25">
-      <c r="C33" s="324"/>
-      <c r="D33" s="326"/>
+      <c r="C33" s="369"/>
+      <c r="D33" s="371"/>
       <c r="E33" s="97" t="s">
         <v>142</v>
       </c>
@@ -16297,8 +16309,8 @@
       </c>
     </row>
     <row r="34" spans="3:22" ht="18" thickBot="1">
-      <c r="C34" s="324"/>
-      <c r="D34" s="327"/>
+      <c r="C34" s="369"/>
+      <c r="D34" s="372"/>
       <c r="E34" s="98"/>
       <c r="F34" s="195"/>
       <c r="G34" s="196"/>
@@ -16322,8 +16334,8 @@
       </c>
     </row>
     <row r="35" spans="3:22" ht="17.25">
-      <c r="C35" s="324"/>
-      <c r="D35" s="328" t="s">
+      <c r="C35" s="369"/>
+      <c r="D35" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="32" t="s">
@@ -16351,8 +16363,8 @@
       </c>
     </row>
     <row r="36" spans="3:22" ht="17.25">
-      <c r="C36" s="324"/>
-      <c r="D36" s="326"/>
+      <c r="C36" s="369"/>
+      <c r="D36" s="371"/>
       <c r="E36" s="31" t="s">
         <v>158</v>
       </c>
@@ -16378,8 +16390,8 @@
       </c>
     </row>
     <row r="37" spans="3:22" ht="17.25">
-      <c r="C37" s="324"/>
-      <c r="D37" s="326"/>
+      <c r="C37" s="369"/>
+      <c r="D37" s="371"/>
       <c r="E37" s="31" t="s">
         <v>134</v>
       </c>
@@ -16405,8 +16417,8 @@
       </c>
     </row>
     <row r="38" spans="3:22" ht="17.25">
-      <c r="C38" s="324"/>
-      <c r="D38" s="326"/>
+      <c r="C38" s="369"/>
+      <c r="D38" s="371"/>
       <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
@@ -16432,8 +16444,8 @@
       </c>
     </row>
     <row r="39" spans="3:22" ht="17.25">
-      <c r="C39" s="324"/>
-      <c r="D39" s="326"/>
+      <c r="C39" s="369"/>
+      <c r="D39" s="371"/>
       <c r="E39" s="31" t="s">
         <v>136</v>
       </c>
@@ -16459,8 +16471,8 @@
       </c>
     </row>
     <row r="40" spans="3:22" ht="17.25">
-      <c r="C40" s="324"/>
-      <c r="D40" s="326"/>
+      <c r="C40" s="369"/>
+      <c r="D40" s="371"/>
       <c r="E40" s="31" t="s">
         <v>137</v>
       </c>
@@ -16492,8 +16504,8 @@
       </c>
     </row>
     <row r="41" spans="3:22" ht="17.25">
-      <c r="C41" s="324"/>
-      <c r="D41" s="326"/>
+      <c r="C41" s="369"/>
+      <c r="D41" s="371"/>
       <c r="E41" s="31" t="s">
         <v>138</v>
       </c>
@@ -16519,8 +16531,8 @@
       </c>
     </row>
     <row r="42" spans="3:22" ht="17.25">
-      <c r="C42" s="324"/>
-      <c r="D42" s="326"/>
+      <c r="C42" s="369"/>
+      <c r="D42" s="371"/>
       <c r="E42" s="31" t="s">
         <v>139</v>
       </c>
@@ -16546,8 +16558,8 @@
       </c>
     </row>
     <row r="43" spans="3:22" ht="17.25">
-      <c r="C43" s="324"/>
-      <c r="D43" s="326"/>
+      <c r="C43" s="369"/>
+      <c r="D43" s="371"/>
       <c r="E43" s="31" t="s">
         <v>142</v>
       </c>
@@ -16573,8 +16585,8 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="18" thickBot="1">
-      <c r="C44" s="325"/>
-      <c r="D44" s="329"/>
+      <c r="C44" s="370"/>
+      <c r="D44" s="374"/>
       <c r="E44" s="99"/>
       <c r="F44" s="197"/>
       <c r="G44" s="198"/>
@@ -16602,38 +16614,38 @@
       <c r="D45" s="72"/>
     </row>
     <row r="46" spans="3:22">
-      <c r="C46" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="319"/>
+      <c r="C46" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="343"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="382">
+      <c r="F46" s="385">
         <v>12</v>
       </c>
-      <c r="G46" s="383"/>
-      <c r="H46" s="383"/>
-      <c r="I46" s="383"/>
-      <c r="J46" s="383"/>
-      <c r="K46" s="383"/>
-      <c r="L46" s="383"/>
-      <c r="M46" s="383"/>
-      <c r="N46" s="383"/>
-      <c r="O46" s="383"/>
-      <c r="P46" s="383"/>
-      <c r="Q46" s="383"/>
-      <c r="R46" s="383"/>
-      <c r="S46" s="383"/>
-      <c r="T46" s="383"/>
-      <c r="U46" s="379"/>
-      <c r="V46" s="379" t="s">
+      <c r="G46" s="386"/>
+      <c r="H46" s="386"/>
+      <c r="I46" s="386"/>
+      <c r="J46" s="386"/>
+      <c r="K46" s="386"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
+      <c r="P46" s="386"/>
+      <c r="Q46" s="386"/>
+      <c r="R46" s="386"/>
+      <c r="S46" s="386"/>
+      <c r="T46" s="386"/>
+      <c r="U46" s="381"/>
+      <c r="V46" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:22">
-      <c r="C47" s="320" t="s">
+      <c r="C47" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="321"/>
+      <c r="D47" s="366"/>
       <c r="E47" s="78"/>
       <c r="F47" s="81">
         <v>16</v>
@@ -16683,13 +16695,13 @@
       <c r="U47" s="91">
         <v>31</v>
       </c>
-      <c r="V47" s="380"/>
+      <c r="V47" s="382"/>
     </row>
     <row r="48" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C48" s="322" t="s">
+      <c r="C48" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="323"/>
+      <c r="D48" s="368"/>
       <c r="E48" s="79"/>
       <c r="F48" s="145" t="s">
         <v>147</v>
@@ -16739,13 +16751,13 @@
       <c r="U48" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V48" s="381"/>
+      <c r="V48" s="383"/>
     </row>
     <row r="49" spans="3:22" ht="17.25">
-      <c r="C49" s="324" t="s">
+      <c r="C49" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="326" t="s">
+      <c r="D49" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="96" t="s">
@@ -16773,8 +16785,8 @@
       </c>
     </row>
     <row r="50" spans="3:22" ht="17.25">
-      <c r="C50" s="324"/>
-      <c r="D50" s="326"/>
+      <c r="C50" s="369"/>
+      <c r="D50" s="371"/>
       <c r="E50" s="97" t="s">
         <v>158</v>
       </c>
@@ -16800,8 +16812,8 @@
       </c>
     </row>
     <row r="51" spans="3:22" ht="17.25">
-      <c r="C51" s="324"/>
-      <c r="D51" s="326"/>
+      <c r="C51" s="369"/>
+      <c r="D51" s="371"/>
       <c r="E51" s="97" t="s">
         <v>134</v>
       </c>
@@ -16827,8 +16839,8 @@
       </c>
     </row>
     <row r="52" spans="3:22" ht="17.25">
-      <c r="C52" s="324"/>
-      <c r="D52" s="326"/>
+      <c r="C52" s="369"/>
+      <c r="D52" s="371"/>
       <c r="E52" s="97" t="s">
         <v>135</v>
       </c>
@@ -16854,8 +16866,8 @@
       </c>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="C53" s="324"/>
-      <c r="D53" s="326"/>
+      <c r="C53" s="369"/>
+      <c r="D53" s="371"/>
       <c r="E53" s="97" t="s">
         <v>136</v>
       </c>
@@ -16881,8 +16893,8 @@
       </c>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="C54" s="324"/>
-      <c r="D54" s="326"/>
+      <c r="C54" s="369"/>
+      <c r="D54" s="371"/>
       <c r="E54" s="97" t="s">
         <v>137</v>
       </c>
@@ -16908,8 +16920,8 @@
       </c>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="C55" s="324"/>
-      <c r="D55" s="326"/>
+      <c r="C55" s="369"/>
+      <c r="D55" s="371"/>
       <c r="E55" s="97" t="s">
         <v>138</v>
       </c>
@@ -16935,8 +16947,8 @@
       </c>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="C56" s="324"/>
-      <c r="D56" s="326"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="371"/>
       <c r="E56" s="97" t="s">
         <v>139</v>
       </c>
@@ -16962,8 +16974,8 @@
       </c>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="C57" s="324"/>
-      <c r="D57" s="326"/>
+      <c r="C57" s="369"/>
+      <c r="D57" s="371"/>
       <c r="E57" s="97" t="s">
         <v>142</v>
       </c>
@@ -16989,8 +17001,8 @@
       </c>
     </row>
     <row r="58" spans="3:22" ht="18" thickBot="1">
-      <c r="C58" s="324"/>
-      <c r="D58" s="327"/>
+      <c r="C58" s="369"/>
+      <c r="D58" s="372"/>
       <c r="E58" s="98"/>
       <c r="F58" s="195"/>
       <c r="G58" s="196"/>
@@ -17014,8 +17026,8 @@
       </c>
     </row>
     <row r="59" spans="3:22" ht="17.25">
-      <c r="C59" s="324"/>
-      <c r="D59" s="328" t="s">
+      <c r="C59" s="369"/>
+      <c r="D59" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E59" s="32" t="s">
@@ -17043,8 +17055,8 @@
       </c>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="C60" s="324"/>
-      <c r="D60" s="326"/>
+      <c r="C60" s="369"/>
+      <c r="D60" s="371"/>
       <c r="E60" s="31" t="s">
         <v>158</v>
       </c>
@@ -17070,8 +17082,8 @@
       </c>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="C61" s="324"/>
-      <c r="D61" s="326"/>
+      <c r="C61" s="369"/>
+      <c r="D61" s="371"/>
       <c r="E61" s="31" t="s">
         <v>134</v>
       </c>
@@ -17097,8 +17109,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" ht="17.25">
-      <c r="C62" s="324"/>
-      <c r="D62" s="326"/>
+      <c r="C62" s="369"/>
+      <c r="D62" s="371"/>
       <c r="E62" s="31" t="s">
         <v>135</v>
       </c>
@@ -17124,8 +17136,8 @@
       </c>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="C63" s="324"/>
-      <c r="D63" s="326"/>
+      <c r="C63" s="369"/>
+      <c r="D63" s="371"/>
       <c r="E63" s="31" t="s">
         <v>136</v>
       </c>
@@ -17153,8 +17165,8 @@
       </c>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="C64" s="324"/>
-      <c r="D64" s="326"/>
+      <c r="C64" s="369"/>
+      <c r="D64" s="371"/>
       <c r="E64" s="31" t="s">
         <v>137</v>
       </c>
@@ -17180,8 +17192,8 @@
       </c>
     </row>
     <row r="65" spans="3:22" ht="17.25">
-      <c r="C65" s="324"/>
-      <c r="D65" s="326"/>
+      <c r="C65" s="369"/>
+      <c r="D65" s="371"/>
       <c r="E65" s="31" t="s">
         <v>138</v>
       </c>
@@ -17207,8 +17219,8 @@
       </c>
     </row>
     <row r="66" spans="3:22" ht="17.25">
-      <c r="C66" s="324"/>
-      <c r="D66" s="326"/>
+      <c r="C66" s="369"/>
+      <c r="D66" s="371"/>
       <c r="E66" s="31" t="s">
         <v>139</v>
       </c>
@@ -17234,8 +17246,8 @@
       </c>
     </row>
     <row r="67" spans="3:22" ht="17.25">
-      <c r="C67" s="324"/>
-      <c r="D67" s="326"/>
+      <c r="C67" s="369"/>
+      <c r="D67" s="371"/>
       <c r="E67" s="31" t="s">
         <v>142</v>
       </c>
@@ -17261,8 +17273,8 @@
       </c>
     </row>
     <row r="68" spans="3:22" ht="18" thickBot="1">
-      <c r="C68" s="325"/>
-      <c r="D68" s="329"/>
+      <c r="C68" s="370"/>
+      <c r="D68" s="374"/>
       <c r="E68" s="99"/>
       <c r="F68" s="197"/>
       <c r="G68" s="198"/>
@@ -17287,38 +17299,38 @@
     </row>
     <row r="69" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="70" spans="3:22">
-      <c r="C70" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="319"/>
+      <c r="C70" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="343"/>
       <c r="E70" s="77"/>
-      <c r="F70" s="382">
+      <c r="F70" s="385">
         <v>1</v>
       </c>
-      <c r="G70" s="383"/>
-      <c r="H70" s="383"/>
-      <c r="I70" s="383"/>
-      <c r="J70" s="383"/>
-      <c r="K70" s="383"/>
-      <c r="L70" s="383"/>
-      <c r="M70" s="383"/>
-      <c r="N70" s="383"/>
-      <c r="O70" s="383"/>
-      <c r="P70" s="383"/>
-      <c r="Q70" s="383"/>
-      <c r="R70" s="383"/>
-      <c r="S70" s="383"/>
-      <c r="T70" s="383"/>
-      <c r="U70" s="379"/>
-      <c r="V70" s="379" t="s">
+      <c r="G70" s="386"/>
+      <c r="H70" s="386"/>
+      <c r="I70" s="386"/>
+      <c r="J70" s="386"/>
+      <c r="K70" s="386"/>
+      <c r="L70" s="386"/>
+      <c r="M70" s="386"/>
+      <c r="N70" s="386"/>
+      <c r="O70" s="386"/>
+      <c r="P70" s="386"/>
+      <c r="Q70" s="386"/>
+      <c r="R70" s="386"/>
+      <c r="S70" s="386"/>
+      <c r="T70" s="386"/>
+      <c r="U70" s="381"/>
+      <c r="V70" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="3:22">
-      <c r="C71" s="320" t="s">
+      <c r="C71" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="321"/>
+      <c r="D71" s="366"/>
       <c r="E71" s="78"/>
       <c r="F71" s="81">
         <v>1</v>
@@ -17366,13 +17378,13 @@
         <v>15</v>
       </c>
       <c r="U71" s="91"/>
-      <c r="V71" s="380"/>
+      <c r="V71" s="382"/>
     </row>
     <row r="72" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C72" s="322" t="s">
+      <c r="C72" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="323"/>
+      <c r="D72" s="368"/>
       <c r="E72" s="79"/>
       <c r="F72" s="82" t="s">
         <v>160</v>
@@ -17420,13 +17432,13 @@
         <v>122</v>
       </c>
       <c r="U72" s="203"/>
-      <c r="V72" s="381"/>
+      <c r="V72" s="383"/>
     </row>
     <row r="73" spans="3:22" ht="17.25">
-      <c r="C73" s="324" t="s">
+      <c r="C73" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="326" t="s">
+      <c r="D73" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="96" t="s">
@@ -17468,8 +17480,8 @@
       </c>
     </row>
     <row r="74" spans="3:22" ht="17.25">
-      <c r="C74" s="324"/>
-      <c r="D74" s="326"/>
+      <c r="C74" s="369"/>
+      <c r="D74" s="371"/>
       <c r="E74" s="97" t="s">
         <v>158</v>
       </c>
@@ -17497,8 +17509,8 @@
       </c>
     </row>
     <row r="75" spans="3:22" ht="17.25">
-      <c r="C75" s="324"/>
-      <c r="D75" s="326"/>
+      <c r="C75" s="369"/>
+      <c r="D75" s="371"/>
       <c r="E75" s="97" t="s">
         <v>134</v>
       </c>
@@ -17524,8 +17536,8 @@
       </c>
     </row>
     <row r="76" spans="3:22" ht="17.25">
-      <c r="C76" s="324"/>
-      <c r="D76" s="326"/>
+      <c r="C76" s="369"/>
+      <c r="D76" s="371"/>
       <c r="E76" s="97" t="s">
         <v>135</v>
       </c>
@@ -17565,8 +17577,8 @@
       </c>
     </row>
     <row r="77" spans="3:22" ht="17.25">
-      <c r="C77" s="324"/>
-      <c r="D77" s="326"/>
+      <c r="C77" s="369"/>
+      <c r="D77" s="371"/>
       <c r="E77" s="97" t="s">
         <v>136</v>
       </c>
@@ -17600,8 +17612,8 @@
       </c>
     </row>
     <row r="78" spans="3:22" ht="17.25">
-      <c r="C78" s="324"/>
-      <c r="D78" s="326"/>
+      <c r="C78" s="369"/>
+      <c r="D78" s="371"/>
       <c r="E78" s="97" t="s">
         <v>137</v>
       </c>
@@ -17629,8 +17641,8 @@
       </c>
     </row>
     <row r="79" spans="3:22" ht="17.25">
-      <c r="C79" s="324"/>
-      <c r="D79" s="326"/>
+      <c r="C79" s="369"/>
+      <c r="D79" s="371"/>
       <c r="E79" s="97" t="s">
         <v>138</v>
       </c>
@@ -17656,8 +17668,8 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="17.25">
-      <c r="C80" s="324"/>
-      <c r="D80" s="326"/>
+      <c r="C80" s="369"/>
+      <c r="D80" s="371"/>
       <c r="E80" s="97" t="s">
         <v>139</v>
       </c>
@@ -17683,8 +17695,8 @@
       </c>
     </row>
     <row r="81" spans="3:22" ht="17.25">
-      <c r="C81" s="324"/>
-      <c r="D81" s="326"/>
+      <c r="C81" s="369"/>
+      <c r="D81" s="371"/>
       <c r="E81" s="97" t="s">
         <v>142</v>
       </c>
@@ -17710,8 +17722,8 @@
       </c>
     </row>
     <row r="82" spans="3:22" ht="18" thickBot="1">
-      <c r="C82" s="324"/>
-      <c r="D82" s="327"/>
+      <c r="C82" s="369"/>
+      <c r="D82" s="372"/>
       <c r="E82" s="98"/>
       <c r="F82" s="171"/>
       <c r="G82" s="173"/>
@@ -17735,8 +17747,8 @@
       </c>
     </row>
     <row r="83" spans="3:22" ht="17.25">
-      <c r="C83" s="324"/>
-      <c r="D83" s="328" t="s">
+      <c r="C83" s="369"/>
+      <c r="D83" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="32" t="s">
@@ -17764,8 +17776,8 @@
       </c>
     </row>
     <row r="84" spans="3:22" ht="17.25">
-      <c r="C84" s="324"/>
-      <c r="D84" s="326"/>
+      <c r="C84" s="369"/>
+      <c r="D84" s="371"/>
       <c r="E84" s="31" t="s">
         <v>158</v>
       </c>
@@ -17791,8 +17803,8 @@
       </c>
     </row>
     <row r="85" spans="3:22" ht="17.25">
-      <c r="C85" s="324"/>
-      <c r="D85" s="326"/>
+      <c r="C85" s="369"/>
+      <c r="D85" s="371"/>
       <c r="E85" s="31" t="s">
         <v>134</v>
       </c>
@@ -17818,8 +17830,8 @@
       </c>
     </row>
     <row r="86" spans="3:22" ht="17.25">
-      <c r="C86" s="324"/>
-      <c r="D86" s="326"/>
+      <c r="C86" s="369"/>
+      <c r="D86" s="371"/>
       <c r="E86" s="31" t="s">
         <v>135</v>
       </c>
@@ -17845,8 +17857,8 @@
       </c>
     </row>
     <row r="87" spans="3:22" ht="17.25">
-      <c r="C87" s="324"/>
-      <c r="D87" s="326"/>
+      <c r="C87" s="369"/>
+      <c r="D87" s="371"/>
       <c r="E87" s="31" t="s">
         <v>136</v>
       </c>
@@ -17872,8 +17884,8 @@
       </c>
     </row>
     <row r="88" spans="3:22" ht="17.25">
-      <c r="C88" s="324"/>
-      <c r="D88" s="326"/>
+      <c r="C88" s="369"/>
+      <c r="D88" s="371"/>
       <c r="E88" s="31" t="s">
         <v>137</v>
       </c>
@@ -17899,8 +17911,8 @@
       </c>
     </row>
     <row r="89" spans="3:22" ht="17.25">
-      <c r="C89" s="324"/>
-      <c r="D89" s="326"/>
+      <c r="C89" s="369"/>
+      <c r="D89" s="371"/>
       <c r="E89" s="31" t="s">
         <v>138</v>
       </c>
@@ -17926,8 +17938,8 @@
       </c>
     </row>
     <row r="90" spans="3:22" ht="17.25">
-      <c r="C90" s="324"/>
-      <c r="D90" s="326"/>
+      <c r="C90" s="369"/>
+      <c r="D90" s="371"/>
       <c r="E90" s="31" t="s">
         <v>139</v>
       </c>
@@ -17953,8 +17965,8 @@
       </c>
     </row>
     <row r="91" spans="3:22" ht="17.25">
-      <c r="C91" s="324"/>
-      <c r="D91" s="326"/>
+      <c r="C91" s="369"/>
+      <c r="D91" s="371"/>
       <c r="E91" s="31" t="s">
         <v>142</v>
       </c>
@@ -17980,8 +17992,8 @@
       </c>
     </row>
     <row r="92" spans="3:22" ht="18" thickBot="1">
-      <c r="C92" s="325"/>
-      <c r="D92" s="329"/>
+      <c r="C92" s="370"/>
+      <c r="D92" s="374"/>
       <c r="E92" s="99"/>
       <c r="F92" s="176"/>
       <c r="G92" s="178"/>
@@ -18009,38 +18021,38 @@
       <c r="D93" s="72"/>
     </row>
     <row r="94" spans="3:22">
-      <c r="C94" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="319"/>
+      <c r="C94" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="343"/>
       <c r="E94" s="77"/>
-      <c r="F94" s="382">
+      <c r="F94" s="385">
         <v>1</v>
       </c>
-      <c r="G94" s="383"/>
-      <c r="H94" s="383"/>
-      <c r="I94" s="383"/>
-      <c r="J94" s="383"/>
-      <c r="K94" s="383"/>
-      <c r="L94" s="383"/>
-      <c r="M94" s="383"/>
-      <c r="N94" s="383"/>
-      <c r="O94" s="383"/>
-      <c r="P94" s="383"/>
-      <c r="Q94" s="383"/>
-      <c r="R94" s="383"/>
-      <c r="S94" s="383"/>
-      <c r="T94" s="383"/>
-      <c r="U94" s="379"/>
-      <c r="V94" s="379" t="s">
+      <c r="G94" s="386"/>
+      <c r="H94" s="386"/>
+      <c r="I94" s="386"/>
+      <c r="J94" s="386"/>
+      <c r="K94" s="386"/>
+      <c r="L94" s="386"/>
+      <c r="M94" s="386"/>
+      <c r="N94" s="386"/>
+      <c r="O94" s="386"/>
+      <c r="P94" s="386"/>
+      <c r="Q94" s="386"/>
+      <c r="R94" s="386"/>
+      <c r="S94" s="386"/>
+      <c r="T94" s="386"/>
+      <c r="U94" s="381"/>
+      <c r="V94" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="3:22">
-      <c r="C95" s="320" t="s">
+      <c r="C95" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="321"/>
+      <c r="D95" s="366"/>
       <c r="E95" s="78"/>
       <c r="F95" s="81">
         <v>16</v>
@@ -18090,13 +18102,13 @@
       <c r="U95" s="91">
         <v>31</v>
       </c>
-      <c r="V95" s="380"/>
+      <c r="V95" s="382"/>
     </row>
     <row r="96" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C96" s="322" t="s">
+      <c r="C96" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="323"/>
+      <c r="D96" s="368"/>
       <c r="E96" s="79"/>
       <c r="F96" s="82" t="s">
         <v>161</v>
@@ -18146,13 +18158,13 @@
       <c r="U96" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="V96" s="381"/>
+      <c r="V96" s="383"/>
     </row>
     <row r="97" spans="3:22" ht="17.25">
-      <c r="C97" s="324" t="s">
+      <c r="C97" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="326" t="s">
+      <c r="D97" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E97" s="96" t="s">
@@ -18180,8 +18192,8 @@
       </c>
     </row>
     <row r="98" spans="3:22" ht="17.25">
-      <c r="C98" s="324"/>
-      <c r="D98" s="326"/>
+      <c r="C98" s="369"/>
+      <c r="D98" s="371"/>
       <c r="E98" s="97" t="s">
         <v>158</v>
       </c>
@@ -18207,8 +18219,8 @@
       </c>
     </row>
     <row r="99" spans="3:22" ht="17.25">
-      <c r="C99" s="324"/>
-      <c r="D99" s="326"/>
+      <c r="C99" s="369"/>
+      <c r="D99" s="371"/>
       <c r="E99" s="97" t="s">
         <v>134</v>
       </c>
@@ -18234,8 +18246,8 @@
       </c>
     </row>
     <row r="100" spans="3:22" ht="17.25">
-      <c r="C100" s="324"/>
-      <c r="D100" s="326"/>
+      <c r="C100" s="369"/>
+      <c r="D100" s="371"/>
       <c r="E100" s="97" t="s">
         <v>135</v>
       </c>
@@ -18263,8 +18275,8 @@
       </c>
     </row>
     <row r="101" spans="3:22" ht="17.25">
-      <c r="C101" s="324"/>
-      <c r="D101" s="326"/>
+      <c r="C101" s="369"/>
+      <c r="D101" s="371"/>
       <c r="E101" s="97" t="s">
         <v>136</v>
       </c>
@@ -18296,8 +18308,8 @@
       </c>
     </row>
     <row r="102" spans="3:22" ht="17.25">
-      <c r="C102" s="324"/>
-      <c r="D102" s="326"/>
+      <c r="C102" s="369"/>
+      <c r="D102" s="371"/>
       <c r="E102" s="97" t="s">
         <v>137</v>
       </c>
@@ -18333,8 +18345,8 @@
       </c>
     </row>
     <row r="103" spans="3:22" ht="17.25">
-      <c r="C103" s="324"/>
-      <c r="D103" s="326"/>
+      <c r="C103" s="369"/>
+      <c r="D103" s="371"/>
       <c r="E103" s="97" t="s">
         <v>138</v>
       </c>
@@ -18378,8 +18390,8 @@
       </c>
     </row>
     <row r="104" spans="3:22" ht="17.25">
-      <c r="C104" s="324"/>
-      <c r="D104" s="326"/>
+      <c r="C104" s="369"/>
+      <c r="D104" s="371"/>
       <c r="E104" s="97" t="s">
         <v>139</v>
       </c>
@@ -18423,8 +18435,8 @@
       </c>
     </row>
     <row r="105" spans="3:22" ht="17.25">
-      <c r="C105" s="324"/>
-      <c r="D105" s="326"/>
+      <c r="C105" s="369"/>
+      <c r="D105" s="371"/>
       <c r="E105" s="97" t="s">
         <v>142</v>
       </c>
@@ -18450,8 +18462,8 @@
       </c>
     </row>
     <row r="106" spans="3:22" ht="18" thickBot="1">
-      <c r="C106" s="324"/>
-      <c r="D106" s="327"/>
+      <c r="C106" s="369"/>
+      <c r="D106" s="372"/>
       <c r="E106" s="98"/>
       <c r="F106" s="171"/>
       <c r="G106" s="196"/>
@@ -18475,8 +18487,8 @@
       </c>
     </row>
     <row r="107" spans="3:22" ht="17.25">
-      <c r="C107" s="324"/>
-      <c r="D107" s="328" t="s">
+      <c r="C107" s="369"/>
+      <c r="D107" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="32" t="s">
@@ -18504,8 +18516,8 @@
       </c>
     </row>
     <row r="108" spans="3:22" ht="17.25">
-      <c r="C108" s="324"/>
-      <c r="D108" s="326"/>
+      <c r="C108" s="369"/>
+      <c r="D108" s="371"/>
       <c r="E108" s="31" t="s">
         <v>158</v>
       </c>
@@ -18531,8 +18543,8 @@
       </c>
     </row>
     <row r="109" spans="3:22" ht="17.25">
-      <c r="C109" s="324"/>
-      <c r="D109" s="326"/>
+      <c r="C109" s="369"/>
+      <c r="D109" s="371"/>
       <c r="E109" s="31" t="s">
         <v>134</v>
       </c>
@@ -18558,8 +18570,8 @@
       </c>
     </row>
     <row r="110" spans="3:22" ht="17.25">
-      <c r="C110" s="324"/>
-      <c r="D110" s="326"/>
+      <c r="C110" s="369"/>
+      <c r="D110" s="371"/>
       <c r="E110" s="31" t="s">
         <v>135</v>
       </c>
@@ -18585,8 +18597,8 @@
       </c>
     </row>
     <row r="111" spans="3:22" ht="17.25">
-      <c r="C111" s="324"/>
-      <c r="D111" s="326"/>
+      <c r="C111" s="369"/>
+      <c r="D111" s="371"/>
       <c r="E111" s="31" t="s">
         <v>136</v>
       </c>
@@ -18612,8 +18624,8 @@
       </c>
     </row>
     <row r="112" spans="3:22" ht="17.25">
-      <c r="C112" s="324"/>
-      <c r="D112" s="326"/>
+      <c r="C112" s="369"/>
+      <c r="D112" s="371"/>
       <c r="E112" s="31" t="s">
         <v>137</v>
       </c>
@@ -18639,8 +18651,8 @@
       </c>
     </row>
     <row r="113" spans="3:22" ht="17.25">
-      <c r="C113" s="324"/>
-      <c r="D113" s="326"/>
+      <c r="C113" s="369"/>
+      <c r="D113" s="371"/>
       <c r="E113" s="31" t="s">
         <v>138</v>
       </c>
@@ -18666,8 +18678,8 @@
       </c>
     </row>
     <row r="114" spans="3:22" ht="17.25">
-      <c r="C114" s="324"/>
-      <c r="D114" s="326"/>
+      <c r="C114" s="369"/>
+      <c r="D114" s="371"/>
       <c r="E114" s="31" t="s">
         <v>139</v>
       </c>
@@ -18693,8 +18705,8 @@
       </c>
     </row>
     <row r="115" spans="3:22" ht="17.25">
-      <c r="C115" s="324"/>
-      <c r="D115" s="326"/>
+      <c r="C115" s="369"/>
+      <c r="D115" s="371"/>
       <c r="E115" s="31" t="s">
         <v>142</v>
       </c>
@@ -18720,8 +18732,8 @@
       </c>
     </row>
     <row r="116" spans="3:22" ht="18" thickBot="1">
-      <c r="C116" s="325"/>
-      <c r="D116" s="329"/>
+      <c r="C116" s="370"/>
+      <c r="D116" s="374"/>
       <c r="E116" s="99"/>
       <c r="F116" s="176"/>
       <c r="G116" s="198"/>
@@ -18749,38 +18761,38 @@
       <c r="D117" s="72"/>
     </row>
     <row r="118" spans="3:22">
-      <c r="C118" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="319"/>
+      <c r="C118" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="343"/>
       <c r="E118" s="77"/>
-      <c r="F118" s="382">
+      <c r="F118" s="385">
         <v>2</v>
       </c>
-      <c r="G118" s="383"/>
-      <c r="H118" s="383"/>
-      <c r="I118" s="383"/>
-      <c r="J118" s="383"/>
-      <c r="K118" s="383"/>
-      <c r="L118" s="383"/>
-      <c r="M118" s="383"/>
-      <c r="N118" s="383"/>
-      <c r="O118" s="383"/>
-      <c r="P118" s="383"/>
-      <c r="Q118" s="383"/>
-      <c r="R118" s="383"/>
-      <c r="S118" s="383"/>
-      <c r="T118" s="383"/>
-      <c r="U118" s="379"/>
-      <c r="V118" s="379" t="s">
+      <c r="G118" s="386"/>
+      <c r="H118" s="386"/>
+      <c r="I118" s="386"/>
+      <c r="J118" s="386"/>
+      <c r="K118" s="386"/>
+      <c r="L118" s="386"/>
+      <c r="M118" s="386"/>
+      <c r="N118" s="386"/>
+      <c r="O118" s="386"/>
+      <c r="P118" s="386"/>
+      <c r="Q118" s="386"/>
+      <c r="R118" s="386"/>
+      <c r="S118" s="386"/>
+      <c r="T118" s="386"/>
+      <c r="U118" s="381"/>
+      <c r="V118" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="119" spans="3:22">
-      <c r="C119" s="320" t="s">
+      <c r="C119" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D119" s="321"/>
+      <c r="D119" s="366"/>
       <c r="E119" s="78"/>
       <c r="F119" s="81">
         <v>1</v>
@@ -18828,13 +18840,13 @@
         <v>15</v>
       </c>
       <c r="U119" s="91"/>
-      <c r="V119" s="380"/>
+      <c r="V119" s="382"/>
     </row>
     <row r="120" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C120" s="322" t="s">
+      <c r="C120" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="323"/>
+      <c r="D120" s="368"/>
       <c r="E120" s="79"/>
       <c r="F120" s="145" t="s">
         <v>162</v>
@@ -18882,13 +18894,13 @@
         <v>118</v>
       </c>
       <c r="U120" s="92"/>
-      <c r="V120" s="381"/>
+      <c r="V120" s="383"/>
     </row>
     <row r="121" spans="3:22" ht="17.25">
-      <c r="C121" s="324" t="s">
+      <c r="C121" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="326" t="s">
+      <c r="D121" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E121" s="96" t="s">
@@ -18916,8 +18928,8 @@
       </c>
     </row>
     <row r="122" spans="3:22" ht="17.25">
-      <c r="C122" s="324"/>
-      <c r="D122" s="326"/>
+      <c r="C122" s="369"/>
+      <c r="D122" s="371"/>
       <c r="E122" s="97" t="s">
         <v>158</v>
       </c>
@@ -18943,8 +18955,8 @@
       </c>
     </row>
     <row r="123" spans="3:22" ht="17.25">
-      <c r="C123" s="324"/>
-      <c r="D123" s="326"/>
+      <c r="C123" s="369"/>
+      <c r="D123" s="371"/>
       <c r="E123" s="97" t="s">
         <v>134</v>
       </c>
@@ -18970,8 +18982,8 @@
       </c>
     </row>
     <row r="124" spans="3:22" ht="17.25">
-      <c r="C124" s="324"/>
-      <c r="D124" s="326"/>
+      <c r="C124" s="369"/>
+      <c r="D124" s="371"/>
       <c r="E124" s="97" t="s">
         <v>135</v>
       </c>
@@ -18997,8 +19009,8 @@
       </c>
     </row>
     <row r="125" spans="3:22" ht="17.25">
-      <c r="C125" s="324"/>
-      <c r="D125" s="326"/>
+      <c r="C125" s="369"/>
+      <c r="D125" s="371"/>
       <c r="E125" s="97" t="s">
         <v>136</v>
       </c>
@@ -19028,8 +19040,8 @@
       </c>
     </row>
     <row r="126" spans="3:22" ht="17.25">
-      <c r="C126" s="324"/>
-      <c r="D126" s="326"/>
+      <c r="C126" s="369"/>
+      <c r="D126" s="371"/>
       <c r="E126" s="97" t="s">
         <v>137</v>
       </c>
@@ -19055,8 +19067,8 @@
       </c>
     </row>
     <row r="127" spans="3:22" ht="17.25">
-      <c r="C127" s="324"/>
-      <c r="D127" s="326"/>
+      <c r="C127" s="369"/>
+      <c r="D127" s="371"/>
       <c r="E127" s="97" t="s">
         <v>138</v>
       </c>
@@ -19084,8 +19096,8 @@
       </c>
     </row>
     <row r="128" spans="3:22" ht="17.25">
-      <c r="C128" s="324"/>
-      <c r="D128" s="326"/>
+      <c r="C128" s="369"/>
+      <c r="D128" s="371"/>
       <c r="E128" s="97" t="s">
         <v>139</v>
       </c>
@@ -19113,8 +19125,8 @@
       </c>
     </row>
     <row r="129" spans="3:22" ht="17.25">
-      <c r="C129" s="324"/>
-      <c r="D129" s="326"/>
+      <c r="C129" s="369"/>
+      <c r="D129" s="371"/>
       <c r="E129" s="97" t="s">
         <v>142</v>
       </c>
@@ -19156,8 +19168,8 @@
       </c>
     </row>
     <row r="130" spans="3:22" ht="18" thickBot="1">
-      <c r="C130" s="324"/>
-      <c r="D130" s="327"/>
+      <c r="C130" s="369"/>
+      <c r="D130" s="372"/>
       <c r="E130" s="98"/>
       <c r="F130" s="195"/>
       <c r="G130" s="196"/>
@@ -19181,8 +19193,8 @@
       </c>
     </row>
     <row r="131" spans="3:22" ht="17.25">
-      <c r="C131" s="324"/>
-      <c r="D131" s="328" t="s">
+      <c r="C131" s="369"/>
+      <c r="D131" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E131" s="32" t="s">
@@ -19210,8 +19222,8 @@
       </c>
     </row>
     <row r="132" spans="3:22" ht="17.25">
-      <c r="C132" s="324"/>
-      <c r="D132" s="326"/>
+      <c r="C132" s="369"/>
+      <c r="D132" s="371"/>
       <c r="E132" s="31" t="s">
         <v>158</v>
       </c>
@@ -19237,8 +19249,8 @@
       </c>
     </row>
     <row r="133" spans="3:22" ht="17.25">
-      <c r="C133" s="324"/>
-      <c r="D133" s="326"/>
+      <c r="C133" s="369"/>
+      <c r="D133" s="371"/>
       <c r="E133" s="31" t="s">
         <v>134</v>
       </c>
@@ -19264,8 +19276,8 @@
       </c>
     </row>
     <row r="134" spans="3:22" ht="17.25">
-      <c r="C134" s="324"/>
-      <c r="D134" s="326"/>
+      <c r="C134" s="369"/>
+      <c r="D134" s="371"/>
       <c r="E134" s="31" t="s">
         <v>135</v>
       </c>
@@ -19291,8 +19303,8 @@
       </c>
     </row>
     <row r="135" spans="3:22" ht="17.25">
-      <c r="C135" s="324"/>
-      <c r="D135" s="326"/>
+      <c r="C135" s="369"/>
+      <c r="D135" s="371"/>
       <c r="E135" s="31" t="s">
         <v>136</v>
       </c>
@@ -19318,8 +19330,8 @@
       </c>
     </row>
     <row r="136" spans="3:22" ht="17.25">
-      <c r="C136" s="324"/>
-      <c r="D136" s="326"/>
+      <c r="C136" s="369"/>
+      <c r="D136" s="371"/>
       <c r="E136" s="31" t="s">
         <v>137</v>
       </c>
@@ -19345,8 +19357,8 @@
       </c>
     </row>
     <row r="137" spans="3:22" ht="17.25">
-      <c r="C137" s="324"/>
-      <c r="D137" s="326"/>
+      <c r="C137" s="369"/>
+      <c r="D137" s="371"/>
       <c r="E137" s="31" t="s">
         <v>138</v>
       </c>
@@ -19372,8 +19384,8 @@
       </c>
     </row>
     <row r="138" spans="3:22" ht="17.25">
-      <c r="C138" s="324"/>
-      <c r="D138" s="326"/>
+      <c r="C138" s="369"/>
+      <c r="D138" s="371"/>
       <c r="E138" s="31" t="s">
         <v>139</v>
       </c>
@@ -19399,8 +19411,8 @@
       </c>
     </row>
     <row r="139" spans="3:22" ht="17.25">
-      <c r="C139" s="324"/>
-      <c r="D139" s="326"/>
+      <c r="C139" s="369"/>
+      <c r="D139" s="371"/>
       <c r="E139" s="31" t="s">
         <v>142</v>
       </c>
@@ -19426,8 +19438,8 @@
       </c>
     </row>
     <row r="140" spans="3:22" ht="18" thickBot="1">
-      <c r="C140" s="325"/>
-      <c r="D140" s="329"/>
+      <c r="C140" s="370"/>
+      <c r="D140" s="374"/>
       <c r="E140" s="99"/>
       <c r="F140" s="197"/>
       <c r="G140" s="198"/>
@@ -19452,38 +19464,38 @@
     </row>
     <row r="141" spans="3:22" ht="14.25" thickBot="1"/>
     <row r="142" spans="3:22">
-      <c r="C142" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="319"/>
+      <c r="C142" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="343"/>
       <c r="E142" s="77"/>
-      <c r="F142" s="382">
+      <c r="F142" s="385">
         <v>2</v>
       </c>
-      <c r="G142" s="383"/>
-      <c r="H142" s="383"/>
-      <c r="I142" s="383"/>
-      <c r="J142" s="383"/>
-      <c r="K142" s="383"/>
-      <c r="L142" s="383"/>
-      <c r="M142" s="383"/>
-      <c r="N142" s="383"/>
-      <c r="O142" s="383"/>
-      <c r="P142" s="383"/>
-      <c r="Q142" s="383"/>
-      <c r="R142" s="383"/>
-      <c r="S142" s="383"/>
-      <c r="T142" s="383"/>
-      <c r="U142" s="379"/>
-      <c r="V142" s="379" t="s">
+      <c r="G142" s="386"/>
+      <c r="H142" s="386"/>
+      <c r="I142" s="386"/>
+      <c r="J142" s="386"/>
+      <c r="K142" s="386"/>
+      <c r="L142" s="386"/>
+      <c r="M142" s="386"/>
+      <c r="N142" s="386"/>
+      <c r="O142" s="386"/>
+      <c r="P142" s="386"/>
+      <c r="Q142" s="386"/>
+      <c r="R142" s="386"/>
+      <c r="S142" s="386"/>
+      <c r="T142" s="386"/>
+      <c r="U142" s="381"/>
+      <c r="V142" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="143" spans="3:22">
-      <c r="C143" s="320" t="s">
+      <c r="C143" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="321"/>
+      <c r="D143" s="366"/>
       <c r="E143" s="78"/>
       <c r="F143" s="81">
         <v>16</v>
@@ -19527,13 +19539,13 @@
       <c r="S143" s="86"/>
       <c r="T143" s="86"/>
       <c r="U143" s="91"/>
-      <c r="V143" s="380"/>
+      <c r="V143" s="382"/>
     </row>
     <row r="144" spans="3:22" ht="14.25" thickBot="1">
-      <c r="C144" s="322" t="s">
+      <c r="C144" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="323"/>
+      <c r="D144" s="368"/>
       <c r="E144" s="79"/>
       <c r="F144" s="145" t="s">
         <v>146</v>
@@ -19577,13 +19589,13 @@
       <c r="S144" s="150"/>
       <c r="T144" s="150"/>
       <c r="U144" s="210"/>
-      <c r="V144" s="381"/>
+      <c r="V144" s="383"/>
     </row>
     <row r="145" spans="3:22" ht="17.25">
-      <c r="C145" s="324" t="s">
+      <c r="C145" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D145" s="326" t="s">
+      <c r="D145" s="371" t="s">
         <v>115</v>
       </c>
       <c r="E145" s="96" t="s">
@@ -19611,8 +19623,8 @@
       </c>
     </row>
     <row r="146" spans="3:22" ht="17.25">
-      <c r="C146" s="324"/>
-      <c r="D146" s="326"/>
+      <c r="C146" s="369"/>
+      <c r="D146" s="371"/>
       <c r="E146" s="97" t="s">
         <v>158</v>
       </c>
@@ -19638,8 +19650,8 @@
       </c>
     </row>
     <row r="147" spans="3:22" ht="17.25">
-      <c r="C147" s="324"/>
-      <c r="D147" s="326"/>
+      <c r="C147" s="369"/>
+      <c r="D147" s="371"/>
       <c r="E147" s="97" t="s">
         <v>134</v>
       </c>
@@ -19665,8 +19677,8 @@
       </c>
     </row>
     <row r="148" spans="3:22" ht="17.25">
-      <c r="C148" s="324"/>
-      <c r="D148" s="326"/>
+      <c r="C148" s="369"/>
+      <c r="D148" s="371"/>
       <c r="E148" s="97" t="s">
         <v>135</v>
       </c>
@@ -19692,8 +19704,8 @@
       </c>
     </row>
     <row r="149" spans="3:22" ht="17.25">
-      <c r="C149" s="324"/>
-      <c r="D149" s="326"/>
+      <c r="C149" s="369"/>
+      <c r="D149" s="371"/>
       <c r="E149" s="97" t="s">
         <v>136</v>
       </c>
@@ -19723,8 +19735,8 @@
       </c>
     </row>
     <row r="150" spans="3:22" ht="17.25">
-      <c r="C150" s="324"/>
-      <c r="D150" s="326"/>
+      <c r="C150" s="369"/>
+      <c r="D150" s="371"/>
       <c r="E150" s="97" t="s">
         <v>137</v>
       </c>
@@ -19750,8 +19762,8 @@
       </c>
     </row>
     <row r="151" spans="3:22" ht="17.25">
-      <c r="C151" s="324"/>
-      <c r="D151" s="326"/>
+      <c r="C151" s="369"/>
+      <c r="D151" s="371"/>
       <c r="E151" s="97" t="s">
         <v>138</v>
       </c>
@@ -19777,8 +19789,8 @@
       </c>
     </row>
     <row r="152" spans="3:22" ht="17.25">
-      <c r="C152" s="324"/>
-      <c r="D152" s="326"/>
+      <c r="C152" s="369"/>
+      <c r="D152" s="371"/>
       <c r="E152" s="97" t="s">
         <v>139</v>
       </c>
@@ -19804,8 +19816,8 @@
       </c>
     </row>
     <row r="153" spans="3:22" ht="17.25">
-      <c r="C153" s="324"/>
-      <c r="D153" s="326"/>
+      <c r="C153" s="369"/>
+      <c r="D153" s="371"/>
       <c r="E153" s="97" t="s">
         <v>142</v>
       </c>
@@ -19831,8 +19843,8 @@
       </c>
     </row>
     <row r="154" spans="3:22" ht="18" thickBot="1">
-      <c r="C154" s="324"/>
-      <c r="D154" s="327"/>
+      <c r="C154" s="369"/>
+      <c r="D154" s="372"/>
       <c r="E154" s="98"/>
       <c r="F154" s="195"/>
       <c r="G154" s="196"/>
@@ -19856,8 +19868,8 @@
       </c>
     </row>
     <row r="155" spans="3:22" ht="17.25">
-      <c r="C155" s="324"/>
-      <c r="D155" s="328" t="s">
+      <c r="C155" s="369"/>
+      <c r="D155" s="373" t="s">
         <v>57</v>
       </c>
       <c r="E155" s="32" t="s">
@@ -19885,8 +19897,8 @@
       </c>
     </row>
     <row r="156" spans="3:22" ht="17.25">
-      <c r="C156" s="324"/>
-      <c r="D156" s="326"/>
+      <c r="C156" s="369"/>
+      <c r="D156" s="371"/>
       <c r="E156" s="31" t="s">
         <v>158</v>
       </c>
@@ -19912,8 +19924,8 @@
       </c>
     </row>
     <row r="157" spans="3:22" ht="17.25">
-      <c r="C157" s="324"/>
-      <c r="D157" s="326"/>
+      <c r="C157" s="369"/>
+      <c r="D157" s="371"/>
       <c r="E157" s="31" t="s">
         <v>134</v>
       </c>
@@ -19939,8 +19951,8 @@
       </c>
     </row>
     <row r="158" spans="3:22" ht="17.25">
-      <c r="C158" s="324"/>
-      <c r="D158" s="326"/>
+      <c r="C158" s="369"/>
+      <c r="D158" s="371"/>
       <c r="E158" s="31" t="s">
         <v>135</v>
       </c>
@@ -19966,8 +19978,8 @@
       </c>
     </row>
     <row r="159" spans="3:22" ht="17.25">
-      <c r="C159" s="324"/>
-      <c r="D159" s="326"/>
+      <c r="C159" s="369"/>
+      <c r="D159" s="371"/>
       <c r="E159" s="31" t="s">
         <v>136</v>
       </c>
@@ -19993,8 +20005,8 @@
       </c>
     </row>
     <row r="160" spans="3:22" ht="17.25">
-      <c r="C160" s="324"/>
-      <c r="D160" s="326"/>
+      <c r="C160" s="369"/>
+      <c r="D160" s="371"/>
       <c r="E160" s="31" t="s">
         <v>137</v>
       </c>
@@ -20020,8 +20032,8 @@
       </c>
     </row>
     <row r="161" spans="3:22" ht="17.25">
-      <c r="C161" s="324"/>
-      <c r="D161" s="326"/>
+      <c r="C161" s="369"/>
+      <c r="D161" s="371"/>
       <c r="E161" s="31" t="s">
         <v>138</v>
       </c>
@@ -20047,8 +20059,8 @@
       </c>
     </row>
     <row r="162" spans="3:22" ht="17.25">
-      <c r="C162" s="324"/>
-      <c r="D162" s="326"/>
+      <c r="C162" s="369"/>
+      <c r="D162" s="371"/>
       <c r="E162" s="31" t="s">
         <v>139</v>
       </c>
@@ -20074,8 +20086,8 @@
       </c>
     </row>
     <row r="163" spans="3:22" ht="17.25">
-      <c r="C163" s="324"/>
-      <c r="D163" s="326"/>
+      <c r="C163" s="369"/>
+      <c r="D163" s="371"/>
       <c r="E163" s="31" t="s">
         <v>142</v>
       </c>
@@ -20101,8 +20113,8 @@
       </c>
     </row>
     <row r="164" spans="3:22" ht="18" thickBot="1">
-      <c r="C164" s="325"/>
-      <c r="D164" s="329"/>
+      <c r="C164" s="370"/>
+      <c r="D164" s="374"/>
       <c r="E164" s="99"/>
       <c r="F164" s="197"/>
       <c r="G164" s="198"/>
@@ -20127,49 +20139,19 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C49:C68"/>
-    <mergeCell ref="D49:D58"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:U46"/>
-    <mergeCell ref="V46:V48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="C25:C44"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="V22:V24"/>
-    <mergeCell ref="F94:U94"/>
-    <mergeCell ref="V94:V96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:C116"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="F142:U142"/>
-    <mergeCell ref="V142:V144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="V118:V120"/>
-    <mergeCell ref="F118:U118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:C140"/>
-    <mergeCell ref="D121:D130"/>
-    <mergeCell ref="D131:D140"/>
-    <mergeCell ref="C73:C92"/>
-    <mergeCell ref="D73:D82"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="C145:C164"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="D155:D164"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="C70:D70"/>
@@ -20186,19 +20168,49 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C73:C92"/>
+    <mergeCell ref="D73:D82"/>
+    <mergeCell ref="D83:D92"/>
+    <mergeCell ref="C145:C164"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="D155:D164"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F142:U142"/>
+    <mergeCell ref="V142:V144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="V118:V120"/>
+    <mergeCell ref="F118:U118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:C140"/>
+    <mergeCell ref="D121:D130"/>
+    <mergeCell ref="D131:D140"/>
+    <mergeCell ref="F94:U94"/>
+    <mergeCell ref="V94:V96"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:C116"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="V46:V48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="C25:C44"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="V22:V24"/>
+    <mergeCell ref="C49:C68"/>
+    <mergeCell ref="D49:D58"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:U46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10:J19">
@@ -20242,8 +20254,8 @@
   </sheetPr>
   <dimension ref="B1:AE317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z248" sqref="Z248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -20301,7 +20313,7 @@
       </c>
       <c r="I3" s="71">
         <f>Q25</f>
-        <v>0.4859154929577465</v>
+        <v>0.49195171026156942</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>69</v>
@@ -20363,118 +20375,118 @@
     <row r="6" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="19"/>
       <c r="C6" s="332"/>
-      <c r="D6" s="404">
+      <c r="D6" s="400">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="405"/>
-      <c r="J6" s="406"/>
-      <c r="K6" s="407">
+      <c r="E6" s="401"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="401"/>
+      <c r="H6" s="401"/>
+      <c r="I6" s="401"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="403">
         <f>N1</f>
         <v>44593</v>
       </c>
-      <c r="L6" s="408"/>
-      <c r="M6" s="408"/>
-      <c r="N6" s="409"/>
-      <c r="O6" s="365" t="s">
+      <c r="L6" s="404"/>
+      <c r="M6" s="404"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="320" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="365" t="s">
+      <c r="P6" s="320" t="s">
         <v>184</v>
       </c>
-      <c r="Q6" s="398" t="s">
+      <c r="Q6" s="407" t="s">
         <v>156</v>
       </c>
-      <c r="R6" s="399"/>
-      <c r="S6" s="399"/>
-      <c r="T6" s="399"/>
-      <c r="U6" s="399"/>
-      <c r="V6" s="399"/>
-      <c r="W6" s="399"/>
-      <c r="X6" s="399"/>
-      <c r="Y6" s="399"/>
+      <c r="R6" s="408"/>
+      <c r="S6" s="408"/>
+      <c r="T6" s="408"/>
+      <c r="U6" s="408"/>
+      <c r="V6" s="408"/>
+      <c r="W6" s="408"/>
+      <c r="X6" s="408"/>
+      <c r="Y6" s="408"/>
     </row>
     <row r="7" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="333"/>
-      <c r="D7" s="353" t="s">
+      <c r="D7" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="354"/>
-      <c r="F7" s="359" t="s">
+      <c r="E7" s="359"/>
+      <c r="F7" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="354"/>
-      <c r="H7" s="351" t="s">
+      <c r="G7" s="359"/>
+      <c r="H7" s="356" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="344" t="s">
+      <c r="I7" s="357"/>
+      <c r="J7" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="338" t="s">
+      <c r="K7" s="328" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="340"/>
-      <c r="M7" s="373" t="s">
+      <c r="L7" s="329"/>
+      <c r="M7" s="330" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="374"/>
+      <c r="N7" s="331"/>
       <c r="O7" s="384"/>
       <c r="P7" s="384"/>
-      <c r="Q7" s="400" t="s">
+      <c r="Q7" s="409" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="401"/>
-      <c r="S7" s="401"/>
-      <c r="T7" s="401"/>
-      <c r="U7" s="401"/>
-      <c r="V7" s="401"/>
-      <c r="W7" s="401"/>
-      <c r="X7" s="401"/>
-      <c r="Y7" s="401"/>
+      <c r="R7" s="410"/>
+      <c r="S7" s="410"/>
+      <c r="T7" s="410"/>
+      <c r="U7" s="410"/>
+      <c r="V7" s="410"/>
+      <c r="W7" s="410"/>
+      <c r="X7" s="410"/>
+      <c r="Y7" s="410"/>
     </row>
     <row r="8" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B8" s="19"/>
       <c r="C8" s="333"/>
-      <c r="D8" s="355" t="s">
+      <c r="D8" s="360" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="357" t="s">
+      <c r="E8" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="363" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="377" t="s">
+      <c r="G8" s="375" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="347" t="s">
+      <c r="H8" s="352" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="349" t="s">
+      <c r="I8" s="354" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="345"/>
-      <c r="K8" s="365" t="s">
+      <c r="J8" s="350"/>
+      <c r="K8" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="365" t="s">
+      <c r="L8" s="320" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="367" t="s">
+      <c r="M8" s="322" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="369" t="s">
+      <c r="N8" s="324" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="384"/>
       <c r="P8" s="384"/>
-      <c r="Q8" s="375" t="s">
+      <c r="Q8" s="377" t="s">
         <v>59</v>
       </c>
       <c r="R8" s="246" t="s">
@@ -20501,7 +20513,7 @@
       <c r="Y8" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" s="402" t="s">
+      <c r="Z8" s="398" t="s">
         <v>4</v>
       </c>
       <c r="AA8" s="314" t="s">
@@ -20511,26 +20523,26 @@
     <row r="9" spans="2:31" ht="18.75" customHeight="1" thickBot="1">
       <c r="B9" s="19"/>
       <c r="C9" s="334"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="346"/>
-      <c r="K9" s="366"/>
-      <c r="L9" s="366" t="s">
+      <c r="D9" s="361"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="355"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="323">
         <v>0.8</v>
       </c>
-      <c r="N9" s="370" t="s">
+      <c r="N9" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="366"/>
-      <c r="P9" s="366"/>
-      <c r="Q9" s="376"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="321"/>
+      <c r="Q9" s="378"/>
       <c r="R9" s="246" t="s">
         <v>177</v>
       </c>
@@ -20555,7 +20567,7 @@
       <c r="Y9" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" s="403" t="s">
+      <c r="Z9" s="399" t="s">
         <v>4</v>
       </c>
       <c r="AA9" s="314"/>
@@ -20709,13 +20721,13 @@
       <c r="O11" s="193">
         <v>2</v>
       </c>
-      <c r="P11" s="193">
+      <c r="P11" s="193" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q11" s="251">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="R11" s="248">
         <f t="shared" si="9"/>
@@ -20743,7 +20755,7 @@
       </c>
       <c r="X11" s="133">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="40">
         <f t="shared" si="16"/>
@@ -20751,7 +20763,7 @@
       </c>
       <c r="Z11" s="46">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA11" s="21">
         <f t="shared" si="18"/>
@@ -20908,13 +20920,13 @@
       <c r="O13" s="193">
         <v>9</v>
       </c>
-      <c r="P13" s="193">
+      <c r="P13" s="193" t="str">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="Q13" s="251">
         <f t="shared" si="8"/>
-        <v>0.76136363636363635</v>
+        <v>0.80681818181818177</v>
       </c>
       <c r="R13" s="248">
         <f t="shared" si="9"/>
@@ -20934,15 +20946,15 @@
       </c>
       <c r="V13" s="133">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W13" s="133">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X13" s="133">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="40">
         <f t="shared" si="16"/>
@@ -20950,7 +20962,7 @@
       </c>
       <c r="Z13" s="46">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA13" s="21">
         <f t="shared" si="18"/>
@@ -21005,16 +21017,16 @@
         <v>8</v>
       </c>
       <c r="O14" s="274">
-        <f>2+8</f>
-        <v>10</v>
+        <f>2+14</f>
+        <v>16</v>
       </c>
       <c r="P14" s="274">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="275">
         <f t="shared" si="8"/>
-        <v>0.62962962962962965</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="R14" s="276">
         <f t="shared" si="9"/>
@@ -21038,7 +21050,7 @@
       </c>
       <c r="W14" s="277">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="277">
         <f t="shared" si="15"/>
@@ -21050,7 +21062,7 @@
       </c>
       <c r="Z14" s="266">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="278">
         <f t="shared" si="18"/>
@@ -21108,6 +21120,7 @@
         <v>15</v>
       </c>
       <c r="O15" s="193">
+        <f>2</f>
         <v>2</v>
       </c>
       <c r="P15" s="193">
@@ -21431,7 +21444,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V18" s="133">
+      <c r="V18" s="411">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -21504,6 +21517,7 @@
         <v>14</v>
       </c>
       <c r="O19" s="274">
+        <f>16</f>
         <v>16</v>
       </c>
       <c r="P19" s="274">
@@ -21702,15 +21716,16 @@
         <v>8</v>
       </c>
       <c r="O21" s="193">
-        <v>22</v>
-      </c>
-      <c r="P21" s="193">
+        <f>22+6</f>
+        <v>28</v>
+      </c>
+      <c r="P21" s="193" t="str">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="Q21" s="251">
         <f>IF(E21=0,"",SUM(G21,O21,Z21)/E21)</f>
-        <v>0.70967741935483875</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="R21" s="248">
         <f t="shared" si="9"/>
@@ -22074,15 +22089,15 @@
       </c>
       <c r="O25" s="118">
         <f>SUM(O10:O24)</f>
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="P25" s="118">
         <f>SUM(P10:P24)</f>
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="139">
         <f>IF(E25=0,"",SUM(G25,20,Z25)/E25)</f>
-        <v>0.4859154929577465</v>
+        <v>0.49195171026156942</v>
       </c>
       <c r="R25" s="250">
         <f t="shared" ref="R25:T25" si="28">SUM(R10:R24)</f>
@@ -22102,15 +22117,15 @@
       </c>
       <c r="V25" s="141">
         <f t="shared" si="29"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W25" s="141">
         <f t="shared" si="29"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X25" s="141">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="142">
         <f t="shared" si="29"/>
@@ -22118,7 +22133,7 @@
       </c>
       <c r="Z25" s="253">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AA25" s="21"/>
     </row>
@@ -22129,38 +22144,38 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C27" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="319"/>
+      <c r="C27" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="343"/>
       <c r="E27" s="77"/>
-      <c r="F27" s="318">
+      <c r="F27" s="342">
         <v>11</v>
       </c>
-      <c r="G27" s="319"/>
+      <c r="G27" s="343"/>
       <c r="H27" s="216"/>
-      <c r="I27" s="410">
+      <c r="I27" s="406">
         <v>12</v>
       </c>
-      <c r="J27" s="330"/>
-      <c r="K27" s="330"/>
-      <c r="L27" s="330"/>
-      <c r="M27" s="330"/>
-      <c r="N27" s="330"/>
-      <c r="O27" s="330"/>
-      <c r="P27" s="330"/>
-      <c r="Q27" s="330"/>
-      <c r="R27" s="330"/>
-      <c r="S27" s="319"/>
-      <c r="T27" s="379" t="s">
+      <c r="J27" s="344"/>
+      <c r="K27" s="344"/>
+      <c r="L27" s="344"/>
+      <c r="M27" s="344"/>
+      <c r="N27" s="344"/>
+      <c r="O27" s="344"/>
+      <c r="P27" s="344"/>
+      <c r="Q27" s="344"/>
+      <c r="R27" s="344"/>
+      <c r="S27" s="343"/>
+      <c r="T27" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C28" s="320" t="s">
+      <c r="C28" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="321"/>
+      <c r="D28" s="366"/>
       <c r="E28" s="78"/>
       <c r="F28" s="214">
         <v>44529</v>
@@ -22217,13 +22232,13 @@
         <f t="shared" si="30"/>
         <v>44542</v>
       </c>
-      <c r="T28" s="380"/>
+      <c r="T28" s="382"/>
     </row>
     <row r="29" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C29" s="396" t="s">
+      <c r="C29" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="397"/>
+      <c r="D29" s="394"/>
       <c r="E29" s="217"/>
       <c r="F29" s="218">
         <f t="shared" ref="F29:S29" si="31">WEEKDAY(F28)</f>
@@ -22281,13 +22296,13 @@
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="T29" s="380"/>
+      <c r="T29" s="382"/>
     </row>
     <row r="30" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C30" s="318" t="s">
+      <c r="C30" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="393" t="s">
+      <c r="D30" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="223" t="s">
@@ -22313,8 +22328,8 @@
       </c>
     </row>
     <row r="31" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C31" s="320"/>
-      <c r="D31" s="394"/>
+      <c r="C31" s="365"/>
+      <c r="D31" s="396"/>
       <c r="E31" s="224" t="s">
         <v>141</v>
       </c>
@@ -22338,8 +22353,8 @@
       </c>
     </row>
     <row r="32" spans="2:31" hidden="1" outlineLevel="1">
-      <c r="C32" s="320"/>
-      <c r="D32" s="394"/>
+      <c r="C32" s="365"/>
+      <c r="D32" s="396"/>
       <c r="E32" s="224" t="s">
         <v>134</v>
       </c>
@@ -22363,8 +22378,8 @@
       </c>
     </row>
     <row r="33" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C33" s="320"/>
-      <c r="D33" s="394"/>
+      <c r="C33" s="365"/>
+      <c r="D33" s="396"/>
       <c r="E33" s="224" t="s">
         <v>136</v>
       </c>
@@ -22388,8 +22403,8 @@
       </c>
     </row>
     <row r="34" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C34" s="320"/>
-      <c r="D34" s="394"/>
+      <c r="C34" s="365"/>
+      <c r="D34" s="396"/>
       <c r="E34" s="224" t="s">
         <v>139</v>
       </c>
@@ -22413,8 +22428,8 @@
       </c>
     </row>
     <row r="35" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C35" s="320"/>
-      <c r="D35" s="394"/>
+      <c r="C35" s="365"/>
+      <c r="D35" s="396"/>
       <c r="E35" s="224" t="s">
         <v>137</v>
       </c>
@@ -22438,8 +22453,8 @@
       </c>
     </row>
     <row r="36" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C36" s="320"/>
-      <c r="D36" s="394"/>
+      <c r="C36" s="365"/>
+      <c r="D36" s="396"/>
       <c r="E36" s="224" t="s">
         <v>133</v>
       </c>
@@ -22463,8 +22478,8 @@
       </c>
     </row>
     <row r="37" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C37" s="320"/>
-      <c r="D37" s="394"/>
+      <c r="C37" s="365"/>
+      <c r="D37" s="396"/>
       <c r="E37" s="224" t="s">
         <v>140</v>
       </c>
@@ -22488,8 +22503,8 @@
       </c>
     </row>
     <row r="38" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C38" s="320"/>
-      <c r="D38" s="394"/>
+      <c r="C38" s="365"/>
+      <c r="D38" s="396"/>
       <c r="E38" s="224" t="s">
         <v>138</v>
       </c>
@@ -22513,8 +22528,8 @@
       </c>
     </row>
     <row r="39" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C39" s="320"/>
-      <c r="D39" s="394"/>
+      <c r="C39" s="365"/>
+      <c r="D39" s="396"/>
       <c r="E39" s="224" t="s">
         <v>135</v>
       </c>
@@ -22538,8 +22553,8 @@
       </c>
     </row>
     <row r="40" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C40" s="320"/>
-      <c r="D40" s="394"/>
+      <c r="C40" s="365"/>
+      <c r="D40" s="396"/>
       <c r="E40" s="224" t="s">
         <v>158</v>
       </c>
@@ -22563,8 +22578,8 @@
       </c>
     </row>
     <row r="41" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C41" s="320"/>
-      <c r="D41" s="394"/>
+      <c r="C41" s="365"/>
+      <c r="D41" s="396"/>
       <c r="E41" s="224" t="s">
         <v>174</v>
       </c>
@@ -22588,8 +22603,8 @@
       </c>
     </row>
     <row r="42" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C42" s="320"/>
-      <c r="D42" s="394"/>
+      <c r="C42" s="365"/>
+      <c r="D42" s="396"/>
       <c r="E42" s="224" t="s">
         <v>175</v>
       </c>
@@ -22613,8 +22628,8 @@
       </c>
     </row>
     <row r="43" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C43" s="320"/>
-      <c r="D43" s="395"/>
+      <c r="C43" s="365"/>
+      <c r="D43" s="397"/>
       <c r="E43" s="225"/>
       <c r="F43" s="243"/>
       <c r="G43" s="244"/>
@@ -22636,8 +22651,8 @@
       </c>
     </row>
     <row r="44" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C44" s="320"/>
-      <c r="D44" s="393" t="s">
+      <c r="C44" s="365"/>
+      <c r="D44" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="223" t="s">
@@ -22663,8 +22678,8 @@
       </c>
     </row>
     <row r="45" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C45" s="320"/>
-      <c r="D45" s="394"/>
+      <c r="C45" s="365"/>
+      <c r="D45" s="396"/>
       <c r="E45" s="224" t="s">
         <v>141</v>
       </c>
@@ -22688,8 +22703,8 @@
       </c>
     </row>
     <row r="46" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C46" s="320"/>
-      <c r="D46" s="394"/>
+      <c r="C46" s="365"/>
+      <c r="D46" s="396"/>
       <c r="E46" s="224" t="s">
         <v>134</v>
       </c>
@@ -22715,8 +22730,8 @@
       </c>
     </row>
     <row r="47" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C47" s="320"/>
-      <c r="D47" s="394"/>
+      <c r="C47" s="365"/>
+      <c r="D47" s="396"/>
       <c r="E47" s="224" t="s">
         <v>136</v>
       </c>
@@ -22740,8 +22755,8 @@
       </c>
     </row>
     <row r="48" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C48" s="320"/>
-      <c r="D48" s="394"/>
+      <c r="C48" s="365"/>
+      <c r="D48" s="396"/>
       <c r="E48" s="224" t="s">
         <v>139</v>
       </c>
@@ -22765,8 +22780,8 @@
       </c>
     </row>
     <row r="49" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C49" s="320"/>
-      <c r="D49" s="394"/>
+      <c r="C49" s="365"/>
+      <c r="D49" s="396"/>
       <c r="E49" s="224" t="s">
         <v>137</v>
       </c>
@@ -22796,8 +22811,8 @@
       </c>
     </row>
     <row r="50" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C50" s="320"/>
-      <c r="D50" s="394"/>
+      <c r="C50" s="365"/>
+      <c r="D50" s="396"/>
       <c r="E50" s="224" t="s">
         <v>133</v>
       </c>
@@ -22821,8 +22836,8 @@
       </c>
     </row>
     <row r="51" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C51" s="320"/>
-      <c r="D51" s="394"/>
+      <c r="C51" s="365"/>
+      <c r="D51" s="396"/>
       <c r="E51" s="224" t="s">
         <v>140</v>
       </c>
@@ -22846,8 +22861,8 @@
       </c>
     </row>
     <row r="52" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C52" s="320"/>
-      <c r="D52" s="394"/>
+      <c r="C52" s="365"/>
+      <c r="D52" s="396"/>
       <c r="E52" s="224" t="s">
         <v>138</v>
       </c>
@@ -22871,8 +22886,8 @@
       </c>
     </row>
     <row r="53" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C53" s="320"/>
-      <c r="D53" s="394"/>
+      <c r="C53" s="365"/>
+      <c r="D53" s="396"/>
       <c r="E53" s="224" t="s">
         <v>135</v>
       </c>
@@ -22898,8 +22913,8 @@
       </c>
     </row>
     <row r="54" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C54" s="320"/>
-      <c r="D54" s="394"/>
+      <c r="C54" s="365"/>
+      <c r="D54" s="396"/>
       <c r="E54" s="224" t="s">
         <v>158</v>
       </c>
@@ -22925,8 +22940,8 @@
       </c>
     </row>
     <row r="55" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C55" s="320"/>
-      <c r="D55" s="394"/>
+      <c r="C55" s="365"/>
+      <c r="D55" s="396"/>
       <c r="E55" s="224" t="s">
         <v>174</v>
       </c>
@@ -22950,8 +22965,8 @@
       </c>
     </row>
     <row r="56" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C56" s="320"/>
-      <c r="D56" s="394"/>
+      <c r="C56" s="365"/>
+      <c r="D56" s="396"/>
       <c r="E56" s="224" t="s">
         <v>175</v>
       </c>
@@ -22975,8 +22990,8 @@
       </c>
     </row>
     <row r="57" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C57" s="322"/>
-      <c r="D57" s="395"/>
+      <c r="C57" s="367"/>
+      <c r="D57" s="397"/>
       <c r="E57" s="225" t="s">
         <v>186</v>
       </c>
@@ -23003,36 +23018,36 @@
     </row>
     <row r="58" spans="3:20" hidden="1" outlineLevel="1"/>
     <row r="59" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C59" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="319"/>
+      <c r="C59" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="343"/>
       <c r="E59" s="77"/>
-      <c r="F59" s="318">
+      <c r="F59" s="342">
         <v>12</v>
       </c>
-      <c r="G59" s="330"/>
-      <c r="H59" s="330"/>
-      <c r="I59" s="330"/>
-      <c r="J59" s="330"/>
-      <c r="K59" s="330"/>
-      <c r="L59" s="330"/>
-      <c r="M59" s="330"/>
-      <c r="N59" s="330"/>
-      <c r="O59" s="330"/>
-      <c r="P59" s="330"/>
-      <c r="Q59" s="330"/>
-      <c r="R59" s="330"/>
-      <c r="S59" s="319"/>
-      <c r="T59" s="379" t="s">
+      <c r="G59" s="344"/>
+      <c r="H59" s="344"/>
+      <c r="I59" s="344"/>
+      <c r="J59" s="344"/>
+      <c r="K59" s="344"/>
+      <c r="L59" s="344"/>
+      <c r="M59" s="344"/>
+      <c r="N59" s="344"/>
+      <c r="O59" s="344"/>
+      <c r="P59" s="344"/>
+      <c r="Q59" s="344"/>
+      <c r="R59" s="344"/>
+      <c r="S59" s="343"/>
+      <c r="T59" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C60" s="320" t="s">
+      <c r="C60" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="321"/>
+      <c r="D60" s="366"/>
       <c r="E60" s="78"/>
       <c r="F60" s="214">
         <f>S28+1</f>
@@ -23090,13 +23105,13 @@
         <f t="shared" si="33"/>
         <v>44556</v>
       </c>
-      <c r="T60" s="380"/>
+      <c r="T60" s="382"/>
     </row>
     <row r="61" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C61" s="396" t="s">
+      <c r="C61" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="397"/>
+      <c r="D61" s="394"/>
       <c r="E61" s="217"/>
       <c r="F61" s="218">
         <f t="shared" ref="F61" si="34">WEEKDAY(F60)</f>
@@ -23154,13 +23169,13 @@
         <f t="shared" ref="S61" si="47">WEEKDAY(S60)</f>
         <v>1</v>
       </c>
-      <c r="T61" s="380"/>
+      <c r="T61" s="382"/>
     </row>
     <row r="62" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C62" s="318" t="s">
+      <c r="C62" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="393" t="s">
+      <c r="D62" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="223" t="s">
@@ -23186,8 +23201,8 @@
       </c>
     </row>
     <row r="63" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C63" s="320"/>
-      <c r="D63" s="394"/>
+      <c r="C63" s="365"/>
+      <c r="D63" s="396"/>
       <c r="E63" s="224" t="s">
         <v>141</v>
       </c>
@@ -23211,8 +23226,8 @@
       </c>
     </row>
     <row r="64" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C64" s="320"/>
-      <c r="D64" s="394"/>
+      <c r="C64" s="365"/>
+      <c r="D64" s="396"/>
       <c r="E64" s="224" t="s">
         <v>134</v>
       </c>
@@ -23236,8 +23251,8 @@
       </c>
     </row>
     <row r="65" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C65" s="320"/>
-      <c r="D65" s="394"/>
+      <c r="C65" s="365"/>
+      <c r="D65" s="396"/>
       <c r="E65" s="224" t="s">
         <v>136</v>
       </c>
@@ -23261,8 +23276,8 @@
       </c>
     </row>
     <row r="66" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C66" s="320"/>
-      <c r="D66" s="394"/>
+      <c r="C66" s="365"/>
+      <c r="D66" s="396"/>
       <c r="E66" s="224" t="s">
         <v>139</v>
       </c>
@@ -23286,8 +23301,8 @@
       </c>
     </row>
     <row r="67" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C67" s="320"/>
-      <c r="D67" s="394"/>
+      <c r="C67" s="365"/>
+      <c r="D67" s="396"/>
       <c r="E67" s="224" t="s">
         <v>137</v>
       </c>
@@ -23311,8 +23326,8 @@
       </c>
     </row>
     <row r="68" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C68" s="320"/>
-      <c r="D68" s="394"/>
+      <c r="C68" s="365"/>
+      <c r="D68" s="396"/>
       <c r="E68" s="224" t="s">
         <v>133</v>
       </c>
@@ -23336,8 +23351,8 @@
       </c>
     </row>
     <row r="69" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C69" s="320"/>
-      <c r="D69" s="394"/>
+      <c r="C69" s="365"/>
+      <c r="D69" s="396"/>
       <c r="E69" s="224" t="s">
         <v>140</v>
       </c>
@@ -23361,8 +23376,8 @@
       </c>
     </row>
     <row r="70" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C70" s="320"/>
-      <c r="D70" s="394"/>
+      <c r="C70" s="365"/>
+      <c r="D70" s="396"/>
       <c r="E70" s="224" t="s">
         <v>138</v>
       </c>
@@ -23386,8 +23401,8 @@
       </c>
     </row>
     <row r="71" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C71" s="320"/>
-      <c r="D71" s="394"/>
+      <c r="C71" s="365"/>
+      <c r="D71" s="396"/>
       <c r="E71" s="224" t="s">
         <v>135</v>
       </c>
@@ -23411,8 +23426,8 @@
       </c>
     </row>
     <row r="72" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C72" s="320"/>
-      <c r="D72" s="394"/>
+      <c r="C72" s="365"/>
+      <c r="D72" s="396"/>
       <c r="E72" s="224" t="s">
         <v>158</v>
       </c>
@@ -23436,8 +23451,8 @@
       </c>
     </row>
     <row r="73" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C73" s="320"/>
-      <c r="D73" s="394"/>
+      <c r="C73" s="365"/>
+      <c r="D73" s="396"/>
       <c r="E73" s="224" t="s">
         <v>174</v>
       </c>
@@ -23461,8 +23476,8 @@
       </c>
     </row>
     <row r="74" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C74" s="320"/>
-      <c r="D74" s="394"/>
+      <c r="C74" s="365"/>
+      <c r="D74" s="396"/>
       <c r="E74" s="224" t="s">
         <v>175</v>
       </c>
@@ -23486,8 +23501,8 @@
       </c>
     </row>
     <row r="75" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C75" s="320"/>
-      <c r="D75" s="395"/>
+      <c r="C75" s="365"/>
+      <c r="D75" s="397"/>
       <c r="E75" s="225"/>
       <c r="F75" s="243"/>
       <c r="G75" s="244"/>
@@ -23509,8 +23524,8 @@
       </c>
     </row>
     <row r="76" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C76" s="320"/>
-      <c r="D76" s="393" t="s">
+      <c r="C76" s="365"/>
+      <c r="D76" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="223" t="s">
@@ -23538,8 +23553,8 @@
       </c>
     </row>
     <row r="77" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C77" s="320"/>
-      <c r="D77" s="394"/>
+      <c r="C77" s="365"/>
+      <c r="D77" s="396"/>
       <c r="E77" s="224" t="s">
         <v>141</v>
       </c>
@@ -23563,8 +23578,8 @@
       </c>
     </row>
     <row r="78" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C78" s="320"/>
-      <c r="D78" s="394"/>
+      <c r="C78" s="365"/>
+      <c r="D78" s="396"/>
       <c r="E78" s="224" t="s">
         <v>134</v>
       </c>
@@ -23588,8 +23603,8 @@
       </c>
     </row>
     <row r="79" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C79" s="320"/>
-      <c r="D79" s="394"/>
+      <c r="C79" s="365"/>
+      <c r="D79" s="396"/>
       <c r="E79" s="224" t="s">
         <v>136</v>
       </c>
@@ -23617,8 +23632,8 @@
       </c>
     </row>
     <row r="80" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C80" s="320"/>
-      <c r="D80" s="394"/>
+      <c r="C80" s="365"/>
+      <c r="D80" s="396"/>
       <c r="E80" s="224" t="s">
         <v>139</v>
       </c>
@@ -23642,8 +23657,8 @@
       </c>
     </row>
     <row r="81" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C81" s="320"/>
-      <c r="D81" s="394"/>
+      <c r="C81" s="365"/>
+      <c r="D81" s="396"/>
       <c r="E81" s="224" t="s">
         <v>137</v>
       </c>
@@ -23667,8 +23682,8 @@
       </c>
     </row>
     <row r="82" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C82" s="320"/>
-      <c r="D82" s="394"/>
+      <c r="C82" s="365"/>
+      <c r="D82" s="396"/>
       <c r="E82" s="224" t="s">
         <v>133</v>
       </c>
@@ -23692,8 +23707,8 @@
       </c>
     </row>
     <row r="83" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C83" s="320"/>
-      <c r="D83" s="394"/>
+      <c r="C83" s="365"/>
+      <c r="D83" s="396"/>
       <c r="E83" s="224" t="s">
         <v>140</v>
       </c>
@@ -23717,8 +23732,8 @@
       </c>
     </row>
     <row r="84" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C84" s="320"/>
-      <c r="D84" s="394"/>
+      <c r="C84" s="365"/>
+      <c r="D84" s="396"/>
       <c r="E84" s="224" t="s">
         <v>138</v>
       </c>
@@ -23742,8 +23757,8 @@
       </c>
     </row>
     <row r="85" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C85" s="320"/>
-      <c r="D85" s="394"/>
+      <c r="C85" s="365"/>
+      <c r="D85" s="396"/>
       <c r="E85" s="224" t="s">
         <v>135</v>
       </c>
@@ -23775,8 +23790,8 @@
       </c>
     </row>
     <row r="86" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C86" s="320"/>
-      <c r="D86" s="394"/>
+      <c r="C86" s="365"/>
+      <c r="D86" s="396"/>
       <c r="E86" s="224" t="s">
         <v>158</v>
       </c>
@@ -23802,8 +23817,8 @@
       </c>
     </row>
     <row r="87" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C87" s="320"/>
-      <c r="D87" s="394"/>
+      <c r="C87" s="365"/>
+      <c r="D87" s="396"/>
       <c r="E87" s="224" t="s">
         <v>174</v>
       </c>
@@ -23835,8 +23850,8 @@
       </c>
     </row>
     <row r="88" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C88" s="320"/>
-      <c r="D88" s="394"/>
+      <c r="C88" s="365"/>
+      <c r="D88" s="396"/>
       <c r="E88" s="224" t="s">
         <v>175</v>
       </c>
@@ -23860,8 +23875,8 @@
       </c>
     </row>
     <row r="89" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C89" s="322"/>
-      <c r="D89" s="395"/>
+      <c r="C89" s="367"/>
+      <c r="D89" s="397"/>
       <c r="E89" s="225"/>
       <c r="F89" s="234"/>
       <c r="G89" s="235"/>
@@ -23884,38 +23899,38 @@
     </row>
     <row r="90" spans="3:20" hidden="1" outlineLevel="1"/>
     <row r="91" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C91" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="319"/>
+      <c r="C91" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="343"/>
       <c r="E91" s="77"/>
-      <c r="F91" s="318">
+      <c r="F91" s="342">
         <v>12</v>
       </c>
-      <c r="G91" s="330"/>
-      <c r="H91" s="330"/>
-      <c r="I91" s="330"/>
-      <c r="J91" s="330"/>
-      <c r="K91" s="330">
+      <c r="G91" s="344"/>
+      <c r="H91" s="344"/>
+      <c r="I91" s="344"/>
+      <c r="J91" s="344"/>
+      <c r="K91" s="344">
         <v>1</v>
       </c>
-      <c r="L91" s="330"/>
-      <c r="M91" s="330"/>
-      <c r="N91" s="330"/>
-      <c r="O91" s="330"/>
-      <c r="P91" s="330"/>
-      <c r="Q91" s="330"/>
-      <c r="R91" s="330"/>
-      <c r="S91" s="319"/>
-      <c r="T91" s="379" t="s">
+      <c r="L91" s="344"/>
+      <c r="M91" s="344"/>
+      <c r="N91" s="344"/>
+      <c r="O91" s="344"/>
+      <c r="P91" s="344"/>
+      <c r="Q91" s="344"/>
+      <c r="R91" s="344"/>
+      <c r="S91" s="343"/>
+      <c r="T91" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="92" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C92" s="320" t="s">
+      <c r="C92" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="321"/>
+      <c r="D92" s="366"/>
       <c r="E92" s="78"/>
       <c r="F92" s="214">
         <f>S60+1</f>
@@ -23973,13 +23988,13 @@
         <f t="shared" si="49"/>
         <v>44570</v>
       </c>
-      <c r="T92" s="380"/>
+      <c r="T92" s="382"/>
     </row>
     <row r="93" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C93" s="396" t="s">
+      <c r="C93" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="397"/>
+      <c r="D93" s="394"/>
       <c r="E93" s="217"/>
       <c r="F93" s="218">
         <f t="shared" ref="F93" si="50">WEEKDAY(F92)</f>
@@ -24037,13 +24052,13 @@
         <f t="shared" ref="S93" si="63">WEEKDAY(S92)</f>
         <v>1</v>
       </c>
-      <c r="T93" s="380"/>
+      <c r="T93" s="382"/>
     </row>
     <row r="94" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C94" s="318" t="s">
+      <c r="C94" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="393" t="s">
+      <c r="D94" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E94" s="223" t="s">
@@ -24069,8 +24084,8 @@
       </c>
     </row>
     <row r="95" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C95" s="320"/>
-      <c r="D95" s="394"/>
+      <c r="C95" s="365"/>
+      <c r="D95" s="396"/>
       <c r="E95" s="224" t="s">
         <v>141</v>
       </c>
@@ -24094,8 +24109,8 @@
       </c>
     </row>
     <row r="96" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C96" s="320"/>
-      <c r="D96" s="394"/>
+      <c r="C96" s="365"/>
+      <c r="D96" s="396"/>
       <c r="E96" s="224" t="s">
         <v>134</v>
       </c>
@@ -24119,8 +24134,8 @@
       </c>
     </row>
     <row r="97" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C97" s="320"/>
-      <c r="D97" s="394"/>
+      <c r="C97" s="365"/>
+      <c r="D97" s="396"/>
       <c r="E97" s="224" t="s">
         <v>136</v>
       </c>
@@ -24144,8 +24159,8 @@
       </c>
     </row>
     <row r="98" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C98" s="320"/>
-      <c r="D98" s="394"/>
+      <c r="C98" s="365"/>
+      <c r="D98" s="396"/>
       <c r="E98" s="224" t="s">
         <v>139</v>
       </c>
@@ -24169,8 +24184,8 @@
       </c>
     </row>
     <row r="99" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C99" s="320"/>
-      <c r="D99" s="394"/>
+      <c r="C99" s="365"/>
+      <c r="D99" s="396"/>
       <c r="E99" s="224" t="s">
         <v>137</v>
       </c>
@@ -24194,8 +24209,8 @@
       </c>
     </row>
     <row r="100" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C100" s="320"/>
-      <c r="D100" s="394"/>
+      <c r="C100" s="365"/>
+      <c r="D100" s="396"/>
       <c r="E100" s="224" t="s">
         <v>133</v>
       </c>
@@ -24219,8 +24234,8 @@
       </c>
     </row>
     <row r="101" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C101" s="320"/>
-      <c r="D101" s="394"/>
+      <c r="C101" s="365"/>
+      <c r="D101" s="396"/>
       <c r="E101" s="224" t="s">
         <v>140</v>
       </c>
@@ -24244,8 +24259,8 @@
       </c>
     </row>
     <row r="102" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C102" s="320"/>
-      <c r="D102" s="394"/>
+      <c r="C102" s="365"/>
+      <c r="D102" s="396"/>
       <c r="E102" s="224" t="s">
         <v>138</v>
       </c>
@@ -24269,8 +24284,8 @@
       </c>
     </row>
     <row r="103" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C103" s="320"/>
-      <c r="D103" s="394"/>
+      <c r="C103" s="365"/>
+      <c r="D103" s="396"/>
       <c r="E103" s="224" t="s">
         <v>135</v>
       </c>
@@ -24294,8 +24309,8 @@
       </c>
     </row>
     <row r="104" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C104" s="320"/>
-      <c r="D104" s="394"/>
+      <c r="C104" s="365"/>
+      <c r="D104" s="396"/>
       <c r="E104" s="224" t="s">
         <v>158</v>
       </c>
@@ -24319,8 +24334,8 @@
       </c>
     </row>
     <row r="105" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C105" s="320"/>
-      <c r="D105" s="394"/>
+      <c r="C105" s="365"/>
+      <c r="D105" s="396"/>
       <c r="E105" s="224" t="s">
         <v>174</v>
       </c>
@@ -24344,8 +24359,8 @@
       </c>
     </row>
     <row r="106" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C106" s="320"/>
-      <c r="D106" s="394"/>
+      <c r="C106" s="365"/>
+      <c r="D106" s="396"/>
       <c r="E106" s="224" t="s">
         <v>175</v>
       </c>
@@ -24369,8 +24384,8 @@
       </c>
     </row>
     <row r="107" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C107" s="320"/>
-      <c r="D107" s="395"/>
+      <c r="C107" s="365"/>
+      <c r="D107" s="397"/>
       <c r="E107" s="225"/>
       <c r="F107" s="243"/>
       <c r="G107" s="244"/>
@@ -24392,8 +24407,8 @@
       </c>
     </row>
     <row r="108" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C108" s="320"/>
-      <c r="D108" s="393" t="s">
+      <c r="C108" s="365"/>
+      <c r="D108" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E108" s="223" t="s">
@@ -24421,8 +24436,8 @@
       </c>
     </row>
     <row r="109" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C109" s="320"/>
-      <c r="D109" s="394"/>
+      <c r="C109" s="365"/>
+      <c r="D109" s="396"/>
       <c r="E109" s="224" t="s">
         <v>141</v>
       </c>
@@ -24448,8 +24463,8 @@
       </c>
     </row>
     <row r="110" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C110" s="320"/>
-      <c r="D110" s="394"/>
+      <c r="C110" s="365"/>
+      <c r="D110" s="396"/>
       <c r="E110" s="224" t="s">
         <v>134</v>
       </c>
@@ -24473,8 +24488,8 @@
       </c>
     </row>
     <row r="111" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C111" s="320"/>
-      <c r="D111" s="394"/>
+      <c r="C111" s="365"/>
+      <c r="D111" s="396"/>
       <c r="E111" s="224" t="s">
         <v>136</v>
       </c>
@@ -24502,8 +24517,8 @@
       </c>
     </row>
     <row r="112" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C112" s="320"/>
-      <c r="D112" s="394"/>
+      <c r="C112" s="365"/>
+      <c r="D112" s="396"/>
       <c r="E112" s="224" t="s">
         <v>139</v>
       </c>
@@ -24527,8 +24542,8 @@
       </c>
     </row>
     <row r="113" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C113" s="320"/>
-      <c r="D113" s="394"/>
+      <c r="C113" s="365"/>
+      <c r="D113" s="396"/>
       <c r="E113" s="224" t="s">
         <v>137</v>
       </c>
@@ -24552,8 +24567,8 @@
       </c>
     </row>
     <row r="114" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C114" s="320"/>
-      <c r="D114" s="394"/>
+      <c r="C114" s="365"/>
+      <c r="D114" s="396"/>
       <c r="E114" s="224" t="s">
         <v>133</v>
       </c>
@@ -24577,8 +24592,8 @@
       </c>
     </row>
     <row r="115" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C115" s="320"/>
-      <c r="D115" s="394"/>
+      <c r="C115" s="365"/>
+      <c r="D115" s="396"/>
       <c r="E115" s="224" t="s">
         <v>140</v>
       </c>
@@ -24602,8 +24617,8 @@
       </c>
     </row>
     <row r="116" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C116" s="320"/>
-      <c r="D116" s="394"/>
+      <c r="C116" s="365"/>
+      <c r="D116" s="396"/>
       <c r="E116" s="224" t="s">
         <v>138</v>
       </c>
@@ -24627,8 +24642,8 @@
       </c>
     </row>
     <row r="117" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C117" s="320"/>
-      <c r="D117" s="394"/>
+      <c r="C117" s="365"/>
+      <c r="D117" s="396"/>
       <c r="E117" s="224" t="s">
         <v>135</v>
       </c>
@@ -24652,8 +24667,8 @@
       </c>
     </row>
     <row r="118" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C118" s="320"/>
-      <c r="D118" s="394"/>
+      <c r="C118" s="365"/>
+      <c r="D118" s="396"/>
       <c r="E118" s="224" t="s">
         <v>158</v>
       </c>
@@ -24677,8 +24692,8 @@
       </c>
     </row>
     <row r="119" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C119" s="320"/>
-      <c r="D119" s="394"/>
+      <c r="C119" s="365"/>
+      <c r="D119" s="396"/>
       <c r="E119" s="224" t="s">
         <v>174</v>
       </c>
@@ -24702,8 +24717,8 @@
       </c>
     </row>
     <row r="120" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C120" s="320"/>
-      <c r="D120" s="394"/>
+      <c r="C120" s="365"/>
+      <c r="D120" s="396"/>
       <c r="E120" s="224" t="s">
         <v>175</v>
       </c>
@@ -24727,8 +24742,8 @@
       </c>
     </row>
     <row r="121" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C121" s="322"/>
-      <c r="D121" s="395"/>
+      <c r="C121" s="367"/>
+      <c r="D121" s="397"/>
       <c r="E121" s="225"/>
       <c r="F121" s="234"/>
       <c r="G121" s="235"/>
@@ -24751,36 +24766,36 @@
     </row>
     <row r="122" spans="3:20" hidden="1" outlineLevel="1"/>
     <row r="123" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C123" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="319"/>
+      <c r="C123" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="343"/>
       <c r="E123" s="77"/>
-      <c r="F123" s="318">
+      <c r="F123" s="342">
         <v>1</v>
       </c>
-      <c r="G123" s="330"/>
-      <c r="H123" s="330"/>
-      <c r="I123" s="330"/>
-      <c r="J123" s="330"/>
-      <c r="K123" s="330"/>
-      <c r="L123" s="330"/>
-      <c r="M123" s="330"/>
-      <c r="N123" s="330"/>
-      <c r="O123" s="330"/>
-      <c r="P123" s="330"/>
-      <c r="Q123" s="330"/>
-      <c r="R123" s="330"/>
-      <c r="S123" s="319"/>
-      <c r="T123" s="379" t="s">
+      <c r="G123" s="344"/>
+      <c r="H123" s="344"/>
+      <c r="I123" s="344"/>
+      <c r="J123" s="344"/>
+      <c r="K123" s="344"/>
+      <c r="L123" s="344"/>
+      <c r="M123" s="344"/>
+      <c r="N123" s="344"/>
+      <c r="O123" s="344"/>
+      <c r="P123" s="344"/>
+      <c r="Q123" s="344"/>
+      <c r="R123" s="344"/>
+      <c r="S123" s="343"/>
+      <c r="T123" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="124" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C124" s="320" t="s">
+      <c r="C124" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D124" s="321"/>
+      <c r="D124" s="366"/>
       <c r="E124" s="78"/>
       <c r="F124" s="214">
         <f>S92+1</f>
@@ -24838,13 +24853,13 @@
         <f t="shared" si="65"/>
         <v>44584</v>
       </c>
-      <c r="T124" s="380"/>
+      <c r="T124" s="382"/>
     </row>
     <row r="125" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C125" s="396" t="s">
+      <c r="C125" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="397"/>
+      <c r="D125" s="394"/>
       <c r="E125" s="217"/>
       <c r="F125" s="218">
         <f t="shared" ref="F125" si="66">WEEKDAY(F124)</f>
@@ -24902,13 +24917,13 @@
         <f t="shared" ref="S125" si="79">WEEKDAY(S124)</f>
         <v>1</v>
       </c>
-      <c r="T125" s="380"/>
+      <c r="T125" s="382"/>
     </row>
     <row r="126" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C126" s="318" t="s">
+      <c r="C126" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D126" s="393" t="s">
+      <c r="D126" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E126" s="223" t="s">
@@ -24934,8 +24949,8 @@
       </c>
     </row>
     <row r="127" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C127" s="320"/>
-      <c r="D127" s="394"/>
+      <c r="C127" s="365"/>
+      <c r="D127" s="396"/>
       <c r="E127" s="224" t="s">
         <v>141</v>
       </c>
@@ -24959,8 +24974,8 @@
       </c>
     </row>
     <row r="128" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C128" s="320"/>
-      <c r="D128" s="394"/>
+      <c r="C128" s="365"/>
+      <c r="D128" s="396"/>
       <c r="E128" s="224" t="s">
         <v>134</v>
       </c>
@@ -24984,8 +24999,8 @@
       </c>
     </row>
     <row r="129" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C129" s="320"/>
-      <c r="D129" s="394"/>
+      <c r="C129" s="365"/>
+      <c r="D129" s="396"/>
       <c r="E129" s="224" t="s">
         <v>136</v>
       </c>
@@ -25009,8 +25024,8 @@
       </c>
     </row>
     <row r="130" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C130" s="320"/>
-      <c r="D130" s="394"/>
+      <c r="C130" s="365"/>
+      <c r="D130" s="396"/>
       <c r="E130" s="224" t="s">
         <v>139</v>
       </c>
@@ -25034,8 +25049,8 @@
       </c>
     </row>
     <row r="131" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C131" s="320"/>
-      <c r="D131" s="394"/>
+      <c r="C131" s="365"/>
+      <c r="D131" s="396"/>
       <c r="E131" s="224" t="s">
         <v>137</v>
       </c>
@@ -25059,8 +25074,8 @@
       </c>
     </row>
     <row r="132" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C132" s="320"/>
-      <c r="D132" s="394"/>
+      <c r="C132" s="365"/>
+      <c r="D132" s="396"/>
       <c r="E132" s="224" t="s">
         <v>133</v>
       </c>
@@ -25084,8 +25099,8 @@
       </c>
     </row>
     <row r="133" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C133" s="320"/>
-      <c r="D133" s="394"/>
+      <c r="C133" s="365"/>
+      <c r="D133" s="396"/>
       <c r="E133" s="224" t="s">
         <v>140</v>
       </c>
@@ -25109,8 +25124,8 @@
       </c>
     </row>
     <row r="134" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C134" s="320"/>
-      <c r="D134" s="394"/>
+      <c r="C134" s="365"/>
+      <c r="D134" s="396"/>
       <c r="E134" s="224" t="s">
         <v>138</v>
       </c>
@@ -25134,8 +25149,8 @@
       </c>
     </row>
     <row r="135" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C135" s="320"/>
-      <c r="D135" s="394"/>
+      <c r="C135" s="365"/>
+      <c r="D135" s="396"/>
       <c r="E135" s="224" t="s">
         <v>135</v>
       </c>
@@ -25159,8 +25174,8 @@
       </c>
     </row>
     <row r="136" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C136" s="320"/>
-      <c r="D136" s="394"/>
+      <c r="C136" s="365"/>
+      <c r="D136" s="396"/>
       <c r="E136" s="224" t="s">
         <v>158</v>
       </c>
@@ -25184,8 +25199,8 @@
       </c>
     </row>
     <row r="137" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C137" s="320"/>
-      <c r="D137" s="394"/>
+      <c r="C137" s="365"/>
+      <c r="D137" s="396"/>
       <c r="E137" s="224" t="s">
         <v>174</v>
       </c>
@@ -25209,8 +25224,8 @@
       </c>
     </row>
     <row r="138" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C138" s="320"/>
-      <c r="D138" s="394"/>
+      <c r="C138" s="365"/>
+      <c r="D138" s="396"/>
       <c r="E138" s="224" t="s">
         <v>175</v>
       </c>
@@ -25234,8 +25249,8 @@
       </c>
     </row>
     <row r="139" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C139" s="320"/>
-      <c r="D139" s="395"/>
+      <c r="C139" s="365"/>
+      <c r="D139" s="397"/>
       <c r="E139" s="225"/>
       <c r="F139" s="243"/>
       <c r="G139" s="244"/>
@@ -25257,8 +25272,8 @@
       </c>
     </row>
     <row r="140" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C140" s="320"/>
-      <c r="D140" s="393" t="s">
+      <c r="C140" s="365"/>
+      <c r="D140" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E140" s="223" t="s">
@@ -25284,8 +25299,8 @@
       </c>
     </row>
     <row r="141" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C141" s="320"/>
-      <c r="D141" s="394"/>
+      <c r="C141" s="365"/>
+      <c r="D141" s="396"/>
       <c r="E141" s="224" t="s">
         <v>141</v>
       </c>
@@ -25309,8 +25324,8 @@
       </c>
     </row>
     <row r="142" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C142" s="320"/>
-      <c r="D142" s="394"/>
+      <c r="C142" s="365"/>
+      <c r="D142" s="396"/>
       <c r="E142" s="224" t="s">
         <v>134</v>
       </c>
@@ -25334,8 +25349,8 @@
       </c>
     </row>
     <row r="143" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C143" s="320"/>
-      <c r="D143" s="394"/>
+      <c r="C143" s="365"/>
+      <c r="D143" s="396"/>
       <c r="E143" s="224" t="s">
         <v>136</v>
       </c>
@@ -25359,8 +25374,8 @@
       </c>
     </row>
     <row r="144" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C144" s="320"/>
-      <c r="D144" s="394"/>
+      <c r="C144" s="365"/>
+      <c r="D144" s="396"/>
       <c r="E144" s="224" t="s">
         <v>139</v>
       </c>
@@ -25384,8 +25399,8 @@
       </c>
     </row>
     <row r="145" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C145" s="320"/>
-      <c r="D145" s="394"/>
+      <c r="C145" s="365"/>
+      <c r="D145" s="396"/>
       <c r="E145" s="224" t="s">
         <v>137</v>
       </c>
@@ -25411,8 +25426,8 @@
       </c>
     </row>
     <row r="146" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C146" s="320"/>
-      <c r="D146" s="394"/>
+      <c r="C146" s="365"/>
+      <c r="D146" s="396"/>
       <c r="E146" s="224" t="s">
         <v>133</v>
       </c>
@@ -25436,8 +25451,8 @@
       </c>
     </row>
     <row r="147" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C147" s="320"/>
-      <c r="D147" s="394"/>
+      <c r="C147" s="365"/>
+      <c r="D147" s="396"/>
       <c r="E147" s="224" t="s">
         <v>140</v>
       </c>
@@ -25461,8 +25476,8 @@
       </c>
     </row>
     <row r="148" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C148" s="320"/>
-      <c r="D148" s="394"/>
+      <c r="C148" s="365"/>
+      <c r="D148" s="396"/>
       <c r="E148" s="224" t="s">
         <v>138</v>
       </c>
@@ -25486,8 +25501,8 @@
       </c>
     </row>
     <row r="149" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C149" s="320"/>
-      <c r="D149" s="394"/>
+      <c r="C149" s="365"/>
+      <c r="D149" s="396"/>
       <c r="E149" s="224" t="s">
         <v>135</v>
       </c>
@@ -25511,8 +25526,8 @@
       </c>
     </row>
     <row r="150" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C150" s="320"/>
-      <c r="D150" s="394"/>
+      <c r="C150" s="365"/>
+      <c r="D150" s="396"/>
       <c r="E150" s="224" t="s">
         <v>158</v>
       </c>
@@ -25536,8 +25551,8 @@
       </c>
     </row>
     <row r="151" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C151" s="320"/>
-      <c r="D151" s="394"/>
+      <c r="C151" s="365"/>
+      <c r="D151" s="396"/>
       <c r="E151" s="224" t="s">
         <v>174</v>
       </c>
@@ -25561,8 +25576,8 @@
       </c>
     </row>
     <row r="152" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C152" s="320"/>
-      <c r="D152" s="394"/>
+      <c r="C152" s="365"/>
+      <c r="D152" s="396"/>
       <c r="E152" s="224" t="s">
         <v>175</v>
       </c>
@@ -25586,8 +25601,8 @@
       </c>
     </row>
     <row r="153" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C153" s="322"/>
-      <c r="D153" s="395"/>
+      <c r="C153" s="367"/>
+      <c r="D153" s="397"/>
       <c r="E153" s="225"/>
       <c r="F153" s="234"/>
       <c r="G153" s="235"/>
@@ -25610,38 +25625,38 @@
     </row>
     <row r="154" spans="3:20" collapsed="1"/>
     <row r="155" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C155" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="319"/>
+      <c r="C155" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="343"/>
       <c r="E155" s="77"/>
-      <c r="F155" s="318">
+      <c r="F155" s="342">
         <v>1</v>
       </c>
-      <c r="G155" s="330"/>
-      <c r="H155" s="330"/>
-      <c r="I155" s="330"/>
-      <c r="J155" s="330"/>
-      <c r="K155" s="330"/>
-      <c r="L155" s="330"/>
-      <c r="M155" s="330"/>
-      <c r="N155" s="330">
+      <c r="G155" s="344"/>
+      <c r="H155" s="344"/>
+      <c r="I155" s="344"/>
+      <c r="J155" s="344"/>
+      <c r="K155" s="344"/>
+      <c r="L155" s="344"/>
+      <c r="M155" s="344"/>
+      <c r="N155" s="344">
         <v>2</v>
       </c>
-      <c r="O155" s="330"/>
-      <c r="P155" s="330"/>
-      <c r="Q155" s="330"/>
-      <c r="R155" s="330"/>
-      <c r="S155" s="319"/>
-      <c r="T155" s="379" t="s">
+      <c r="O155" s="344"/>
+      <c r="P155" s="344"/>
+      <c r="Q155" s="344"/>
+      <c r="R155" s="344"/>
+      <c r="S155" s="343"/>
+      <c r="T155" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="156" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C156" s="320" t="s">
+      <c r="C156" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="321"/>
+      <c r="D156" s="366"/>
       <c r="E156" s="78"/>
       <c r="F156" s="214">
         <f>S124+1</f>
@@ -25699,13 +25714,13 @@
         <f t="shared" si="81"/>
         <v>44598</v>
       </c>
-      <c r="T156" s="380"/>
+      <c r="T156" s="382"/>
     </row>
     <row r="157" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C157" s="396" t="s">
+      <c r="C157" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="397"/>
+      <c r="D157" s="394"/>
       <c r="E157" s="217"/>
       <c r="F157" s="218">
         <f t="shared" ref="F157" si="82">WEEKDAY(F156)</f>
@@ -25763,13 +25778,13 @@
         <f t="shared" ref="S157" si="95">WEEKDAY(S156)</f>
         <v>1</v>
       </c>
-      <c r="T157" s="380"/>
+      <c r="T157" s="382"/>
     </row>
     <row r="158" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C158" s="318" t="s">
+      <c r="C158" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D158" s="393" t="s">
+      <c r="D158" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E158" s="223" t="s">
@@ -25795,8 +25810,8 @@
       </c>
     </row>
     <row r="159" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C159" s="320"/>
-      <c r="D159" s="394"/>
+      <c r="C159" s="365"/>
+      <c r="D159" s="396"/>
       <c r="E159" s="224" t="s">
         <v>141</v>
       </c>
@@ -25826,8 +25841,8 @@
       </c>
     </row>
     <row r="160" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C160" s="320"/>
-      <c r="D160" s="394"/>
+      <c r="C160" s="365"/>
+      <c r="D160" s="396"/>
       <c r="E160" s="224" t="s">
         <v>134</v>
       </c>
@@ -25851,8 +25866,8 @@
       </c>
     </row>
     <row r="161" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C161" s="320"/>
-      <c r="D161" s="394"/>
+      <c r="C161" s="365"/>
+      <c r="D161" s="396"/>
       <c r="E161" s="224" t="s">
         <v>136</v>
       </c>
@@ -25886,8 +25901,8 @@
       </c>
     </row>
     <row r="162" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C162" s="320"/>
-      <c r="D162" s="394"/>
+      <c r="C162" s="365"/>
+      <c r="D162" s="396"/>
       <c r="E162" s="285" t="s">
         <v>139</v>
       </c>
@@ -25919,8 +25934,8 @@
       </c>
     </row>
     <row r="163" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C163" s="320"/>
-      <c r="D163" s="394"/>
+      <c r="C163" s="365"/>
+      <c r="D163" s="396"/>
       <c r="E163" s="280" t="s">
         <v>137</v>
       </c>
@@ -25952,8 +25967,8 @@
       </c>
     </row>
     <row r="164" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C164" s="320"/>
-      <c r="D164" s="394"/>
+      <c r="C164" s="365"/>
+      <c r="D164" s="396"/>
       <c r="E164" s="224" t="s">
         <v>133</v>
       </c>
@@ -25977,8 +25992,8 @@
       </c>
     </row>
     <row r="165" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C165" s="320"/>
-      <c r="D165" s="394"/>
+      <c r="C165" s="365"/>
+      <c r="D165" s="396"/>
       <c r="E165" s="224" t="s">
         <v>140</v>
       </c>
@@ -26002,8 +26017,8 @@
       </c>
     </row>
     <row r="166" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C166" s="320"/>
-      <c r="D166" s="394"/>
+      <c r="C166" s="365"/>
+      <c r="D166" s="396"/>
       <c r="E166" s="224" t="s">
         <v>138</v>
       </c>
@@ -26027,8 +26042,8 @@
       </c>
     </row>
     <row r="167" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C167" s="320"/>
-      <c r="D167" s="394"/>
+      <c r="C167" s="365"/>
+      <c r="D167" s="396"/>
       <c r="E167" s="285" t="s">
         <v>135</v>
       </c>
@@ -26054,8 +26069,8 @@
       </c>
     </row>
     <row r="168" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C168" s="320"/>
-      <c r="D168" s="394"/>
+      <c r="C168" s="365"/>
+      <c r="D168" s="396"/>
       <c r="E168" s="280" t="s">
         <v>158</v>
       </c>
@@ -26079,8 +26094,8 @@
       </c>
     </row>
     <row r="169" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C169" s="320"/>
-      <c r="D169" s="394"/>
+      <c r="C169" s="365"/>
+      <c r="D169" s="396"/>
       <c r="E169" s="224" t="s">
         <v>174</v>
       </c>
@@ -26104,8 +26119,8 @@
       </c>
     </row>
     <row r="170" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C170" s="320"/>
-      <c r="D170" s="394"/>
+      <c r="C170" s="365"/>
+      <c r="D170" s="396"/>
       <c r="E170" s="224" t="s">
         <v>175</v>
       </c>
@@ -26135,8 +26150,8 @@
       </c>
     </row>
     <row r="171" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C171" s="320"/>
-      <c r="D171" s="395"/>
+      <c r="C171" s="365"/>
+      <c r="D171" s="397"/>
       <c r="E171" s="225"/>
       <c r="F171" s="243"/>
       <c r="G171" s="244"/>
@@ -26158,8 +26173,8 @@
       </c>
     </row>
     <row r="172" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C172" s="320"/>
-      <c r="D172" s="393" t="s">
+      <c r="C172" s="365"/>
+      <c r="D172" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E172" s="223" t="s">
@@ -26185,8 +26200,8 @@
       </c>
     </row>
     <row r="173" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C173" s="320"/>
-      <c r="D173" s="394"/>
+      <c r="C173" s="365"/>
+      <c r="D173" s="396"/>
       <c r="E173" s="224" t="s">
         <v>141</v>
       </c>
@@ -26210,8 +26225,8 @@
       </c>
     </row>
     <row r="174" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C174" s="320"/>
-      <c r="D174" s="394"/>
+      <c r="C174" s="365"/>
+      <c r="D174" s="396"/>
       <c r="E174" s="224" t="s">
         <v>134</v>
       </c>
@@ -26235,8 +26250,8 @@
       </c>
     </row>
     <row r="175" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C175" s="320"/>
-      <c r="D175" s="394"/>
+      <c r="C175" s="365"/>
+      <c r="D175" s="396"/>
       <c r="E175" s="224" t="s">
         <v>136</v>
       </c>
@@ -26259,17 +26274,19 @@
       <c r="P175" s="232">
         <v>1</v>
       </c>
-      <c r="Q175" s="232"/>
+      <c r="Q175" s="232">
+        <v>1</v>
+      </c>
       <c r="R175" s="233"/>
       <c r="S175" s="233"/>
       <c r="T175" s="221">
         <f t="shared" si="96"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C176" s="320"/>
-      <c r="D176" s="394"/>
+      <c r="C176" s="365"/>
+      <c r="D176" s="396"/>
       <c r="E176" s="285" t="s">
         <v>139</v>
       </c>
@@ -26295,8 +26312,8 @@
       </c>
     </row>
     <row r="177" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C177" s="320"/>
-      <c r="D177" s="394"/>
+      <c r="C177" s="365"/>
+      <c r="D177" s="396"/>
       <c r="E177" s="280" t="s">
         <v>137</v>
       </c>
@@ -26322,8 +26339,8 @@
       </c>
     </row>
     <row r="178" spans="3:20" ht="12.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C178" s="320"/>
-      <c r="D178" s="394"/>
+      <c r="C178" s="365"/>
+      <c r="D178" s="396"/>
       <c r="E178" s="224" t="s">
         <v>133</v>
       </c>
@@ -26347,8 +26364,8 @@
       </c>
     </row>
     <row r="179" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C179" s="320"/>
-      <c r="D179" s="394"/>
+      <c r="C179" s="365"/>
+      <c r="D179" s="396"/>
       <c r="E179" s="224" t="s">
         <v>140</v>
       </c>
@@ -26372,8 +26389,8 @@
       </c>
     </row>
     <row r="180" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C180" s="320"/>
-      <c r="D180" s="394"/>
+      <c r="C180" s="365"/>
+      <c r="D180" s="396"/>
       <c r="E180" s="224" t="s">
         <v>138</v>
       </c>
@@ -26399,8 +26416,8 @@
       </c>
     </row>
     <row r="181" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C181" s="320"/>
-      <c r="D181" s="394"/>
+      <c r="C181" s="365"/>
+      <c r="D181" s="396"/>
       <c r="E181" s="285" t="s">
         <v>135</v>
       </c>
@@ -26428,8 +26445,8 @@
       </c>
     </row>
     <row r="182" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="C182" s="320"/>
-      <c r="D182" s="394"/>
+      <c r="C182" s="365"/>
+      <c r="D182" s="396"/>
       <c r="E182" s="280" t="s">
         <v>158</v>
       </c>
@@ -26453,8 +26470,8 @@
       </c>
     </row>
     <row r="183" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C183" s="320"/>
-      <c r="D183" s="394"/>
+      <c r="C183" s="365"/>
+      <c r="D183" s="396"/>
       <c r="E183" s="224" t="s">
         <v>174</v>
       </c>
@@ -26478,8 +26495,8 @@
       </c>
     </row>
     <row r="184" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C184" s="320"/>
-      <c r="D184" s="394"/>
+      <c r="C184" s="365"/>
+      <c r="D184" s="396"/>
       <c r="E184" s="224" t="s">
         <v>175</v>
       </c>
@@ -26509,8 +26526,8 @@
       </c>
     </row>
     <row r="185" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C185" s="322"/>
-      <c r="D185" s="395"/>
+      <c r="C185" s="367"/>
+      <c r="D185" s="397"/>
       <c r="E185" s="225"/>
       <c r="F185" s="234"/>
       <c r="G185" s="235"/>
@@ -26533,36 +26550,36 @@
     </row>
     <row r="186" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" collapsed="1" thickBot="1"/>
     <row r="187" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C187" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="319"/>
+      <c r="C187" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="343"/>
       <c r="E187" s="77"/>
-      <c r="F187" s="318">
+      <c r="F187" s="342">
         <v>2</v>
       </c>
-      <c r="G187" s="330"/>
-      <c r="H187" s="330"/>
-      <c r="I187" s="330"/>
-      <c r="J187" s="330"/>
-      <c r="K187" s="330"/>
-      <c r="L187" s="330"/>
-      <c r="M187" s="330"/>
-      <c r="N187" s="330"/>
-      <c r="O187" s="330"/>
-      <c r="P187" s="330"/>
-      <c r="Q187" s="330"/>
-      <c r="R187" s="330"/>
-      <c r="S187" s="319"/>
-      <c r="T187" s="379" t="s">
+      <c r="G187" s="344"/>
+      <c r="H187" s="344"/>
+      <c r="I187" s="344"/>
+      <c r="J187" s="344"/>
+      <c r="K187" s="344"/>
+      <c r="L187" s="344"/>
+      <c r="M187" s="344"/>
+      <c r="N187" s="344"/>
+      <c r="O187" s="344"/>
+      <c r="P187" s="344"/>
+      <c r="Q187" s="344"/>
+      <c r="R187" s="344"/>
+      <c r="S187" s="343"/>
+      <c r="T187" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="188" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C188" s="320" t="s">
+      <c r="C188" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="321"/>
+      <c r="D188" s="366"/>
       <c r="E188" s="78"/>
       <c r="F188" s="214">
         <f>S156+1</f>
@@ -26620,13 +26637,13 @@
         <f t="shared" si="97"/>
         <v>44612</v>
       </c>
-      <c r="T188" s="380"/>
+      <c r="T188" s="382"/>
     </row>
     <row r="189" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C189" s="396" t="s">
+      <c r="C189" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="397"/>
+      <c r="D189" s="394"/>
       <c r="E189" s="217"/>
       <c r="F189" s="218">
         <f t="shared" ref="F189" si="98">WEEKDAY(F188)</f>
@@ -26684,13 +26701,13 @@
         <f t="shared" ref="S189" si="111">WEEKDAY(S188)</f>
         <v>1</v>
       </c>
-      <c r="T189" s="380"/>
+      <c r="T189" s="382"/>
     </row>
     <row r="190" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C190" s="318" t="s">
+      <c r="C190" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="393" t="s">
+      <c r="D190" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E190" s="223" t="s">
@@ -26716,8 +26733,8 @@
       </c>
     </row>
     <row r="191" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C191" s="320"/>
-      <c r="D191" s="394"/>
+      <c r="C191" s="365"/>
+      <c r="D191" s="396"/>
       <c r="E191" s="224" t="s">
         <v>141</v>
       </c>
@@ -26747,8 +26764,8 @@
       </c>
     </row>
     <row r="192" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C192" s="320"/>
-      <c r="D192" s="394"/>
+      <c r="C192" s="365"/>
+      <c r="D192" s="396"/>
       <c r="E192" s="224" t="s">
         <v>134</v>
       </c>
@@ -26772,8 +26789,8 @@
       </c>
     </row>
     <row r="193" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C193" s="320"/>
-      <c r="D193" s="394"/>
+      <c r="C193" s="365"/>
+      <c r="D193" s="396"/>
       <c r="E193" s="224" t="s">
         <v>136</v>
       </c>
@@ -26809,8 +26826,8 @@
       </c>
     </row>
     <row r="194" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C194" s="320"/>
-      <c r="D194" s="394"/>
+      <c r="C194" s="365"/>
+      <c r="D194" s="396"/>
       <c r="E194" s="224" t="s">
         <v>139</v>
       </c>
@@ -26838,8 +26855,8 @@
       </c>
     </row>
     <row r="195" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C195" s="320"/>
-      <c r="D195" s="394"/>
+      <c r="C195" s="365"/>
+      <c r="D195" s="396"/>
       <c r="E195" s="224" t="s">
         <v>137</v>
       </c>
@@ -26877,8 +26894,8 @@
       </c>
     </row>
     <row r="196" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C196" s="320"/>
-      <c r="D196" s="394"/>
+      <c r="C196" s="365"/>
+      <c r="D196" s="396"/>
       <c r="E196" s="224" t="s">
         <v>133</v>
       </c>
@@ -26902,8 +26919,8 @@
       </c>
     </row>
     <row r="197" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C197" s="320"/>
-      <c r="D197" s="394"/>
+      <c r="C197" s="365"/>
+      <c r="D197" s="396"/>
       <c r="E197" s="224" t="s">
         <v>140</v>
       </c>
@@ -26927,8 +26944,8 @@
       </c>
     </row>
     <row r="198" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C198" s="320"/>
-      <c r="D198" s="394"/>
+      <c r="C198" s="365"/>
+      <c r="D198" s="396"/>
       <c r="E198" s="224" t="s">
         <v>138</v>
       </c>
@@ -26962,8 +26979,8 @@
       </c>
     </row>
     <row r="199" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C199" s="320"/>
-      <c r="D199" s="394"/>
+      <c r="C199" s="365"/>
+      <c r="D199" s="396"/>
       <c r="E199" s="224" t="s">
         <v>135</v>
       </c>
@@ -26995,8 +27012,8 @@
       </c>
     </row>
     <row r="200" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C200" s="320"/>
-      <c r="D200" s="394"/>
+      <c r="C200" s="365"/>
+      <c r="D200" s="396"/>
       <c r="E200" s="224" t="s">
         <v>158</v>
       </c>
@@ -27020,8 +27037,8 @@
       </c>
     </row>
     <row r="201" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C201" s="320"/>
-      <c r="D201" s="394"/>
+      <c r="C201" s="365"/>
+      <c r="D201" s="396"/>
       <c r="E201" s="224" t="s">
         <v>174</v>
       </c>
@@ -27045,8 +27062,8 @@
       </c>
     </row>
     <row r="202" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C202" s="320"/>
-      <c r="D202" s="394"/>
+      <c r="C202" s="365"/>
+      <c r="D202" s="396"/>
       <c r="E202" s="224" t="s">
         <v>175</v>
       </c>
@@ -27074,8 +27091,8 @@
       </c>
     </row>
     <row r="203" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C203" s="320"/>
-      <c r="D203" s="395"/>
+      <c r="C203" s="365"/>
+      <c r="D203" s="397"/>
       <c r="E203" s="225"/>
       <c r="F203" s="243"/>
       <c r="G203" s="244"/>
@@ -27097,8 +27114,8 @@
       </c>
     </row>
     <row r="204" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C204" s="320"/>
-      <c r="D204" s="393" t="s">
+      <c r="C204" s="365"/>
+      <c r="D204" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E204" s="223" t="s">
@@ -27124,8 +27141,8 @@
       </c>
     </row>
     <row r="205" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C205" s="320"/>
-      <c r="D205" s="394"/>
+      <c r="C205" s="365"/>
+      <c r="D205" s="396"/>
       <c r="E205" s="224" t="s">
         <v>141</v>
       </c>
@@ -27149,8 +27166,8 @@
       </c>
     </row>
     <row r="206" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C206" s="320"/>
-      <c r="D206" s="394"/>
+      <c r="C206" s="365"/>
+      <c r="D206" s="396"/>
       <c r="E206" s="224" t="s">
         <v>134</v>
       </c>
@@ -27176,19 +27193,23 @@
       </c>
     </row>
     <row r="207" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C207" s="320"/>
-      <c r="D207" s="394"/>
+      <c r="C207" s="365"/>
+      <c r="D207" s="396"/>
       <c r="E207" s="224" t="s">
         <v>136</v>
       </c>
       <c r="F207" s="231">
         <v>1</v>
       </c>
-      <c r="G207" s="232"/>
+      <c r="G207" s="232">
+        <v>1</v>
+      </c>
       <c r="H207" s="232">
         <v>1</v>
       </c>
-      <c r="I207" s="232"/>
+      <c r="I207" s="232">
+        <v>1</v>
+      </c>
       <c r="J207" s="232">
         <v>1</v>
       </c>
@@ -27209,12 +27230,12 @@
       <c r="S207" s="233"/>
       <c r="T207" s="221">
         <f t="shared" si="112"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C208" s="320"/>
-      <c r="D208" s="394"/>
+      <c r="C208" s="365"/>
+      <c r="D208" s="396"/>
       <c r="E208" s="224" t="s">
         <v>139</v>
       </c>
@@ -27229,17 +27250,19 @@
       <c r="N208" s="232"/>
       <c r="O208" s="232"/>
       <c r="P208" s="232"/>
-      <c r="Q208" s="232"/>
+      <c r="Q208" s="232">
+        <v>1</v>
+      </c>
       <c r="R208" s="233"/>
       <c r="S208" s="233"/>
       <c r="T208" s="221">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C209" s="320"/>
-      <c r="D209" s="394"/>
+      <c r="C209" s="365"/>
+      <c r="D209" s="396"/>
       <c r="E209" s="224" t="s">
         <v>137</v>
       </c>
@@ -27263,8 +27286,8 @@
       </c>
     </row>
     <row r="210" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C210" s="320"/>
-      <c r="D210" s="394"/>
+      <c r="C210" s="365"/>
+      <c r="D210" s="396"/>
       <c r="E210" s="224" t="s">
         <v>133</v>
       </c>
@@ -27288,8 +27311,8 @@
       </c>
     </row>
     <row r="211" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C211" s="320"/>
-      <c r="D211" s="394"/>
+      <c r="C211" s="365"/>
+      <c r="D211" s="396"/>
       <c r="E211" s="224" t="s">
         <v>140</v>
       </c>
@@ -27313,8 +27336,8 @@
       </c>
     </row>
     <row r="212" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C212" s="320"/>
-      <c r="D212" s="394"/>
+      <c r="C212" s="365"/>
+      <c r="D212" s="396"/>
       <c r="E212" s="224" t="s">
         <v>138</v>
       </c>
@@ -27340,8 +27363,8 @@
       </c>
     </row>
     <row r="213" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C213" s="320"/>
-      <c r="D213" s="394"/>
+      <c r="C213" s="365"/>
+      <c r="D213" s="396"/>
       <c r="E213" s="224" t="s">
         <v>135</v>
       </c>
@@ -27367,8 +27390,8 @@
       </c>
     </row>
     <row r="214" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C214" s="320"/>
-      <c r="D214" s="394"/>
+      <c r="C214" s="365"/>
+      <c r="D214" s="396"/>
       <c r="E214" s="224" t="s">
         <v>158</v>
       </c>
@@ -27392,8 +27415,8 @@
       </c>
     </row>
     <row r="215" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C215" s="320"/>
-      <c r="D215" s="394"/>
+      <c r="C215" s="365"/>
+      <c r="D215" s="396"/>
       <c r="E215" s="224" t="s">
         <v>174</v>
       </c>
@@ -27417,8 +27440,8 @@
       </c>
     </row>
     <row r="216" spans="3:20" hidden="1" outlineLevel="1">
-      <c r="C216" s="320"/>
-      <c r="D216" s="394"/>
+      <c r="C216" s="365"/>
+      <c r="D216" s="396"/>
       <c r="E216" s="224" t="s">
         <v>175</v>
       </c>
@@ -27442,8 +27465,8 @@
       </c>
     </row>
     <row r="217" spans="3:20" ht="14.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="C217" s="322"/>
-      <c r="D217" s="395"/>
+      <c r="C217" s="367"/>
+      <c r="D217" s="397"/>
       <c r="E217" s="225"/>
       <c r="F217" s="234"/>
       <c r="G217" s="235"/>
@@ -27466,38 +27489,38 @@
     </row>
     <row r="218" spans="3:20" ht="14.25" collapsed="1" thickBot="1"/>
     <row r="219" spans="3:20">
-      <c r="C219" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="319"/>
+      <c r="C219" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="343"/>
       <c r="E219" s="77"/>
-      <c r="F219" s="318">
+      <c r="F219" s="342">
         <v>2</v>
       </c>
-      <c r="G219" s="330"/>
-      <c r="H219" s="330"/>
-      <c r="I219" s="330"/>
-      <c r="J219" s="330"/>
-      <c r="K219" s="330"/>
-      <c r="L219" s="330"/>
-      <c r="M219" s="330"/>
-      <c r="N219" s="330">
+      <c r="G219" s="344"/>
+      <c r="H219" s="344"/>
+      <c r="I219" s="344"/>
+      <c r="J219" s="344"/>
+      <c r="K219" s="344"/>
+      <c r="L219" s="344"/>
+      <c r="M219" s="344"/>
+      <c r="N219" s="344">
         <v>3</v>
       </c>
-      <c r="O219" s="330"/>
-      <c r="P219" s="330"/>
-      <c r="Q219" s="330"/>
-      <c r="R219" s="330"/>
-      <c r="S219" s="319"/>
-      <c r="T219" s="379" t="s">
+      <c r="O219" s="344"/>
+      <c r="P219" s="344"/>
+      <c r="Q219" s="344"/>
+      <c r="R219" s="344"/>
+      <c r="S219" s="343"/>
+      <c r="T219" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="220" spans="3:20">
-      <c r="C220" s="320" t="s">
+      <c r="C220" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D220" s="321"/>
+      <c r="D220" s="366"/>
       <c r="E220" s="78"/>
       <c r="F220" s="214">
         <f>S188+1</f>
@@ -27555,13 +27578,13 @@
         <f t="shared" si="113"/>
         <v>44626</v>
       </c>
-      <c r="T220" s="380"/>
+      <c r="T220" s="382"/>
     </row>
     <row r="221" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C221" s="396" t="s">
+      <c r="C221" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="397"/>
+      <c r="D221" s="394"/>
       <c r="E221" s="217"/>
       <c r="F221" s="218">
         <f t="shared" ref="F221" si="114">WEEKDAY(F220)</f>
@@ -27619,13 +27642,13 @@
         <f t="shared" ref="S221" si="127">WEEKDAY(S220)</f>
         <v>1</v>
       </c>
-      <c r="T221" s="380"/>
+      <c r="T221" s="382"/>
     </row>
     <row r="222" spans="3:20">
-      <c r="C222" s="318" t="s">
+      <c r="C222" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D222" s="393" t="s">
+      <c r="D222" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E222" s="223" t="s">
@@ -27651,8 +27674,8 @@
       </c>
     </row>
     <row r="223" spans="3:20">
-      <c r="C223" s="320"/>
-      <c r="D223" s="394"/>
+      <c r="C223" s="365"/>
+      <c r="D223" s="396"/>
       <c r="E223" s="224" t="s">
         <v>141</v>
       </c>
@@ -27678,8 +27701,8 @@
       </c>
     </row>
     <row r="224" spans="3:20">
-      <c r="C224" s="320"/>
-      <c r="D224" s="394"/>
+      <c r="C224" s="365"/>
+      <c r="D224" s="396"/>
       <c r="E224" s="224" t="s">
         <v>134</v>
       </c>
@@ -27703,8 +27726,8 @@
       </c>
     </row>
     <row r="225" spans="3:20">
-      <c r="C225" s="320"/>
-      <c r="D225" s="394"/>
+      <c r="C225" s="365"/>
+      <c r="D225" s="396"/>
       <c r="E225" s="224" t="s">
         <v>136</v>
       </c>
@@ -27728,8 +27751,8 @@
       </c>
     </row>
     <row r="226" spans="3:20">
-      <c r="C226" s="320"/>
-      <c r="D226" s="394"/>
+      <c r="C226" s="365"/>
+      <c r="D226" s="396"/>
       <c r="E226" s="224" t="s">
         <v>139</v>
       </c>
@@ -27763,8 +27786,8 @@
       </c>
     </row>
     <row r="227" spans="3:20">
-      <c r="C227" s="320"/>
-      <c r="D227" s="394"/>
+      <c r="C227" s="365"/>
+      <c r="D227" s="396"/>
       <c r="E227" s="224" t="s">
         <v>137</v>
       </c>
@@ -27788,8 +27811,8 @@
       </c>
     </row>
     <row r="228" spans="3:20">
-      <c r="C228" s="320"/>
-      <c r="D228" s="394"/>
+      <c r="C228" s="365"/>
+      <c r="D228" s="396"/>
       <c r="E228" s="224" t="s">
         <v>133</v>
       </c>
@@ -27813,8 +27836,8 @@
       </c>
     </row>
     <row r="229" spans="3:20">
-      <c r="C229" s="320"/>
-      <c r="D229" s="394"/>
+      <c r="C229" s="365"/>
+      <c r="D229" s="396"/>
       <c r="E229" s="224" t="s">
         <v>140</v>
       </c>
@@ -27838,8 +27861,8 @@
       </c>
     </row>
     <row r="230" spans="3:20">
-      <c r="C230" s="320"/>
-      <c r="D230" s="394"/>
+      <c r="C230" s="365"/>
+      <c r="D230" s="396"/>
       <c r="E230" s="224" t="s">
         <v>138</v>
       </c>
@@ -27863,8 +27886,8 @@
       </c>
     </row>
     <row r="231" spans="3:20">
-      <c r="C231" s="320"/>
-      <c r="D231" s="394"/>
+      <c r="C231" s="365"/>
+      <c r="D231" s="396"/>
       <c r="E231" s="224" t="s">
         <v>135</v>
       </c>
@@ -27900,8 +27923,8 @@
       </c>
     </row>
     <row r="232" spans="3:20">
-      <c r="C232" s="320"/>
-      <c r="D232" s="394"/>
+      <c r="C232" s="365"/>
+      <c r="D232" s="396"/>
       <c r="E232" s="224" t="s">
         <v>158</v>
       </c>
@@ -27925,8 +27948,8 @@
       </c>
     </row>
     <row r="233" spans="3:20">
-      <c r="C233" s="320"/>
-      <c r="D233" s="394"/>
+      <c r="C233" s="365"/>
+      <c r="D233" s="396"/>
       <c r="E233" s="224" t="s">
         <v>174</v>
       </c>
@@ -27950,8 +27973,8 @@
       </c>
     </row>
     <row r="234" spans="3:20">
-      <c r="C234" s="320"/>
-      <c r="D234" s="394"/>
+      <c r="C234" s="365"/>
+      <c r="D234" s="396"/>
       <c r="E234" s="224" t="s">
         <v>175</v>
       </c>
@@ -27975,8 +27998,8 @@
       </c>
     </row>
     <row r="235" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C235" s="320"/>
-      <c r="D235" s="395"/>
+      <c r="C235" s="365"/>
+      <c r="D235" s="397"/>
       <c r="E235" s="225" t="s">
         <v>188</v>
       </c>
@@ -28018,8 +28041,8 @@
       </c>
     </row>
     <row r="236" spans="3:20">
-      <c r="C236" s="320"/>
-      <c r="D236" s="393" t="s">
+      <c r="C236" s="365"/>
+      <c r="D236" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E236" s="223" t="s">
@@ -28045,13 +28068,13 @@
       </c>
     </row>
     <row r="237" spans="3:20">
-      <c r="C237" s="320"/>
-      <c r="D237" s="394"/>
+      <c r="C237" s="365"/>
+      <c r="D237" s="396"/>
       <c r="E237" s="224" t="s">
         <v>141</v>
       </c>
       <c r="F237" s="231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G237" s="232"/>
       <c r="H237" s="233"/>
@@ -28068,12 +28091,12 @@
       <c r="S237" s="233"/>
       <c r="T237" s="221">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="3:20">
-      <c r="C238" s="320"/>
-      <c r="D238" s="394"/>
+      <c r="C238" s="365"/>
+      <c r="D238" s="396"/>
       <c r="E238" s="224" t="s">
         <v>134</v>
       </c>
@@ -28097,12 +28120,14 @@
       </c>
     </row>
     <row r="239" spans="3:20">
-      <c r="C239" s="320"/>
-      <c r="D239" s="394"/>
+      <c r="C239" s="365"/>
+      <c r="D239" s="396"/>
       <c r="E239" s="224" t="s">
         <v>136</v>
       </c>
-      <c r="F239" s="231"/>
+      <c r="F239" s="231">
+        <v>1</v>
+      </c>
       <c r="G239" s="232"/>
       <c r="H239" s="233"/>
       <c r="I239" s="232"/>
@@ -28118,12 +28143,12 @@
       <c r="S239" s="233"/>
       <c r="T239" s="221">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="3:20">
-      <c r="C240" s="320"/>
-      <c r="D240" s="394"/>
+      <c r="C240" s="365"/>
+      <c r="D240" s="396"/>
       <c r="E240" s="224" t="s">
         <v>139</v>
       </c>
@@ -28147,8 +28172,8 @@
       </c>
     </row>
     <row r="241" spans="3:26">
-      <c r="C241" s="320"/>
-      <c r="D241" s="394"/>
+      <c r="C241" s="365"/>
+      <c r="D241" s="396"/>
       <c r="E241" s="224" t="s">
         <v>137</v>
       </c>
@@ -28172,8 +28197,8 @@
       </c>
     </row>
     <row r="242" spans="3:26">
-      <c r="C242" s="320"/>
-      <c r="D242" s="394"/>
+      <c r="C242" s="365"/>
+      <c r="D242" s="396"/>
       <c r="E242" s="224" t="s">
         <v>133</v>
       </c>
@@ -28208,8 +28233,8 @@
       </c>
     </row>
     <row r="243" spans="3:26">
-      <c r="C243" s="320"/>
-      <c r="D243" s="394"/>
+      <c r="C243" s="365"/>
+      <c r="D243" s="396"/>
       <c r="E243" s="224" t="s">
         <v>140</v>
       </c>
@@ -28242,8 +28267,8 @@
       </c>
     </row>
     <row r="244" spans="3:26">
-      <c r="C244" s="320"/>
-      <c r="D244" s="394"/>
+      <c r="C244" s="365"/>
+      <c r="D244" s="396"/>
       <c r="E244" s="224" t="s">
         <v>138</v>
       </c>
@@ -28270,15 +28295,15 @@
       </c>
       <c r="Y244" s="18">
         <f>O25+Z25</f>
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="Z244" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="245" spans="3:26">
-      <c r="C245" s="320"/>
-      <c r="D245" s="394"/>
+      <c r="C245" s="365"/>
+      <c r="D245" s="396"/>
       <c r="E245" s="224" t="s">
         <v>135</v>
       </c>
@@ -28305,12 +28330,12 @@
       </c>
       <c r="Y245" s="306">
         <f>(Y242-Y243+Y244)/Y242</f>
-        <v>0.68674698795180722</v>
+        <v>0.70481927710843373</v>
       </c>
     </row>
     <row r="246" spans="3:26">
-      <c r="C246" s="320"/>
-      <c r="D246" s="394"/>
+      <c r="C246" s="365"/>
+      <c r="D246" s="396"/>
       <c r="E246" s="224" t="s">
         <v>158</v>
       </c>
@@ -28341,8 +28366,8 @@
       </c>
     </row>
     <row r="247" spans="3:26">
-      <c r="C247" s="320"/>
-      <c r="D247" s="394"/>
+      <c r="C247" s="365"/>
+      <c r="D247" s="396"/>
       <c r="E247" s="224" t="s">
         <v>174</v>
       </c>
@@ -28373,8 +28398,8 @@
       </c>
     </row>
     <row r="248" spans="3:26">
-      <c r="C248" s="320"/>
-      <c r="D248" s="394"/>
+      <c r="C248" s="365"/>
+      <c r="D248" s="396"/>
       <c r="E248" s="224" t="s">
         <v>175</v>
       </c>
@@ -28403,10 +28428,14 @@
         <f>796-351-329</f>
         <v>116</v>
       </c>
+      <c r="Z248" s="18">
+        <f>(Y244+Y247)/Y242</f>
+        <v>0.70481927710843373</v>
+      </c>
     </row>
     <row r="249" spans="3:26" ht="14.25" thickBot="1">
-      <c r="C249" s="322"/>
-      <c r="D249" s="395"/>
+      <c r="C249" s="367"/>
+      <c r="D249" s="397"/>
       <c r="E249" s="225" t="s">
         <v>188</v>
       </c>
@@ -28471,36 +28500,36 @@
     </row>
     <row r="252" spans="3:26" ht="14.25" thickBot="1"/>
     <row r="253" spans="3:26">
-      <c r="C253" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D253" s="319"/>
+      <c r="C253" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="343"/>
       <c r="E253" s="296"/>
-      <c r="F253" s="318">
+      <c r="F253" s="342">
         <v>3</v>
       </c>
-      <c r="G253" s="330"/>
-      <c r="H253" s="330"/>
-      <c r="I253" s="330"/>
-      <c r="J253" s="330"/>
-      <c r="K253" s="330"/>
-      <c r="L253" s="330"/>
-      <c r="M253" s="330"/>
-      <c r="N253" s="330"/>
-      <c r="O253" s="330"/>
-      <c r="P253" s="330"/>
-      <c r="Q253" s="330"/>
-      <c r="R253" s="330"/>
-      <c r="S253" s="319"/>
-      <c r="T253" s="379" t="s">
+      <c r="G253" s="344"/>
+      <c r="H253" s="344"/>
+      <c r="I253" s="344"/>
+      <c r="J253" s="344"/>
+      <c r="K253" s="344"/>
+      <c r="L253" s="344"/>
+      <c r="M253" s="344"/>
+      <c r="N253" s="344"/>
+      <c r="O253" s="344"/>
+      <c r="P253" s="344"/>
+      <c r="Q253" s="344"/>
+      <c r="R253" s="344"/>
+      <c r="S253" s="343"/>
+      <c r="T253" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="254" spans="3:26">
-      <c r="C254" s="320" t="s">
+      <c r="C254" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D254" s="321"/>
+      <c r="D254" s="366"/>
       <c r="E254" s="78"/>
       <c r="F254" s="214">
         <f>S220+1</f>
@@ -28558,13 +28587,13 @@
         <f t="shared" ref="S254" si="141">R254+1</f>
         <v>44640</v>
       </c>
-      <c r="T254" s="380"/>
+      <c r="T254" s="382"/>
     </row>
     <row r="255" spans="3:26" ht="14.25" thickBot="1">
-      <c r="C255" s="396" t="s">
+      <c r="C255" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="397"/>
+      <c r="D255" s="394"/>
       <c r="E255" s="217"/>
       <c r="F255" s="218">
         <f t="shared" ref="F255:S255" si="142">WEEKDAY(F254)</f>
@@ -28622,13 +28651,13 @@
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
-      <c r="T255" s="380"/>
+      <c r="T255" s="382"/>
     </row>
     <row r="256" spans="3:26">
-      <c r="C256" s="318" t="s">
+      <c r="C256" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D256" s="393" t="s">
+      <c r="D256" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E256" s="223" t="s">
@@ -28654,8 +28683,8 @@
       </c>
     </row>
     <row r="257" spans="3:20">
-      <c r="C257" s="320"/>
-      <c r="D257" s="394"/>
+      <c r="C257" s="365"/>
+      <c r="D257" s="396"/>
       <c r="E257" s="224" t="s">
         <v>141</v>
       </c>
@@ -28679,8 +28708,8 @@
       </c>
     </row>
     <row r="258" spans="3:20">
-      <c r="C258" s="320"/>
-      <c r="D258" s="394"/>
+      <c r="C258" s="365"/>
+      <c r="D258" s="396"/>
       <c r="E258" s="224" t="s">
         <v>134</v>
       </c>
@@ -28704,8 +28733,8 @@
       </c>
     </row>
     <row r="259" spans="3:20">
-      <c r="C259" s="320"/>
-      <c r="D259" s="394"/>
+      <c r="C259" s="365"/>
+      <c r="D259" s="396"/>
       <c r="E259" s="224" t="s">
         <v>136</v>
       </c>
@@ -28729,8 +28758,8 @@
       </c>
     </row>
     <row r="260" spans="3:20">
-      <c r="C260" s="320"/>
-      <c r="D260" s="394"/>
+      <c r="C260" s="365"/>
+      <c r="D260" s="396"/>
       <c r="E260" s="224" t="s">
         <v>139</v>
       </c>
@@ -28754,8 +28783,8 @@
       </c>
     </row>
     <row r="261" spans="3:20">
-      <c r="C261" s="320"/>
-      <c r="D261" s="394"/>
+      <c r="C261" s="365"/>
+      <c r="D261" s="396"/>
       <c r="E261" s="224" t="s">
         <v>137</v>
       </c>
@@ -28779,8 +28808,8 @@
       </c>
     </row>
     <row r="262" spans="3:20">
-      <c r="C262" s="320"/>
-      <c r="D262" s="394"/>
+      <c r="C262" s="365"/>
+      <c r="D262" s="396"/>
       <c r="E262" s="224" t="s">
         <v>133</v>
       </c>
@@ -28804,8 +28833,8 @@
       </c>
     </row>
     <row r="263" spans="3:20">
-      <c r="C263" s="320"/>
-      <c r="D263" s="394"/>
+      <c r="C263" s="365"/>
+      <c r="D263" s="396"/>
       <c r="E263" s="224" t="s">
         <v>140</v>
       </c>
@@ -28829,8 +28858,8 @@
       </c>
     </row>
     <row r="264" spans="3:20">
-      <c r="C264" s="320"/>
-      <c r="D264" s="394"/>
+      <c r="C264" s="365"/>
+      <c r="D264" s="396"/>
       <c r="E264" s="224" t="s">
         <v>138</v>
       </c>
@@ -28854,8 +28883,8 @@
       </c>
     </row>
     <row r="265" spans="3:20">
-      <c r="C265" s="320"/>
-      <c r="D265" s="394"/>
+      <c r="C265" s="365"/>
+      <c r="D265" s="396"/>
       <c r="E265" s="224" t="s">
         <v>135</v>
       </c>
@@ -28879,8 +28908,8 @@
       </c>
     </row>
     <row r="266" spans="3:20">
-      <c r="C266" s="320"/>
-      <c r="D266" s="394"/>
+      <c r="C266" s="365"/>
+      <c r="D266" s="396"/>
       <c r="E266" s="224" t="s">
         <v>158</v>
       </c>
@@ -28904,8 +28933,8 @@
       </c>
     </row>
     <row r="267" spans="3:20">
-      <c r="C267" s="320"/>
-      <c r="D267" s="394"/>
+      <c r="C267" s="365"/>
+      <c r="D267" s="396"/>
       <c r="E267" s="224" t="s">
         <v>174</v>
       </c>
@@ -28929,8 +28958,8 @@
       </c>
     </row>
     <row r="268" spans="3:20">
-      <c r="C268" s="320"/>
-      <c r="D268" s="394"/>
+      <c r="C268" s="365"/>
+      <c r="D268" s="396"/>
       <c r="E268" s="224" t="s">
         <v>175</v>
       </c>
@@ -28954,8 +28983,8 @@
       </c>
     </row>
     <row r="269" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C269" s="320"/>
-      <c r="D269" s="395"/>
+      <c r="C269" s="365"/>
+      <c r="D269" s="397"/>
       <c r="E269" s="225" t="s">
         <v>188</v>
       </c>
@@ -29007,8 +29036,8 @@
       </c>
     </row>
     <row r="270" spans="3:20">
-      <c r="C270" s="320"/>
-      <c r="D270" s="393" t="s">
+      <c r="C270" s="365"/>
+      <c r="D270" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E270" s="223" t="s">
@@ -29034,8 +29063,8 @@
       </c>
     </row>
     <row r="271" spans="3:20">
-      <c r="C271" s="320"/>
-      <c r="D271" s="394"/>
+      <c r="C271" s="365"/>
+      <c r="D271" s="396"/>
       <c r="E271" s="224" t="s">
         <v>141</v>
       </c>
@@ -29059,8 +29088,8 @@
       </c>
     </row>
     <row r="272" spans="3:20">
-      <c r="C272" s="320"/>
-      <c r="D272" s="394"/>
+      <c r="C272" s="365"/>
+      <c r="D272" s="396"/>
       <c r="E272" s="224" t="s">
         <v>134</v>
       </c>
@@ -29084,8 +29113,8 @@
       </c>
     </row>
     <row r="273" spans="3:20">
-      <c r="C273" s="320"/>
-      <c r="D273" s="394"/>
+      <c r="C273" s="365"/>
+      <c r="D273" s="396"/>
       <c r="E273" s="224" t="s">
         <v>136</v>
       </c>
@@ -29109,8 +29138,8 @@
       </c>
     </row>
     <row r="274" spans="3:20">
-      <c r="C274" s="320"/>
-      <c r="D274" s="394"/>
+      <c r="C274" s="365"/>
+      <c r="D274" s="396"/>
       <c r="E274" s="224" t="s">
         <v>139</v>
       </c>
@@ -29134,8 +29163,8 @@
       </c>
     </row>
     <row r="275" spans="3:20">
-      <c r="C275" s="320"/>
-      <c r="D275" s="394"/>
+      <c r="C275" s="365"/>
+      <c r="D275" s="396"/>
       <c r="E275" s="224" t="s">
         <v>137</v>
       </c>
@@ -29159,8 +29188,8 @@
       </c>
     </row>
     <row r="276" spans="3:20">
-      <c r="C276" s="320"/>
-      <c r="D276" s="394"/>
+      <c r="C276" s="365"/>
+      <c r="D276" s="396"/>
       <c r="E276" s="224" t="s">
         <v>133</v>
       </c>
@@ -29184,8 +29213,8 @@
       </c>
     </row>
     <row r="277" spans="3:20">
-      <c r="C277" s="320"/>
-      <c r="D277" s="394"/>
+      <c r="C277" s="365"/>
+      <c r="D277" s="396"/>
       <c r="E277" s="224" t="s">
         <v>140</v>
       </c>
@@ -29209,8 +29238,8 @@
       </c>
     </row>
     <row r="278" spans="3:20">
-      <c r="C278" s="320"/>
-      <c r="D278" s="394"/>
+      <c r="C278" s="365"/>
+      <c r="D278" s="396"/>
       <c r="E278" s="224" t="s">
         <v>138</v>
       </c>
@@ -29234,8 +29263,8 @@
       </c>
     </row>
     <row r="279" spans="3:20">
-      <c r="C279" s="320"/>
-      <c r="D279" s="394"/>
+      <c r="C279" s="365"/>
+      <c r="D279" s="396"/>
       <c r="E279" s="224" t="s">
         <v>135</v>
       </c>
@@ -29259,8 +29288,8 @@
       </c>
     </row>
     <row r="280" spans="3:20">
-      <c r="C280" s="320"/>
-      <c r="D280" s="394"/>
+      <c r="C280" s="365"/>
+      <c r="D280" s="396"/>
       <c r="E280" s="224" t="s">
         <v>158</v>
       </c>
@@ -29284,8 +29313,8 @@
       </c>
     </row>
     <row r="281" spans="3:20">
-      <c r="C281" s="320"/>
-      <c r="D281" s="394"/>
+      <c r="C281" s="365"/>
+      <c r="D281" s="396"/>
       <c r="E281" s="224" t="s">
         <v>174</v>
       </c>
@@ -29309,8 +29338,8 @@
       </c>
     </row>
     <row r="282" spans="3:20">
-      <c r="C282" s="320"/>
-      <c r="D282" s="394"/>
+      <c r="C282" s="365"/>
+      <c r="D282" s="396"/>
       <c r="E282" s="224" t="s">
         <v>175</v>
       </c>
@@ -29334,8 +29363,8 @@
       </c>
     </row>
     <row r="283" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C283" s="322"/>
-      <c r="D283" s="395"/>
+      <c r="C283" s="367"/>
+      <c r="D283" s="397"/>
       <c r="E283" s="225" t="s">
         <v>188</v>
       </c>
@@ -29400,36 +29429,36 @@
     </row>
     <row r="286" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="287" spans="3:20">
-      <c r="C287" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="319"/>
+      <c r="C287" s="342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="343"/>
       <c r="E287" s="308"/>
-      <c r="F287" s="318">
+      <c r="F287" s="342">
         <v>3</v>
       </c>
-      <c r="G287" s="330"/>
-      <c r="H287" s="330"/>
-      <c r="I287" s="330"/>
-      <c r="J287" s="330"/>
-      <c r="K287" s="330"/>
-      <c r="L287" s="330"/>
-      <c r="M287" s="330"/>
-      <c r="N287" s="330"/>
-      <c r="O287" s="330"/>
-      <c r="P287" s="330"/>
-      <c r="Q287" s="330"/>
-      <c r="R287" s="330"/>
-      <c r="S287" s="319"/>
-      <c r="T287" s="379" t="s">
+      <c r="G287" s="344"/>
+      <c r="H287" s="344"/>
+      <c r="I287" s="344"/>
+      <c r="J287" s="344"/>
+      <c r="K287" s="344"/>
+      <c r="L287" s="344"/>
+      <c r="M287" s="344"/>
+      <c r="N287" s="344"/>
+      <c r="O287" s="344"/>
+      <c r="P287" s="344"/>
+      <c r="Q287" s="344"/>
+      <c r="R287" s="344"/>
+      <c r="S287" s="343"/>
+      <c r="T287" s="381" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="288" spans="3:20">
-      <c r="C288" s="320" t="s">
+      <c r="C288" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="D288" s="321"/>
+      <c r="D288" s="366"/>
       <c r="E288" s="78"/>
       <c r="F288" s="214">
         <f>S254+1</f>
@@ -29478,13 +29507,13 @@
       <c r="Q288" s="215"/>
       <c r="R288" s="226"/>
       <c r="S288" s="226"/>
-      <c r="T288" s="380"/>
+      <c r="T288" s="382"/>
     </row>
     <row r="289" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C289" s="396" t="s">
+      <c r="C289" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="D289" s="397"/>
+      <c r="D289" s="394"/>
       <c r="E289" s="217"/>
       <c r="F289" s="218">
         <f t="shared" ref="F289:P289" si="154">WEEKDAY(F288)</f>
@@ -29533,13 +29562,13 @@
       <c r="Q289" s="219"/>
       <c r="R289" s="227"/>
       <c r="S289" s="227"/>
-      <c r="T289" s="380"/>
+      <c r="T289" s="382"/>
     </row>
     <row r="290" spans="3:20">
-      <c r="C290" s="318" t="s">
+      <c r="C290" s="342" t="s">
         <v>176</v>
       </c>
-      <c r="D290" s="393" t="s">
+      <c r="D290" s="395" t="s">
         <v>115</v>
       </c>
       <c r="E290" s="223" t="s">
@@ -29565,8 +29594,8 @@
       </c>
     </row>
     <row r="291" spans="3:20">
-      <c r="C291" s="320"/>
-      <c r="D291" s="394"/>
+      <c r="C291" s="365"/>
+      <c r="D291" s="396"/>
       <c r="E291" s="224" t="s">
         <v>141</v>
       </c>
@@ -29590,8 +29619,8 @@
       </c>
     </row>
     <row r="292" spans="3:20">
-      <c r="C292" s="320"/>
-      <c r="D292" s="394"/>
+      <c r="C292" s="365"/>
+      <c r="D292" s="396"/>
       <c r="E292" s="224" t="s">
         <v>134</v>
       </c>
@@ -29615,8 +29644,8 @@
       </c>
     </row>
     <row r="293" spans="3:20">
-      <c r="C293" s="320"/>
-      <c r="D293" s="394"/>
+      <c r="C293" s="365"/>
+      <c r="D293" s="396"/>
       <c r="E293" s="224" t="s">
         <v>136</v>
       </c>
@@ -29640,8 +29669,8 @@
       </c>
     </row>
     <row r="294" spans="3:20">
-      <c r="C294" s="320"/>
-      <c r="D294" s="394"/>
+      <c r="C294" s="365"/>
+      <c r="D294" s="396"/>
       <c r="E294" s="224" t="s">
         <v>139</v>
       </c>
@@ -29665,8 +29694,8 @@
       </c>
     </row>
     <row r="295" spans="3:20">
-      <c r="C295" s="320"/>
-      <c r="D295" s="394"/>
+      <c r="C295" s="365"/>
+      <c r="D295" s="396"/>
       <c r="E295" s="224" t="s">
         <v>137</v>
       </c>
@@ -29690,8 +29719,8 @@
       </c>
     </row>
     <row r="296" spans="3:20">
-      <c r="C296" s="320"/>
-      <c r="D296" s="394"/>
+      <c r="C296" s="365"/>
+      <c r="D296" s="396"/>
       <c r="E296" s="224" t="s">
         <v>133</v>
       </c>
@@ -29715,8 +29744,8 @@
       </c>
     </row>
     <row r="297" spans="3:20">
-      <c r="C297" s="320"/>
-      <c r="D297" s="394"/>
+      <c r="C297" s="365"/>
+      <c r="D297" s="396"/>
       <c r="E297" s="224" t="s">
         <v>140</v>
       </c>
@@ -29740,8 +29769,8 @@
       </c>
     </row>
     <row r="298" spans="3:20">
-      <c r="C298" s="320"/>
-      <c r="D298" s="394"/>
+      <c r="C298" s="365"/>
+      <c r="D298" s="396"/>
       <c r="E298" s="224" t="s">
         <v>138</v>
       </c>
@@ -29765,8 +29794,8 @@
       </c>
     </row>
     <row r="299" spans="3:20">
-      <c r="C299" s="320"/>
-      <c r="D299" s="394"/>
+      <c r="C299" s="365"/>
+      <c r="D299" s="396"/>
       <c r="E299" s="224" t="s">
         <v>135</v>
       </c>
@@ -29790,8 +29819,8 @@
       </c>
     </row>
     <row r="300" spans="3:20">
-      <c r="C300" s="320"/>
-      <c r="D300" s="394"/>
+      <c r="C300" s="365"/>
+      <c r="D300" s="396"/>
       <c r="E300" s="224" t="s">
         <v>158</v>
       </c>
@@ -29815,8 +29844,8 @@
       </c>
     </row>
     <row r="301" spans="3:20">
-      <c r="C301" s="320"/>
-      <c r="D301" s="394"/>
+      <c r="C301" s="365"/>
+      <c r="D301" s="396"/>
       <c r="E301" s="224" t="s">
         <v>174</v>
       </c>
@@ -29840,8 +29869,8 @@
       </c>
     </row>
     <row r="302" spans="3:20">
-      <c r="C302" s="320"/>
-      <c r="D302" s="394"/>
+      <c r="C302" s="365"/>
+      <c r="D302" s="396"/>
       <c r="E302" s="224" t="s">
         <v>175</v>
       </c>
@@ -29865,8 +29894,8 @@
       </c>
     </row>
     <row r="303" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C303" s="320"/>
-      <c r="D303" s="395"/>
+      <c r="C303" s="365"/>
+      <c r="D303" s="397"/>
       <c r="E303" s="225" t="s">
         <v>188</v>
       </c>
@@ -29890,8 +29919,8 @@
       </c>
     </row>
     <row r="304" spans="3:20">
-      <c r="C304" s="320"/>
-      <c r="D304" s="393" t="s">
+      <c r="C304" s="365"/>
+      <c r="D304" s="395" t="s">
         <v>57</v>
       </c>
       <c r="E304" s="223" t="s">
@@ -29917,8 +29946,8 @@
       </c>
     </row>
     <row r="305" spans="3:20">
-      <c r="C305" s="320"/>
-      <c r="D305" s="394"/>
+      <c r="C305" s="365"/>
+      <c r="D305" s="396"/>
       <c r="E305" s="224" t="s">
         <v>141</v>
       </c>
@@ -29942,8 +29971,8 @@
       </c>
     </row>
     <row r="306" spans="3:20">
-      <c r="C306" s="320"/>
-      <c r="D306" s="394"/>
+      <c r="C306" s="365"/>
+      <c r="D306" s="396"/>
       <c r="E306" s="224" t="s">
         <v>134</v>
       </c>
@@ -29967,8 +29996,8 @@
       </c>
     </row>
     <row r="307" spans="3:20">
-      <c r="C307" s="320"/>
-      <c r="D307" s="394"/>
+      <c r="C307" s="365"/>
+      <c r="D307" s="396"/>
       <c r="E307" s="224" t="s">
         <v>136</v>
       </c>
@@ -29992,8 +30021,8 @@
       </c>
     </row>
     <row r="308" spans="3:20">
-      <c r="C308" s="320"/>
-      <c r="D308" s="394"/>
+      <c r="C308" s="365"/>
+      <c r="D308" s="396"/>
       <c r="E308" s="224" t="s">
         <v>139</v>
       </c>
@@ -30017,8 +30046,8 @@
       </c>
     </row>
     <row r="309" spans="3:20">
-      <c r="C309" s="320"/>
-      <c r="D309" s="394"/>
+      <c r="C309" s="365"/>
+      <c r="D309" s="396"/>
       <c r="E309" s="224" t="s">
         <v>137</v>
       </c>
@@ -30042,8 +30071,8 @@
       </c>
     </row>
     <row r="310" spans="3:20">
-      <c r="C310" s="320"/>
-      <c r="D310" s="394"/>
+      <c r="C310" s="365"/>
+      <c r="D310" s="396"/>
       <c r="E310" s="224" t="s">
         <v>133</v>
       </c>
@@ -30067,8 +30096,8 @@
       </c>
     </row>
     <row r="311" spans="3:20">
-      <c r="C311" s="320"/>
-      <c r="D311" s="394"/>
+      <c r="C311" s="365"/>
+      <c r="D311" s="396"/>
       <c r="E311" s="224" t="s">
         <v>140</v>
       </c>
@@ -30092,8 +30121,8 @@
       </c>
     </row>
     <row r="312" spans="3:20">
-      <c r="C312" s="320"/>
-      <c r="D312" s="394"/>
+      <c r="C312" s="365"/>
+      <c r="D312" s="396"/>
       <c r="E312" s="224" t="s">
         <v>138</v>
       </c>
@@ -30117,8 +30146,8 @@
       </c>
     </row>
     <row r="313" spans="3:20">
-      <c r="C313" s="320"/>
-      <c r="D313" s="394"/>
+      <c r="C313" s="365"/>
+      <c r="D313" s="396"/>
       <c r="E313" s="224" t="s">
         <v>135</v>
       </c>
@@ -30142,8 +30171,8 @@
       </c>
     </row>
     <row r="314" spans="3:20">
-      <c r="C314" s="320"/>
-      <c r="D314" s="394"/>
+      <c r="C314" s="365"/>
+      <c r="D314" s="396"/>
       <c r="E314" s="224" t="s">
         <v>158</v>
       </c>
@@ -30167,8 +30196,8 @@
       </c>
     </row>
     <row r="315" spans="3:20">
-      <c r="C315" s="320"/>
-      <c r="D315" s="394"/>
+      <c r="C315" s="365"/>
+      <c r="D315" s="396"/>
       <c r="E315" s="224" t="s">
         <v>174</v>
       </c>
@@ -30192,8 +30221,8 @@
       </c>
     </row>
     <row r="316" spans="3:20">
-      <c r="C316" s="320"/>
-      <c r="D316" s="394"/>
+      <c r="C316" s="365"/>
+      <c r="D316" s="396"/>
       <c r="E316" s="224" t="s">
         <v>175</v>
       </c>
@@ -30217,8 +30246,8 @@
       </c>
     </row>
     <row r="317" spans="3:20" ht="14.25" thickBot="1">
-      <c r="C317" s="322"/>
-      <c r="D317" s="395"/>
+      <c r="C317" s="367"/>
+      <c r="D317" s="397"/>
       <c r="E317" s="225" t="s">
         <v>188</v>
       </c>
@@ -30243,6 +30272,84 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="C290:C317"/>
+    <mergeCell ref="D290:D303"/>
+    <mergeCell ref="D304:D317"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="F287:S287"/>
+    <mergeCell ref="T287:T289"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="Q6:Y6"/>
+    <mergeCell ref="C256:C283"/>
+    <mergeCell ref="D256:D269"/>
+    <mergeCell ref="D270:D283"/>
+    <mergeCell ref="F253:S253"/>
+    <mergeCell ref="Q7:Y7"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="T253:T255"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C126:C153"/>
+    <mergeCell ref="D126:D139"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F59:S59"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C222:C249"/>
+    <mergeCell ref="D222:D235"/>
+    <mergeCell ref="D236:D249"/>
+    <mergeCell ref="F219:M219"/>
+    <mergeCell ref="N219:S219"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="D44:D57"/>
+    <mergeCell ref="C30:C57"/>
+    <mergeCell ref="T155:T157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="K91:S91"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="T123:T125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="T91:T93"/>
+    <mergeCell ref="F155:M155"/>
+    <mergeCell ref="N155:S155"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="T219:T221"/>
@@ -30267,84 +30374,6 @@
     <mergeCell ref="D62:D75"/>
     <mergeCell ref="D76:D89"/>
     <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C222:C249"/>
-    <mergeCell ref="D222:D235"/>
-    <mergeCell ref="D236:D249"/>
-    <mergeCell ref="F219:M219"/>
-    <mergeCell ref="N219:S219"/>
-    <mergeCell ref="D30:D43"/>
-    <mergeCell ref="D44:D57"/>
-    <mergeCell ref="C30:C57"/>
-    <mergeCell ref="T155:T157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="K91:S91"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="T123:T125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D107"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="T91:T93"/>
-    <mergeCell ref="F155:M155"/>
-    <mergeCell ref="N155:S155"/>
-    <mergeCell ref="C126:C153"/>
-    <mergeCell ref="D126:D139"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F59:S59"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I27:S27"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C290:C317"/>
-    <mergeCell ref="D290:D303"/>
-    <mergeCell ref="D304:D317"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="F287:S287"/>
-    <mergeCell ref="T287:T289"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="C289:D289"/>
-    <mergeCell ref="Q6:Y6"/>
-    <mergeCell ref="C256:C283"/>
-    <mergeCell ref="D256:D269"/>
-    <mergeCell ref="D270:D283"/>
-    <mergeCell ref="F253:S253"/>
-    <mergeCell ref="Q7:Y7"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="T253:T255"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J10 J13:J24">
